--- a/ReportDefs-TIMES-GEO.xlsx
+++ b/ReportDefs-TIMES-GEO.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\TIMES-GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1CB2CA-B097-409B-A990-D34E9158D926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F185346-FEF2-41C3-9A02-AA88A9309521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
     <sheet name="TS_Defs" sheetId="27" r:id="rId2"/>
     <sheet name="TS ratios" sheetId="68" r:id="rId3"/>
-    <sheet name="varbl map" sheetId="64" r:id="rId4"/>
-    <sheet name="process map" sheetId="65" r:id="rId5"/>
-    <sheet name="commodity map" sheetId="67" r:id="rId6"/>
-    <sheet name="ATS" sheetId="63" r:id="rId7"/>
-    <sheet name="UnitConv" sheetId="59" r:id="rId8"/>
+    <sheet name="sankey" sheetId="71" r:id="rId4"/>
+    <sheet name="varbl map" sheetId="64" r:id="rId5"/>
+    <sheet name="cset map" sheetId="70" r:id="rId6"/>
+    <sheet name="pset map" sheetId="69" r:id="rId7"/>
+    <sheet name="process map" sheetId="65" r:id="rId8"/>
+    <sheet name="commodity map" sheetId="67" r:id="rId9"/>
+    <sheet name="ATS" sheetId="63" r:id="rId10"/>
+    <sheet name="UnitConv" sheetId="59" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TS_Defs!$A$2:$N$2</definedName>
@@ -102,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="524">
   <si>
     <t>Unit</t>
   </si>
@@ -335,9 +338,6 @@
     <t>%</t>
   </si>
   <si>
-    <t>Osemosys</t>
-  </si>
-  <si>
     <t>g/kWh</t>
   </si>
   <si>
@@ -1587,6 +1587,96 @@
   </si>
   <si>
     <t>CAN</t>
+  </si>
+  <si>
+    <t>~cset_map</t>
+  </si>
+  <si>
+    <t>Cset</t>
+  </si>
+  <si>
+    <t>Pset</t>
+  </si>
+  <si>
+    <t>~Pset_Map</t>
+  </si>
+  <si>
+    <t>T_neg_andor</t>
+  </si>
+  <si>
+    <t>&lt;cset&gt;_snk_&lt;pset&gt;</t>
+  </si>
+  <si>
+    <t>&lt;cset&gt;_src_&lt;pset&gt;</t>
+  </si>
+  <si>
+    <t>~TS_Defs: Snk_attr=SANKEY_Allsectors</t>
+  </si>
+  <si>
+    <t>TIMES-GEO</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>Imports</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>Primary production</t>
+  </si>
+  <si>
+    <t>U-DD</t>
+  </si>
+  <si>
+    <t>Upstream Domestic Delivert Technologies</t>
+  </si>
+  <si>
+    <t>U-TRF</t>
+  </si>
+  <si>
+    <t>Upstream Transformation Technologies</t>
+  </si>
+  <si>
+    <t>U-H2P</t>
+  </si>
+  <si>
+    <t>Hydrogen production</t>
+  </si>
+  <si>
+    <t>U-H2C</t>
+  </si>
+  <si>
+    <t>Hydrogen conversion</t>
+  </si>
+  <si>
+    <t>U-H2S</t>
+  </si>
+  <si>
+    <t>Hydrogen storage</t>
+  </si>
+  <si>
+    <t>U-H2D</t>
+  </si>
+  <si>
+    <t>Hydrogen delivery</t>
+  </si>
+  <si>
+    <t>P-HPL</t>
+  </si>
+  <si>
+    <t>Heating Plants</t>
+  </si>
+  <si>
+    <t>Power Plants</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Transport</t>
   </si>
 </sst>
 </file>
@@ -1598,7 +1688,7 @@
     <numFmt numFmtId="165" formatCode="#.00"/>
     <numFmt numFmtId="166" formatCode="#."/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1710,6 +1800,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1725,7 +1826,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1748,6 +1849,80 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1775,24 +1950,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="17"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="18"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="16"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="17"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Date" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Fixed" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Heading 2" xfId="17" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="18" builtinId="18"/>
+    <cellStyle name="Heading 2" xfId="16" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="17" builtinId="18"/>
     <cellStyle name="Heading1" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Heading2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1805,9 +2004,9 @@
     <cellStyle name="Normal 3 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="Normal 3 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Normal 4" xfId="13" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="14" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Percent 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="16" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normale_Foglio2" xfId="18" xr:uid="{35971680-CF95-4E63-8583-B9F5C5CEEFF9}"/>
+    <cellStyle name="Percent 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="15" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2128,27 +2327,27 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" t="s">
         <v>94</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>95</v>
-      </c>
-      <c r="J1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:22">
       <c r="H2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" t="s">
         <v>97</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>98</v>
-      </c>
-      <c r="J2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -2188,13 +2387,13 @@
         <v>sg_DiscRate</v>
       </c>
       <c r="O5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P5" t="s">
         <v>31</v>
       </c>
       <c r="Q5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T5" t="str">
         <f>H1&amp;"-"&amp;O6</f>
@@ -2241,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q6">
         <v>0.1</v>
@@ -2291,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q7">
         <v>7.4999999999999997E-2</v>
@@ -2341,7 +2540,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q8">
         <v>0.05</v>
@@ -2391,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q9">
         <v>0.02</v>
@@ -2441,7 +2640,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q10">
         <v>0.01</v>
@@ -2491,7 +2690,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q11">
         <v>0.1</v>
@@ -2541,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q12">
         <v>7.4999999999999997E-2</v>
@@ -2591,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q13">
         <v>0.05</v>
@@ -2641,7 +2840,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q14">
         <v>0.02</v>
@@ -2691,7 +2890,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q15">
         <v>0.01</v>
@@ -2741,7 +2940,7 @@
         <v>5</v>
       </c>
       <c r="P16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q16">
         <v>0.1</v>
@@ -2791,7 +2990,7 @@
         <v>5</v>
       </c>
       <c r="P17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q17">
         <v>7.4999999999999997E-2</v>
@@ -2841,7 +3040,7 @@
         <v>5</v>
       </c>
       <c r="P18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q18">
         <v>0.05</v>
@@ -2891,7 +3090,7 @@
         <v>5</v>
       </c>
       <c r="P19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q19">
         <v>0.02</v>
@@ -2941,7 +3140,7 @@
         <v>5</v>
       </c>
       <c r="P20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q20">
         <v>0.01</v>
@@ -2991,7 +3190,7 @@
         <v>5</v>
       </c>
       <c r="P21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q21">
         <v>0.1</v>
@@ -3041,7 +3240,7 @@
         <v>5</v>
       </c>
       <c r="P22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q22">
         <v>7.4999999999999997E-2</v>
@@ -3091,7 +3290,7 @@
         <v>5</v>
       </c>
       <c r="P23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q23">
         <v>0.05</v>
@@ -3141,7 +3340,7 @@
         <v>5</v>
       </c>
       <c r="P24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q24">
         <v>0.02</v>
@@ -3191,7 +3390,7 @@
         <v>5</v>
       </c>
       <c r="P25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q25">
         <v>0.01</v>
@@ -3212,6 +3411,2102 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="4" max="4" width="10.86328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="F3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Sheet31"/>
+  <dimension ref="A1:M178"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="17.25" thickBot="1">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" thickTop="1" thickBot="1">
+      <c r="A3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <f>1/31.536</f>
+        <v>3.1709791983764585E-2</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>502</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4">
+        <f>100/31.536</f>
+        <v>3.1709791983764584</v>
+      </c>
+      <c r="K4" t="s">
+        <v>326</v>
+      </c>
+      <c r="L4">
+        <v>36.779029999999999</v>
+      </c>
+      <c r="M4">
+        <v>69.949081000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5">
+        <f>3.6</f>
+        <v>3.6</v>
+      </c>
+      <c r="K5" t="s">
+        <v>327</v>
+      </c>
+      <c r="L5">
+        <v>-8.8383000000000003</v>
+      </c>
+      <c r="M5">
+        <v>13.234400000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>502</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="K6" t="s">
+        <v>328</v>
+      </c>
+      <c r="L6">
+        <v>41.327500000000001</v>
+      </c>
+      <c r="M6">
+        <v>19.818899999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>502</v>
+      </c>
+      <c r="B7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L7">
+        <v>25.23</v>
+      </c>
+      <c r="M7">
+        <v>55.28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="K8" t="s">
+        <v>330</v>
+      </c>
+      <c r="L8">
+        <v>-34.602499999999999</v>
+      </c>
+      <c r="M8">
+        <v>-58.397500000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="K9" t="s">
+        <v>331</v>
+      </c>
+      <c r="L9">
+        <v>40.181199999999997</v>
+      </c>
+      <c r="M9">
+        <v>44.513599999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="K10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10">
+        <v>-12.4254</v>
+      </c>
+      <c r="M10">
+        <v>130.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="K11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11">
+        <v>-27.454999999999998</v>
+      </c>
+      <c r="M11">
+        <v>153.0351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="K12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12">
+        <v>-34.935000000000002</v>
+      </c>
+      <c r="M12">
+        <v>138.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="K13" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13">
+        <v>-33.92</v>
+      </c>
+      <c r="M13">
+        <v>151.18520000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="K14" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14">
+        <v>-42.85</v>
+      </c>
+      <c r="M14">
+        <v>147.29499999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="K15" t="s">
+        <v>84</v>
+      </c>
+      <c r="L15">
+        <v>-37.82</v>
+      </c>
+      <c r="M15">
+        <v>144.97499999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="K16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16">
+        <v>-31.954999999999998</v>
+      </c>
+      <c r="M16">
+        <v>115.84</v>
+      </c>
+    </row>
+    <row r="17" spans="11:13">
+      <c r="K17" t="s">
+        <v>332</v>
+      </c>
+      <c r="L17">
+        <v>48.2</v>
+      </c>
+      <c r="M17">
+        <v>16.366599999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="11:13">
+      <c r="K18" t="s">
+        <v>333</v>
+      </c>
+      <c r="L18">
+        <v>40.395299999999999</v>
+      </c>
+      <c r="M18">
+        <v>49.862200000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="11:13">
+      <c r="K19" t="s">
+        <v>334</v>
+      </c>
+      <c r="L19">
+        <v>-3.3761000000000001</v>
+      </c>
+      <c r="M19">
+        <v>29.36</v>
+      </c>
+    </row>
+    <row r="20" spans="11:13">
+      <c r="K20" t="s">
+        <v>335</v>
+      </c>
+      <c r="L20">
+        <v>50.833300000000001</v>
+      </c>
+      <c r="M20">
+        <v>4.3333000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="11:13">
+      <c r="K21" t="s">
+        <v>336</v>
+      </c>
+      <c r="L21">
+        <v>7.1904000000000003</v>
+      </c>
+      <c r="M21">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="22" spans="11:13">
+      <c r="K22" t="s">
+        <v>337</v>
+      </c>
+      <c r="L22">
+        <v>12.3703</v>
+      </c>
+      <c r="M22">
+        <v>-1.5246999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="11:13">
+      <c r="K23" t="s">
+        <v>338</v>
+      </c>
+      <c r="L23">
+        <v>23.723099999999999</v>
+      </c>
+      <c r="M23">
+        <v>90.408600000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="11:13">
+      <c r="K24" t="s">
+        <v>339</v>
+      </c>
+      <c r="L24">
+        <v>42.683300000000003</v>
+      </c>
+      <c r="M24">
+        <v>23.316700000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="11:13">
+      <c r="K25" t="s">
+        <v>340</v>
+      </c>
+      <c r="L25">
+        <v>26.2361</v>
+      </c>
+      <c r="M25">
+        <v>50.583100000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="11:13">
+      <c r="K26" t="s">
+        <v>341</v>
+      </c>
+      <c r="L26">
+        <v>43.85</v>
+      </c>
+      <c r="M26">
+        <v>18.382999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="11:13">
+      <c r="K27" t="s">
+        <v>342</v>
+      </c>
+      <c r="L27">
+        <v>53.9</v>
+      </c>
+      <c r="M27">
+        <v>27.566600000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="11:13">
+      <c r="K28" t="s">
+        <v>343</v>
+      </c>
+      <c r="L28">
+        <v>17.498699999999999</v>
+      </c>
+      <c r="M28">
+        <v>-88.188400000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="11:13">
+      <c r="K29" t="s">
+        <v>344</v>
+      </c>
+      <c r="L29">
+        <v>-17.753900000000002</v>
+      </c>
+      <c r="M29">
+        <v>-63.225999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="11:13">
+      <c r="K30" t="s">
+        <v>491</v>
+      </c>
+      <c r="L30">
+        <v>-1.45</v>
+      </c>
+      <c r="M30">
+        <v>-48.48</v>
+      </c>
+    </row>
+    <row r="31" spans="11:13">
+      <c r="K31" t="s">
+        <v>345</v>
+      </c>
+      <c r="L31">
+        <v>4.8833000000000002</v>
+      </c>
+      <c r="M31">
+        <v>114.9333</v>
+      </c>
+    </row>
+    <row r="32" spans="11:13">
+      <c r="K32" t="s">
+        <v>346</v>
+      </c>
+      <c r="L32">
+        <v>27.472999999999999</v>
+      </c>
+      <c r="M32">
+        <v>89.638999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="11:13">
+      <c r="K33" t="s">
+        <v>347</v>
+      </c>
+      <c r="L33">
+        <v>-24.6463</v>
+      </c>
+      <c r="M33">
+        <v>25.911899999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="11:13">
+      <c r="K34" t="s">
+        <v>348</v>
+      </c>
+      <c r="L34">
+        <v>4.3666</v>
+      </c>
+      <c r="M34">
+        <v>18.558299999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="11:13">
+      <c r="K35" t="s">
+        <v>493</v>
+      </c>
+      <c r="L35">
+        <v>43.7</v>
+      </c>
+      <c r="M35">
+        <v>-79.42</v>
+      </c>
+    </row>
+    <row r="36" spans="11:13">
+      <c r="K36" t="s">
+        <v>349</v>
+      </c>
+      <c r="L36">
+        <v>47.38</v>
+      </c>
+      <c r="M36">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="37" spans="11:13">
+      <c r="K37" t="s">
+        <v>350</v>
+      </c>
+      <c r="L37">
+        <v>-33.450000000000003</v>
+      </c>
+      <c r="M37">
+        <v>-70.667000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="11:13">
+      <c r="K38" t="s">
+        <v>492</v>
+      </c>
+      <c r="L38">
+        <v>39.928899999999999</v>
+      </c>
+      <c r="M38">
+        <v>116.3883</v>
+      </c>
+    </row>
+    <row r="39" spans="11:13">
+      <c r="K39" t="s">
+        <v>351</v>
+      </c>
+      <c r="L39">
+        <v>5.32</v>
+      </c>
+      <c r="M39">
+        <v>-4.04</v>
+      </c>
+    </row>
+    <row r="40" spans="11:13">
+      <c r="K40" t="s">
+        <v>352</v>
+      </c>
+      <c r="L40">
+        <v>3.8666999999999998</v>
+      </c>
+      <c r="M40">
+        <v>11.5167</v>
+      </c>
+    </row>
+    <row r="41" spans="11:13">
+      <c r="K41" t="s">
+        <v>353</v>
+      </c>
+      <c r="L41">
+        <v>-4.3296999999999999</v>
+      </c>
+      <c r="M41">
+        <v>15.315</v>
+      </c>
+    </row>
+    <row r="42" spans="11:13">
+      <c r="K42" t="s">
+        <v>354</v>
+      </c>
+      <c r="L42">
+        <v>-4.2591999999999999</v>
+      </c>
+      <c r="M42">
+        <v>15.284700000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="11:13">
+      <c r="K43" t="s">
+        <v>355</v>
+      </c>
+      <c r="L43">
+        <v>4.5964</v>
+      </c>
+      <c r="M43">
+        <v>-74.083299999999994</v>
+      </c>
+    </row>
+    <row r="44" spans="11:13">
+      <c r="K44" t="s">
+        <v>356</v>
+      </c>
+      <c r="L44">
+        <v>9.9347390000000004</v>
+      </c>
+      <c r="M44">
+        <v>-84.087502000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="11:13">
+      <c r="K45" t="s">
+        <v>357</v>
+      </c>
+      <c r="L45">
+        <v>23.132000000000001</v>
+      </c>
+      <c r="M45">
+        <v>-82.364199999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="11:13">
+      <c r="K46" t="s">
+        <v>358</v>
+      </c>
+      <c r="L46">
+        <v>35.166699999999999</v>
+      </c>
+      <c r="M46">
+        <v>33.366599999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="11:13">
+      <c r="K47" t="s">
+        <v>359</v>
+      </c>
+      <c r="L47">
+        <v>50.083300000000001</v>
+      </c>
+      <c r="M47">
+        <v>14.465999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="11:13">
+      <c r="K48" t="s">
+        <v>360</v>
+      </c>
+      <c r="L48">
+        <v>52.521799999999999</v>
+      </c>
+      <c r="M48">
+        <v>13.4015</v>
+      </c>
+    </row>
+    <row r="49" spans="11:13">
+      <c r="K49" t="s">
+        <v>361</v>
+      </c>
+      <c r="L49">
+        <v>11.595000000000001</v>
+      </c>
+      <c r="M49">
+        <v>43.148000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="11:13">
+      <c r="K50" t="s">
+        <v>362</v>
+      </c>
+      <c r="L50">
+        <v>55.678600000000003</v>
+      </c>
+      <c r="M50">
+        <v>12.563499999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="11:13">
+      <c r="K51" t="s">
+        <v>363</v>
+      </c>
+      <c r="L51">
+        <v>18.470099999999999</v>
+      </c>
+      <c r="M51">
+        <v>-69.900099999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="11:13">
+      <c r="K52" t="s">
+        <v>364</v>
+      </c>
+      <c r="L52">
+        <v>36.763100000000001</v>
+      </c>
+      <c r="M52">
+        <v>3.0506000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="11:13">
+      <c r="K53" t="s">
+        <v>365</v>
+      </c>
+      <c r="L53">
+        <v>-2.2200000000000002</v>
+      </c>
+      <c r="M53">
+        <v>-79.92</v>
+      </c>
+    </row>
+    <row r="54" spans="11:13">
+      <c r="K54" t="s">
+        <v>366</v>
+      </c>
+      <c r="L54">
+        <v>30.05</v>
+      </c>
+      <c r="M54">
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="55" spans="11:13">
+      <c r="K55" t="s">
+        <v>367</v>
+      </c>
+      <c r="L55">
+        <v>15.333299999999999</v>
+      </c>
+      <c r="M55">
+        <v>38.933300000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="11:13">
+      <c r="K56" t="s">
+        <v>368</v>
+      </c>
+      <c r="L56">
+        <v>27.15</v>
+      </c>
+      <c r="M56">
+        <v>-13.1991</v>
+      </c>
+    </row>
+    <row r="57" spans="11:13">
+      <c r="K57" t="s">
+        <v>369</v>
+      </c>
+      <c r="L57">
+        <v>40.4</v>
+      </c>
+      <c r="M57">
+        <v>-3.6833999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="11:13">
+      <c r="K58" t="s">
+        <v>370</v>
+      </c>
+      <c r="L58">
+        <v>59.436962000000001</v>
+      </c>
+      <c r="M58">
+        <v>24.753574</v>
+      </c>
+    </row>
+    <row r="59" spans="11:13">
+      <c r="K59" t="s">
+        <v>371</v>
+      </c>
+      <c r="L59">
+        <v>13.5</v>
+      </c>
+      <c r="M59">
+        <v>39.47</v>
+      </c>
+    </row>
+    <row r="60" spans="11:13">
+      <c r="K60" t="s">
+        <v>372</v>
+      </c>
+      <c r="L60">
+        <v>60.175600000000003</v>
+      </c>
+      <c r="M60">
+        <v>24.934100000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="11:13">
+      <c r="K61" t="s">
+        <v>373</v>
+      </c>
+      <c r="L61">
+        <v>48.866700000000002</v>
+      </c>
+      <c r="M61">
+        <v>2.3332999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="11:13">
+      <c r="K62" t="s">
+        <v>374</v>
+      </c>
+      <c r="L62">
+        <v>0.38540000000000002</v>
+      </c>
+      <c r="M62">
+        <v>9.4580000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="11:13">
+      <c r="K63" t="s">
+        <v>375</v>
+      </c>
+      <c r="L63">
+        <v>51.5</v>
+      </c>
+      <c r="M63">
+        <v>-0.1167</v>
+      </c>
+    </row>
+    <row r="64" spans="11:13">
+      <c r="K64" t="s">
+        <v>376</v>
+      </c>
+      <c r="L64">
+        <v>41.725000000000001</v>
+      </c>
+      <c r="M64">
+        <v>44.790799999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="11:13">
+      <c r="K65" t="s">
+        <v>377</v>
+      </c>
+      <c r="L65">
+        <v>6.69</v>
+      </c>
+      <c r="M65">
+        <v>-1.63</v>
+      </c>
+    </row>
+    <row r="66" spans="11:13">
+      <c r="K66" t="s">
+        <v>378</v>
+      </c>
+      <c r="L66">
+        <v>9.5314999999999994</v>
+      </c>
+      <c r="M66">
+        <v>-13.680199999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="11:13">
+      <c r="K67" t="s">
+        <v>379</v>
+      </c>
+      <c r="L67">
+        <v>13.448395</v>
+      </c>
+      <c r="M67">
+        <v>-16.685143</v>
+      </c>
+    </row>
+    <row r="68" spans="11:13">
+      <c r="K68" t="s">
+        <v>380</v>
+      </c>
+      <c r="L68">
+        <v>11.865</v>
+      </c>
+      <c r="M68">
+        <v>-15.5984</v>
+      </c>
+    </row>
+    <row r="69" spans="11:13">
+      <c r="K69" t="s">
+        <v>381</v>
+      </c>
+      <c r="L69">
+        <v>1.87</v>
+      </c>
+      <c r="M69">
+        <v>9.77</v>
+      </c>
+    </row>
+    <row r="70" spans="11:13">
+      <c r="K70" t="s">
+        <v>382</v>
+      </c>
+      <c r="L70">
+        <v>37.9833</v>
+      </c>
+      <c r="M70">
+        <v>23.7333</v>
+      </c>
+    </row>
+    <row r="71" spans="11:13">
+      <c r="K71" t="s">
+        <v>383</v>
+      </c>
+      <c r="L71">
+        <v>60.270832249999998</v>
+      </c>
+      <c r="M71">
+        <v>-44.720830450000001</v>
+      </c>
+    </row>
+    <row r="72" spans="11:13">
+      <c r="K72" t="s">
+        <v>384</v>
+      </c>
+      <c r="L72">
+        <v>14.6211</v>
+      </c>
+      <c r="M72">
+        <v>-90.527000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="11:13">
+      <c r="K73" t="s">
+        <v>385</v>
+      </c>
+      <c r="L73">
+        <v>4.9223999999999997</v>
+      </c>
+      <c r="M73">
+        <v>-52.313499999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="11:13">
+      <c r="K74" t="s">
+        <v>386</v>
+      </c>
+      <c r="L74">
+        <v>6.8019999999999996</v>
+      </c>
+      <c r="M74">
+        <v>-58.167000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="11:13">
+      <c r="K75" t="s">
+        <v>387</v>
+      </c>
+      <c r="L75">
+        <v>14.102</v>
+      </c>
+      <c r="M75">
+        <v>-87.217500000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="11:13">
+      <c r="K76" t="s">
+        <v>388</v>
+      </c>
+      <c r="L76">
+        <v>45.8</v>
+      </c>
+      <c r="M76">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="11:13">
+      <c r="K77" t="s">
+        <v>389</v>
+      </c>
+      <c r="L77">
+        <v>18.533332999999999</v>
+      </c>
+      <c r="M77">
+        <v>-72.333336000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="11:13">
+      <c r="K78" t="s">
+        <v>390</v>
+      </c>
+      <c r="L78">
+        <v>47.5</v>
+      </c>
+      <c r="M78">
+        <v>19.083300000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="11:13">
+      <c r="K79" t="s">
+        <v>391</v>
+      </c>
+      <c r="L79">
+        <v>-6.1744000000000003</v>
+      </c>
+      <c r="M79">
+        <v>106.82940000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="11:13">
+      <c r="K80" t="s">
+        <v>487</v>
+      </c>
+      <c r="L80">
+        <v>28.67</v>
+      </c>
+      <c r="M80">
+        <v>77.23</v>
+      </c>
+    </row>
+    <row r="81" spans="11:13">
+      <c r="K81" t="s">
+        <v>392</v>
+      </c>
+      <c r="L81">
+        <v>53.333100000000002</v>
+      </c>
+      <c r="M81">
+        <v>-6.2488999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="11:13">
+      <c r="K82" t="s">
+        <v>393</v>
+      </c>
+      <c r="L82">
+        <v>35.671900000000001</v>
+      </c>
+      <c r="M82">
+        <v>51.424300000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="11:13">
+      <c r="K83" t="s">
+        <v>394</v>
+      </c>
+      <c r="L83">
+        <v>33.3386</v>
+      </c>
+      <c r="M83">
+        <v>44.393900000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="11:13">
+      <c r="K84" t="s">
+        <v>395</v>
+      </c>
+      <c r="L84">
+        <v>64.150000000000006</v>
+      </c>
+      <c r="M84">
+        <v>-21.95</v>
+      </c>
+    </row>
+    <row r="85" spans="11:13">
+      <c r="K85" t="s">
+        <v>396</v>
+      </c>
+      <c r="L85">
+        <v>32.08</v>
+      </c>
+      <c r="M85">
+        <v>34.770000000000003</v>
+      </c>
+    </row>
+    <row r="86" spans="11:13">
+      <c r="K86" t="s">
+        <v>397</v>
+      </c>
+      <c r="L86">
+        <v>41.896000000000001</v>
+      </c>
+      <c r="M86">
+        <v>12.4833</v>
+      </c>
+    </row>
+    <row r="87" spans="11:13">
+      <c r="K87" t="s">
+        <v>398</v>
+      </c>
+      <c r="L87">
+        <v>17.9771</v>
+      </c>
+      <c r="M87">
+        <v>-76.767399999999995</v>
+      </c>
+    </row>
+    <row r="88" spans="11:13">
+      <c r="K88" t="s">
+        <v>399</v>
+      </c>
+      <c r="L88">
+        <v>31.95</v>
+      </c>
+      <c r="M88">
+        <v>35.933300000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="11:13">
+      <c r="K89" t="s">
+        <v>488</v>
+      </c>
+      <c r="L89">
+        <v>35.685000000000002</v>
+      </c>
+      <c r="M89">
+        <v>139.75139999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="11:13">
+      <c r="K90" t="s">
+        <v>400</v>
+      </c>
+      <c r="L90">
+        <v>43.325000000000003</v>
+      </c>
+      <c r="M90">
+        <v>76.915000000000006</v>
+      </c>
+    </row>
+    <row r="91" spans="11:13">
+      <c r="K91" t="s">
+        <v>401</v>
+      </c>
+      <c r="L91">
+        <v>-1.2833000000000001</v>
+      </c>
+      <c r="M91">
+        <v>36.816699999999997</v>
+      </c>
+    </row>
+    <row r="92" spans="11:13">
+      <c r="K92" t="s">
+        <v>402</v>
+      </c>
+      <c r="L92">
+        <v>42.873100000000001</v>
+      </c>
+      <c r="M92">
+        <v>74.5852</v>
+      </c>
+    </row>
+    <row r="93" spans="11:13">
+      <c r="K93" t="s">
+        <v>403</v>
+      </c>
+      <c r="L93">
+        <v>11.55</v>
+      </c>
+      <c r="M93">
+        <v>104.9166</v>
+      </c>
+    </row>
+    <row r="94" spans="11:13">
+      <c r="K94" t="s">
+        <v>404</v>
+      </c>
+      <c r="L94">
+        <v>37.566299999999998</v>
+      </c>
+      <c r="M94">
+        <v>126.9997</v>
+      </c>
+    </row>
+    <row r="95" spans="11:13">
+      <c r="K95" t="s">
+        <v>405</v>
+      </c>
+      <c r="L95">
+        <v>42.6629</v>
+      </c>
+      <c r="M95">
+        <v>21.165500000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="11:13">
+      <c r="K96" t="s">
+        <v>406</v>
+      </c>
+      <c r="L96">
+        <v>29.369700000000002</v>
+      </c>
+      <c r="M96">
+        <v>47.978299999999997</v>
+      </c>
+    </row>
+    <row r="97" spans="11:13">
+      <c r="K97" t="s">
+        <v>407</v>
+      </c>
+      <c r="L97">
+        <v>17.966699999999999</v>
+      </c>
+      <c r="M97">
+        <v>102.6</v>
+      </c>
+    </row>
+    <row r="98" spans="11:13">
+      <c r="K98" t="s">
+        <v>408</v>
+      </c>
+      <c r="L98">
+        <v>33.872</v>
+      </c>
+      <c r="M98">
+        <v>35.509700000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="11:13">
+      <c r="K99" t="s">
+        <v>409</v>
+      </c>
+      <c r="L99">
+        <v>6.3106</v>
+      </c>
+      <c r="M99">
+        <v>-10.8048</v>
+      </c>
+    </row>
+    <row r="100" spans="11:13">
+      <c r="K100" t="s">
+        <v>410</v>
+      </c>
+      <c r="L100">
+        <v>32.892499999999998</v>
+      </c>
+      <c r="M100">
+        <v>13.18</v>
+      </c>
+    </row>
+    <row r="101" spans="11:13">
+      <c r="K101" t="s">
+        <v>411</v>
+      </c>
+      <c r="L101">
+        <v>6.9320000000000004</v>
+      </c>
+      <c r="M101">
+        <v>79.857799999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="11:13">
+      <c r="K102" t="s">
+        <v>412</v>
+      </c>
+      <c r="L102">
+        <v>-29.316700000000001</v>
+      </c>
+      <c r="M102">
+        <v>27.4833</v>
+      </c>
+    </row>
+    <row r="103" spans="11:13">
+      <c r="K103" t="s">
+        <v>413</v>
+      </c>
+      <c r="L103">
+        <v>54.683399999999999</v>
+      </c>
+      <c r="M103">
+        <v>25.316600000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="11:13">
+      <c r="K104" t="s">
+        <v>414</v>
+      </c>
+      <c r="L104">
+        <v>49.611621999999997</v>
+      </c>
+      <c r="M104">
+        <v>6.1319350000000004</v>
+      </c>
+    </row>
+    <row r="105" spans="11:13">
+      <c r="K105" t="s">
+        <v>415</v>
+      </c>
+      <c r="L105">
+        <v>56.95</v>
+      </c>
+      <c r="M105">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="106" spans="11:13">
+      <c r="K106" t="s">
+        <v>416</v>
+      </c>
+      <c r="L106">
+        <v>33.6</v>
+      </c>
+      <c r="M106">
+        <v>-7.6163999999999996</v>
+      </c>
+    </row>
+    <row r="107" spans="11:13">
+      <c r="K107" t="s">
+        <v>417</v>
+      </c>
+      <c r="L107">
+        <v>47.005000000000003</v>
+      </c>
+      <c r="M107">
+        <v>28.857700000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="11:13">
+      <c r="K108" t="s">
+        <v>418</v>
+      </c>
+      <c r="L108">
+        <v>-18.916599999999999</v>
+      </c>
+      <c r="M108">
+        <v>47.516599999999997</v>
+      </c>
+    </row>
+    <row r="109" spans="11:13">
+      <c r="K109" t="s">
+        <v>419</v>
+      </c>
+      <c r="L109">
+        <v>19.442399999999999</v>
+      </c>
+      <c r="M109">
+        <v>-99.131</v>
+      </c>
+    </row>
+    <row r="110" spans="11:13">
+      <c r="K110" t="s">
+        <v>420</v>
+      </c>
+      <c r="L110">
+        <v>42</v>
+      </c>
+      <c r="M110">
+        <v>21.433499999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="11:13">
+      <c r="K111" t="s">
+        <v>421</v>
+      </c>
+      <c r="L111">
+        <v>12.65</v>
+      </c>
+      <c r="M111">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="112" spans="11:13">
+      <c r="K112" t="s">
+        <v>422</v>
+      </c>
+      <c r="L112">
+        <v>35.899700000000003</v>
+      </c>
+      <c r="M112">
+        <v>14.514699999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="11:13">
+      <c r="K113" t="s">
+        <v>423</v>
+      </c>
+      <c r="L113">
+        <v>16.871310999999999</v>
+      </c>
+      <c r="M113">
+        <v>96.199378999999993</v>
+      </c>
+    </row>
+    <row r="114" spans="11:13">
+      <c r="K114" t="s">
+        <v>424</v>
+      </c>
+      <c r="L114">
+        <v>42.442574</v>
+      </c>
+      <c r="M114">
+        <v>19.268646</v>
+      </c>
+    </row>
+    <row r="115" spans="11:13">
+      <c r="K115" t="s">
+        <v>425</v>
+      </c>
+      <c r="L115">
+        <v>47.916699999999999</v>
+      </c>
+      <c r="M115">
+        <v>106.9166</v>
+      </c>
+    </row>
+    <row r="116" spans="11:13">
+      <c r="K116" t="s">
+        <v>426</v>
+      </c>
+      <c r="L116">
+        <v>-25.9696</v>
+      </c>
+      <c r="M116">
+        <v>32.46</v>
+      </c>
+    </row>
+    <row r="117" spans="11:13">
+      <c r="K117" t="s">
+        <v>427</v>
+      </c>
+      <c r="L117">
+        <v>18.086400000000001</v>
+      </c>
+      <c r="M117">
+        <v>-15.975300000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="11:13">
+      <c r="K118" t="s">
+        <v>428</v>
+      </c>
+      <c r="L118">
+        <v>-13.9833</v>
+      </c>
+      <c r="M118">
+        <v>33.783299999999997</v>
+      </c>
+    </row>
+    <row r="119" spans="11:13">
+      <c r="K119" t="s">
+        <v>429</v>
+      </c>
+      <c r="L119">
+        <v>3.1667000000000001</v>
+      </c>
+      <c r="M119">
+        <v>101.7</v>
+      </c>
+    </row>
+    <row r="120" spans="11:13">
+      <c r="K120" t="s">
+        <v>430</v>
+      </c>
+      <c r="L120">
+        <v>-22.57</v>
+      </c>
+      <c r="M120">
+        <v>17.083500000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="11:13">
+      <c r="K121" t="s">
+        <v>431</v>
+      </c>
+      <c r="L121">
+        <v>13.5167</v>
+      </c>
+      <c r="M121">
+        <v>2.1166999999999998</v>
+      </c>
+    </row>
+    <row r="122" spans="11:13">
+      <c r="K122" t="s">
+        <v>432</v>
+      </c>
+      <c r="L122">
+        <v>6.4432999999999998</v>
+      </c>
+      <c r="M122">
+        <v>3.3915000000000002</v>
+      </c>
+    </row>
+    <row r="123" spans="11:13">
+      <c r="K123" t="s">
+        <v>433</v>
+      </c>
+      <c r="L123">
+        <v>12.153</v>
+      </c>
+      <c r="M123">
+        <v>-86.268500000000003</v>
+      </c>
+    </row>
+    <row r="124" spans="11:13">
+      <c r="K124" t="s">
+        <v>434</v>
+      </c>
+      <c r="L124">
+        <v>52.35</v>
+      </c>
+      <c r="M124">
+        <v>4.9165999999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="11:13">
+      <c r="K125" t="s">
+        <v>435</v>
+      </c>
+      <c r="L125">
+        <v>59.916699999999999</v>
+      </c>
+      <c r="M125">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="126" spans="11:13">
+      <c r="K126" t="s">
+        <v>436</v>
+      </c>
+      <c r="L126">
+        <v>27.716699999999999</v>
+      </c>
+      <c r="M126">
+        <v>85.316599999999994</v>
+      </c>
+    </row>
+    <row r="127" spans="11:13">
+      <c r="K127" t="s">
+        <v>437</v>
+      </c>
+      <c r="L127">
+        <v>-36.848100000000002</v>
+      </c>
+      <c r="M127">
+        <v>174.76300000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="11:13">
+      <c r="K128" t="s">
+        <v>438</v>
+      </c>
+      <c r="L128">
+        <v>23.613299999999999</v>
+      </c>
+      <c r="M128">
+        <v>58.593299999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="11:13">
+      <c r="K129" t="s">
+        <v>439</v>
+      </c>
+      <c r="L129">
+        <v>24.87</v>
+      </c>
+      <c r="M129">
+        <v>66.989999999999995</v>
+      </c>
+    </row>
+    <row r="130" spans="11:13">
+      <c r="K130" t="s">
+        <v>440</v>
+      </c>
+      <c r="L130">
+        <v>8.968</v>
+      </c>
+      <c r="M130">
+        <v>-79.533000000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="11:13">
+      <c r="K131" t="s">
+        <v>441</v>
+      </c>
+      <c r="L131">
+        <v>-12.048</v>
+      </c>
+      <c r="M131">
+        <v>-77.0501</v>
+      </c>
+    </row>
+    <row r="132" spans="11:13">
+      <c r="K132" t="s">
+        <v>442</v>
+      </c>
+      <c r="L132">
+        <v>14.604200000000001</v>
+      </c>
+      <c r="M132">
+        <v>120.98220000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="11:13">
+      <c r="K133" t="s">
+        <v>443</v>
+      </c>
+      <c r="L133">
+        <v>-9.4647000000000006</v>
+      </c>
+      <c r="M133">
+        <v>147.1925</v>
+      </c>
+    </row>
+    <row r="134" spans="11:13">
+      <c r="K134" t="s">
+        <v>444</v>
+      </c>
+      <c r="L134">
+        <v>52.25</v>
+      </c>
+      <c r="M134">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135" spans="11:13">
+      <c r="K135" t="s">
+        <v>445</v>
+      </c>
+      <c r="L135">
+        <v>39.019399999999997</v>
+      </c>
+      <c r="M135">
+        <v>125.7547</v>
+      </c>
+    </row>
+    <row r="136" spans="11:13">
+      <c r="K136" t="s">
+        <v>446</v>
+      </c>
+      <c r="L136">
+        <v>38.722700000000003</v>
+      </c>
+      <c r="M136">
+        <v>-9.1448999999999998</v>
+      </c>
+    </row>
+    <row r="137" spans="11:13">
+      <c r="K137" t="s">
+        <v>447</v>
+      </c>
+      <c r="L137">
+        <v>-25.296399999999998</v>
+      </c>
+      <c r="M137">
+        <v>-57.641500000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="11:13">
+      <c r="K138" t="s">
+        <v>448</v>
+      </c>
+      <c r="L138">
+        <v>25.291899999999998</v>
+      </c>
+      <c r="M138">
+        <v>51.424399999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="11:13">
+      <c r="K139" t="s">
+        <v>449</v>
+      </c>
+      <c r="L139">
+        <v>44.433399999999999</v>
+      </c>
+      <c r="M139">
+        <v>26.099900000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="11:13">
+      <c r="K140" t="s">
+        <v>490</v>
+      </c>
+      <c r="L140">
+        <v>55.749899999999997</v>
+      </c>
+      <c r="M140">
+        <v>49.126300000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="11:13">
+      <c r="K141" t="s">
+        <v>450</v>
+      </c>
+      <c r="L141">
+        <v>-1.9536</v>
+      </c>
+      <c r="M141">
+        <v>30.060500000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="11:13">
+      <c r="K142" t="s">
+        <v>451</v>
+      </c>
+      <c r="L142">
+        <v>24.640799999999999</v>
+      </c>
+      <c r="M142">
+        <v>46.7727</v>
+      </c>
+    </row>
+    <row r="143" spans="11:13">
+      <c r="K143" t="s">
+        <v>452</v>
+      </c>
+      <c r="L143">
+        <v>15.588100000000001</v>
+      </c>
+      <c r="M143">
+        <v>32.534199999999998</v>
+      </c>
+    </row>
+    <row r="144" spans="11:13">
+      <c r="K144" t="s">
+        <v>453</v>
+      </c>
+      <c r="L144">
+        <v>14.7158</v>
+      </c>
+      <c r="M144">
+        <v>-17.473099999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="11:13">
+      <c r="K145" t="s">
+        <v>454</v>
+      </c>
+      <c r="L145">
+        <v>1.2929999999999999</v>
+      </c>
+      <c r="M145">
+        <v>103.8558</v>
+      </c>
+    </row>
+    <row r="146" spans="11:13">
+      <c r="K146" t="s">
+        <v>455</v>
+      </c>
+      <c r="L146">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="M146">
+        <v>-13.2342</v>
+      </c>
+    </row>
+    <row r="147" spans="11:13">
+      <c r="K147" t="s">
+        <v>456</v>
+      </c>
+      <c r="L147">
+        <v>13.71</v>
+      </c>
+      <c r="M147">
+        <v>-89.203000000000003</v>
+      </c>
+    </row>
+    <row r="148" spans="11:13">
+      <c r="K148" t="s">
+        <v>457</v>
+      </c>
+      <c r="L148">
+        <v>2.0667</v>
+      </c>
+      <c r="M148">
+        <v>45.366700000000002</v>
+      </c>
+    </row>
+    <row r="149" spans="11:13">
+      <c r="K149" t="s">
+        <v>458</v>
+      </c>
+      <c r="L149">
+        <v>44.818600000000004</v>
+      </c>
+      <c r="M149">
+        <v>20.468</v>
+      </c>
+    </row>
+    <row r="150" spans="11:13">
+      <c r="K150" t="s">
+        <v>459</v>
+      </c>
+      <c r="L150">
+        <v>5.835</v>
+      </c>
+      <c r="M150">
+        <v>-55.167000000000002</v>
+      </c>
+    </row>
+    <row r="151" spans="11:13">
+      <c r="K151" t="s">
+        <v>460</v>
+      </c>
+      <c r="L151">
+        <v>48.15</v>
+      </c>
+      <c r="M151">
+        <v>17.117000000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="11:13">
+      <c r="K152" t="s">
+        <v>461</v>
+      </c>
+      <c r="L152">
+        <v>46.055300000000003</v>
+      </c>
+      <c r="M152">
+        <v>14.515000000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="11:13">
+      <c r="K153" t="s">
+        <v>462</v>
+      </c>
+      <c r="L153">
+        <v>59.3508</v>
+      </c>
+      <c r="M153">
+        <v>18.097300000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="11:13">
+      <c r="K154" t="s">
+        <v>463</v>
+      </c>
+      <c r="L154">
+        <v>-26.495000000000001</v>
+      </c>
+      <c r="M154">
+        <v>31.388000000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="11:13">
+      <c r="K155" t="s">
+        <v>464</v>
+      </c>
+      <c r="L155">
+        <v>33.5</v>
+      </c>
+      <c r="M155">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="156" spans="11:13">
+      <c r="K156" t="s">
+        <v>465</v>
+      </c>
+      <c r="L156">
+        <v>12.113099999999999</v>
+      </c>
+      <c r="M156">
+        <v>15.049099999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="11:13">
+      <c r="K157" t="s">
+        <v>466</v>
+      </c>
+      <c r="L157">
+        <v>6.1318999999999999</v>
+      </c>
+      <c r="M157">
+        <v>1.2228000000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="11:13">
+      <c r="K158" t="s">
+        <v>467</v>
+      </c>
+      <c r="L158">
+        <v>13.75</v>
+      </c>
+      <c r="M158">
+        <v>100.5166</v>
+      </c>
+    </row>
+    <row r="159" spans="11:13">
+      <c r="K159" t="s">
+        <v>468</v>
+      </c>
+      <c r="L159">
+        <v>38.56</v>
+      </c>
+      <c r="M159">
+        <v>68.773899999999998</v>
+      </c>
+    </row>
+    <row r="160" spans="11:13">
+      <c r="K160" t="s">
+        <v>469</v>
+      </c>
+      <c r="L160">
+        <v>37.950000000000003</v>
+      </c>
+      <c r="M160">
+        <v>58.383299999999998</v>
+      </c>
+    </row>
+    <row r="161" spans="11:13">
+      <c r="K161" t="s">
+        <v>470</v>
+      </c>
+      <c r="L161">
+        <v>-8.5594000000000001</v>
+      </c>
+      <c r="M161">
+        <v>125.5795</v>
+      </c>
+    </row>
+    <row r="162" spans="11:13">
+      <c r="K162" t="s">
+        <v>471</v>
+      </c>
+      <c r="L162">
+        <v>10.651999999999999</v>
+      </c>
+      <c r="M162">
+        <v>-61.517000000000003</v>
+      </c>
+    </row>
+    <row r="163" spans="11:13">
+      <c r="K163" t="s">
+        <v>472</v>
+      </c>
+      <c r="L163">
+        <v>36.802799999999998</v>
+      </c>
+      <c r="M163">
+        <v>10.1797</v>
+      </c>
+    </row>
+    <row r="164" spans="11:13">
+      <c r="K164" t="s">
+        <v>473</v>
+      </c>
+      <c r="L164">
+        <v>41.104999999999997</v>
+      </c>
+      <c r="M164">
+        <v>29.01</v>
+      </c>
+    </row>
+    <row r="165" spans="11:13">
+      <c r="K165" t="s">
+        <v>474</v>
+      </c>
+      <c r="L165">
+        <v>25.035799999999998</v>
+      </c>
+      <c r="M165">
+        <v>121.56829999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="11:13">
+      <c r="K166" t="s">
+        <v>475</v>
+      </c>
+      <c r="L166">
+        <v>-6.8</v>
+      </c>
+      <c r="M166">
+        <v>39.268300000000004</v>
+      </c>
+    </row>
+    <row r="167" spans="11:13">
+      <c r="K167" t="s">
+        <v>476</v>
+      </c>
+      <c r="L167">
+        <v>0.31669999999999998</v>
+      </c>
+      <c r="M167">
+        <v>32.583300000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="11:13">
+      <c r="K168" t="s">
+        <v>477</v>
+      </c>
+      <c r="L168">
+        <v>50.434341000000003</v>
+      </c>
+      <c r="M168">
+        <v>30.527756</v>
+      </c>
+    </row>
+    <row r="169" spans="11:13">
+      <c r="K169" t="s">
+        <v>478</v>
+      </c>
+      <c r="L169">
+        <v>-34.857999999999997</v>
+      </c>
+      <c r="M169">
+        <v>-56.171100000000003</v>
+      </c>
+    </row>
+    <row r="170" spans="11:13">
+      <c r="K170" t="s">
+        <v>489</v>
+      </c>
+      <c r="L170">
+        <v>44.963500000000003</v>
+      </c>
+      <c r="M170">
+        <v>-93.267799999999994</v>
+      </c>
+    </row>
+    <row r="171" spans="11:13">
+      <c r="K171" t="s">
+        <v>479</v>
+      </c>
+      <c r="L171">
+        <v>41.311700000000002</v>
+      </c>
+      <c r="M171">
+        <v>69.294899999999998</v>
+      </c>
+    </row>
+    <row r="172" spans="11:13">
+      <c r="K172" t="s">
+        <v>480</v>
+      </c>
+      <c r="L172">
+        <v>10.5</v>
+      </c>
+      <c r="M172">
+        <v>-66.916663999999997</v>
+      </c>
+    </row>
+    <row r="173" spans="11:13">
+      <c r="K173" t="s">
+        <v>481</v>
+      </c>
+      <c r="L173">
+        <v>10.810582999999999</v>
+      </c>
+      <c r="M173">
+        <v>106.70914500000001</v>
+      </c>
+    </row>
+    <row r="174" spans="11:13">
+      <c r="K174" t="s">
+        <v>482</v>
+      </c>
+      <c r="L174">
+        <v>15.354699999999999</v>
+      </c>
+      <c r="M174">
+        <v>44.206600000000002</v>
+      </c>
+    </row>
+    <row r="175" spans="11:13">
+      <c r="K175" t="s">
+        <v>483</v>
+      </c>
+      <c r="L175">
+        <v>-26.17</v>
+      </c>
+      <c r="M175">
+        <v>28.03</v>
+      </c>
+    </row>
+    <row r="176" spans="11:13">
+      <c r="K176" t="s">
+        <v>484</v>
+      </c>
+      <c r="L176">
+        <v>-15.416600000000001</v>
+      </c>
+      <c r="M176">
+        <v>28.283300000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="11:13">
+      <c r="K177" t="s">
+        <v>485</v>
+      </c>
+      <c r="L177">
+        <v>-17.817799999999998</v>
+      </c>
+      <c r="M177">
+        <v>31.044699999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="11:13">
+      <c r="K178" t="s">
+        <v>486</v>
+      </c>
+      <c r="L178">
+        <v>4.8539000000000003</v>
+      </c>
+      <c r="M178">
+        <v>31.5825</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3220,7 +5515,7 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -3317,19 +5612,19 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H3" t="s">
         <v>308</v>
-      </c>
-      <c r="H3" t="s">
-        <v>309</v>
       </c>
       <c r="K3" t="s">
         <v>37</v>
       </c>
       <c r="N3" t="s">
+        <v>309</v>
+      </c>
+      <c r="P3" t="s">
         <v>310</v>
-      </c>
-      <c r="P3" t="s">
-        <v>311</v>
       </c>
       <c r="Q3" t="s">
         <v>59</v>
@@ -3340,16 +5635,16 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N4" t="s">
         <v>63</v>
       </c>
       <c r="P4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q4" t="s">
         <v>59</v>
@@ -3360,13 +5655,13 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q5" t="s">
         <v>59</v>
@@ -3377,10 +5672,10 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I6" s="2"/>
       <c r="K6" t="s">
@@ -3390,7 +5685,7 @@
         <v>62</v>
       </c>
       <c r="P6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q6" t="s">
         <v>59</v>
@@ -3401,16 +5696,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K7" t="s">
         <v>37</v>
       </c>
       <c r="N7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q7" t="s">
         <v>59</v>
@@ -3421,16 +5716,16 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
+        <v>316</v>
+      </c>
+      <c r="H8" t="s">
+        <v>308</v>
+      </c>
+      <c r="K8" t="s">
+        <v>318</v>
+      </c>
+      <c r="N8" t="s">
         <v>317</v>
-      </c>
-      <c r="H8" t="s">
-        <v>309</v>
-      </c>
-      <c r="K8" t="s">
-        <v>319</v>
-      </c>
-      <c r="N8" t="s">
-        <v>318</v>
       </c>
       <c r="Q8" t="s">
         <v>59</v>
@@ -3441,16 +5736,16 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
         <v>37</v>
       </c>
       <c r="N9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Q9" t="s">
         <v>59</v>
@@ -3461,16 +5756,16 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s">
         <v>37</v>
       </c>
       <c r="N10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q10" t="s">
         <v>59</v>
@@ -3481,13 +5776,13 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K11" t="s">
         <v>9</v>
       </c>
       <c r="N11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q11" t="s">
         <v>59</v>
@@ -3557,10 +5852,10 @@
     </row>
     <row r="3" spans="3:13">
       <c r="C3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D3" t="s">
         <v>324</v>
-      </c>
-      <c r="D3" t="s">
-        <v>325</v>
       </c>
       <c r="E3" t="s">
         <v>71</v>
@@ -3580,13 +5875,13 @@
         <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E4" t="s">
         <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I4" t="s">
         <v>73</v>
@@ -3606,7 +5901,7 @@
         <v>75</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
         <v>38</v>
@@ -3614,12 +5909,12 @@
     </row>
     <row r="9" spans="3:13">
       <c r="C9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="3:13">
       <c r="C10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -3628,6 +5923,114 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B20676-78A5-4BFB-AF4D-E463F8898B7A}">
+  <dimension ref="B3:K6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="39.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.9296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.53125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.9296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" ht="17.25" thickBot="1">
+      <c r="B3" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="15" thickTop="1" thickBot="1">
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,'pset map'!$A$3:$A$28)</f>
+        <v>IMP,MIN,U-DD,U-TRF,U-H2P,U-H2C,U-H2S,U-H2D,TRD_Endo,P_All,P-HPL,R_Techs,S_Techs,T_All,A_Techs,I_Techs</v>
+      </c>
+      <c r="D5" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
+        <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
+      </c>
+      <c r="E5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F5" t="s">
+        <v>499</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="str">
+        <f>C5</f>
+        <v>IMP,MIN,U-DD,U-TRF,U-H2P,U-H2C,U-H2S,U-H2D,TRD_Endo,P_All,P-HPL,R_Techs,S_Techs,T_All,A_Techs,I_Techs</v>
+      </c>
+      <c r="D6" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
+        <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>500</v>
+      </c>
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32957E82-8232-40A9-A839-CC5F79005B92}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C2"/>
@@ -3662,7 +6065,345 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE6C06F-8CC3-441B-8C5E-E4C9AD03032A}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF522A4-03B3-4329-9210-404B1BD4B629}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>505</v>
+      </c>
+      <c r="B4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>509</v>
+      </c>
+      <c r="B6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>511</v>
+      </c>
+      <c r="B7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>513</v>
+      </c>
+      <c r="B8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>515</v>
+      </c>
+      <c r="B9" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>517</v>
+      </c>
+      <c r="B10" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ADB714-E6AA-4E3E-B77B-62B65BA0E218}">
   <dimension ref="A1:D99"/>
   <sheetViews>
@@ -3700,10 +6441,10 @@
         <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3711,153 +6452,153 @@
         <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3865,10 +6606,10 @@
         <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3876,10 +6617,10 @@
         <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3887,10 +6628,10 @@
         <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3898,10 +6639,10 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3909,10 +6650,10 @@
         <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3920,10 +6661,10 @@
         <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3931,10 +6672,10 @@
         <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3942,10 +6683,10 @@
         <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3953,10 +6694,10 @@
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3964,10 +6705,10 @@
         <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3975,10 +6716,10 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3986,10 +6727,10 @@
         <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3997,241 +6738,241 @@
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C43" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D44" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C47" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C48" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D48" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C49" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D49" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C50" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D50" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C51" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D51" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -4239,10 +6980,10 @@
         <v>43</v>
       </c>
       <c r="C52" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D52" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -4250,87 +6991,87 @@
         <v>43</v>
       </c>
       <c r="C53" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D53" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C54" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C56" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D56" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C58" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D58" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C59" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C60" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D60" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -4338,10 +7079,10 @@
         <v>51</v>
       </c>
       <c r="C61" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D61" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -4349,10 +7090,10 @@
         <v>51</v>
       </c>
       <c r="C62" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D62" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -4360,10 +7101,10 @@
         <v>51</v>
       </c>
       <c r="C63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D63" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -4371,10 +7112,10 @@
         <v>51</v>
       </c>
       <c r="C64" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D64" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -4385,7 +7126,7 @@
         <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -4393,10 +7134,10 @@
         <v>51</v>
       </c>
       <c r="C66" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D66" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -4407,7 +7148,7 @@
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -4415,10 +7156,10 @@
         <v>51</v>
       </c>
       <c r="C68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D68" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -4426,10 +7167,10 @@
         <v>51</v>
       </c>
       <c r="C69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D69" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -4437,10 +7178,10 @@
         <v>51</v>
       </c>
       <c r="C70" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D70" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -4448,10 +7189,10 @@
         <v>51</v>
       </c>
       <c r="C71" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D71" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4459,10 +7200,10 @@
         <v>51</v>
       </c>
       <c r="C72" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D72" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -4470,10 +7211,10 @@
         <v>51</v>
       </c>
       <c r="C73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D73" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -4481,10 +7222,10 @@
         <v>51</v>
       </c>
       <c r="C74" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D74" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4492,10 +7233,10 @@
         <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D75" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4503,10 +7244,10 @@
         <v>51</v>
       </c>
       <c r="C76" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D76" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -4514,10 +7255,10 @@
         <v>51</v>
       </c>
       <c r="C77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D77" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4525,10 +7266,10 @@
         <v>51</v>
       </c>
       <c r="C78" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D78" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -4536,10 +7277,10 @@
         <v>51</v>
       </c>
       <c r="C79" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D79" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4547,10 +7288,10 @@
         <v>51</v>
       </c>
       <c r="C80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D80" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4558,10 +7299,10 @@
         <v>51</v>
       </c>
       <c r="C81" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D81" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4569,10 +7310,10 @@
         <v>51</v>
       </c>
       <c r="C82" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D82" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -4580,10 +7321,10 @@
         <v>51</v>
       </c>
       <c r="C83" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D83" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4591,10 +7332,10 @@
         <v>51</v>
       </c>
       <c r="C84" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D84" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4602,10 +7343,10 @@
         <v>51</v>
       </c>
       <c r="C85" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D85" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -4616,7 +7357,7 @@
         <v>36</v>
       </c>
       <c r="D86" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4624,10 +7365,10 @@
         <v>51</v>
       </c>
       <c r="C87" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D87" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -4638,7 +7379,7 @@
         <v>3</v>
       </c>
       <c r="D88" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4649,7 +7390,7 @@
         <v>4</v>
       </c>
       <c r="D89" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4657,10 +7398,10 @@
         <v>51</v>
       </c>
       <c r="C90" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D90" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4668,10 +7409,10 @@
         <v>51</v>
       </c>
       <c r="C91" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D91" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4679,10 +7420,10 @@
         <v>51</v>
       </c>
       <c r="C92" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D92" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4690,10 +7431,10 @@
         <v>51</v>
       </c>
       <c r="C93" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D93" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4701,10 +7442,10 @@
         <v>51</v>
       </c>
       <c r="C94" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D94" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4712,10 +7453,10 @@
         <v>51</v>
       </c>
       <c r="C95" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D95" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4723,10 +7464,10 @@
         <v>51</v>
       </c>
       <c r="C96" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D96" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4734,32 +7475,32 @@
         <v>51</v>
       </c>
       <c r="C97" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D97" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B98" t="s">
+        <v>302</v>
+      </c>
+      <c r="C98" t="s">
         <v>303</v>
-      </c>
-      <c r="C98" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
+        <v>304</v>
+      </c>
+      <c r="B99" t="s">
         <v>305</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>306</v>
-      </c>
-      <c r="C99" t="s">
-        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -4767,7 +7508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3245E1-8745-41DD-8AE6-2F4FA19D9F1C}">
   <dimension ref="A1:H24"/>
   <sheetViews>
@@ -4821,10 +7562,10 @@
         <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4832,10 +7573,10 @@
         <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4846,7 +7587,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4854,10 +7595,10 @@
         <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4868,7 +7609,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4876,10 +7617,10 @@
         <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4887,10 +7628,10 @@
         <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4898,10 +7639,10 @@
         <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4910,10 +7651,10 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4921,10 +7662,10 @@
         <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4932,10 +7673,10 @@
         <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4943,10 +7684,10 @@
         <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4954,10 +7695,10 @@
         <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4965,10 +7706,10 @@
         <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4976,10 +7717,10 @@
         <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4987,10 +7728,10 @@
         <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4998,10 +7739,10 @@
         <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5009,2138 +7750,54 @@
         <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="4" max="4" width="10.86328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="F3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr codeName="Sheet31"/>
-  <dimension ref="A1:M178"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="17.25" thickBot="1">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" thickTop="1" thickBot="1">
-      <c r="A3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <f>1/31.536</f>
-        <v>3.1709791983764585E-2</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4">
-        <f>100/31.536</f>
-        <v>3.1709791983764584</v>
-      </c>
-      <c r="K4" t="s">
-        <v>327</v>
-      </c>
-      <c r="L4">
-        <v>36.779029999999999</v>
-      </c>
-      <c r="M4">
-        <v>69.949081000000007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" t="s">
-        <v>326</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5">
-        <f>3.6</f>
-        <v>3.6</v>
-      </c>
-      <c r="K5" t="s">
-        <v>328</v>
-      </c>
-      <c r="L5">
-        <v>-8.8383000000000003</v>
-      </c>
-      <c r="M5">
-        <v>13.234400000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-      <c r="K6" t="s">
-        <v>329</v>
-      </c>
-      <c r="L6">
-        <v>41.327500000000001</v>
-      </c>
-      <c r="M6">
-        <v>19.818899999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="K7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L7">
-        <v>25.23</v>
-      </c>
-      <c r="M7">
-        <v>55.28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="K8" t="s">
-        <v>331</v>
-      </c>
-      <c r="L8">
-        <v>-34.602499999999999</v>
-      </c>
-      <c r="M8">
-        <v>-58.397500000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="K9" t="s">
-        <v>332</v>
-      </c>
-      <c r="L9">
-        <v>40.181199999999997</v>
-      </c>
-      <c r="M9">
-        <v>44.513599999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="K10" t="s">
-        <v>80</v>
-      </c>
-      <c r="L10">
-        <v>-12.4254</v>
-      </c>
-      <c r="M10">
-        <v>130.85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="K11" t="s">
-        <v>81</v>
-      </c>
-      <c r="L11">
-        <v>-27.454999999999998</v>
-      </c>
-      <c r="M11">
-        <v>153.0351</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="K12" t="s">
-        <v>82</v>
-      </c>
-      <c r="L12">
-        <v>-34.935000000000002</v>
-      </c>
-      <c r="M12">
-        <v>138.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="K13" t="s">
-        <v>83</v>
-      </c>
-      <c r="L13">
-        <v>-33.92</v>
-      </c>
-      <c r="M13">
-        <v>151.18520000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="K14" t="s">
-        <v>84</v>
-      </c>
-      <c r="L14">
-        <v>-42.85</v>
-      </c>
-      <c r="M14">
-        <v>147.29499999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="K15" t="s">
-        <v>85</v>
-      </c>
-      <c r="L15">
-        <v>-37.82</v>
-      </c>
-      <c r="M15">
-        <v>144.97499999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="K16" t="s">
-        <v>86</v>
-      </c>
-      <c r="L16">
-        <v>-31.954999999999998</v>
-      </c>
-      <c r="M16">
-        <v>115.84</v>
-      </c>
-    </row>
-    <row r="17" spans="11:13">
-      <c r="K17" t="s">
-        <v>333</v>
-      </c>
-      <c r="L17">
-        <v>48.2</v>
-      </c>
-      <c r="M17">
-        <v>16.366599999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="11:13">
-      <c r="K18" t="s">
-        <v>334</v>
-      </c>
-      <c r="L18">
-        <v>40.395299999999999</v>
-      </c>
-      <c r="M18">
-        <v>49.862200000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="11:13">
-      <c r="K19" t="s">
-        <v>335</v>
-      </c>
-      <c r="L19">
-        <v>-3.3761000000000001</v>
-      </c>
-      <c r="M19">
-        <v>29.36</v>
-      </c>
-    </row>
-    <row r="20" spans="11:13">
-      <c r="K20" t="s">
-        <v>336</v>
-      </c>
-      <c r="L20">
-        <v>50.833300000000001</v>
-      </c>
-      <c r="M20">
-        <v>4.3333000000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="11:13">
-      <c r="K21" t="s">
-        <v>337</v>
-      </c>
-      <c r="L21">
-        <v>7.1904000000000003</v>
-      </c>
-      <c r="M21">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="22" spans="11:13">
-      <c r="K22" t="s">
-        <v>338</v>
-      </c>
-      <c r="L22">
-        <v>12.3703</v>
-      </c>
-      <c r="M22">
-        <v>-1.5246999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="11:13">
-      <c r="K23" t="s">
-        <v>339</v>
-      </c>
-      <c r="L23">
-        <v>23.723099999999999</v>
-      </c>
-      <c r="M23">
-        <v>90.408600000000007</v>
-      </c>
-    </row>
-    <row r="24" spans="11:13">
-      <c r="K24" t="s">
-        <v>340</v>
-      </c>
-      <c r="L24">
-        <v>42.683300000000003</v>
-      </c>
-      <c r="M24">
-        <v>23.316700000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="11:13">
-      <c r="K25" t="s">
-        <v>341</v>
-      </c>
-      <c r="L25">
-        <v>26.2361</v>
-      </c>
-      <c r="M25">
-        <v>50.583100000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="11:13">
-      <c r="K26" t="s">
-        <v>342</v>
-      </c>
-      <c r="L26">
-        <v>43.85</v>
-      </c>
-      <c r="M26">
-        <v>18.382999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="11:13">
-      <c r="K27" t="s">
-        <v>343</v>
-      </c>
-      <c r="L27">
-        <v>53.9</v>
-      </c>
-      <c r="M27">
-        <v>27.566600000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="11:13">
-      <c r="K28" t="s">
-        <v>344</v>
-      </c>
-      <c r="L28">
-        <v>17.498699999999999</v>
-      </c>
-      <c r="M28">
-        <v>-88.188400000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="11:13">
-      <c r="K29" t="s">
-        <v>345</v>
-      </c>
-      <c r="L29">
-        <v>-17.753900000000002</v>
-      </c>
-      <c r="M29">
-        <v>-63.225999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="11:13">
-      <c r="K30" t="s">
-        <v>492</v>
-      </c>
-      <c r="L30">
-        <v>-1.45</v>
-      </c>
-      <c r="M30">
-        <v>-48.48</v>
-      </c>
-    </row>
-    <row r="31" spans="11:13">
-      <c r="K31" t="s">
-        <v>346</v>
-      </c>
-      <c r="L31">
-        <v>4.8833000000000002</v>
-      </c>
-      <c r="M31">
-        <v>114.9333</v>
-      </c>
-    </row>
-    <row r="32" spans="11:13">
-      <c r="K32" t="s">
-        <v>347</v>
-      </c>
-      <c r="L32">
-        <v>27.472999999999999</v>
-      </c>
-      <c r="M32">
-        <v>89.638999999999996</v>
-      </c>
-    </row>
-    <row r="33" spans="11:13">
-      <c r="K33" t="s">
-        <v>348</v>
-      </c>
-      <c r="L33">
-        <v>-24.6463</v>
-      </c>
-      <c r="M33">
-        <v>25.911899999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="11:13">
-      <c r="K34" t="s">
-        <v>349</v>
-      </c>
-      <c r="L34">
-        <v>4.3666</v>
-      </c>
-      <c r="M34">
-        <v>18.558299999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="11:13">
-      <c r="K35" t="s">
-        <v>494</v>
-      </c>
-      <c r="L35">
-        <v>43.7</v>
-      </c>
-      <c r="M35">
-        <v>-79.42</v>
-      </c>
-    </row>
-    <row r="36" spans="11:13">
-      <c r="K36" t="s">
-        <v>350</v>
-      </c>
-      <c r="L36">
-        <v>47.38</v>
-      </c>
-      <c r="M36">
-        <v>8.5500000000000007</v>
-      </c>
-    </row>
-    <row r="37" spans="11:13">
-      <c r="K37" t="s">
-        <v>351</v>
-      </c>
-      <c r="L37">
-        <v>-33.450000000000003</v>
-      </c>
-      <c r="M37">
-        <v>-70.667000000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="11:13">
-      <c r="K38" t="s">
-        <v>493</v>
-      </c>
-      <c r="L38">
-        <v>39.928899999999999</v>
-      </c>
-      <c r="M38">
-        <v>116.3883</v>
-      </c>
-    </row>
-    <row r="39" spans="11:13">
-      <c r="K39" t="s">
-        <v>352</v>
-      </c>
-      <c r="L39">
-        <v>5.32</v>
-      </c>
-      <c r="M39">
-        <v>-4.04</v>
-      </c>
-    </row>
-    <row r="40" spans="11:13">
-      <c r="K40" t="s">
-        <v>353</v>
-      </c>
-      <c r="L40">
-        <v>3.8666999999999998</v>
-      </c>
-      <c r="M40">
-        <v>11.5167</v>
-      </c>
-    </row>
-    <row r="41" spans="11:13">
-      <c r="K41" t="s">
-        <v>354</v>
-      </c>
-      <c r="L41">
-        <v>-4.3296999999999999</v>
-      </c>
-      <c r="M41">
-        <v>15.315</v>
-      </c>
-    </row>
-    <row r="42" spans="11:13">
-      <c r="K42" t="s">
-        <v>355</v>
-      </c>
-      <c r="L42">
-        <v>-4.2591999999999999</v>
-      </c>
-      <c r="M42">
-        <v>15.284700000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="11:13">
-      <c r="K43" t="s">
-        <v>356</v>
-      </c>
-      <c r="L43">
-        <v>4.5964</v>
-      </c>
-      <c r="M43">
-        <v>-74.083299999999994</v>
-      </c>
-    </row>
-    <row r="44" spans="11:13">
-      <c r="K44" t="s">
-        <v>357</v>
-      </c>
-      <c r="L44">
-        <v>9.9347390000000004</v>
-      </c>
-      <c r="M44">
-        <v>-84.087502000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="11:13">
-      <c r="K45" t="s">
-        <v>358</v>
-      </c>
-      <c r="L45">
-        <v>23.132000000000001</v>
-      </c>
-      <c r="M45">
-        <v>-82.364199999999997</v>
-      </c>
-    </row>
-    <row r="46" spans="11:13">
-      <c r="K46" t="s">
-        <v>359</v>
-      </c>
-      <c r="L46">
-        <v>35.166699999999999</v>
-      </c>
-      <c r="M46">
-        <v>33.366599999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="11:13">
-      <c r="K47" t="s">
-        <v>360</v>
-      </c>
-      <c r="L47">
-        <v>50.083300000000001</v>
-      </c>
-      <c r="M47">
-        <v>14.465999999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="11:13">
-      <c r="K48" t="s">
-        <v>361</v>
-      </c>
-      <c r="L48">
-        <v>52.521799999999999</v>
-      </c>
-      <c r="M48">
-        <v>13.4015</v>
-      </c>
-    </row>
-    <row r="49" spans="11:13">
-      <c r="K49" t="s">
-        <v>362</v>
-      </c>
-      <c r="L49">
-        <v>11.595000000000001</v>
-      </c>
-      <c r="M49">
-        <v>43.148000000000003</v>
-      </c>
-    </row>
-    <row r="50" spans="11:13">
-      <c r="K50" t="s">
-        <v>363</v>
-      </c>
-      <c r="L50">
-        <v>55.678600000000003</v>
-      </c>
-      <c r="M50">
-        <v>12.563499999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="11:13">
-      <c r="K51" t="s">
-        <v>364</v>
-      </c>
-      <c r="L51">
-        <v>18.470099999999999</v>
-      </c>
-      <c r="M51">
-        <v>-69.900099999999995</v>
-      </c>
-    </row>
-    <row r="52" spans="11:13">
-      <c r="K52" t="s">
-        <v>365</v>
-      </c>
-      <c r="L52">
-        <v>36.763100000000001</v>
-      </c>
-      <c r="M52">
-        <v>3.0506000000000002</v>
-      </c>
-    </row>
-    <row r="53" spans="11:13">
-      <c r="K53" t="s">
-        <v>366</v>
-      </c>
-      <c r="L53">
-        <v>-2.2200000000000002</v>
-      </c>
-      <c r="M53">
-        <v>-79.92</v>
-      </c>
-    </row>
-    <row r="54" spans="11:13">
-      <c r="K54" t="s">
-        <v>367</v>
-      </c>
-      <c r="L54">
-        <v>30.05</v>
-      </c>
-      <c r="M54">
-        <v>31.25</v>
-      </c>
-    </row>
-    <row r="55" spans="11:13">
-      <c r="K55" t="s">
-        <v>368</v>
-      </c>
-      <c r="L55">
-        <v>15.333299999999999</v>
-      </c>
-      <c r="M55">
-        <v>38.933300000000003</v>
-      </c>
-    </row>
-    <row r="56" spans="11:13">
-      <c r="K56" t="s">
-        <v>369</v>
-      </c>
-      <c r="L56">
-        <v>27.15</v>
-      </c>
-      <c r="M56">
-        <v>-13.1991</v>
-      </c>
-    </row>
-    <row r="57" spans="11:13">
-      <c r="K57" t="s">
-        <v>370</v>
-      </c>
-      <c r="L57">
-        <v>40.4</v>
-      </c>
-      <c r="M57">
-        <v>-3.6833999999999998</v>
-      </c>
-    </row>
-    <row r="58" spans="11:13">
-      <c r="K58" t="s">
-        <v>371</v>
-      </c>
-      <c r="L58">
-        <v>59.436962000000001</v>
-      </c>
-      <c r="M58">
-        <v>24.753574</v>
-      </c>
-    </row>
-    <row r="59" spans="11:13">
-      <c r="K59" t="s">
-        <v>372</v>
-      </c>
-      <c r="L59">
-        <v>13.5</v>
-      </c>
-      <c r="M59">
-        <v>39.47</v>
-      </c>
-    </row>
-    <row r="60" spans="11:13">
-      <c r="K60" t="s">
-        <v>373</v>
-      </c>
-      <c r="L60">
-        <v>60.175600000000003</v>
-      </c>
-      <c r="M60">
-        <v>24.934100000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="11:13">
-      <c r="K61" t="s">
-        <v>374</v>
-      </c>
-      <c r="L61">
-        <v>48.866700000000002</v>
-      </c>
-      <c r="M61">
-        <v>2.3332999999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="11:13">
-      <c r="K62" t="s">
-        <v>375</v>
-      </c>
-      <c r="L62">
-        <v>0.38540000000000002</v>
-      </c>
-      <c r="M62">
-        <v>9.4580000000000002</v>
-      </c>
-    </row>
-    <row r="63" spans="11:13">
-      <c r="K63" t="s">
-        <v>376</v>
-      </c>
-      <c r="L63">
-        <v>51.5</v>
-      </c>
-      <c r="M63">
-        <v>-0.1167</v>
-      </c>
-    </row>
-    <row r="64" spans="11:13">
-      <c r="K64" t="s">
-        <v>377</v>
-      </c>
-      <c r="L64">
-        <v>41.725000000000001</v>
-      </c>
-      <c r="M64">
-        <v>44.790799999999997</v>
-      </c>
-    </row>
-    <row r="65" spans="11:13">
-      <c r="K65" t="s">
-        <v>378</v>
-      </c>
-      <c r="L65">
-        <v>6.69</v>
-      </c>
-      <c r="M65">
-        <v>-1.63</v>
-      </c>
-    </row>
-    <row r="66" spans="11:13">
-      <c r="K66" t="s">
-        <v>379</v>
-      </c>
-      <c r="L66">
-        <v>9.5314999999999994</v>
-      </c>
-      <c r="M66">
-        <v>-13.680199999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="11:13">
-      <c r="K67" t="s">
-        <v>380</v>
-      </c>
-      <c r="L67">
-        <v>13.448395</v>
-      </c>
-      <c r="M67">
-        <v>-16.685143</v>
-      </c>
-    </row>
-    <row r="68" spans="11:13">
-      <c r="K68" t="s">
-        <v>381</v>
-      </c>
-      <c r="L68">
-        <v>11.865</v>
-      </c>
-      <c r="M68">
-        <v>-15.5984</v>
-      </c>
-    </row>
-    <row r="69" spans="11:13">
-      <c r="K69" t="s">
-        <v>382</v>
-      </c>
-      <c r="L69">
-        <v>1.87</v>
-      </c>
-      <c r="M69">
-        <v>9.77</v>
-      </c>
-    </row>
-    <row r="70" spans="11:13">
-      <c r="K70" t="s">
-        <v>383</v>
-      </c>
-      <c r="L70">
-        <v>37.9833</v>
-      </c>
-      <c r="M70">
-        <v>23.7333</v>
-      </c>
-    </row>
-    <row r="71" spans="11:13">
-      <c r="K71" t="s">
-        <v>384</v>
-      </c>
-      <c r="L71">
-        <v>60.270832249999998</v>
-      </c>
-      <c r="M71">
-        <v>-44.720830450000001</v>
-      </c>
-    </row>
-    <row r="72" spans="11:13">
-      <c r="K72" t="s">
-        <v>385</v>
-      </c>
-      <c r="L72">
-        <v>14.6211</v>
-      </c>
-      <c r="M72">
-        <v>-90.527000000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="11:13">
-      <c r="K73" t="s">
-        <v>386</v>
-      </c>
-      <c r="L73">
-        <v>4.9223999999999997</v>
-      </c>
-      <c r="M73">
-        <v>-52.313499999999998</v>
-      </c>
-    </row>
-    <row r="74" spans="11:13">
-      <c r="K74" t="s">
-        <v>387</v>
-      </c>
-      <c r="L74">
-        <v>6.8019999999999996</v>
-      </c>
-      <c r="M74">
-        <v>-58.167000000000002</v>
-      </c>
-    </row>
-    <row r="75" spans="11:13">
-      <c r="K75" t="s">
-        <v>388</v>
-      </c>
-      <c r="L75">
-        <v>14.102</v>
-      </c>
-      <c r="M75">
-        <v>-87.217500000000001</v>
-      </c>
-    </row>
-    <row r="76" spans="11:13">
-      <c r="K76" t="s">
-        <v>389</v>
-      </c>
-      <c r="L76">
-        <v>45.8</v>
-      </c>
-      <c r="M76">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="11:13">
-      <c r="K77" t="s">
-        <v>390</v>
-      </c>
-      <c r="L77">
-        <v>18.533332999999999</v>
-      </c>
-      <c r="M77">
-        <v>-72.333336000000003</v>
-      </c>
-    </row>
-    <row r="78" spans="11:13">
-      <c r="K78" t="s">
-        <v>391</v>
-      </c>
-      <c r="L78">
-        <v>47.5</v>
-      </c>
-      <c r="M78">
-        <v>19.083300000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="11:13">
-      <c r="K79" t="s">
-        <v>392</v>
-      </c>
-      <c r="L79">
-        <v>-6.1744000000000003</v>
-      </c>
-      <c r="M79">
-        <v>106.82940000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="11:13">
-      <c r="K80" t="s">
-        <v>488</v>
-      </c>
-      <c r="L80">
-        <v>28.67</v>
-      </c>
-      <c r="M80">
-        <v>77.23</v>
-      </c>
-    </row>
-    <row r="81" spans="11:13">
-      <c r="K81" t="s">
-        <v>393</v>
-      </c>
-      <c r="L81">
-        <v>53.333100000000002</v>
-      </c>
-      <c r="M81">
-        <v>-6.2488999999999999</v>
-      </c>
-    </row>
-    <row r="82" spans="11:13">
-      <c r="K82" t="s">
-        <v>394</v>
-      </c>
-      <c r="L82">
-        <v>35.671900000000001</v>
-      </c>
-      <c r="M82">
-        <v>51.424300000000002</v>
-      </c>
-    </row>
-    <row r="83" spans="11:13">
-      <c r="K83" t="s">
-        <v>395</v>
-      </c>
-      <c r="L83">
-        <v>33.3386</v>
-      </c>
-      <c r="M83">
-        <v>44.393900000000002</v>
-      </c>
-    </row>
-    <row r="84" spans="11:13">
-      <c r="K84" t="s">
-        <v>396</v>
-      </c>
-      <c r="L84">
-        <v>64.150000000000006</v>
-      </c>
-      <c r="M84">
-        <v>-21.95</v>
-      </c>
-    </row>
-    <row r="85" spans="11:13">
-      <c r="K85" t="s">
-        <v>397</v>
-      </c>
-      <c r="L85">
-        <v>32.08</v>
-      </c>
-      <c r="M85">
-        <v>34.770000000000003</v>
-      </c>
-    </row>
-    <row r="86" spans="11:13">
-      <c r="K86" t="s">
-        <v>398</v>
-      </c>
-      <c r="L86">
-        <v>41.896000000000001</v>
-      </c>
-      <c r="M86">
-        <v>12.4833</v>
-      </c>
-    </row>
-    <row r="87" spans="11:13">
-      <c r="K87" t="s">
-        <v>399</v>
-      </c>
-      <c r="L87">
-        <v>17.9771</v>
-      </c>
-      <c r="M87">
-        <v>-76.767399999999995</v>
-      </c>
-    </row>
-    <row r="88" spans="11:13">
-      <c r="K88" t="s">
-        <v>400</v>
-      </c>
-      <c r="L88">
-        <v>31.95</v>
-      </c>
-      <c r="M88">
-        <v>35.933300000000003</v>
-      </c>
-    </row>
-    <row r="89" spans="11:13">
-      <c r="K89" t="s">
-        <v>489</v>
-      </c>
-      <c r="L89">
-        <v>35.685000000000002</v>
-      </c>
-      <c r="M89">
-        <v>139.75139999999999</v>
-      </c>
-    </row>
-    <row r="90" spans="11:13">
-      <c r="K90" t="s">
-        <v>401</v>
-      </c>
-      <c r="L90">
-        <v>43.325000000000003</v>
-      </c>
-      <c r="M90">
-        <v>76.915000000000006</v>
-      </c>
-    </row>
-    <row r="91" spans="11:13">
-      <c r="K91" t="s">
-        <v>402</v>
-      </c>
-      <c r="L91">
-        <v>-1.2833000000000001</v>
-      </c>
-      <c r="M91">
-        <v>36.816699999999997</v>
-      </c>
-    </row>
-    <row r="92" spans="11:13">
-      <c r="K92" t="s">
-        <v>403</v>
-      </c>
-      <c r="L92">
-        <v>42.873100000000001</v>
-      </c>
-      <c r="M92">
-        <v>74.5852</v>
-      </c>
-    </row>
-    <row r="93" spans="11:13">
-      <c r="K93" t="s">
-        <v>404</v>
-      </c>
-      <c r="L93">
-        <v>11.55</v>
-      </c>
-      <c r="M93">
-        <v>104.9166</v>
-      </c>
-    </row>
-    <row r="94" spans="11:13">
-      <c r="K94" t="s">
-        <v>405</v>
-      </c>
-      <c r="L94">
-        <v>37.566299999999998</v>
-      </c>
-      <c r="M94">
-        <v>126.9997</v>
-      </c>
-    </row>
-    <row r="95" spans="11:13">
-      <c r="K95" t="s">
-        <v>406</v>
-      </c>
-      <c r="L95">
-        <v>42.6629</v>
-      </c>
-      <c r="M95">
-        <v>21.165500000000002</v>
-      </c>
-    </row>
-    <row r="96" spans="11:13">
-      <c r="K96" t="s">
-        <v>407</v>
-      </c>
-      <c r="L96">
-        <v>29.369700000000002</v>
-      </c>
-      <c r="M96">
-        <v>47.978299999999997</v>
-      </c>
-    </row>
-    <row r="97" spans="11:13">
-      <c r="K97" t="s">
-        <v>408</v>
-      </c>
-      <c r="L97">
-        <v>17.966699999999999</v>
-      </c>
-      <c r="M97">
-        <v>102.6</v>
-      </c>
-    </row>
-    <row r="98" spans="11:13">
-      <c r="K98" t="s">
-        <v>409</v>
-      </c>
-      <c r="L98">
-        <v>33.872</v>
-      </c>
-      <c r="M98">
-        <v>35.509700000000002</v>
-      </c>
-    </row>
-    <row r="99" spans="11:13">
-      <c r="K99" t="s">
-        <v>410</v>
-      </c>
-      <c r="L99">
-        <v>6.3106</v>
-      </c>
-      <c r="M99">
-        <v>-10.8048</v>
-      </c>
-    </row>
-    <row r="100" spans="11:13">
-      <c r="K100" t="s">
-        <v>411</v>
-      </c>
-      <c r="L100">
-        <v>32.892499999999998</v>
-      </c>
-      <c r="M100">
-        <v>13.18</v>
-      </c>
-    </row>
-    <row r="101" spans="11:13">
-      <c r="K101" t="s">
-        <v>412</v>
-      </c>
-      <c r="L101">
-        <v>6.9320000000000004</v>
-      </c>
-      <c r="M101">
-        <v>79.857799999999997</v>
-      </c>
-    </row>
-    <row r="102" spans="11:13">
-      <c r="K102" t="s">
-        <v>413</v>
-      </c>
-      <c r="L102">
-        <v>-29.316700000000001</v>
-      </c>
-      <c r="M102">
-        <v>27.4833</v>
-      </c>
-    </row>
-    <row r="103" spans="11:13">
-      <c r="K103" t="s">
-        <v>414</v>
-      </c>
-      <c r="L103">
-        <v>54.683399999999999</v>
-      </c>
-      <c r="M103">
-        <v>25.316600000000001</v>
-      </c>
-    </row>
-    <row r="104" spans="11:13">
-      <c r="K104" t="s">
-        <v>415</v>
-      </c>
-      <c r="L104">
-        <v>49.611621999999997</v>
-      </c>
-      <c r="M104">
-        <v>6.1319350000000004</v>
-      </c>
-    </row>
-    <row r="105" spans="11:13">
-      <c r="K105" t="s">
-        <v>416</v>
-      </c>
-      <c r="L105">
-        <v>56.95</v>
-      </c>
-      <c r="M105">
-        <v>24.1</v>
-      </c>
-    </row>
-    <row r="106" spans="11:13">
-      <c r="K106" t="s">
-        <v>417</v>
-      </c>
-      <c r="L106">
-        <v>33.6</v>
-      </c>
-      <c r="M106">
-        <v>-7.6163999999999996</v>
-      </c>
-    </row>
-    <row r="107" spans="11:13">
-      <c r="K107" t="s">
-        <v>418</v>
-      </c>
-      <c r="L107">
-        <v>47.005000000000003</v>
-      </c>
-      <c r="M107">
-        <v>28.857700000000001</v>
-      </c>
-    </row>
-    <row r="108" spans="11:13">
-      <c r="K108" t="s">
-        <v>419</v>
-      </c>
-      <c r="L108">
-        <v>-18.916599999999999</v>
-      </c>
-      <c r="M108">
-        <v>47.516599999999997</v>
-      </c>
-    </row>
-    <row r="109" spans="11:13">
-      <c r="K109" t="s">
-        <v>420</v>
-      </c>
-      <c r="L109">
-        <v>19.442399999999999</v>
-      </c>
-      <c r="M109">
-        <v>-99.131</v>
-      </c>
-    </row>
-    <row r="110" spans="11:13">
-      <c r="K110" t="s">
-        <v>421</v>
-      </c>
-      <c r="L110">
-        <v>42</v>
-      </c>
-      <c r="M110">
-        <v>21.433499999999999</v>
-      </c>
-    </row>
-    <row r="111" spans="11:13">
-      <c r="K111" t="s">
-        <v>422</v>
-      </c>
-      <c r="L111">
-        <v>12.65</v>
-      </c>
-      <c r="M111">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="112" spans="11:13">
-      <c r="K112" t="s">
-        <v>423</v>
-      </c>
-      <c r="L112">
-        <v>35.899700000000003</v>
-      </c>
-      <c r="M112">
-        <v>14.514699999999999</v>
-      </c>
-    </row>
-    <row r="113" spans="11:13">
-      <c r="K113" t="s">
-        <v>424</v>
-      </c>
-      <c r="L113">
-        <v>16.871310999999999</v>
-      </c>
-      <c r="M113">
-        <v>96.199378999999993</v>
-      </c>
-    </row>
-    <row r="114" spans="11:13">
-      <c r="K114" t="s">
-        <v>425</v>
-      </c>
-      <c r="L114">
-        <v>42.442574</v>
-      </c>
-      <c r="M114">
-        <v>19.268646</v>
-      </c>
-    </row>
-    <row r="115" spans="11:13">
-      <c r="K115" t="s">
-        <v>426</v>
-      </c>
-      <c r="L115">
-        <v>47.916699999999999</v>
-      </c>
-      <c r="M115">
-        <v>106.9166</v>
-      </c>
-    </row>
-    <row r="116" spans="11:13">
-      <c r="K116" t="s">
-        <v>427</v>
-      </c>
-      <c r="L116">
-        <v>-25.9696</v>
-      </c>
-      <c r="M116">
-        <v>32.46</v>
-      </c>
-    </row>
-    <row r="117" spans="11:13">
-      <c r="K117" t="s">
-        <v>428</v>
-      </c>
-      <c r="L117">
-        <v>18.086400000000001</v>
-      </c>
-      <c r="M117">
-        <v>-15.975300000000001</v>
-      </c>
-    </row>
-    <row r="118" spans="11:13">
-      <c r="K118" t="s">
-        <v>429</v>
-      </c>
-      <c r="L118">
-        <v>-13.9833</v>
-      </c>
-      <c r="M118">
-        <v>33.783299999999997</v>
-      </c>
-    </row>
-    <row r="119" spans="11:13">
-      <c r="K119" t="s">
-        <v>430</v>
-      </c>
-      <c r="L119">
-        <v>3.1667000000000001</v>
-      </c>
-      <c r="M119">
-        <v>101.7</v>
-      </c>
-    </row>
-    <row r="120" spans="11:13">
-      <c r="K120" t="s">
-        <v>431</v>
-      </c>
-      <c r="L120">
-        <v>-22.57</v>
-      </c>
-      <c r="M120">
-        <v>17.083500000000001</v>
-      </c>
-    </row>
-    <row r="121" spans="11:13">
-      <c r="K121" t="s">
-        <v>432</v>
-      </c>
-      <c r="L121">
-        <v>13.5167</v>
-      </c>
-      <c r="M121">
-        <v>2.1166999999999998</v>
-      </c>
-    </row>
-    <row r="122" spans="11:13">
-      <c r="K122" t="s">
-        <v>433</v>
-      </c>
-      <c r="L122">
-        <v>6.4432999999999998</v>
-      </c>
-      <c r="M122">
-        <v>3.3915000000000002</v>
-      </c>
-    </row>
-    <row r="123" spans="11:13">
-      <c r="K123" t="s">
-        <v>434</v>
-      </c>
-      <c r="L123">
-        <v>12.153</v>
-      </c>
-      <c r="M123">
-        <v>-86.268500000000003</v>
-      </c>
-    </row>
-    <row r="124" spans="11:13">
-      <c r="K124" t="s">
-        <v>435</v>
-      </c>
-      <c r="L124">
-        <v>52.35</v>
-      </c>
-      <c r="M124">
-        <v>4.9165999999999999</v>
-      </c>
-    </row>
-    <row r="125" spans="11:13">
-      <c r="K125" t="s">
-        <v>436</v>
-      </c>
-      <c r="L125">
-        <v>59.916699999999999</v>
-      </c>
-      <c r="M125">
-        <v>10.75</v>
-      </c>
-    </row>
-    <row r="126" spans="11:13">
-      <c r="K126" t="s">
-        <v>437</v>
-      </c>
-      <c r="L126">
-        <v>27.716699999999999</v>
-      </c>
-      <c r="M126">
-        <v>85.316599999999994</v>
-      </c>
-    </row>
-    <row r="127" spans="11:13">
-      <c r="K127" t="s">
-        <v>438</v>
-      </c>
-      <c r="L127">
-        <v>-36.848100000000002</v>
-      </c>
-      <c r="M127">
-        <v>174.76300000000001</v>
-      </c>
-    </row>
-    <row r="128" spans="11:13">
-      <c r="K128" t="s">
-        <v>439</v>
-      </c>
-      <c r="L128">
-        <v>23.613299999999999</v>
-      </c>
-      <c r="M128">
-        <v>58.593299999999999</v>
-      </c>
-    </row>
-    <row r="129" spans="11:13">
-      <c r="K129" t="s">
-        <v>440</v>
-      </c>
-      <c r="L129">
-        <v>24.87</v>
-      </c>
-      <c r="M129">
-        <v>66.989999999999995</v>
-      </c>
-    </row>
-    <row r="130" spans="11:13">
-      <c r="K130" t="s">
-        <v>441</v>
-      </c>
-      <c r="L130">
-        <v>8.968</v>
-      </c>
-      <c r="M130">
-        <v>-79.533000000000001</v>
-      </c>
-    </row>
-    <row r="131" spans="11:13">
-      <c r="K131" t="s">
-        <v>442</v>
-      </c>
-      <c r="L131">
-        <v>-12.048</v>
-      </c>
-      <c r="M131">
-        <v>-77.0501</v>
-      </c>
-    </row>
-    <row r="132" spans="11:13">
-      <c r="K132" t="s">
-        <v>443</v>
-      </c>
-      <c r="L132">
-        <v>14.604200000000001</v>
-      </c>
-      <c r="M132">
-        <v>120.98220000000001</v>
-      </c>
-    </row>
-    <row r="133" spans="11:13">
-      <c r="K133" t="s">
-        <v>444</v>
-      </c>
-      <c r="L133">
-        <v>-9.4647000000000006</v>
-      </c>
-      <c r="M133">
-        <v>147.1925</v>
-      </c>
-    </row>
-    <row r="134" spans="11:13">
-      <c r="K134" t="s">
-        <v>445</v>
-      </c>
-      <c r="L134">
-        <v>52.25</v>
-      </c>
-      <c r="M134">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="135" spans="11:13">
-      <c r="K135" t="s">
-        <v>446</v>
-      </c>
-      <c r="L135">
-        <v>39.019399999999997</v>
-      </c>
-      <c r="M135">
-        <v>125.7547</v>
-      </c>
-    </row>
-    <row r="136" spans="11:13">
-      <c r="K136" t="s">
-        <v>447</v>
-      </c>
-      <c r="L136">
-        <v>38.722700000000003</v>
-      </c>
-      <c r="M136">
-        <v>-9.1448999999999998</v>
-      </c>
-    </row>
-    <row r="137" spans="11:13">
-      <c r="K137" t="s">
-        <v>448</v>
-      </c>
-      <c r="L137">
-        <v>-25.296399999999998</v>
-      </c>
-      <c r="M137">
-        <v>-57.641500000000001</v>
-      </c>
-    </row>
-    <row r="138" spans="11:13">
-      <c r="K138" t="s">
-        <v>449</v>
-      </c>
-      <c r="L138">
-        <v>25.291899999999998</v>
-      </c>
-      <c r="M138">
-        <v>51.424399999999999</v>
-      </c>
-    </row>
-    <row r="139" spans="11:13">
-      <c r="K139" t="s">
-        <v>450</v>
-      </c>
-      <c r="L139">
-        <v>44.433399999999999</v>
-      </c>
-      <c r="M139">
-        <v>26.099900000000002</v>
-      </c>
-    </row>
-    <row r="140" spans="11:13">
-      <c r="K140" t="s">
-        <v>491</v>
-      </c>
-      <c r="L140">
-        <v>55.749899999999997</v>
-      </c>
-      <c r="M140">
-        <v>49.126300000000001</v>
-      </c>
-    </row>
-    <row r="141" spans="11:13">
-      <c r="K141" t="s">
-        <v>451</v>
-      </c>
-      <c r="L141">
-        <v>-1.9536</v>
-      </c>
-      <c r="M141">
-        <v>30.060500000000001</v>
-      </c>
-    </row>
-    <row r="142" spans="11:13">
-      <c r="K142" t="s">
-        <v>452</v>
-      </c>
-      <c r="L142">
-        <v>24.640799999999999</v>
-      </c>
-      <c r="M142">
-        <v>46.7727</v>
-      </c>
-    </row>
-    <row r="143" spans="11:13">
-      <c r="K143" t="s">
-        <v>453</v>
-      </c>
-      <c r="L143">
-        <v>15.588100000000001</v>
-      </c>
-      <c r="M143">
-        <v>32.534199999999998</v>
-      </c>
-    </row>
-    <row r="144" spans="11:13">
-      <c r="K144" t="s">
-        <v>454</v>
-      </c>
-      <c r="L144">
-        <v>14.7158</v>
-      </c>
-      <c r="M144">
-        <v>-17.473099999999999</v>
-      </c>
-    </row>
-    <row r="145" spans="11:13">
-      <c r="K145" t="s">
-        <v>455</v>
-      </c>
-      <c r="L145">
-        <v>1.2929999999999999</v>
-      </c>
-      <c r="M145">
-        <v>103.8558</v>
-      </c>
-    </row>
-    <row r="146" spans="11:13">
-      <c r="K146" t="s">
-        <v>456</v>
-      </c>
-      <c r="L146">
-        <v>8.4700000000000006</v>
-      </c>
-      <c r="M146">
-        <v>-13.2342</v>
-      </c>
-    </row>
-    <row r="147" spans="11:13">
-      <c r="K147" t="s">
-        <v>457</v>
-      </c>
-      <c r="L147">
-        <v>13.71</v>
-      </c>
-      <c r="M147">
-        <v>-89.203000000000003</v>
-      </c>
-    </row>
-    <row r="148" spans="11:13">
-      <c r="K148" t="s">
-        <v>458</v>
-      </c>
-      <c r="L148">
-        <v>2.0667</v>
-      </c>
-      <c r="M148">
-        <v>45.366700000000002</v>
-      </c>
-    </row>
-    <row r="149" spans="11:13">
-      <c r="K149" t="s">
-        <v>459</v>
-      </c>
-      <c r="L149">
-        <v>44.818600000000004</v>
-      </c>
-      <c r="M149">
-        <v>20.468</v>
-      </c>
-    </row>
-    <row r="150" spans="11:13">
-      <c r="K150" t="s">
-        <v>460</v>
-      </c>
-      <c r="L150">
-        <v>5.835</v>
-      </c>
-      <c r="M150">
-        <v>-55.167000000000002</v>
-      </c>
-    </row>
-    <row r="151" spans="11:13">
-      <c r="K151" t="s">
-        <v>461</v>
-      </c>
-      <c r="L151">
-        <v>48.15</v>
-      </c>
-      <c r="M151">
-        <v>17.117000000000001</v>
-      </c>
-    </row>
-    <row r="152" spans="11:13">
-      <c r="K152" t="s">
-        <v>462</v>
-      </c>
-      <c r="L152">
-        <v>46.055300000000003</v>
-      </c>
-      <c r="M152">
-        <v>14.515000000000001</v>
-      </c>
-    </row>
-    <row r="153" spans="11:13">
-      <c r="K153" t="s">
-        <v>463</v>
-      </c>
-      <c r="L153">
-        <v>59.3508</v>
-      </c>
-      <c r="M153">
-        <v>18.097300000000001</v>
-      </c>
-    </row>
-    <row r="154" spans="11:13">
-      <c r="K154" t="s">
-        <v>464</v>
-      </c>
-      <c r="L154">
-        <v>-26.495000000000001</v>
-      </c>
-      <c r="M154">
-        <v>31.388000000000002</v>
-      </c>
-    </row>
-    <row r="155" spans="11:13">
-      <c r="K155" t="s">
-        <v>465</v>
-      </c>
-      <c r="L155">
-        <v>33.5</v>
-      </c>
-      <c r="M155">
-        <v>36.299999999999997</v>
-      </c>
-    </row>
-    <row r="156" spans="11:13">
-      <c r="K156" t="s">
-        <v>466</v>
-      </c>
-      <c r="L156">
-        <v>12.113099999999999</v>
-      </c>
-      <c r="M156">
-        <v>15.049099999999999</v>
-      </c>
-    </row>
-    <row r="157" spans="11:13">
-      <c r="K157" t="s">
-        <v>467</v>
-      </c>
-      <c r="L157">
-        <v>6.1318999999999999</v>
-      </c>
-      <c r="M157">
-        <v>1.2228000000000001</v>
-      </c>
-    </row>
-    <row r="158" spans="11:13">
-      <c r="K158" t="s">
-        <v>468</v>
-      </c>
-      <c r="L158">
-        <v>13.75</v>
-      </c>
-      <c r="M158">
-        <v>100.5166</v>
-      </c>
-    </row>
-    <row r="159" spans="11:13">
-      <c r="K159" t="s">
-        <v>469</v>
-      </c>
-      <c r="L159">
-        <v>38.56</v>
-      </c>
-      <c r="M159">
-        <v>68.773899999999998</v>
-      </c>
-    </row>
-    <row r="160" spans="11:13">
-      <c r="K160" t="s">
-        <v>470</v>
-      </c>
-      <c r="L160">
-        <v>37.950000000000003</v>
-      </c>
-      <c r="M160">
-        <v>58.383299999999998</v>
-      </c>
-    </row>
-    <row r="161" spans="11:13">
-      <c r="K161" t="s">
-        <v>471</v>
-      </c>
-      <c r="L161">
-        <v>-8.5594000000000001</v>
-      </c>
-      <c r="M161">
-        <v>125.5795</v>
-      </c>
-    </row>
-    <row r="162" spans="11:13">
-      <c r="K162" t="s">
-        <v>472</v>
-      </c>
-      <c r="L162">
-        <v>10.651999999999999</v>
-      </c>
-      <c r="M162">
-        <v>-61.517000000000003</v>
-      </c>
-    </row>
-    <row r="163" spans="11:13">
-      <c r="K163" t="s">
-        <v>473</v>
-      </c>
-      <c r="L163">
-        <v>36.802799999999998</v>
-      </c>
-      <c r="M163">
-        <v>10.1797</v>
-      </c>
-    </row>
-    <row r="164" spans="11:13">
-      <c r="K164" t="s">
-        <v>474</v>
-      </c>
-      <c r="L164">
-        <v>41.104999999999997</v>
-      </c>
-      <c r="M164">
-        <v>29.01</v>
-      </c>
-    </row>
-    <row r="165" spans="11:13">
-      <c r="K165" t="s">
-        <v>475</v>
-      </c>
-      <c r="L165">
-        <v>25.035799999999998</v>
-      </c>
-      <c r="M165">
-        <v>121.56829999999999</v>
-      </c>
-    </row>
-    <row r="166" spans="11:13">
-      <c r="K166" t="s">
-        <v>476</v>
-      </c>
-      <c r="L166">
-        <v>-6.8</v>
-      </c>
-      <c r="M166">
-        <v>39.268300000000004</v>
-      </c>
-    </row>
-    <row r="167" spans="11:13">
-      <c r="K167" t="s">
-        <v>477</v>
-      </c>
-      <c r="L167">
-        <v>0.31669999999999998</v>
-      </c>
-      <c r="M167">
-        <v>32.583300000000001</v>
-      </c>
-    </row>
-    <row r="168" spans="11:13">
-      <c r="K168" t="s">
-        <v>478</v>
-      </c>
-      <c r="L168">
-        <v>50.434341000000003</v>
-      </c>
-      <c r="M168">
-        <v>30.527756</v>
-      </c>
-    </row>
-    <row r="169" spans="11:13">
-      <c r="K169" t="s">
-        <v>479</v>
-      </c>
-      <c r="L169">
-        <v>-34.857999999999997</v>
-      </c>
-      <c r="M169">
-        <v>-56.171100000000003</v>
-      </c>
-    </row>
-    <row r="170" spans="11:13">
-      <c r="K170" t="s">
-        <v>490</v>
-      </c>
-      <c r="L170">
-        <v>44.963500000000003</v>
-      </c>
-      <c r="M170">
-        <v>-93.267799999999994</v>
-      </c>
-    </row>
-    <row r="171" spans="11:13">
-      <c r="K171" t="s">
-        <v>480</v>
-      </c>
-      <c r="L171">
-        <v>41.311700000000002</v>
-      </c>
-      <c r="M171">
-        <v>69.294899999999998</v>
-      </c>
-    </row>
-    <row r="172" spans="11:13">
-      <c r="K172" t="s">
-        <v>481</v>
-      </c>
-      <c r="L172">
-        <v>10.5</v>
-      </c>
-      <c r="M172">
-        <v>-66.916663999999997</v>
-      </c>
-    </row>
-    <row r="173" spans="11:13">
-      <c r="K173" t="s">
-        <v>482</v>
-      </c>
-      <c r="L173">
-        <v>10.810582999999999</v>
-      </c>
-      <c r="M173">
-        <v>106.70914500000001</v>
-      </c>
-    </row>
-    <row r="174" spans="11:13">
-      <c r="K174" t="s">
-        <v>483</v>
-      </c>
-      <c r="L174">
-        <v>15.354699999999999</v>
-      </c>
-      <c r="M174">
-        <v>44.206600000000002</v>
-      </c>
-    </row>
-    <row r="175" spans="11:13">
-      <c r="K175" t="s">
-        <v>484</v>
-      </c>
-      <c r="L175">
-        <v>-26.17</v>
-      </c>
-      <c r="M175">
-        <v>28.03</v>
-      </c>
-    </row>
-    <row r="176" spans="11:13">
-      <c r="K176" t="s">
-        <v>485</v>
-      </c>
-      <c r="L176">
-        <v>-15.416600000000001</v>
-      </c>
-      <c r="M176">
-        <v>28.283300000000001</v>
-      </c>
-    </row>
-    <row r="177" spans="11:13">
-      <c r="K177" t="s">
-        <v>486</v>
-      </c>
-      <c r="L177">
-        <v>-17.817799999999998</v>
-      </c>
-      <c r="M177">
-        <v>31.044699999999999</v>
-      </c>
-    </row>
-    <row r="178" spans="11:13">
-      <c r="K178" t="s">
-        <v>487</v>
-      </c>
-      <c r="L178">
-        <v>4.8539000000000003</v>
-      </c>
-      <c r="M178">
-        <v>31.5825</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/ReportDefs-TIMES-GEO.xlsx
+++ b/ReportDefs-TIMES-GEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\TIMES-GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F185346-FEF2-41C3-9A02-AA88A9309521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C8A595-F15F-4308-8A34-7CF238560C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
@@ -20,15 +20,17 @@
     <sheet name="varbl map" sheetId="64" r:id="rId5"/>
     <sheet name="cset map" sheetId="70" r:id="rId6"/>
     <sheet name="pset map" sheetId="69" r:id="rId7"/>
-    <sheet name="process map" sheetId="65" r:id="rId8"/>
-    <sheet name="commodity map" sheetId="67" r:id="rId9"/>
-    <sheet name="ATS" sheetId="63" r:id="rId10"/>
-    <sheet name="UnitConv" sheetId="59" r:id="rId11"/>
+    <sheet name="region map" sheetId="73" r:id="rId8"/>
+    <sheet name="process map" sheetId="65" r:id="rId9"/>
+    <sheet name="commodity map" sheetId="67" r:id="rId10"/>
+    <sheet name="ATS" sheetId="63" r:id="rId11"/>
+    <sheet name="Language" sheetId="72" r:id="rId12"/>
+    <sheet name="UnitConv" sheetId="59" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TS_Defs!$A$2:$N$2</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -105,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="805">
   <si>
     <t>Unit</t>
   </si>
@@ -1631,9 +1633,6 @@
     <t>U-DD</t>
   </si>
   <si>
-    <t>Upstream Domestic Delivert Technologies</t>
-  </si>
-  <si>
     <t>U-TRF</t>
   </si>
   <si>
@@ -1677,6 +1676,852 @@
   </si>
   <si>
     <t>Transport</t>
+  </si>
+  <si>
+    <t>~Language</t>
+  </si>
+  <si>
+    <t>Elettricità</t>
+  </si>
+  <si>
+    <t>Electricidad</t>
+  </si>
+  <si>
+    <t>Elektrizität</t>
+  </si>
+  <si>
+    <t>電気</t>
+  </si>
+  <si>
+    <t>电力</t>
+  </si>
+  <si>
+    <t>Carbone</t>
+  </si>
+  <si>
+    <t>Carbón</t>
+  </si>
+  <si>
+    <t>Kohle</t>
+  </si>
+  <si>
+    <t>石炭</t>
+  </si>
+  <si>
+    <t>煤炭</t>
+  </si>
+  <si>
+    <t>ガス</t>
+  </si>
+  <si>
+    <t>天然气</t>
+  </si>
+  <si>
+    <t>Gas (miscele)</t>
+  </si>
+  <si>
+    <t>Gas (mezclas)</t>
+  </si>
+  <si>
+    <t>Gas (Mischungen)</t>
+  </si>
+  <si>
+    <t>混合ガス</t>
+  </si>
+  <si>
+    <t>混合气体</t>
+  </si>
+  <si>
+    <t>Petrolio</t>
+  </si>
+  <si>
+    <t>Petróleo</t>
+  </si>
+  <si>
+    <t>Öl</t>
+  </si>
+  <si>
+    <t>石油</t>
+  </si>
+  <si>
+    <t>Petrolio (miscele)</t>
+  </si>
+  <si>
+    <t>Petróleo (mezclas)</t>
+  </si>
+  <si>
+    <t>Öl (Mischungen)</t>
+  </si>
+  <si>
+    <t>混合石油</t>
+  </si>
+  <si>
+    <t>Calore</t>
+  </si>
+  <si>
+    <t>Calor</t>
+  </si>
+  <si>
+    <t>Wärme</t>
+  </si>
+  <si>
+    <t>熱</t>
+  </si>
+  <si>
+    <t>热能</t>
+  </si>
+  <si>
+    <t>Bioenergia</t>
+  </si>
+  <si>
+    <t>Bioenergía</t>
+  </si>
+  <si>
+    <t>Bioenergie</t>
+  </si>
+  <si>
+    <t>バイオエネルギー</t>
+  </si>
+  <si>
+    <t>生物能源</t>
+  </si>
+  <si>
+    <t>Solare</t>
+  </si>
+  <si>
+    <t>太陽光</t>
+  </si>
+  <si>
+    <t>太阳能</t>
+  </si>
+  <si>
+    <t>Eolico</t>
+  </si>
+  <si>
+    <t>Eólica</t>
+  </si>
+  <si>
+    <t>風力</t>
+  </si>
+  <si>
+    <t>风能</t>
+  </si>
+  <si>
+    <t>Geotermico</t>
+  </si>
+  <si>
+    <t>Geotérmica</t>
+  </si>
+  <si>
+    <t>Geothermie</t>
+  </si>
+  <si>
+    <t>地熱</t>
+  </si>
+  <si>
+    <t>地热</t>
+  </si>
+  <si>
+    <t>Idroelettrico</t>
+  </si>
+  <si>
+    <t>Hidroeléctrica</t>
+  </si>
+  <si>
+    <t>Wasserkraft</t>
+  </si>
+  <si>
+    <t>水力</t>
+  </si>
+  <si>
+    <t>水电</t>
+  </si>
+  <si>
+    <t>Altri</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>Andere</t>
+  </si>
+  <si>
+    <t>その他</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>Rifiuti</t>
+  </si>
+  <si>
+    <t>Residuos</t>
+  </si>
+  <si>
+    <t>Abfall</t>
+  </si>
+  <si>
+    <t>廃棄物</t>
+  </si>
+  <si>
+    <t>废物</t>
+  </si>
+  <si>
+    <t>Nucleare</t>
+  </si>
+  <si>
+    <t>Kernenergie</t>
+  </si>
+  <si>
+    <t>原子力</t>
+  </si>
+  <si>
+    <t>核能</t>
+  </si>
+  <si>
+    <t>Idrogeno</t>
+  </si>
+  <si>
+    <t>Hidrógeno</t>
+  </si>
+  <si>
+    <t>Wasserstoff</t>
+  </si>
+  <si>
+    <t>水素</t>
+  </si>
+  <si>
+    <t>氢能</t>
+  </si>
+  <si>
+    <t>Ammoniaca</t>
+  </si>
+  <si>
+    <t>Amoníaco</t>
+  </si>
+  <si>
+    <t>Ammoniak</t>
+  </si>
+  <si>
+    <t>アンモニア</t>
+  </si>
+  <si>
+    <t>氨</t>
+  </si>
+  <si>
+    <t>Combustibili sintetici</t>
+  </si>
+  <si>
+    <t>Combustibles sintéticos</t>
+  </si>
+  <si>
+    <t>Synthetische Kraftstoffe</t>
+  </si>
+  <si>
+    <t>合成燃料</t>
+  </si>
+  <si>
+    <t>二酸化炭素</t>
+  </si>
+  <si>
+    <t>二氧化碳</t>
+  </si>
+  <si>
+    <t>メタン</t>
+  </si>
+  <si>
+    <t>甲烷</t>
+  </si>
+  <si>
+    <t>一酸化二窒素</t>
+  </si>
+  <si>
+    <t>一氧化二氮</t>
+  </si>
+  <si>
+    <t>Residenziale</t>
+  </si>
+  <si>
+    <t>Residencial</t>
+  </si>
+  <si>
+    <t>Wohnbereich</t>
+  </si>
+  <si>
+    <t>住宅</t>
+  </si>
+  <si>
+    <t>居民</t>
+  </si>
+  <si>
+    <t>Servizi</t>
+  </si>
+  <si>
+    <t>Servicios</t>
+  </si>
+  <si>
+    <t>Dienstleistungen</t>
+  </si>
+  <si>
+    <t>サービス</t>
+  </si>
+  <si>
+    <t>服务</t>
+  </si>
+  <si>
+    <t>Tecnologie usi termici</t>
+  </si>
+  <si>
+    <t>Tecnologías usos térmicos</t>
+  </si>
+  <si>
+    <t>Technologien thermischer Nutzung</t>
+  </si>
+  <si>
+    <t>熱利用技術</t>
+  </si>
+  <si>
+    <t>热利用技术</t>
+  </si>
+  <si>
+    <t>Tecnologie di condizionamento</t>
+  </si>
+  <si>
+    <t>Tecnologías de aire acondicionado</t>
+  </si>
+  <si>
+    <t>Klimatisierungstechnologien</t>
+  </si>
+  <si>
+    <t>空調技術</t>
+  </si>
+  <si>
+    <t>空调技术</t>
+  </si>
+  <si>
+    <t>Tecnologie di cottura</t>
+  </si>
+  <si>
+    <t>Tecnologías de cocción</t>
+  </si>
+  <si>
+    <t>Kochtechnologien</t>
+  </si>
+  <si>
+    <t>調理技術</t>
+  </si>
+  <si>
+    <t>烹饪技术</t>
+  </si>
+  <si>
+    <t>Tecnologie di illuminazione</t>
+  </si>
+  <si>
+    <t>Tecnologías de iluminación</t>
+  </si>
+  <si>
+    <t>Beleuchtungstechnologien</t>
+  </si>
+  <si>
+    <t>照明技術</t>
+  </si>
+  <si>
+    <t>照明技术</t>
+  </si>
+  <si>
+    <t>Apparecchi elettrici</t>
+  </si>
+  <si>
+    <t>Electrodomésticos</t>
+  </si>
+  <si>
+    <t>Elektrogeräte</t>
+  </si>
+  <si>
+    <t>電化製品</t>
+  </si>
+  <si>
+    <t>电器设备</t>
+  </si>
+  <si>
+    <t>Altri usi</t>
+  </si>
+  <si>
+    <t>Otros usos</t>
+  </si>
+  <si>
+    <t>Andere Nutzungen</t>
+  </si>
+  <si>
+    <t>その他の用途</t>
+  </si>
+  <si>
+    <t>其他用途</t>
+  </si>
+  <si>
+    <t>Caldaie</t>
+  </si>
+  <si>
+    <t>Calderas</t>
+  </si>
+  <si>
+    <t>Kessel</t>
+  </si>
+  <si>
+    <t>ボイラー</t>
+  </si>
+  <si>
+    <t>锅炉</t>
+  </si>
+  <si>
+    <t>Pompe di calore (aria)</t>
+  </si>
+  <si>
+    <t>Bombas de calor (aire)</t>
+  </si>
+  <si>
+    <t>Wärmepumpen (Luft)</t>
+  </si>
+  <si>
+    <t>ヒートポンプ（空気）</t>
+  </si>
+  <si>
+    <t>热泵（空气）</t>
+  </si>
+  <si>
+    <t>Pompe di calore (terra)</t>
+  </si>
+  <si>
+    <t>Bombas de calor (tierra)</t>
+  </si>
+  <si>
+    <t>Wärmepumpen (Boden)</t>
+  </si>
+  <si>
+    <t>ヒートポンプ（地中）</t>
+  </si>
+  <si>
+    <t>热泵（地源）</t>
+  </si>
+  <si>
+    <t>Resistenza</t>
+  </si>
+  <si>
+    <t>Resistencia</t>
+  </si>
+  <si>
+    <t>Widerstand</t>
+  </si>
+  <si>
+    <t>抵抗加熱</t>
+  </si>
+  <si>
+    <t>电阻加热</t>
+  </si>
+  <si>
+    <t>Stufe</t>
+  </si>
+  <si>
+    <t>Estufas</t>
+  </si>
+  <si>
+    <t>Öfen</t>
+  </si>
+  <si>
+    <t>コンロ</t>
+  </si>
+  <si>
+    <t>炉具</t>
+  </si>
+  <si>
+    <t>Scambiatore di calore</t>
+  </si>
+  <si>
+    <t>Intercambiador de calor</t>
+  </si>
+  <si>
+    <t>Wärmetauscher</t>
+  </si>
+  <si>
+    <t>熱交換器</t>
+  </si>
+  <si>
+    <t>换热器</t>
+  </si>
+  <si>
+    <t>Trasporto totale</t>
+  </si>
+  <si>
+    <t>Transporte total</t>
+  </si>
+  <si>
+    <t>Gesamtverkehr</t>
+  </si>
+  <si>
+    <t>総輸送</t>
+  </si>
+  <si>
+    <t>全部运输</t>
+  </si>
+  <si>
+    <t>Trasporto passeggeri</t>
+  </si>
+  <si>
+    <t>Transporte de pasajeros</t>
+  </si>
+  <si>
+    <t>Personenverkehr</t>
+  </si>
+  <si>
+    <t>旅客輸送</t>
+  </si>
+  <si>
+    <t>客运</t>
+  </si>
+  <si>
+    <t>Trasporto merci</t>
+  </si>
+  <si>
+    <t>Transporte de mercancías</t>
+  </si>
+  <si>
+    <t>Güterverkehr</t>
+  </si>
+  <si>
+    <t>貨物輸送</t>
+  </si>
+  <si>
+    <t>货运</t>
+  </si>
+  <si>
+    <t>Automobili</t>
+  </si>
+  <si>
+    <t>Coches</t>
+  </si>
+  <si>
+    <t>Autos</t>
+  </si>
+  <si>
+    <t>自動車</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>Motociclette</t>
+  </si>
+  <si>
+    <t>Motocicletas</t>
+  </si>
+  <si>
+    <t>Motorräder</t>
+  </si>
+  <si>
+    <t>オートバイ</t>
+  </si>
+  <si>
+    <t>摩托车</t>
+  </si>
+  <si>
+    <t>Autobus</t>
+  </si>
+  <si>
+    <t>Autobuses</t>
+  </si>
+  <si>
+    <t>Busse</t>
+  </si>
+  <si>
+    <t>バス</t>
+  </si>
+  <si>
+    <t>公交车</t>
+  </si>
+  <si>
+    <t>Ferrovia</t>
+  </si>
+  <si>
+    <t>Ferrocarril</t>
+  </si>
+  <si>
+    <t>Bahn</t>
+  </si>
+  <si>
+    <t>鉄道</t>
+  </si>
+  <si>
+    <t>铁路</t>
+  </si>
+  <si>
+    <t>Aviazione</t>
+  </si>
+  <si>
+    <t>Aviación</t>
+  </si>
+  <si>
+    <t>Luftfahrt</t>
+  </si>
+  <si>
+    <t>航空</t>
+  </si>
+  <si>
+    <t>Navigazione</t>
+  </si>
+  <si>
+    <t>Navegación</t>
+  </si>
+  <si>
+    <t>Schifffahrt</t>
+  </si>
+  <si>
+    <t>航行</t>
+  </si>
+  <si>
+    <t>航运</t>
+  </si>
+  <si>
+    <t>Agricoltura</t>
+  </si>
+  <si>
+    <t>Agricultura</t>
+  </si>
+  <si>
+    <t>Landwirtschaft</t>
+  </si>
+  <si>
+    <t>農業</t>
+  </si>
+  <si>
+    <t>农业</t>
+  </si>
+  <si>
+    <t>Industria</t>
+  </si>
+  <si>
+    <t>Industrie</t>
+  </si>
+  <si>
+    <t>産業</t>
+  </si>
+  <si>
+    <t>工业</t>
+  </si>
+  <si>
+    <t>Ferro e acciaio</t>
+  </si>
+  <si>
+    <t>Hierro y acero</t>
+  </si>
+  <si>
+    <t>Eisen und Stahl</t>
+  </si>
+  <si>
+    <t>鉄鋼</t>
+  </si>
+  <si>
+    <t>钢铁</t>
+  </si>
+  <si>
+    <t>EQ_COMBALM</t>
+  </si>
+  <si>
+    <t>VAR_COMPRD</t>
+  </si>
+  <si>
+    <t>AFE</t>
+  </si>
+  <si>
+    <t>AFN</t>
+  </si>
+  <si>
+    <t>AFZ</t>
+  </si>
+  <si>
+    <t>AFW</t>
+  </si>
+  <si>
+    <t>ANZ</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>ASC</t>
+  </si>
+  <si>
+    <t>Central Asia</t>
+  </si>
+  <si>
+    <t>ASE</t>
+  </si>
+  <si>
+    <t>Southeast Asia</t>
+  </si>
+  <si>
+    <t>ASO</t>
+  </si>
+  <si>
+    <t>South Asia</t>
+  </si>
+  <si>
+    <t>ASR</t>
+  </si>
+  <si>
+    <t>Asia Region</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>China Mainland</t>
+  </si>
+  <si>
+    <t>ENE</t>
+  </si>
+  <si>
+    <t>ENW</t>
+  </si>
+  <si>
+    <t>EUE</t>
+  </si>
+  <si>
+    <t>EUW</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>LAM</t>
+  </si>
+  <si>
+    <t>Latin America</t>
+  </si>
+  <si>
+    <t>MEA</t>
+  </si>
+  <si>
+    <t>Middle East</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Region-d</t>
+  </si>
+  <si>
+    <t>~region_map</t>
+  </si>
+  <si>
+    <t>Australia and NZ</t>
+  </si>
+  <si>
+    <t>East Africa</t>
+  </si>
+  <si>
+    <t>North Africa</t>
+  </si>
+  <si>
+    <t>West Africa</t>
+  </si>
+  <si>
+    <t>Non-EU East Europe</t>
+  </si>
+  <si>
+    <t>Non-EU West Europe</t>
+  </si>
+  <si>
+    <t>East Europe Union</t>
+  </si>
+  <si>
+    <t>West Europe Union</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Ele/CHP</t>
+  </si>
+  <si>
+    <t>Elec only</t>
+  </si>
+  <si>
+    <t>CHP</t>
+  </si>
+  <si>
+    <t>ELE</t>
+  </si>
+  <si>
+    <t>Upstream Domestic Delivery Technologies</t>
+  </si>
+  <si>
+    <t>cset_cn</t>
+  </si>
+  <si>
+    <t>-UPS*</t>
+  </si>
+  <si>
+    <t>UPS*</t>
+  </si>
+  <si>
+    <t>&lt;cset&gt;_src_to En Sec</t>
+  </si>
+  <si>
+    <t>&lt;cset&gt;_snk_for EnSec</t>
+  </si>
+  <si>
+    <t>USD/GJ</t>
+  </si>
+  <si>
+    <t>Prices</t>
+  </si>
+  <si>
+    <t>ELCC,ELCD,HETC,HETD,OILCRD,GASNAT,BIOMASS,COA,AMM,H2G</t>
+  </si>
+  <si>
+    <t>c,t</t>
+  </si>
+  <si>
+    <t>DEM</t>
+  </si>
+  <si>
+    <t>&lt;c&gt;</t>
+  </si>
+  <si>
+    <t>Demand Production</t>
+  </si>
+  <si>
+    <t>Output of end-use devices</t>
   </si>
 </sst>
 </file>
@@ -3415,6 +4260,305 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3245E1-8745-41DD-8AE6-2F4FA19D9F1C}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.796875" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.86328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G3"/>
@@ -3462,13 +4606,1896 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7080B6D8-5B4D-43BE-B27E-6742BCADC05C}">
+  <dimension ref="A1:F94"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>524</v>
+      </c>
+      <c r="C3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E3" t="s">
+        <v>527</v>
+      </c>
+      <c r="F3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C4" t="s">
+        <v>530</v>
+      </c>
+      <c r="D4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E4" t="s">
+        <v>532</v>
+      </c>
+      <c r="F4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>534</v>
+      </c>
+      <c r="F5" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>536</v>
+      </c>
+      <c r="C6" t="s">
+        <v>537</v>
+      </c>
+      <c r="D6" t="s">
+        <v>538</v>
+      </c>
+      <c r="E6" t="s">
+        <v>539</v>
+      </c>
+      <c r="F6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>541</v>
+      </c>
+      <c r="C7" t="s">
+        <v>542</v>
+      </c>
+      <c r="D7" t="s">
+        <v>543</v>
+      </c>
+      <c r="E7" t="s">
+        <v>544</v>
+      </c>
+      <c r="F7" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s">
+        <v>545</v>
+      </c>
+      <c r="C8" t="s">
+        <v>546</v>
+      </c>
+      <c r="D8" t="s">
+        <v>547</v>
+      </c>
+      <c r="E8" t="s">
+        <v>548</v>
+      </c>
+      <c r="F8" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" t="s">
+        <v>549</v>
+      </c>
+      <c r="C9" t="s">
+        <v>550</v>
+      </c>
+      <c r="D9" t="s">
+        <v>551</v>
+      </c>
+      <c r="E9" t="s">
+        <v>552</v>
+      </c>
+      <c r="F9" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s">
+        <v>554</v>
+      </c>
+      <c r="C10" t="s">
+        <v>555</v>
+      </c>
+      <c r="D10" t="s">
+        <v>556</v>
+      </c>
+      <c r="E10" t="s">
+        <v>557</v>
+      </c>
+      <c r="F10" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" t="s">
+        <v>559</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" t="s">
+        <v>560</v>
+      </c>
+      <c r="F11" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" t="s">
+        <v>562</v>
+      </c>
+      <c r="C12" t="s">
+        <v>563</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" t="s">
+        <v>564</v>
+      </c>
+      <c r="F12" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C13" t="s">
+        <v>567</v>
+      </c>
+      <c r="D13" t="s">
+        <v>568</v>
+      </c>
+      <c r="E13" t="s">
+        <v>569</v>
+      </c>
+      <c r="F13" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" t="s">
+        <v>571</v>
+      </c>
+      <c r="C14" t="s">
+        <v>572</v>
+      </c>
+      <c r="D14" t="s">
+        <v>573</v>
+      </c>
+      <c r="E14" t="s">
+        <v>574</v>
+      </c>
+      <c r="F14" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" t="s">
+        <v>576</v>
+      </c>
+      <c r="C15" t="s">
+        <v>577</v>
+      </c>
+      <c r="D15" t="s">
+        <v>578</v>
+      </c>
+      <c r="E15" t="s">
+        <v>579</v>
+      </c>
+      <c r="F15" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" t="s">
+        <v>581</v>
+      </c>
+      <c r="C16" t="s">
+        <v>582</v>
+      </c>
+      <c r="D16" t="s">
+        <v>583</v>
+      </c>
+      <c r="E16" t="s">
+        <v>584</v>
+      </c>
+      <c r="F16" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" t="s">
+        <v>586</v>
+      </c>
+      <c r="C17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" t="s">
+        <v>587</v>
+      </c>
+      <c r="E17" t="s">
+        <v>588</v>
+      </c>
+      <c r="F17" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" t="s">
+        <v>590</v>
+      </c>
+      <c r="C18" t="s">
+        <v>591</v>
+      </c>
+      <c r="D18" t="s">
+        <v>592</v>
+      </c>
+      <c r="E18" t="s">
+        <v>593</v>
+      </c>
+      <c r="F18" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" t="s">
+        <v>595</v>
+      </c>
+      <c r="C19" t="s">
+        <v>596</v>
+      </c>
+      <c r="D19" t="s">
+        <v>597</v>
+      </c>
+      <c r="E19" t="s">
+        <v>598</v>
+      </c>
+      <c r="F19" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" t="s">
+        <v>600</v>
+      </c>
+      <c r="C20" t="s">
+        <v>601</v>
+      </c>
+      <c r="D20" t="s">
+        <v>602</v>
+      </c>
+      <c r="E20" t="s">
+        <v>603</v>
+      </c>
+      <c r="F20" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" t="s">
+        <v>604</v>
+      </c>
+      <c r="F22" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" t="s">
+        <v>606</v>
+      </c>
+      <c r="F23" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" t="s">
+        <v>608</v>
+      </c>
+      <c r="F24" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" t="s">
+        <v>610</v>
+      </c>
+      <c r="C25" t="s">
+        <v>611</v>
+      </c>
+      <c r="D25" t="s">
+        <v>612</v>
+      </c>
+      <c r="E25" t="s">
+        <v>613</v>
+      </c>
+      <c r="F25" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26" t="s">
+        <v>615</v>
+      </c>
+      <c r="C26" t="s">
+        <v>616</v>
+      </c>
+      <c r="D26" t="s">
+        <v>617</v>
+      </c>
+      <c r="E26" t="s">
+        <v>618</v>
+      </c>
+      <c r="F26" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" t="s">
+        <v>620</v>
+      </c>
+      <c r="C27" t="s">
+        <v>621</v>
+      </c>
+      <c r="D27" t="s">
+        <v>622</v>
+      </c>
+      <c r="E27" t="s">
+        <v>623</v>
+      </c>
+      <c r="F27" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28" t="s">
+        <v>625</v>
+      </c>
+      <c r="C28" t="s">
+        <v>626</v>
+      </c>
+      <c r="D28" t="s">
+        <v>627</v>
+      </c>
+      <c r="E28" t="s">
+        <v>628</v>
+      </c>
+      <c r="F28" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29" t="s">
+        <v>630</v>
+      </c>
+      <c r="C29" t="s">
+        <v>631</v>
+      </c>
+      <c r="D29" t="s">
+        <v>632</v>
+      </c>
+      <c r="E29" t="s">
+        <v>633</v>
+      </c>
+      <c r="F29" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30" t="s">
+        <v>635</v>
+      </c>
+      <c r="C30" t="s">
+        <v>636</v>
+      </c>
+      <c r="D30" t="s">
+        <v>637</v>
+      </c>
+      <c r="E30" t="s">
+        <v>638</v>
+      </c>
+      <c r="F30" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" t="s">
+        <v>640</v>
+      </c>
+      <c r="C31" t="s">
+        <v>641</v>
+      </c>
+      <c r="D31" t="s">
+        <v>642</v>
+      </c>
+      <c r="E31" t="s">
+        <v>643</v>
+      </c>
+      <c r="F31" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B32" t="s">
+        <v>645</v>
+      </c>
+      <c r="C32" t="s">
+        <v>646</v>
+      </c>
+      <c r="D32" t="s">
+        <v>647</v>
+      </c>
+      <c r="E32" t="s">
+        <v>648</v>
+      </c>
+      <c r="F32" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" t="s">
+        <v>188</v>
+      </c>
+      <c r="E33" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>182</v>
+      </c>
+      <c r="B34" t="s">
+        <v>650</v>
+      </c>
+      <c r="C34" t="s">
+        <v>651</v>
+      </c>
+      <c r="D34" t="s">
+        <v>652</v>
+      </c>
+      <c r="E34" t="s">
+        <v>653</v>
+      </c>
+      <c r="F34" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" t="s">
+        <v>655</v>
+      </c>
+      <c r="C35" t="s">
+        <v>656</v>
+      </c>
+      <c r="D35" t="s">
+        <v>657</v>
+      </c>
+      <c r="E35" t="s">
+        <v>658</v>
+      </c>
+      <c r="F35" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>184</v>
+      </c>
+      <c r="B36" t="s">
+        <v>660</v>
+      </c>
+      <c r="C36" t="s">
+        <v>661</v>
+      </c>
+      <c r="D36" t="s">
+        <v>662</v>
+      </c>
+      <c r="E36" t="s">
+        <v>663</v>
+      </c>
+      <c r="F36" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>185</v>
+      </c>
+      <c r="B37" t="s">
+        <v>665</v>
+      </c>
+      <c r="C37" t="s">
+        <v>666</v>
+      </c>
+      <c r="D37" t="s">
+        <v>667</v>
+      </c>
+      <c r="E37" t="s">
+        <v>668</v>
+      </c>
+      <c r="F37" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>186</v>
+      </c>
+      <c r="B38" t="s">
+        <v>670</v>
+      </c>
+      <c r="C38" t="s">
+        <v>671</v>
+      </c>
+      <c r="D38" t="s">
+        <v>672</v>
+      </c>
+      <c r="E38" t="s">
+        <v>673</v>
+      </c>
+      <c r="F38" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>187</v>
+      </c>
+      <c r="B39" t="s">
+        <v>675</v>
+      </c>
+      <c r="C39" t="s">
+        <v>676</v>
+      </c>
+      <c r="D39" t="s">
+        <v>677</v>
+      </c>
+      <c r="E39" t="s">
+        <v>678</v>
+      </c>
+      <c r="F39" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>190</v>
+      </c>
+      <c r="B40" t="s">
+        <v>680</v>
+      </c>
+      <c r="C40" t="s">
+        <v>681</v>
+      </c>
+      <c r="D40" t="s">
+        <v>682</v>
+      </c>
+      <c r="E40" t="s">
+        <v>683</v>
+      </c>
+      <c r="F40" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>192</v>
+      </c>
+      <c r="B41" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" t="s">
+        <v>192</v>
+      </c>
+      <c r="D41" t="s">
+        <v>192</v>
+      </c>
+      <c r="E41" t="s">
+        <v>192</v>
+      </c>
+      <c r="F41" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>194</v>
+      </c>
+      <c r="B42" t="s">
+        <v>194</v>
+      </c>
+      <c r="C42" t="s">
+        <v>194</v>
+      </c>
+      <c r="D42" t="s">
+        <v>194</v>
+      </c>
+      <c r="E42" t="s">
+        <v>194</v>
+      </c>
+      <c r="F42" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>196</v>
+      </c>
+      <c r="B43" t="s">
+        <v>685</v>
+      </c>
+      <c r="C43" t="s">
+        <v>686</v>
+      </c>
+      <c r="D43" t="s">
+        <v>687</v>
+      </c>
+      <c r="E43" t="s">
+        <v>688</v>
+      </c>
+      <c r="F43" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>198</v>
+      </c>
+      <c r="B44" t="s">
+        <v>690</v>
+      </c>
+      <c r="C44" t="s">
+        <v>691</v>
+      </c>
+      <c r="D44" t="s">
+        <v>692</v>
+      </c>
+      <c r="E44" t="s">
+        <v>693</v>
+      </c>
+      <c r="F44" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>200</v>
+      </c>
+      <c r="B45" t="s">
+        <v>200</v>
+      </c>
+      <c r="C45" t="s">
+        <v>200</v>
+      </c>
+      <c r="D45" t="s">
+        <v>200</v>
+      </c>
+      <c r="E45" t="s">
+        <v>200</v>
+      </c>
+      <c r="F45" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>202</v>
+      </c>
+      <c r="B46" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" t="s">
+        <v>202</v>
+      </c>
+      <c r="D46" t="s">
+        <v>202</v>
+      </c>
+      <c r="E46" t="s">
+        <v>202</v>
+      </c>
+      <c r="F46" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>204</v>
+      </c>
+      <c r="B47" t="s">
+        <v>695</v>
+      </c>
+      <c r="C47" t="s">
+        <v>696</v>
+      </c>
+      <c r="D47" t="s">
+        <v>697</v>
+      </c>
+      <c r="E47" t="s">
+        <v>698</v>
+      </c>
+      <c r="F47" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>206</v>
+      </c>
+      <c r="B48" t="s">
+        <v>700</v>
+      </c>
+      <c r="C48" t="s">
+        <v>701</v>
+      </c>
+      <c r="D48" t="s">
+        <v>702</v>
+      </c>
+      <c r="E48" t="s">
+        <v>703</v>
+      </c>
+      <c r="F48" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>208</v>
+      </c>
+      <c r="B49" t="s">
+        <v>705</v>
+      </c>
+      <c r="C49" t="s">
+        <v>706</v>
+      </c>
+      <c r="D49" t="s">
+        <v>707</v>
+      </c>
+      <c r="E49" t="s">
+        <v>708</v>
+      </c>
+      <c r="F49" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>210</v>
+      </c>
+      <c r="B50" t="s">
+        <v>210</v>
+      </c>
+      <c r="C50" t="s">
+        <v>210</v>
+      </c>
+      <c r="D50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E50" t="s">
+        <v>210</v>
+      </c>
+      <c r="F50" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>212</v>
+      </c>
+      <c r="B51" t="s">
+        <v>212</v>
+      </c>
+      <c r="C51" t="s">
+        <v>212</v>
+      </c>
+      <c r="D51" t="s">
+        <v>212</v>
+      </c>
+      <c r="E51" t="s">
+        <v>212</v>
+      </c>
+      <c r="F51" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>214</v>
+      </c>
+      <c r="B52" t="s">
+        <v>214</v>
+      </c>
+      <c r="C52" t="s">
+        <v>214</v>
+      </c>
+      <c r="D52" t="s">
+        <v>214</v>
+      </c>
+      <c r="E52" t="s">
+        <v>214</v>
+      </c>
+      <c r="F52" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>216</v>
+      </c>
+      <c r="B53" t="s">
+        <v>710</v>
+      </c>
+      <c r="C53" t="s">
+        <v>711</v>
+      </c>
+      <c r="D53" t="s">
+        <v>712</v>
+      </c>
+      <c r="E53" t="s">
+        <v>713</v>
+      </c>
+      <c r="F53" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>218</v>
+      </c>
+      <c r="B54" t="s">
+        <v>218</v>
+      </c>
+      <c r="C54" t="s">
+        <v>218</v>
+      </c>
+      <c r="D54" t="s">
+        <v>218</v>
+      </c>
+      <c r="E54" t="s">
+        <v>218</v>
+      </c>
+      <c r="F54" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>220</v>
+      </c>
+      <c r="B55" t="s">
+        <v>220</v>
+      </c>
+      <c r="C55" t="s">
+        <v>220</v>
+      </c>
+      <c r="D55" t="s">
+        <v>220</v>
+      </c>
+      <c r="E55" t="s">
+        <v>220</v>
+      </c>
+      <c r="F55" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>222</v>
+      </c>
+      <c r="B56" t="s">
+        <v>715</v>
+      </c>
+      <c r="C56" t="s">
+        <v>716</v>
+      </c>
+      <c r="D56" t="s">
+        <v>717</v>
+      </c>
+      <c r="E56" t="s">
+        <v>718</v>
+      </c>
+      <c r="F56" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>224</v>
+      </c>
+      <c r="B57" t="s">
+        <v>224</v>
+      </c>
+      <c r="C57" t="s">
+        <v>224</v>
+      </c>
+      <c r="D57" t="s">
+        <v>224</v>
+      </c>
+      <c r="E57" t="s">
+        <v>224</v>
+      </c>
+      <c r="F57" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>226</v>
+      </c>
+      <c r="B58" t="s">
+        <v>226</v>
+      </c>
+      <c r="C58" t="s">
+        <v>226</v>
+      </c>
+      <c r="D58" t="s">
+        <v>226</v>
+      </c>
+      <c r="E58" t="s">
+        <v>226</v>
+      </c>
+      <c r="F58" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>228</v>
+      </c>
+      <c r="B59" t="s">
+        <v>719</v>
+      </c>
+      <c r="C59" t="s">
+        <v>720</v>
+      </c>
+      <c r="D59" t="s">
+        <v>721</v>
+      </c>
+      <c r="E59" t="s">
+        <v>722</v>
+      </c>
+      <c r="F59" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>230</v>
+      </c>
+      <c r="B60" t="s">
+        <v>230</v>
+      </c>
+      <c r="C60" t="s">
+        <v>230</v>
+      </c>
+      <c r="D60" t="s">
+        <v>230</v>
+      </c>
+      <c r="E60" t="s">
+        <v>230</v>
+      </c>
+      <c r="F60" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>232</v>
+      </c>
+      <c r="B61" t="s">
+        <v>232</v>
+      </c>
+      <c r="C61" t="s">
+        <v>232</v>
+      </c>
+      <c r="D61" t="s">
+        <v>232</v>
+      </c>
+      <c r="E61" t="s">
+        <v>232</v>
+      </c>
+      <c r="F61" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>250</v>
+      </c>
+      <c r="B62" t="s">
+        <v>724</v>
+      </c>
+      <c r="C62" t="s">
+        <v>725</v>
+      </c>
+      <c r="D62" t="s">
+        <v>726</v>
+      </c>
+      <c r="E62" t="s">
+        <v>727</v>
+      </c>
+      <c r="F62" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>251</v>
+      </c>
+      <c r="B63" t="s">
+        <v>729</v>
+      </c>
+      <c r="C63" t="s">
+        <v>729</v>
+      </c>
+      <c r="D63" t="s">
+        <v>730</v>
+      </c>
+      <c r="E63" t="s">
+        <v>731</v>
+      </c>
+      <c r="F63" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>237</v>
+      </c>
+      <c r="B64" t="s">
+        <v>733</v>
+      </c>
+      <c r="C64" t="s">
+        <v>734</v>
+      </c>
+      <c r="D64" t="s">
+        <v>735</v>
+      </c>
+      <c r="E64" t="s">
+        <v>736</v>
+      </c>
+      <c r="F64" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>239</v>
+      </c>
+      <c r="B65" t="s">
+        <v>239</v>
+      </c>
+      <c r="C65" t="s">
+        <v>239</v>
+      </c>
+      <c r="D65" t="s">
+        <v>239</v>
+      </c>
+      <c r="E65" t="s">
+        <v>239</v>
+      </c>
+      <c r="F65" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>241</v>
+      </c>
+      <c r="B66" t="s">
+        <v>241</v>
+      </c>
+      <c r="C66" t="s">
+        <v>241</v>
+      </c>
+      <c r="D66" t="s">
+        <v>241</v>
+      </c>
+      <c r="E66" t="s">
+        <v>241</v>
+      </c>
+      <c r="F66" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>243</v>
+      </c>
+      <c r="B67" t="s">
+        <v>243</v>
+      </c>
+      <c r="C67" t="s">
+        <v>243</v>
+      </c>
+      <c r="D67" t="s">
+        <v>243</v>
+      </c>
+      <c r="E67" t="s">
+        <v>243</v>
+      </c>
+      <c r="F67" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>245</v>
+      </c>
+      <c r="B68" t="s">
+        <v>245</v>
+      </c>
+      <c r="C68" t="s">
+        <v>245</v>
+      </c>
+      <c r="D68" t="s">
+        <v>245</v>
+      </c>
+      <c r="E68" t="s">
+        <v>245</v>
+      </c>
+      <c r="F68" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>247</v>
+      </c>
+      <c r="B69" t="s">
+        <v>247</v>
+      </c>
+      <c r="C69" t="s">
+        <v>247</v>
+      </c>
+      <c r="D69" t="s">
+        <v>247</v>
+      </c>
+      <c r="E69" t="s">
+        <v>247</v>
+      </c>
+      <c r="F69" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>249</v>
+      </c>
+      <c r="B70" t="s">
+        <v>249</v>
+      </c>
+      <c r="C70" t="s">
+        <v>249</v>
+      </c>
+      <c r="D70" t="s">
+        <v>249</v>
+      </c>
+      <c r="E70" t="s">
+        <v>249</v>
+      </c>
+      <c r="F70" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>253</v>
+      </c>
+      <c r="B71" t="s">
+        <v>253</v>
+      </c>
+      <c r="C71" t="s">
+        <v>253</v>
+      </c>
+      <c r="D71" t="s">
+        <v>253</v>
+      </c>
+      <c r="E71" t="s">
+        <v>253</v>
+      </c>
+      <c r="F71" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>255</v>
+      </c>
+      <c r="B72" t="s">
+        <v>255</v>
+      </c>
+      <c r="C72" t="s">
+        <v>255</v>
+      </c>
+      <c r="D72" t="s">
+        <v>255</v>
+      </c>
+      <c r="E72" t="s">
+        <v>255</v>
+      </c>
+      <c r="F72" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>291</v>
+      </c>
+      <c r="B73" t="s">
+        <v>291</v>
+      </c>
+      <c r="C73" t="s">
+        <v>291</v>
+      </c>
+      <c r="D73" t="s">
+        <v>291</v>
+      </c>
+      <c r="E73" t="s">
+        <v>291</v>
+      </c>
+      <c r="F73" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>292</v>
+      </c>
+      <c r="B74" t="s">
+        <v>292</v>
+      </c>
+      <c r="C74" t="s">
+        <v>292</v>
+      </c>
+      <c r="D74" t="s">
+        <v>292</v>
+      </c>
+      <c r="E74" t="s">
+        <v>292</v>
+      </c>
+      <c r="F74" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>293</v>
+      </c>
+      <c r="B75" t="s">
+        <v>293</v>
+      </c>
+      <c r="C75" t="s">
+        <v>293</v>
+      </c>
+      <c r="D75" t="s">
+        <v>293</v>
+      </c>
+      <c r="E75" t="s">
+        <v>293</v>
+      </c>
+      <c r="F75" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>294</v>
+      </c>
+      <c r="B76" t="s">
+        <v>294</v>
+      </c>
+      <c r="C76" t="s">
+        <v>294</v>
+      </c>
+      <c r="D76" t="s">
+        <v>294</v>
+      </c>
+      <c r="E76" t="s">
+        <v>294</v>
+      </c>
+      <c r="F76" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>102</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77" t="s">
+        <v>102</v>
+      </c>
+      <c r="D77" t="s">
+        <v>102</v>
+      </c>
+      <c r="E77" t="s">
+        <v>102</v>
+      </c>
+      <c r="F77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>295</v>
+      </c>
+      <c r="B78" t="s">
+        <v>295</v>
+      </c>
+      <c r="C78" t="s">
+        <v>295</v>
+      </c>
+      <c r="D78" t="s">
+        <v>295</v>
+      </c>
+      <c r="E78" t="s">
+        <v>295</v>
+      </c>
+      <c r="F78" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>101</v>
+      </c>
+      <c r="B79" t="s">
+        <v>101</v>
+      </c>
+      <c r="C79" t="s">
+        <v>101</v>
+      </c>
+      <c r="D79" t="s">
+        <v>101</v>
+      </c>
+      <c r="E79" t="s">
+        <v>101</v>
+      </c>
+      <c r="F79" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>100</v>
+      </c>
+      <c r="B80" t="s">
+        <v>100</v>
+      </c>
+      <c r="C80" t="s">
+        <v>100</v>
+      </c>
+      <c r="D80" t="s">
+        <v>100</v>
+      </c>
+      <c r="E80" t="s">
+        <v>100</v>
+      </c>
+      <c r="F80" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>296</v>
+      </c>
+      <c r="B81" t="s">
+        <v>296</v>
+      </c>
+      <c r="C81" t="s">
+        <v>296</v>
+      </c>
+      <c r="D81" t="s">
+        <v>296</v>
+      </c>
+      <c r="E81" t="s">
+        <v>296</v>
+      </c>
+      <c r="F81" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>297</v>
+      </c>
+      <c r="B82" t="s">
+        <v>297</v>
+      </c>
+      <c r="C82" t="s">
+        <v>297</v>
+      </c>
+      <c r="D82" t="s">
+        <v>297</v>
+      </c>
+      <c r="E82" t="s">
+        <v>297</v>
+      </c>
+      <c r="F82" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>298</v>
+      </c>
+      <c r="B83" t="s">
+        <v>298</v>
+      </c>
+      <c r="C83" t="s">
+        <v>298</v>
+      </c>
+      <c r="D83" t="s">
+        <v>298</v>
+      </c>
+      <c r="E83" t="s">
+        <v>298</v>
+      </c>
+      <c r="F83" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>299</v>
+      </c>
+      <c r="B84" t="s">
+        <v>299</v>
+      </c>
+      <c r="C84" t="s">
+        <v>299</v>
+      </c>
+      <c r="D84" t="s">
+        <v>299</v>
+      </c>
+      <c r="E84" t="s">
+        <v>299</v>
+      </c>
+      <c r="F84" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>300</v>
+      </c>
+      <c r="B85" t="s">
+        <v>300</v>
+      </c>
+      <c r="C85" t="s">
+        <v>300</v>
+      </c>
+      <c r="D85" t="s">
+        <v>300</v>
+      </c>
+      <c r="E85" t="s">
+        <v>300</v>
+      </c>
+      <c r="F85" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>301</v>
+      </c>
+      <c r="B86" t="s">
+        <v>301</v>
+      </c>
+      <c r="C86" t="s">
+        <v>301</v>
+      </c>
+      <c r="D86" t="s">
+        <v>301</v>
+      </c>
+      <c r="E86" t="s">
+        <v>301</v>
+      </c>
+      <c r="F86" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>36</v>
+      </c>
+      <c r="B87" t="s">
+        <v>36</v>
+      </c>
+      <c r="C87" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87" t="s">
+        <v>36</v>
+      </c>
+      <c r="E87" t="s">
+        <v>36</v>
+      </c>
+      <c r="F87" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>303</v>
+      </c>
+      <c r="B88" t="s">
+        <v>303</v>
+      </c>
+      <c r="C88" t="s">
+        <v>303</v>
+      </c>
+      <c r="D88" t="s">
+        <v>303</v>
+      </c>
+      <c r="E88" t="s">
+        <v>303</v>
+      </c>
+      <c r="F88" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>306</v>
+      </c>
+      <c r="B89" t="s">
+        <v>306</v>
+      </c>
+      <c r="C89" t="s">
+        <v>306</v>
+      </c>
+      <c r="D89" t="s">
+        <v>306</v>
+      </c>
+      <c r="E89" t="s">
+        <v>306</v>
+      </c>
+      <c r="F89" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>76</v>
+      </c>
+      <c r="B91" t="s">
+        <v>76</v>
+      </c>
+      <c r="C91" t="s">
+        <v>76</v>
+      </c>
+      <c r="D91" t="s">
+        <v>76</v>
+      </c>
+      <c r="E91" t="s">
+        <v>76</v>
+      </c>
+      <c r="F91" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>77</v>
+      </c>
+      <c r="B92" t="s">
+        <v>77</v>
+      </c>
+      <c r="C92" t="s">
+        <v>77</v>
+      </c>
+      <c r="D92" t="s">
+        <v>77</v>
+      </c>
+      <c r="E92" t="s">
+        <v>77</v>
+      </c>
+      <c r="F92" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>37</v>
+      </c>
+      <c r="B93" t="s">
+        <v>37</v>
+      </c>
+      <c r="C93" t="s">
+        <v>37</v>
+      </c>
+      <c r="D93" t="s">
+        <v>37</v>
+      </c>
+      <c r="E93" t="s">
+        <v>37</v>
+      </c>
+      <c r="F93" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>311</v>
+      </c>
+      <c r="B94" t="s">
+        <v>311</v>
+      </c>
+      <c r="C94" t="s">
+        <v>311</v>
+      </c>
+      <c r="D94" t="s">
+        <v>311</v>
+      </c>
+      <c r="E94" t="s">
+        <v>311</v>
+      </c>
+      <c r="F94" t="s">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:M178"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5513,11 +8540,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet19"/>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5535,7 +8562,7 @@
     <col min="13" max="13" width="9.265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.86328125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.1328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="47.53125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.265625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.265625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.59765625" bestFit="1" customWidth="1"/>
@@ -5634,20 +8661,17 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" t="s">
-        <v>314</v>
+      <c r="H4" t="s">
+        <v>801</v>
       </c>
       <c r="K4" t="s">
-        <v>311</v>
+        <v>802</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
+        <v>803</v>
       </c>
       <c r="P4" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>59</v>
+        <v>804</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -5655,13 +8679,16 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K5" t="s">
         <v>311</v>
       </c>
       <c r="N5" t="s">
-        <v>315</v>
+        <v>63</v>
+      </c>
+      <c r="P5" t="s">
+        <v>312</v>
       </c>
       <c r="Q5" t="s">
         <v>59</v>
@@ -5671,21 +8698,14 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>319</v>
-      </c>
-      <c r="H6" t="s">
-        <v>308</v>
-      </c>
-      <c r="I6" s="2"/>
+      <c r="I6" t="s">
+        <v>313</v>
+      </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>311</v>
       </c>
       <c r="N6" t="s">
-        <v>62</v>
-      </c>
-      <c r="P6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="Q6" t="s">
         <v>59</v>
@@ -5696,16 +8716,20 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H7" t="s">
         <v>308</v>
       </c>
+      <c r="I7" s="2"/>
       <c r="K7" t="s">
         <v>37</v>
       </c>
       <c r="N7" t="s">
-        <v>317</v>
+        <v>62</v>
+      </c>
+      <c r="P7" t="s">
+        <v>320</v>
       </c>
       <c r="Q7" t="s">
         <v>59</v>
@@ -5713,7 +8737,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>316</v>
@@ -5722,7 +8746,7 @@
         <v>308</v>
       </c>
       <c r="K8" t="s">
-        <v>318</v>
+        <v>37</v>
       </c>
       <c r="N8" t="s">
         <v>317</v>
@@ -5733,19 +8757,19 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H9" t="s">
-        <v>113</v>
+        <v>308</v>
       </c>
       <c r="K9" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="N9" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="Q9" t="s">
         <v>59</v>
@@ -5756,16 +8780,16 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="H10" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
         <v>37</v>
       </c>
       <c r="N10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Q10" t="s">
         <v>59</v>
@@ -5773,19 +8797,59 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>279</v>
       </c>
+      <c r="H11" t="s">
+        <v>103</v>
+      </c>
       <c r="K11" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="N11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q11" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>738</v>
+      </c>
+      <c r="B13" t="s">
+        <v>739</v>
+      </c>
+      <c r="I13" t="s">
+        <v>799</v>
+      </c>
+      <c r="K13" t="s">
+        <v>797</v>
+      </c>
+      <c r="N13" t="s">
+        <v>798</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -5924,10 +8988,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B20676-78A5-4BFB-AF4D-E463F8898B7A}">
-  <dimension ref="B3:K6"/>
+  <dimension ref="B3:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5935,21 +8999,22 @@
     <col min="2" max="2" width="39.06640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.06640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.9296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.06640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.53125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.9296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.06640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.53125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.9296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="17.25" thickBot="1">
+    <row r="3" spans="2:12" ht="17.25" thickBot="1">
       <c r="B3" s="3" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15" thickTop="1" thickBot="1">
+    <row r="4" spans="2:12" ht="15" thickTop="1" thickBot="1">
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -5960,68 +9025,127 @@
         <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:12">
       <c r="B5" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'pset map'!$A$3:$A$28)</f>
-        <v>IMP,MIN,U-DD,U-TRF,U-H2P,U-H2C,U-H2S,U-H2D,TRD_Endo,P_All,P-HPL,R_Techs,S_Techs,T_All,A_Techs,I_Techs</v>
+        <v>IMP,MIN,U-TRF,U-H2P,TRD_Endo,P_All,P-HPL,R_Techs,S_Techs,T_All,A_Techs,I_Techs,I_Techs</v>
       </c>
       <c r="D5" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="F5" t="s">
         <v>318</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>499</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:12">
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="str">
         <f>C5</f>
-        <v>IMP,MIN,U-DD,U-TRF,U-H2P,U-H2C,U-H2S,U-H2D,TRD_Endo,P_All,P-HPL,R_Techs,S_Techs,T_All,A_Techs,I_Techs</v>
+        <v>IMP,MIN,U-TRF,U-H2P,TRD_Endo,P_All,P-HPL,R_Techs,S_Techs,T_All,A_Techs,I_Techs,I_Techs</v>
       </c>
       <c r="D6" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="F6" t="s">
         <v>37</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>500</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,'pset map'!$A$3:$A$28)</f>
+        <v>IMP,MIN,U-TRF,U-H2P,TRD_Endo,P_All,P-HPL,R_Techs,S_Techs,T_All,A_Techs,I_Techs,I_Techs</v>
+      </c>
+      <c r="D7" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
+        <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="F7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G7" t="s">
+        <v>796</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="str">
+        <f>C7</f>
+        <v>IMP,MIN,U-TRF,U-H2P,TRD_Endo,P_All,P-HPL,R_Techs,S_Techs,T_All,A_Techs,I_Techs,I_Techs</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
+        <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>795</v>
+      </c>
+      <c r="K8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6242,10 +9366,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF522A4-03B3-4329-9210-404B1BD4B629}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6254,12 +9378,12 @@
     <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>496</v>
       </c>
@@ -6270,7 +9394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>503</v>
       </c>
@@ -6278,7 +9402,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>505</v>
       </c>
@@ -6286,115 +9410,115 @@
         <v>506</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B5" t="s">
+        <v>509</v>
+      </c>
+      <c r="G5" t="s">
         <v>507</v>
       </c>
-      <c r="B5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="H5" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B6" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>511</v>
+        <v>252</v>
       </c>
       <c r="B7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="G8" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="H8" t="s">
         <v>513</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="G9" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="H9" t="s">
         <v>515</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="H10" t="s">
         <v>517</v>
       </c>
-      <c r="B10" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>252</v>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="10" t="s">
+        <v>147</v>
       </c>
       <c r="B11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B12" s="6" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="9" t="s">
-        <v>146</v>
+    <row r="12" spans="1:8">
+      <c r="A12" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="12" t="s">
+        <v>235</v>
       </c>
       <c r="B14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="10" t="s">
-        <v>147</v>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="12" t="s">
+        <v>235</v>
       </c>
       <c r="B15" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="B16" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="B17" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="B18" t="s">
         <v>251</v>
       </c>
     </row>
@@ -6404,10 +9528,384 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C639ABCB-5F46-46FD-A29B-730BA5D084CB}">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>775</v>
+      </c>
+      <c r="B3" t="s">
+        <v>740</v>
+      </c>
+      <c r="C3" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>775</v>
+      </c>
+      <c r="B4" t="s">
+        <v>741</v>
+      </c>
+      <c r="C4" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>775</v>
+      </c>
+      <c r="B5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>775</v>
+      </c>
+      <c r="B6" t="s">
+        <v>743</v>
+      </c>
+      <c r="C6" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>775</v>
+      </c>
+      <c r="B7" t="s">
+        <v>744</v>
+      </c>
+      <c r="C7" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>775</v>
+      </c>
+      <c r="B8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>775</v>
+      </c>
+      <c r="B9" t="s">
+        <v>746</v>
+      </c>
+      <c r="C9" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>775</v>
+      </c>
+      <c r="B10" t="s">
+        <v>748</v>
+      </c>
+      <c r="C10" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>775</v>
+      </c>
+      <c r="B11" t="s">
+        <v>750</v>
+      </c>
+      <c r="C11" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>775</v>
+      </c>
+      <c r="B12" t="s">
+        <v>752</v>
+      </c>
+      <c r="C12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>775</v>
+      </c>
+      <c r="B13" t="s">
+        <v>491</v>
+      </c>
+      <c r="C13" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>775</v>
+      </c>
+      <c r="B14" t="s">
+        <v>493</v>
+      </c>
+      <c r="C14" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>775</v>
+      </c>
+      <c r="B15" t="s">
+        <v>492</v>
+      </c>
+      <c r="C15" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>775</v>
+      </c>
+      <c r="B16" t="s">
+        <v>757</v>
+      </c>
+      <c r="C16" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>775</v>
+      </c>
+      <c r="B17" t="s">
+        <v>758</v>
+      </c>
+      <c r="C17" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>775</v>
+      </c>
+      <c r="B18" t="s">
+        <v>759</v>
+      </c>
+      <c r="C18" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>775</v>
+      </c>
+      <c r="B19" t="s">
+        <v>760</v>
+      </c>
+      <c r="C19" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>775</v>
+      </c>
+      <c r="B20" t="s">
+        <v>375</v>
+      </c>
+      <c r="C20" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>775</v>
+      </c>
+      <c r="B21" t="s">
+        <v>391</v>
+      </c>
+      <c r="C21" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>775</v>
+      </c>
+      <c r="B22" t="s">
+        <v>487</v>
+      </c>
+      <c r="C22" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>775</v>
+      </c>
+      <c r="B23" t="s">
+        <v>393</v>
+      </c>
+      <c r="C23" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>775</v>
+      </c>
+      <c r="B24" t="s">
+        <v>488</v>
+      </c>
+      <c r="C24" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>775</v>
+      </c>
+      <c r="B25" t="s">
+        <v>404</v>
+      </c>
+      <c r="C25" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>775</v>
+      </c>
+      <c r="B26" t="s">
+        <v>766</v>
+      </c>
+      <c r="C26" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>775</v>
+      </c>
+      <c r="B27" t="s">
+        <v>768</v>
+      </c>
+      <c r="C27" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>775</v>
+      </c>
+      <c r="B28" t="s">
+        <v>419</v>
+      </c>
+      <c r="C28" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>775</v>
+      </c>
+      <c r="B29" t="s">
+        <v>490</v>
+      </c>
+      <c r="C29" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>775</v>
+      </c>
+      <c r="B30" t="s">
+        <v>451</v>
+      </c>
+      <c r="C30" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>775</v>
+      </c>
+      <c r="B31" t="s">
+        <v>473</v>
+      </c>
+      <c r="C31" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>775</v>
+      </c>
+      <c r="B32" t="s">
+        <v>489</v>
+      </c>
+      <c r="C32" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>775</v>
+      </c>
+      <c r="B33" t="s">
+        <v>483</v>
+      </c>
+      <c r="C33" t="s">
+        <v>774</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ADB714-E6AA-4E3E-B77B-62B65BA0E218}">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -7503,301 +11001,26 @@
         <v>306</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3245E1-8745-41DD-8AE6-2F4FA19D9F1C}">
-  <dimension ref="A1:H24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="13.796875" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.86328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C21" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" t="s">
-        <v>142</v>
-      </c>
-      <c r="D23" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" t="s">
-        <v>144</v>
-      </c>
-      <c r="D24" t="s">
-        <v>143</v>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>787</v>
+      </c>
+      <c r="C100" t="s">
+        <v>788</v>
+      </c>
+      <c r="D100" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>787</v>
+      </c>
+      <c r="C101" t="s">
+        <v>789</v>
+      </c>
+      <c r="D101" t="s">
+        <v>789</v>
       </c>
     </row>
   </sheetData>

--- a/ReportDefs-TIMES-GEO.xlsx
+++ b/ReportDefs-TIMES-GEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\TIMES-GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3708E01-1120-4DB3-B60D-B15F876AAD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1122CA48-FBC6-4116-A329-003C17675268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="813">
   <si>
     <t>Unit</t>
   </si>
@@ -2537,6 +2537,15 @@
   </si>
   <si>
     <t>Ref</t>
+  </si>
+  <si>
+    <t>VAR_NCAPR</t>
+  </si>
+  <si>
+    <t>VAR_NCAP</t>
+  </si>
+  <si>
+    <t>LCOE</t>
   </si>
 </sst>
 </file>
@@ -3171,7 +3180,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -3282,7 +3291,7 @@
         <v>000</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" ref="I6:I24" si="0">P6</f>
+        <f t="shared" ref="I6" si="0">P6</f>
         <v>Hi</v>
       </c>
       <c r="J6" t="str">
@@ -3302,15 +3311,15 @@
         <v>0.1</v>
       </c>
       <c r="T6" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O6,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" ref="T6:T37" si="1">H$1&amp;"-"&amp;VLOOKUP(O6,$Y$5:$Z$11,2,FALSE)</f>
         <v>cp-000</v>
       </c>
       <c r="U6" t="str">
-        <f>I$1&amp;"-"&amp;P6</f>
+        <f t="shared" ref="U6:U37" si="2">I$1&amp;"-"&amp;P6</f>
         <v>re-Hi</v>
       </c>
       <c r="V6" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q6,"00.0%")</f>
+        <f t="shared" ref="V6:V37" si="3">J$1&amp;"-"&amp;TEXT(Q6,"00.0%")</f>
         <v>dr-10.0%</v>
       </c>
       <c r="Y6">
@@ -3322,27 +3331,27 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" t="str">
-        <f t="shared" ref="A7:A55" si="1">$A$1&amp;TEXT(N7,"0000")</f>
+        <f t="shared" ref="A7:A55" si="4">$A$1&amp;TEXT(N7,"0000")</f>
         <v>TGE~0002</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" ref="B7:B55" si="2">G7</f>
+        <f t="shared" ref="B7:B55" si="5">G7</f>
         <v>cp-000.re-Hi.dr-07.5%</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" ref="G7:G55" si="3">_xlfn.TEXTJOIN(".",TRUE,T7:X7)</f>
+        <f t="shared" ref="G7:G55" si="6">_xlfn.TEXTJOIN(".",TRUE,T7:X7)</f>
         <v>cp-000.re-Hi.dr-07.5%</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" ref="H7:H55" si="4">VLOOKUP(O7,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" ref="H7:H55" si="7">VLOOKUP(O7,$Y$5:$Z$11,2,FALSE)</f>
         <v>000</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" ref="I7:I55" si="5">P7</f>
+        <f t="shared" ref="I7:I55" si="8">P7</f>
         <v>Hi</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" ref="J7:J55" si="6">TEXT(Q7,"00.0%")</f>
+        <f t="shared" ref="J7:J55" si="9">TEXT(Q7,"00.0%")</f>
         <v>07.5%</v>
       </c>
       <c r="N7">
@@ -3358,15 +3367,15 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="T7" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O7,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>cp-000</v>
       </c>
       <c r="U7" t="str">
-        <f>I$1&amp;"-"&amp;P7</f>
+        <f t="shared" si="2"/>
         <v>re-Hi</v>
       </c>
       <c r="V7" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q7,"00.0%")</f>
+        <f t="shared" si="3"/>
         <v>dr-07.5%</v>
       </c>
       <c r="Y7">
@@ -3378,27 +3387,27 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0003</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-000.re-Hi.dr-05.0%</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-000.re-Hi.dr-05.0%</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>000</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Hi</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>05.0%</v>
       </c>
       <c r="N8">
@@ -3414,15 +3423,15 @@
         <v>0.05</v>
       </c>
       <c r="T8" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O8,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>cp-000</v>
       </c>
       <c r="U8" t="str">
-        <f>I$1&amp;"-"&amp;P8</f>
+        <f t="shared" si="2"/>
         <v>re-Hi</v>
       </c>
       <c r="V8" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q8,"00.0%")</f>
+        <f t="shared" si="3"/>
         <v>dr-05.0%</v>
       </c>
       <c r="Y8">
@@ -3434,27 +3443,27 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0004</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-000.re-Hi.dr-02.0%</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-000.re-Hi.dr-02.0%</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>000</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Hi</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>02.0%</v>
       </c>
       <c r="N9">
@@ -3470,15 +3479,15 @@
         <v>0.02</v>
       </c>
       <c r="T9" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O9,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>cp-000</v>
       </c>
       <c r="U9" t="str">
-        <f>I$1&amp;"-"&amp;P9</f>
+        <f t="shared" si="2"/>
         <v>re-Hi</v>
       </c>
       <c r="V9" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q9,"00.0%")</f>
+        <f t="shared" si="3"/>
         <v>dr-02.0%</v>
       </c>
       <c r="Y9">
@@ -3490,27 +3499,27 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0005</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-000.re-Hi.dr-01.0%</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-000.re-Hi.dr-01.0%</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>000</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Hi</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>01.0%</v>
       </c>
       <c r="N10">
@@ -3526,41 +3535,41 @@
         <v>0.01</v>
       </c>
       <c r="T10" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O10,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>cp-000</v>
       </c>
       <c r="U10" t="str">
-        <f>I$1&amp;"-"&amp;P10</f>
+        <f t="shared" si="2"/>
         <v>re-Hi</v>
       </c>
       <c r="V10" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q10,"00.0%")</f>
+        <f t="shared" si="3"/>
         <v>dr-01.0%</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0006</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-000.re-Ref.dr-10.0%</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-000.re-Ref.dr-10.0%</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>000</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Ref</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>10.0%</v>
       </c>
       <c r="N11">
@@ -3576,41 +3585,41 @@
         <v>0.1</v>
       </c>
       <c r="T11" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O11,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>cp-000</v>
       </c>
       <c r="U11" t="str">
-        <f>I$1&amp;"-"&amp;P11</f>
+        <f t="shared" si="2"/>
         <v>re-Ref</v>
       </c>
       <c r="V11" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q11,"00.0%")</f>
+        <f t="shared" si="3"/>
         <v>dr-10.0%</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0007</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-000.re-Ref.dr-07.5%</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-000.re-Ref.dr-07.5%</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>000</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Ref</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>07.5%</v>
       </c>
       <c r="N12">
@@ -3626,41 +3635,41 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="T12" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O12,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>cp-000</v>
       </c>
       <c r="U12" t="str">
-        <f>I$1&amp;"-"&amp;P12</f>
+        <f t="shared" si="2"/>
         <v>re-Ref</v>
       </c>
       <c r="V12" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q12,"00.0%")</f>
+        <f t="shared" si="3"/>
         <v>dr-07.5%</v>
       </c>
     </row>
     <row r="13" spans="1:26">
       <c r="A13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0008</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-000.re-Ref.dr-05.0%</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-000.re-Ref.dr-05.0%</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>000</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Ref</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>05.0%</v>
       </c>
       <c r="N13">
@@ -3676,41 +3685,41 @@
         <v>0.05</v>
       </c>
       <c r="T13" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O13,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>cp-000</v>
       </c>
       <c r="U13" t="str">
-        <f>I$1&amp;"-"&amp;P13</f>
+        <f t="shared" si="2"/>
         <v>re-Ref</v>
       </c>
       <c r="V13" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q13,"00.0%")</f>
+        <f t="shared" si="3"/>
         <v>dr-05.0%</v>
       </c>
     </row>
     <row r="14" spans="1:26">
       <c r="A14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0009</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-000.re-Ref.dr-02.0%</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-000.re-Ref.dr-02.0%</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>000</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Ref</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>02.0%</v>
       </c>
       <c r="N14">
@@ -3726,41 +3735,41 @@
         <v>0.02</v>
       </c>
       <c r="T14" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O14,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>cp-000</v>
       </c>
       <c r="U14" t="str">
-        <f>I$1&amp;"-"&amp;P14</f>
+        <f t="shared" si="2"/>
         <v>re-Ref</v>
       </c>
       <c r="V14" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q14,"00.0%")</f>
+        <f t="shared" si="3"/>
         <v>dr-02.0%</v>
       </c>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0010</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-000.re-Ref.dr-01.0%</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-000.re-Ref.dr-01.0%</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>000</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Ref</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>01.0%</v>
       </c>
       <c r="N15">
@@ -3776,41 +3785,41 @@
         <v>0.01</v>
       </c>
       <c r="T15" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O15,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>cp-000</v>
       </c>
       <c r="U15" t="str">
-        <f>I$1&amp;"-"&amp;P15</f>
+        <f t="shared" si="2"/>
         <v>re-Ref</v>
       </c>
       <c r="V15" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q15,"00.0%")</f>
+        <f t="shared" si="3"/>
         <v>dr-01.0%</v>
       </c>
     </row>
     <row r="16" spans="1:26">
       <c r="A16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0011</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-050.re-Hi.dr-10.0%</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-050.re-Hi.dr-10.0%</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>050</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Hi</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>10.0%</v>
       </c>
       <c r="N16">
@@ -3826,41 +3835,41 @@
         <v>0.1</v>
       </c>
       <c r="T16" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O16,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>cp-050</v>
       </c>
       <c r="U16" t="str">
-        <f>I$1&amp;"-"&amp;P16</f>
+        <f t="shared" si="2"/>
         <v>re-Hi</v>
       </c>
       <c r="V16" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q16,"00.0%")</f>
+        <f t="shared" si="3"/>
         <v>dr-10.0%</v>
       </c>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0012</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-050.re-Hi.dr-07.5%</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-050.re-Hi.dr-07.5%</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>050</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Hi</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>07.5%</v>
       </c>
       <c r="N17">
@@ -3876,41 +3885,41 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="T17" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O17,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>cp-050</v>
       </c>
       <c r="U17" t="str">
-        <f>I$1&amp;"-"&amp;P17</f>
+        <f t="shared" si="2"/>
         <v>re-Hi</v>
       </c>
       <c r="V17" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q17,"00.0%")</f>
+        <f t="shared" si="3"/>
         <v>dr-07.5%</v>
       </c>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0013</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-050.re-Hi.dr-05.0%</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-050.re-Hi.dr-05.0%</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>050</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Hi</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>05.0%</v>
       </c>
       <c r="N18">
@@ -3926,41 +3935,41 @@
         <v>0.05</v>
       </c>
       <c r="T18" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O18,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>cp-050</v>
       </c>
       <c r="U18" t="str">
-        <f>I$1&amp;"-"&amp;P18</f>
+        <f t="shared" si="2"/>
         <v>re-Hi</v>
       </c>
       <c r="V18" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q18,"00.0%")</f>
+        <f t="shared" si="3"/>
         <v>dr-05.0%</v>
       </c>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0014</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-050.re-Hi.dr-02.0%</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-050.re-Hi.dr-02.0%</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>050</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Hi</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>02.0%</v>
       </c>
       <c r="N19">
@@ -3976,41 +3985,41 @@
         <v>0.02</v>
       </c>
       <c r="T19" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O19,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>cp-050</v>
       </c>
       <c r="U19" t="str">
-        <f>I$1&amp;"-"&amp;P19</f>
+        <f t="shared" si="2"/>
         <v>re-Hi</v>
       </c>
       <c r="V19" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q19,"00.0%")</f>
+        <f t="shared" si="3"/>
         <v>dr-02.0%</v>
       </c>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0015</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-050.re-Hi.dr-01.0%</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-050.re-Hi.dr-01.0%</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>050</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Hi</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>01.0%</v>
       </c>
       <c r="N20">
@@ -4026,41 +4035,41 @@
         <v>0.01</v>
       </c>
       <c r="T20" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O20,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>cp-050</v>
       </c>
       <c r="U20" t="str">
-        <f>I$1&amp;"-"&amp;P20</f>
+        <f t="shared" si="2"/>
         <v>re-Hi</v>
       </c>
       <c r="V20" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q20,"00.0%")</f>
+        <f t="shared" si="3"/>
         <v>dr-01.0%</v>
       </c>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0016</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-050.re-Ref.dr-10.0%</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-050.re-Ref.dr-10.0%</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>050</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Ref</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>10.0%</v>
       </c>
       <c r="N21">
@@ -4076,41 +4085,41 @@
         <v>0.1</v>
       </c>
       <c r="T21" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O21,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>cp-050</v>
       </c>
       <c r="U21" t="str">
-        <f>I$1&amp;"-"&amp;P21</f>
+        <f t="shared" si="2"/>
         <v>re-Ref</v>
       </c>
       <c r="V21" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q21,"00.0%")</f>
+        <f t="shared" si="3"/>
         <v>dr-10.0%</v>
       </c>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0017</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-050.re-Ref.dr-07.5%</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-050.re-Ref.dr-07.5%</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>050</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Ref</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>07.5%</v>
       </c>
       <c r="N22">
@@ -4126,41 +4135,41 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="T22" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O22,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>cp-050</v>
       </c>
       <c r="U22" t="str">
-        <f>I$1&amp;"-"&amp;P22</f>
+        <f t="shared" si="2"/>
         <v>re-Ref</v>
       </c>
       <c r="V22" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q22,"00.0%")</f>
+        <f t="shared" si="3"/>
         <v>dr-07.5%</v>
       </c>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0018</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-050.re-Ref.dr-05.0%</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-050.re-Ref.dr-05.0%</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>050</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Ref</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>05.0%</v>
       </c>
       <c r="N23">
@@ -4176,41 +4185,41 @@
         <v>0.05</v>
       </c>
       <c r="T23" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O23,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>cp-050</v>
       </c>
       <c r="U23" t="str">
-        <f>I$1&amp;"-"&amp;P23</f>
+        <f t="shared" si="2"/>
         <v>re-Ref</v>
       </c>
       <c r="V23" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q23,"00.0%")</f>
+        <f t="shared" si="3"/>
         <v>dr-05.0%</v>
       </c>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0019</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-050.re-Ref.dr-02.0%</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-050.re-Ref.dr-02.0%</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>050</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Ref</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>02.0%</v>
       </c>
       <c r="N24">
@@ -4226,41 +4235,41 @@
         <v>0.02</v>
       </c>
       <c r="T24" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O24,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>cp-050</v>
       </c>
       <c r="U24" t="str">
-        <f>I$1&amp;"-"&amp;P24</f>
+        <f t="shared" si="2"/>
         <v>re-Ref</v>
       </c>
       <c r="V24" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q24,"00.0%")</f>
+        <f t="shared" si="3"/>
         <v>dr-02.0%</v>
       </c>
     </row>
     <row r="25" spans="1:22">
       <c r="A25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0020</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-050.re-Ref.dr-01.0%</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-050.re-Ref.dr-01.0%</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>050</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Ref</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>01.0%</v>
       </c>
       <c r="N25">
@@ -4276,41 +4285,41 @@
         <v>0.01</v>
       </c>
       <c r="T25" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O25,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>cp-050</v>
       </c>
       <c r="U25" t="str">
-        <f>I$1&amp;"-"&amp;P25</f>
+        <f t="shared" si="2"/>
         <v>re-Ref</v>
       </c>
       <c r="V25" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q25,"00.0%")</f>
+        <f t="shared" si="3"/>
         <v>dr-01.0%</v>
       </c>
     </row>
     <row r="26" spans="1:22">
       <c r="A26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0021</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-100.re-Hi.dr-10.0%</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-100.re-Hi.dr-10.0%</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Hi</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>10.0%</v>
       </c>
       <c r="N26">
@@ -4326,41 +4335,41 @@
         <v>0.1</v>
       </c>
       <c r="T26" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O26,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>cp-100</v>
       </c>
       <c r="U26" t="str">
-        <f>I$1&amp;"-"&amp;P26</f>
+        <f t="shared" si="2"/>
         <v>re-Hi</v>
       </c>
       <c r="V26" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q26,"00.0%")</f>
+        <f t="shared" si="3"/>
         <v>dr-10.0%</v>
       </c>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0022</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-100.re-Hi.dr-07.5%</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-100.re-Hi.dr-07.5%</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Hi</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>07.5%</v>
       </c>
       <c r="N27">
@@ -4376,41 +4385,41 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="T27" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O27,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>cp-100</v>
       </c>
       <c r="U27" t="str">
-        <f>I$1&amp;"-"&amp;P27</f>
+        <f t="shared" si="2"/>
         <v>re-Hi</v>
       </c>
       <c r="V27" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q27,"00.0%")</f>
+        <f t="shared" si="3"/>
         <v>dr-07.5%</v>
       </c>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0023</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-100.re-Hi.dr-05.0%</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-100.re-Hi.dr-05.0%</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Hi</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>05.0%</v>
       </c>
       <c r="N28">
@@ -4426,41 +4435,41 @@
         <v>0.05</v>
       </c>
       <c r="T28" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O28,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>cp-100</v>
       </c>
       <c r="U28" t="str">
-        <f>I$1&amp;"-"&amp;P28</f>
+        <f t="shared" si="2"/>
         <v>re-Hi</v>
       </c>
       <c r="V28" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q28,"00.0%")</f>
+        <f t="shared" si="3"/>
         <v>dr-05.0%</v>
       </c>
     </row>
     <row r="29" spans="1:22">
       <c r="A29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0024</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-100.re-Hi.dr-02.0%</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-100.re-Hi.dr-02.0%</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Hi</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>02.0%</v>
       </c>
       <c r="N29">
@@ -4476,41 +4485,41 @@
         <v>0.02</v>
       </c>
       <c r="T29" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O29,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>cp-100</v>
       </c>
       <c r="U29" t="str">
-        <f>I$1&amp;"-"&amp;P29</f>
+        <f t="shared" si="2"/>
         <v>re-Hi</v>
       </c>
       <c r="V29" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q29,"00.0%")</f>
+        <f t="shared" si="3"/>
         <v>dr-02.0%</v>
       </c>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0025</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-100.re-Hi.dr-01.0%</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-100.re-Hi.dr-01.0%</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Hi</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>01.0%</v>
       </c>
       <c r="N30">
@@ -4526,41 +4535,41 @@
         <v>0.01</v>
       </c>
       <c r="T30" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O30,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>cp-100</v>
       </c>
       <c r="U30" t="str">
-        <f>I$1&amp;"-"&amp;P30</f>
+        <f t="shared" si="2"/>
         <v>re-Hi</v>
       </c>
       <c r="V30" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q30,"00.0%")</f>
+        <f t="shared" si="3"/>
         <v>dr-01.0%</v>
       </c>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0026</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-100.re-Ref.dr-10.0%</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-100.re-Ref.dr-10.0%</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Ref</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>10.0%</v>
       </c>
       <c r="N31">
@@ -4576,41 +4585,41 @@
         <v>0.1</v>
       </c>
       <c r="T31" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O31,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>cp-100</v>
       </c>
       <c r="U31" t="str">
-        <f>I$1&amp;"-"&amp;P31</f>
+        <f t="shared" si="2"/>
         <v>re-Ref</v>
       </c>
       <c r="V31" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q31,"00.0%")</f>
+        <f t="shared" si="3"/>
         <v>dr-10.0%</v>
       </c>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0027</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-100.re-Ref.dr-07.5%</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-100.re-Ref.dr-07.5%</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Ref</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>07.5%</v>
       </c>
       <c r="N32">
@@ -4626,41 +4635,41 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="T32" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O32,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>cp-100</v>
       </c>
       <c r="U32" t="str">
-        <f>I$1&amp;"-"&amp;P32</f>
+        <f t="shared" si="2"/>
         <v>re-Ref</v>
       </c>
       <c r="V32" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q32,"00.0%")</f>
+        <f t="shared" si="3"/>
         <v>dr-07.5%</v>
       </c>
     </row>
     <row r="33" spans="1:22">
       <c r="A33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0028</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-100.re-Ref.dr-05.0%</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-100.re-Ref.dr-05.0%</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Ref</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>05.0%</v>
       </c>
       <c r="N33">
@@ -4676,41 +4685,41 @@
         <v>0.05</v>
       </c>
       <c r="T33" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O33,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>cp-100</v>
       </c>
       <c r="U33" t="str">
-        <f>I$1&amp;"-"&amp;P33</f>
+        <f t="shared" si="2"/>
         <v>re-Ref</v>
       </c>
       <c r="V33" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q33,"00.0%")</f>
+        <f t="shared" si="3"/>
         <v>dr-05.0%</v>
       </c>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0029</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-100.re-Ref.dr-02.0%</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-100.re-Ref.dr-02.0%</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Ref</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>02.0%</v>
       </c>
       <c r="N34">
@@ -4726,41 +4735,41 @@
         <v>0.02</v>
       </c>
       <c r="T34" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O34,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>cp-100</v>
       </c>
       <c r="U34" t="str">
-        <f>I$1&amp;"-"&amp;P34</f>
+        <f t="shared" si="2"/>
         <v>re-Ref</v>
       </c>
       <c r="V34" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q34,"00.0%")</f>
+        <f t="shared" si="3"/>
         <v>dr-02.0%</v>
       </c>
     </row>
     <row r="35" spans="1:22">
       <c r="A35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0030</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-100.re-Ref.dr-01.0%</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-100.re-Ref.dr-01.0%</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Ref</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>01.0%</v>
       </c>
       <c r="N35">
@@ -4776,41 +4785,41 @@
         <v>0.01</v>
       </c>
       <c r="T35" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O35,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>cp-100</v>
       </c>
       <c r="U35" t="str">
-        <f>I$1&amp;"-"&amp;P35</f>
+        <f t="shared" si="2"/>
         <v>re-Ref</v>
       </c>
       <c r="V35" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q35,"00.0%")</f>
+        <f t="shared" si="3"/>
         <v>dr-01.0%</v>
       </c>
     </row>
     <row r="36" spans="1:22">
       <c r="A36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0031</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-150.re-Hi.dr-10.0%</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-150.re-Hi.dr-10.0%</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>150</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Hi</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>10.0%</v>
       </c>
       <c r="N36">
@@ -4826,41 +4835,41 @@
         <v>0.1</v>
       </c>
       <c r="T36" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O36,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>cp-150</v>
       </c>
       <c r="U36" t="str">
-        <f>I$1&amp;"-"&amp;P36</f>
+        <f t="shared" si="2"/>
         <v>re-Hi</v>
       </c>
       <c r="V36" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q36,"00.0%")</f>
+        <f t="shared" si="3"/>
         <v>dr-10.0%</v>
       </c>
     </row>
     <row r="37" spans="1:22">
       <c r="A37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0032</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-150.re-Hi.dr-07.5%</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-150.re-Hi.dr-07.5%</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>150</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Hi</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>07.5%</v>
       </c>
       <c r="N37">
@@ -4876,41 +4885,41 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="T37" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O37,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>cp-150</v>
       </c>
       <c r="U37" t="str">
-        <f>I$1&amp;"-"&amp;P37</f>
+        <f t="shared" si="2"/>
         <v>re-Hi</v>
       </c>
       <c r="V37" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q37,"00.0%")</f>
+        <f t="shared" si="3"/>
         <v>dr-07.5%</v>
       </c>
     </row>
     <row r="38" spans="1:22">
       <c r="A38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0033</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-150.re-Hi.dr-05.0%</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-150.re-Hi.dr-05.0%</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>150</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Hi</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>05.0%</v>
       </c>
       <c r="N38">
@@ -4926,41 +4935,41 @@
         <v>0.05</v>
       </c>
       <c r="T38" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O38,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" ref="T38:T55" si="10">H$1&amp;"-"&amp;VLOOKUP(O38,$Y$5:$Z$11,2,FALSE)</f>
         <v>cp-150</v>
       </c>
       <c r="U38" t="str">
-        <f>I$1&amp;"-"&amp;P38</f>
+        <f t="shared" ref="U38:U55" si="11">I$1&amp;"-"&amp;P38</f>
         <v>re-Hi</v>
       </c>
       <c r="V38" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q38,"00.0%")</f>
+        <f t="shared" ref="V38:V55" si="12">J$1&amp;"-"&amp;TEXT(Q38,"00.0%")</f>
         <v>dr-05.0%</v>
       </c>
     </row>
     <row r="39" spans="1:22">
       <c r="A39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0034</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-150.re-Hi.dr-02.0%</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-150.re-Hi.dr-02.0%</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>150</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Hi</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>02.0%</v>
       </c>
       <c r="N39">
@@ -4976,41 +4985,41 @@
         <v>0.02</v>
       </c>
       <c r="T39" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O39,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>cp-150</v>
       </c>
       <c r="U39" t="str">
-        <f>I$1&amp;"-"&amp;P39</f>
+        <f t="shared" si="11"/>
         <v>re-Hi</v>
       </c>
       <c r="V39" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q39,"00.0%")</f>
+        <f t="shared" si="12"/>
         <v>dr-02.0%</v>
       </c>
     </row>
     <row r="40" spans="1:22">
       <c r="A40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0035</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-150.re-Hi.dr-01.0%</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-150.re-Hi.dr-01.0%</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>150</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Hi</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>01.0%</v>
       </c>
       <c r="N40">
@@ -5026,41 +5035,41 @@
         <v>0.01</v>
       </c>
       <c r="T40" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O40,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>cp-150</v>
       </c>
       <c r="U40" t="str">
-        <f>I$1&amp;"-"&amp;P40</f>
+        <f t="shared" si="11"/>
         <v>re-Hi</v>
       </c>
       <c r="V40" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q40,"00.0%")</f>
+        <f t="shared" si="12"/>
         <v>dr-01.0%</v>
       </c>
     </row>
     <row r="41" spans="1:22">
       <c r="A41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0036</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-150.re-Ref.dr-10.0%</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-150.re-Ref.dr-10.0%</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>150</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Ref</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>10.0%</v>
       </c>
       <c r="N41">
@@ -5076,41 +5085,41 @@
         <v>0.1</v>
       </c>
       <c r="T41" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O41,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>cp-150</v>
       </c>
       <c r="U41" t="str">
-        <f>I$1&amp;"-"&amp;P41</f>
+        <f t="shared" si="11"/>
         <v>re-Ref</v>
       </c>
       <c r="V41" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q41,"00.0%")</f>
+        <f t="shared" si="12"/>
         <v>dr-10.0%</v>
       </c>
     </row>
     <row r="42" spans="1:22">
       <c r="A42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0037</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-150.re-Ref.dr-07.5%</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-150.re-Ref.dr-07.5%</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>150</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Ref</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>07.5%</v>
       </c>
       <c r="N42">
@@ -5126,41 +5135,41 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="T42" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O42,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>cp-150</v>
       </c>
       <c r="U42" t="str">
-        <f>I$1&amp;"-"&amp;P42</f>
+        <f t="shared" si="11"/>
         <v>re-Ref</v>
       </c>
       <c r="V42" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q42,"00.0%")</f>
+        <f t="shared" si="12"/>
         <v>dr-07.5%</v>
       </c>
     </row>
     <row r="43" spans="1:22">
       <c r="A43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0038</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-150.re-Ref.dr-05.0%</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-150.re-Ref.dr-05.0%</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>150</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Ref</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>05.0%</v>
       </c>
       <c r="N43">
@@ -5176,41 +5185,41 @@
         <v>0.05</v>
       </c>
       <c r="T43" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O43,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>cp-150</v>
       </c>
       <c r="U43" t="str">
-        <f>I$1&amp;"-"&amp;P43</f>
+        <f t="shared" si="11"/>
         <v>re-Ref</v>
       </c>
       <c r="V43" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q43,"00.0%")</f>
+        <f t="shared" si="12"/>
         <v>dr-05.0%</v>
       </c>
     </row>
     <row r="44" spans="1:22">
       <c r="A44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0039</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-150.re-Ref.dr-02.0%</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-150.re-Ref.dr-02.0%</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>150</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Ref</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>02.0%</v>
       </c>
       <c r="N44">
@@ -5226,41 +5235,41 @@
         <v>0.02</v>
       </c>
       <c r="T44" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O44,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>cp-150</v>
       </c>
       <c r="U44" t="str">
-        <f>I$1&amp;"-"&amp;P44</f>
+        <f t="shared" si="11"/>
         <v>re-Ref</v>
       </c>
       <c r="V44" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q44,"00.0%")</f>
+        <f t="shared" si="12"/>
         <v>dr-02.0%</v>
       </c>
     </row>
     <row r="45" spans="1:22">
       <c r="A45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0040</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-150.re-Ref.dr-01.0%</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-150.re-Ref.dr-01.0%</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>150</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Ref</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>01.0%</v>
       </c>
       <c r="N45">
@@ -5276,41 +5285,41 @@
         <v>0.01</v>
       </c>
       <c r="T45" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O45,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>cp-150</v>
       </c>
       <c r="U45" t="str">
-        <f>I$1&amp;"-"&amp;P45</f>
+        <f t="shared" si="11"/>
         <v>re-Ref</v>
       </c>
       <c r="V45" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q45,"00.0%")</f>
+        <f t="shared" si="12"/>
         <v>dr-01.0%</v>
       </c>
     </row>
     <row r="46" spans="1:22">
       <c r="A46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0041</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-300.re-Hi.dr-10.0%</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-300.re-Hi.dr-10.0%</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Hi</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>10.0%</v>
       </c>
       <c r="N46">
@@ -5326,41 +5335,41 @@
         <v>0.1</v>
       </c>
       <c r="T46" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O46,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>cp-300</v>
       </c>
       <c r="U46" t="str">
-        <f>I$1&amp;"-"&amp;P46</f>
+        <f t="shared" si="11"/>
         <v>re-Hi</v>
       </c>
       <c r="V46" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q46,"00.0%")</f>
+        <f t="shared" si="12"/>
         <v>dr-10.0%</v>
       </c>
     </row>
     <row r="47" spans="1:22">
       <c r="A47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0042</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-300.re-Hi.dr-07.5%</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-300.re-Hi.dr-07.5%</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Hi</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>07.5%</v>
       </c>
       <c r="N47">
@@ -5376,41 +5385,41 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="T47" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O47,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>cp-300</v>
       </c>
       <c r="U47" t="str">
-        <f>I$1&amp;"-"&amp;P47</f>
+        <f t="shared" si="11"/>
         <v>re-Hi</v>
       </c>
       <c r="V47" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q47,"00.0%")</f>
+        <f t="shared" si="12"/>
         <v>dr-07.5%</v>
       </c>
     </row>
     <row r="48" spans="1:22">
       <c r="A48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0043</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-300.re-Hi.dr-05.0%</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-300.re-Hi.dr-05.0%</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Hi</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>05.0%</v>
       </c>
       <c r="N48">
@@ -5426,41 +5435,41 @@
         <v>0.05</v>
       </c>
       <c r="T48" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O48,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>cp-300</v>
       </c>
       <c r="U48" t="str">
-        <f>I$1&amp;"-"&amp;P48</f>
+        <f t="shared" si="11"/>
         <v>re-Hi</v>
       </c>
       <c r="V48" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q48,"00.0%")</f>
+        <f t="shared" si="12"/>
         <v>dr-05.0%</v>
       </c>
     </row>
     <row r="49" spans="1:22">
       <c r="A49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0044</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-300.re-Hi.dr-02.0%</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-300.re-Hi.dr-02.0%</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Hi</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>02.0%</v>
       </c>
       <c r="N49">
@@ -5476,41 +5485,41 @@
         <v>0.02</v>
       </c>
       <c r="T49" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O49,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>cp-300</v>
       </c>
       <c r="U49" t="str">
-        <f>I$1&amp;"-"&amp;P49</f>
+        <f t="shared" si="11"/>
         <v>re-Hi</v>
       </c>
       <c r="V49" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q49,"00.0%")</f>
+        <f t="shared" si="12"/>
         <v>dr-02.0%</v>
       </c>
     </row>
     <row r="50" spans="1:22">
       <c r="A50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0045</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-300.re-Hi.dr-01.0%</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-300.re-Hi.dr-01.0%</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Hi</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>01.0%</v>
       </c>
       <c r="N50">
@@ -5526,41 +5535,41 @@
         <v>0.01</v>
       </c>
       <c r="T50" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O50,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>cp-300</v>
       </c>
       <c r="U50" t="str">
-        <f>I$1&amp;"-"&amp;P50</f>
+        <f t="shared" si="11"/>
         <v>re-Hi</v>
       </c>
       <c r="V50" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q50,"00.0%")</f>
+        <f t="shared" si="12"/>
         <v>dr-01.0%</v>
       </c>
     </row>
     <row r="51" spans="1:22">
       <c r="A51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0046</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-300.re-Ref.dr-10.0%</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-300.re-Ref.dr-10.0%</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Ref</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>10.0%</v>
       </c>
       <c r="N51">
@@ -5576,41 +5585,41 @@
         <v>0.1</v>
       </c>
       <c r="T51" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O51,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>cp-300</v>
       </c>
       <c r="U51" t="str">
-        <f>I$1&amp;"-"&amp;P51</f>
+        <f t="shared" si="11"/>
         <v>re-Ref</v>
       </c>
       <c r="V51" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q51,"00.0%")</f>
+        <f t="shared" si="12"/>
         <v>dr-10.0%</v>
       </c>
     </row>
     <row r="52" spans="1:22">
       <c r="A52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0047</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-300.re-Ref.dr-07.5%</v>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-300.re-Ref.dr-07.5%</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Ref</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>07.5%</v>
       </c>
       <c r="N52">
@@ -5626,41 +5635,41 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="T52" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O52,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>cp-300</v>
       </c>
       <c r="U52" t="str">
-        <f>I$1&amp;"-"&amp;P52</f>
+        <f t="shared" si="11"/>
         <v>re-Ref</v>
       </c>
       <c r="V52" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q52,"00.0%")</f>
+        <f t="shared" si="12"/>
         <v>dr-07.5%</v>
       </c>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0048</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-300.re-Ref.dr-05.0%</v>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-300.re-Ref.dr-05.0%</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Ref</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>05.0%</v>
       </c>
       <c r="N53">
@@ -5676,41 +5685,41 @@
         <v>0.05</v>
       </c>
       <c r="T53" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O53,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>cp-300</v>
       </c>
       <c r="U53" t="str">
-        <f>I$1&amp;"-"&amp;P53</f>
+        <f t="shared" si="11"/>
         <v>re-Ref</v>
       </c>
       <c r="V53" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q53,"00.0%")</f>
+        <f t="shared" si="12"/>
         <v>dr-05.0%</v>
       </c>
     </row>
     <row r="54" spans="1:22">
       <c r="A54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0049</v>
       </c>
       <c r="B54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-300.re-Ref.dr-02.0%</v>
       </c>
       <c r="G54" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-300.re-Ref.dr-02.0%</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Ref</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>02.0%</v>
       </c>
       <c r="N54">
@@ -5726,41 +5735,41 @@
         <v>0.02</v>
       </c>
       <c r="T54" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O54,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>cp-300</v>
       </c>
       <c r="U54" t="str">
-        <f>I$1&amp;"-"&amp;P54</f>
+        <f t="shared" si="11"/>
         <v>re-Ref</v>
       </c>
       <c r="V54" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q54,"00.0%")</f>
+        <f t="shared" si="12"/>
         <v>dr-02.0%</v>
       </c>
     </row>
     <row r="55" spans="1:22">
       <c r="A55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>TGE~0050</v>
       </c>
       <c r="B55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cp-300.re-Ref.dr-01.0%</v>
       </c>
       <c r="G55" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>cp-300.re-Ref.dr-01.0%</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Ref</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>01.0%</v>
       </c>
       <c r="N55">
@@ -5776,15 +5785,15 @@
         <v>0.01</v>
       </c>
       <c r="T55" t="str">
-        <f>H$1&amp;"-"&amp;VLOOKUP(O55,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>cp-300</v>
       </c>
       <c r="U55" t="str">
-        <f>I$1&amp;"-"&amp;P55</f>
+        <f t="shared" si="11"/>
         <v>re-Ref</v>
       </c>
       <c r="V55" t="str">
-        <f>J$1&amp;"-"&amp;TEXT(Q55,"00.0%")</f>
+        <f t="shared" si="12"/>
         <v>dr-01.0%</v>
       </c>
     </row>
@@ -10075,11 +10084,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet19"/>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10387,6 +10396,26 @@
         <v>796</v>
       </c>
     </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>810</v>
+      </c>
+      <c r="B14" t="s">
+        <v>811</v>
+      </c>
+      <c r="C14" t="s">
+        <v>318</v>
+      </c>
+      <c r="K14" t="s">
+        <v>794</v>
+      </c>
+      <c r="N14" t="s">
+        <v>812</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ReportDefs-TIMES-GEO.xlsx
+++ b/ReportDefs-TIMES-GEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\TIMES-GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1122CA48-FBC6-4116-A329-003C17675268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D8362F-0B87-4F88-8500-D429E7367F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="815">
   <si>
     <t>Unit</t>
   </si>
@@ -2546,6 +2546,12 @@
   </si>
   <si>
     <t>LCOE</t>
+  </si>
+  <si>
+    <t>&lt;cset&gt;_snk_Export</t>
+  </si>
+  <si>
+    <t>&lt;cset&gt;_src_Import</t>
   </si>
 </sst>
 </file>
@@ -10086,7 +10092,7 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q5" sqref="Q5"/>
     </sheetView>
@@ -10552,10 +10558,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B20676-78A5-4BFB-AF4D-E463F8898B7A}">
-  <dimension ref="B3:L8"/>
+  <dimension ref="B3:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10619,7 +10625,7 @@
       </c>
       <c r="C5" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'pset map'!$A$3:$A$28)</f>
-        <v>IMP,MIN,U-TRF,U-H2P,TRD_Endo,P_All,P-HPL,R_Techs,S_Techs,T_All,A_Techs,I_Techs,I_Techs</v>
+        <v>MIN,U-TRF,U-H2P,P_All,P-HPL,R_Techs,S_Techs,T_All,A_Techs,I_Techs,I_Techs</v>
       </c>
       <c r="D5" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
@@ -10644,7 +10650,7 @@
       </c>
       <c r="C6" t="str">
         <f>C5</f>
-        <v>IMP,MIN,U-TRF,U-H2P,TRD_Endo,P_All,P-HPL,R_Techs,S_Techs,T_All,A_Techs,I_Techs,I_Techs</v>
+        <v>MIN,U-TRF,U-H2P,P_All,P-HPL,R_Techs,S_Techs,T_All,A_Techs,I_Techs,I_Techs</v>
       </c>
       <c r="D6" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
@@ -10669,7 +10675,7 @@
       </c>
       <c r="C7" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'pset map'!$A$3:$A$28)</f>
-        <v>IMP,MIN,U-TRF,U-H2P,TRD_Endo,P_All,P-HPL,R_Techs,S_Techs,T_All,A_Techs,I_Techs,I_Techs</v>
+        <v>MIN,U-TRF,U-H2P,P_All,P-HPL,R_Techs,S_Techs,T_All,A_Techs,I_Techs,I_Techs</v>
       </c>
       <c r="D7" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
@@ -10694,7 +10700,7 @@
       </c>
       <c r="C8" t="str">
         <f>C7</f>
-        <v>IMP,MIN,U-TRF,U-H2P,TRD_Endo,P_All,P-HPL,R_Techs,S_Techs,T_All,A_Techs,I_Techs,I_Techs</v>
+        <v>MIN,U-TRF,U-H2P,P_All,P-HPL,R_Techs,S_Techs,T_All,A_Techs,I_Techs,I_Techs</v>
       </c>
       <c r="D8" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
@@ -10710,6 +10716,48 @@
         <v>792</v>
       </c>
       <c r="K8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
+        <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
+      </c>
+      <c r="F9" t="s">
+        <v>315</v>
+      </c>
+      <c r="G9" t="s">
+        <v>813</v>
+      </c>
+      <c r="K9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
+        <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>814</v>
+      </c>
+      <c r="K10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10933,7 +10981,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10960,26 +11008,32 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B3" t="s">
+        <v>503</v>
+      </c>
+      <c r="G3" t="s">
         <v>500</v>
       </c>
-      <c r="B3" t="s">
+      <c r="H3" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B4" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B5" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G5" t="s">
         <v>504</v>
@@ -10989,27 +11043,33 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>507</v>
-      </c>
-      <c r="B6" t="s">
-        <v>508</v>
+      <c r="A6" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" t="s">
+      <c r="A7" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="G7" t="s">
         <v>249</v>
       </c>
-      <c r="B7" t="s">
+      <c r="H7" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>517</v>
+      <c r="A8" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" t="s">
+        <v>171</v>
       </c>
       <c r="G8" t="s">
         <v>509</v>
@@ -11019,11 +11079,11 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>516</v>
+      <c r="A9" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" t="s">
+        <v>518</v>
       </c>
       <c r="G9" t="s">
         <v>511</v>
@@ -11033,11 +11093,11 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="9" t="s">
-        <v>143</v>
+      <c r="A10" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>519</v>
       </c>
       <c r="G10" t="s">
         <v>513</v>
@@ -11047,44 +11107,34 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="10" t="s">
-        <v>144</v>
+      <c r="A11" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="B11" t="s">
-        <v>518</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="11" t="s">
-        <v>186</v>
+      <c r="A12" s="12" t="s">
+        <v>232</v>
       </c>
       <c r="B12" t="s">
-        <v>519</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="8" t="s">
-        <v>231</v>
+      <c r="A13" s="12" t="s">
+        <v>232</v>
       </c>
       <c r="B13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="B14" t="s">
-        <v>248</v>
-      </c>
+      <c r="A14" s="12"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="B15" t="s">
-        <v>248</v>
-      </c>
+      <c r="A15" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ReportDefs-TIMES-GEO.xlsx
+++ b/ReportDefs-TIMES-GEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\TIMES-GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D8362F-0B87-4F88-8500-D429E7367F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A6CCA7-6F5C-42C2-8E99-5B68F3CB2890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="814">
   <si>
     <t>Unit</t>
   </si>
@@ -1621,9 +1621,6 @@
     <t>Primary production</t>
   </si>
   <si>
-    <t>U-DD</t>
-  </si>
-  <si>
     <t>U-TRF</t>
   </si>
   <si>
@@ -2473,9 +2470,6 @@
     <t>ELE</t>
   </si>
   <si>
-    <t>Upstream Domestic Delivery Technologies</t>
-  </si>
-  <si>
     <t>cset_cn</t>
   </si>
   <si>
@@ -2552,6 +2546,9 @@
   </si>
   <si>
     <t>&lt;cset&gt;_src_Import</t>
+  </si>
+  <si>
+    <t>T_Techs</t>
   </si>
 </sst>
 </file>
@@ -3204,7 +3201,7 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="H1" t="s">
         <v>91</v>
@@ -3276,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -3311,7 +3308,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="Q6">
         <v>0.1</v>
@@ -3332,7 +3329,7 @@
         <v>2</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -3367,7 +3364,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="Q7">
         <v>7.4999999999999997E-2</v>
@@ -3388,7 +3385,7 @@
         <v>3</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -3423,7 +3420,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="Q8">
         <v>0.05</v>
@@ -3444,7 +3441,7 @@
         <v>4</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -3479,7 +3476,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="Q9">
         <v>0.02</v>
@@ -3500,7 +3497,7 @@
         <v>5</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -3535,7 +3532,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="Q10">
         <v>0.01</v>
@@ -3585,7 +3582,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="Q11">
         <v>0.1</v>
@@ -3635,7 +3632,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="Q12">
         <v>7.4999999999999997E-2</v>
@@ -3685,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="Q13">
         <v>0.05</v>
@@ -3735,7 +3732,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="Q14">
         <v>0.02</v>
@@ -3785,7 +3782,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="Q15">
         <v>0.01</v>
@@ -3835,7 +3832,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="Q16">
         <v>0.1</v>
@@ -3885,7 +3882,7 @@
         <v>2</v>
       </c>
       <c r="P17" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="Q17">
         <v>7.4999999999999997E-2</v>
@@ -3935,7 +3932,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="Q18">
         <v>0.05</v>
@@ -3985,7 +3982,7 @@
         <v>2</v>
       </c>
       <c r="P19" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="Q19">
         <v>0.02</v>
@@ -4035,7 +4032,7 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="Q20">
         <v>0.01</v>
@@ -4085,7 +4082,7 @@
         <v>2</v>
       </c>
       <c r="P21" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="Q21">
         <v>0.1</v>
@@ -4135,7 +4132,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="Q22">
         <v>7.4999999999999997E-2</v>
@@ -4185,7 +4182,7 @@
         <v>2</v>
       </c>
       <c r="P23" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="Q23">
         <v>0.05</v>
@@ -4235,7 +4232,7 @@
         <v>2</v>
       </c>
       <c r="P24" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="Q24">
         <v>0.02</v>
@@ -4285,7 +4282,7 @@
         <v>2</v>
       </c>
       <c r="P25" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="Q25">
         <v>0.01</v>
@@ -4335,7 +4332,7 @@
         <v>3</v>
       </c>
       <c r="P26" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="Q26">
         <v>0.1</v>
@@ -4385,7 +4382,7 @@
         <v>3</v>
       </c>
       <c r="P27" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="Q27">
         <v>7.4999999999999997E-2</v>
@@ -4435,7 +4432,7 @@
         <v>3</v>
       </c>
       <c r="P28" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="Q28">
         <v>0.05</v>
@@ -4485,7 +4482,7 @@
         <v>3</v>
       </c>
       <c r="P29" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="Q29">
         <v>0.02</v>
@@ -4535,7 +4532,7 @@
         <v>3</v>
       </c>
       <c r="P30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="Q30">
         <v>0.01</v>
@@ -4585,7 +4582,7 @@
         <v>3</v>
       </c>
       <c r="P31" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="Q31">
         <v>0.1</v>
@@ -4635,7 +4632,7 @@
         <v>3</v>
       </c>
       <c r="P32" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="Q32">
         <v>7.4999999999999997E-2</v>
@@ -4685,7 +4682,7 @@
         <v>3</v>
       </c>
       <c r="P33" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="Q33">
         <v>0.05</v>
@@ -4735,7 +4732,7 @@
         <v>3</v>
       </c>
       <c r="P34" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="Q34">
         <v>0.02</v>
@@ -4785,7 +4782,7 @@
         <v>3</v>
       </c>
       <c r="P35" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="Q35">
         <v>0.01</v>
@@ -4835,7 +4832,7 @@
         <v>4</v>
       </c>
       <c r="P36" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="Q36">
         <v>0.1</v>
@@ -4885,7 +4882,7 @@
         <v>4</v>
       </c>
       <c r="P37" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="Q37">
         <v>7.4999999999999997E-2</v>
@@ -4935,7 +4932,7 @@
         <v>4</v>
       </c>
       <c r="P38" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="Q38">
         <v>0.05</v>
@@ -4985,7 +4982,7 @@
         <v>4</v>
       </c>
       <c r="P39" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="Q39">
         <v>0.02</v>
@@ -5035,7 +5032,7 @@
         <v>4</v>
       </c>
       <c r="P40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="Q40">
         <v>0.01</v>
@@ -5085,7 +5082,7 @@
         <v>4</v>
       </c>
       <c r="P41" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="Q41">
         <v>0.1</v>
@@ -5135,7 +5132,7 @@
         <v>4</v>
       </c>
       <c r="P42" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="Q42">
         <v>7.4999999999999997E-2</v>
@@ -5185,7 +5182,7 @@
         <v>4</v>
       </c>
       <c r="P43" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="Q43">
         <v>0.05</v>
@@ -5235,7 +5232,7 @@
         <v>4</v>
       </c>
       <c r="P44" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="Q44">
         <v>0.02</v>
@@ -5285,7 +5282,7 @@
         <v>4</v>
       </c>
       <c r="P45" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="Q45">
         <v>0.01</v>
@@ -5335,7 +5332,7 @@
         <v>5</v>
       </c>
       <c r="P46" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="Q46">
         <v>0.1</v>
@@ -5385,7 +5382,7 @@
         <v>5</v>
       </c>
       <c r="P47" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="Q47">
         <v>7.4999999999999997E-2</v>
@@ -5435,7 +5432,7 @@
         <v>5</v>
       </c>
       <c r="P48" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="Q48">
         <v>0.05</v>
@@ -5485,7 +5482,7 @@
         <v>5</v>
       </c>
       <c r="P49" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="Q49">
         <v>0.02</v>
@@ -5535,7 +5532,7 @@
         <v>5</v>
       </c>
       <c r="P50" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="Q50">
         <v>0.01</v>
@@ -5585,7 +5582,7 @@
         <v>5</v>
       </c>
       <c r="P51" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="Q51">
         <v>0.1</v>
@@ -5635,7 +5632,7 @@
         <v>5</v>
       </c>
       <c r="P52" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="Q52">
         <v>7.4999999999999997E-2</v>
@@ -5685,7 +5682,7 @@
         <v>5</v>
       </c>
       <c r="P53" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="Q53">
         <v>0.05</v>
@@ -5735,7 +5732,7 @@
         <v>5</v>
       </c>
       <c r="P54" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="Q54">
         <v>0.02</v>
@@ -5785,7 +5782,7 @@
         <v>5</v>
       </c>
       <c r="P55" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="Q55">
         <v>0.01</v>
@@ -6171,7 +6168,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6199,19 +6196,19 @@
         <v>101</v>
       </c>
       <c r="B3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C3" t="s">
         <v>521</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>522</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>523</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>524</v>
-      </c>
-      <c r="F3" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6219,19 +6216,19 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
+        <v>525</v>
+      </c>
+      <c r="C4" t="s">
         <v>526</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>527</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>528</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>529</v>
-      </c>
-      <c r="F4" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6248,10 +6245,10 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
+        <v>530</v>
+      </c>
+      <c r="F5" t="s">
         <v>531</v>
-      </c>
-      <c r="F5" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6259,19 +6256,19 @@
         <v>106</v>
       </c>
       <c r="B6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C6" t="s">
         <v>533</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>534</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>535</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>536</v>
-      </c>
-      <c r="F6" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6279,19 +6276,19 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>537</v>
+      </c>
+      <c r="C7" t="s">
         <v>538</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>539</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>540</v>
       </c>
-      <c r="E7" t="s">
-        <v>541</v>
-      </c>
       <c r="F7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6299,19 +6296,19 @@
         <v>109</v>
       </c>
       <c r="B8" t="s">
+        <v>541</v>
+      </c>
+      <c r="C8" t="s">
         <v>542</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>543</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>544</v>
       </c>
-      <c r="E8" t="s">
-        <v>545</v>
-      </c>
       <c r="F8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6319,19 +6316,19 @@
         <v>111</v>
       </c>
       <c r="B9" t="s">
+        <v>545</v>
+      </c>
+      <c r="C9" t="s">
         <v>546</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>547</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>548</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>549</v>
-      </c>
-      <c r="F9" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6339,19 +6336,19 @@
         <v>113</v>
       </c>
       <c r="B10" t="s">
+        <v>550</v>
+      </c>
+      <c r="C10" t="s">
         <v>551</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>552</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>553</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>554</v>
-      </c>
-      <c r="F10" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6359,7 +6356,7 @@
         <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C11" t="s">
         <v>115</v>
@@ -6368,10 +6365,10 @@
         <v>115</v>
       </c>
       <c r="E11" t="s">
+        <v>556</v>
+      </c>
+      <c r="F11" t="s">
         <v>557</v>
-      </c>
-      <c r="F11" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6379,19 +6376,19 @@
         <v>117</v>
       </c>
       <c r="B12" t="s">
+        <v>558</v>
+      </c>
+      <c r="C12" t="s">
         <v>559</v>
-      </c>
-      <c r="C12" t="s">
-        <v>560</v>
       </c>
       <c r="D12" t="s">
         <v>117</v>
       </c>
       <c r="E12" t="s">
+        <v>560</v>
+      </c>
+      <c r="F12" t="s">
         <v>561</v>
-      </c>
-      <c r="F12" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6399,19 +6396,19 @@
         <v>119</v>
       </c>
       <c r="B13" t="s">
+        <v>562</v>
+      </c>
+      <c r="C13" t="s">
         <v>563</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>564</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>565</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>566</v>
-      </c>
-      <c r="F13" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6419,19 +6416,19 @@
         <v>121</v>
       </c>
       <c r="B14" t="s">
+        <v>567</v>
+      </c>
+      <c r="C14" t="s">
         <v>568</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>569</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>570</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>571</v>
-      </c>
-      <c r="F14" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6439,19 +6436,19 @@
         <v>123</v>
       </c>
       <c r="B15" t="s">
+        <v>572</v>
+      </c>
+      <c r="C15" t="s">
         <v>573</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>574</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>575</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>576</v>
-      </c>
-      <c r="F15" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6459,19 +6456,19 @@
         <v>125</v>
       </c>
       <c r="B16" t="s">
+        <v>577</v>
+      </c>
+      <c r="C16" t="s">
         <v>578</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>579</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>580</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>581</v>
-      </c>
-      <c r="F16" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6479,19 +6476,19 @@
         <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C17" t="s">
         <v>127</v>
       </c>
       <c r="D17" t="s">
+        <v>583</v>
+      </c>
+      <c r="E17" t="s">
         <v>584</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>585</v>
-      </c>
-      <c r="F17" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6499,19 +6496,19 @@
         <v>129</v>
       </c>
       <c r="B18" t="s">
+        <v>586</v>
+      </c>
+      <c r="C18" t="s">
         <v>587</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>588</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>589</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>590</v>
-      </c>
-      <c r="F18" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6519,19 +6516,19 @@
         <v>131</v>
       </c>
       <c r="B19" t="s">
+        <v>591</v>
+      </c>
+      <c r="C19" t="s">
         <v>592</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>593</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>594</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>595</v>
-      </c>
-      <c r="F19" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6539,19 +6536,19 @@
         <v>133</v>
       </c>
       <c r="B20" t="s">
+        <v>596</v>
+      </c>
+      <c r="C20" t="s">
         <v>597</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>598</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>599</v>
       </c>
-      <c r="E20" t="s">
-        <v>600</v>
-      </c>
       <c r="F20" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6588,10 +6585,10 @@
         <v>137</v>
       </c>
       <c r="E22" t="s">
+        <v>600</v>
+      </c>
+      <c r="F22" t="s">
         <v>601</v>
-      </c>
-      <c r="F22" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6608,10 +6605,10 @@
         <v>139</v>
       </c>
       <c r="E23" t="s">
+        <v>602</v>
+      </c>
+      <c r="F23" t="s">
         <v>603</v>
-      </c>
-      <c r="F23" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6628,10 +6625,10 @@
         <v>141</v>
       </c>
       <c r="E24" t="s">
+        <v>604</v>
+      </c>
+      <c r="F24" t="s">
         <v>605</v>
-      </c>
-      <c r="F24" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6639,19 +6636,19 @@
         <v>171</v>
       </c>
       <c r="B25" t="s">
+        <v>606</v>
+      </c>
+      <c r="C25" t="s">
         <v>607</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>608</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>609</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>610</v>
-      </c>
-      <c r="F25" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6659,19 +6656,19 @@
         <v>172</v>
       </c>
       <c r="B26" t="s">
+        <v>611</v>
+      </c>
+      <c r="C26" t="s">
         <v>612</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>613</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>614</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>615</v>
-      </c>
-      <c r="F26" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6679,19 +6676,19 @@
         <v>173</v>
       </c>
       <c r="B27" t="s">
+        <v>616</v>
+      </c>
+      <c r="C27" t="s">
         <v>617</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>618</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>619</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>620</v>
-      </c>
-      <c r="F27" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6699,19 +6696,19 @@
         <v>174</v>
       </c>
       <c r="B28" t="s">
+        <v>621</v>
+      </c>
+      <c r="C28" t="s">
         <v>622</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>623</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>624</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>625</v>
-      </c>
-      <c r="F28" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6719,19 +6716,19 @@
         <v>175</v>
       </c>
       <c r="B29" t="s">
+        <v>626</v>
+      </c>
+      <c r="C29" t="s">
         <v>627</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>628</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>629</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>630</v>
-      </c>
-      <c r="F29" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6739,19 +6736,19 @@
         <v>176</v>
       </c>
       <c r="B30" t="s">
+        <v>631</v>
+      </c>
+      <c r="C30" t="s">
         <v>632</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>633</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>634</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>635</v>
-      </c>
-      <c r="F30" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6759,19 +6756,19 @@
         <v>177</v>
       </c>
       <c r="B31" t="s">
+        <v>636</v>
+      </c>
+      <c r="C31" t="s">
         <v>637</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>638</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>639</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>640</v>
-      </c>
-      <c r="F31" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6779,19 +6776,19 @@
         <v>178</v>
       </c>
       <c r="B32" t="s">
+        <v>641</v>
+      </c>
+      <c r="C32" t="s">
         <v>642</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>643</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>644</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>645</v>
-      </c>
-      <c r="F32" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6819,19 +6816,19 @@
         <v>179</v>
       </c>
       <c r="B34" t="s">
+        <v>646</v>
+      </c>
+      <c r="C34" t="s">
         <v>647</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>648</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>649</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>650</v>
-      </c>
-      <c r="F34" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6839,19 +6836,19 @@
         <v>180</v>
       </c>
       <c r="B35" t="s">
+        <v>651</v>
+      </c>
+      <c r="C35" t="s">
         <v>652</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>653</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>654</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>655</v>
-      </c>
-      <c r="F35" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -6859,19 +6856,19 @@
         <v>181</v>
       </c>
       <c r="B36" t="s">
+        <v>656</v>
+      </c>
+      <c r="C36" t="s">
         <v>657</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>658</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>659</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>660</v>
-      </c>
-      <c r="F36" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -6879,19 +6876,19 @@
         <v>182</v>
       </c>
       <c r="B37" t="s">
+        <v>661</v>
+      </c>
+      <c r="C37" t="s">
         <v>662</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>663</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>664</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>665</v>
-      </c>
-      <c r="F37" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -6899,19 +6896,19 @@
         <v>183</v>
       </c>
       <c r="B38" t="s">
+        <v>666</v>
+      </c>
+      <c r="C38" t="s">
         <v>667</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>668</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>669</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>670</v>
-      </c>
-      <c r="F38" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -6919,19 +6916,19 @@
         <v>184</v>
       </c>
       <c r="B39" t="s">
+        <v>671</v>
+      </c>
+      <c r="C39" t="s">
         <v>672</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>673</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>674</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>675</v>
-      </c>
-      <c r="F39" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -6939,19 +6936,19 @@
         <v>187</v>
       </c>
       <c r="B40" t="s">
+        <v>676</v>
+      </c>
+      <c r="C40" t="s">
         <v>677</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>678</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>679</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>680</v>
-      </c>
-      <c r="F40" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -6999,19 +6996,19 @@
         <v>193</v>
       </c>
       <c r="B43" t="s">
+        <v>681</v>
+      </c>
+      <c r="C43" t="s">
         <v>682</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>683</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>684</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>685</v>
-      </c>
-      <c r="F43" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7019,19 +7016,19 @@
         <v>195</v>
       </c>
       <c r="B44" t="s">
+        <v>686</v>
+      </c>
+      <c r="C44" t="s">
         <v>687</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>688</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>689</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>690</v>
-      </c>
-      <c r="F44" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7079,19 +7076,19 @@
         <v>201</v>
       </c>
       <c r="B47" t="s">
+        <v>691</v>
+      </c>
+      <c r="C47" t="s">
         <v>692</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>693</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>694</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>695</v>
-      </c>
-      <c r="F47" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7099,19 +7096,19 @@
         <v>203</v>
       </c>
       <c r="B48" t="s">
+        <v>696</v>
+      </c>
+      <c r="C48" t="s">
         <v>697</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>698</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>699</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>700</v>
-      </c>
-      <c r="F48" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7119,19 +7116,19 @@
         <v>205</v>
       </c>
       <c r="B49" t="s">
+        <v>701</v>
+      </c>
+      <c r="C49" t="s">
         <v>702</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>703</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>704</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>705</v>
-      </c>
-      <c r="F49" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7199,19 +7196,19 @@
         <v>213</v>
       </c>
       <c r="B53" t="s">
+        <v>706</v>
+      </c>
+      <c r="C53" t="s">
         <v>707</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>708</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>709</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>710</v>
-      </c>
-      <c r="F53" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7259,19 +7256,19 @@
         <v>219</v>
       </c>
       <c r="B56" t="s">
+        <v>711</v>
+      </c>
+      <c r="C56" t="s">
         <v>712</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>713</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>714</v>
       </c>
-      <c r="E56" t="s">
-        <v>715</v>
-      </c>
       <c r="F56" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7319,19 +7316,19 @@
         <v>225</v>
       </c>
       <c r="B59" t="s">
+        <v>715</v>
+      </c>
+      <c r="C59" t="s">
         <v>716</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>717</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>718</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>719</v>
-      </c>
-      <c r="F59" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7379,19 +7376,19 @@
         <v>247</v>
       </c>
       <c r="B62" t="s">
+        <v>720</v>
+      </c>
+      <c r="C62" t="s">
         <v>721</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>722</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>723</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>724</v>
-      </c>
-      <c r="F62" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7399,19 +7396,19 @@
         <v>248</v>
       </c>
       <c r="B63" t="s">
+        <v>725</v>
+      </c>
+      <c r="C63" t="s">
+        <v>725</v>
+      </c>
+      <c r="D63" t="s">
         <v>726</v>
       </c>
-      <c r="C63" t="s">
-        <v>726</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>727</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>728</v>
-      </c>
-      <c r="F63" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7419,19 +7416,19 @@
         <v>234</v>
       </c>
       <c r="B64" t="s">
+        <v>729</v>
+      </c>
+      <c r="C64" t="s">
         <v>730</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>731</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>732</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>733</v>
-      </c>
-      <c r="F64" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -10212,16 +10209,16 @@
         <v>6</v>
       </c>
       <c r="H4" t="s">
+        <v>795</v>
+      </c>
+      <c r="K4" t="s">
+        <v>796</v>
+      </c>
+      <c r="N4" t="s">
         <v>797</v>
       </c>
-      <c r="K4" t="s">
+      <c r="P4" t="s">
         <v>798</v>
-      </c>
-      <c r="N4" t="s">
-        <v>799</v>
-      </c>
-      <c r="P4" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -10384,39 +10381,39 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
+        <v>734</v>
+      </c>
+      <c r="B13" t="s">
         <v>735</v>
       </c>
-      <c r="B13" t="s">
-        <v>736</v>
-      </c>
       <c r="I13" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="K13" t="s">
+        <v>792</v>
+      </c>
+      <c r="N13" t="s">
+        <v>793</v>
+      </c>
+      <c r="Q13" t="s">
         <v>794</v>
-      </c>
-      <c r="N13" t="s">
-        <v>795</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B14" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C14" t="s">
         <v>318</v>
       </c>
       <c r="K14" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N14" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="Q14" t="s">
         <v>59</v>
@@ -10560,8 +10557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B20676-78A5-4BFB-AF4D-E463F8898B7A}">
   <dimension ref="B3:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10595,7 +10592,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>0</v>
@@ -10625,14 +10622,14 @@
       </c>
       <c r="C5" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'pset map'!$A$3:$A$28)</f>
-        <v>MIN,U-TRF,U-H2P,P_All,P-HPL,R_Techs,S_Techs,T_All,A_Techs,I_Techs,I_Techs</v>
+        <v>MIN,IMP,U-H2P,P_All,P-HPL,R_Techs,S_Techs,T_Techs,A_Techs,I_Techs,I_Techs</v>
       </c>
       <c r="D5" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F5" t="s">
         <v>315</v>
@@ -10650,14 +10647,14 @@
       </c>
       <c r="C6" t="str">
         <f>C5</f>
-        <v>MIN,U-TRF,U-H2P,P_All,P-HPL,R_Techs,S_Techs,T_All,A_Techs,I_Techs,I_Techs</v>
+        <v>MIN,IMP,U-H2P,P_All,P-HPL,R_Techs,S_Techs,T_Techs,A_Techs,I_Techs,I_Techs</v>
       </c>
       <c r="D6" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F6" t="s">
         <v>37</v>
@@ -10675,20 +10672,20 @@
       </c>
       <c r="C7" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'pset map'!$A$3:$A$28)</f>
-        <v>MIN,U-TRF,U-H2P,P_All,P-HPL,R_Techs,S_Techs,T_All,A_Techs,I_Techs,I_Techs</v>
+        <v>MIN,IMP,U-H2P,P_All,P-HPL,R_Techs,S_Techs,T_Techs,A_Techs,I_Techs,I_Techs</v>
       </c>
       <c r="D7" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F7" t="s">
         <v>315</v>
       </c>
       <c r="G7" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="K7" t="s">
         <v>38</v>
@@ -10700,20 +10697,20 @@
       </c>
       <c r="C8" t="str">
         <f>C7</f>
-        <v>MIN,U-TRF,U-H2P,P_All,P-HPL,R_Techs,S_Techs,T_All,A_Techs,I_Techs,I_Techs</v>
+        <v>MIN,IMP,U-H2P,P_All,P-HPL,R_Techs,S_Techs,T_Techs,A_Techs,I_Techs,I_Techs</v>
       </c>
       <c r="D8" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F8" t="s">
         <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="K8" t="s">
         <v>38</v>
@@ -10734,7 +10731,7 @@
         <v>315</v>
       </c>
       <c r="G9" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="K9" t="s">
         <v>38</v>
@@ -10755,7 +10752,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="K10" t="s">
         <v>38</v>
@@ -10806,7 +10803,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10980,8 +10977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF522A4-03B3-4329-9210-404B1BD4B629}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11022,24 +11019,24 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B4" t="s">
+        <v>501</v>
+      </c>
+      <c r="G4" t="s">
+        <v>504</v>
+      </c>
+      <c r="H4" t="s">
         <v>505</v>
-      </c>
-      <c r="B4" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B5" t="s">
         <v>507</v>
-      </c>
-      <c r="B5" t="s">
-        <v>508</v>
-      </c>
-      <c r="G5" t="s">
-        <v>504</v>
-      </c>
-      <c r="H5" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -11047,15 +11044,15 @@
         <v>276</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>515</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>516</v>
       </c>
       <c r="G7" t="s">
         <v>249</v>
@@ -11072,10 +11069,10 @@
         <v>171</v>
       </c>
       <c r="G8" t="s">
+        <v>508</v>
+      </c>
+      <c r="H8" t="s">
         <v>509</v>
-      </c>
-      <c r="H8" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -11083,27 +11080,27 @@
         <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G9" t="s">
+        <v>510</v>
+      </c>
+      <c r="H9" t="s">
         <v>511</v>
-      </c>
-      <c r="H9" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="11" t="s">
-        <v>186</v>
+        <v>813</v>
       </c>
       <c r="B10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G10" t="s">
+        <v>512</v>
+      </c>
+      <c r="H10" t="s">
         <v>513</v>
-      </c>
-      <c r="H10" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -11153,7 +11150,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -11169,343 +11166,343 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C7" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B8" t="s">
         <v>327</v>
       </c>
       <c r="C8" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B9" t="s">
+        <v>742</v>
+      </c>
+      <c r="C9" t="s">
         <v>743</v>
-      </c>
-      <c r="C9" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B10" t="s">
+        <v>744</v>
+      </c>
+      <c r="C10" t="s">
         <v>745</v>
-      </c>
-      <c r="C10" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B11" t="s">
+        <v>746</v>
+      </c>
+      <c r="C11" t="s">
         <v>747</v>
-      </c>
-      <c r="C11" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B12" t="s">
+        <v>748</v>
+      </c>
+      <c r="C12" t="s">
         <v>749</v>
-      </c>
-      <c r="C12" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B13" t="s">
         <v>488</v>
       </c>
       <c r="C13" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B14" t="s">
         <v>490</v>
       </c>
       <c r="C14" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B15" t="s">
         <v>489</v>
       </c>
       <c r="C15" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B16" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C16" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B17" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C17" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B18" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C18" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B19" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C19" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B20" t="s">
         <v>372</v>
       </c>
       <c r="C20" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B21" t="s">
         <v>388</v>
       </c>
       <c r="C21" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B22" t="s">
         <v>484</v>
       </c>
       <c r="C22" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B23" t="s">
         <v>390</v>
       </c>
       <c r="C23" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B24" t="s">
         <v>485</v>
       </c>
       <c r="C24" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B25" t="s">
         <v>401</v>
       </c>
       <c r="C25" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B26" t="s">
+        <v>762</v>
+      </c>
+      <c r="C26" t="s">
         <v>763</v>
-      </c>
-      <c r="C26" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B27" t="s">
+        <v>764</v>
+      </c>
+      <c r="C27" t="s">
         <v>765</v>
-      </c>
-      <c r="C27" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B28" t="s">
         <v>416</v>
       </c>
       <c r="C28" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B29" t="s">
         <v>487</v>
       </c>
       <c r="C29" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B30" t="s">
         <v>448</v>
       </c>
       <c r="C30" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B31" t="s">
         <v>470</v>
       </c>
       <c r="C31" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B32" t="s">
         <v>486</v>
       </c>
       <c r="C32" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B33" t="s">
         <v>480</v>
       </c>
       <c r="C33" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
   </sheetData>
@@ -12617,24 +12614,24 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
+        <v>783</v>
+      </c>
+      <c r="C100" t="s">
         <v>784</v>
       </c>
-      <c r="C100" t="s">
-        <v>785</v>
-      </c>
       <c r="D100" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C101" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D101" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
   </sheetData>

--- a/ReportDefs-TIMES-GEO.xlsx
+++ b/ReportDefs-TIMES-GEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\TIMES-GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A6CCA7-6F5C-42C2-8E99-5B68F3CB2890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE691423-52E7-4550-81DE-9F4464B38DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="817">
   <si>
     <t>Unit</t>
   </si>
@@ -2365,9 +2365,6 @@
     <t>Canada</t>
   </si>
   <si>
-    <t>China Mainland</t>
-  </si>
-  <si>
     <t>ENE</t>
   </si>
   <si>
@@ -2446,12 +2443,6 @@
     <t>Non-EU West Europe</t>
   </si>
   <si>
-    <t>East Europe Union</t>
-  </si>
-  <si>
-    <t>West Europe Union</t>
-  </si>
-  <si>
     <t>Iran</t>
   </si>
   <si>
@@ -2549,6 +2540,24 @@
   </si>
   <si>
     <t>T_Techs</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>EU East Europe</t>
+  </si>
+  <si>
+    <t>EU West Europe</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>pset_pn</t>
+  </si>
+  <si>
+    <t>-IMP*</t>
   </si>
 </sst>
 </file>
@@ -3201,7 +3210,7 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="H1" t="s">
         <v>91</v>
@@ -3273,7 +3282,7 @@
         <v>1</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -3308,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="Q6">
         <v>0.1</v>
@@ -3329,7 +3338,7 @@
         <v>2</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -3364,7 +3373,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="Q7">
         <v>7.4999999999999997E-2</v>
@@ -3385,7 +3394,7 @@
         <v>3</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -3420,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="Q8">
         <v>0.05</v>
@@ -3441,7 +3450,7 @@
         <v>4</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -3476,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="Q9">
         <v>0.02</v>
@@ -3497,7 +3506,7 @@
         <v>5</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -3532,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="Q10">
         <v>0.01</v>
@@ -3582,7 +3591,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="Q11">
         <v>0.1</v>
@@ -3632,7 +3641,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="Q12">
         <v>7.4999999999999997E-2</v>
@@ -3682,7 +3691,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="Q13">
         <v>0.05</v>
@@ -3732,7 +3741,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="Q14">
         <v>0.02</v>
@@ -3782,7 +3791,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="Q15">
         <v>0.01</v>
@@ -3832,7 +3841,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="Q16">
         <v>0.1</v>
@@ -3882,7 +3891,7 @@
         <v>2</v>
       </c>
       <c r="P17" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="Q17">
         <v>7.4999999999999997E-2</v>
@@ -3932,7 +3941,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="Q18">
         <v>0.05</v>
@@ -3982,7 +3991,7 @@
         <v>2</v>
       </c>
       <c r="P19" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="Q19">
         <v>0.02</v>
@@ -4032,7 +4041,7 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="Q20">
         <v>0.01</v>
@@ -4082,7 +4091,7 @@
         <v>2</v>
       </c>
       <c r="P21" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="Q21">
         <v>0.1</v>
@@ -4132,7 +4141,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="Q22">
         <v>7.4999999999999997E-2</v>
@@ -4182,7 +4191,7 @@
         <v>2</v>
       </c>
       <c r="P23" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="Q23">
         <v>0.05</v>
@@ -4232,7 +4241,7 @@
         <v>2</v>
       </c>
       <c r="P24" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="Q24">
         <v>0.02</v>
@@ -4282,7 +4291,7 @@
         <v>2</v>
       </c>
       <c r="P25" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="Q25">
         <v>0.01</v>
@@ -4332,7 +4341,7 @@
         <v>3</v>
       </c>
       <c r="P26" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="Q26">
         <v>0.1</v>
@@ -4382,7 +4391,7 @@
         <v>3</v>
       </c>
       <c r="P27" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="Q27">
         <v>7.4999999999999997E-2</v>
@@ -4432,7 +4441,7 @@
         <v>3</v>
       </c>
       <c r="P28" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="Q28">
         <v>0.05</v>
@@ -4482,7 +4491,7 @@
         <v>3</v>
       </c>
       <c r="P29" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="Q29">
         <v>0.02</v>
@@ -4532,7 +4541,7 @@
         <v>3</v>
       </c>
       <c r="P30" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="Q30">
         <v>0.01</v>
@@ -4582,7 +4591,7 @@
         <v>3</v>
       </c>
       <c r="P31" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="Q31">
         <v>0.1</v>
@@ -4632,7 +4641,7 @@
         <v>3</v>
       </c>
       <c r="P32" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="Q32">
         <v>7.4999999999999997E-2</v>
@@ -4682,7 +4691,7 @@
         <v>3</v>
       </c>
       <c r="P33" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="Q33">
         <v>0.05</v>
@@ -4732,7 +4741,7 @@
         <v>3</v>
       </c>
       <c r="P34" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="Q34">
         <v>0.02</v>
@@ -4782,7 +4791,7 @@
         <v>3</v>
       </c>
       <c r="P35" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="Q35">
         <v>0.01</v>
@@ -4832,7 +4841,7 @@
         <v>4</v>
       </c>
       <c r="P36" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="Q36">
         <v>0.1</v>
@@ -4882,7 +4891,7 @@
         <v>4</v>
       </c>
       <c r="P37" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="Q37">
         <v>7.4999999999999997E-2</v>
@@ -4932,7 +4941,7 @@
         <v>4</v>
       </c>
       <c r="P38" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="Q38">
         <v>0.05</v>
@@ -4982,7 +4991,7 @@
         <v>4</v>
       </c>
       <c r="P39" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="Q39">
         <v>0.02</v>
@@ -5032,7 +5041,7 @@
         <v>4</v>
       </c>
       <c r="P40" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="Q40">
         <v>0.01</v>
@@ -5082,7 +5091,7 @@
         <v>4</v>
       </c>
       <c r="P41" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="Q41">
         <v>0.1</v>
@@ -5132,7 +5141,7 @@
         <v>4</v>
       </c>
       <c r="P42" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="Q42">
         <v>7.4999999999999997E-2</v>
@@ -5182,7 +5191,7 @@
         <v>4</v>
       </c>
       <c r="P43" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="Q43">
         <v>0.05</v>
@@ -5232,7 +5241,7 @@
         <v>4</v>
       </c>
       <c r="P44" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="Q44">
         <v>0.02</v>
@@ -5282,7 +5291,7 @@
         <v>4</v>
       </c>
       <c r="P45" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="Q45">
         <v>0.01</v>
@@ -5332,7 +5341,7 @@
         <v>5</v>
       </c>
       <c r="P46" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="Q46">
         <v>0.1</v>
@@ -5382,7 +5391,7 @@
         <v>5</v>
       </c>
       <c r="P47" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="Q47">
         <v>7.4999999999999997E-2</v>
@@ -5432,7 +5441,7 @@
         <v>5</v>
       </c>
       <c r="P48" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="Q48">
         <v>0.05</v>
@@ -5482,7 +5491,7 @@
         <v>5</v>
       </c>
       <c r="P49" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="Q49">
         <v>0.02</v>
@@ -5532,7 +5541,7 @@
         <v>5</v>
       </c>
       <c r="P50" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="Q50">
         <v>0.01</v>
@@ -5582,7 +5591,7 @@
         <v>5</v>
       </c>
       <c r="P51" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="Q51">
         <v>0.1</v>
@@ -5632,7 +5641,7 @@
         <v>5</v>
       </c>
       <c r="P52" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="Q52">
         <v>7.4999999999999997E-2</v>
@@ -5682,7 +5691,7 @@
         <v>5</v>
       </c>
       <c r="P53" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="Q53">
         <v>0.05</v>
@@ -5732,7 +5741,7 @@
         <v>5</v>
       </c>
       <c r="P54" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="Q54">
         <v>0.02</v>
@@ -5782,7 +5791,7 @@
         <v>5</v>
       </c>
       <c r="P55" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="Q55">
         <v>0.01</v>
@@ -10209,16 +10218,16 @@
         <v>6</v>
       </c>
       <c r="H4" t="s">
+        <v>792</v>
+      </c>
+      <c r="K4" t="s">
+        <v>793</v>
+      </c>
+      <c r="N4" t="s">
+        <v>794</v>
+      </c>
+      <c r="P4" t="s">
         <v>795</v>
-      </c>
-      <c r="K4" t="s">
-        <v>796</v>
-      </c>
-      <c r="N4" t="s">
-        <v>797</v>
-      </c>
-      <c r="P4" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -10387,33 +10396,33 @@
         <v>735</v>
       </c>
       <c r="I13" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="K13" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="N13" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="Q13" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B14" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C14" t="s">
         <v>318</v>
       </c>
       <c r="K14" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="N14" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="Q14" t="s">
         <v>59</v>
@@ -10555,33 +10564,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B20676-78A5-4BFB-AF4D-E463F8898B7A}">
-  <dimension ref="B3:L10"/>
+  <dimension ref="B3:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="39.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.06640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.9296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.06640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.46484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.53125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.9296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.06640625" customWidth="1"/>
+    <col min="5" max="5" width="36.9296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.06640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.46484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.53125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.9296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" ht="17.25" thickBot="1">
+    <row r="3" spans="2:13" ht="17.25" thickBot="1">
       <c r="B3" s="3" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="15" thickTop="1" thickBot="1">
+    <row r="4" spans="2:13" ht="15" thickTop="1" thickBot="1">
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -10589,34 +10599,37 @@
         <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>787</v>
-      </c>
       <c r="F4" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:13">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -10624,24 +10637,27 @@
         <f>_xlfn.TEXTJOIN(",",TRUE,'pset map'!$A$3:$A$28)</f>
         <v>MIN,IMP,U-H2P,P_All,P-HPL,R_Techs,S_Techs,T_Techs,A_Techs,I_Techs,I_Techs</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D5" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="E5" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="G5" t="s">
         <v>315</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>496</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:13">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -10649,24 +10665,24 @@
         <f>C5</f>
         <v>MIN,IMP,U-H2P,P_All,P-HPL,R_Techs,S_Techs,T_Techs,A_Techs,I_Techs,I_Techs</v>
       </c>
-      <c r="D6" t="str">
+      <c r="E6" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="G6" t="s">
         <v>37</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>497</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:13">
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -10674,24 +10690,24 @@
         <f>_xlfn.TEXTJOIN(",",TRUE,'pset map'!$A$3:$A$28)</f>
         <v>MIN,IMP,U-H2P,P_All,P-HPL,R_Techs,S_Techs,T_Techs,A_Techs,I_Techs,I_Techs</v>
       </c>
-      <c r="D7" t="str">
+      <c r="E7" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="G7" t="s">
         <v>315</v>
       </c>
-      <c r="G7" t="s">
-        <v>791</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="H7" t="s">
+        <v>788</v>
+      </c>
+      <c r="L7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:13">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -10699,62 +10715,62 @@
         <f>C7</f>
         <v>MIN,IMP,U-H2P,P_All,P-HPL,R_Techs,S_Techs,T_Techs,A_Techs,I_Techs,I_Techs</v>
       </c>
-      <c r="D8" t="str">
+      <c r="E8" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="G8" t="s">
         <v>37</v>
       </c>
-      <c r="G8" t="s">
-        <v>790</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="H8" t="s">
+        <v>787</v>
+      </c>
+      <c r="L8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:13">
       <c r="B9" t="s">
         <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>249</v>
       </c>
-      <c r="D9" t="str">
+      <c r="E9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>315</v>
       </c>
-      <c r="G9" t="s">
-        <v>811</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="H9" t="s">
+        <v>808</v>
+      </c>
+      <c r="L9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:13">
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>249</v>
       </c>
-      <c r="D10" t="str">
+      <c r="E10" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>37</v>
       </c>
-      <c r="G10" t="s">
-        <v>812</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="H10" t="s">
+        <v>809</v>
+      </c>
+      <c r="L10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10977,8 +10993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF522A4-03B3-4329-9210-404B1BD4B629}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11022,7 +11038,7 @@
         <v>500</v>
       </c>
       <c r="B4" t="s">
-        <v>501</v>
+        <v>814</v>
       </c>
       <c r="G4" t="s">
         <v>504</v>
@@ -11091,7 +11107,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="11" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B10" t="s">
         <v>518</v>
@@ -11143,14 +11159,14 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -11166,62 +11182,62 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B3" t="s">
         <v>736</v>
       </c>
       <c r="C3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B4" t="s">
         <v>737</v>
       </c>
       <c r="C4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B5" t="s">
         <v>738</v>
       </c>
       <c r="C5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B6" t="s">
         <v>739</v>
       </c>
       <c r="C6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B7" t="s">
         <v>740</v>
       </c>
       <c r="C7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B8" t="s">
         <v>327</v>
@@ -11232,7 +11248,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B9" t="s">
         <v>742</v>
@@ -11243,7 +11259,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B10" t="s">
         <v>744</v>
@@ -11254,7 +11270,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B11" t="s">
         <v>746</v>
@@ -11265,7 +11281,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B12" t="s">
         <v>748</v>
@@ -11276,7 +11292,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B13" t="s">
         <v>488</v>
@@ -11287,7 +11303,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B14" t="s">
         <v>490</v>
@@ -11298,211 +11314,211 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B15" t="s">
         <v>489</v>
       </c>
       <c r="C15" t="s">
-        <v>752</v>
+        <v>811</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B16" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C16" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B17" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C17" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B18" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C18" t="s">
-        <v>779</v>
+        <v>812</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B19" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C19" t="s">
-        <v>780</v>
+        <v>813</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B20" t="s">
         <v>372</v>
       </c>
       <c r="C20" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B21" t="s">
         <v>388</v>
       </c>
       <c r="C21" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B22" t="s">
         <v>484</v>
       </c>
       <c r="C22" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B23" t="s">
         <v>390</v>
       </c>
       <c r="C23" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B24" t="s">
         <v>485</v>
       </c>
       <c r="C24" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B25" t="s">
         <v>401</v>
       </c>
       <c r="C25" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B26" t="s">
+        <v>761</v>
+      </c>
+      <c r="C26" t="s">
         <v>762</v>
-      </c>
-      <c r="C26" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B27" t="s">
+        <v>763</v>
+      </c>
+      <c r="C27" t="s">
         <v>764</v>
-      </c>
-      <c r="C27" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B28" t="s">
         <v>416</v>
       </c>
       <c r="C28" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B29" t="s">
         <v>487</v>
       </c>
       <c r="C29" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B30" t="s">
         <v>448</v>
       </c>
       <c r="C30" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B31" t="s">
         <v>470</v>
       </c>
       <c r="C31" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B32" t="s">
         <v>486</v>
       </c>
       <c r="C32" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B33" t="s">
         <v>480</v>
       </c>
       <c r="C33" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
   </sheetData>
@@ -12614,24 +12630,24 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
+        <v>780</v>
+      </c>
+      <c r="C100" t="s">
+        <v>781</v>
+      </c>
+      <c r="D100" t="s">
         <v>783</v>
-      </c>
-      <c r="C100" t="s">
-        <v>784</v>
-      </c>
-      <c r="D100" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C101" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D101" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
   </sheetData>

--- a/ReportDefs-TIMES-GEO.xlsx
+++ b/ReportDefs-TIMES-GEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\TIMES-GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE691423-52E7-4550-81DE-9F4464B38DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CFEAE6-A0A7-4172-9138-53F9ED03CE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
@@ -1042,9 +1042,6 @@
     <t>CCSCO2</t>
   </si>
   <si>
-    <t>*CO2,-CCS*</t>
-  </si>
-  <si>
     <t>CO2 Captured</t>
   </si>
   <si>
@@ -2558,6 +2555,9 @@
   </si>
   <si>
     <t>-IMP*</t>
+  </si>
+  <si>
+    <t>*CO2,-CCS*,-TOT*</t>
   </si>
 </sst>
 </file>
@@ -3210,7 +3210,7 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H1" t="s">
         <v>91</v>
@@ -3282,7 +3282,7 @@
         <v>1</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -3317,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Q6">
         <v>0.1</v>
@@ -3338,7 +3338,7 @@
         <v>2</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -3373,7 +3373,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Q7">
         <v>7.4999999999999997E-2</v>
@@ -3394,7 +3394,7 @@
         <v>3</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -3429,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Q8">
         <v>0.05</v>
@@ -3450,7 +3450,7 @@
         <v>4</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -3485,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Q9">
         <v>0.02</v>
@@ -3506,7 +3506,7 @@
         <v>5</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -3541,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Q10">
         <v>0.01</v>
@@ -3591,7 +3591,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="Q11">
         <v>0.1</v>
@@ -3641,7 +3641,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="Q12">
         <v>7.4999999999999997E-2</v>
@@ -3691,7 +3691,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="Q13">
         <v>0.05</v>
@@ -3741,7 +3741,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="Q14">
         <v>0.02</v>
@@ -3791,7 +3791,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="Q15">
         <v>0.01</v>
@@ -3841,7 +3841,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Q16">
         <v>0.1</v>
@@ -3891,7 +3891,7 @@
         <v>2</v>
       </c>
       <c r="P17" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Q17">
         <v>7.4999999999999997E-2</v>
@@ -3941,7 +3941,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Q18">
         <v>0.05</v>
@@ -3991,7 +3991,7 @@
         <v>2</v>
       </c>
       <c r="P19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Q19">
         <v>0.02</v>
@@ -4041,7 +4041,7 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Q20">
         <v>0.01</v>
@@ -4091,7 +4091,7 @@
         <v>2</v>
       </c>
       <c r="P21" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="Q21">
         <v>0.1</v>
@@ -4141,7 +4141,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="Q22">
         <v>7.4999999999999997E-2</v>
@@ -4191,7 +4191,7 @@
         <v>2</v>
       </c>
       <c r="P23" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="Q23">
         <v>0.05</v>
@@ -4241,7 +4241,7 @@
         <v>2</v>
       </c>
       <c r="P24" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="Q24">
         <v>0.02</v>
@@ -4291,7 +4291,7 @@
         <v>2</v>
       </c>
       <c r="P25" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="Q25">
         <v>0.01</v>
@@ -4341,7 +4341,7 @@
         <v>3</v>
       </c>
       <c r="P26" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Q26">
         <v>0.1</v>
@@ -4391,7 +4391,7 @@
         <v>3</v>
       </c>
       <c r="P27" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Q27">
         <v>7.4999999999999997E-2</v>
@@ -4441,7 +4441,7 @@
         <v>3</v>
       </c>
       <c r="P28" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Q28">
         <v>0.05</v>
@@ -4491,7 +4491,7 @@
         <v>3</v>
       </c>
       <c r="P29" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Q29">
         <v>0.02</v>
@@ -4541,7 +4541,7 @@
         <v>3</v>
       </c>
       <c r="P30" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Q30">
         <v>0.01</v>
@@ -4591,7 +4591,7 @@
         <v>3</v>
       </c>
       <c r="P31" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="Q31">
         <v>0.1</v>
@@ -4641,7 +4641,7 @@
         <v>3</v>
       </c>
       <c r="P32" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="Q32">
         <v>7.4999999999999997E-2</v>
@@ -4691,7 +4691,7 @@
         <v>3</v>
       </c>
       <c r="P33" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="Q33">
         <v>0.05</v>
@@ -4741,7 +4741,7 @@
         <v>3</v>
       </c>
       <c r="P34" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="Q34">
         <v>0.02</v>
@@ -4791,7 +4791,7 @@
         <v>3</v>
       </c>
       <c r="P35" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="Q35">
         <v>0.01</v>
@@ -4841,7 +4841,7 @@
         <v>4</v>
       </c>
       <c r="P36" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Q36">
         <v>0.1</v>
@@ -4891,7 +4891,7 @@
         <v>4</v>
       </c>
       <c r="P37" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Q37">
         <v>7.4999999999999997E-2</v>
@@ -4941,7 +4941,7 @@
         <v>4</v>
       </c>
       <c r="P38" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Q38">
         <v>0.05</v>
@@ -4991,7 +4991,7 @@
         <v>4</v>
       </c>
       <c r="P39" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Q39">
         <v>0.02</v>
@@ -5041,7 +5041,7 @@
         <v>4</v>
       </c>
       <c r="P40" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Q40">
         <v>0.01</v>
@@ -5091,7 +5091,7 @@
         <v>4</v>
       </c>
       <c r="P41" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="Q41">
         <v>0.1</v>
@@ -5141,7 +5141,7 @@
         <v>4</v>
       </c>
       <c r="P42" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="Q42">
         <v>7.4999999999999997E-2</v>
@@ -5191,7 +5191,7 @@
         <v>4</v>
       </c>
       <c r="P43" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="Q43">
         <v>0.05</v>
@@ -5241,7 +5241,7 @@
         <v>4</v>
       </c>
       <c r="P44" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="Q44">
         <v>0.02</v>
@@ -5291,7 +5291,7 @@
         <v>4</v>
       </c>
       <c r="P45" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="Q45">
         <v>0.01</v>
@@ -5341,7 +5341,7 @@
         <v>5</v>
       </c>
       <c r="P46" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Q46">
         <v>0.1</v>
@@ -5391,7 +5391,7 @@
         <v>5</v>
       </c>
       <c r="P47" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Q47">
         <v>7.4999999999999997E-2</v>
@@ -5441,7 +5441,7 @@
         <v>5</v>
       </c>
       <c r="P48" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Q48">
         <v>0.05</v>
@@ -5491,7 +5491,7 @@
         <v>5</v>
       </c>
       <c r="P49" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Q49">
         <v>0.02</v>
@@ -5541,7 +5541,7 @@
         <v>5</v>
       </c>
       <c r="P50" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Q50">
         <v>0.01</v>
@@ -5591,7 +5591,7 @@
         <v>5</v>
       </c>
       <c r="P51" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="Q51">
         <v>0.1</v>
@@ -5641,7 +5641,7 @@
         <v>5</v>
       </c>
       <c r="P52" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="Q52">
         <v>7.4999999999999997E-2</v>
@@ -5691,7 +5691,7 @@
         <v>5</v>
       </c>
       <c r="P53" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="Q53">
         <v>0.05</v>
@@ -5741,7 +5741,7 @@
         <v>5</v>
       </c>
       <c r="P54" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="Q54">
         <v>0.02</v>
@@ -5791,7 +5791,7 @@
         <v>5</v>
       </c>
       <c r="P55" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="Q55">
         <v>0.01</v>
@@ -6119,7 +6119,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -6177,7 +6177,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6185,19 +6185,19 @@
         <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6205,19 +6205,19 @@
         <v>101</v>
       </c>
       <c r="B3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C3" t="s">
         <v>520</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>521</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>522</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>523</v>
-      </c>
-      <c r="F3" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6225,19 +6225,19 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
+        <v>524</v>
+      </c>
+      <c r="C4" t="s">
         <v>525</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>526</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>527</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>528</v>
-      </c>
-      <c r="F4" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6254,10 +6254,10 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
+        <v>529</v>
+      </c>
+      <c r="F5" t="s">
         <v>530</v>
-      </c>
-      <c r="F5" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6265,19 +6265,19 @@
         <v>106</v>
       </c>
       <c r="B6" t="s">
+        <v>531</v>
+      </c>
+      <c r="C6" t="s">
         <v>532</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>533</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>534</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>535</v>
-      </c>
-      <c r="F6" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6285,19 +6285,19 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>536</v>
+      </c>
+      <c r="C7" t="s">
         <v>537</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>538</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>539</v>
       </c>
-      <c r="E7" t="s">
-        <v>540</v>
-      </c>
       <c r="F7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6305,19 +6305,19 @@
         <v>109</v>
       </c>
       <c r="B8" t="s">
+        <v>540</v>
+      </c>
+      <c r="C8" t="s">
         <v>541</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>542</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>543</v>
       </c>
-      <c r="E8" t="s">
-        <v>544</v>
-      </c>
       <c r="F8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6325,19 +6325,19 @@
         <v>111</v>
       </c>
       <c r="B9" t="s">
+        <v>544</v>
+      </c>
+      <c r="C9" t="s">
         <v>545</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>546</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>547</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>548</v>
-      </c>
-      <c r="F9" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6345,19 +6345,19 @@
         <v>113</v>
       </c>
       <c r="B10" t="s">
+        <v>549</v>
+      </c>
+      <c r="C10" t="s">
         <v>550</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>551</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>552</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>553</v>
-      </c>
-      <c r="F10" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6365,7 +6365,7 @@
         <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C11" t="s">
         <v>115</v>
@@ -6374,10 +6374,10 @@
         <v>115</v>
       </c>
       <c r="E11" t="s">
+        <v>555</v>
+      </c>
+      <c r="F11" t="s">
         <v>556</v>
-      </c>
-      <c r="F11" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6385,19 +6385,19 @@
         <v>117</v>
       </c>
       <c r="B12" t="s">
+        <v>557</v>
+      </c>
+      <c r="C12" t="s">
         <v>558</v>
-      </c>
-      <c r="C12" t="s">
-        <v>559</v>
       </c>
       <c r="D12" t="s">
         <v>117</v>
       </c>
       <c r="E12" t="s">
+        <v>559</v>
+      </c>
+      <c r="F12" t="s">
         <v>560</v>
-      </c>
-      <c r="F12" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6405,19 +6405,19 @@
         <v>119</v>
       </c>
       <c r="B13" t="s">
+        <v>561</v>
+      </c>
+      <c r="C13" t="s">
         <v>562</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>563</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>564</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>565</v>
-      </c>
-      <c r="F13" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6425,19 +6425,19 @@
         <v>121</v>
       </c>
       <c r="B14" t="s">
+        <v>566</v>
+      </c>
+      <c r="C14" t="s">
         <v>567</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>568</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>569</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>570</v>
-      </c>
-      <c r="F14" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6445,19 +6445,19 @@
         <v>123</v>
       </c>
       <c r="B15" t="s">
+        <v>571</v>
+      </c>
+      <c r="C15" t="s">
         <v>572</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>573</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>574</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>575</v>
-      </c>
-      <c r="F15" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6465,19 +6465,19 @@
         <v>125</v>
       </c>
       <c r="B16" t="s">
+        <v>576</v>
+      </c>
+      <c r="C16" t="s">
         <v>577</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>578</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>579</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>580</v>
-      </c>
-      <c r="F16" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6485,19 +6485,19 @@
         <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C17" t="s">
         <v>127</v>
       </c>
       <c r="D17" t="s">
+        <v>582</v>
+      </c>
+      <c r="E17" t="s">
         <v>583</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>584</v>
-      </c>
-      <c r="F17" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6505,19 +6505,19 @@
         <v>129</v>
       </c>
       <c r="B18" t="s">
+        <v>585</v>
+      </c>
+      <c r="C18" t="s">
         <v>586</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>587</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>588</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>589</v>
-      </c>
-      <c r="F18" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6525,19 +6525,19 @@
         <v>131</v>
       </c>
       <c r="B19" t="s">
+        <v>590</v>
+      </c>
+      <c r="C19" t="s">
         <v>591</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>592</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>593</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>594</v>
-      </c>
-      <c r="F19" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6545,19 +6545,19 @@
         <v>133</v>
       </c>
       <c r="B20" t="s">
+        <v>595</v>
+      </c>
+      <c r="C20" t="s">
         <v>596</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>597</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>598</v>
       </c>
-      <c r="E20" t="s">
-        <v>599</v>
-      </c>
       <c r="F20" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6594,10 +6594,10 @@
         <v>137</v>
       </c>
       <c r="E22" t="s">
+        <v>599</v>
+      </c>
+      <c r="F22" t="s">
         <v>600</v>
-      </c>
-      <c r="F22" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6614,10 +6614,10 @@
         <v>139</v>
       </c>
       <c r="E23" t="s">
+        <v>601</v>
+      </c>
+      <c r="F23" t="s">
         <v>602</v>
-      </c>
-      <c r="F23" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6634,10 +6634,10 @@
         <v>141</v>
       </c>
       <c r="E24" t="s">
+        <v>603</v>
+      </c>
+      <c r="F24" t="s">
         <v>604</v>
-      </c>
-      <c r="F24" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6645,19 +6645,19 @@
         <v>171</v>
       </c>
       <c r="B25" t="s">
+        <v>605</v>
+      </c>
+      <c r="C25" t="s">
         <v>606</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>607</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>608</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>609</v>
-      </c>
-      <c r="F25" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6665,19 +6665,19 @@
         <v>172</v>
       </c>
       <c r="B26" t="s">
+        <v>610</v>
+      </c>
+      <c r="C26" t="s">
         <v>611</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>612</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>613</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>614</v>
-      </c>
-      <c r="F26" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6685,19 +6685,19 @@
         <v>173</v>
       </c>
       <c r="B27" t="s">
+        <v>615</v>
+      </c>
+      <c r="C27" t="s">
         <v>616</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>617</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>618</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>619</v>
-      </c>
-      <c r="F27" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6705,19 +6705,19 @@
         <v>174</v>
       </c>
       <c r="B28" t="s">
+        <v>620</v>
+      </c>
+      <c r="C28" t="s">
         <v>621</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>622</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>623</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>624</v>
-      </c>
-      <c r="F28" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6725,19 +6725,19 @@
         <v>175</v>
       </c>
       <c r="B29" t="s">
+        <v>625</v>
+      </c>
+      <c r="C29" t="s">
         <v>626</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>627</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>628</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>629</v>
-      </c>
-      <c r="F29" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6745,19 +6745,19 @@
         <v>176</v>
       </c>
       <c r="B30" t="s">
+        <v>630</v>
+      </c>
+      <c r="C30" t="s">
         <v>631</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>632</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>633</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>634</v>
-      </c>
-      <c r="F30" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6765,19 +6765,19 @@
         <v>177</v>
       </c>
       <c r="B31" t="s">
+        <v>635</v>
+      </c>
+      <c r="C31" t="s">
         <v>636</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>637</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>638</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>639</v>
-      </c>
-      <c r="F31" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6785,19 +6785,19 @@
         <v>178</v>
       </c>
       <c r="B32" t="s">
+        <v>640</v>
+      </c>
+      <c r="C32" t="s">
         <v>641</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>642</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>643</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>644</v>
-      </c>
-      <c r="F32" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6825,19 +6825,19 @@
         <v>179</v>
       </c>
       <c r="B34" t="s">
+        <v>645</v>
+      </c>
+      <c r="C34" t="s">
         <v>646</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>647</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>648</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>649</v>
-      </c>
-      <c r="F34" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6845,19 +6845,19 @@
         <v>180</v>
       </c>
       <c r="B35" t="s">
+        <v>650</v>
+      </c>
+      <c r="C35" t="s">
         <v>651</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>652</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>653</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>654</v>
-      </c>
-      <c r="F35" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -6865,19 +6865,19 @@
         <v>181</v>
       </c>
       <c r="B36" t="s">
+        <v>655</v>
+      </c>
+      <c r="C36" t="s">
         <v>656</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>657</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>658</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>659</v>
-      </c>
-      <c r="F36" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -6885,19 +6885,19 @@
         <v>182</v>
       </c>
       <c r="B37" t="s">
+        <v>660</v>
+      </c>
+      <c r="C37" t="s">
         <v>661</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>662</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>663</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>664</v>
-      </c>
-      <c r="F37" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -6905,19 +6905,19 @@
         <v>183</v>
       </c>
       <c r="B38" t="s">
+        <v>665</v>
+      </c>
+      <c r="C38" t="s">
         <v>666</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>667</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>668</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>669</v>
-      </c>
-      <c r="F38" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -6925,19 +6925,19 @@
         <v>184</v>
       </c>
       <c r="B39" t="s">
+        <v>670</v>
+      </c>
+      <c r="C39" t="s">
         <v>671</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>672</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>673</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>674</v>
-      </c>
-      <c r="F39" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -6945,19 +6945,19 @@
         <v>187</v>
       </c>
       <c r="B40" t="s">
+        <v>675</v>
+      </c>
+      <c r="C40" t="s">
         <v>676</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>677</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>678</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>679</v>
-      </c>
-      <c r="F40" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7005,19 +7005,19 @@
         <v>193</v>
       </c>
       <c r="B43" t="s">
+        <v>680</v>
+      </c>
+      <c r="C43" t="s">
         <v>681</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>682</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>683</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>684</v>
-      </c>
-      <c r="F43" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7025,19 +7025,19 @@
         <v>195</v>
       </c>
       <c r="B44" t="s">
+        <v>685</v>
+      </c>
+      <c r="C44" t="s">
         <v>686</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>687</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>688</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>689</v>
-      </c>
-      <c r="F44" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7085,19 +7085,19 @@
         <v>201</v>
       </c>
       <c r="B47" t="s">
+        <v>690</v>
+      </c>
+      <c r="C47" t="s">
         <v>691</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>692</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>693</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>694</v>
-      </c>
-      <c r="F47" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7105,19 +7105,19 @@
         <v>203</v>
       </c>
       <c r="B48" t="s">
+        <v>695</v>
+      </c>
+      <c r="C48" t="s">
         <v>696</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>697</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>698</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>699</v>
-      </c>
-      <c r="F48" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7125,19 +7125,19 @@
         <v>205</v>
       </c>
       <c r="B49" t="s">
+        <v>700</v>
+      </c>
+      <c r="C49" t="s">
         <v>701</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>702</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>703</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>704</v>
-      </c>
-      <c r="F49" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7205,19 +7205,19 @@
         <v>213</v>
       </c>
       <c r="B53" t="s">
+        <v>705</v>
+      </c>
+      <c r="C53" t="s">
         <v>706</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>707</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>708</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>709</v>
-      </c>
-      <c r="F53" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7265,19 +7265,19 @@
         <v>219</v>
       </c>
       <c r="B56" t="s">
+        <v>710</v>
+      </c>
+      <c r="C56" t="s">
         <v>711</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>712</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>713</v>
       </c>
-      <c r="E56" t="s">
-        <v>714</v>
-      </c>
       <c r="F56" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7325,19 +7325,19 @@
         <v>225</v>
       </c>
       <c r="B59" t="s">
+        <v>714</v>
+      </c>
+      <c r="C59" t="s">
         <v>715</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>716</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>717</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>718</v>
-      </c>
-      <c r="F59" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7385,19 +7385,19 @@
         <v>247</v>
       </c>
       <c r="B62" t="s">
+        <v>719</v>
+      </c>
+      <c r="C62" t="s">
         <v>720</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>721</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>722</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>723</v>
-      </c>
-      <c r="F62" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7405,19 +7405,19 @@
         <v>248</v>
       </c>
       <c r="B63" t="s">
+        <v>724</v>
+      </c>
+      <c r="C63" t="s">
+        <v>724</v>
+      </c>
+      <c r="D63" t="s">
         <v>725</v>
       </c>
-      <c r="C63" t="s">
-        <v>725</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>726</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>727</v>
-      </c>
-      <c r="F63" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7425,19 +7425,19 @@
         <v>234</v>
       </c>
       <c r="B64" t="s">
+        <v>728</v>
+      </c>
+      <c r="C64" t="s">
         <v>729</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>730</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>731</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>732</v>
-      </c>
-      <c r="F64" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8091,7 +8091,7 @@
     </row>
     <row r="3" spans="1:13" ht="15" thickTop="1" thickBot="1">
       <c r="A3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -8115,7 +8115,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
@@ -8128,7 +8128,7 @@
         <v>3.1709791983764584</v>
       </c>
       <c r="K4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L4">
         <v>36.779029999999999</v>
@@ -8139,10 +8139,10 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C5" t="s">
         <v>77</v>
@@ -8152,7 +8152,7 @@
         <v>3.6</v>
       </c>
       <c r="K5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L5">
         <v>-8.8383000000000003</v>
@@ -8163,7 +8163,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
@@ -8175,7 +8175,7 @@
         <v>100</v>
       </c>
       <c r="K6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L6">
         <v>41.327500000000001</v>
@@ -8186,10 +8186,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
@@ -8198,7 +8198,7 @@
         <v>-1</v>
       </c>
       <c r="K7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L7">
         <v>25.23</v>
@@ -8209,7 +8209,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="K8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L8">
         <v>-34.602499999999999</v>
@@ -8220,7 +8220,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="K9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L9">
         <v>40.181199999999997</v>
@@ -8308,7 +8308,7 @@
     </row>
     <row r="17" spans="11:13">
       <c r="K17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L17">
         <v>48.2</v>
@@ -8319,7 +8319,7 @@
     </row>
     <row r="18" spans="11:13">
       <c r="K18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L18">
         <v>40.395299999999999</v>
@@ -8330,7 +8330,7 @@
     </row>
     <row r="19" spans="11:13">
       <c r="K19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L19">
         <v>-3.3761000000000001</v>
@@ -8341,7 +8341,7 @@
     </row>
     <row r="20" spans="11:13">
       <c r="K20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L20">
         <v>50.833300000000001</v>
@@ -8352,7 +8352,7 @@
     </row>
     <row r="21" spans="11:13">
       <c r="K21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L21">
         <v>7.1904000000000003</v>
@@ -8363,7 +8363,7 @@
     </row>
     <row r="22" spans="11:13">
       <c r="K22" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L22">
         <v>12.3703</v>
@@ -8374,7 +8374,7 @@
     </row>
     <row r="23" spans="11:13">
       <c r="K23" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L23">
         <v>23.723099999999999</v>
@@ -8385,7 +8385,7 @@
     </row>
     <row r="24" spans="11:13">
       <c r="K24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L24">
         <v>42.683300000000003</v>
@@ -8396,7 +8396,7 @@
     </row>
     <row r="25" spans="11:13">
       <c r="K25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L25">
         <v>26.2361</v>
@@ -8407,7 +8407,7 @@
     </row>
     <row r="26" spans="11:13">
       <c r="K26" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L26">
         <v>43.85</v>
@@ -8418,7 +8418,7 @@
     </row>
     <row r="27" spans="11:13">
       <c r="K27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L27">
         <v>53.9</v>
@@ -8429,7 +8429,7 @@
     </row>
     <row r="28" spans="11:13">
       <c r="K28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L28">
         <v>17.498699999999999</v>
@@ -8440,7 +8440,7 @@
     </row>
     <row r="29" spans="11:13">
       <c r="K29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L29">
         <v>-17.753900000000002</v>
@@ -8451,7 +8451,7 @@
     </row>
     <row r="30" spans="11:13">
       <c r="K30" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L30">
         <v>-1.45</v>
@@ -8462,7 +8462,7 @@
     </row>
     <row r="31" spans="11:13">
       <c r="K31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L31">
         <v>4.8833000000000002</v>
@@ -8473,7 +8473,7 @@
     </row>
     <row r="32" spans="11:13">
       <c r="K32" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L32">
         <v>27.472999999999999</v>
@@ -8484,7 +8484,7 @@
     </row>
     <row r="33" spans="11:13">
       <c r="K33" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L33">
         <v>-24.6463</v>
@@ -8495,7 +8495,7 @@
     </row>
     <row r="34" spans="11:13">
       <c r="K34" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L34">
         <v>4.3666</v>
@@ -8506,7 +8506,7 @@
     </row>
     <row r="35" spans="11:13">
       <c r="K35" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L35">
         <v>43.7</v>
@@ -8517,7 +8517,7 @@
     </row>
     <row r="36" spans="11:13">
       <c r="K36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L36">
         <v>47.38</v>
@@ -8528,7 +8528,7 @@
     </row>
     <row r="37" spans="11:13">
       <c r="K37" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L37">
         <v>-33.450000000000003</v>
@@ -8539,7 +8539,7 @@
     </row>
     <row r="38" spans="11:13">
       <c r="K38" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L38">
         <v>39.928899999999999</v>
@@ -8550,7 +8550,7 @@
     </row>
     <row r="39" spans="11:13">
       <c r="K39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L39">
         <v>5.32</v>
@@ -8561,7 +8561,7 @@
     </row>
     <row r="40" spans="11:13">
       <c r="K40" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L40">
         <v>3.8666999999999998</v>
@@ -8572,7 +8572,7 @@
     </row>
     <row r="41" spans="11:13">
       <c r="K41" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L41">
         <v>-4.3296999999999999</v>
@@ -8583,7 +8583,7 @@
     </row>
     <row r="42" spans="11:13">
       <c r="K42" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L42">
         <v>-4.2591999999999999</v>
@@ -8594,7 +8594,7 @@
     </row>
     <row r="43" spans="11:13">
       <c r="K43" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L43">
         <v>4.5964</v>
@@ -8605,7 +8605,7 @@
     </row>
     <row r="44" spans="11:13">
       <c r="K44" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L44">
         <v>9.9347390000000004</v>
@@ -8616,7 +8616,7 @@
     </row>
     <row r="45" spans="11:13">
       <c r="K45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L45">
         <v>23.132000000000001</v>
@@ -8627,7 +8627,7 @@
     </row>
     <row r="46" spans="11:13">
       <c r="K46" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L46">
         <v>35.166699999999999</v>
@@ -8638,7 +8638,7 @@
     </row>
     <row r="47" spans="11:13">
       <c r="K47" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L47">
         <v>50.083300000000001</v>
@@ -8649,7 +8649,7 @@
     </row>
     <row r="48" spans="11:13">
       <c r="K48" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L48">
         <v>52.521799999999999</v>
@@ -8660,7 +8660,7 @@
     </row>
     <row r="49" spans="11:13">
       <c r="K49" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L49">
         <v>11.595000000000001</v>
@@ -8671,7 +8671,7 @@
     </row>
     <row r="50" spans="11:13">
       <c r="K50" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L50">
         <v>55.678600000000003</v>
@@ -8682,7 +8682,7 @@
     </row>
     <row r="51" spans="11:13">
       <c r="K51" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L51">
         <v>18.470099999999999</v>
@@ -8693,7 +8693,7 @@
     </row>
     <row r="52" spans="11:13">
       <c r="K52" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L52">
         <v>36.763100000000001</v>
@@ -8704,7 +8704,7 @@
     </row>
     <row r="53" spans="11:13">
       <c r="K53" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L53">
         <v>-2.2200000000000002</v>
@@ -8715,7 +8715,7 @@
     </row>
     <row r="54" spans="11:13">
       <c r="K54" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L54">
         <v>30.05</v>
@@ -8726,7 +8726,7 @@
     </row>
     <row r="55" spans="11:13">
       <c r="K55" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L55">
         <v>15.333299999999999</v>
@@ -8737,7 +8737,7 @@
     </row>
     <row r="56" spans="11:13">
       <c r="K56" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L56">
         <v>27.15</v>
@@ -8748,7 +8748,7 @@
     </row>
     <row r="57" spans="11:13">
       <c r="K57" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L57">
         <v>40.4</v>
@@ -8759,7 +8759,7 @@
     </row>
     <row r="58" spans="11:13">
       <c r="K58" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L58">
         <v>59.436962000000001</v>
@@ -8770,7 +8770,7 @@
     </row>
     <row r="59" spans="11:13">
       <c r="K59" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L59">
         <v>13.5</v>
@@ -8781,7 +8781,7 @@
     </row>
     <row r="60" spans="11:13">
       <c r="K60" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L60">
         <v>60.175600000000003</v>
@@ -8792,7 +8792,7 @@
     </row>
     <row r="61" spans="11:13">
       <c r="K61" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L61">
         <v>48.866700000000002</v>
@@ -8803,7 +8803,7 @@
     </row>
     <row r="62" spans="11:13">
       <c r="K62" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L62">
         <v>0.38540000000000002</v>
@@ -8814,7 +8814,7 @@
     </row>
     <row r="63" spans="11:13">
       <c r="K63" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L63">
         <v>51.5</v>
@@ -8825,7 +8825,7 @@
     </row>
     <row r="64" spans="11:13">
       <c r="K64" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L64">
         <v>41.725000000000001</v>
@@ -8836,7 +8836,7 @@
     </row>
     <row r="65" spans="11:13">
       <c r="K65" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L65">
         <v>6.69</v>
@@ -8847,7 +8847,7 @@
     </row>
     <row r="66" spans="11:13">
       <c r="K66" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L66">
         <v>9.5314999999999994</v>
@@ -8858,7 +8858,7 @@
     </row>
     <row r="67" spans="11:13">
       <c r="K67" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L67">
         <v>13.448395</v>
@@ -8869,7 +8869,7 @@
     </row>
     <row r="68" spans="11:13">
       <c r="K68" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L68">
         <v>11.865</v>
@@ -8880,7 +8880,7 @@
     </row>
     <row r="69" spans="11:13">
       <c r="K69" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L69">
         <v>1.87</v>
@@ -8891,7 +8891,7 @@
     </row>
     <row r="70" spans="11:13">
       <c r="K70" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L70">
         <v>37.9833</v>
@@ -8902,7 +8902,7 @@
     </row>
     <row r="71" spans="11:13">
       <c r="K71" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L71">
         <v>60.270832249999998</v>
@@ -8913,7 +8913,7 @@
     </row>
     <row r="72" spans="11:13">
       <c r="K72" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L72">
         <v>14.6211</v>
@@ -8924,7 +8924,7 @@
     </row>
     <row r="73" spans="11:13">
       <c r="K73" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L73">
         <v>4.9223999999999997</v>
@@ -8935,7 +8935,7 @@
     </row>
     <row r="74" spans="11:13">
       <c r="K74" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L74">
         <v>6.8019999999999996</v>
@@ -8946,7 +8946,7 @@
     </row>
     <row r="75" spans="11:13">
       <c r="K75" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L75">
         <v>14.102</v>
@@ -8957,7 +8957,7 @@
     </row>
     <row r="76" spans="11:13">
       <c r="K76" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L76">
         <v>45.8</v>
@@ -8968,7 +8968,7 @@
     </row>
     <row r="77" spans="11:13">
       <c r="K77" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L77">
         <v>18.533332999999999</v>
@@ -8979,7 +8979,7 @@
     </row>
     <row r="78" spans="11:13">
       <c r="K78" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L78">
         <v>47.5</v>
@@ -8990,7 +8990,7 @@
     </row>
     <row r="79" spans="11:13">
       <c r="K79" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L79">
         <v>-6.1744000000000003</v>
@@ -9001,7 +9001,7 @@
     </row>
     <row r="80" spans="11:13">
       <c r="K80" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L80">
         <v>28.67</v>
@@ -9012,7 +9012,7 @@
     </row>
     <row r="81" spans="11:13">
       <c r="K81" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L81">
         <v>53.333100000000002</v>
@@ -9023,7 +9023,7 @@
     </row>
     <row r="82" spans="11:13">
       <c r="K82" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L82">
         <v>35.671900000000001</v>
@@ -9034,7 +9034,7 @@
     </row>
     <row r="83" spans="11:13">
       <c r="K83" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L83">
         <v>33.3386</v>
@@ -9045,7 +9045,7 @@
     </row>
     <row r="84" spans="11:13">
       <c r="K84" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L84">
         <v>64.150000000000006</v>
@@ -9056,7 +9056,7 @@
     </row>
     <row r="85" spans="11:13">
       <c r="K85" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L85">
         <v>32.08</v>
@@ -9067,7 +9067,7 @@
     </row>
     <row r="86" spans="11:13">
       <c r="K86" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L86">
         <v>41.896000000000001</v>
@@ -9078,7 +9078,7 @@
     </row>
     <row r="87" spans="11:13">
       <c r="K87" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L87">
         <v>17.9771</v>
@@ -9089,7 +9089,7 @@
     </row>
     <row r="88" spans="11:13">
       <c r="K88" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L88">
         <v>31.95</v>
@@ -9100,7 +9100,7 @@
     </row>
     <row r="89" spans="11:13">
       <c r="K89" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L89">
         <v>35.685000000000002</v>
@@ -9111,7 +9111,7 @@
     </row>
     <row r="90" spans="11:13">
       <c r="K90" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L90">
         <v>43.325000000000003</v>
@@ -9122,7 +9122,7 @@
     </row>
     <row r="91" spans="11:13">
       <c r="K91" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L91">
         <v>-1.2833000000000001</v>
@@ -9133,7 +9133,7 @@
     </row>
     <row r="92" spans="11:13">
       <c r="K92" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L92">
         <v>42.873100000000001</v>
@@ -9144,7 +9144,7 @@
     </row>
     <row r="93" spans="11:13">
       <c r="K93" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L93">
         <v>11.55</v>
@@ -9155,7 +9155,7 @@
     </row>
     <row r="94" spans="11:13">
       <c r="K94" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L94">
         <v>37.566299999999998</v>
@@ -9166,7 +9166,7 @@
     </row>
     <row r="95" spans="11:13">
       <c r="K95" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L95">
         <v>42.6629</v>
@@ -9177,7 +9177,7 @@
     </row>
     <row r="96" spans="11:13">
       <c r="K96" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L96">
         <v>29.369700000000002</v>
@@ -9188,7 +9188,7 @@
     </row>
     <row r="97" spans="11:13">
       <c r="K97" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L97">
         <v>17.966699999999999</v>
@@ -9199,7 +9199,7 @@
     </row>
     <row r="98" spans="11:13">
       <c r="K98" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L98">
         <v>33.872</v>
@@ -9210,7 +9210,7 @@
     </row>
     <row r="99" spans="11:13">
       <c r="K99" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L99">
         <v>6.3106</v>
@@ -9221,7 +9221,7 @@
     </row>
     <row r="100" spans="11:13">
       <c r="K100" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L100">
         <v>32.892499999999998</v>
@@ -9232,7 +9232,7 @@
     </row>
     <row r="101" spans="11:13">
       <c r="K101" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L101">
         <v>6.9320000000000004</v>
@@ -9243,7 +9243,7 @@
     </row>
     <row r="102" spans="11:13">
       <c r="K102" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L102">
         <v>-29.316700000000001</v>
@@ -9254,7 +9254,7 @@
     </row>
     <row r="103" spans="11:13">
       <c r="K103" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L103">
         <v>54.683399999999999</v>
@@ -9265,7 +9265,7 @@
     </row>
     <row r="104" spans="11:13">
       <c r="K104" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L104">
         <v>49.611621999999997</v>
@@ -9276,7 +9276,7 @@
     </row>
     <row r="105" spans="11:13">
       <c r="K105" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L105">
         <v>56.95</v>
@@ -9287,7 +9287,7 @@
     </row>
     <row r="106" spans="11:13">
       <c r="K106" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L106">
         <v>33.6</v>
@@ -9298,7 +9298,7 @@
     </row>
     <row r="107" spans="11:13">
       <c r="K107" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L107">
         <v>47.005000000000003</v>
@@ -9309,7 +9309,7 @@
     </row>
     <row r="108" spans="11:13">
       <c r="K108" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L108">
         <v>-18.916599999999999</v>
@@ -9320,7 +9320,7 @@
     </row>
     <row r="109" spans="11:13">
       <c r="K109" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L109">
         <v>19.442399999999999</v>
@@ -9331,7 +9331,7 @@
     </row>
     <row r="110" spans="11:13">
       <c r="K110" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L110">
         <v>42</v>
@@ -9342,7 +9342,7 @@
     </row>
     <row r="111" spans="11:13">
       <c r="K111" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L111">
         <v>12.65</v>
@@ -9353,7 +9353,7 @@
     </row>
     <row r="112" spans="11:13">
       <c r="K112" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L112">
         <v>35.899700000000003</v>
@@ -9364,7 +9364,7 @@
     </row>
     <row r="113" spans="11:13">
       <c r="K113" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L113">
         <v>16.871310999999999</v>
@@ -9375,7 +9375,7 @@
     </row>
     <row r="114" spans="11:13">
       <c r="K114" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L114">
         <v>42.442574</v>
@@ -9386,7 +9386,7 @@
     </row>
     <row r="115" spans="11:13">
       <c r="K115" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L115">
         <v>47.916699999999999</v>
@@ -9397,7 +9397,7 @@
     </row>
     <row r="116" spans="11:13">
       <c r="K116" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L116">
         <v>-25.9696</v>
@@ -9408,7 +9408,7 @@
     </row>
     <row r="117" spans="11:13">
       <c r="K117" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L117">
         <v>18.086400000000001</v>
@@ -9419,7 +9419,7 @@
     </row>
     <row r="118" spans="11:13">
       <c r="K118" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L118">
         <v>-13.9833</v>
@@ -9430,7 +9430,7 @@
     </row>
     <row r="119" spans="11:13">
       <c r="K119" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L119">
         <v>3.1667000000000001</v>
@@ -9441,7 +9441,7 @@
     </row>
     <row r="120" spans="11:13">
       <c r="K120" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L120">
         <v>-22.57</v>
@@ -9452,7 +9452,7 @@
     </row>
     <row r="121" spans="11:13">
       <c r="K121" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L121">
         <v>13.5167</v>
@@ -9463,7 +9463,7 @@
     </row>
     <row r="122" spans="11:13">
       <c r="K122" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L122">
         <v>6.4432999999999998</v>
@@ -9474,7 +9474,7 @@
     </row>
     <row r="123" spans="11:13">
       <c r="K123" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L123">
         <v>12.153</v>
@@ -9485,7 +9485,7 @@
     </row>
     <row r="124" spans="11:13">
       <c r="K124" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L124">
         <v>52.35</v>
@@ -9496,7 +9496,7 @@
     </row>
     <row r="125" spans="11:13">
       <c r="K125" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L125">
         <v>59.916699999999999</v>
@@ -9507,7 +9507,7 @@
     </row>
     <row r="126" spans="11:13">
       <c r="K126" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L126">
         <v>27.716699999999999</v>
@@ -9518,7 +9518,7 @@
     </row>
     <row r="127" spans="11:13">
       <c r="K127" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L127">
         <v>-36.848100000000002</v>
@@ -9529,7 +9529,7 @@
     </row>
     <row r="128" spans="11:13">
       <c r="K128" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L128">
         <v>23.613299999999999</v>
@@ -9540,7 +9540,7 @@
     </row>
     <row r="129" spans="11:13">
       <c r="K129" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L129">
         <v>24.87</v>
@@ -9551,7 +9551,7 @@
     </row>
     <row r="130" spans="11:13">
       <c r="K130" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L130">
         <v>8.968</v>
@@ -9562,7 +9562,7 @@
     </row>
     <row r="131" spans="11:13">
       <c r="K131" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L131">
         <v>-12.048</v>
@@ -9573,7 +9573,7 @@
     </row>
     <row r="132" spans="11:13">
       <c r="K132" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L132">
         <v>14.604200000000001</v>
@@ -9584,7 +9584,7 @@
     </row>
     <row r="133" spans="11:13">
       <c r="K133" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L133">
         <v>-9.4647000000000006</v>
@@ -9595,7 +9595,7 @@
     </row>
     <row r="134" spans="11:13">
       <c r="K134" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L134">
         <v>52.25</v>
@@ -9606,7 +9606,7 @@
     </row>
     <row r="135" spans="11:13">
       <c r="K135" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L135">
         <v>39.019399999999997</v>
@@ -9617,7 +9617,7 @@
     </row>
     <row r="136" spans="11:13">
       <c r="K136" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L136">
         <v>38.722700000000003</v>
@@ -9628,7 +9628,7 @@
     </row>
     <row r="137" spans="11:13">
       <c r="K137" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L137">
         <v>-25.296399999999998</v>
@@ -9639,7 +9639,7 @@
     </row>
     <row r="138" spans="11:13">
       <c r="K138" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L138">
         <v>25.291899999999998</v>
@@ -9650,7 +9650,7 @@
     </row>
     <row r="139" spans="11:13">
       <c r="K139" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L139">
         <v>44.433399999999999</v>
@@ -9661,7 +9661,7 @@
     </row>
     <row r="140" spans="11:13">
       <c r="K140" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L140">
         <v>55.749899999999997</v>
@@ -9672,7 +9672,7 @@
     </row>
     <row r="141" spans="11:13">
       <c r="K141" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L141">
         <v>-1.9536</v>
@@ -9683,7 +9683,7 @@
     </row>
     <row r="142" spans="11:13">
       <c r="K142" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L142">
         <v>24.640799999999999</v>
@@ -9694,7 +9694,7 @@
     </row>
     <row r="143" spans="11:13">
       <c r="K143" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L143">
         <v>15.588100000000001</v>
@@ -9705,7 +9705,7 @@
     </row>
     <row r="144" spans="11:13">
       <c r="K144" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L144">
         <v>14.7158</v>
@@ -9716,7 +9716,7 @@
     </row>
     <row r="145" spans="11:13">
       <c r="K145" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L145">
         <v>1.2929999999999999</v>
@@ -9727,7 +9727,7 @@
     </row>
     <row r="146" spans="11:13">
       <c r="K146" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L146">
         <v>8.4700000000000006</v>
@@ -9738,7 +9738,7 @@
     </row>
     <row r="147" spans="11:13">
       <c r="K147" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L147">
         <v>13.71</v>
@@ -9749,7 +9749,7 @@
     </row>
     <row r="148" spans="11:13">
       <c r="K148" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L148">
         <v>2.0667</v>
@@ -9760,7 +9760,7 @@
     </row>
     <row r="149" spans="11:13">
       <c r="K149" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L149">
         <v>44.818600000000004</v>
@@ -9771,7 +9771,7 @@
     </row>
     <row r="150" spans="11:13">
       <c r="K150" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L150">
         <v>5.835</v>
@@ -9782,7 +9782,7 @@
     </row>
     <row r="151" spans="11:13">
       <c r="K151" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L151">
         <v>48.15</v>
@@ -9793,7 +9793,7 @@
     </row>
     <row r="152" spans="11:13">
       <c r="K152" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L152">
         <v>46.055300000000003</v>
@@ -9804,7 +9804,7 @@
     </row>
     <row r="153" spans="11:13">
       <c r="K153" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L153">
         <v>59.3508</v>
@@ -9815,7 +9815,7 @@
     </row>
     <row r="154" spans="11:13">
       <c r="K154" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L154">
         <v>-26.495000000000001</v>
@@ -9826,7 +9826,7 @@
     </row>
     <row r="155" spans="11:13">
       <c r="K155" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L155">
         <v>33.5</v>
@@ -9837,7 +9837,7 @@
     </row>
     <row r="156" spans="11:13">
       <c r="K156" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L156">
         <v>12.113099999999999</v>
@@ -9848,7 +9848,7 @@
     </row>
     <row r="157" spans="11:13">
       <c r="K157" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L157">
         <v>6.1318999999999999</v>
@@ -9859,7 +9859,7 @@
     </row>
     <row r="158" spans="11:13">
       <c r="K158" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L158">
         <v>13.75</v>
@@ -9870,7 +9870,7 @@
     </row>
     <row r="159" spans="11:13">
       <c r="K159" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L159">
         <v>38.56</v>
@@ -9881,7 +9881,7 @@
     </row>
     <row r="160" spans="11:13">
       <c r="K160" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L160">
         <v>37.950000000000003</v>
@@ -9892,7 +9892,7 @@
     </row>
     <row r="161" spans="11:13">
       <c r="K161" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L161">
         <v>-8.5594000000000001</v>
@@ -9903,7 +9903,7 @@
     </row>
     <row r="162" spans="11:13">
       <c r="K162" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L162">
         <v>10.651999999999999</v>
@@ -9914,7 +9914,7 @@
     </row>
     <row r="163" spans="11:13">
       <c r="K163" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L163">
         <v>36.802799999999998</v>
@@ -9925,7 +9925,7 @@
     </row>
     <row r="164" spans="11:13">
       <c r="K164" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L164">
         <v>41.104999999999997</v>
@@ -9936,7 +9936,7 @@
     </row>
     <row r="165" spans="11:13">
       <c r="K165" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L165">
         <v>25.035799999999998</v>
@@ -9947,7 +9947,7 @@
     </row>
     <row r="166" spans="11:13">
       <c r="K166" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L166">
         <v>-6.8</v>
@@ -9958,7 +9958,7 @@
     </row>
     <row r="167" spans="11:13">
       <c r="K167" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L167">
         <v>0.31669999999999998</v>
@@ -9969,7 +9969,7 @@
     </row>
     <row r="168" spans="11:13">
       <c r="K168" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L168">
         <v>50.434341000000003</v>
@@ -9980,7 +9980,7 @@
     </row>
     <row r="169" spans="11:13">
       <c r="K169" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L169">
         <v>-34.857999999999997</v>
@@ -9991,7 +9991,7 @@
     </row>
     <row r="170" spans="11:13">
       <c r="K170" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L170">
         <v>44.963500000000003</v>
@@ -10002,7 +10002,7 @@
     </row>
     <row r="171" spans="11:13">
       <c r="K171" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L171">
         <v>41.311700000000002</v>
@@ -10013,7 +10013,7 @@
     </row>
     <row r="172" spans="11:13">
       <c r="K172" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L172">
         <v>10.5</v>
@@ -10024,7 +10024,7 @@
     </row>
     <row r="173" spans="11:13">
       <c r="K173" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L173">
         <v>10.810582999999999</v>
@@ -10035,7 +10035,7 @@
     </row>
     <row r="174" spans="11:13">
       <c r="K174" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L174">
         <v>15.354699999999999</v>
@@ -10046,7 +10046,7 @@
     </row>
     <row r="175" spans="11:13">
       <c r="K175" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L175">
         <v>-26.17</v>
@@ -10057,7 +10057,7 @@
     </row>
     <row r="176" spans="11:13">
       <c r="K176" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L176">
         <v>-15.416600000000001</v>
@@ -10068,7 +10068,7 @@
     </row>
     <row r="177" spans="11:13">
       <c r="K177" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L177">
         <v>-17.817799999999998</v>
@@ -10079,7 +10079,7 @@
     </row>
     <row r="178" spans="11:13">
       <c r="K178" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L178">
         <v>4.8539000000000003</v>
@@ -10100,7 +10100,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q5" sqref="Q5"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10218,16 +10218,16 @@
         <v>6</v>
       </c>
       <c r="H4" t="s">
+        <v>791</v>
+      </c>
+      <c r="K4" t="s">
         <v>792</v>
       </c>
-      <c r="K4" t="s">
+      <c r="N4" t="s">
         <v>793</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>794</v>
-      </c>
-      <c r="P4" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -10235,7 +10235,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>311</v>
+        <v>816</v>
       </c>
       <c r="K5" t="s">
         <v>308</v>
@@ -10261,7 +10261,7 @@
         <v>308</v>
       </c>
       <c r="N6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q6" t="s">
         <v>59</v>
@@ -10272,7 +10272,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H7" t="s">
         <v>305</v>
@@ -10285,7 +10285,7 @@
         <v>62</v>
       </c>
       <c r="P7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q7" t="s">
         <v>59</v>
@@ -10296,7 +10296,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H8" t="s">
         <v>305</v>
@@ -10305,7 +10305,7 @@
         <v>37</v>
       </c>
       <c r="N8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q8" t="s">
         <v>59</v>
@@ -10316,16 +10316,16 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H9" t="s">
         <v>305</v>
       </c>
       <c r="K9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q9" t="s">
         <v>59</v>
@@ -10336,7 +10336,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H10" t="s">
         <v>110</v>
@@ -10345,7 +10345,7 @@
         <v>37</v>
       </c>
       <c r="N10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q10" t="s">
         <v>59</v>
@@ -10365,7 +10365,7 @@
         <v>37</v>
       </c>
       <c r="N11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q11" t="s">
         <v>59</v>
@@ -10382,7 +10382,7 @@
         <v>9</v>
       </c>
       <c r="N12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q12" t="s">
         <v>59</v>
@@ -10390,39 +10390,39 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
+        <v>733</v>
+      </c>
+      <c r="B13" t="s">
         <v>734</v>
       </c>
-      <c r="B13" t="s">
-        <v>735</v>
-      </c>
       <c r="I13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="K13" t="s">
+        <v>788</v>
+      </c>
+      <c r="N13" t="s">
         <v>789</v>
       </c>
-      <c r="N13" t="s">
+      <c r="Q13" t="s">
         <v>790</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
+        <v>804</v>
+      </c>
+      <c r="B14" t="s">
         <v>805</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>317</v>
+      </c>
+      <c r="K14" t="s">
+        <v>788</v>
+      </c>
+      <c r="N14" t="s">
         <v>806</v>
-      </c>
-      <c r="C14" t="s">
-        <v>318</v>
-      </c>
-      <c r="K14" t="s">
-        <v>789</v>
-      </c>
-      <c r="N14" t="s">
-        <v>807</v>
       </c>
       <c r="Q14" t="s">
         <v>59</v>
@@ -10492,10 +10492,10 @@
     </row>
     <row r="3" spans="3:13">
       <c r="C3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D3" t="s">
         <v>320</v>
-      </c>
-      <c r="D3" t="s">
-        <v>321</v>
       </c>
       <c r="E3" t="s">
         <v>71</v>
@@ -10515,13 +10515,13 @@
         <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E4" t="s">
         <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I4" t="s">
         <v>73</v>
@@ -10549,12 +10549,12 @@
     </row>
     <row r="9" spans="3:13">
       <c r="C9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="3:13">
       <c r="C10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -10566,7 +10566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B20676-78A5-4BFB-AF4D-E463F8898B7A}">
   <dimension ref="B3:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -10588,7 +10588,7 @@
   <sheetData>
     <row r="3" spans="2:13" ht="17.25" thickBot="1">
       <c r="B3" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="15" thickTop="1" thickBot="1">
@@ -10599,13 +10599,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>0</v>
@@ -10626,7 +10626,7 @@
         <v>67</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="2:13">
@@ -10638,20 +10638,20 @@
         <v>MIN,IMP,U-H2P,P_All,P-HPL,R_Techs,S_Techs,T_Techs,A_Techs,I_Techs,I_Techs</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E5" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L5" t="s">
         <v>38</v>
@@ -10670,13 +10670,13 @@
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G6" t="s">
         <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L6" t="s">
         <v>38</v>
@@ -10695,13 +10695,13 @@
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H7" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L7" t="s">
         <v>38</v>
@@ -10720,13 +10720,13 @@
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G8" t="s">
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="L8" t="s">
         <v>38</v>
@@ -10744,10 +10744,10 @@
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="G9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L9" t="s">
         <v>38</v>
@@ -10768,7 +10768,7 @@
         <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="L10" t="s">
         <v>38</v>
@@ -10826,12 +10826,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -11005,12 +11005,12 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -11021,38 +11021,38 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B3" t="s">
         <v>502</v>
       </c>
-      <c r="B3" t="s">
-        <v>503</v>
-      </c>
       <c r="G3" t="s">
+        <v>499</v>
+      </c>
+      <c r="H3" t="s">
         <v>500</v>
-      </c>
-      <c r="H3" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G4" t="s">
+        <v>503</v>
+      </c>
+      <c r="H4" t="s">
         <v>504</v>
-      </c>
-      <c r="H4" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B5" t="s">
         <v>506</v>
-      </c>
-      <c r="B5" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -11060,15 +11060,15 @@
         <v>276</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>514</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>515</v>
       </c>
       <c r="G7" t="s">
         <v>249</v>
@@ -11085,10 +11085,10 @@
         <v>171</v>
       </c>
       <c r="G8" t="s">
+        <v>507</v>
+      </c>
+      <c r="H8" t="s">
         <v>508</v>
-      </c>
-      <c r="H8" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -11096,27 +11096,27 @@
         <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G9" t="s">
+        <v>509</v>
+      </c>
+      <c r="H9" t="s">
         <v>510</v>
-      </c>
-      <c r="H9" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G10" t="s">
+        <v>511</v>
+      </c>
+      <c r="H10" t="s">
         <v>512</v>
-      </c>
-      <c r="H10" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -11166,7 +11166,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -11182,343 +11182,343 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C6" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C8" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B9" t="s">
+        <v>741</v>
+      </c>
+      <c r="C9" t="s">
         <v>742</v>
-      </c>
-      <c r="C9" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B10" t="s">
+        <v>743</v>
+      </c>
+      <c r="C10" t="s">
         <v>744</v>
-      </c>
-      <c r="C10" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B11" t="s">
+        <v>745</v>
+      </c>
+      <c r="C11" t="s">
         <v>746</v>
-      </c>
-      <c r="C11" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B12" t="s">
+        <v>747</v>
+      </c>
+      <c r="C12" t="s">
         <v>748</v>
-      </c>
-      <c r="C12" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C13" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C14" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C15" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B16" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C16" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B17" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C17" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B18" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C18" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B19" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C19" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C20" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C21" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B22" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C22" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C23" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B24" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C24" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C25" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B26" t="s">
+        <v>760</v>
+      </c>
+      <c r="C26" t="s">
         <v>761</v>
-      </c>
-      <c r="C26" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B27" t="s">
+        <v>762</v>
+      </c>
+      <c r="C27" t="s">
         <v>763</v>
-      </c>
-      <c r="C27" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B28" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C28" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B29" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C29" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B30" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C30" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B31" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C31" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B32" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C32" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B33" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C33" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
   </sheetData>
@@ -12630,24 +12630,24 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
+        <v>779</v>
+      </c>
+      <c r="C100" t="s">
         <v>780</v>
       </c>
-      <c r="C100" t="s">
-        <v>781</v>
-      </c>
       <c r="D100" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C101" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D101" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
   </sheetData>

--- a/ReportDefs-TIMES-GEO.xlsx
+++ b/ReportDefs-TIMES-GEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\TIMES-GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CFEAE6-A0A7-4172-9138-53F9ED03CE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B8075A-CA86-40B1-B9F0-FF8EE4C8B7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="816">
   <si>
     <t>Unit</t>
   </si>
@@ -673,9 +673,6 @@
     <t>Transport all</t>
   </si>
   <si>
-    <t>T_Road</t>
-  </si>
-  <si>
     <t>Road Transport</t>
   </si>
   <si>
@@ -685,15 +682,9 @@
     <t>Non-Road Transport</t>
   </si>
   <si>
-    <t>T_Passenger</t>
-  </si>
-  <si>
     <t>Passenger Transport</t>
   </si>
   <si>
-    <t>T_Freight</t>
-  </si>
-  <si>
     <t>Freight Transport</t>
   </si>
   <si>
@@ -1012,9 +1003,6 @@
     <t>Centralized</t>
   </si>
   <si>
-    <t>Cent/Decentralized</t>
-  </si>
-  <si>
     <t>P-D*</t>
   </si>
   <si>
@@ -2558,6 +2546,15 @@
   </si>
   <si>
     <t>*CO2,-CCS*,-TOT*</t>
+  </si>
+  <si>
+    <t>Cen/Decen</t>
+  </si>
+  <si>
+    <t>Road freight</t>
+  </si>
+  <si>
+    <t>Road passenger</t>
   </si>
 </sst>
 </file>
@@ -3210,7 +3207,7 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="H1" t="s">
         <v>91</v>
@@ -3282,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -3317,7 +3314,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="Q6">
         <v>0.1</v>
@@ -3338,7 +3335,7 @@
         <v>2</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -3373,7 +3370,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="Q7">
         <v>7.4999999999999997E-2</v>
@@ -3394,7 +3391,7 @@
         <v>3</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -3429,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="Q8">
         <v>0.05</v>
@@ -3450,7 +3447,7 @@
         <v>4</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -3485,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="Q9">
         <v>0.02</v>
@@ -3506,7 +3503,7 @@
         <v>5</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -3541,7 +3538,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="Q10">
         <v>0.01</v>
@@ -3591,7 +3588,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="Q11">
         <v>0.1</v>
@@ -3641,7 +3638,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="Q12">
         <v>7.4999999999999997E-2</v>
@@ -3691,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="Q13">
         <v>0.05</v>
@@ -3741,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="Q14">
         <v>0.02</v>
@@ -3791,7 +3788,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="Q15">
         <v>0.01</v>
@@ -3841,7 +3838,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="Q16">
         <v>0.1</v>
@@ -3891,7 +3888,7 @@
         <v>2</v>
       </c>
       <c r="P17" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="Q17">
         <v>7.4999999999999997E-2</v>
@@ -3941,7 +3938,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="Q18">
         <v>0.05</v>
@@ -3991,7 +3988,7 @@
         <v>2</v>
       </c>
       <c r="P19" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="Q19">
         <v>0.02</v>
@@ -4041,7 +4038,7 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="Q20">
         <v>0.01</v>
@@ -4091,7 +4088,7 @@
         <v>2</v>
       </c>
       <c r="P21" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="Q21">
         <v>0.1</v>
@@ -4141,7 +4138,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="Q22">
         <v>7.4999999999999997E-2</v>
@@ -4191,7 +4188,7 @@
         <v>2</v>
       </c>
       <c r="P23" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="Q23">
         <v>0.05</v>
@@ -4241,7 +4238,7 @@
         <v>2</v>
       </c>
       <c r="P24" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="Q24">
         <v>0.02</v>
@@ -4291,7 +4288,7 @@
         <v>2</v>
       </c>
       <c r="P25" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="Q25">
         <v>0.01</v>
@@ -4341,7 +4338,7 @@
         <v>3</v>
       </c>
       <c r="P26" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="Q26">
         <v>0.1</v>
@@ -4391,7 +4388,7 @@
         <v>3</v>
       </c>
       <c r="P27" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="Q27">
         <v>7.4999999999999997E-2</v>
@@ -4441,7 +4438,7 @@
         <v>3</v>
       </c>
       <c r="P28" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="Q28">
         <v>0.05</v>
@@ -4491,7 +4488,7 @@
         <v>3</v>
       </c>
       <c r="P29" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="Q29">
         <v>0.02</v>
@@ -4541,7 +4538,7 @@
         <v>3</v>
       </c>
       <c r="P30" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="Q30">
         <v>0.01</v>
@@ -4591,7 +4588,7 @@
         <v>3</v>
       </c>
       <c r="P31" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="Q31">
         <v>0.1</v>
@@ -4641,7 +4638,7 @@
         <v>3</v>
       </c>
       <c r="P32" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="Q32">
         <v>7.4999999999999997E-2</v>
@@ -4691,7 +4688,7 @@
         <v>3</v>
       </c>
       <c r="P33" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="Q33">
         <v>0.05</v>
@@ -4741,7 +4738,7 @@
         <v>3</v>
       </c>
       <c r="P34" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="Q34">
         <v>0.02</v>
@@ -4791,7 +4788,7 @@
         <v>3</v>
       </c>
       <c r="P35" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="Q35">
         <v>0.01</v>
@@ -4841,7 +4838,7 @@
         <v>4</v>
       </c>
       <c r="P36" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="Q36">
         <v>0.1</v>
@@ -4891,7 +4888,7 @@
         <v>4</v>
       </c>
       <c r="P37" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="Q37">
         <v>7.4999999999999997E-2</v>
@@ -4941,7 +4938,7 @@
         <v>4</v>
       </c>
       <c r="P38" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="Q38">
         <v>0.05</v>
@@ -4991,7 +4988,7 @@
         <v>4</v>
       </c>
       <c r="P39" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="Q39">
         <v>0.02</v>
@@ -5041,7 +5038,7 @@
         <v>4</v>
       </c>
       <c r="P40" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="Q40">
         <v>0.01</v>
@@ -5091,7 +5088,7 @@
         <v>4</v>
       </c>
       <c r="P41" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="Q41">
         <v>0.1</v>
@@ -5141,7 +5138,7 @@
         <v>4</v>
       </c>
       <c r="P42" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="Q42">
         <v>7.4999999999999997E-2</v>
@@ -5191,7 +5188,7 @@
         <v>4</v>
       </c>
       <c r="P43" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="Q43">
         <v>0.05</v>
@@ -5241,7 +5238,7 @@
         <v>4</v>
       </c>
       <c r="P44" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="Q44">
         <v>0.02</v>
@@ -5291,7 +5288,7 @@
         <v>4</v>
       </c>
       <c r="P45" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="Q45">
         <v>0.01</v>
@@ -5341,7 +5338,7 @@
         <v>5</v>
       </c>
       <c r="P46" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="Q46">
         <v>0.1</v>
@@ -5391,7 +5388,7 @@
         <v>5</v>
       </c>
       <c r="P47" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="Q47">
         <v>7.4999999999999997E-2</v>
@@ -5441,7 +5438,7 @@
         <v>5</v>
       </c>
       <c r="P48" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="Q48">
         <v>0.05</v>
@@ -5491,7 +5488,7 @@
         <v>5</v>
       </c>
       <c r="P49" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="Q49">
         <v>0.02</v>
@@ -5541,7 +5538,7 @@
         <v>5</v>
       </c>
       <c r="P50" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="Q50">
         <v>0.01</v>
@@ -5591,7 +5588,7 @@
         <v>5</v>
       </c>
       <c r="P51" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="Q51">
         <v>0.1</v>
@@ -5641,7 +5638,7 @@
         <v>5</v>
       </c>
       <c r="P52" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="Q52">
         <v>7.4999999999999997E-2</v>
@@ -5691,7 +5688,7 @@
         <v>5</v>
       </c>
       <c r="P53" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="Q53">
         <v>0.05</v>
@@ -5741,7 +5738,7 @@
         <v>5</v>
       </c>
       <c r="P54" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="Q54">
         <v>0.02</v>
@@ -5791,7 +5788,7 @@
         <v>5</v>
       </c>
       <c r="P55" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="Q55">
         <v>0.01</v>
@@ -6119,7 +6116,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -6177,7 +6174,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6185,19 +6182,19 @@
         <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F2" t="s">
         <v>484</v>
-      </c>
-      <c r="F2" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6205,19 +6202,19 @@
         <v>101</v>
       </c>
       <c r="B3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D3" t="s">
+        <v>517</v>
+      </c>
+      <c r="E3" t="s">
+        <v>518</v>
+      </c>
+      <c r="F3" t="s">
         <v>519</v>
-      </c>
-      <c r="C3" t="s">
-        <v>520</v>
-      </c>
-      <c r="D3" t="s">
-        <v>521</v>
-      </c>
-      <c r="E3" t="s">
-        <v>522</v>
-      </c>
-      <c r="F3" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6225,19 +6222,19 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
+        <v>520</v>
+      </c>
+      <c r="C4" t="s">
+        <v>521</v>
+      </c>
+      <c r="D4" t="s">
+        <v>522</v>
+      </c>
+      <c r="E4" t="s">
+        <v>523</v>
+      </c>
+      <c r="F4" t="s">
         <v>524</v>
-      </c>
-      <c r="C4" t="s">
-        <v>525</v>
-      </c>
-      <c r="D4" t="s">
-        <v>526</v>
-      </c>
-      <c r="E4" t="s">
-        <v>527</v>
-      </c>
-      <c r="F4" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6254,10 +6251,10 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F5" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6265,19 +6262,19 @@
         <v>106</v>
       </c>
       <c r="B6" t="s">
+        <v>527</v>
+      </c>
+      <c r="C6" t="s">
+        <v>528</v>
+      </c>
+      <c r="D6" t="s">
+        <v>529</v>
+      </c>
+      <c r="E6" t="s">
+        <v>530</v>
+      </c>
+      <c r="F6" t="s">
         <v>531</v>
-      </c>
-      <c r="C6" t="s">
-        <v>532</v>
-      </c>
-      <c r="D6" t="s">
-        <v>533</v>
-      </c>
-      <c r="E6" t="s">
-        <v>534</v>
-      </c>
-      <c r="F6" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6285,19 +6282,19 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6305,19 +6302,19 @@
         <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C8" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D8" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E8" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F8" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6325,19 +6322,19 @@
         <v>111</v>
       </c>
       <c r="B9" t="s">
+        <v>540</v>
+      </c>
+      <c r="C9" t="s">
+        <v>541</v>
+      </c>
+      <c r="D9" t="s">
+        <v>542</v>
+      </c>
+      <c r="E9" t="s">
+        <v>543</v>
+      </c>
+      <c r="F9" t="s">
         <v>544</v>
-      </c>
-      <c r="C9" t="s">
-        <v>545</v>
-      </c>
-      <c r="D9" t="s">
-        <v>546</v>
-      </c>
-      <c r="E9" t="s">
-        <v>547</v>
-      </c>
-      <c r="F9" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6345,19 +6342,19 @@
         <v>113</v>
       </c>
       <c r="B10" t="s">
+        <v>545</v>
+      </c>
+      <c r="C10" t="s">
+        <v>546</v>
+      </c>
+      <c r="D10" t="s">
+        <v>547</v>
+      </c>
+      <c r="E10" t="s">
+        <v>548</v>
+      </c>
+      <c r="F10" t="s">
         <v>549</v>
-      </c>
-      <c r="C10" t="s">
-        <v>550</v>
-      </c>
-      <c r="D10" t="s">
-        <v>551</v>
-      </c>
-      <c r="E10" t="s">
-        <v>552</v>
-      </c>
-      <c r="F10" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6365,7 +6362,7 @@
         <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C11" t="s">
         <v>115</v>
@@ -6374,10 +6371,10 @@
         <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F11" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6385,19 +6382,19 @@
         <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C12" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D12" t="s">
         <v>117</v>
       </c>
       <c r="E12" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F12" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6405,19 +6402,19 @@
         <v>119</v>
       </c>
       <c r="B13" t="s">
+        <v>557</v>
+      </c>
+      <c r="C13" t="s">
+        <v>558</v>
+      </c>
+      <c r="D13" t="s">
+        <v>559</v>
+      </c>
+      <c r="E13" t="s">
+        <v>560</v>
+      </c>
+      <c r="F13" t="s">
         <v>561</v>
-      </c>
-      <c r="C13" t="s">
-        <v>562</v>
-      </c>
-      <c r="D13" t="s">
-        <v>563</v>
-      </c>
-      <c r="E13" t="s">
-        <v>564</v>
-      </c>
-      <c r="F13" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6425,19 +6422,19 @@
         <v>121</v>
       </c>
       <c r="B14" t="s">
+        <v>562</v>
+      </c>
+      <c r="C14" t="s">
+        <v>563</v>
+      </c>
+      <c r="D14" t="s">
+        <v>564</v>
+      </c>
+      <c r="E14" t="s">
+        <v>565</v>
+      </c>
+      <c r="F14" t="s">
         <v>566</v>
-      </c>
-      <c r="C14" t="s">
-        <v>567</v>
-      </c>
-      <c r="D14" t="s">
-        <v>568</v>
-      </c>
-      <c r="E14" t="s">
-        <v>569</v>
-      </c>
-      <c r="F14" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6445,19 +6442,19 @@
         <v>123</v>
       </c>
       <c r="B15" t="s">
+        <v>567</v>
+      </c>
+      <c r="C15" t="s">
+        <v>568</v>
+      </c>
+      <c r="D15" t="s">
+        <v>569</v>
+      </c>
+      <c r="E15" t="s">
+        <v>570</v>
+      </c>
+      <c r="F15" t="s">
         <v>571</v>
-      </c>
-      <c r="C15" t="s">
-        <v>572</v>
-      </c>
-      <c r="D15" t="s">
-        <v>573</v>
-      </c>
-      <c r="E15" t="s">
-        <v>574</v>
-      </c>
-      <c r="F15" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6465,19 +6462,19 @@
         <v>125</v>
       </c>
       <c r="B16" t="s">
+        <v>572</v>
+      </c>
+      <c r="C16" t="s">
+        <v>573</v>
+      </c>
+      <c r="D16" t="s">
+        <v>574</v>
+      </c>
+      <c r="E16" t="s">
+        <v>575</v>
+      </c>
+      <c r="F16" t="s">
         <v>576</v>
-      </c>
-      <c r="C16" t="s">
-        <v>577</v>
-      </c>
-      <c r="D16" t="s">
-        <v>578</v>
-      </c>
-      <c r="E16" t="s">
-        <v>579</v>
-      </c>
-      <c r="F16" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6485,19 +6482,19 @@
         <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C17" t="s">
         <v>127</v>
       </c>
       <c r="D17" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="E17" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F17" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6505,19 +6502,19 @@
         <v>129</v>
       </c>
       <c r="B18" t="s">
+        <v>581</v>
+      </c>
+      <c r="C18" t="s">
+        <v>582</v>
+      </c>
+      <c r="D18" t="s">
+        <v>583</v>
+      </c>
+      <c r="E18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F18" t="s">
         <v>585</v>
-      </c>
-      <c r="C18" t="s">
-        <v>586</v>
-      </c>
-      <c r="D18" t="s">
-        <v>587</v>
-      </c>
-      <c r="E18" t="s">
-        <v>588</v>
-      </c>
-      <c r="F18" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6525,19 +6522,19 @@
         <v>131</v>
       </c>
       <c r="B19" t="s">
+        <v>586</v>
+      </c>
+      <c r="C19" t="s">
+        <v>587</v>
+      </c>
+      <c r="D19" t="s">
+        <v>588</v>
+      </c>
+      <c r="E19" t="s">
+        <v>589</v>
+      </c>
+      <c r="F19" t="s">
         <v>590</v>
-      </c>
-      <c r="C19" t="s">
-        <v>591</v>
-      </c>
-      <c r="D19" t="s">
-        <v>592</v>
-      </c>
-      <c r="E19" t="s">
-        <v>593</v>
-      </c>
-      <c r="F19" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6545,19 +6542,19 @@
         <v>133</v>
       </c>
       <c r="B20" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C20" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D20" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="E20" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="F20" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6594,10 +6591,10 @@
         <v>137</v>
       </c>
       <c r="E22" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F22" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6614,10 +6611,10 @@
         <v>139</v>
       </c>
       <c r="E23" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F23" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6634,10 +6631,10 @@
         <v>141</v>
       </c>
       <c r="E24" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F24" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6645,19 +6642,19 @@
         <v>171</v>
       </c>
       <c r="B25" t="s">
+        <v>601</v>
+      </c>
+      <c r="C25" t="s">
+        <v>602</v>
+      </c>
+      <c r="D25" t="s">
+        <v>603</v>
+      </c>
+      <c r="E25" t="s">
+        <v>604</v>
+      </c>
+      <c r="F25" t="s">
         <v>605</v>
-      </c>
-      <c r="C25" t="s">
-        <v>606</v>
-      </c>
-      <c r="D25" t="s">
-        <v>607</v>
-      </c>
-      <c r="E25" t="s">
-        <v>608</v>
-      </c>
-      <c r="F25" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6665,19 +6662,19 @@
         <v>172</v>
       </c>
       <c r="B26" t="s">
+        <v>606</v>
+      </c>
+      <c r="C26" t="s">
+        <v>607</v>
+      </c>
+      <c r="D26" t="s">
+        <v>608</v>
+      </c>
+      <c r="E26" t="s">
+        <v>609</v>
+      </c>
+      <c r="F26" t="s">
         <v>610</v>
-      </c>
-      <c r="C26" t="s">
-        <v>611</v>
-      </c>
-      <c r="D26" t="s">
-        <v>612</v>
-      </c>
-      <c r="E26" t="s">
-        <v>613</v>
-      </c>
-      <c r="F26" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6685,19 +6682,19 @@
         <v>173</v>
       </c>
       <c r="B27" t="s">
+        <v>611</v>
+      </c>
+      <c r="C27" t="s">
+        <v>612</v>
+      </c>
+      <c r="D27" t="s">
+        <v>613</v>
+      </c>
+      <c r="E27" t="s">
+        <v>614</v>
+      </c>
+      <c r="F27" t="s">
         <v>615</v>
-      </c>
-      <c r="C27" t="s">
-        <v>616</v>
-      </c>
-      <c r="D27" t="s">
-        <v>617</v>
-      </c>
-      <c r="E27" t="s">
-        <v>618</v>
-      </c>
-      <c r="F27" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6705,19 +6702,19 @@
         <v>174</v>
       </c>
       <c r="B28" t="s">
+        <v>616</v>
+      </c>
+      <c r="C28" t="s">
+        <v>617</v>
+      </c>
+      <c r="D28" t="s">
+        <v>618</v>
+      </c>
+      <c r="E28" t="s">
+        <v>619</v>
+      </c>
+      <c r="F28" t="s">
         <v>620</v>
-      </c>
-      <c r="C28" t="s">
-        <v>621</v>
-      </c>
-      <c r="D28" t="s">
-        <v>622</v>
-      </c>
-      <c r="E28" t="s">
-        <v>623</v>
-      </c>
-      <c r="F28" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6725,19 +6722,19 @@
         <v>175</v>
       </c>
       <c r="B29" t="s">
+        <v>621</v>
+      </c>
+      <c r="C29" t="s">
+        <v>622</v>
+      </c>
+      <c r="D29" t="s">
+        <v>623</v>
+      </c>
+      <c r="E29" t="s">
+        <v>624</v>
+      </c>
+      <c r="F29" t="s">
         <v>625</v>
-      </c>
-      <c r="C29" t="s">
-        <v>626</v>
-      </c>
-      <c r="D29" t="s">
-        <v>627</v>
-      </c>
-      <c r="E29" t="s">
-        <v>628</v>
-      </c>
-      <c r="F29" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6745,19 +6742,19 @@
         <v>176</v>
       </c>
       <c r="B30" t="s">
+        <v>626</v>
+      </c>
+      <c r="C30" t="s">
+        <v>627</v>
+      </c>
+      <c r="D30" t="s">
+        <v>628</v>
+      </c>
+      <c r="E30" t="s">
+        <v>629</v>
+      </c>
+      <c r="F30" t="s">
         <v>630</v>
-      </c>
-      <c r="C30" t="s">
-        <v>631</v>
-      </c>
-      <c r="D30" t="s">
-        <v>632</v>
-      </c>
-      <c r="E30" t="s">
-        <v>633</v>
-      </c>
-      <c r="F30" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6765,19 +6762,19 @@
         <v>177</v>
       </c>
       <c r="B31" t="s">
+        <v>631</v>
+      </c>
+      <c r="C31" t="s">
+        <v>632</v>
+      </c>
+      <c r="D31" t="s">
+        <v>633</v>
+      </c>
+      <c r="E31" t="s">
+        <v>634</v>
+      </c>
+      <c r="F31" t="s">
         <v>635</v>
-      </c>
-      <c r="C31" t="s">
-        <v>636</v>
-      </c>
-      <c r="D31" t="s">
-        <v>637</v>
-      </c>
-      <c r="E31" t="s">
-        <v>638</v>
-      </c>
-      <c r="F31" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6785,19 +6782,19 @@
         <v>178</v>
       </c>
       <c r="B32" t="s">
+        <v>636</v>
+      </c>
+      <c r="C32" t="s">
+        <v>637</v>
+      </c>
+      <c r="D32" t="s">
+        <v>638</v>
+      </c>
+      <c r="E32" t="s">
+        <v>639</v>
+      </c>
+      <c r="F32" t="s">
         <v>640</v>
-      </c>
-      <c r="C32" t="s">
-        <v>641</v>
-      </c>
-      <c r="D32" t="s">
-        <v>642</v>
-      </c>
-      <c r="E32" t="s">
-        <v>643</v>
-      </c>
-      <c r="F32" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6825,19 +6822,19 @@
         <v>179</v>
       </c>
       <c r="B34" t="s">
+        <v>641</v>
+      </c>
+      <c r="C34" t="s">
+        <v>642</v>
+      </c>
+      <c r="D34" t="s">
+        <v>643</v>
+      </c>
+      <c r="E34" t="s">
+        <v>644</v>
+      </c>
+      <c r="F34" t="s">
         <v>645</v>
-      </c>
-      <c r="C34" t="s">
-        <v>646</v>
-      </c>
-      <c r="D34" t="s">
-        <v>647</v>
-      </c>
-      <c r="E34" t="s">
-        <v>648</v>
-      </c>
-      <c r="F34" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6845,19 +6842,19 @@
         <v>180</v>
       </c>
       <c r="B35" t="s">
+        <v>646</v>
+      </c>
+      <c r="C35" t="s">
+        <v>647</v>
+      </c>
+      <c r="D35" t="s">
+        <v>648</v>
+      </c>
+      <c r="E35" t="s">
+        <v>649</v>
+      </c>
+      <c r="F35" t="s">
         <v>650</v>
-      </c>
-      <c r="C35" t="s">
-        <v>651</v>
-      </c>
-      <c r="D35" t="s">
-        <v>652</v>
-      </c>
-      <c r="E35" t="s">
-        <v>653</v>
-      </c>
-      <c r="F35" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -6865,19 +6862,19 @@
         <v>181</v>
       </c>
       <c r="B36" t="s">
+        <v>651</v>
+      </c>
+      <c r="C36" t="s">
+        <v>652</v>
+      </c>
+      <c r="D36" t="s">
+        <v>653</v>
+      </c>
+      <c r="E36" t="s">
+        <v>654</v>
+      </c>
+      <c r="F36" t="s">
         <v>655</v>
-      </c>
-      <c r="C36" t="s">
-        <v>656</v>
-      </c>
-      <c r="D36" t="s">
-        <v>657</v>
-      </c>
-      <c r="E36" t="s">
-        <v>658</v>
-      </c>
-      <c r="F36" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -6885,19 +6882,19 @@
         <v>182</v>
       </c>
       <c r="B37" t="s">
+        <v>656</v>
+      </c>
+      <c r="C37" t="s">
+        <v>657</v>
+      </c>
+      <c r="D37" t="s">
+        <v>658</v>
+      </c>
+      <c r="E37" t="s">
+        <v>659</v>
+      </c>
+      <c r="F37" t="s">
         <v>660</v>
-      </c>
-      <c r="C37" t="s">
-        <v>661</v>
-      </c>
-      <c r="D37" t="s">
-        <v>662</v>
-      </c>
-      <c r="E37" t="s">
-        <v>663</v>
-      </c>
-      <c r="F37" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -6905,19 +6902,19 @@
         <v>183</v>
       </c>
       <c r="B38" t="s">
+        <v>661</v>
+      </c>
+      <c r="C38" t="s">
+        <v>662</v>
+      </c>
+      <c r="D38" t="s">
+        <v>663</v>
+      </c>
+      <c r="E38" t="s">
+        <v>664</v>
+      </c>
+      <c r="F38" t="s">
         <v>665</v>
-      </c>
-      <c r="C38" t="s">
-        <v>666</v>
-      </c>
-      <c r="D38" t="s">
-        <v>667</v>
-      </c>
-      <c r="E38" t="s">
-        <v>668</v>
-      </c>
-      <c r="F38" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -6925,19 +6922,19 @@
         <v>184</v>
       </c>
       <c r="B39" t="s">
+        <v>666</v>
+      </c>
+      <c r="C39" t="s">
+        <v>667</v>
+      </c>
+      <c r="D39" t="s">
+        <v>668</v>
+      </c>
+      <c r="E39" t="s">
+        <v>669</v>
+      </c>
+      <c r="F39" t="s">
         <v>670</v>
-      </c>
-      <c r="C39" t="s">
-        <v>671</v>
-      </c>
-      <c r="D39" t="s">
-        <v>672</v>
-      </c>
-      <c r="E39" t="s">
-        <v>673</v>
-      </c>
-      <c r="F39" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -6945,739 +6942,739 @@
         <v>187</v>
       </c>
       <c r="B40" t="s">
+        <v>671</v>
+      </c>
+      <c r="C40" t="s">
+        <v>672</v>
+      </c>
+      <c r="D40" t="s">
+        <v>673</v>
+      </c>
+      <c r="E40" t="s">
+        <v>674</v>
+      </c>
+      <c r="F40" t="s">
         <v>675</v>
-      </c>
-      <c r="C40" t="s">
-        <v>676</v>
-      </c>
-      <c r="D40" t="s">
-        <v>677</v>
-      </c>
-      <c r="E40" t="s">
-        <v>678</v>
-      </c>
-      <c r="F40" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B43" t="s">
+        <v>676</v>
+      </c>
+      <c r="C43" t="s">
+        <v>677</v>
+      </c>
+      <c r="D43" t="s">
+        <v>678</v>
+      </c>
+      <c r="E43" t="s">
+        <v>679</v>
+      </c>
+      <c r="F43" t="s">
         <v>680</v>
-      </c>
-      <c r="C43" t="s">
-        <v>681</v>
-      </c>
-      <c r="D43" t="s">
-        <v>682</v>
-      </c>
-      <c r="E43" t="s">
-        <v>683</v>
-      </c>
-      <c r="F43" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B44" t="s">
+        <v>681</v>
+      </c>
+      <c r="C44" t="s">
+        <v>682</v>
+      </c>
+      <c r="D44" t="s">
+        <v>683</v>
+      </c>
+      <c r="E44" t="s">
+        <v>684</v>
+      </c>
+      <c r="F44" t="s">
         <v>685</v>
-      </c>
-      <c r="C44" t="s">
-        <v>686</v>
-      </c>
-      <c r="D44" t="s">
-        <v>687</v>
-      </c>
-      <c r="E44" t="s">
-        <v>688</v>
-      </c>
-      <c r="F44" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B45" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C45" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D45" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E45" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F45" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B46" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C46" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D46" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E46" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F46" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B47" t="s">
+        <v>686</v>
+      </c>
+      <c r="C47" t="s">
+        <v>687</v>
+      </c>
+      <c r="D47" t="s">
+        <v>688</v>
+      </c>
+      <c r="E47" t="s">
+        <v>689</v>
+      </c>
+      <c r="F47" t="s">
         <v>690</v>
-      </c>
-      <c r="C47" t="s">
-        <v>691</v>
-      </c>
-      <c r="D47" t="s">
-        <v>692</v>
-      </c>
-      <c r="E47" t="s">
-        <v>693</v>
-      </c>
-      <c r="F47" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B48" t="s">
+        <v>691</v>
+      </c>
+      <c r="C48" t="s">
+        <v>692</v>
+      </c>
+      <c r="D48" t="s">
+        <v>693</v>
+      </c>
+      <c r="E48" t="s">
+        <v>694</v>
+      </c>
+      <c r="F48" t="s">
         <v>695</v>
-      </c>
-      <c r="C48" t="s">
-        <v>696</v>
-      </c>
-      <c r="D48" t="s">
-        <v>697</v>
-      </c>
-      <c r="E48" t="s">
-        <v>698</v>
-      </c>
-      <c r="F48" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B49" t="s">
+        <v>696</v>
+      </c>
+      <c r="C49" t="s">
+        <v>697</v>
+      </c>
+      <c r="D49" t="s">
+        <v>698</v>
+      </c>
+      <c r="E49" t="s">
+        <v>699</v>
+      </c>
+      <c r="F49" t="s">
         <v>700</v>
-      </c>
-      <c r="C49" t="s">
-        <v>701</v>
-      </c>
-      <c r="D49" t="s">
-        <v>702</v>
-      </c>
-      <c r="E49" t="s">
-        <v>703</v>
-      </c>
-      <c r="F49" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B50" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C50" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D50" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E50" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F50" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B51" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C51" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D51" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E51" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F51" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B52" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C52" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D52" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E52" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F52" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B53" t="s">
+        <v>701</v>
+      </c>
+      <c r="C53" t="s">
+        <v>702</v>
+      </c>
+      <c r="D53" t="s">
+        <v>703</v>
+      </c>
+      <c r="E53" t="s">
+        <v>704</v>
+      </c>
+      <c r="F53" t="s">
         <v>705</v>
-      </c>
-      <c r="C53" t="s">
-        <v>706</v>
-      </c>
-      <c r="D53" t="s">
-        <v>707</v>
-      </c>
-      <c r="E53" t="s">
-        <v>708</v>
-      </c>
-      <c r="F53" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B54" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C54" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D54" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E54" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F54" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B55" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C55" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D55" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E55" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F55" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B56" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C56" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D56" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E56" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F56" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B57" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C57" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D57" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E57" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F57" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B58" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C58" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D58" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E58" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F58" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B59" t="s">
+        <v>710</v>
+      </c>
+      <c r="C59" t="s">
+        <v>711</v>
+      </c>
+      <c r="D59" t="s">
+        <v>712</v>
+      </c>
+      <c r="E59" t="s">
+        <v>713</v>
+      </c>
+      <c r="F59" t="s">
         <v>714</v>
-      </c>
-      <c r="C59" t="s">
-        <v>715</v>
-      </c>
-      <c r="D59" t="s">
-        <v>716</v>
-      </c>
-      <c r="E59" t="s">
-        <v>717</v>
-      </c>
-      <c r="F59" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B60" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C60" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D60" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E60" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F60" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B61" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C61" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D61" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E61" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F61" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B62" t="s">
+        <v>715</v>
+      </c>
+      <c r="C62" t="s">
+        <v>716</v>
+      </c>
+      <c r="D62" t="s">
+        <v>717</v>
+      </c>
+      <c r="E62" t="s">
+        <v>718</v>
+      </c>
+      <c r="F62" t="s">
         <v>719</v>
-      </c>
-      <c r="C62" t="s">
-        <v>720</v>
-      </c>
-      <c r="D62" t="s">
-        <v>721</v>
-      </c>
-      <c r="E62" t="s">
-        <v>722</v>
-      </c>
-      <c r="F62" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B63" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C63" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="D63" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="E63" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="F63" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B64" t="s">
+        <v>724</v>
+      </c>
+      <c r="C64" t="s">
+        <v>725</v>
+      </c>
+      <c r="D64" t="s">
+        <v>726</v>
+      </c>
+      <c r="E64" t="s">
+        <v>727</v>
+      </c>
+      <c r="F64" t="s">
         <v>728</v>
-      </c>
-      <c r="C64" t="s">
-        <v>729</v>
-      </c>
-      <c r="D64" t="s">
-        <v>730</v>
-      </c>
-      <c r="E64" t="s">
-        <v>731</v>
-      </c>
-      <c r="F64" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B65" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C65" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D65" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E65" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F65" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B66" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C66" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D66" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E66" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F66" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B67" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C67" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D67" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E67" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F67" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B68" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C68" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D68" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E68" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F68" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B69" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C69" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D69" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E69" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F69" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B70" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C70" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D70" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E70" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F70" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B71" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C71" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D71" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E71" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F71" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B72" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C72" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D72" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E72" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F72" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B73" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C73" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D73" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E73" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F73" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B74" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C74" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D74" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E74" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F74" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B75" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C75" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D75" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E75" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F75" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B76" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C76" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D76" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E76" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F76" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7702,22 +7699,22 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B78" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C78" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D78" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E78" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F78" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -7762,122 +7759,122 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B81" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C81" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D81" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E81" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F81" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B82" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C82" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D82" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E82" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F82" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B83" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C83" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D83" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E83" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F83" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B84" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C84" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D84" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E84" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F84" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B85" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C85" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D85" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E85" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F85" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B86" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C86" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D86" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E86" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F86" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -7902,42 +7899,42 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B88" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C88" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D88" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E88" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F88" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B89" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C89" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D89" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E89" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F89" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8022,22 +8019,22 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B94" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C94" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D94" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E94" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F94" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -8091,7 +8088,7 @@
     </row>
     <row r="3" spans="1:13" ht="15" thickTop="1" thickBot="1">
       <c r="A3" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -8115,7 +8112,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
@@ -8128,7 +8125,7 @@
         <v>3.1709791983764584</v>
       </c>
       <c r="K4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L4">
         <v>36.779029999999999</v>
@@ -8139,10 +8136,10 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C5" t="s">
         <v>77</v>
@@ -8152,7 +8149,7 @@
         <v>3.6</v>
       </c>
       <c r="K5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L5">
         <v>-8.8383000000000003</v>
@@ -8163,7 +8160,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
@@ -8175,7 +8172,7 @@
         <v>100</v>
       </c>
       <c r="K6" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="L6">
         <v>41.327500000000001</v>
@@ -8186,10 +8183,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
@@ -8198,7 +8195,7 @@
         <v>-1</v>
       </c>
       <c r="K7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L7">
         <v>25.23</v>
@@ -8209,7 +8206,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="K8" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L8">
         <v>-34.602499999999999</v>
@@ -8220,7 +8217,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="K9" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L9">
         <v>40.181199999999997</v>
@@ -8308,7 +8305,7 @@
     </row>
     <row r="17" spans="11:13">
       <c r="K17" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L17">
         <v>48.2</v>
@@ -8319,7 +8316,7 @@
     </row>
     <row r="18" spans="11:13">
       <c r="K18" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L18">
         <v>40.395299999999999</v>
@@ -8330,7 +8327,7 @@
     </row>
     <row r="19" spans="11:13">
       <c r="K19" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L19">
         <v>-3.3761000000000001</v>
@@ -8341,7 +8338,7 @@
     </row>
     <row r="20" spans="11:13">
       <c r="K20" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L20">
         <v>50.833300000000001</v>
@@ -8352,7 +8349,7 @@
     </row>
     <row r="21" spans="11:13">
       <c r="K21" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L21">
         <v>7.1904000000000003</v>
@@ -8363,7 +8360,7 @@
     </row>
     <row r="22" spans="11:13">
       <c r="K22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="L22">
         <v>12.3703</v>
@@ -8374,7 +8371,7 @@
     </row>
     <row r="23" spans="11:13">
       <c r="K23" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L23">
         <v>23.723099999999999</v>
@@ -8385,7 +8382,7 @@
     </row>
     <row r="24" spans="11:13">
       <c r="K24" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L24">
         <v>42.683300000000003</v>
@@ -8396,7 +8393,7 @@
     </row>
     <row r="25" spans="11:13">
       <c r="K25" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="L25">
         <v>26.2361</v>
@@ -8407,7 +8404,7 @@
     </row>
     <row r="26" spans="11:13">
       <c r="K26" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="L26">
         <v>43.85</v>
@@ -8418,7 +8415,7 @@
     </row>
     <row r="27" spans="11:13">
       <c r="K27" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="L27">
         <v>53.9</v>
@@ -8429,7 +8426,7 @@
     </row>
     <row r="28" spans="11:13">
       <c r="K28" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="L28">
         <v>17.498699999999999</v>
@@ -8440,7 +8437,7 @@
     </row>
     <row r="29" spans="11:13">
       <c r="K29" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="L29">
         <v>-17.753900000000002</v>
@@ -8451,7 +8448,7 @@
     </row>
     <row r="30" spans="11:13">
       <c r="K30" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="L30">
         <v>-1.45</v>
@@ -8462,7 +8459,7 @@
     </row>
     <row r="31" spans="11:13">
       <c r="K31" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="L31">
         <v>4.8833000000000002</v>
@@ -8473,7 +8470,7 @@
     </row>
     <row r="32" spans="11:13">
       <c r="K32" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L32">
         <v>27.472999999999999</v>
@@ -8484,7 +8481,7 @@
     </row>
     <row r="33" spans="11:13">
       <c r="K33" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="L33">
         <v>-24.6463</v>
@@ -8495,7 +8492,7 @@
     </row>
     <row r="34" spans="11:13">
       <c r="K34" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="L34">
         <v>4.3666</v>
@@ -8506,7 +8503,7 @@
     </row>
     <row r="35" spans="11:13">
       <c r="K35" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="L35">
         <v>43.7</v>
@@ -8517,7 +8514,7 @@
     </row>
     <row r="36" spans="11:13">
       <c r="K36" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="L36">
         <v>47.38</v>
@@ -8528,7 +8525,7 @@
     </row>
     <row r="37" spans="11:13">
       <c r="K37" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="L37">
         <v>-33.450000000000003</v>
@@ -8539,7 +8536,7 @@
     </row>
     <row r="38" spans="11:13">
       <c r="K38" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="L38">
         <v>39.928899999999999</v>
@@ -8550,7 +8547,7 @@
     </row>
     <row r="39" spans="11:13">
       <c r="K39" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L39">
         <v>5.32</v>
@@ -8561,7 +8558,7 @@
     </row>
     <row r="40" spans="11:13">
       <c r="K40" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L40">
         <v>3.8666999999999998</v>
@@ -8572,7 +8569,7 @@
     </row>
     <row r="41" spans="11:13">
       <c r="K41" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L41">
         <v>-4.3296999999999999</v>
@@ -8583,7 +8580,7 @@
     </row>
     <row r="42" spans="11:13">
       <c r="K42" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="L42">
         <v>-4.2591999999999999</v>
@@ -8594,7 +8591,7 @@
     </row>
     <row r="43" spans="11:13">
       <c r="K43" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L43">
         <v>4.5964</v>
@@ -8605,7 +8602,7 @@
     </row>
     <row r="44" spans="11:13">
       <c r="K44" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="L44">
         <v>9.9347390000000004</v>
@@ -8616,7 +8613,7 @@
     </row>
     <row r="45" spans="11:13">
       <c r="K45" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L45">
         <v>23.132000000000001</v>
@@ -8627,7 +8624,7 @@
     </row>
     <row r="46" spans="11:13">
       <c r="K46" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L46">
         <v>35.166699999999999</v>
@@ -8638,7 +8635,7 @@
     </row>
     <row r="47" spans="11:13">
       <c r="K47" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L47">
         <v>50.083300000000001</v>
@@ -8649,7 +8646,7 @@
     </row>
     <row r="48" spans="11:13">
       <c r="K48" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L48">
         <v>52.521799999999999</v>
@@ -8660,7 +8657,7 @@
     </row>
     <row r="49" spans="11:13">
       <c r="K49" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L49">
         <v>11.595000000000001</v>
@@ -8671,7 +8668,7 @@
     </row>
     <row r="50" spans="11:13">
       <c r="K50" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="L50">
         <v>55.678600000000003</v>
@@ -8682,7 +8679,7 @@
     </row>
     <row r="51" spans="11:13">
       <c r="K51" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L51">
         <v>18.470099999999999</v>
@@ -8693,7 +8690,7 @@
     </row>
     <row r="52" spans="11:13">
       <c r="K52" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="L52">
         <v>36.763100000000001</v>
@@ -8704,7 +8701,7 @@
     </row>
     <row r="53" spans="11:13">
       <c r="K53" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L53">
         <v>-2.2200000000000002</v>
@@ -8715,7 +8712,7 @@
     </row>
     <row r="54" spans="11:13">
       <c r="K54" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="L54">
         <v>30.05</v>
@@ -8726,7 +8723,7 @@
     </row>
     <row r="55" spans="11:13">
       <c r="K55" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L55">
         <v>15.333299999999999</v>
@@ -8737,7 +8734,7 @@
     </row>
     <row r="56" spans="11:13">
       <c r="K56" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L56">
         <v>27.15</v>
@@ -8748,7 +8745,7 @@
     </row>
     <row r="57" spans="11:13">
       <c r="K57" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L57">
         <v>40.4</v>
@@ -8759,7 +8756,7 @@
     </row>
     <row r="58" spans="11:13">
       <c r="K58" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L58">
         <v>59.436962000000001</v>
@@ -8770,7 +8767,7 @@
     </row>
     <row r="59" spans="11:13">
       <c r="K59" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L59">
         <v>13.5</v>
@@ -8781,7 +8778,7 @@
     </row>
     <row r="60" spans="11:13">
       <c r="K60" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="L60">
         <v>60.175600000000003</v>
@@ -8792,7 +8789,7 @@
     </row>
     <row r="61" spans="11:13">
       <c r="K61" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="L61">
         <v>48.866700000000002</v>
@@ -8803,7 +8800,7 @@
     </row>
     <row r="62" spans="11:13">
       <c r="K62" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L62">
         <v>0.38540000000000002</v>
@@ -8814,7 +8811,7 @@
     </row>
     <row r="63" spans="11:13">
       <c r="K63" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L63">
         <v>51.5</v>
@@ -8825,7 +8822,7 @@
     </row>
     <row r="64" spans="11:13">
       <c r="K64" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="L64">
         <v>41.725000000000001</v>
@@ -8836,7 +8833,7 @@
     </row>
     <row r="65" spans="11:13">
       <c r="K65" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L65">
         <v>6.69</v>
@@ -8847,7 +8844,7 @@
     </row>
     <row r="66" spans="11:13">
       <c r="K66" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="L66">
         <v>9.5314999999999994</v>
@@ -8858,7 +8855,7 @@
     </row>
     <row r="67" spans="11:13">
       <c r="K67" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L67">
         <v>13.448395</v>
@@ -8869,7 +8866,7 @@
     </row>
     <row r="68" spans="11:13">
       <c r="K68" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="L68">
         <v>11.865</v>
@@ -8880,7 +8877,7 @@
     </row>
     <row r="69" spans="11:13">
       <c r="K69" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L69">
         <v>1.87</v>
@@ -8891,7 +8888,7 @@
     </row>
     <row r="70" spans="11:13">
       <c r="K70" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="L70">
         <v>37.9833</v>
@@ -8902,7 +8899,7 @@
     </row>
     <row r="71" spans="11:13">
       <c r="K71" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L71">
         <v>60.270832249999998</v>
@@ -8913,7 +8910,7 @@
     </row>
     <row r="72" spans="11:13">
       <c r="K72" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="L72">
         <v>14.6211</v>
@@ -8924,7 +8921,7 @@
     </row>
     <row r="73" spans="11:13">
       <c r="K73" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L73">
         <v>4.9223999999999997</v>
@@ -8935,7 +8932,7 @@
     </row>
     <row r="74" spans="11:13">
       <c r="K74" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="L74">
         <v>6.8019999999999996</v>
@@ -8946,7 +8943,7 @@
     </row>
     <row r="75" spans="11:13">
       <c r="K75" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="L75">
         <v>14.102</v>
@@ -8957,7 +8954,7 @@
     </row>
     <row r="76" spans="11:13">
       <c r="K76" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="L76">
         <v>45.8</v>
@@ -8968,7 +8965,7 @@
     </row>
     <row r="77" spans="11:13">
       <c r="K77" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L77">
         <v>18.533332999999999</v>
@@ -8979,7 +8976,7 @@
     </row>
     <row r="78" spans="11:13">
       <c r="K78" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="L78">
         <v>47.5</v>
@@ -8990,7 +8987,7 @@
     </row>
     <row r="79" spans="11:13">
       <c r="K79" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="L79">
         <v>-6.1744000000000003</v>
@@ -9001,7 +8998,7 @@
     </row>
     <row r="80" spans="11:13">
       <c r="K80" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="L80">
         <v>28.67</v>
@@ -9012,7 +9009,7 @@
     </row>
     <row r="81" spans="11:13">
       <c r="K81" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L81">
         <v>53.333100000000002</v>
@@ -9023,7 +9020,7 @@
     </row>
     <row r="82" spans="11:13">
       <c r="K82" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="L82">
         <v>35.671900000000001</v>
@@ -9034,7 +9031,7 @@
     </row>
     <row r="83" spans="11:13">
       <c r="K83" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="L83">
         <v>33.3386</v>
@@ -9045,7 +9042,7 @@
     </row>
     <row r="84" spans="11:13">
       <c r="K84" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="L84">
         <v>64.150000000000006</v>
@@ -9056,7 +9053,7 @@
     </row>
     <row r="85" spans="11:13">
       <c r="K85" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L85">
         <v>32.08</v>
@@ -9067,7 +9064,7 @@
     </row>
     <row r="86" spans="11:13">
       <c r="K86" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="L86">
         <v>41.896000000000001</v>
@@ -9078,7 +9075,7 @@
     </row>
     <row r="87" spans="11:13">
       <c r="K87" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L87">
         <v>17.9771</v>
@@ -9089,7 +9086,7 @@
     </row>
     <row r="88" spans="11:13">
       <c r="K88" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="L88">
         <v>31.95</v>
@@ -9100,7 +9097,7 @@
     </row>
     <row r="89" spans="11:13">
       <c r="K89" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="L89">
         <v>35.685000000000002</v>
@@ -9111,7 +9108,7 @@
     </row>
     <row r="90" spans="11:13">
       <c r="K90" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="L90">
         <v>43.325000000000003</v>
@@ -9122,7 +9119,7 @@
     </row>
     <row r="91" spans="11:13">
       <c r="K91" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L91">
         <v>-1.2833000000000001</v>
@@ -9133,7 +9130,7 @@
     </row>
     <row r="92" spans="11:13">
       <c r="K92" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="L92">
         <v>42.873100000000001</v>
@@ -9144,7 +9141,7 @@
     </row>
     <row r="93" spans="11:13">
       <c r="K93" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="L93">
         <v>11.55</v>
@@ -9155,7 +9152,7 @@
     </row>
     <row r="94" spans="11:13">
       <c r="K94" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L94">
         <v>37.566299999999998</v>
@@ -9166,7 +9163,7 @@
     </row>
     <row r="95" spans="11:13">
       <c r="K95" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="L95">
         <v>42.6629</v>
@@ -9177,7 +9174,7 @@
     </row>
     <row r="96" spans="11:13">
       <c r="K96" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="L96">
         <v>29.369700000000002</v>
@@ -9188,7 +9185,7 @@
     </row>
     <row r="97" spans="11:13">
       <c r="K97" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="L97">
         <v>17.966699999999999</v>
@@ -9199,7 +9196,7 @@
     </row>
     <row r="98" spans="11:13">
       <c r="K98" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="L98">
         <v>33.872</v>
@@ -9210,7 +9207,7 @@
     </row>
     <row r="99" spans="11:13">
       <c r="K99" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="L99">
         <v>6.3106</v>
@@ -9221,7 +9218,7 @@
     </row>
     <row r="100" spans="11:13">
       <c r="K100" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L100">
         <v>32.892499999999998</v>
@@ -9232,7 +9229,7 @@
     </row>
     <row r="101" spans="11:13">
       <c r="K101" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="L101">
         <v>6.9320000000000004</v>
@@ -9243,7 +9240,7 @@
     </row>
     <row r="102" spans="11:13">
       <c r="K102" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="L102">
         <v>-29.316700000000001</v>
@@ -9254,7 +9251,7 @@
     </row>
     <row r="103" spans="11:13">
       <c r="K103" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L103">
         <v>54.683399999999999</v>
@@ -9265,7 +9262,7 @@
     </row>
     <row r="104" spans="11:13">
       <c r="K104" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L104">
         <v>49.611621999999997</v>
@@ -9276,7 +9273,7 @@
     </row>
     <row r="105" spans="11:13">
       <c r="K105" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L105">
         <v>56.95</v>
@@ -9287,7 +9284,7 @@
     </row>
     <row r="106" spans="11:13">
       <c r="K106" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="L106">
         <v>33.6</v>
@@ -9298,7 +9295,7 @@
     </row>
     <row r="107" spans="11:13">
       <c r="K107" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L107">
         <v>47.005000000000003</v>
@@ -9309,7 +9306,7 @@
     </row>
     <row r="108" spans="11:13">
       <c r="K108" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L108">
         <v>-18.916599999999999</v>
@@ -9320,7 +9317,7 @@
     </row>
     <row r="109" spans="11:13">
       <c r="K109" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L109">
         <v>19.442399999999999</v>
@@ -9331,7 +9328,7 @@
     </row>
     <row r="110" spans="11:13">
       <c r="K110" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="L110">
         <v>42</v>
@@ -9342,7 +9339,7 @@
     </row>
     <row r="111" spans="11:13">
       <c r="K111" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="L111">
         <v>12.65</v>
@@ -9353,7 +9350,7 @@
     </row>
     <row r="112" spans="11:13">
       <c r="K112" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L112">
         <v>35.899700000000003</v>
@@ -9364,7 +9361,7 @@
     </row>
     <row r="113" spans="11:13">
       <c r="K113" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="L113">
         <v>16.871310999999999</v>
@@ -9375,7 +9372,7 @@
     </row>
     <row r="114" spans="11:13">
       <c r="K114" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="L114">
         <v>42.442574</v>
@@ -9386,7 +9383,7 @@
     </row>
     <row r="115" spans="11:13">
       <c r="K115" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="L115">
         <v>47.916699999999999</v>
@@ -9397,7 +9394,7 @@
     </row>
     <row r="116" spans="11:13">
       <c r="K116" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L116">
         <v>-25.9696</v>
@@ -9408,7 +9405,7 @@
     </row>
     <row r="117" spans="11:13">
       <c r="K117" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L117">
         <v>18.086400000000001</v>
@@ -9419,7 +9416,7 @@
     </row>
     <row r="118" spans="11:13">
       <c r="K118" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="L118">
         <v>-13.9833</v>
@@ -9430,7 +9427,7 @@
     </row>
     <row r="119" spans="11:13">
       <c r="K119" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="L119">
         <v>3.1667000000000001</v>
@@ -9441,7 +9438,7 @@
     </row>
     <row r="120" spans="11:13">
       <c r="K120" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="L120">
         <v>-22.57</v>
@@ -9452,7 +9449,7 @@
     </row>
     <row r="121" spans="11:13">
       <c r="K121" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L121">
         <v>13.5167</v>
@@ -9463,7 +9460,7 @@
     </row>
     <row r="122" spans="11:13">
       <c r="K122" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="L122">
         <v>6.4432999999999998</v>
@@ -9474,7 +9471,7 @@
     </row>
     <row r="123" spans="11:13">
       <c r="K123" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="L123">
         <v>12.153</v>
@@ -9485,7 +9482,7 @@
     </row>
     <row r="124" spans="11:13">
       <c r="K124" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L124">
         <v>52.35</v>
@@ -9496,7 +9493,7 @@
     </row>
     <row r="125" spans="11:13">
       <c r="K125" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="L125">
         <v>59.916699999999999</v>
@@ -9507,7 +9504,7 @@
     </row>
     <row r="126" spans="11:13">
       <c r="K126" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L126">
         <v>27.716699999999999</v>
@@ -9518,7 +9515,7 @@
     </row>
     <row r="127" spans="11:13">
       <c r="K127" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="L127">
         <v>-36.848100000000002</v>
@@ -9529,7 +9526,7 @@
     </row>
     <row r="128" spans="11:13">
       <c r="K128" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="L128">
         <v>23.613299999999999</v>
@@ -9540,7 +9537,7 @@
     </row>
     <row r="129" spans="11:13">
       <c r="K129" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="L129">
         <v>24.87</v>
@@ -9551,7 +9548,7 @@
     </row>
     <row r="130" spans="11:13">
       <c r="K130" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="L130">
         <v>8.968</v>
@@ -9562,7 +9559,7 @@
     </row>
     <row r="131" spans="11:13">
       <c r="K131" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="L131">
         <v>-12.048</v>
@@ -9573,7 +9570,7 @@
     </row>
     <row r="132" spans="11:13">
       <c r="K132" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L132">
         <v>14.604200000000001</v>
@@ -9584,7 +9581,7 @@
     </row>
     <row r="133" spans="11:13">
       <c r="K133" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="L133">
         <v>-9.4647000000000006</v>
@@ -9595,7 +9592,7 @@
     </row>
     <row r="134" spans="11:13">
       <c r="K134" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L134">
         <v>52.25</v>
@@ -9606,7 +9603,7 @@
     </row>
     <row r="135" spans="11:13">
       <c r="K135" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="L135">
         <v>39.019399999999997</v>
@@ -9617,7 +9614,7 @@
     </row>
     <row r="136" spans="11:13">
       <c r="K136" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L136">
         <v>38.722700000000003</v>
@@ -9628,7 +9625,7 @@
     </row>
     <row r="137" spans="11:13">
       <c r="K137" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="L137">
         <v>-25.296399999999998</v>
@@ -9639,7 +9636,7 @@
     </row>
     <row r="138" spans="11:13">
       <c r="K138" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L138">
         <v>25.291899999999998</v>
@@ -9650,7 +9647,7 @@
     </row>
     <row r="139" spans="11:13">
       <c r="K139" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L139">
         <v>44.433399999999999</v>
@@ -9661,7 +9658,7 @@
     </row>
     <row r="140" spans="11:13">
       <c r="K140" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="L140">
         <v>55.749899999999997</v>
@@ -9672,7 +9669,7 @@
     </row>
     <row r="141" spans="11:13">
       <c r="K141" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="L141">
         <v>-1.9536</v>
@@ -9683,7 +9680,7 @@
     </row>
     <row r="142" spans="11:13">
       <c r="K142" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L142">
         <v>24.640799999999999</v>
@@ -9694,7 +9691,7 @@
     </row>
     <row r="143" spans="11:13">
       <c r="K143" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="L143">
         <v>15.588100000000001</v>
@@ -9705,7 +9702,7 @@
     </row>
     <row r="144" spans="11:13">
       <c r="K144" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L144">
         <v>14.7158</v>
@@ -9716,7 +9713,7 @@
     </row>
     <row r="145" spans="11:13">
       <c r="K145" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="L145">
         <v>1.2929999999999999</v>
@@ -9727,7 +9724,7 @@
     </row>
     <row r="146" spans="11:13">
       <c r="K146" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L146">
         <v>8.4700000000000006</v>
@@ -9738,7 +9735,7 @@
     </row>
     <row r="147" spans="11:13">
       <c r="K147" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L147">
         <v>13.71</v>
@@ -9749,7 +9746,7 @@
     </row>
     <row r="148" spans="11:13">
       <c r="K148" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L148">
         <v>2.0667</v>
@@ -9760,7 +9757,7 @@
     </row>
     <row r="149" spans="11:13">
       <c r="K149" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L149">
         <v>44.818600000000004</v>
@@ -9771,7 +9768,7 @@
     </row>
     <row r="150" spans="11:13">
       <c r="K150" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L150">
         <v>5.835</v>
@@ -9782,7 +9779,7 @@
     </row>
     <row r="151" spans="11:13">
       <c r="K151" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L151">
         <v>48.15</v>
@@ -9793,7 +9790,7 @@
     </row>
     <row r="152" spans="11:13">
       <c r="K152" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L152">
         <v>46.055300000000003</v>
@@ -9804,7 +9801,7 @@
     </row>
     <row r="153" spans="11:13">
       <c r="K153" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="L153">
         <v>59.3508</v>
@@ -9815,7 +9812,7 @@
     </row>
     <row r="154" spans="11:13">
       <c r="K154" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="L154">
         <v>-26.495000000000001</v>
@@ -9826,7 +9823,7 @@
     </row>
     <row r="155" spans="11:13">
       <c r="K155" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="L155">
         <v>33.5</v>
@@ -9837,7 +9834,7 @@
     </row>
     <row r="156" spans="11:13">
       <c r="K156" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="L156">
         <v>12.113099999999999</v>
@@ -9848,7 +9845,7 @@
     </row>
     <row r="157" spans="11:13">
       <c r="K157" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="L157">
         <v>6.1318999999999999</v>
@@ -9859,7 +9856,7 @@
     </row>
     <row r="158" spans="11:13">
       <c r="K158" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L158">
         <v>13.75</v>
@@ -9870,7 +9867,7 @@
     </row>
     <row r="159" spans="11:13">
       <c r="K159" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L159">
         <v>38.56</v>
@@ -9881,7 +9878,7 @@
     </row>
     <row r="160" spans="11:13">
       <c r="K160" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L160">
         <v>37.950000000000003</v>
@@ -9892,7 +9889,7 @@
     </row>
     <row r="161" spans="11:13">
       <c r="K161" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L161">
         <v>-8.5594000000000001</v>
@@ -9903,7 +9900,7 @@
     </row>
     <row r="162" spans="11:13">
       <c r="K162" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="L162">
         <v>10.651999999999999</v>
@@ -9914,7 +9911,7 @@
     </row>
     <row r="163" spans="11:13">
       <c r="K163" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L163">
         <v>36.802799999999998</v>
@@ -9925,7 +9922,7 @@
     </row>
     <row r="164" spans="11:13">
       <c r="K164" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="L164">
         <v>41.104999999999997</v>
@@ -9936,7 +9933,7 @@
     </row>
     <row r="165" spans="11:13">
       <c r="K165" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L165">
         <v>25.035799999999998</v>
@@ -9947,7 +9944,7 @@
     </row>
     <row r="166" spans="11:13">
       <c r="K166" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L166">
         <v>-6.8</v>
@@ -9958,7 +9955,7 @@
     </row>
     <row r="167" spans="11:13">
       <c r="K167" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="L167">
         <v>0.31669999999999998</v>
@@ -9969,7 +9966,7 @@
     </row>
     <row r="168" spans="11:13">
       <c r="K168" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L168">
         <v>50.434341000000003</v>
@@ -9980,7 +9977,7 @@
     </row>
     <row r="169" spans="11:13">
       <c r="K169" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L169">
         <v>-34.857999999999997</v>
@@ -9991,7 +9988,7 @@
     </row>
     <row r="170" spans="11:13">
       <c r="K170" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="L170">
         <v>44.963500000000003</v>
@@ -10002,7 +9999,7 @@
     </row>
     <row r="171" spans="11:13">
       <c r="K171" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="L171">
         <v>41.311700000000002</v>
@@ -10013,7 +10010,7 @@
     </row>
     <row r="172" spans="11:13">
       <c r="K172" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L172">
         <v>10.5</v>
@@ -10024,7 +10021,7 @@
     </row>
     <row r="173" spans="11:13">
       <c r="K173" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L173">
         <v>10.810582999999999</v>
@@ -10035,7 +10032,7 @@
     </row>
     <row r="174" spans="11:13">
       <c r="K174" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="L174">
         <v>15.354699999999999</v>
@@ -10046,7 +10043,7 @@
     </row>
     <row r="175" spans="11:13">
       <c r="K175" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="L175">
         <v>-26.17</v>
@@ -10057,7 +10054,7 @@
     </row>
     <row r="176" spans="11:13">
       <c r="K176" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L176">
         <v>-15.416600000000001</v>
@@ -10068,7 +10065,7 @@
     </row>
     <row r="177" spans="11:13">
       <c r="K177" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="L177">
         <v>-17.817799999999998</v>
@@ -10079,7 +10076,7 @@
     </row>
     <row r="178" spans="11:13">
       <c r="K178" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="L178">
         <v>4.8539000000000003</v>
@@ -10195,19 +10192,19 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K3" t="s">
         <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q3" t="s">
         <v>59</v>
@@ -10218,16 +10215,16 @@
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="K4" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="N4" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="P4" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -10235,16 +10232,16 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="K5" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N5" t="s">
         <v>63</v>
       </c>
       <c r="P5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q5" t="s">
         <v>59</v>
@@ -10255,13 +10252,13 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N6" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="Q6" t="s">
         <v>59</v>
@@ -10272,10 +10269,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I7" s="2"/>
       <c r="K7" t="s">
@@ -10285,7 +10282,7 @@
         <v>62</v>
       </c>
       <c r="P7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="Q7" t="s">
         <v>59</v>
@@ -10296,16 +10293,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H8" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K8" t="s">
         <v>37</v>
       </c>
       <c r="N8" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="Q8" t="s">
         <v>59</v>
@@ -10316,16 +10313,16 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H9" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K9" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="N9" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="Q9" t="s">
         <v>59</v>
@@ -10336,7 +10333,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H10" t="s">
         <v>110</v>
@@ -10345,7 +10342,7 @@
         <v>37</v>
       </c>
       <c r="N10" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="Q10" t="s">
         <v>59</v>
@@ -10356,7 +10353,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H11" t="s">
         <v>100</v>
@@ -10365,7 +10362,7 @@
         <v>37</v>
       </c>
       <c r="N11" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="Q11" t="s">
         <v>59</v>
@@ -10376,13 +10373,13 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K12" t="s">
         <v>9</v>
       </c>
       <c r="N12" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="Q12" t="s">
         <v>59</v>
@@ -10390,39 +10387,39 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B13" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I13" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="K13" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="N13" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="Q13" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="B14" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C14" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K14" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="N14" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="Q14" t="s">
         <v>59</v>
@@ -10492,10 +10489,10 @@
     </row>
     <row r="3" spans="3:13">
       <c r="C3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E3" t="s">
         <v>71</v>
@@ -10515,13 +10512,13 @@
         <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E4" t="s">
         <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I4" t="s">
         <v>73</v>
@@ -10549,12 +10546,12 @@
     </row>
     <row r="9" spans="3:13">
       <c r="C9" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="3:13">
       <c r="C10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -10588,7 +10585,7 @@
   <sheetData>
     <row r="3" spans="2:13" ht="17.25" thickBot="1">
       <c r="B3" s="3" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="15" thickTop="1" thickBot="1">
@@ -10599,13 +10596,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>0</v>
@@ -10626,7 +10623,7 @@
         <v>67</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="2:13">
@@ -10638,20 +10635,20 @@
         <v>MIN,IMP,U-H2P,P_All,P-HPL,R_Techs,S_Techs,T_Techs,A_Techs,I_Techs,I_Techs</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="E5" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="G5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H5" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="L5" t="s">
         <v>38</v>
@@ -10670,13 +10667,13 @@
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="G6" t="s">
         <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="L6" t="s">
         <v>38</v>
@@ -10695,13 +10692,13 @@
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="G7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H7" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="L7" t="s">
         <v>38</v>
@@ -10720,13 +10717,13 @@
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="G8" t="s">
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="L8" t="s">
         <v>38</v>
@@ -10737,17 +10734,17 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="G9" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H9" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="L9" t="s">
         <v>38</v>
@@ -10758,7 +10755,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E10" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
@@ -10768,7 +10765,7 @@
         <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="L10" t="s">
         <v>38</v>
@@ -10826,12 +10823,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -11005,12 +11002,12 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -11021,60 +11018,60 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G3" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="H3" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B4" t="s">
+        <v>809</v>
+      </c>
+      <c r="G4" t="s">
         <v>499</v>
       </c>
-      <c r="B4" t="s">
-        <v>813</v>
-      </c>
-      <c r="G4" t="s">
-        <v>503</v>
-      </c>
       <c r="H4" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B5" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -11085,10 +11082,10 @@
         <v>171</v>
       </c>
       <c r="G8" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="H8" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -11096,51 +11093,51 @@
         <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G9" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="H9" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="11" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B10" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G10" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H10" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B12" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -11166,7 +11163,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -11182,343 +11179,343 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B3" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="C3" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>765</v>
+      </c>
+      <c r="B4" t="s">
+        <v>732</v>
+      </c>
+      <c r="C4" t="s">
         <v>769</v>
-      </c>
-      <c r="B4" t="s">
-        <v>736</v>
-      </c>
-      <c r="C4" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B5" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C5" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B6" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C6" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B7" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C7" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B8" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C8" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B9" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C9" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B10" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C10" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B11" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C11" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B12" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C12" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B13" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C13" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B14" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C14" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B15" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C15" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B16" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="C16" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B17" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C17" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B18" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="C18" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B19" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C19" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B20" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C20" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B21" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C21" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B22" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C22" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B23" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C23" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B24" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C24" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B25" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C25" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B26" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C26" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B27" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="C27" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B28" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C28" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B29" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C29" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B30" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C30" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B31" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C31" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B32" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C32" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B33" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C33" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
   </sheetData>
@@ -11528,10 +11525,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ADB714-E6AA-4E3E-B77B-62B65BA0E218}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11871,68 +11868,68 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C31" t="s">
+        <v>190</v>
+      </c>
+      <c r="D31" t="s">
         <v>189</v>
-      </c>
-      <c r="D31" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C32" t="s">
-        <v>191</v>
+        <v>815</v>
       </c>
       <c r="D32" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C33" t="s">
-        <v>193</v>
+        <v>814</v>
       </c>
       <c r="D33" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="C34" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D34" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="C35" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D35" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="C36" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D36" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -11940,10 +11937,10 @@
         <v>170</v>
       </c>
       <c r="C37" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D37" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -11951,10 +11948,10 @@
         <v>170</v>
       </c>
       <c r="C38" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D38" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -11962,10 +11959,10 @@
         <v>170</v>
       </c>
       <c r="C39" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D39" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -11973,10 +11970,10 @@
         <v>170</v>
       </c>
       <c r="C40" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D40" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -11984,10 +11981,10 @@
         <v>170</v>
       </c>
       <c r="C41" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D41" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -11995,10 +11992,10 @@
         <v>170</v>
       </c>
       <c r="C42" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D42" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -12006,10 +12003,10 @@
         <v>170</v>
       </c>
       <c r="C43" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D43" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -12017,10 +12014,10 @@
         <v>170</v>
       </c>
       <c r="C44" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D44" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -12028,10 +12025,10 @@
         <v>170</v>
       </c>
       <c r="C45" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D45" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -12039,10 +12036,10 @@
         <v>170</v>
       </c>
       <c r="C46" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D46" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -12050,10 +12047,10 @@
         <v>170</v>
       </c>
       <c r="C47" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D47" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -12061,142 +12058,142 @@
         <v>170</v>
       </c>
       <c r="C48" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="D49" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="D50" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="C51" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D51" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>227</v>
       </c>
       <c r="C52" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="D52" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>227</v>
       </c>
       <c r="C53" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="D53" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C54" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D54" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C55" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D55" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C56" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D56" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C57" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D57" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>230</v>
+        <v>51</v>
       </c>
       <c r="C58" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D58" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>230</v>
+        <v>51</v>
       </c>
       <c r="C59" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D59" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>230</v>
+        <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>246</v>
+        <v>103</v>
       </c>
       <c r="D60" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -12204,10 +12201,10 @@
         <v>51</v>
       </c>
       <c r="C61" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="D61" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -12215,10 +12212,10 @@
         <v>51</v>
       </c>
       <c r="C62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
         <v>252</v>
-      </c>
-      <c r="D62" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -12226,7 +12223,7 @@
         <v>51</v>
       </c>
       <c r="C63" t="s">
-        <v>103</v>
+        <v>286</v>
       </c>
       <c r="D63" t="s">
         <v>253</v>
@@ -12237,7 +12234,7 @@
         <v>51</v>
       </c>
       <c r="C64" t="s">
-        <v>288</v>
+        <v>4</v>
       </c>
       <c r="D64" t="s">
         <v>254</v>
@@ -12248,7 +12245,7 @@
         <v>51</v>
       </c>
       <c r="C65" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="D65" t="s">
         <v>255</v>
@@ -12259,7 +12256,7 @@
         <v>51</v>
       </c>
       <c r="C66" t="s">
-        <v>289</v>
+        <v>121</v>
       </c>
       <c r="D66" t="s">
         <v>256</v>
@@ -12270,7 +12267,7 @@
         <v>51</v>
       </c>
       <c r="C67" t="s">
-        <v>4</v>
+        <v>287</v>
       </c>
       <c r="D67" t="s">
         <v>257</v>
@@ -12281,7 +12278,7 @@
         <v>51</v>
       </c>
       <c r="C68" t="s">
-        <v>119</v>
+        <v>288</v>
       </c>
       <c r="D68" t="s">
         <v>258</v>
@@ -12292,7 +12289,7 @@
         <v>51</v>
       </c>
       <c r="C69" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D69" t="s">
         <v>259</v>
@@ -12303,7 +12300,7 @@
         <v>51</v>
       </c>
       <c r="C70" t="s">
-        <v>290</v>
+        <v>99</v>
       </c>
       <c r="D70" t="s">
         <v>260</v>
@@ -12314,7 +12311,7 @@
         <v>51</v>
       </c>
       <c r="C71" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D71" t="s">
         <v>261</v>
@@ -12325,7 +12322,7 @@
         <v>51</v>
       </c>
       <c r="C72" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D72" t="s">
         <v>262</v>
@@ -12336,7 +12333,7 @@
         <v>51</v>
       </c>
       <c r="C73" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D73" t="s">
         <v>263</v>
@@ -12347,7 +12344,7 @@
         <v>51</v>
       </c>
       <c r="C74" t="s">
-        <v>292</v>
+        <v>97</v>
       </c>
       <c r="D74" t="s">
         <v>264</v>
@@ -12358,7 +12355,7 @@
         <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>117</v>
+        <v>290</v>
       </c>
       <c r="D75" t="s">
         <v>265</v>
@@ -12369,7 +12366,7 @@
         <v>51</v>
       </c>
       <c r="C76" t="s">
-        <v>98</v>
+        <v>291</v>
       </c>
       <c r="D76" t="s">
         <v>266</v>
@@ -12380,7 +12377,7 @@
         <v>51</v>
       </c>
       <c r="C77" t="s">
-        <v>97</v>
+        <v>292</v>
       </c>
       <c r="D77" t="s">
         <v>267</v>
@@ -12424,7 +12421,7 @@
         <v>51</v>
       </c>
       <c r="C81" t="s">
-        <v>296</v>
+        <v>125</v>
       </c>
       <c r="D81" t="s">
         <v>271</v>
@@ -12435,7 +12432,7 @@
         <v>51</v>
       </c>
       <c r="C82" t="s">
-        <v>297</v>
+        <v>127</v>
       </c>
       <c r="D82" t="s">
         <v>272</v>
@@ -12443,10 +12440,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C83" t="s">
-        <v>298</v>
+        <v>36</v>
       </c>
       <c r="D83" t="s">
         <v>273</v>
@@ -12457,7 +12454,7 @@
         <v>51</v>
       </c>
       <c r="C84" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="D84" t="s">
         <v>274</v>
@@ -12468,7 +12465,7 @@
         <v>51</v>
       </c>
       <c r="C85" t="s">
-        <v>127</v>
+        <v>3</v>
       </c>
       <c r="D85" t="s">
         <v>275</v>
@@ -12476,10 +12473,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C86" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="D86" t="s">
         <v>276</v>
@@ -12490,7 +12487,7 @@
         <v>51</v>
       </c>
       <c r="C87" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="D87" t="s">
         <v>277</v>
@@ -12501,7 +12498,7 @@
         <v>51</v>
       </c>
       <c r="C88" t="s">
-        <v>3</v>
+        <v>291</v>
       </c>
       <c r="D88" t="s">
         <v>278</v>
@@ -12512,7 +12509,7 @@
         <v>51</v>
       </c>
       <c r="C89" t="s">
-        <v>4</v>
+        <v>293</v>
       </c>
       <c r="D89" t="s">
         <v>279</v>
@@ -12523,7 +12520,7 @@
         <v>51</v>
       </c>
       <c r="C90" t="s">
-        <v>119</v>
+        <v>295</v>
       </c>
       <c r="D90" t="s">
         <v>280</v>
@@ -12534,7 +12531,7 @@
         <v>51</v>
       </c>
       <c r="C91" t="s">
-        <v>294</v>
+        <v>125</v>
       </c>
       <c r="D91" t="s">
         <v>281</v>
@@ -12545,7 +12542,7 @@
         <v>51</v>
       </c>
       <c r="C92" t="s">
-        <v>296</v>
+        <v>127</v>
       </c>
       <c r="D92" t="s">
         <v>282</v>
@@ -12556,7 +12553,7 @@
         <v>51</v>
       </c>
       <c r="C93" t="s">
-        <v>298</v>
+        <v>101</v>
       </c>
       <c r="D93" t="s">
         <v>283</v>
@@ -12567,7 +12564,7 @@
         <v>51</v>
       </c>
       <c r="C94" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D94" t="s">
         <v>284</v>
@@ -12575,79 +12572,46 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>51</v>
+        <v>813</v>
+      </c>
+      <c r="B95" t="s">
+        <v>296</v>
       </c>
       <c r="C95" t="s">
-        <v>127</v>
-      </c>
-      <c r="D95" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>51</v>
+        <v>813</v>
+      </c>
+      <c r="B96" t="s">
+        <v>298</v>
       </c>
       <c r="C96" t="s">
-        <v>101</v>
-      </c>
-      <c r="D96" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>51</v>
+        <v>775</v>
       </c>
       <c r="C97" t="s">
-        <v>115</v>
+        <v>776</v>
       </c>
       <c r="D97" t="s">
-        <v>287</v>
+        <v>778</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>301</v>
-      </c>
-      <c r="B98" t="s">
-        <v>299</v>
+        <v>775</v>
       </c>
       <c r="C98" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
-        <v>301</v>
-      </c>
-      <c r="B99" t="s">
-        <v>302</v>
-      </c>
-      <c r="C99" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
-        <v>779</v>
-      </c>
-      <c r="C100" t="s">
-        <v>780</v>
-      </c>
-      <c r="D100" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" t="s">
-        <v>779</v>
-      </c>
-      <c r="C101" t="s">
-        <v>781</v>
-      </c>
-      <c r="D101" t="s">
-        <v>781</v>
+        <v>777</v>
+      </c>
+      <c r="D98" t="s">
+        <v>777</v>
       </c>
     </row>
   </sheetData>

--- a/ReportDefs-TIMES-GEO.xlsx
+++ b/ReportDefs-TIMES-GEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\TIMES-GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B8075A-CA86-40B1-B9F0-FF8EE4C8B7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CD55E9-953F-4AEB-981D-07CC2EC88818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="816">
   <si>
     <t>Unit</t>
   </si>
@@ -1042,12 +1042,6 @@
     <t>Pjneg</t>
   </si>
   <si>
-    <t>MIN,IMP</t>
-  </si>
-  <si>
-    <t>Primary energy production</t>
-  </si>
-  <si>
     <t>P-HPL,P_All</t>
   </si>
   <si>
@@ -2555,6 +2549,12 @@
   </si>
   <si>
     <t>Road passenger</t>
+  </si>
+  <si>
+    <t>MIN,TRD_Endo</t>
+  </si>
+  <si>
+    <t>Primary energy consumption</t>
   </si>
 </sst>
 </file>
@@ -3207,7 +3207,7 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="H1" t="s">
         <v>91</v>
@@ -3279,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -3314,7 +3314,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="Q6">
         <v>0.1</v>
@@ -3335,7 +3335,7 @@
         <v>2</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -3370,7 +3370,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="Q7">
         <v>7.4999999999999997E-2</v>
@@ -3391,7 +3391,7 @@
         <v>3</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -3426,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="Q8">
         <v>0.05</v>
@@ -3447,7 +3447,7 @@
         <v>4</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="Q9">
         <v>0.02</v>
@@ -3503,7 +3503,7 @@
         <v>5</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -3538,7 +3538,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="Q10">
         <v>0.01</v>
@@ -3588,7 +3588,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="Q11">
         <v>0.1</v>
@@ -3638,7 +3638,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="Q12">
         <v>7.4999999999999997E-2</v>
@@ -3688,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="Q13">
         <v>0.05</v>
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="Q14">
         <v>0.02</v>
@@ -3788,7 +3788,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="Q15">
         <v>0.01</v>
@@ -3838,7 +3838,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="Q16">
         <v>0.1</v>
@@ -3888,7 +3888,7 @@
         <v>2</v>
       </c>
       <c r="P17" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="Q17">
         <v>7.4999999999999997E-2</v>
@@ -3938,7 +3938,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="Q18">
         <v>0.05</v>
@@ -3988,7 +3988,7 @@
         <v>2</v>
       </c>
       <c r="P19" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="Q19">
         <v>0.02</v>
@@ -4038,7 +4038,7 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="Q20">
         <v>0.01</v>
@@ -4088,7 +4088,7 @@
         <v>2</v>
       </c>
       <c r="P21" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="Q21">
         <v>0.1</v>
@@ -4138,7 +4138,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="Q22">
         <v>7.4999999999999997E-2</v>
@@ -4188,7 +4188,7 @@
         <v>2</v>
       </c>
       <c r="P23" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="Q23">
         <v>0.05</v>
@@ -4238,7 +4238,7 @@
         <v>2</v>
       </c>
       <c r="P24" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="Q24">
         <v>0.02</v>
@@ -4288,7 +4288,7 @@
         <v>2</v>
       </c>
       <c r="P25" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="Q25">
         <v>0.01</v>
@@ -4338,7 +4338,7 @@
         <v>3</v>
       </c>
       <c r="P26" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="Q26">
         <v>0.1</v>
@@ -4388,7 +4388,7 @@
         <v>3</v>
       </c>
       <c r="P27" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="Q27">
         <v>7.4999999999999997E-2</v>
@@ -4438,7 +4438,7 @@
         <v>3</v>
       </c>
       <c r="P28" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="Q28">
         <v>0.05</v>
@@ -4488,7 +4488,7 @@
         <v>3</v>
       </c>
       <c r="P29" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="Q29">
         <v>0.02</v>
@@ -4538,7 +4538,7 @@
         <v>3</v>
       </c>
       <c r="P30" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="Q30">
         <v>0.01</v>
@@ -4588,7 +4588,7 @@
         <v>3</v>
       </c>
       <c r="P31" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="Q31">
         <v>0.1</v>
@@ -4638,7 +4638,7 @@
         <v>3</v>
       </c>
       <c r="P32" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="Q32">
         <v>7.4999999999999997E-2</v>
@@ -4688,7 +4688,7 @@
         <v>3</v>
       </c>
       <c r="P33" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="Q33">
         <v>0.05</v>
@@ -4738,7 +4738,7 @@
         <v>3</v>
       </c>
       <c r="P34" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="Q34">
         <v>0.02</v>
@@ -4788,7 +4788,7 @@
         <v>3</v>
       </c>
       <c r="P35" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="Q35">
         <v>0.01</v>
@@ -4838,7 +4838,7 @@
         <v>4</v>
       </c>
       <c r="P36" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="Q36">
         <v>0.1</v>
@@ -4888,7 +4888,7 @@
         <v>4</v>
       </c>
       <c r="P37" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="Q37">
         <v>7.4999999999999997E-2</v>
@@ -4938,7 +4938,7 @@
         <v>4</v>
       </c>
       <c r="P38" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="Q38">
         <v>0.05</v>
@@ -4988,7 +4988,7 @@
         <v>4</v>
       </c>
       <c r="P39" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="Q39">
         <v>0.02</v>
@@ -5038,7 +5038,7 @@
         <v>4</v>
       </c>
       <c r="P40" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="Q40">
         <v>0.01</v>
@@ -5088,7 +5088,7 @@
         <v>4</v>
       </c>
       <c r="P41" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="Q41">
         <v>0.1</v>
@@ -5138,7 +5138,7 @@
         <v>4</v>
       </c>
       <c r="P42" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="Q42">
         <v>7.4999999999999997E-2</v>
@@ -5188,7 +5188,7 @@
         <v>4</v>
       </c>
       <c r="P43" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="Q43">
         <v>0.05</v>
@@ -5238,7 +5238,7 @@
         <v>4</v>
       </c>
       <c r="P44" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="Q44">
         <v>0.02</v>
@@ -5288,7 +5288,7 @@
         <v>4</v>
       </c>
       <c r="P45" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="Q45">
         <v>0.01</v>
@@ -5338,7 +5338,7 @@
         <v>5</v>
       </c>
       <c r="P46" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="Q46">
         <v>0.1</v>
@@ -5388,7 +5388,7 @@
         <v>5</v>
       </c>
       <c r="P47" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="Q47">
         <v>7.4999999999999997E-2</v>
@@ -5438,7 +5438,7 @@
         <v>5</v>
       </c>
       <c r="P48" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="Q48">
         <v>0.05</v>
@@ -5488,7 +5488,7 @@
         <v>5</v>
       </c>
       <c r="P49" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="Q49">
         <v>0.02</v>
@@ -5538,7 +5538,7 @@
         <v>5</v>
       </c>
       <c r="P50" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="Q50">
         <v>0.01</v>
@@ -5588,7 +5588,7 @@
         <v>5</v>
       </c>
       <c r="P51" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="Q51">
         <v>0.1</v>
@@ -5638,7 +5638,7 @@
         <v>5</v>
       </c>
       <c r="P52" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="Q52">
         <v>7.4999999999999997E-2</v>
@@ -5688,7 +5688,7 @@
         <v>5</v>
       </c>
       <c r="P53" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="Q53">
         <v>0.05</v>
@@ -5738,7 +5738,7 @@
         <v>5</v>
       </c>
       <c r="P54" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="Q54">
         <v>0.02</v>
@@ -5788,7 +5788,7 @@
         <v>5</v>
       </c>
       <c r="P55" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="Q55">
         <v>0.01</v>
@@ -6174,7 +6174,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6182,19 +6182,19 @@
         <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6202,19 +6202,19 @@
         <v>101</v>
       </c>
       <c r="B3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D3" t="s">
         <v>515</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>516</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>517</v>
-      </c>
-      <c r="E3" t="s">
-        <v>518</v>
-      </c>
-      <c r="F3" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6222,19 +6222,19 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C4" t="s">
+        <v>519</v>
+      </c>
+      <c r="D4" t="s">
         <v>520</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>521</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>522</v>
-      </c>
-      <c r="E4" t="s">
-        <v>523</v>
-      </c>
-      <c r="F4" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6251,10 +6251,10 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6262,19 +6262,19 @@
         <v>106</v>
       </c>
       <c r="B6" t="s">
+        <v>525</v>
+      </c>
+      <c r="C6" t="s">
+        <v>526</v>
+      </c>
+      <c r="D6" t="s">
         <v>527</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>528</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>529</v>
-      </c>
-      <c r="E6" t="s">
-        <v>530</v>
-      </c>
-      <c r="F6" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6282,19 +6282,19 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>530</v>
+      </c>
+      <c r="C7" t="s">
+        <v>531</v>
+      </c>
+      <c r="D7" t="s">
         <v>532</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>533</v>
       </c>
-      <c r="D7" t="s">
-        <v>534</v>
-      </c>
-      <c r="E7" t="s">
-        <v>535</v>
-      </c>
       <c r="F7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6302,19 +6302,19 @@
         <v>109</v>
       </c>
       <c r="B8" t="s">
+        <v>534</v>
+      </c>
+      <c r="C8" t="s">
+        <v>535</v>
+      </c>
+      <c r="D8" t="s">
         <v>536</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>537</v>
       </c>
-      <c r="D8" t="s">
-        <v>538</v>
-      </c>
-      <c r="E8" t="s">
-        <v>539</v>
-      </c>
       <c r="F8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6322,19 +6322,19 @@
         <v>111</v>
       </c>
       <c r="B9" t="s">
+        <v>538</v>
+      </c>
+      <c r="C9" t="s">
+        <v>539</v>
+      </c>
+      <c r="D9" t="s">
         <v>540</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>541</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>542</v>
-      </c>
-      <c r="E9" t="s">
-        <v>543</v>
-      </c>
-      <c r="F9" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6342,19 +6342,19 @@
         <v>113</v>
       </c>
       <c r="B10" t="s">
+        <v>543</v>
+      </c>
+      <c r="C10" t="s">
+        <v>544</v>
+      </c>
+      <c r="D10" t="s">
         <v>545</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>546</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>547</v>
-      </c>
-      <c r="E10" t="s">
-        <v>548</v>
-      </c>
-      <c r="F10" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6362,7 +6362,7 @@
         <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C11" t="s">
         <v>115</v>
@@ -6371,10 +6371,10 @@
         <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6382,19 +6382,19 @@
         <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C12" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D12" t="s">
         <v>117</v>
       </c>
       <c r="E12" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F12" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6402,19 +6402,19 @@
         <v>119</v>
       </c>
       <c r="B13" t="s">
+        <v>555</v>
+      </c>
+      <c r="C13" t="s">
+        <v>556</v>
+      </c>
+      <c r="D13" t="s">
         <v>557</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>558</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>559</v>
-      </c>
-      <c r="E13" t="s">
-        <v>560</v>
-      </c>
-      <c r="F13" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6422,19 +6422,19 @@
         <v>121</v>
       </c>
       <c r="B14" t="s">
+        <v>560</v>
+      </c>
+      <c r="C14" t="s">
+        <v>561</v>
+      </c>
+      <c r="D14" t="s">
         <v>562</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>563</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>564</v>
-      </c>
-      <c r="E14" t="s">
-        <v>565</v>
-      </c>
-      <c r="F14" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6442,19 +6442,19 @@
         <v>123</v>
       </c>
       <c r="B15" t="s">
+        <v>565</v>
+      </c>
+      <c r="C15" t="s">
+        <v>566</v>
+      </c>
+      <c r="D15" t="s">
         <v>567</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>568</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>569</v>
-      </c>
-      <c r="E15" t="s">
-        <v>570</v>
-      </c>
-      <c r="F15" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6462,19 +6462,19 @@
         <v>125</v>
       </c>
       <c r="B16" t="s">
+        <v>570</v>
+      </c>
+      <c r="C16" t="s">
+        <v>571</v>
+      </c>
+      <c r="D16" t="s">
         <v>572</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>573</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>574</v>
-      </c>
-      <c r="E16" t="s">
-        <v>575</v>
-      </c>
-      <c r="F16" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6482,19 +6482,19 @@
         <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C17" t="s">
         <v>127</v>
       </c>
       <c r="D17" t="s">
+        <v>576</v>
+      </c>
+      <c r="E17" t="s">
+        <v>577</v>
+      </c>
+      <c r="F17" t="s">
         <v>578</v>
-      </c>
-      <c r="E17" t="s">
-        <v>579</v>
-      </c>
-      <c r="F17" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6502,19 +6502,19 @@
         <v>129</v>
       </c>
       <c r="B18" t="s">
+        <v>579</v>
+      </c>
+      <c r="C18" t="s">
+        <v>580</v>
+      </c>
+      <c r="D18" t="s">
         <v>581</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>582</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>583</v>
-      </c>
-      <c r="E18" t="s">
-        <v>584</v>
-      </c>
-      <c r="F18" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6522,19 +6522,19 @@
         <v>131</v>
       </c>
       <c r="B19" t="s">
+        <v>584</v>
+      </c>
+      <c r="C19" t="s">
+        <v>585</v>
+      </c>
+      <c r="D19" t="s">
         <v>586</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>587</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>588</v>
-      </c>
-      <c r="E19" t="s">
-        <v>589</v>
-      </c>
-      <c r="F19" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6542,19 +6542,19 @@
         <v>133</v>
       </c>
       <c r="B20" t="s">
+        <v>589</v>
+      </c>
+      <c r="C20" t="s">
+        <v>590</v>
+      </c>
+      <c r="D20" t="s">
         <v>591</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>592</v>
       </c>
-      <c r="D20" t="s">
-        <v>593</v>
-      </c>
-      <c r="E20" t="s">
-        <v>594</v>
-      </c>
       <c r="F20" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6591,10 +6591,10 @@
         <v>137</v>
       </c>
       <c r="E22" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F22" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6611,10 +6611,10 @@
         <v>139</v>
       </c>
       <c r="E23" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F23" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6631,10 +6631,10 @@
         <v>141</v>
       </c>
       <c r="E24" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6642,19 +6642,19 @@
         <v>171</v>
       </c>
       <c r="B25" t="s">
+        <v>599</v>
+      </c>
+      <c r="C25" t="s">
+        <v>600</v>
+      </c>
+      <c r="D25" t="s">
         <v>601</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>602</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>603</v>
-      </c>
-      <c r="E25" t="s">
-        <v>604</v>
-      </c>
-      <c r="F25" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6662,19 +6662,19 @@
         <v>172</v>
       </c>
       <c r="B26" t="s">
+        <v>604</v>
+      </c>
+      <c r="C26" t="s">
+        <v>605</v>
+      </c>
+      <c r="D26" t="s">
         <v>606</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>607</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>608</v>
-      </c>
-      <c r="E26" t="s">
-        <v>609</v>
-      </c>
-      <c r="F26" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6682,19 +6682,19 @@
         <v>173</v>
       </c>
       <c r="B27" t="s">
+        <v>609</v>
+      </c>
+      <c r="C27" t="s">
+        <v>610</v>
+      </c>
+      <c r="D27" t="s">
         <v>611</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>612</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
         <v>613</v>
-      </c>
-      <c r="E27" t="s">
-        <v>614</v>
-      </c>
-      <c r="F27" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6702,19 +6702,19 @@
         <v>174</v>
       </c>
       <c r="B28" t="s">
+        <v>614</v>
+      </c>
+      <c r="C28" t="s">
+        <v>615</v>
+      </c>
+      <c r="D28" t="s">
         <v>616</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>617</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>618</v>
-      </c>
-      <c r="E28" t="s">
-        <v>619</v>
-      </c>
-      <c r="F28" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6722,19 +6722,19 @@
         <v>175</v>
       </c>
       <c r="B29" t="s">
+        <v>619</v>
+      </c>
+      <c r="C29" t="s">
+        <v>620</v>
+      </c>
+      <c r="D29" t="s">
         <v>621</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>622</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>623</v>
-      </c>
-      <c r="E29" t="s">
-        <v>624</v>
-      </c>
-      <c r="F29" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6742,19 +6742,19 @@
         <v>176</v>
       </c>
       <c r="B30" t="s">
+        <v>624</v>
+      </c>
+      <c r="C30" t="s">
+        <v>625</v>
+      </c>
+      <c r="D30" t="s">
         <v>626</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
         <v>627</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
         <v>628</v>
-      </c>
-      <c r="E30" t="s">
-        <v>629</v>
-      </c>
-      <c r="F30" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6762,19 +6762,19 @@
         <v>177</v>
       </c>
       <c r="B31" t="s">
+        <v>629</v>
+      </c>
+      <c r="C31" t="s">
+        <v>630</v>
+      </c>
+      <c r="D31" t="s">
         <v>631</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>632</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>633</v>
-      </c>
-      <c r="E31" t="s">
-        <v>634</v>
-      </c>
-      <c r="F31" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6782,19 +6782,19 @@
         <v>178</v>
       </c>
       <c r="B32" t="s">
+        <v>634</v>
+      </c>
+      <c r="C32" t="s">
+        <v>635</v>
+      </c>
+      <c r="D32" t="s">
         <v>636</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E32" t="s">
         <v>637</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
         <v>638</v>
-      </c>
-      <c r="E32" t="s">
-        <v>639</v>
-      </c>
-      <c r="F32" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6822,19 +6822,19 @@
         <v>179</v>
       </c>
       <c r="B34" t="s">
+        <v>639</v>
+      </c>
+      <c r="C34" t="s">
+        <v>640</v>
+      </c>
+      <c r="D34" t="s">
         <v>641</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>642</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
         <v>643</v>
-      </c>
-      <c r="E34" t="s">
-        <v>644</v>
-      </c>
-      <c r="F34" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6842,19 +6842,19 @@
         <v>180</v>
       </c>
       <c r="B35" t="s">
+        <v>644</v>
+      </c>
+      <c r="C35" t="s">
+        <v>645</v>
+      </c>
+      <c r="D35" t="s">
         <v>646</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>647</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
         <v>648</v>
-      </c>
-      <c r="E35" t="s">
-        <v>649</v>
-      </c>
-      <c r="F35" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -6862,19 +6862,19 @@
         <v>181</v>
       </c>
       <c r="B36" t="s">
+        <v>649</v>
+      </c>
+      <c r="C36" t="s">
+        <v>650</v>
+      </c>
+      <c r="D36" t="s">
         <v>651</v>
       </c>
-      <c r="C36" t="s">
+      <c r="E36" t="s">
         <v>652</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F36" t="s">
         <v>653</v>
-      </c>
-      <c r="E36" t="s">
-        <v>654</v>
-      </c>
-      <c r="F36" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -6882,19 +6882,19 @@
         <v>182</v>
       </c>
       <c r="B37" t="s">
+        <v>654</v>
+      </c>
+      <c r="C37" t="s">
+        <v>655</v>
+      </c>
+      <c r="D37" t="s">
         <v>656</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" t="s">
         <v>657</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
         <v>658</v>
-      </c>
-      <c r="E37" t="s">
-        <v>659</v>
-      </c>
-      <c r="F37" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -6902,19 +6902,19 @@
         <v>183</v>
       </c>
       <c r="B38" t="s">
+        <v>659</v>
+      </c>
+      <c r="C38" t="s">
+        <v>660</v>
+      </c>
+      <c r="D38" t="s">
         <v>661</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>662</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
         <v>663</v>
-      </c>
-      <c r="E38" t="s">
-        <v>664</v>
-      </c>
-      <c r="F38" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -6922,19 +6922,19 @@
         <v>184</v>
       </c>
       <c r="B39" t="s">
+        <v>664</v>
+      </c>
+      <c r="C39" t="s">
+        <v>665</v>
+      </c>
+      <c r="D39" t="s">
         <v>666</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>667</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
         <v>668</v>
-      </c>
-      <c r="E39" t="s">
-        <v>669</v>
-      </c>
-      <c r="F39" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -6942,19 +6942,19 @@
         <v>187</v>
       </c>
       <c r="B40" t="s">
+        <v>669</v>
+      </c>
+      <c r="C40" t="s">
+        <v>670</v>
+      </c>
+      <c r="D40" t="s">
         <v>671</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
         <v>672</v>
       </c>
-      <c r="D40" t="s">
+      <c r="F40" t="s">
         <v>673</v>
-      </c>
-      <c r="E40" t="s">
-        <v>674</v>
-      </c>
-      <c r="F40" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7002,19 +7002,19 @@
         <v>191</v>
       </c>
       <c r="B43" t="s">
+        <v>674</v>
+      </c>
+      <c r="C43" t="s">
+        <v>675</v>
+      </c>
+      <c r="D43" t="s">
         <v>676</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
         <v>677</v>
       </c>
-      <c r="D43" t="s">
+      <c r="F43" t="s">
         <v>678</v>
-      </c>
-      <c r="E43" t="s">
-        <v>679</v>
-      </c>
-      <c r="F43" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7022,19 +7022,19 @@
         <v>192</v>
       </c>
       <c r="B44" t="s">
+        <v>679</v>
+      </c>
+      <c r="C44" t="s">
+        <v>680</v>
+      </c>
+      <c r="D44" t="s">
         <v>681</v>
       </c>
-      <c r="C44" t="s">
+      <c r="E44" t="s">
         <v>682</v>
       </c>
-      <c r="D44" t="s">
+      <c r="F44" t="s">
         <v>683</v>
-      </c>
-      <c r="E44" t="s">
-        <v>684</v>
-      </c>
-      <c r="F44" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7082,19 +7082,19 @@
         <v>198</v>
       </c>
       <c r="B47" t="s">
+        <v>684</v>
+      </c>
+      <c r="C47" t="s">
+        <v>685</v>
+      </c>
+      <c r="D47" t="s">
         <v>686</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
         <v>687</v>
       </c>
-      <c r="D47" t="s">
+      <c r="F47" t="s">
         <v>688</v>
-      </c>
-      <c r="E47" t="s">
-        <v>689</v>
-      </c>
-      <c r="F47" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7102,19 +7102,19 @@
         <v>200</v>
       </c>
       <c r="B48" t="s">
+        <v>689</v>
+      </c>
+      <c r="C48" t="s">
+        <v>690</v>
+      </c>
+      <c r="D48" t="s">
         <v>691</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
         <v>692</v>
       </c>
-      <c r="D48" t="s">
+      <c r="F48" t="s">
         <v>693</v>
-      </c>
-      <c r="E48" t="s">
-        <v>694</v>
-      </c>
-      <c r="F48" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7122,19 +7122,19 @@
         <v>202</v>
       </c>
       <c r="B49" t="s">
+        <v>694</v>
+      </c>
+      <c r="C49" t="s">
+        <v>695</v>
+      </c>
+      <c r="D49" t="s">
         <v>696</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
         <v>697</v>
       </c>
-      <c r="D49" t="s">
+      <c r="F49" t="s">
         <v>698</v>
-      </c>
-      <c r="E49" t="s">
-        <v>699</v>
-      </c>
-      <c r="F49" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7202,19 +7202,19 @@
         <v>210</v>
       </c>
       <c r="B53" t="s">
+        <v>699</v>
+      </c>
+      <c r="C53" t="s">
+        <v>700</v>
+      </c>
+      <c r="D53" t="s">
         <v>701</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
         <v>702</v>
       </c>
-      <c r="D53" t="s">
+      <c r="F53" t="s">
         <v>703</v>
-      </c>
-      <c r="E53" t="s">
-        <v>704</v>
-      </c>
-      <c r="F53" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7262,19 +7262,19 @@
         <v>216</v>
       </c>
       <c r="B56" t="s">
+        <v>704</v>
+      </c>
+      <c r="C56" t="s">
+        <v>705</v>
+      </c>
+      <c r="D56" t="s">
         <v>706</v>
       </c>
-      <c r="C56" t="s">
+      <c r="E56" t="s">
         <v>707</v>
       </c>
-      <c r="D56" t="s">
-        <v>708</v>
-      </c>
-      <c r="E56" t="s">
-        <v>709</v>
-      </c>
       <c r="F56" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7322,19 +7322,19 @@
         <v>222</v>
       </c>
       <c r="B59" t="s">
+        <v>708</v>
+      </c>
+      <c r="C59" t="s">
+        <v>709</v>
+      </c>
+      <c r="D59" t="s">
         <v>710</v>
       </c>
-      <c r="C59" t="s">
+      <c r="E59" t="s">
         <v>711</v>
       </c>
-      <c r="D59" t="s">
+      <c r="F59" t="s">
         <v>712</v>
-      </c>
-      <c r="E59" t="s">
-        <v>713</v>
-      </c>
-      <c r="F59" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7382,19 +7382,19 @@
         <v>244</v>
       </c>
       <c r="B62" t="s">
+        <v>713</v>
+      </c>
+      <c r="C62" t="s">
+        <v>714</v>
+      </c>
+      <c r="D62" t="s">
         <v>715</v>
       </c>
-      <c r="C62" t="s">
+      <c r="E62" t="s">
         <v>716</v>
       </c>
-      <c r="D62" t="s">
+      <c r="F62" t="s">
         <v>717</v>
-      </c>
-      <c r="E62" t="s">
-        <v>718</v>
-      </c>
-      <c r="F62" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7402,19 +7402,19 @@
         <v>245</v>
       </c>
       <c r="B63" t="s">
+        <v>718</v>
+      </c>
+      <c r="C63" t="s">
+        <v>718</v>
+      </c>
+      <c r="D63" t="s">
+        <v>719</v>
+      </c>
+      <c r="E63" t="s">
         <v>720</v>
       </c>
-      <c r="C63" t="s">
-        <v>720</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="F63" t="s">
         <v>721</v>
-      </c>
-      <c r="E63" t="s">
-        <v>722</v>
-      </c>
-      <c r="F63" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7422,19 +7422,19 @@
         <v>231</v>
       </c>
       <c r="B64" t="s">
+        <v>722</v>
+      </c>
+      <c r="C64" t="s">
+        <v>723</v>
+      </c>
+      <c r="D64" t="s">
         <v>724</v>
       </c>
-      <c r="C64" t="s">
+      <c r="E64" t="s">
         <v>725</v>
       </c>
-      <c r="D64" t="s">
+      <c r="F64" t="s">
         <v>726</v>
-      </c>
-      <c r="E64" t="s">
-        <v>727</v>
-      </c>
-      <c r="F64" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8088,7 +8088,7 @@
     </row>
     <row r="3" spans="1:13" ht="15" thickTop="1" thickBot="1">
       <c r="A3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -8112,7 +8112,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
@@ -8125,7 +8125,7 @@
         <v>3.1709791983764584</v>
       </c>
       <c r="K4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L4">
         <v>36.779029999999999</v>
@@ -8136,10 +8136,10 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C5" t="s">
         <v>77</v>
@@ -8149,7 +8149,7 @@
         <v>3.6</v>
       </c>
       <c r="K5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L5">
         <v>-8.8383000000000003</v>
@@ -8160,7 +8160,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
@@ -8172,7 +8172,7 @@
         <v>100</v>
       </c>
       <c r="K6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L6">
         <v>41.327500000000001</v>
@@ -8183,7 +8183,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B7" t="s">
         <v>310</v>
@@ -8195,7 +8195,7 @@
         <v>-1</v>
       </c>
       <c r="K7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L7">
         <v>25.23</v>
@@ -8206,7 +8206,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="K8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="L8">
         <v>-34.602499999999999</v>
@@ -8217,7 +8217,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="K9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L9">
         <v>40.181199999999997</v>
@@ -8305,7 +8305,7 @@
     </row>
     <row r="17" spans="11:13">
       <c r="K17" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L17">
         <v>48.2</v>
@@ -8316,7 +8316,7 @@
     </row>
     <row r="18" spans="11:13">
       <c r="K18" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L18">
         <v>40.395299999999999</v>
@@ -8327,7 +8327,7 @@
     </row>
     <row r="19" spans="11:13">
       <c r="K19" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L19">
         <v>-3.3761000000000001</v>
@@ -8338,7 +8338,7 @@
     </row>
     <row r="20" spans="11:13">
       <c r="K20" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L20">
         <v>50.833300000000001</v>
@@ -8349,7 +8349,7 @@
     </row>
     <row r="21" spans="11:13">
       <c r="K21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L21">
         <v>7.1904000000000003</v>
@@ -8360,7 +8360,7 @@
     </row>
     <row r="22" spans="11:13">
       <c r="K22" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L22">
         <v>12.3703</v>
@@ -8371,7 +8371,7 @@
     </row>
     <row r="23" spans="11:13">
       <c r="K23" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L23">
         <v>23.723099999999999</v>
@@ -8382,7 +8382,7 @@
     </row>
     <row r="24" spans="11:13">
       <c r="K24" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L24">
         <v>42.683300000000003</v>
@@ -8393,7 +8393,7 @@
     </row>
     <row r="25" spans="11:13">
       <c r="K25" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L25">
         <v>26.2361</v>
@@ -8404,7 +8404,7 @@
     </row>
     <row r="26" spans="11:13">
       <c r="K26" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L26">
         <v>43.85</v>
@@ -8415,7 +8415,7 @@
     </row>
     <row r="27" spans="11:13">
       <c r="K27" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L27">
         <v>53.9</v>
@@ -8426,7 +8426,7 @@
     </row>
     <row r="28" spans="11:13">
       <c r="K28" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L28">
         <v>17.498699999999999</v>
@@ -8437,7 +8437,7 @@
     </row>
     <row r="29" spans="11:13">
       <c r="K29" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L29">
         <v>-17.753900000000002</v>
@@ -8448,7 +8448,7 @@
     </row>
     <row r="30" spans="11:13">
       <c r="K30" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="L30">
         <v>-1.45</v>
@@ -8459,7 +8459,7 @@
     </row>
     <row r="31" spans="11:13">
       <c r="K31" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L31">
         <v>4.8833000000000002</v>
@@ -8470,7 +8470,7 @@
     </row>
     <row r="32" spans="11:13">
       <c r="K32" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L32">
         <v>27.472999999999999</v>
@@ -8481,7 +8481,7 @@
     </row>
     <row r="33" spans="11:13">
       <c r="K33" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="L33">
         <v>-24.6463</v>
@@ -8492,7 +8492,7 @@
     </row>
     <row r="34" spans="11:13">
       <c r="K34" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L34">
         <v>4.3666</v>
@@ -8503,7 +8503,7 @@
     </row>
     <row r="35" spans="11:13">
       <c r="K35" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="L35">
         <v>43.7</v>
@@ -8514,7 +8514,7 @@
     </row>
     <row r="36" spans="11:13">
       <c r="K36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L36">
         <v>47.38</v>
@@ -8525,7 +8525,7 @@
     </row>
     <row r="37" spans="11:13">
       <c r="K37" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="L37">
         <v>-33.450000000000003</v>
@@ -8536,7 +8536,7 @@
     </row>
     <row r="38" spans="11:13">
       <c r="K38" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="L38">
         <v>39.928899999999999</v>
@@ -8547,7 +8547,7 @@
     </row>
     <row r="39" spans="11:13">
       <c r="K39" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L39">
         <v>5.32</v>
@@ -8558,7 +8558,7 @@
     </row>
     <row r="40" spans="11:13">
       <c r="K40" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L40">
         <v>3.8666999999999998</v>
@@ -8569,7 +8569,7 @@
     </row>
     <row r="41" spans="11:13">
       <c r="K41" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L41">
         <v>-4.3296999999999999</v>
@@ -8580,7 +8580,7 @@
     </row>
     <row r="42" spans="11:13">
       <c r="K42" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L42">
         <v>-4.2591999999999999</v>
@@ -8591,7 +8591,7 @@
     </row>
     <row r="43" spans="11:13">
       <c r="K43" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L43">
         <v>4.5964</v>
@@ -8602,7 +8602,7 @@
     </row>
     <row r="44" spans="11:13">
       <c r="K44" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="L44">
         <v>9.9347390000000004</v>
@@ -8613,7 +8613,7 @@
     </row>
     <row r="45" spans="11:13">
       <c r="K45" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L45">
         <v>23.132000000000001</v>
@@ -8624,7 +8624,7 @@
     </row>
     <row r="46" spans="11:13">
       <c r="K46" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L46">
         <v>35.166699999999999</v>
@@ -8635,7 +8635,7 @@
     </row>
     <row r="47" spans="11:13">
       <c r="K47" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="L47">
         <v>50.083300000000001</v>
@@ -8646,7 +8646,7 @@
     </row>
     <row r="48" spans="11:13">
       <c r="K48" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L48">
         <v>52.521799999999999</v>
@@ -8657,7 +8657,7 @@
     </row>
     <row r="49" spans="11:13">
       <c r="K49" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L49">
         <v>11.595000000000001</v>
@@ -8668,7 +8668,7 @@
     </row>
     <row r="50" spans="11:13">
       <c r="K50" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="L50">
         <v>55.678600000000003</v>
@@ -8679,7 +8679,7 @@
     </row>
     <row r="51" spans="11:13">
       <c r="K51" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L51">
         <v>18.470099999999999</v>
@@ -8690,7 +8690,7 @@
     </row>
     <row r="52" spans="11:13">
       <c r="K52" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L52">
         <v>36.763100000000001</v>
@@ -8701,7 +8701,7 @@
     </row>
     <row r="53" spans="11:13">
       <c r="K53" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L53">
         <v>-2.2200000000000002</v>
@@ -8712,7 +8712,7 @@
     </row>
     <row r="54" spans="11:13">
       <c r="K54" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L54">
         <v>30.05</v>
@@ -8723,7 +8723,7 @@
     </row>
     <row r="55" spans="11:13">
       <c r="K55" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L55">
         <v>15.333299999999999</v>
@@ -8734,7 +8734,7 @@
     </row>
     <row r="56" spans="11:13">
       <c r="K56" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="L56">
         <v>27.15</v>
@@ -8745,7 +8745,7 @@
     </row>
     <row r="57" spans="11:13">
       <c r="K57" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L57">
         <v>40.4</v>
@@ -8756,7 +8756,7 @@
     </row>
     <row r="58" spans="11:13">
       <c r="K58" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L58">
         <v>59.436962000000001</v>
@@ -8767,7 +8767,7 @@
     </row>
     <row r="59" spans="11:13">
       <c r="K59" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L59">
         <v>13.5</v>
@@ -8778,7 +8778,7 @@
     </row>
     <row r="60" spans="11:13">
       <c r="K60" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="L60">
         <v>60.175600000000003</v>
@@ -8789,7 +8789,7 @@
     </row>
     <row r="61" spans="11:13">
       <c r="K61" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="L61">
         <v>48.866700000000002</v>
@@ -8800,7 +8800,7 @@
     </row>
     <row r="62" spans="11:13">
       <c r="K62" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L62">
         <v>0.38540000000000002</v>
@@ -8811,7 +8811,7 @@
     </row>
     <row r="63" spans="11:13">
       <c r="K63" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L63">
         <v>51.5</v>
@@ -8822,7 +8822,7 @@
     </row>
     <row r="64" spans="11:13">
       <c r="K64" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L64">
         <v>41.725000000000001</v>
@@ -8833,7 +8833,7 @@
     </row>
     <row r="65" spans="11:13">
       <c r="K65" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L65">
         <v>6.69</v>
@@ -8844,7 +8844,7 @@
     </row>
     <row r="66" spans="11:13">
       <c r="K66" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L66">
         <v>9.5314999999999994</v>
@@ -8855,7 +8855,7 @@
     </row>
     <row r="67" spans="11:13">
       <c r="K67" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L67">
         <v>13.448395</v>
@@ -8866,7 +8866,7 @@
     </row>
     <row r="68" spans="11:13">
       <c r="K68" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="L68">
         <v>11.865</v>
@@ -8877,7 +8877,7 @@
     </row>
     <row r="69" spans="11:13">
       <c r="K69" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="L69">
         <v>1.87</v>
@@ -8888,7 +8888,7 @@
     </row>
     <row r="70" spans="11:13">
       <c r="K70" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="L70">
         <v>37.9833</v>
@@ -8899,7 +8899,7 @@
     </row>
     <row r="71" spans="11:13">
       <c r="K71" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L71">
         <v>60.270832249999998</v>
@@ -8910,7 +8910,7 @@
     </row>
     <row r="72" spans="11:13">
       <c r="K72" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L72">
         <v>14.6211</v>
@@ -8921,7 +8921,7 @@
     </row>
     <row r="73" spans="11:13">
       <c r="K73" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="L73">
         <v>4.9223999999999997</v>
@@ -8932,7 +8932,7 @@
     </row>
     <row r="74" spans="11:13">
       <c r="K74" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L74">
         <v>6.8019999999999996</v>
@@ -8943,7 +8943,7 @@
     </row>
     <row r="75" spans="11:13">
       <c r="K75" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L75">
         <v>14.102</v>
@@ -8954,7 +8954,7 @@
     </row>
     <row r="76" spans="11:13">
       <c r="K76" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L76">
         <v>45.8</v>
@@ -8965,7 +8965,7 @@
     </row>
     <row r="77" spans="11:13">
       <c r="K77" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L77">
         <v>18.533332999999999</v>
@@ -8976,7 +8976,7 @@
     </row>
     <row r="78" spans="11:13">
       <c r="K78" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L78">
         <v>47.5</v>
@@ -8987,7 +8987,7 @@
     </row>
     <row r="79" spans="11:13">
       <c r="K79" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="L79">
         <v>-6.1744000000000003</v>
@@ -8998,7 +8998,7 @@
     </row>
     <row r="80" spans="11:13">
       <c r="K80" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="L80">
         <v>28.67</v>
@@ -9009,7 +9009,7 @@
     </row>
     <row r="81" spans="11:13">
       <c r="K81" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L81">
         <v>53.333100000000002</v>
@@ -9020,7 +9020,7 @@
     </row>
     <row r="82" spans="11:13">
       <c r="K82" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="L82">
         <v>35.671900000000001</v>
@@ -9031,7 +9031,7 @@
     </row>
     <row r="83" spans="11:13">
       <c r="K83" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L83">
         <v>33.3386</v>
@@ -9042,7 +9042,7 @@
     </row>
     <row r="84" spans="11:13">
       <c r="K84" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L84">
         <v>64.150000000000006</v>
@@ -9053,7 +9053,7 @@
     </row>
     <row r="85" spans="11:13">
       <c r="K85" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L85">
         <v>32.08</v>
@@ -9064,7 +9064,7 @@
     </row>
     <row r="86" spans="11:13">
       <c r="K86" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="L86">
         <v>41.896000000000001</v>
@@ -9075,7 +9075,7 @@
     </row>
     <row r="87" spans="11:13">
       <c r="K87" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L87">
         <v>17.9771</v>
@@ -9086,7 +9086,7 @@
     </row>
     <row r="88" spans="11:13">
       <c r="K88" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="L88">
         <v>31.95</v>
@@ -9097,7 +9097,7 @@
     </row>
     <row r="89" spans="11:13">
       <c r="K89" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="L89">
         <v>35.685000000000002</v>
@@ -9108,7 +9108,7 @@
     </row>
     <row r="90" spans="11:13">
       <c r="K90" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="L90">
         <v>43.325000000000003</v>
@@ -9119,7 +9119,7 @@
     </row>
     <row r="91" spans="11:13">
       <c r="K91" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="L91">
         <v>-1.2833000000000001</v>
@@ -9130,7 +9130,7 @@
     </row>
     <row r="92" spans="11:13">
       <c r="K92" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="L92">
         <v>42.873100000000001</v>
@@ -9141,7 +9141,7 @@
     </row>
     <row r="93" spans="11:13">
       <c r="K93" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="L93">
         <v>11.55</v>
@@ -9152,7 +9152,7 @@
     </row>
     <row r="94" spans="11:13">
       <c r="K94" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L94">
         <v>37.566299999999998</v>
@@ -9163,7 +9163,7 @@
     </row>
     <row r="95" spans="11:13">
       <c r="K95" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L95">
         <v>42.6629</v>
@@ -9174,7 +9174,7 @@
     </row>
     <row r="96" spans="11:13">
       <c r="K96" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="L96">
         <v>29.369700000000002</v>
@@ -9185,7 +9185,7 @@
     </row>
     <row r="97" spans="11:13">
       <c r="K97" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L97">
         <v>17.966699999999999</v>
@@ -9196,7 +9196,7 @@
     </row>
     <row r="98" spans="11:13">
       <c r="K98" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L98">
         <v>33.872</v>
@@ -9207,7 +9207,7 @@
     </row>
     <row r="99" spans="11:13">
       <c r="K99" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L99">
         <v>6.3106</v>
@@ -9218,7 +9218,7 @@
     </row>
     <row r="100" spans="11:13">
       <c r="K100" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L100">
         <v>32.892499999999998</v>
@@ -9229,7 +9229,7 @@
     </row>
     <row r="101" spans="11:13">
       <c r="K101" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="L101">
         <v>6.9320000000000004</v>
@@ -9240,7 +9240,7 @@
     </row>
     <row r="102" spans="11:13">
       <c r="K102" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="L102">
         <v>-29.316700000000001</v>
@@ -9251,7 +9251,7 @@
     </row>
     <row r="103" spans="11:13">
       <c r="K103" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L103">
         <v>54.683399999999999</v>
@@ -9262,7 +9262,7 @@
     </row>
     <row r="104" spans="11:13">
       <c r="K104" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L104">
         <v>49.611621999999997</v>
@@ -9273,7 +9273,7 @@
     </row>
     <row r="105" spans="11:13">
       <c r="K105" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L105">
         <v>56.95</v>
@@ -9284,7 +9284,7 @@
     </row>
     <row r="106" spans="11:13">
       <c r="K106" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L106">
         <v>33.6</v>
@@ -9295,7 +9295,7 @@
     </row>
     <row r="107" spans="11:13">
       <c r="K107" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L107">
         <v>47.005000000000003</v>
@@ -9306,7 +9306,7 @@
     </row>
     <row r="108" spans="11:13">
       <c r="K108" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L108">
         <v>-18.916599999999999</v>
@@ -9317,7 +9317,7 @@
     </row>
     <row r="109" spans="11:13">
       <c r="K109" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="L109">
         <v>19.442399999999999</v>
@@ -9328,7 +9328,7 @@
     </row>
     <row r="110" spans="11:13">
       <c r="K110" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L110">
         <v>42</v>
@@ -9339,7 +9339,7 @@
     </row>
     <row r="111" spans="11:13">
       <c r="K111" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="L111">
         <v>12.65</v>
@@ -9350,7 +9350,7 @@
     </row>
     <row r="112" spans="11:13">
       <c r="K112" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L112">
         <v>35.899700000000003</v>
@@ -9361,7 +9361,7 @@
     </row>
     <row r="113" spans="11:13">
       <c r="K113" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L113">
         <v>16.871310999999999</v>
@@ -9372,7 +9372,7 @@
     </row>
     <row r="114" spans="11:13">
       <c r="K114" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L114">
         <v>42.442574</v>
@@ -9383,7 +9383,7 @@
     </row>
     <row r="115" spans="11:13">
       <c r="K115" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L115">
         <v>47.916699999999999</v>
@@ -9394,7 +9394,7 @@
     </row>
     <row r="116" spans="11:13">
       <c r="K116" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="L116">
         <v>-25.9696</v>
@@ -9405,7 +9405,7 @@
     </row>
     <row r="117" spans="11:13">
       <c r="K117" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="L117">
         <v>18.086400000000001</v>
@@ -9416,7 +9416,7 @@
     </row>
     <row r="118" spans="11:13">
       <c r="K118" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="L118">
         <v>-13.9833</v>
@@ -9427,7 +9427,7 @@
     </row>
     <row r="119" spans="11:13">
       <c r="K119" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L119">
         <v>3.1667000000000001</v>
@@ -9438,7 +9438,7 @@
     </row>
     <row r="120" spans="11:13">
       <c r="K120" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L120">
         <v>-22.57</v>
@@ -9449,7 +9449,7 @@
     </row>
     <row r="121" spans="11:13">
       <c r="K121" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="L121">
         <v>13.5167</v>
@@ -9460,7 +9460,7 @@
     </row>
     <row r="122" spans="11:13">
       <c r="K122" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L122">
         <v>6.4432999999999998</v>
@@ -9471,7 +9471,7 @@
     </row>
     <row r="123" spans="11:13">
       <c r="K123" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="L123">
         <v>12.153</v>
@@ -9482,7 +9482,7 @@
     </row>
     <row r="124" spans="11:13">
       <c r="K124" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="L124">
         <v>52.35</v>
@@ -9493,7 +9493,7 @@
     </row>
     <row r="125" spans="11:13">
       <c r="K125" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="L125">
         <v>59.916699999999999</v>
@@ -9504,7 +9504,7 @@
     </row>
     <row r="126" spans="11:13">
       <c r="K126" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L126">
         <v>27.716699999999999</v>
@@ -9515,7 +9515,7 @@
     </row>
     <row r="127" spans="11:13">
       <c r="K127" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="L127">
         <v>-36.848100000000002</v>
@@ -9526,7 +9526,7 @@
     </row>
     <row r="128" spans="11:13">
       <c r="K128" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="L128">
         <v>23.613299999999999</v>
@@ -9537,7 +9537,7 @@
     </row>
     <row r="129" spans="11:13">
       <c r="K129" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L129">
         <v>24.87</v>
@@ -9548,7 +9548,7 @@
     </row>
     <row r="130" spans="11:13">
       <c r="K130" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="L130">
         <v>8.968</v>
@@ -9559,7 +9559,7 @@
     </row>
     <row r="131" spans="11:13">
       <c r="K131" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="L131">
         <v>-12.048</v>
@@ -9570,7 +9570,7 @@
     </row>
     <row r="132" spans="11:13">
       <c r="K132" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L132">
         <v>14.604200000000001</v>
@@ -9581,7 +9581,7 @@
     </row>
     <row r="133" spans="11:13">
       <c r="K133" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="L133">
         <v>-9.4647000000000006</v>
@@ -9592,7 +9592,7 @@
     </row>
     <row r="134" spans="11:13">
       <c r="K134" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="L134">
         <v>52.25</v>
@@ -9603,7 +9603,7 @@
     </row>
     <row r="135" spans="11:13">
       <c r="K135" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="L135">
         <v>39.019399999999997</v>
@@ -9614,7 +9614,7 @@
     </row>
     <row r="136" spans="11:13">
       <c r="K136" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L136">
         <v>38.722700000000003</v>
@@ -9625,7 +9625,7 @@
     </row>
     <row r="137" spans="11:13">
       <c r="K137" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L137">
         <v>-25.296399999999998</v>
@@ -9636,7 +9636,7 @@
     </row>
     <row r="138" spans="11:13">
       <c r="K138" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L138">
         <v>25.291899999999998</v>
@@ -9647,7 +9647,7 @@
     </row>
     <row r="139" spans="11:13">
       <c r="K139" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L139">
         <v>44.433399999999999</v>
@@ -9658,7 +9658,7 @@
     </row>
     <row r="140" spans="11:13">
       <c r="K140" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="L140">
         <v>55.749899999999997</v>
@@ -9669,7 +9669,7 @@
     </row>
     <row r="141" spans="11:13">
       <c r="K141" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L141">
         <v>-1.9536</v>
@@ -9680,7 +9680,7 @@
     </row>
     <row r="142" spans="11:13">
       <c r="K142" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L142">
         <v>24.640799999999999</v>
@@ -9691,7 +9691,7 @@
     </row>
     <row r="143" spans="11:13">
       <c r="K143" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L143">
         <v>15.588100000000001</v>
@@ -9702,7 +9702,7 @@
     </row>
     <row r="144" spans="11:13">
       <c r="K144" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L144">
         <v>14.7158</v>
@@ -9713,7 +9713,7 @@
     </row>
     <row r="145" spans="11:13">
       <c r="K145" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L145">
         <v>1.2929999999999999</v>
@@ -9724,7 +9724,7 @@
     </row>
     <row r="146" spans="11:13">
       <c r="K146" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L146">
         <v>8.4700000000000006</v>
@@ -9735,7 +9735,7 @@
     </row>
     <row r="147" spans="11:13">
       <c r="K147" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L147">
         <v>13.71</v>
@@ -9746,7 +9746,7 @@
     </row>
     <row r="148" spans="11:13">
       <c r="K148" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L148">
         <v>2.0667</v>
@@ -9757,7 +9757,7 @@
     </row>
     <row r="149" spans="11:13">
       <c r="K149" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L149">
         <v>44.818600000000004</v>
@@ -9768,7 +9768,7 @@
     </row>
     <row r="150" spans="11:13">
       <c r="K150" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L150">
         <v>5.835</v>
@@ -9779,7 +9779,7 @@
     </row>
     <row r="151" spans="11:13">
       <c r="K151" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L151">
         <v>48.15</v>
@@ -9790,7 +9790,7 @@
     </row>
     <row r="152" spans="11:13">
       <c r="K152" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L152">
         <v>46.055300000000003</v>
@@ -9801,7 +9801,7 @@
     </row>
     <row r="153" spans="11:13">
       <c r="K153" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L153">
         <v>59.3508</v>
@@ -9812,7 +9812,7 @@
     </row>
     <row r="154" spans="11:13">
       <c r="K154" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L154">
         <v>-26.495000000000001</v>
@@ -9823,7 +9823,7 @@
     </row>
     <row r="155" spans="11:13">
       <c r="K155" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L155">
         <v>33.5</v>
@@ -9834,7 +9834,7 @@
     </row>
     <row r="156" spans="11:13">
       <c r="K156" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L156">
         <v>12.113099999999999</v>
@@ -9845,7 +9845,7 @@
     </row>
     <row r="157" spans="11:13">
       <c r="K157" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L157">
         <v>6.1318999999999999</v>
@@ -9856,7 +9856,7 @@
     </row>
     <row r="158" spans="11:13">
       <c r="K158" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L158">
         <v>13.75</v>
@@ -9867,7 +9867,7 @@
     </row>
     <row r="159" spans="11:13">
       <c r="K159" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L159">
         <v>38.56</v>
@@ -9878,7 +9878,7 @@
     </row>
     <row r="160" spans="11:13">
       <c r="K160" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L160">
         <v>37.950000000000003</v>
@@ -9889,7 +9889,7 @@
     </row>
     <row r="161" spans="11:13">
       <c r="K161" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L161">
         <v>-8.5594000000000001</v>
@@ -9900,7 +9900,7 @@
     </row>
     <row r="162" spans="11:13">
       <c r="K162" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L162">
         <v>10.651999999999999</v>
@@ -9911,7 +9911,7 @@
     </row>
     <row r="163" spans="11:13">
       <c r="K163" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L163">
         <v>36.802799999999998</v>
@@ -9922,7 +9922,7 @@
     </row>
     <row r="164" spans="11:13">
       <c r="K164" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L164">
         <v>41.104999999999997</v>
@@ -9933,7 +9933,7 @@
     </row>
     <row r="165" spans="11:13">
       <c r="K165" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L165">
         <v>25.035799999999998</v>
@@ -9944,7 +9944,7 @@
     </row>
     <row r="166" spans="11:13">
       <c r="K166" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L166">
         <v>-6.8</v>
@@ -9955,7 +9955,7 @@
     </row>
     <row r="167" spans="11:13">
       <c r="K167" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="L167">
         <v>0.31669999999999998</v>
@@ -9966,7 +9966,7 @@
     </row>
     <row r="168" spans="11:13">
       <c r="K168" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L168">
         <v>50.434341000000003</v>
@@ -9977,7 +9977,7 @@
     </row>
     <row r="169" spans="11:13">
       <c r="K169" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L169">
         <v>-34.857999999999997</v>
@@ -9988,7 +9988,7 @@
     </row>
     <row r="170" spans="11:13">
       <c r="K170" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L170">
         <v>44.963500000000003</v>
@@ -9999,7 +9999,7 @@
     </row>
     <row r="171" spans="11:13">
       <c r="K171" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="L171">
         <v>41.311700000000002</v>
@@ -10010,7 +10010,7 @@
     </row>
     <row r="172" spans="11:13">
       <c r="K172" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L172">
         <v>10.5</v>
@@ -10021,7 +10021,7 @@
     </row>
     <row r="173" spans="11:13">
       <c r="K173" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="L173">
         <v>10.810582999999999</v>
@@ -10032,7 +10032,7 @@
     </row>
     <row r="174" spans="11:13">
       <c r="K174" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L174">
         <v>15.354699999999999</v>
@@ -10043,7 +10043,7 @@
     </row>
     <row r="175" spans="11:13">
       <c r="K175" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="L175">
         <v>-26.17</v>
@@ -10054,7 +10054,7 @@
     </row>
     <row r="176" spans="11:13">
       <c r="K176" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L176">
         <v>-15.416600000000001</v>
@@ -10065,7 +10065,7 @@
     </row>
     <row r="177" spans="11:13">
       <c r="K177" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="L177">
         <v>-17.817799999999998</v>
@@ -10076,7 +10076,7 @@
     </row>
     <row r="178" spans="11:13">
       <c r="K178" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L178">
         <v>4.8539000000000003</v>
@@ -10093,11 +10093,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet19"/>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10215,16 +10215,16 @@
         <v>6</v>
       </c>
       <c r="H4" t="s">
+        <v>785</v>
+      </c>
+      <c r="K4" t="s">
+        <v>786</v>
+      </c>
+      <c r="N4" t="s">
         <v>787</v>
       </c>
-      <c r="K4" t="s">
+      <c r="P4" t="s">
         <v>788</v>
-      </c>
-      <c r="N4" t="s">
-        <v>789</v>
-      </c>
-      <c r="P4" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -10232,7 +10232,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K5" t="s">
         <v>304</v>
@@ -10269,7 +10269,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>311</v>
+        <v>814</v>
       </c>
       <c r="H7" t="s">
         <v>301</v>
@@ -10282,7 +10282,7 @@
         <v>62</v>
       </c>
       <c r="P7" t="s">
-        <v>312</v>
+        <v>815</v>
       </c>
       <c r="Q7" t="s">
         <v>59</v>
@@ -10290,19 +10290,23 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>308</v>
+        <v>246</v>
       </c>
       <c r="H8" t="s">
         <v>301</v>
       </c>
+      <c r="I8" s="2"/>
       <c r="K8" t="s">
-        <v>37</v>
+        <v>310</v>
       </c>
       <c r="N8" t="s">
-        <v>309</v>
+        <v>62</v>
+      </c>
+      <c r="P8" t="s">
+        <v>815</v>
       </c>
       <c r="Q8" t="s">
         <v>59</v>
@@ -10310,7 +10314,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>308</v>
@@ -10319,7 +10323,7 @@
         <v>301</v>
       </c>
       <c r="K9" t="s">
-        <v>310</v>
+        <v>37</v>
       </c>
       <c r="N9" t="s">
         <v>309</v>
@@ -10330,19 +10334,19 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H10" t="s">
-        <v>110</v>
+        <v>301</v>
       </c>
       <c r="K10" t="s">
-        <v>37</v>
+        <v>310</v>
       </c>
       <c r="N10" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="Q10" t="s">
         <v>59</v>
@@ -10353,16 +10357,16 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="H11" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K11" t="s">
         <v>37</v>
       </c>
       <c r="N11" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q11" t="s">
         <v>59</v>
@@ -10370,16 +10374,19 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>273</v>
       </c>
+      <c r="H12" t="s">
+        <v>100</v>
+      </c>
       <c r="K12" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="N12" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="Q12" t="s">
         <v>59</v>
@@ -10387,41 +10394,58 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>729</v>
-      </c>
-      <c r="B13" t="s">
-        <v>730</v>
-      </c>
-      <c r="I13" t="s">
-        <v>791</v>
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>273</v>
       </c>
       <c r="K13" t="s">
-        <v>784</v>
+        <v>9</v>
       </c>
       <c r="N13" t="s">
-        <v>785</v>
+        <v>314</v>
       </c>
       <c r="Q13" t="s">
-        <v>786</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
+        <v>727</v>
+      </c>
+      <c r="B14" t="s">
+        <v>728</v>
+      </c>
+      <c r="I14" t="s">
+        <v>789</v>
+      </c>
+      <c r="K14" t="s">
+        <v>782</v>
+      </c>
+      <c r="N14" t="s">
+        <v>783</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
+        <v>798</v>
+      </c>
+      <c r="B15" t="s">
+        <v>799</v>
+      </c>
+      <c r="C15" t="s">
+        <v>311</v>
+      </c>
+      <c r="K15" t="s">
+        <v>782</v>
+      </c>
+      <c r="N15" t="s">
         <v>800</v>
       </c>
-      <c r="B14" t="s">
-        <v>801</v>
-      </c>
-      <c r="C14" t="s">
-        <v>313</v>
-      </c>
-      <c r="K14" t="s">
-        <v>784</v>
-      </c>
-      <c r="N14" t="s">
-        <v>802</v>
-      </c>
-      <c r="Q14" t="s">
+      <c r="Q15" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10489,10 +10513,10 @@
     </row>
     <row r="3" spans="3:13">
       <c r="C3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E3" t="s">
         <v>71</v>
@@ -10512,13 +10536,13 @@
         <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E4" t="s">
         <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I4" t="s">
         <v>73</v>
@@ -10546,12 +10570,12 @@
     </row>
     <row r="9" spans="3:13">
       <c r="C9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="3:13">
       <c r="C10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -10585,7 +10609,7 @@
   <sheetData>
     <row r="3" spans="2:13" ht="17.25" thickBot="1">
       <c r="B3" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="15" thickTop="1" thickBot="1">
@@ -10596,13 +10620,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>0</v>
@@ -10623,7 +10647,7 @@
         <v>67</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="2:13">
@@ -10635,20 +10659,20 @@
         <v>MIN,IMP,U-H2P,P_All,P-HPL,R_Techs,S_Techs,T_Techs,A_Techs,I_Techs,I_Techs</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E5" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G5" t="s">
         <v>310</v>
       </c>
       <c r="H5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L5" t="s">
         <v>38</v>
@@ -10667,13 +10691,13 @@
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G6" t="s">
         <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L6" t="s">
         <v>38</v>
@@ -10692,13 +10716,13 @@
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G7" t="s">
         <v>310</v>
       </c>
       <c r="H7" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="L7" t="s">
         <v>38</v>
@@ -10717,13 +10741,13 @@
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G8" t="s">
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="L8" t="s">
         <v>38</v>
@@ -10744,7 +10768,7 @@
         <v>310</v>
       </c>
       <c r="H9" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="L9" t="s">
         <v>38</v>
@@ -10765,7 +10789,7 @@
         <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="L10" t="s">
         <v>38</v>
@@ -10823,12 +10847,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -10991,7 +11015,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11002,12 +11026,12 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -11018,38 +11042,38 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="G4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -11057,15 +11081,15 @@
         <v>273</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G7" t="s">
         <v>246</v>
@@ -11082,10 +11106,10 @@
         <v>171</v>
       </c>
       <c r="G8" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -11093,27 +11117,27 @@
         <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G9" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H9" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="11" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -11163,7 +11187,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -11179,343 +11203,343 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C3" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B4" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B5" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C5" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B6" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C6" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>763</v>
+      </c>
+      <c r="B7" t="s">
+        <v>733</v>
+      </c>
+      <c r="C7" t="s">
         <v>765</v>
-      </c>
-      <c r="B7" t="s">
-        <v>735</v>
-      </c>
-      <c r="C7" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C8" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B9" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C9" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B10" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C10" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B11" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C11" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B12" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C12" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B13" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C14" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B15" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C15" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B16" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C16" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B17" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C17" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B18" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C18" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B19" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C19" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B20" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C20" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B21" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C21" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B22" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C22" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B23" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C23" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B24" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C24" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B25" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C25" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B26" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C26" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B27" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C27" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B28" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C28" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B29" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C29" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B30" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C30" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B31" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C31" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B32" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C32" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B33" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C33" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
   </sheetData>
@@ -11527,7 +11551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ADB714-E6AA-4E3E-B77B-62B65BA0E218}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -11882,7 +11906,7 @@
         <v>227</v>
       </c>
       <c r="C32" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D32" t="s">
         <v>193</v>
@@ -11893,7 +11917,7 @@
         <v>227</v>
       </c>
       <c r="C33" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D33" t="s">
         <v>195</v>
@@ -12572,7 +12596,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B95" t="s">
         <v>296</v>
@@ -12583,7 +12607,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B96" t="s">
         <v>298</v>
@@ -12594,24 +12618,24 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C97" t="s">
+        <v>774</v>
+      </c>
+      <c r="D97" t="s">
         <v>776</v>
-      </c>
-      <c r="D97" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
+        <v>773</v>
+      </c>
+      <c r="C98" t="s">
         <v>775</v>
       </c>
-      <c r="C98" t="s">
-        <v>777</v>
-      </c>
       <c r="D98" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
   </sheetData>

--- a/ReportDefs-TIMES-GEO.xlsx
+++ b/ReportDefs-TIMES-GEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\TIMES-GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CD55E9-953F-4AEB-981D-07CC2EC88818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99EF05E-A7AD-4E97-93C8-70DCACB6D75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
@@ -10095,7 +10095,7 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
     </sheetView>
@@ -10656,7 +10656,7 @@
       </c>
       <c r="C5" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'pset map'!$A$3:$A$28)</f>
-        <v>MIN,IMP,U-H2P,P_All,P-HPL,R_Techs,S_Techs,T_Techs,A_Techs,I_Techs,I_Techs</v>
+        <v>MIN,U-H2P,P_All,P-HPL,R_Techs,S_Techs,T_Techs,A_Techs,I_Techs,I_Techs</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>809</v>
@@ -10684,7 +10684,7 @@
       </c>
       <c r="C6" t="str">
         <f>C5</f>
-        <v>MIN,IMP,U-H2P,P_All,P-HPL,R_Techs,S_Techs,T_Techs,A_Techs,I_Techs,I_Techs</v>
+        <v>MIN,U-H2P,P_All,P-HPL,R_Techs,S_Techs,T_Techs,A_Techs,I_Techs,I_Techs</v>
       </c>
       <c r="E6" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
@@ -10709,7 +10709,7 @@
       </c>
       <c r="C7" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'pset map'!$A$3:$A$28)</f>
-        <v>MIN,IMP,U-H2P,P_All,P-HPL,R_Techs,S_Techs,T_Techs,A_Techs,I_Techs,I_Techs</v>
+        <v>MIN,U-H2P,P_All,P-HPL,R_Techs,S_Techs,T_Techs,A_Techs,I_Techs,I_Techs</v>
       </c>
       <c r="E7" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
@@ -10734,7 +10734,7 @@
       </c>
       <c r="C8" t="str">
         <f>C7</f>
-        <v>MIN,IMP,U-H2P,P_All,P-HPL,R_Techs,S_Techs,T_Techs,A_Techs,I_Techs,I_Techs</v>
+        <v>MIN,U-H2P,P_All,P-HPL,R_Techs,S_Techs,T_Techs,A_Techs,I_Techs,I_Techs</v>
       </c>
       <c r="E8" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
@@ -11012,10 +11012,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF522A4-03B3-4329-9210-404B1BD4B629}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11056,10 +11056,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B4" t="s">
-        <v>807</v>
+        <v>500</v>
       </c>
       <c r="G4" t="s">
         <v>497</v>
@@ -11069,27 +11069,33 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>499</v>
-      </c>
-      <c r="B5" t="s">
-        <v>500</v>
+      <c r="A5" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="G5" t="s">
+        <v>493</v>
+      </c>
+      <c r="H5" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>509</v>
+      <c r="A6" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>508</v>
+      <c r="A7" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" t="s">
+        <v>171</v>
       </c>
       <c r="G7" t="s">
         <v>246</v>
@@ -11099,11 +11105,11 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="9" t="s">
-        <v>143</v>
+      <c r="A8" s="10" t="s">
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>510</v>
       </c>
       <c r="G8" t="s">
         <v>501</v>
@@ -11113,11 +11119,11 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="10" t="s">
-        <v>144</v>
+      <c r="A9" s="11" t="s">
+        <v>803</v>
       </c>
       <c r="B9" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G9" t="s">
         <v>503</v>
@@ -11127,11 +11133,11 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="11" t="s">
-        <v>803</v>
+      <c r="A10" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="B10" t="s">
-        <v>511</v>
+        <v>244</v>
       </c>
       <c r="G10" t="s">
         <v>505</v>
@@ -11141,11 +11147,11 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="8" t="s">
-        <v>228</v>
+      <c r="A11" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="B11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -11155,20 +11161,6 @@
       <c r="B12" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="B13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="12"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ReportDefs-TIMES-GEO.xlsx
+++ b/ReportDefs-TIMES-GEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\TIMES-GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99EF05E-A7AD-4E97-93C8-70DCACB6D75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B855742-4F01-4928-BA5E-33CF681FCE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="816">
   <si>
     <t>Unit</t>
   </si>
@@ -295,9 +295,6 @@
     <t>Elec Fuels</t>
   </si>
   <si>
-    <t>Primary Energy</t>
-  </si>
-  <si>
     <t>CO2 Emissions</t>
   </si>
   <si>
@@ -1036,9 +1033,6 @@
     <t>Trd_Endo</t>
   </si>
   <si>
-    <t>Trade</t>
-  </si>
-  <si>
     <t>Pjneg</t>
   </si>
   <si>
@@ -2551,10 +2545,16 @@
     <t>Road passenger</t>
   </si>
   <si>
-    <t>MIN,TRD_Endo</t>
-  </si>
-  <si>
     <t>Primary energy consumption</t>
+  </si>
+  <si>
+    <t>Pri_Import</t>
+  </si>
+  <si>
+    <t>Pri_Export</t>
+  </si>
+  <si>
+    <t>Pri_Production</t>
   </si>
 </sst>
 </file>
@@ -3207,27 +3207,27 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="H1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" t="s">
         <v>91</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>92</v>
-      </c>
-      <c r="J1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:26">
       <c r="H2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" t="s">
         <v>94</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>95</v>
-      </c>
-      <c r="J2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -3267,19 +3267,19 @@
         <v>sg_DiscRate</v>
       </c>
       <c r="O5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P5" t="s">
         <v>31</v>
       </c>
       <c r="Q5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Y5">
         <v>1</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -3314,7 +3314,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="Q6">
         <v>0.1</v>
@@ -3335,7 +3335,7 @@
         <v>2</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -3370,7 +3370,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="Q7">
         <v>7.4999999999999997E-2</v>
@@ -3391,7 +3391,7 @@
         <v>3</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -3426,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="Q8">
         <v>0.05</v>
@@ -3447,7 +3447,7 @@
         <v>4</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="Q9">
         <v>0.02</v>
@@ -3503,7 +3503,7 @@
         <v>5</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -3538,7 +3538,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="Q10">
         <v>0.01</v>
@@ -3588,7 +3588,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="Q11">
         <v>0.1</v>
@@ -3638,7 +3638,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="Q12">
         <v>7.4999999999999997E-2</v>
@@ -3688,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="Q13">
         <v>0.05</v>
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="Q14">
         <v>0.02</v>
@@ -3788,7 +3788,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="Q15">
         <v>0.01</v>
@@ -3838,7 +3838,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="Q16">
         <v>0.1</v>
@@ -3888,7 +3888,7 @@
         <v>2</v>
       </c>
       <c r="P17" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="Q17">
         <v>7.4999999999999997E-2</v>
@@ -3938,7 +3938,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="Q18">
         <v>0.05</v>
@@ -3988,7 +3988,7 @@
         <v>2</v>
       </c>
       <c r="P19" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="Q19">
         <v>0.02</v>
@@ -4038,7 +4038,7 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="Q20">
         <v>0.01</v>
@@ -4088,7 +4088,7 @@
         <v>2</v>
       </c>
       <c r="P21" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="Q21">
         <v>0.1</v>
@@ -4138,7 +4138,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="Q22">
         <v>7.4999999999999997E-2</v>
@@ -4188,7 +4188,7 @@
         <v>2</v>
       </c>
       <c r="P23" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="Q23">
         <v>0.05</v>
@@ -4238,7 +4238,7 @@
         <v>2</v>
       </c>
       <c r="P24" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="Q24">
         <v>0.02</v>
@@ -4288,7 +4288,7 @@
         <v>2</v>
       </c>
       <c r="P25" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="Q25">
         <v>0.01</v>
@@ -4338,7 +4338,7 @@
         <v>3</v>
       </c>
       <c r="P26" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="Q26">
         <v>0.1</v>
@@ -4388,7 +4388,7 @@
         <v>3</v>
       </c>
       <c r="P27" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="Q27">
         <v>7.4999999999999997E-2</v>
@@ -4438,7 +4438,7 @@
         <v>3</v>
       </c>
       <c r="P28" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="Q28">
         <v>0.05</v>
@@ -4488,7 +4488,7 @@
         <v>3</v>
       </c>
       <c r="P29" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="Q29">
         <v>0.02</v>
@@ -4538,7 +4538,7 @@
         <v>3</v>
       </c>
       <c r="P30" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="Q30">
         <v>0.01</v>
@@ -4588,7 +4588,7 @@
         <v>3</v>
       </c>
       <c r="P31" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="Q31">
         <v>0.1</v>
@@ -4638,7 +4638,7 @@
         <v>3</v>
       </c>
       <c r="P32" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="Q32">
         <v>7.4999999999999997E-2</v>
@@ -4688,7 +4688,7 @@
         <v>3</v>
       </c>
       <c r="P33" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="Q33">
         <v>0.05</v>
@@ -4738,7 +4738,7 @@
         <v>3</v>
       </c>
       <c r="P34" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="Q34">
         <v>0.02</v>
@@ -4788,7 +4788,7 @@
         <v>3</v>
       </c>
       <c r="P35" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="Q35">
         <v>0.01</v>
@@ -4838,7 +4838,7 @@
         <v>4</v>
       </c>
       <c r="P36" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="Q36">
         <v>0.1</v>
@@ -4888,7 +4888,7 @@
         <v>4</v>
       </c>
       <c r="P37" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="Q37">
         <v>7.4999999999999997E-2</v>
@@ -4938,7 +4938,7 @@
         <v>4</v>
       </c>
       <c r="P38" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="Q38">
         <v>0.05</v>
@@ -4988,7 +4988,7 @@
         <v>4</v>
       </c>
       <c r="P39" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="Q39">
         <v>0.02</v>
@@ -5038,7 +5038,7 @@
         <v>4</v>
       </c>
       <c r="P40" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="Q40">
         <v>0.01</v>
@@ -5088,7 +5088,7 @@
         <v>4</v>
       </c>
       <c r="P41" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="Q41">
         <v>0.1</v>
@@ -5138,7 +5138,7 @@
         <v>4</v>
       </c>
       <c r="P42" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="Q42">
         <v>7.4999999999999997E-2</v>
@@ -5188,7 +5188,7 @@
         <v>4</v>
       </c>
       <c r="P43" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="Q43">
         <v>0.05</v>
@@ -5238,7 +5238,7 @@
         <v>4</v>
       </c>
       <c r="P44" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="Q44">
         <v>0.02</v>
@@ -5288,7 +5288,7 @@
         <v>4</v>
       </c>
       <c r="P45" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="Q45">
         <v>0.01</v>
@@ -5338,7 +5338,7 @@
         <v>5</v>
       </c>
       <c r="P46" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="Q46">
         <v>0.1</v>
@@ -5388,7 +5388,7 @@
         <v>5</v>
       </c>
       <c r="P47" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="Q47">
         <v>7.4999999999999997E-2</v>
@@ -5438,7 +5438,7 @@
         <v>5</v>
       </c>
       <c r="P48" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="Q48">
         <v>0.05</v>
@@ -5488,7 +5488,7 @@
         <v>5</v>
       </c>
       <c r="P49" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="Q49">
         <v>0.02</v>
@@ -5538,7 +5538,7 @@
         <v>5</v>
       </c>
       <c r="P50" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="Q50">
         <v>0.01</v>
@@ -5588,7 +5588,7 @@
         <v>5</v>
       </c>
       <c r="P51" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="Q51">
         <v>0.1</v>
@@ -5638,7 +5638,7 @@
         <v>5</v>
       </c>
       <c r="P52" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="Q52">
         <v>7.4999999999999997E-2</v>
@@ -5688,7 +5688,7 @@
         <v>5</v>
       </c>
       <c r="P53" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="Q53">
         <v>0.05</v>
@@ -5738,7 +5738,7 @@
         <v>5</v>
       </c>
       <c r="P54" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="Q54">
         <v>0.02</v>
@@ -5788,7 +5788,7 @@
         <v>5</v>
       </c>
       <c r="P55" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="Q55">
         <v>0.01</v>
@@ -5868,10 +5868,10 @@
         <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5879,10 +5879,10 @@
         <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5893,7 +5893,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5901,10 +5901,10 @@
         <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5915,7 +5915,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5923,10 +5923,10 @@
         <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5934,10 +5934,10 @@
         <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5945,10 +5945,10 @@
         <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5957,10 +5957,10 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5968,10 +5968,10 @@
         <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -5979,10 +5979,10 @@
         <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5990,10 +5990,10 @@
         <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6001,10 +6001,10 @@
         <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6012,10 +6012,10 @@
         <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6023,10 +6023,10 @@
         <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6034,10 +6034,10 @@
         <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6045,10 +6045,10 @@
         <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6056,54 +6056,54 @@
         <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -6174,7 +6174,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6182,59 +6182,59 @@
         <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C3" t="s">
+        <v>512</v>
+      </c>
+      <c r="D3" t="s">
         <v>513</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>514</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>515</v>
-      </c>
-      <c r="E3" t="s">
-        <v>516</v>
-      </c>
-      <c r="F3" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
+        <v>516</v>
+      </c>
+      <c r="C4" t="s">
+        <v>517</v>
+      </c>
+      <c r="D4" t="s">
         <v>518</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>519</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>520</v>
-      </c>
-      <c r="E4" t="s">
-        <v>521</v>
-      </c>
-      <c r="F4" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6251,30 +6251,30 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
+        <v>523</v>
+      </c>
+      <c r="C6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D6" t="s">
         <v>525</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>526</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>527</v>
-      </c>
-      <c r="E6" t="s">
-        <v>528</v>
-      </c>
-      <c r="F6" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6282,1599 +6282,1599 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>528</v>
+      </c>
+      <c r="C7" t="s">
+        <v>529</v>
+      </c>
+      <c r="D7" t="s">
         <v>530</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>531</v>
       </c>
-      <c r="D7" t="s">
-        <v>532</v>
-      </c>
-      <c r="E7" t="s">
-        <v>533</v>
-      </c>
       <c r="F7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
+        <v>532</v>
+      </c>
+      <c r="C8" t="s">
+        <v>533</v>
+      </c>
+      <c r="D8" t="s">
         <v>534</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>535</v>
       </c>
-      <c r="D8" t="s">
-        <v>536</v>
-      </c>
-      <c r="E8" t="s">
-        <v>537</v>
-      </c>
       <c r="F8" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
+        <v>536</v>
+      </c>
+      <c r="C9" t="s">
+        <v>537</v>
+      </c>
+      <c r="D9" t="s">
         <v>538</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>539</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>540</v>
-      </c>
-      <c r="E9" t="s">
-        <v>541</v>
-      </c>
-      <c r="F9" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
+        <v>541</v>
+      </c>
+      <c r="C10" t="s">
+        <v>542</v>
+      </c>
+      <c r="D10" t="s">
         <v>543</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>544</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>545</v>
-      </c>
-      <c r="E10" t="s">
-        <v>546</v>
-      </c>
-      <c r="F10" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" t="s">
+        <v>547</v>
+      </c>
+      <c r="F11" t="s">
         <v>548</v>
-      </c>
-      <c r="C11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" t="s">
-        <v>549</v>
-      </c>
-      <c r="F11" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
+        <v>549</v>
+      </c>
+      <c r="C12" t="s">
+        <v>550</v>
+      </c>
+      <c r="D12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" t="s">
         <v>551</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F12" t="s">
         <v>552</v>
-      </c>
-      <c r="D12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" t="s">
-        <v>553</v>
-      </c>
-      <c r="F12" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
+        <v>553</v>
+      </c>
+      <c r="C13" t="s">
+        <v>554</v>
+      </c>
+      <c r="D13" t="s">
         <v>555</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>556</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>557</v>
-      </c>
-      <c r="E13" t="s">
-        <v>558</v>
-      </c>
-      <c r="F13" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
+        <v>558</v>
+      </c>
+      <c r="C14" t="s">
+        <v>559</v>
+      </c>
+      <c r="D14" t="s">
         <v>560</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>561</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>562</v>
-      </c>
-      <c r="E14" t="s">
-        <v>563</v>
-      </c>
-      <c r="F14" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
+        <v>563</v>
+      </c>
+      <c r="C15" t="s">
+        <v>564</v>
+      </c>
+      <c r="D15" t="s">
         <v>565</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>566</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>567</v>
-      </c>
-      <c r="E15" t="s">
-        <v>568</v>
-      </c>
-      <c r="F15" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s">
+        <v>568</v>
+      </c>
+      <c r="C16" t="s">
+        <v>569</v>
+      </c>
+      <c r="D16" t="s">
         <v>570</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>571</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>572</v>
-      </c>
-      <c r="E16" t="s">
-        <v>573</v>
-      </c>
-      <c r="F16" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" t="s">
+        <v>573</v>
+      </c>
+      <c r="C17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" t="s">
+        <v>574</v>
+      </c>
+      <c r="E17" t="s">
         <v>575</v>
       </c>
-      <c r="C17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>576</v>
-      </c>
-      <c r="E17" t="s">
-        <v>577</v>
-      </c>
-      <c r="F17" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B18" t="s">
+        <v>577</v>
+      </c>
+      <c r="C18" t="s">
+        <v>578</v>
+      </c>
+      <c r="D18" t="s">
         <v>579</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>580</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>581</v>
-      </c>
-      <c r="E18" t="s">
-        <v>582</v>
-      </c>
-      <c r="F18" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
+        <v>582</v>
+      </c>
+      <c r="C19" t="s">
+        <v>583</v>
+      </c>
+      <c r="D19" t="s">
         <v>584</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>585</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>586</v>
-      </c>
-      <c r="E19" t="s">
-        <v>587</v>
-      </c>
-      <c r="F19" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B20" t="s">
+        <v>587</v>
+      </c>
+      <c r="C20" t="s">
+        <v>588</v>
+      </c>
+      <c r="D20" t="s">
         <v>589</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>590</v>
       </c>
-      <c r="D20" t="s">
-        <v>591</v>
-      </c>
-      <c r="E20" t="s">
-        <v>592</v>
-      </c>
       <c r="F20" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E22" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F22" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E23" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F23" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E24" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F24" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B25" t="s">
+        <v>597</v>
+      </c>
+      <c r="C25" t="s">
+        <v>598</v>
+      </c>
+      <c r="D25" t="s">
         <v>599</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>600</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>601</v>
-      </c>
-      <c r="E25" t="s">
-        <v>602</v>
-      </c>
-      <c r="F25" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s">
+        <v>602</v>
+      </c>
+      <c r="C26" t="s">
+        <v>603</v>
+      </c>
+      <c r="D26" t="s">
         <v>604</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>605</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>606</v>
-      </c>
-      <c r="E26" t="s">
-        <v>607</v>
-      </c>
-      <c r="F26" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s">
+        <v>607</v>
+      </c>
+      <c r="C27" t="s">
+        <v>608</v>
+      </c>
+      <c r="D27" t="s">
         <v>609</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>610</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
         <v>611</v>
-      </c>
-      <c r="E27" t="s">
-        <v>612</v>
-      </c>
-      <c r="F27" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B28" t="s">
+        <v>612</v>
+      </c>
+      <c r="C28" t="s">
+        <v>613</v>
+      </c>
+      <c r="D28" t="s">
         <v>614</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>615</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>616</v>
-      </c>
-      <c r="E28" t="s">
-        <v>617</v>
-      </c>
-      <c r="F28" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B29" t="s">
+        <v>617</v>
+      </c>
+      <c r="C29" t="s">
+        <v>618</v>
+      </c>
+      <c r="D29" t="s">
         <v>619</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>620</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>621</v>
-      </c>
-      <c r="E29" t="s">
-        <v>622</v>
-      </c>
-      <c r="F29" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B30" t="s">
+        <v>622</v>
+      </c>
+      <c r="C30" t="s">
+        <v>623</v>
+      </c>
+      <c r="D30" t="s">
         <v>624</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
         <v>625</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
         <v>626</v>
-      </c>
-      <c r="E30" t="s">
-        <v>627</v>
-      </c>
-      <c r="F30" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s">
+        <v>627</v>
+      </c>
+      <c r="C31" t="s">
+        <v>628</v>
+      </c>
+      <c r="D31" t="s">
         <v>629</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>630</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>631</v>
-      </c>
-      <c r="E31" t="s">
-        <v>632</v>
-      </c>
-      <c r="F31" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B32" t="s">
+        <v>632</v>
+      </c>
+      <c r="C32" t="s">
+        <v>633</v>
+      </c>
+      <c r="D32" t="s">
         <v>634</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E32" t="s">
         <v>635</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
         <v>636</v>
-      </c>
-      <c r="E32" t="s">
-        <v>637</v>
-      </c>
-      <c r="F32" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B34" t="s">
+        <v>637</v>
+      </c>
+      <c r="C34" t="s">
+        <v>638</v>
+      </c>
+      <c r="D34" t="s">
         <v>639</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>640</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
         <v>641</v>
-      </c>
-      <c r="E34" t="s">
-        <v>642</v>
-      </c>
-      <c r="F34" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B35" t="s">
+        <v>642</v>
+      </c>
+      <c r="C35" t="s">
+        <v>643</v>
+      </c>
+      <c r="D35" t="s">
         <v>644</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>645</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
         <v>646</v>
-      </c>
-      <c r="E35" t="s">
-        <v>647</v>
-      </c>
-      <c r="F35" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B36" t="s">
+        <v>647</v>
+      </c>
+      <c r="C36" t="s">
+        <v>648</v>
+      </c>
+      <c r="D36" t="s">
         <v>649</v>
       </c>
-      <c r="C36" t="s">
+      <c r="E36" t="s">
         <v>650</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F36" t="s">
         <v>651</v>
-      </c>
-      <c r="E36" t="s">
-        <v>652</v>
-      </c>
-      <c r="F36" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B37" t="s">
+        <v>652</v>
+      </c>
+      <c r="C37" t="s">
+        <v>653</v>
+      </c>
+      <c r="D37" t="s">
         <v>654</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" t="s">
         <v>655</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
         <v>656</v>
-      </c>
-      <c r="E37" t="s">
-        <v>657</v>
-      </c>
-      <c r="F37" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B38" t="s">
+        <v>657</v>
+      </c>
+      <c r="C38" t="s">
+        <v>658</v>
+      </c>
+      <c r="D38" t="s">
         <v>659</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>660</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
         <v>661</v>
-      </c>
-      <c r="E38" t="s">
-        <v>662</v>
-      </c>
-      <c r="F38" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B39" t="s">
+        <v>662</v>
+      </c>
+      <c r="C39" t="s">
+        <v>663</v>
+      </c>
+      <c r="D39" t="s">
         <v>664</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>665</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
         <v>666</v>
-      </c>
-      <c r="E39" t="s">
-        <v>667</v>
-      </c>
-      <c r="F39" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B40" t="s">
+        <v>667</v>
+      </c>
+      <c r="C40" t="s">
+        <v>668</v>
+      </c>
+      <c r="D40" t="s">
         <v>669</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
         <v>670</v>
       </c>
-      <c r="D40" t="s">
+      <c r="F40" t="s">
         <v>671</v>
-      </c>
-      <c r="E40" t="s">
-        <v>672</v>
-      </c>
-      <c r="F40" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B43" t="s">
+        <v>672</v>
+      </c>
+      <c r="C43" t="s">
+        <v>673</v>
+      </c>
+      <c r="D43" t="s">
         <v>674</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
         <v>675</v>
       </c>
-      <c r="D43" t="s">
+      <c r="F43" t="s">
         <v>676</v>
-      </c>
-      <c r="E43" t="s">
-        <v>677</v>
-      </c>
-      <c r="F43" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B44" t="s">
+        <v>677</v>
+      </c>
+      <c r="C44" t="s">
+        <v>678</v>
+      </c>
+      <c r="D44" t="s">
         <v>679</v>
       </c>
-      <c r="C44" t="s">
+      <c r="E44" t="s">
         <v>680</v>
       </c>
-      <c r="D44" t="s">
+      <c r="F44" t="s">
         <v>681</v>
-      </c>
-      <c r="E44" t="s">
-        <v>682</v>
-      </c>
-      <c r="F44" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B47" t="s">
+        <v>682</v>
+      </c>
+      <c r="C47" t="s">
+        <v>683</v>
+      </c>
+      <c r="D47" t="s">
         <v>684</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
         <v>685</v>
       </c>
-      <c r="D47" t="s">
+      <c r="F47" t="s">
         <v>686</v>
-      </c>
-      <c r="E47" t="s">
-        <v>687</v>
-      </c>
-      <c r="F47" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B48" t="s">
+        <v>687</v>
+      </c>
+      <c r="C48" t="s">
+        <v>688</v>
+      </c>
+      <c r="D48" t="s">
         <v>689</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
         <v>690</v>
       </c>
-      <c r="D48" t="s">
+      <c r="F48" t="s">
         <v>691</v>
-      </c>
-      <c r="E48" t="s">
-        <v>692</v>
-      </c>
-      <c r="F48" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B49" t="s">
+        <v>692</v>
+      </c>
+      <c r="C49" t="s">
+        <v>693</v>
+      </c>
+      <c r="D49" t="s">
         <v>694</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
         <v>695</v>
       </c>
-      <c r="D49" t="s">
+      <c r="F49" t="s">
         <v>696</v>
-      </c>
-      <c r="E49" t="s">
-        <v>697</v>
-      </c>
-      <c r="F49" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B53" t="s">
+        <v>697</v>
+      </c>
+      <c r="C53" t="s">
+        <v>698</v>
+      </c>
+      <c r="D53" t="s">
         <v>699</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
         <v>700</v>
       </c>
-      <c r="D53" t="s">
+      <c r="F53" t="s">
         <v>701</v>
-      </c>
-      <c r="E53" t="s">
-        <v>702</v>
-      </c>
-      <c r="F53" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B54" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C54" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D54" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E54" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F54" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B55" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C55" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D55" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E55" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F55" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B56" t="s">
+        <v>702</v>
+      </c>
+      <c r="C56" t="s">
+        <v>703</v>
+      </c>
+      <c r="D56" t="s">
         <v>704</v>
       </c>
-      <c r="C56" t="s">
+      <c r="E56" t="s">
         <v>705</v>
       </c>
-      <c r="D56" t="s">
-        <v>706</v>
-      </c>
-      <c r="E56" t="s">
-        <v>707</v>
-      </c>
       <c r="F56" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B58" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C58" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D58" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E58" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F58" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B59" t="s">
+        <v>706</v>
+      </c>
+      <c r="C59" t="s">
+        <v>707</v>
+      </c>
+      <c r="D59" t="s">
         <v>708</v>
       </c>
-      <c r="C59" t="s">
+      <c r="E59" t="s">
         <v>709</v>
       </c>
-      <c r="D59" t="s">
+      <c r="F59" t="s">
         <v>710</v>
-      </c>
-      <c r="E59" t="s">
-        <v>711</v>
-      </c>
-      <c r="F59" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B60" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C60" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D60" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E60" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F60" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B61" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C61" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D61" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E61" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F61" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B62" t="s">
+        <v>711</v>
+      </c>
+      <c r="C62" t="s">
+        <v>712</v>
+      </c>
+      <c r="D62" t="s">
         <v>713</v>
       </c>
-      <c r="C62" t="s">
+      <c r="E62" t="s">
         <v>714</v>
       </c>
-      <c r="D62" t="s">
+      <c r="F62" t="s">
         <v>715</v>
-      </c>
-      <c r="E62" t="s">
-        <v>716</v>
-      </c>
-      <c r="F62" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B63" t="s">
+        <v>716</v>
+      </c>
+      <c r="C63" t="s">
+        <v>716</v>
+      </c>
+      <c r="D63" t="s">
+        <v>717</v>
+      </c>
+      <c r="E63" t="s">
         <v>718</v>
       </c>
-      <c r="C63" t="s">
-        <v>718</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="F63" t="s">
         <v>719</v>
-      </c>
-      <c r="E63" t="s">
-        <v>720</v>
-      </c>
-      <c r="F63" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B64" t="s">
+        <v>720</v>
+      </c>
+      <c r="C64" t="s">
+        <v>721</v>
+      </c>
+      <c r="D64" t="s">
         <v>722</v>
       </c>
-      <c r="C64" t="s">
+      <c r="E64" t="s">
         <v>723</v>
       </c>
-      <c r="D64" t="s">
+      <c r="F64" t="s">
         <v>724</v>
-      </c>
-      <c r="E64" t="s">
-        <v>725</v>
-      </c>
-      <c r="F64" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B65" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C65" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D65" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E65" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F65" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B66" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C66" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D66" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E66" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F66" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B67" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C67" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D67" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E67" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F67" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B68" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C68" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D68" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E68" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F68" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B69" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C69" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D69" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E69" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F69" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B72" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C72" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D72" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E72" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F72" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B73" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C73" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D73" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E73" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F73" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B74" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C74" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D74" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E74" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F74" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B75" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C75" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D75" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E75" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F75" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B76" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C76" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D76" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E76" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F76" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B78" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C78" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D78" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E78" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F78" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B79" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C79" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D79" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E79" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F79" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B81" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C81" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D81" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E81" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F81" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B82" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C82" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D82" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E82" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F82" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B83" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C83" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D83" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E83" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F83" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B84" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C84" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D84" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E84" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F84" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B85" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C85" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D85" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E85" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F85" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B86" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C86" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D86" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E86" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F86" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -7899,42 +7899,42 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B88" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C88" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D88" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E88" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F88" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B89" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C89" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D89" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E89" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F89" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -7959,42 +7959,42 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B91" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C91" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D91" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E91" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F91" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B92" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C92" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D92" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E92" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F92" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8019,22 +8019,22 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B94" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C94" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D94" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E94" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F94" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -8083,12 +8083,12 @@
         <v>30</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" thickTop="1" thickBot="1">
       <c r="A3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -8104,28 +8104,28 @@
         <v>33</v>
       </c>
       <c r="L3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4">
         <f>100/31.536</f>
         <v>3.1709791983764584</v>
       </c>
       <c r="K4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L4">
         <v>36.779029999999999</v>
@@ -8136,20 +8136,20 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5">
         <f>3.6</f>
         <v>3.6</v>
       </c>
       <c r="K5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L5">
         <v>-8.8383000000000003</v>
@@ -8160,19 +8160,19 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6">
         <v>100</v>
       </c>
       <c r="K6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L6">
         <v>41.327500000000001</v>
@@ -8183,10 +8183,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
@@ -8195,7 +8195,7 @@
         <v>-1</v>
       </c>
       <c r="K7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L7">
         <v>25.23</v>
@@ -8206,7 +8206,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="K8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L8">
         <v>-34.602499999999999</v>
@@ -8217,7 +8217,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="K9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L9">
         <v>40.181199999999997</v>
@@ -8228,7 +8228,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="K10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L10">
         <v>-12.4254</v>
@@ -8239,7 +8239,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="K11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L11">
         <v>-27.454999999999998</v>
@@ -8250,7 +8250,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="K12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L12">
         <v>-34.935000000000002</v>
@@ -8261,7 +8261,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="K13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L13">
         <v>-33.92</v>
@@ -8272,7 +8272,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="K14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L14">
         <v>-42.85</v>
@@ -8283,7 +8283,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="K15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L15">
         <v>-37.82</v>
@@ -8294,7 +8294,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="K16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L16">
         <v>-31.954999999999998</v>
@@ -8305,7 +8305,7 @@
     </row>
     <row r="17" spans="11:13">
       <c r="K17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="L17">
         <v>48.2</v>
@@ -8316,7 +8316,7 @@
     </row>
     <row r="18" spans="11:13">
       <c r="K18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L18">
         <v>40.395299999999999</v>
@@ -8327,7 +8327,7 @@
     </row>
     <row r="19" spans="11:13">
       <c r="K19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L19">
         <v>-3.3761000000000001</v>
@@ -8338,7 +8338,7 @@
     </row>
     <row r="20" spans="11:13">
       <c r="K20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L20">
         <v>50.833300000000001</v>
@@ -8349,7 +8349,7 @@
     </row>
     <row r="21" spans="11:13">
       <c r="K21" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L21">
         <v>7.1904000000000003</v>
@@ -8360,7 +8360,7 @@
     </row>
     <row r="22" spans="11:13">
       <c r="K22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L22">
         <v>12.3703</v>
@@ -8371,7 +8371,7 @@
     </row>
     <row r="23" spans="11:13">
       <c r="K23" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L23">
         <v>23.723099999999999</v>
@@ -8382,7 +8382,7 @@
     </row>
     <row r="24" spans="11:13">
       <c r="K24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L24">
         <v>42.683300000000003</v>
@@ -8393,7 +8393,7 @@
     </row>
     <row r="25" spans="11:13">
       <c r="K25" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L25">
         <v>26.2361</v>
@@ -8404,7 +8404,7 @@
     </row>
     <row r="26" spans="11:13">
       <c r="K26" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L26">
         <v>43.85</v>
@@ -8415,7 +8415,7 @@
     </row>
     <row r="27" spans="11:13">
       <c r="K27" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L27">
         <v>53.9</v>
@@ -8426,7 +8426,7 @@
     </row>
     <row r="28" spans="11:13">
       <c r="K28" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L28">
         <v>17.498699999999999</v>
@@ -8437,7 +8437,7 @@
     </row>
     <row r="29" spans="11:13">
       <c r="K29" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L29">
         <v>-17.753900000000002</v>
@@ -8448,7 +8448,7 @@
     </row>
     <row r="30" spans="11:13">
       <c r="K30" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L30">
         <v>-1.45</v>
@@ -8459,7 +8459,7 @@
     </row>
     <row r="31" spans="11:13">
       <c r="K31" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L31">
         <v>4.8833000000000002</v>
@@ -8470,7 +8470,7 @@
     </row>
     <row r="32" spans="11:13">
       <c r="K32" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L32">
         <v>27.472999999999999</v>
@@ -8481,7 +8481,7 @@
     </row>
     <row r="33" spans="11:13">
       <c r="K33" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L33">
         <v>-24.6463</v>
@@ -8492,7 +8492,7 @@
     </row>
     <row r="34" spans="11:13">
       <c r="K34" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L34">
         <v>4.3666</v>
@@ -8503,7 +8503,7 @@
     </row>
     <row r="35" spans="11:13">
       <c r="K35" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="L35">
         <v>43.7</v>
@@ -8514,7 +8514,7 @@
     </row>
     <row r="36" spans="11:13">
       <c r="K36" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="L36">
         <v>47.38</v>
@@ -8525,7 +8525,7 @@
     </row>
     <row r="37" spans="11:13">
       <c r="K37" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L37">
         <v>-33.450000000000003</v>
@@ -8536,7 +8536,7 @@
     </row>
     <row r="38" spans="11:13">
       <c r="K38" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="L38">
         <v>39.928899999999999</v>
@@ -8547,7 +8547,7 @@
     </row>
     <row r="39" spans="11:13">
       <c r="K39" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L39">
         <v>5.32</v>
@@ -8558,7 +8558,7 @@
     </row>
     <row r="40" spans="11:13">
       <c r="K40" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="L40">
         <v>3.8666999999999998</v>
@@ -8569,7 +8569,7 @@
     </row>
     <row r="41" spans="11:13">
       <c r="K41" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L41">
         <v>-4.3296999999999999</v>
@@ -8580,7 +8580,7 @@
     </row>
     <row r="42" spans="11:13">
       <c r="K42" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L42">
         <v>-4.2591999999999999</v>
@@ -8591,7 +8591,7 @@
     </row>
     <row r="43" spans="11:13">
       <c r="K43" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L43">
         <v>4.5964</v>
@@ -8602,7 +8602,7 @@
     </row>
     <row r="44" spans="11:13">
       <c r="K44" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L44">
         <v>9.9347390000000004</v>
@@ -8613,7 +8613,7 @@
     </row>
     <row r="45" spans="11:13">
       <c r="K45" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L45">
         <v>23.132000000000001</v>
@@ -8624,7 +8624,7 @@
     </row>
     <row r="46" spans="11:13">
       <c r="K46" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="L46">
         <v>35.166699999999999</v>
@@ -8635,7 +8635,7 @@
     </row>
     <row r="47" spans="11:13">
       <c r="K47" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L47">
         <v>50.083300000000001</v>
@@ -8646,7 +8646,7 @@
     </row>
     <row r="48" spans="11:13">
       <c r="K48" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L48">
         <v>52.521799999999999</v>
@@ -8657,7 +8657,7 @@
     </row>
     <row r="49" spans="11:13">
       <c r="K49" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="L49">
         <v>11.595000000000001</v>
@@ -8668,7 +8668,7 @@
     </row>
     <row r="50" spans="11:13">
       <c r="K50" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L50">
         <v>55.678600000000003</v>
@@ -8679,7 +8679,7 @@
     </row>
     <row r="51" spans="11:13">
       <c r="K51" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L51">
         <v>18.470099999999999</v>
@@ -8690,7 +8690,7 @@
     </row>
     <row r="52" spans="11:13">
       <c r="K52" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="L52">
         <v>36.763100000000001</v>
@@ -8701,7 +8701,7 @@
     </row>
     <row r="53" spans="11:13">
       <c r="K53" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L53">
         <v>-2.2200000000000002</v>
@@ -8712,7 +8712,7 @@
     </row>
     <row r="54" spans="11:13">
       <c r="K54" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L54">
         <v>30.05</v>
@@ -8723,7 +8723,7 @@
     </row>
     <row r="55" spans="11:13">
       <c r="K55" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L55">
         <v>15.333299999999999</v>
@@ -8734,7 +8734,7 @@
     </row>
     <row r="56" spans="11:13">
       <c r="K56" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L56">
         <v>27.15</v>
@@ -8745,7 +8745,7 @@
     </row>
     <row r="57" spans="11:13">
       <c r="K57" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L57">
         <v>40.4</v>
@@ -8756,7 +8756,7 @@
     </row>
     <row r="58" spans="11:13">
       <c r="K58" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="L58">
         <v>59.436962000000001</v>
@@ -8767,7 +8767,7 @@
     </row>
     <row r="59" spans="11:13">
       <c r="K59" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L59">
         <v>13.5</v>
@@ -8778,7 +8778,7 @@
     </row>
     <row r="60" spans="11:13">
       <c r="K60" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L60">
         <v>60.175600000000003</v>
@@ -8789,7 +8789,7 @@
     </row>
     <row r="61" spans="11:13">
       <c r="K61" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L61">
         <v>48.866700000000002</v>
@@ -8800,7 +8800,7 @@
     </row>
     <row r="62" spans="11:13">
       <c r="K62" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="L62">
         <v>0.38540000000000002</v>
@@ -8811,7 +8811,7 @@
     </row>
     <row r="63" spans="11:13">
       <c r="K63" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="L63">
         <v>51.5</v>
@@ -8822,7 +8822,7 @@
     </row>
     <row r="64" spans="11:13">
       <c r="K64" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L64">
         <v>41.725000000000001</v>
@@ -8833,7 +8833,7 @@
     </row>
     <row r="65" spans="11:13">
       <c r="K65" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L65">
         <v>6.69</v>
@@ -8844,7 +8844,7 @@
     </row>
     <row r="66" spans="11:13">
       <c r="K66" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L66">
         <v>9.5314999999999994</v>
@@ -8855,7 +8855,7 @@
     </row>
     <row r="67" spans="11:13">
       <c r="K67" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L67">
         <v>13.448395</v>
@@ -8866,7 +8866,7 @@
     </row>
     <row r="68" spans="11:13">
       <c r="K68" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L68">
         <v>11.865</v>
@@ -8877,7 +8877,7 @@
     </row>
     <row r="69" spans="11:13">
       <c r="K69" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L69">
         <v>1.87</v>
@@ -8888,7 +8888,7 @@
     </row>
     <row r="70" spans="11:13">
       <c r="K70" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="L70">
         <v>37.9833</v>
@@ -8899,7 +8899,7 @@
     </row>
     <row r="71" spans="11:13">
       <c r="K71" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="L71">
         <v>60.270832249999998</v>
@@ -8910,7 +8910,7 @@
     </row>
     <row r="72" spans="11:13">
       <c r="K72" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="L72">
         <v>14.6211</v>
@@ -8921,7 +8921,7 @@
     </row>
     <row r="73" spans="11:13">
       <c r="K73" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L73">
         <v>4.9223999999999997</v>
@@ -8932,7 +8932,7 @@
     </row>
     <row r="74" spans="11:13">
       <c r="K74" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L74">
         <v>6.8019999999999996</v>
@@ -8943,7 +8943,7 @@
     </row>
     <row r="75" spans="11:13">
       <c r="K75" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="L75">
         <v>14.102</v>
@@ -8954,7 +8954,7 @@
     </row>
     <row r="76" spans="11:13">
       <c r="K76" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L76">
         <v>45.8</v>
@@ -8965,7 +8965,7 @@
     </row>
     <row r="77" spans="11:13">
       <c r="K77" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L77">
         <v>18.533332999999999</v>
@@ -8976,7 +8976,7 @@
     </row>
     <row r="78" spans="11:13">
       <c r="K78" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L78">
         <v>47.5</v>
@@ -8987,7 +8987,7 @@
     </row>
     <row r="79" spans="11:13">
       <c r="K79" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L79">
         <v>-6.1744000000000003</v>
@@ -8998,7 +8998,7 @@
     </row>
     <row r="80" spans="11:13">
       <c r="K80" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="L80">
         <v>28.67</v>
@@ -9009,7 +9009,7 @@
     </row>
     <row r="81" spans="11:13">
       <c r="K81" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L81">
         <v>53.333100000000002</v>
@@ -9020,7 +9020,7 @@
     </row>
     <row r="82" spans="11:13">
       <c r="K82" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="L82">
         <v>35.671900000000001</v>
@@ -9031,7 +9031,7 @@
     </row>
     <row r="83" spans="11:13">
       <c r="K83" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L83">
         <v>33.3386</v>
@@ -9042,7 +9042,7 @@
     </row>
     <row r="84" spans="11:13">
       <c r="K84" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="L84">
         <v>64.150000000000006</v>
@@ -9053,7 +9053,7 @@
     </row>
     <row r="85" spans="11:13">
       <c r="K85" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L85">
         <v>32.08</v>
@@ -9064,7 +9064,7 @@
     </row>
     <row r="86" spans="11:13">
       <c r="K86" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L86">
         <v>41.896000000000001</v>
@@ -9075,7 +9075,7 @@
     </row>
     <row r="87" spans="11:13">
       <c r="K87" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L87">
         <v>17.9771</v>
@@ -9086,7 +9086,7 @@
     </row>
     <row r="88" spans="11:13">
       <c r="K88" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="L88">
         <v>31.95</v>
@@ -9097,7 +9097,7 @@
     </row>
     <row r="89" spans="11:13">
       <c r="K89" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L89">
         <v>35.685000000000002</v>
@@ -9108,7 +9108,7 @@
     </row>
     <row r="90" spans="11:13">
       <c r="K90" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L90">
         <v>43.325000000000003</v>
@@ -9119,7 +9119,7 @@
     </row>
     <row r="91" spans="11:13">
       <c r="K91" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="L91">
         <v>-1.2833000000000001</v>
@@ -9130,7 +9130,7 @@
     </row>
     <row r="92" spans="11:13">
       <c r="K92" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="L92">
         <v>42.873100000000001</v>
@@ -9141,7 +9141,7 @@
     </row>
     <row r="93" spans="11:13">
       <c r="K93" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="L93">
         <v>11.55</v>
@@ -9152,7 +9152,7 @@
     </row>
     <row r="94" spans="11:13">
       <c r="K94" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="L94">
         <v>37.566299999999998</v>
@@ -9163,7 +9163,7 @@
     </row>
     <row r="95" spans="11:13">
       <c r="K95" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="L95">
         <v>42.6629</v>
@@ -9174,7 +9174,7 @@
     </row>
     <row r="96" spans="11:13">
       <c r="K96" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L96">
         <v>29.369700000000002</v>
@@ -9185,7 +9185,7 @@
     </row>
     <row r="97" spans="11:13">
       <c r="K97" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L97">
         <v>17.966699999999999</v>
@@ -9196,7 +9196,7 @@
     </row>
     <row r="98" spans="11:13">
       <c r="K98" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="L98">
         <v>33.872</v>
@@ -9207,7 +9207,7 @@
     </row>
     <row r="99" spans="11:13">
       <c r="K99" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L99">
         <v>6.3106</v>
@@ -9218,7 +9218,7 @@
     </row>
     <row r="100" spans="11:13">
       <c r="K100" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L100">
         <v>32.892499999999998</v>
@@ -9229,7 +9229,7 @@
     </row>
     <row r="101" spans="11:13">
       <c r="K101" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L101">
         <v>6.9320000000000004</v>
@@ -9240,7 +9240,7 @@
     </row>
     <row r="102" spans="11:13">
       <c r="K102" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L102">
         <v>-29.316700000000001</v>
@@ -9251,7 +9251,7 @@
     </row>
     <row r="103" spans="11:13">
       <c r="K103" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="L103">
         <v>54.683399999999999</v>
@@ -9262,7 +9262,7 @@
     </row>
     <row r="104" spans="11:13">
       <c r="K104" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="L104">
         <v>49.611621999999997</v>
@@ -9273,7 +9273,7 @@
     </row>
     <row r="105" spans="11:13">
       <c r="K105" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L105">
         <v>56.95</v>
@@ -9284,7 +9284,7 @@
     </row>
     <row r="106" spans="11:13">
       <c r="K106" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L106">
         <v>33.6</v>
@@ -9295,7 +9295,7 @@
     </row>
     <row r="107" spans="11:13">
       <c r="K107" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L107">
         <v>47.005000000000003</v>
@@ -9306,7 +9306,7 @@
     </row>
     <row r="108" spans="11:13">
       <c r="K108" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L108">
         <v>-18.916599999999999</v>
@@ -9317,7 +9317,7 @@
     </row>
     <row r="109" spans="11:13">
       <c r="K109" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L109">
         <v>19.442399999999999</v>
@@ -9328,7 +9328,7 @@
     </row>
     <row r="110" spans="11:13">
       <c r="K110" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L110">
         <v>42</v>
@@ -9339,7 +9339,7 @@
     </row>
     <row r="111" spans="11:13">
       <c r="K111" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="L111">
         <v>12.65</v>
@@ -9350,7 +9350,7 @@
     </row>
     <row r="112" spans="11:13">
       <c r="K112" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L112">
         <v>35.899700000000003</v>
@@ -9361,7 +9361,7 @@
     </row>
     <row r="113" spans="11:13">
       <c r="K113" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="L113">
         <v>16.871310999999999</v>
@@ -9372,7 +9372,7 @@
     </row>
     <row r="114" spans="11:13">
       <c r="K114" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L114">
         <v>42.442574</v>
@@ -9383,7 +9383,7 @@
     </row>
     <row r="115" spans="11:13">
       <c r="K115" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L115">
         <v>47.916699999999999</v>
@@ -9394,7 +9394,7 @@
     </row>
     <row r="116" spans="11:13">
       <c r="K116" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L116">
         <v>-25.9696</v>
@@ -9405,7 +9405,7 @@
     </row>
     <row r="117" spans="11:13">
       <c r="K117" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L117">
         <v>18.086400000000001</v>
@@ -9416,7 +9416,7 @@
     </row>
     <row r="118" spans="11:13">
       <c r="K118" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="L118">
         <v>-13.9833</v>
@@ -9427,7 +9427,7 @@
     </row>
     <row r="119" spans="11:13">
       <c r="K119" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="L119">
         <v>3.1667000000000001</v>
@@ -9438,7 +9438,7 @@
     </row>
     <row r="120" spans="11:13">
       <c r="K120" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="L120">
         <v>-22.57</v>
@@ -9449,7 +9449,7 @@
     </row>
     <row r="121" spans="11:13">
       <c r="K121" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L121">
         <v>13.5167</v>
@@ -9460,7 +9460,7 @@
     </row>
     <row r="122" spans="11:13">
       <c r="K122" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L122">
         <v>6.4432999999999998</v>
@@ -9471,7 +9471,7 @@
     </row>
     <row r="123" spans="11:13">
       <c r="K123" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="L123">
         <v>12.153</v>
@@ -9482,7 +9482,7 @@
     </row>
     <row r="124" spans="11:13">
       <c r="K124" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L124">
         <v>52.35</v>
@@ -9493,7 +9493,7 @@
     </row>
     <row r="125" spans="11:13">
       <c r="K125" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="L125">
         <v>59.916699999999999</v>
@@ -9504,7 +9504,7 @@
     </row>
     <row r="126" spans="11:13">
       <c r="K126" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="L126">
         <v>27.716699999999999</v>
@@ -9515,7 +9515,7 @@
     </row>
     <row r="127" spans="11:13">
       <c r="K127" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="L127">
         <v>-36.848100000000002</v>
@@ -9526,7 +9526,7 @@
     </row>
     <row r="128" spans="11:13">
       <c r="K128" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L128">
         <v>23.613299999999999</v>
@@ -9537,7 +9537,7 @@
     </row>
     <row r="129" spans="11:13">
       <c r="K129" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="L129">
         <v>24.87</v>
@@ -9548,7 +9548,7 @@
     </row>
     <row r="130" spans="11:13">
       <c r="K130" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="L130">
         <v>8.968</v>
@@ -9559,7 +9559,7 @@
     </row>
     <row r="131" spans="11:13">
       <c r="K131" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L131">
         <v>-12.048</v>
@@ -9570,7 +9570,7 @@
     </row>
     <row r="132" spans="11:13">
       <c r="K132" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="L132">
         <v>14.604200000000001</v>
@@ -9581,7 +9581,7 @@
     </row>
     <row r="133" spans="11:13">
       <c r="K133" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="L133">
         <v>-9.4647000000000006</v>
@@ -9592,7 +9592,7 @@
     </row>
     <row r="134" spans="11:13">
       <c r="K134" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L134">
         <v>52.25</v>
@@ -9603,7 +9603,7 @@
     </row>
     <row r="135" spans="11:13">
       <c r="K135" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="L135">
         <v>39.019399999999997</v>
@@ -9614,7 +9614,7 @@
     </row>
     <row r="136" spans="11:13">
       <c r="K136" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="L136">
         <v>38.722700000000003</v>
@@ -9625,7 +9625,7 @@
     </row>
     <row r="137" spans="11:13">
       <c r="K137" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="L137">
         <v>-25.296399999999998</v>
@@ -9636,7 +9636,7 @@
     </row>
     <row r="138" spans="11:13">
       <c r="K138" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L138">
         <v>25.291899999999998</v>
@@ -9647,7 +9647,7 @@
     </row>
     <row r="139" spans="11:13">
       <c r="K139" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L139">
         <v>44.433399999999999</v>
@@ -9658,7 +9658,7 @@
     </row>
     <row r="140" spans="11:13">
       <c r="K140" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="L140">
         <v>55.749899999999997</v>
@@ -9669,7 +9669,7 @@
     </row>
     <row r="141" spans="11:13">
       <c r="K141" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L141">
         <v>-1.9536</v>
@@ -9680,7 +9680,7 @@
     </row>
     <row r="142" spans="11:13">
       <c r="K142" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L142">
         <v>24.640799999999999</v>
@@ -9691,7 +9691,7 @@
     </row>
     <row r="143" spans="11:13">
       <c r="K143" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L143">
         <v>15.588100000000001</v>
@@ -9702,7 +9702,7 @@
     </row>
     <row r="144" spans="11:13">
       <c r="K144" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L144">
         <v>14.7158</v>
@@ -9713,7 +9713,7 @@
     </row>
     <row r="145" spans="11:13">
       <c r="K145" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L145">
         <v>1.2929999999999999</v>
@@ -9724,7 +9724,7 @@
     </row>
     <row r="146" spans="11:13">
       <c r="K146" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L146">
         <v>8.4700000000000006</v>
@@ -9735,7 +9735,7 @@
     </row>
     <row r="147" spans="11:13">
       <c r="K147" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L147">
         <v>13.71</v>
@@ -9746,7 +9746,7 @@
     </row>
     <row r="148" spans="11:13">
       <c r="K148" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L148">
         <v>2.0667</v>
@@ -9757,7 +9757,7 @@
     </row>
     <row r="149" spans="11:13">
       <c r="K149" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L149">
         <v>44.818600000000004</v>
@@ -9768,7 +9768,7 @@
     </row>
     <row r="150" spans="11:13">
       <c r="K150" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L150">
         <v>5.835</v>
@@ -9779,7 +9779,7 @@
     </row>
     <row r="151" spans="11:13">
       <c r="K151" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L151">
         <v>48.15</v>
@@ -9790,7 +9790,7 @@
     </row>
     <row r="152" spans="11:13">
       <c r="K152" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L152">
         <v>46.055300000000003</v>
@@ -9801,7 +9801,7 @@
     </row>
     <row r="153" spans="11:13">
       <c r="K153" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L153">
         <v>59.3508</v>
@@ -9812,7 +9812,7 @@
     </row>
     <row r="154" spans="11:13">
       <c r="K154" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L154">
         <v>-26.495000000000001</v>
@@ -9823,7 +9823,7 @@
     </row>
     <row r="155" spans="11:13">
       <c r="K155" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L155">
         <v>33.5</v>
@@ -9834,7 +9834,7 @@
     </row>
     <row r="156" spans="11:13">
       <c r="K156" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L156">
         <v>12.113099999999999</v>
@@ -9845,7 +9845,7 @@
     </row>
     <row r="157" spans="11:13">
       <c r="K157" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L157">
         <v>6.1318999999999999</v>
@@ -9856,7 +9856,7 @@
     </row>
     <row r="158" spans="11:13">
       <c r="K158" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L158">
         <v>13.75</v>
@@ -9867,7 +9867,7 @@
     </row>
     <row r="159" spans="11:13">
       <c r="K159" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L159">
         <v>38.56</v>
@@ -9878,7 +9878,7 @@
     </row>
     <row r="160" spans="11:13">
       <c r="K160" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L160">
         <v>37.950000000000003</v>
@@ -9889,7 +9889,7 @@
     </row>
     <row r="161" spans="11:13">
       <c r="K161" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L161">
         <v>-8.5594000000000001</v>
@@ -9900,7 +9900,7 @@
     </row>
     <row r="162" spans="11:13">
       <c r="K162" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L162">
         <v>10.651999999999999</v>
@@ -9911,7 +9911,7 @@
     </row>
     <row r="163" spans="11:13">
       <c r="K163" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L163">
         <v>36.802799999999998</v>
@@ -9922,7 +9922,7 @@
     </row>
     <row r="164" spans="11:13">
       <c r="K164" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L164">
         <v>41.104999999999997</v>
@@ -9933,7 +9933,7 @@
     </row>
     <row r="165" spans="11:13">
       <c r="K165" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L165">
         <v>25.035799999999998</v>
@@ -9944,7 +9944,7 @@
     </row>
     <row r="166" spans="11:13">
       <c r="K166" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L166">
         <v>-6.8</v>
@@ -9955,7 +9955,7 @@
     </row>
     <row r="167" spans="11:13">
       <c r="K167" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L167">
         <v>0.31669999999999998</v>
@@ -9966,7 +9966,7 @@
     </row>
     <row r="168" spans="11:13">
       <c r="K168" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L168">
         <v>50.434341000000003</v>
@@ -9977,7 +9977,7 @@
     </row>
     <row r="169" spans="11:13">
       <c r="K169" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="L169">
         <v>-34.857999999999997</v>
@@ -9988,7 +9988,7 @@
     </row>
     <row r="170" spans="11:13">
       <c r="K170" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="L170">
         <v>44.963500000000003</v>
@@ -9999,7 +9999,7 @@
     </row>
     <row r="171" spans="11:13">
       <c r="K171" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L171">
         <v>41.311700000000002</v>
@@ -10010,7 +10010,7 @@
     </row>
     <row r="172" spans="11:13">
       <c r="K172" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L172">
         <v>10.5</v>
@@ -10021,7 +10021,7 @@
     </row>
     <row r="173" spans="11:13">
       <c r="K173" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="L173">
         <v>10.810582999999999</v>
@@ -10032,7 +10032,7 @@
     </row>
     <row r="174" spans="11:13">
       <c r="K174" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L174">
         <v>15.354699999999999</v>
@@ -10043,7 +10043,7 @@
     </row>
     <row r="175" spans="11:13">
       <c r="K175" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="L175">
         <v>-26.17</v>
@@ -10054,7 +10054,7 @@
     </row>
     <row r="176" spans="11:13">
       <c r="K176" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L176">
         <v>-15.416600000000001</v>
@@ -10065,7 +10065,7 @@
     </row>
     <row r="177" spans="11:13">
       <c r="K177" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="L177">
         <v>-17.817799999999998</v>
@@ -10076,7 +10076,7 @@
     </row>
     <row r="178" spans="11:13">
       <c r="K178" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L178">
         <v>4.8539000000000003</v>
@@ -10093,11 +10093,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet19"/>
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10192,19 +10192,19 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>299</v>
+      </c>
+      <c r="H3" t="s">
         <v>300</v>
-      </c>
-      <c r="H3" t="s">
-        <v>301</v>
       </c>
       <c r="K3" t="s">
         <v>37</v>
       </c>
       <c r="N3" t="s">
+        <v>301</v>
+      </c>
+      <c r="P3" t="s">
         <v>302</v>
-      </c>
-      <c r="P3" t="s">
-        <v>303</v>
       </c>
       <c r="Q3" t="s">
         <v>59</v>
@@ -10215,16 +10215,16 @@
         <v>6</v>
       </c>
       <c r="H4" t="s">
+        <v>783</v>
+      </c>
+      <c r="K4" t="s">
+        <v>784</v>
+      </c>
+      <c r="N4" t="s">
         <v>785</v>
       </c>
-      <c r="K4" t="s">
+      <c r="P4" t="s">
         <v>786</v>
-      </c>
-      <c r="N4" t="s">
-        <v>787</v>
-      </c>
-      <c r="P4" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -10232,16 +10232,16 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K5" t="s">
+        <v>303</v>
+      </c>
+      <c r="N5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" t="s">
         <v>304</v>
-      </c>
-      <c r="N5" t="s">
-        <v>63</v>
-      </c>
-      <c r="P5" t="s">
-        <v>305</v>
       </c>
       <c r="Q5" t="s">
         <v>59</v>
@@ -10252,13 +10252,13 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
+        <v>305</v>
+      </c>
+      <c r="K6" t="s">
+        <v>303</v>
+      </c>
+      <c r="N6" t="s">
         <v>306</v>
-      </c>
-      <c r="K6" t="s">
-        <v>304</v>
-      </c>
-      <c r="N6" t="s">
-        <v>307</v>
       </c>
       <c r="Q6" t="s">
         <v>59</v>
@@ -10269,20 +10269,20 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>814</v>
+        <v>493</v>
       </c>
       <c r="H7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I7" s="2"/>
       <c r="K7" t="s">
         <v>37</v>
       </c>
       <c r="N7" t="s">
-        <v>62</v>
+        <v>815</v>
       </c>
       <c r="P7" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="Q7" t="s">
         <v>59</v>
@@ -10290,23 +10290,19 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="H8" t="s">
-        <v>301</v>
-      </c>
-      <c r="I8" s="2"/>
+        <v>300</v>
+      </c>
       <c r="K8" t="s">
-        <v>310</v>
+        <v>37</v>
       </c>
       <c r="N8" t="s">
-        <v>62</v>
-      </c>
-      <c r="P8" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="Q8" t="s">
         <v>59</v>
@@ -10314,19 +10310,19 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>307</v>
+      </c>
+      <c r="H9" t="s">
+        <v>300</v>
+      </c>
+      <c r="K9" t="s">
         <v>308</v>
       </c>
-      <c r="H9" t="s">
-        <v>301</v>
-      </c>
-      <c r="K9" t="s">
-        <v>37</v>
-      </c>
       <c r="N9" t="s">
-        <v>309</v>
+        <v>814</v>
       </c>
       <c r="Q9" t="s">
         <v>59</v>
@@ -10334,19 +10330,19 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H10" t="s">
-        <v>301</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" t="s">
         <v>310</v>
-      </c>
-      <c r="N10" t="s">
-        <v>309</v>
       </c>
       <c r="Q10" t="s">
         <v>59</v>
@@ -10357,16 +10353,16 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="H11" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="K11" t="s">
         <v>37</v>
       </c>
       <c r="N11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q11" t="s">
         <v>59</v>
@@ -10374,19 +10370,16 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>273</v>
-      </c>
-      <c r="H12" t="s">
-        <v>100</v>
+        <v>272</v>
       </c>
       <c r="K12" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="N12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q12" t="s">
         <v>59</v>
@@ -10394,58 +10387,41 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>273</v>
+        <v>725</v>
+      </c>
+      <c r="B13" t="s">
+        <v>726</v>
+      </c>
+      <c r="I13" t="s">
+        <v>787</v>
       </c>
       <c r="K13" t="s">
-        <v>9</v>
+        <v>780</v>
       </c>
       <c r="N13" t="s">
-        <v>314</v>
+        <v>781</v>
       </c>
       <c r="Q13" t="s">
-        <v>59</v>
+        <v>782</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>727</v>
+        <v>796</v>
       </c>
       <c r="B14" t="s">
-        <v>728</v>
-      </c>
-      <c r="I14" t="s">
-        <v>789</v>
+        <v>797</v>
+      </c>
+      <c r="C14" t="s">
+        <v>309</v>
       </c>
       <c r="K14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="N14" t="s">
-        <v>783</v>
+        <v>798</v>
       </c>
       <c r="Q14" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" t="s">
-        <v>798</v>
-      </c>
-      <c r="B15" t="s">
-        <v>799</v>
-      </c>
-      <c r="C15" t="s">
-        <v>311</v>
-      </c>
-      <c r="K15" t="s">
-        <v>782</v>
-      </c>
-      <c r="N15" t="s">
-        <v>800</v>
-      </c>
-      <c r="Q15" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10476,15 +10452,15 @@
   <sheetData>
     <row r="1" spans="3:13">
       <c r="C1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="3:13">
       <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
         <v>65</v>
-      </c>
-      <c r="D2" t="s">
-        <v>66</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -10496,36 +10472,36 @@
         <v>44</v>
       </c>
       <c r="H2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" t="s">
         <v>67</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>68</v>
-      </c>
-      <c r="J2" t="s">
-        <v>69</v>
       </c>
       <c r="K2" t="s">
         <v>11</v>
       </c>
       <c r="M2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="3:13">
       <c r="C3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
         <v>71</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>72</v>
-      </c>
-      <c r="I3" t="s">
-        <v>73</v>
       </c>
       <c r="J3" t="s">
         <v>38</v>
@@ -10533,19 +10509,19 @@
     </row>
     <row r="4" spans="3:13">
       <c r="C4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s">
         <v>313</v>
       </c>
-      <c r="E4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" t="s">
-        <v>315</v>
-      </c>
       <c r="I4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J4" t="s">
         <v>38</v>
@@ -10559,10 +10535,10 @@
         <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
         <v>38</v>
@@ -10570,12 +10546,12 @@
     </row>
     <row r="9" spans="3:13">
       <c r="C9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="3:13">
       <c r="C10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -10609,7 +10585,7 @@
   <sheetData>
     <row r="3" spans="2:13" ht="17.25" thickBot="1">
       <c r="B3" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="15" thickTop="1" thickBot="1">
@@ -10620,13 +10596,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>0</v>
@@ -10644,10 +10620,10 @@
         <v>44</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="2:13">
@@ -10659,20 +10635,20 @@
         <v>MIN,U-H2P,P_All,P-HPL,R_Techs,S_Techs,T_Techs,A_Techs,I_Techs,I_Techs</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E5" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="L5" t="s">
         <v>38</v>
@@ -10691,13 +10667,13 @@
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G6" t="s">
         <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L6" t="s">
         <v>38</v>
@@ -10716,13 +10692,13 @@
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="G7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H7" t="s">
         <v>779</v>
-      </c>
-      <c r="G7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H7" t="s">
-        <v>781</v>
       </c>
       <c r="L7" t="s">
         <v>38</v>
@@ -10741,13 +10717,13 @@
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="G8" t="s">
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="L8" t="s">
         <v>38</v>
@@ -10758,17 +10734,17 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="G9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H9" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="L9" t="s">
         <v>38</v>
@@ -10779,7 +10755,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E10" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
@@ -10789,7 +10765,7 @@
         <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="L10" t="s">
         <v>38</v>
@@ -10847,12 +10823,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -10863,23 +10839,23 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
         <v>100</v>
-      </c>
-      <c r="B3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
         <v>102</v>
-      </c>
-      <c r="B4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -10887,15 +10863,15 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
         <v>105</v>
-      </c>
-      <c r="B6" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -10903,106 +10879,106 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s">
         <v>108</v>
-      </c>
-      <c r="B8" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s">
         <v>110</v>
-      </c>
-      <c r="B9" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
         <v>112</v>
-      </c>
-      <c r="B10" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" t="s">
         <v>114</v>
-      </c>
-      <c r="B11" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" t="s">
         <v>116</v>
-      </c>
-      <c r="B12" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" t="s">
         <v>118</v>
-      </c>
-      <c r="B13" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" t="s">
         <v>120</v>
-      </c>
-      <c r="B14" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" t="s">
         <v>122</v>
-      </c>
-      <c r="B15" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" t="s">
         <v>124</v>
-      </c>
-      <c r="B16" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" t="s">
         <v>126</v>
-      </c>
-      <c r="B17" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" t="s">
         <v>128</v>
-      </c>
-      <c r="B18" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" t="s">
         <v>130</v>
-      </c>
-      <c r="B19" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" t="s">
         <v>132</v>
-      </c>
-      <c r="B20" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -11014,8 +10990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF522A4-03B3-4329-9210-404B1BD4B629}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11026,12 +11002,12 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -11042,124 +11018,124 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H5" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H7" t="s">
         <v>246</v>
-      </c>
-      <c r="H7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G8" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="11" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B9" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H9" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -11179,7 +11155,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -11195,343 +11171,343 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B5" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B6" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C6" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>761</v>
+      </c>
+      <c r="B7" t="s">
+        <v>731</v>
+      </c>
+      <c r="C7" t="s">
         <v>763</v>
-      </c>
-      <c r="B7" t="s">
-        <v>733</v>
-      </c>
-      <c r="C7" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C8" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B9" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C9" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B10" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C10" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B11" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C11" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B13" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C13" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B14" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C14" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B15" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C15" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B16" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C16" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B17" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C17" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B18" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C18" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B19" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C19" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B20" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C20" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B21" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C21" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B22" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C22" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B23" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C23" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B24" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C24" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B25" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C25" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B26" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C26" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B27" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C27" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B28" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C28" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B29" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C29" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B30" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C30" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B31" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C31" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B32" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C32" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B33" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C33" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
   </sheetData>
@@ -11579,10 +11555,10 @@
         <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -11590,153 +11566,153 @@
         <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -11744,10 +11720,10 @@
         <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -11755,10 +11731,10 @@
         <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -11766,10 +11742,10 @@
         <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -11777,10 +11753,10 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -11788,10 +11764,10 @@
         <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -11799,10 +11775,10 @@
         <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -11810,10 +11786,10 @@
         <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -11821,10 +11797,10 @@
         <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -11832,10 +11808,10 @@
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -11843,10 +11819,10 @@
         <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -11854,10 +11830,10 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -11865,10 +11841,10 @@
         <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -11876,208 +11852,208 @@
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C32" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C33" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C44" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D45" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D47" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C48" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D48" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -12085,10 +12061,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D49" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -12096,87 +12072,87 @@
         <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D50" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C51" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C52" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D53" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D54" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D55" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C56" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D56" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -12184,10 +12160,10 @@
         <v>51</v>
       </c>
       <c r="C58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D58" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -12195,10 +12171,10 @@
         <v>51</v>
       </c>
       <c r="C59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D59" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -12206,10 +12182,10 @@
         <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D60" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -12217,10 +12193,10 @@
         <v>51</v>
       </c>
       <c r="C61" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D61" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -12231,7 +12207,7 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -12239,10 +12215,10 @@
         <v>51</v>
       </c>
       <c r="C63" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D63" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -12253,7 +12229,7 @@
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -12261,10 +12237,10 @@
         <v>51</v>
       </c>
       <c r="C65" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D65" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -12272,10 +12248,10 @@
         <v>51</v>
       </c>
       <c r="C66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D66" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -12283,10 +12259,10 @@
         <v>51</v>
       </c>
       <c r="C67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D67" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -12294,10 +12270,10 @@
         <v>51</v>
       </c>
       <c r="C68" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D68" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -12305,10 +12281,10 @@
         <v>51</v>
       </c>
       <c r="C69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D69" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -12316,10 +12292,10 @@
         <v>51</v>
       </c>
       <c r="C70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D70" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -12327,10 +12303,10 @@
         <v>51</v>
       </c>
       <c r="C71" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D71" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -12338,10 +12314,10 @@
         <v>51</v>
       </c>
       <c r="C72" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D72" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -12349,10 +12325,10 @@
         <v>51</v>
       </c>
       <c r="C73" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D73" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -12360,10 +12336,10 @@
         <v>51</v>
       </c>
       <c r="C74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D74" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -12371,10 +12347,10 @@
         <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D75" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -12382,10 +12358,10 @@
         <v>51</v>
       </c>
       <c r="C76" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D76" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -12393,10 +12369,10 @@
         <v>51</v>
       </c>
       <c r="C77" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D77" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -12404,10 +12380,10 @@
         <v>51</v>
       </c>
       <c r="C78" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D78" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -12415,10 +12391,10 @@
         <v>51</v>
       </c>
       <c r="C79" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D79" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -12426,10 +12402,10 @@
         <v>51</v>
       </c>
       <c r="C80" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D80" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -12437,10 +12413,10 @@
         <v>51</v>
       </c>
       <c r="C81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D81" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -12448,10 +12424,10 @@
         <v>51</v>
       </c>
       <c r="C82" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D82" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -12462,7 +12438,7 @@
         <v>36</v>
       </c>
       <c r="D83" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -12470,10 +12446,10 @@
         <v>51</v>
       </c>
       <c r="C84" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D84" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -12484,7 +12460,7 @@
         <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -12495,7 +12471,7 @@
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -12503,10 +12479,10 @@
         <v>51</v>
       </c>
       <c r="C87" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D87" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -12514,10 +12490,10 @@
         <v>51</v>
       </c>
       <c r="C88" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D88" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -12525,10 +12501,10 @@
         <v>51</v>
       </c>
       <c r="C89" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D89" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -12536,10 +12512,10 @@
         <v>51</v>
       </c>
       <c r="C90" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D90" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -12547,10 +12523,10 @@
         <v>51</v>
       </c>
       <c r="C91" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D91" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -12558,10 +12534,10 @@
         <v>51</v>
       </c>
       <c r="C92" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D92" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -12569,10 +12545,10 @@
         <v>51</v>
       </c>
       <c r="C93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D93" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -12580,54 +12556,54 @@
         <v>51</v>
       </c>
       <c r="C94" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D94" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B95" t="s">
+        <v>295</v>
+      </c>
+      <c r="C95" t="s">
         <v>296</v>
-      </c>
-      <c r="C95" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B96" t="s">
+        <v>297</v>
+      </c>
+      <c r="C96" t="s">
         <v>298</v>
-      </c>
-      <c r="C96" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C97" t="s">
+        <v>772</v>
+      </c>
+      <c r="D97" t="s">
         <v>774</v>
-      </c>
-      <c r="D97" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
+        <v>771</v>
+      </c>
+      <c r="C98" t="s">
         <v>773</v>
       </c>
-      <c r="C98" t="s">
-        <v>775</v>
-      </c>
       <c r="D98" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
   </sheetData>

--- a/ReportDefs-TIMES-GEO.xlsx
+++ b/ReportDefs-TIMES-GEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\TIMES-GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B855742-4F01-4928-BA5E-33CF681FCE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6B9BD4-1145-4818-9B2A-7AD925AF0710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
@@ -10095,7 +10095,7 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
@@ -11519,8 +11519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ADB714-E6AA-4E3E-B77B-62B65BA0E218}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11852,7 +11852,7 @@
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>186</v>
+        <v>509</v>
       </c>
       <c r="D30" t="s">
         <v>185</v>
@@ -11959,7 +11959,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="C40" t="s">
         <v>209</v>
@@ -11992,7 +11992,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="C43" t="s">
         <v>215</v>
@@ -12025,7 +12025,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="C46" t="s">
         <v>221</v>

--- a/ReportDefs-TIMES-GEO.xlsx
+++ b/ReportDefs-TIMES-GEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\TIMES-GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6B9BD4-1145-4818-9B2A-7AD925AF0710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8AF06C-AF55-4DFF-B96F-AF46A87D57B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="UnitConv" sheetId="59" r:id="rId13"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'process map'!$A$2:$B$98</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TS_Defs!$A$2:$N$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -107,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="814">
   <si>
     <t>Unit</t>
   </si>
@@ -2446,9 +2447,6 @@
     <t>&lt;cset&gt;_src_to En Sec</t>
   </si>
   <si>
-    <t>&lt;cset&gt;_snk_for EnSec</t>
-  </si>
-  <si>
     <t>USD/GJ</t>
   </si>
   <si>
@@ -2512,9 +2510,6 @@
     <t>&lt;cset&gt;_src_Import</t>
   </si>
   <si>
-    <t>T_Techs</t>
-  </si>
-  <si>
     <t>China</t>
   </si>
   <si>
@@ -2530,9 +2525,6 @@
     <t>pset_pn</t>
   </si>
   <si>
-    <t>-IMP*</t>
-  </si>
-  <si>
     <t>*CO2,-CCS*,-TOT*</t>
   </si>
   <si>
@@ -2555,6 +2547,9 @@
   </si>
   <si>
     <t>Pri_Production</t>
+  </si>
+  <si>
+    <t>&lt;cset&gt;_snk_Industry</t>
   </si>
 </sst>
 </file>
@@ -2834,7 +2829,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2857,9 +2852,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3207,7 +3199,7 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1" t="s">
         <v>90</v>
@@ -3279,7 +3271,7 @@
         <v>1</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -3314,7 +3306,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Q6">
         <v>0.1</v>
@@ -3335,7 +3327,7 @@
         <v>2</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -3370,7 +3362,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Q7">
         <v>7.4999999999999997E-2</v>
@@ -3391,7 +3383,7 @@
         <v>3</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -3426,7 +3418,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Q8">
         <v>0.05</v>
@@ -3447,7 +3439,7 @@
         <v>4</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -3482,7 +3474,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Q9">
         <v>0.02</v>
@@ -3503,7 +3495,7 @@
         <v>5</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -3538,7 +3530,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Q10">
         <v>0.01</v>
@@ -3588,7 +3580,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="Q11">
         <v>0.1</v>
@@ -3638,7 +3630,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="Q12">
         <v>7.4999999999999997E-2</v>
@@ -3688,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="Q13">
         <v>0.05</v>
@@ -3738,7 +3730,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="Q14">
         <v>0.02</v>
@@ -3788,7 +3780,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="Q15">
         <v>0.01</v>
@@ -3838,7 +3830,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Q16">
         <v>0.1</v>
@@ -3888,7 +3880,7 @@
         <v>2</v>
       </c>
       <c r="P17" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Q17">
         <v>7.4999999999999997E-2</v>
@@ -3938,7 +3930,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Q18">
         <v>0.05</v>
@@ -3988,7 +3980,7 @@
         <v>2</v>
       </c>
       <c r="P19" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Q19">
         <v>0.02</v>
@@ -4038,7 +4030,7 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Q20">
         <v>0.01</v>
@@ -4088,7 +4080,7 @@
         <v>2</v>
       </c>
       <c r="P21" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="Q21">
         <v>0.1</v>
@@ -4138,7 +4130,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="Q22">
         <v>7.4999999999999997E-2</v>
@@ -4188,7 +4180,7 @@
         <v>2</v>
       </c>
       <c r="P23" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="Q23">
         <v>0.05</v>
@@ -4238,7 +4230,7 @@
         <v>2</v>
       </c>
       <c r="P24" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="Q24">
         <v>0.02</v>
@@ -4288,7 +4280,7 @@
         <v>2</v>
       </c>
       <c r="P25" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="Q25">
         <v>0.01</v>
@@ -4338,7 +4330,7 @@
         <v>3</v>
       </c>
       <c r="P26" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Q26">
         <v>0.1</v>
@@ -4388,7 +4380,7 @@
         <v>3</v>
       </c>
       <c r="P27" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Q27">
         <v>7.4999999999999997E-2</v>
@@ -4438,7 +4430,7 @@
         <v>3</v>
       </c>
       <c r="P28" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Q28">
         <v>0.05</v>
@@ -4488,7 +4480,7 @@
         <v>3</v>
       </c>
       <c r="P29" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Q29">
         <v>0.02</v>
@@ -4538,7 +4530,7 @@
         <v>3</v>
       </c>
       <c r="P30" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Q30">
         <v>0.01</v>
@@ -4588,7 +4580,7 @@
         <v>3</v>
       </c>
       <c r="P31" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="Q31">
         <v>0.1</v>
@@ -4638,7 +4630,7 @@
         <v>3</v>
       </c>
       <c r="P32" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="Q32">
         <v>7.4999999999999997E-2</v>
@@ -4688,7 +4680,7 @@
         <v>3</v>
       </c>
       <c r="P33" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="Q33">
         <v>0.05</v>
@@ -4738,7 +4730,7 @@
         <v>3</v>
       </c>
       <c r="P34" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="Q34">
         <v>0.02</v>
@@ -4788,7 +4780,7 @@
         <v>3</v>
       </c>
       <c r="P35" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="Q35">
         <v>0.01</v>
@@ -4838,7 +4830,7 @@
         <v>4</v>
       </c>
       <c r="P36" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Q36">
         <v>0.1</v>
@@ -4888,7 +4880,7 @@
         <v>4</v>
       </c>
       <c r="P37" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Q37">
         <v>7.4999999999999997E-2</v>
@@ -4938,7 +4930,7 @@
         <v>4</v>
       </c>
       <c r="P38" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Q38">
         <v>0.05</v>
@@ -4988,7 +4980,7 @@
         <v>4</v>
       </c>
       <c r="P39" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Q39">
         <v>0.02</v>
@@ -5038,7 +5030,7 @@
         <v>4</v>
       </c>
       <c r="P40" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Q40">
         <v>0.01</v>
@@ -5088,7 +5080,7 @@
         <v>4</v>
       </c>
       <c r="P41" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="Q41">
         <v>0.1</v>
@@ -5138,7 +5130,7 @@
         <v>4</v>
       </c>
       <c r="P42" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="Q42">
         <v>7.4999999999999997E-2</v>
@@ -5188,7 +5180,7 @@
         <v>4</v>
       </c>
       <c r="P43" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="Q43">
         <v>0.05</v>
@@ -5238,7 +5230,7 @@
         <v>4</v>
       </c>
       <c r="P44" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="Q44">
         <v>0.02</v>
@@ -5288,7 +5280,7 @@
         <v>4</v>
       </c>
       <c r="P45" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="Q45">
         <v>0.01</v>
@@ -5338,7 +5330,7 @@
         <v>5</v>
       </c>
       <c r="P46" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Q46">
         <v>0.1</v>
@@ -5388,7 +5380,7 @@
         <v>5</v>
       </c>
       <c r="P47" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Q47">
         <v>7.4999999999999997E-2</v>
@@ -5438,7 +5430,7 @@
         <v>5</v>
       </c>
       <c r="P48" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Q48">
         <v>0.05</v>
@@ -5488,7 +5480,7 @@
         <v>5</v>
       </c>
       <c r="P49" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Q49">
         <v>0.02</v>
@@ -5538,7 +5530,7 @@
         <v>5</v>
       </c>
       <c r="P50" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Q50">
         <v>0.01</v>
@@ -5588,7 +5580,7 @@
         <v>5</v>
       </c>
       <c r="P51" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="Q51">
         <v>0.1</v>
@@ -5638,7 +5630,7 @@
         <v>5</v>
       </c>
       <c r="P52" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="Q52">
         <v>7.4999999999999997E-2</v>
@@ -5688,7 +5680,7 @@
         <v>5</v>
       </c>
       <c r="P53" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="Q53">
         <v>0.05</v>
@@ -5738,7 +5730,7 @@
         <v>5</v>
       </c>
       <c r="P54" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="Q54">
         <v>0.02</v>
@@ -5788,7 +5780,7 @@
         <v>5</v>
       </c>
       <c r="P55" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="Q55">
         <v>0.01</v>
@@ -10215,16 +10207,16 @@
         <v>6</v>
       </c>
       <c r="H4" t="s">
+        <v>782</v>
+      </c>
+      <c r="K4" t="s">
         <v>783</v>
       </c>
-      <c r="K4" t="s">
+      <c r="N4" t="s">
         <v>784</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>785</v>
-      </c>
-      <c r="P4" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -10232,7 +10224,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="K5" t="s">
         <v>303</v>
@@ -10279,10 +10271,10 @@
         <v>37</v>
       </c>
       <c r="N7" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="P7" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="Q7" t="s">
         <v>59</v>
@@ -10302,7 +10294,7 @@
         <v>37</v>
       </c>
       <c r="N8" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="Q8" t="s">
         <v>59</v>
@@ -10322,7 +10314,7 @@
         <v>308</v>
       </c>
       <c r="N9" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="Q9" t="s">
         <v>59</v>
@@ -10393,33 +10385,33 @@
         <v>726</v>
       </c>
       <c r="I13" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="K13" t="s">
+        <v>779</v>
+      </c>
+      <c r="N13" t="s">
         <v>780</v>
       </c>
-      <c r="N13" t="s">
+      <c r="Q13" t="s">
         <v>781</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
+        <v>795</v>
+      </c>
+      <c r="B14" t="s">
         <v>796</v>
-      </c>
-      <c r="B14" t="s">
-        <v>797</v>
       </c>
       <c r="C14" t="s">
         <v>309</v>
       </c>
       <c r="K14" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="N14" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="Q14" t="s">
         <v>59</v>
@@ -10561,10 +10553,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B20676-78A5-4BFB-AF4D-E463F8898B7A}">
-  <dimension ref="B3:M10"/>
+  <dimension ref="B3:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10596,7 +10588,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>15</v>
@@ -10631,12 +10623,10 @@
         <v>25</v>
       </c>
       <c r="C5" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,'pset map'!$A$3:$A$28)</f>
-        <v>MIN,U-H2P,P_All,P-HPL,R_Techs,S_Techs,T_Techs,A_Techs,I_Techs,I_Techs</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>807</v>
-      </c>
+        <f>_xlfn.TEXTJOIN(",",TRUE,'pset map'!$A$3:$A$27)</f>
+        <v>MIN,U-H2P,P_All,P-HPL,R_Techs,S_Techs,A_Techs,I_Techs,T_NRoad,T_PassLand,T_FreLand,T-RAI,T-AVI,T-NAV</v>
+      </c>
+      <c r="D5" s="2"/>
       <c r="E5" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
@@ -10656,24 +10646,22 @@
     </row>
     <row r="6" spans="2:13">
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="str">
-        <f>C5</f>
-        <v>MIN,U-H2P,P_All,P-HPL,R_Techs,S_Techs,T_Techs,A_Techs,I_Techs,I_Techs</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>497</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>776</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>308</v>
       </c>
       <c r="H6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L6" t="s">
         <v>38</v>
@@ -10681,24 +10669,24 @@
     </row>
     <row r="7" spans="2:13">
       <c r="B7" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C7" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,'pset map'!$A$3:$A$28)</f>
-        <v>MIN,U-H2P,P_All,P-HPL,R_Techs,S_Techs,T_Techs,A_Techs,I_Techs,I_Techs</v>
+        <f>C5</f>
+        <v>MIN,U-H2P,P_All,P-HPL,R_Techs,S_Techs,A_Techs,I_Techs,T_NRoad,T_PassLand,T_FreLand,T-RAI,T-AVI,T-NAV</v>
       </c>
       <c r="E7" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G7" t="s">
-        <v>308</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>779</v>
+        <v>488</v>
       </c>
       <c r="L7" t="s">
         <v>38</v>
@@ -10706,11 +10694,11 @@
     </row>
     <row r="8" spans="2:13">
       <c r="B8" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C8" t="str">
-        <f>C7</f>
-        <v>MIN,U-H2P,P_All,P-HPL,R_Techs,S_Techs,T_Techs,A_Techs,I_Techs,I_Techs</v>
+        <f>_xlfn.TEXTJOIN(",",TRUE,'pset map'!$A$3:$A$27)</f>
+        <v>MIN,U-H2P,P_All,P-HPL,R_Techs,S_Techs,A_Techs,I_Techs,T_NRoad,T_PassLand,T_FreLand,T-RAI,T-AVI,T-NAV</v>
       </c>
       <c r="E8" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
@@ -10720,10 +10708,10 @@
         <v>777</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>308</v>
       </c>
       <c r="H8" t="s">
-        <v>778</v>
+        <v>813</v>
       </c>
       <c r="L8" t="s">
         <v>38</v>
@@ -10731,20 +10719,24 @@
     </row>
     <row r="9" spans="2:13">
       <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>245</v>
+        <v>6</v>
+      </c>
+      <c r="C9" t="str">
+        <f>C8</f>
+        <v>MIN,U-H2P,P_All,P-HPL,R_Techs,S_Techs,A_Techs,I_Techs,T_NRoad,T_PassLand,T_FreLand,T-RAI,T-AVI,T-NAV</v>
       </c>
       <c r="E9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
+      <c r="F9" s="2" t="s">
+        <v>777</v>
+      </c>
       <c r="G9" t="s">
-        <v>308</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>799</v>
+        <v>778</v>
       </c>
       <c r="L9" t="s">
         <v>38</v>
@@ -10752,7 +10744,7 @@
     </row>
     <row r="10" spans="2:13">
       <c r="B10" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>245</v>
@@ -10762,12 +10754,33 @@
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="G10" t="s">
+        <v>308</v>
+      </c>
+      <c r="H10" t="s">
+        <v>798</v>
+      </c>
+      <c r="L10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
+        <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
+      </c>
+      <c r="G11" t="s">
         <v>37</v>
       </c>
-      <c r="H10" t="s">
-        <v>800</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="H11" t="s">
+        <v>799</v>
+      </c>
+      <c r="L11" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10816,7 +10829,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10988,10 +11001,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF522A4-03B3-4329-9210-404B1BD4B629}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11055,7 +11068,7 @@
         <v>491</v>
       </c>
       <c r="H5" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -11095,11 +11108,11 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="11" t="s">
-        <v>801</v>
+      <c r="A9" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="B9" t="s">
-        <v>509</v>
+        <v>243</v>
       </c>
       <c r="G9" t="s">
         <v>501</v>
@@ -11109,11 +11122,11 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="8" t="s">
-        <v>227</v>
+      <c r="A10" s="11" t="s">
+        <v>228</v>
       </c>
       <c r="B10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G10" t="s">
         <v>503</v>
@@ -11123,19 +11136,51 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="12" t="s">
-        <v>228</v>
+      <c r="A11" t="s">
+        <v>188</v>
       </c>
       <c r="B11" t="s">
-        <v>244</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="12" t="s">
-        <v>228</v>
+      <c r="A12" t="s">
+        <v>192</v>
       </c>
       <c r="B12" t="s">
-        <v>244</v>
+        <v>808</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -11309,7 +11354,7 @@
         <v>480</v>
       </c>
       <c r="C15" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -11342,7 +11387,7 @@
         <v>745</v>
       </c>
       <c r="C18" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -11353,7 +11398,7 @@
         <v>746</v>
       </c>
       <c r="C19" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -11517,10 +11562,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ADB714-E6AA-4E3E-B77B-62B65BA0E218}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11550,7 +11596,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" hidden="1">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -11561,7 +11607,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" hidden="1">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -11572,7 +11618,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" hidden="1">
       <c r="A5" t="s">
         <v>169</v>
       </c>
@@ -11583,7 +11629,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" hidden="1">
       <c r="A6" t="s">
         <v>169</v>
       </c>
@@ -11594,7 +11640,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" hidden="1">
       <c r="A7" t="s">
         <v>169</v>
       </c>
@@ -11605,7 +11651,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" hidden="1">
       <c r="A8" t="s">
         <v>169</v>
       </c>
@@ -11616,7 +11662,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" hidden="1">
       <c r="A9" t="s">
         <v>169</v>
       </c>
@@ -11627,7 +11673,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" hidden="1">
       <c r="A10" t="s">
         <v>169</v>
       </c>
@@ -11638,7 +11684,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" hidden="1">
       <c r="A11" t="s">
         <v>169</v>
       </c>
@@ -11649,7 +11695,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" hidden="1">
       <c r="A12" t="s">
         <v>169</v>
       </c>
@@ -11660,7 +11706,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" hidden="1">
       <c r="A13" t="s">
         <v>169</v>
       </c>
@@ -11671,7 +11717,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" hidden="1">
       <c r="A14" t="s">
         <v>169</v>
       </c>
@@ -11682,7 +11728,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" hidden="1">
       <c r="A15" t="s">
         <v>169</v>
       </c>
@@ -11693,7 +11739,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" hidden="1">
       <c r="A16" t="s">
         <v>169</v>
       </c>
@@ -11704,7 +11750,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" hidden="1">
       <c r="A17" t="s">
         <v>169</v>
       </c>
@@ -11715,7 +11761,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" hidden="1">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -11726,7 +11772,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" hidden="1">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -11737,7 +11783,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" hidden="1">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -11748,7 +11794,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" hidden="1">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -11759,7 +11805,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" hidden="1">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -11770,7 +11816,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" hidden="1">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -11781,7 +11827,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" hidden="1">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -11792,7 +11838,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" hidden="1">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -11803,7 +11849,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" hidden="1">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -11814,7 +11860,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" hidden="1">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -11825,7 +11871,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" hidden="1">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -11836,7 +11882,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" hidden="1">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -11847,7 +11893,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" hidden="1">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -11874,7 +11920,7 @@
         <v>226</v>
       </c>
       <c r="C32" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="D32" t="s">
         <v>192</v>
@@ -11885,13 +11931,13 @@
         <v>226</v>
       </c>
       <c r="C33" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D33" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" hidden="1">
       <c r="A34" t="s">
         <v>169</v>
       </c>
@@ -11902,7 +11948,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" hidden="1">
       <c r="A35" t="s">
         <v>169</v>
       </c>
@@ -11913,7 +11959,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" hidden="1">
       <c r="A36" t="s">
         <v>169</v>
       </c>
@@ -11924,7 +11970,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" hidden="1">
       <c r="A37" t="s">
         <v>169</v>
       </c>
@@ -11935,7 +11981,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" hidden="1">
       <c r="A38" t="s">
         <v>169</v>
       </c>
@@ -11946,7 +11992,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" hidden="1">
       <c r="A39" t="s">
         <v>169</v>
       </c>
@@ -11968,7 +12014,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" hidden="1">
       <c r="A41" t="s">
         <v>169</v>
       </c>
@@ -11979,7 +12025,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" hidden="1">
       <c r="A42" t="s">
         <v>169</v>
       </c>
@@ -12001,7 +12047,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" hidden="1">
       <c r="A44" t="s">
         <v>169</v>
       </c>
@@ -12012,7 +12058,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" hidden="1">
       <c r="A45" t="s">
         <v>169</v>
       </c>
@@ -12034,7 +12080,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" hidden="1">
       <c r="A47" t="s">
         <v>169</v>
       </c>
@@ -12045,7 +12091,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" hidden="1">
       <c r="A48" t="s">
         <v>169</v>
       </c>
@@ -12056,7 +12102,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" hidden="1">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -12067,7 +12113,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" hidden="1">
       <c r="A50" t="s">
         <v>43</v>
       </c>
@@ -12155,7 +12201,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" hidden="1">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -12166,7 +12212,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" hidden="1">
       <c r="A59" t="s">
         <v>51</v>
       </c>
@@ -12177,7 +12223,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" hidden="1">
       <c r="A60" t="s">
         <v>51</v>
       </c>
@@ -12188,7 +12234,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" hidden="1">
       <c r="A61" t="s">
         <v>51</v>
       </c>
@@ -12199,7 +12245,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" hidden="1">
       <c r="A62" t="s">
         <v>51</v>
       </c>
@@ -12210,7 +12256,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" hidden="1">
       <c r="A63" t="s">
         <v>51</v>
       </c>
@@ -12221,7 +12267,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" hidden="1">
       <c r="A64" t="s">
         <v>51</v>
       </c>
@@ -12232,7 +12278,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" hidden="1">
       <c r="A65" t="s">
         <v>51</v>
       </c>
@@ -12243,7 +12289,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" hidden="1">
       <c r="A66" t="s">
         <v>51</v>
       </c>
@@ -12254,7 +12300,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" hidden="1">
       <c r="A67" t="s">
         <v>51</v>
       </c>
@@ -12265,7 +12311,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" hidden="1">
       <c r="A68" t="s">
         <v>51</v>
       </c>
@@ -12276,7 +12322,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" hidden="1">
       <c r="A69" t="s">
         <v>51</v>
       </c>
@@ -12287,7 +12333,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" hidden="1">
       <c r="A70" t="s">
         <v>51</v>
       </c>
@@ -12298,7 +12344,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" hidden="1">
       <c r="A71" t="s">
         <v>51</v>
       </c>
@@ -12309,7 +12355,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" hidden="1">
       <c r="A72" t="s">
         <v>51</v>
       </c>
@@ -12320,7 +12366,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" hidden="1">
       <c r="A73" t="s">
         <v>51</v>
       </c>
@@ -12331,7 +12377,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" hidden="1">
       <c r="A74" t="s">
         <v>51</v>
       </c>
@@ -12342,7 +12388,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" hidden="1">
       <c r="A75" t="s">
         <v>51</v>
       </c>
@@ -12353,7 +12399,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" hidden="1">
       <c r="A76" t="s">
         <v>51</v>
       </c>
@@ -12364,7 +12410,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" hidden="1">
       <c r="A77" t="s">
         <v>51</v>
       </c>
@@ -12375,7 +12421,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" hidden="1">
       <c r="A78" t="s">
         <v>51</v>
       </c>
@@ -12386,7 +12432,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" hidden="1">
       <c r="A79" t="s">
         <v>51</v>
       </c>
@@ -12397,7 +12443,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" hidden="1">
       <c r="A80" t="s">
         <v>51</v>
       </c>
@@ -12408,7 +12454,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" hidden="1">
       <c r="A81" t="s">
         <v>51</v>
       </c>
@@ -12419,7 +12465,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" hidden="1">
       <c r="A82" t="s">
         <v>51</v>
       </c>
@@ -12430,7 +12476,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" hidden="1">
       <c r="A83" t="s">
         <v>43</v>
       </c>
@@ -12441,7 +12487,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" hidden="1">
       <c r="A84" t="s">
         <v>51</v>
       </c>
@@ -12452,7 +12498,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" hidden="1">
       <c r="A85" t="s">
         <v>51</v>
       </c>
@@ -12463,7 +12509,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" hidden="1">
       <c r="A86" t="s">
         <v>51</v>
       </c>
@@ -12474,7 +12520,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" hidden="1">
       <c r="A87" t="s">
         <v>51</v>
       </c>
@@ -12485,7 +12531,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" hidden="1">
       <c r="A88" t="s">
         <v>51</v>
       </c>
@@ -12496,7 +12542,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" hidden="1">
       <c r="A89" t="s">
         <v>51</v>
       </c>
@@ -12507,7 +12553,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" hidden="1">
       <c r="A90" t="s">
         <v>51</v>
       </c>
@@ -12518,7 +12564,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" hidden="1">
       <c r="A91" t="s">
         <v>51</v>
       </c>
@@ -12529,7 +12575,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" hidden="1">
       <c r="A92" t="s">
         <v>51</v>
       </c>
@@ -12540,7 +12586,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" hidden="1">
       <c r="A93" t="s">
         <v>51</v>
       </c>
@@ -12551,7 +12597,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" hidden="1">
       <c r="A94" t="s">
         <v>51</v>
       </c>
@@ -12562,9 +12608,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" hidden="1">
       <c r="A95" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B95" t="s">
         <v>295</v>
@@ -12573,9 +12619,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" hidden="1">
       <c r="A96" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B96" t="s">
         <v>297</v>
@@ -12584,7 +12630,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" hidden="1">
       <c r="A97" t="s">
         <v>771</v>
       </c>
@@ -12595,7 +12641,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" hidden="1">
       <c r="A98" t="s">
         <v>771</v>
       </c>
@@ -12607,6 +12653,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:B98" xr:uid="{10ADB714-E6AA-4E3E-B77B-62B65BA0E218}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="sub-sector"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/ReportDefs-TIMES-GEO.xlsx
+++ b/ReportDefs-TIMES-GEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\TIMES-GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8AF06C-AF55-4DFF-B96F-AF46A87D57B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE103D9-0833-48F5-AD6A-61369CCBB989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="823">
   <si>
     <t>Unit</t>
   </si>
@@ -290,12 +290,6 @@
     <t>p,c</t>
   </si>
   <si>
-    <t>Elec Production</t>
-  </si>
-  <si>
-    <t>Elec Fuels</t>
-  </si>
-  <si>
     <t>CO2 Emissions</t>
   </si>
   <si>
@@ -2537,9 +2531,6 @@
     <t>Road passenger</t>
   </si>
   <si>
-    <t>Primary energy consumption</t>
-  </si>
-  <si>
     <t>Pri_Import</t>
   </si>
   <si>
@@ -2550,6 +2541,42 @@
   </si>
   <si>
     <t>&lt;cset&gt;_snk_Industry</t>
+  </si>
+  <si>
+    <t>Electricity Fuels</t>
+  </si>
+  <si>
+    <t>Primary energy production</t>
+  </si>
+  <si>
+    <t>Energy imports - primary and secondary</t>
+  </si>
+  <si>
+    <t>Energy exports - primary and secondary</t>
+  </si>
+  <si>
+    <t>Heat production</t>
+  </si>
+  <si>
+    <t>Electricity production (centralized and decentralized</t>
+  </si>
+  <si>
+    <t>Electricity production Capacity (centralized and decentralized</t>
+  </si>
+  <si>
+    <t>Fuels consumed in Electricity production</t>
+  </si>
+  <si>
+    <t>P-HPL,P_All,U-H2P</t>
+  </si>
+  <si>
+    <t>Levelized cost of electricity, heat, and hydrogen (dynamic weighted average)</t>
+  </si>
+  <si>
+    <t>Prices of key energy forms (dynamic weighted average)</t>
+  </si>
+  <si>
+    <t>CO2 Captured - for storage</t>
   </si>
 </sst>
 </file>
@@ -3199,27 +3226,27 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="H1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" t="s">
         <v>90</v>
-      </c>
-      <c r="I1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:26">
       <c r="H2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" t="s">
         <v>93</v>
-      </c>
-      <c r="I2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -3259,19 +3286,19 @@
         <v>sg_DiscRate</v>
       </c>
       <c r="O5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P5" t="s">
         <v>31</v>
       </c>
       <c r="Q5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Y5">
         <v>1</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -3306,7 +3333,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q6">
         <v>0.1</v>
@@ -3327,7 +3354,7 @@
         <v>2</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -3362,7 +3389,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q7">
         <v>7.4999999999999997E-2</v>
@@ -3383,7 +3410,7 @@
         <v>3</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -3418,7 +3445,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q8">
         <v>0.05</v>
@@ -3439,7 +3466,7 @@
         <v>4</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -3474,7 +3501,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q9">
         <v>0.02</v>
@@ -3495,7 +3522,7 @@
         <v>5</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -3530,7 +3557,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q10">
         <v>0.01</v>
@@ -3580,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q11">
         <v>0.1</v>
@@ -3630,7 +3657,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q12">
         <v>7.4999999999999997E-2</v>
@@ -3680,7 +3707,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q13">
         <v>0.05</v>
@@ -3730,7 +3757,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q14">
         <v>0.02</v>
@@ -3780,7 +3807,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q15">
         <v>0.01</v>
@@ -3830,7 +3857,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q16">
         <v>0.1</v>
@@ -3880,7 +3907,7 @@
         <v>2</v>
       </c>
       <c r="P17" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q17">
         <v>7.4999999999999997E-2</v>
@@ -3930,7 +3957,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q18">
         <v>0.05</v>
@@ -3980,7 +4007,7 @@
         <v>2</v>
       </c>
       <c r="P19" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q19">
         <v>0.02</v>
@@ -4030,7 +4057,7 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q20">
         <v>0.01</v>
@@ -4080,7 +4107,7 @@
         <v>2</v>
       </c>
       <c r="P21" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q21">
         <v>0.1</v>
@@ -4130,7 +4157,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q22">
         <v>7.4999999999999997E-2</v>
@@ -4180,7 +4207,7 @@
         <v>2</v>
       </c>
       <c r="P23" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q23">
         <v>0.05</v>
@@ -4230,7 +4257,7 @@
         <v>2</v>
       </c>
       <c r="P24" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q24">
         <v>0.02</v>
@@ -4280,7 +4307,7 @@
         <v>2</v>
       </c>
       <c r="P25" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q25">
         <v>0.01</v>
@@ -4330,7 +4357,7 @@
         <v>3</v>
       </c>
       <c r="P26" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q26">
         <v>0.1</v>
@@ -4380,7 +4407,7 @@
         <v>3</v>
       </c>
       <c r="P27" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q27">
         <v>7.4999999999999997E-2</v>
@@ -4430,7 +4457,7 @@
         <v>3</v>
       </c>
       <c r="P28" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q28">
         <v>0.05</v>
@@ -4480,7 +4507,7 @@
         <v>3</v>
       </c>
       <c r="P29" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q29">
         <v>0.02</v>
@@ -4530,7 +4557,7 @@
         <v>3</v>
       </c>
       <c r="P30" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q30">
         <v>0.01</v>
@@ -4580,7 +4607,7 @@
         <v>3</v>
       </c>
       <c r="P31" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q31">
         <v>0.1</v>
@@ -4630,7 +4657,7 @@
         <v>3</v>
       </c>
       <c r="P32" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q32">
         <v>7.4999999999999997E-2</v>
@@ -4680,7 +4707,7 @@
         <v>3</v>
       </c>
       <c r="P33" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q33">
         <v>0.05</v>
@@ -4730,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="P34" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q34">
         <v>0.02</v>
@@ -4780,7 +4807,7 @@
         <v>3</v>
       </c>
       <c r="P35" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q35">
         <v>0.01</v>
@@ -4830,7 +4857,7 @@
         <v>4</v>
       </c>
       <c r="P36" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q36">
         <v>0.1</v>
@@ -4880,7 +4907,7 @@
         <v>4</v>
       </c>
       <c r="P37" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q37">
         <v>7.4999999999999997E-2</v>
@@ -4930,7 +4957,7 @@
         <v>4</v>
       </c>
       <c r="P38" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q38">
         <v>0.05</v>
@@ -4980,7 +5007,7 @@
         <v>4</v>
       </c>
       <c r="P39" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q39">
         <v>0.02</v>
@@ -5030,7 +5057,7 @@
         <v>4</v>
       </c>
       <c r="P40" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q40">
         <v>0.01</v>
@@ -5080,7 +5107,7 @@
         <v>4</v>
       </c>
       <c r="P41" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q41">
         <v>0.1</v>
@@ -5130,7 +5157,7 @@
         <v>4</v>
       </c>
       <c r="P42" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q42">
         <v>7.4999999999999997E-2</v>
@@ -5180,7 +5207,7 @@
         <v>4</v>
       </c>
       <c r="P43" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q43">
         <v>0.05</v>
@@ -5230,7 +5257,7 @@
         <v>4</v>
       </c>
       <c r="P44" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q44">
         <v>0.02</v>
@@ -5280,7 +5307,7 @@
         <v>4</v>
       </c>
       <c r="P45" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q45">
         <v>0.01</v>
@@ -5330,7 +5357,7 @@
         <v>5</v>
       </c>
       <c r="P46" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q46">
         <v>0.1</v>
@@ -5380,7 +5407,7 @@
         <v>5</v>
       </c>
       <c r="P47" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q47">
         <v>7.4999999999999997E-2</v>
@@ -5430,7 +5457,7 @@
         <v>5</v>
       </c>
       <c r="P48" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q48">
         <v>0.05</v>
@@ -5480,7 +5507,7 @@
         <v>5</v>
       </c>
       <c r="P49" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q49">
         <v>0.02</v>
@@ -5530,7 +5557,7 @@
         <v>5</v>
       </c>
       <c r="P50" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="Q50">
         <v>0.01</v>
@@ -5580,7 +5607,7 @@
         <v>5</v>
       </c>
       <c r="P51" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q51">
         <v>0.1</v>
@@ -5630,7 +5657,7 @@
         <v>5</v>
       </c>
       <c r="P52" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q52">
         <v>7.4999999999999997E-2</v>
@@ -5680,7 +5707,7 @@
         <v>5</v>
       </c>
       <c r="P53" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q53">
         <v>0.05</v>
@@ -5730,7 +5757,7 @@
         <v>5</v>
       </c>
       <c r="P54" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q54">
         <v>0.02</v>
@@ -5780,7 +5807,7 @@
         <v>5</v>
       </c>
       <c r="P55" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q55">
         <v>0.01</v>
@@ -5860,10 +5887,10 @@
         <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5871,10 +5898,10 @@
         <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5885,7 +5912,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5893,10 +5920,10 @@
         <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5907,7 +5934,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5915,10 +5942,10 @@
         <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5926,10 +5953,10 @@
         <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5937,10 +5964,10 @@
         <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5949,10 +5976,10 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5960,10 +5987,10 @@
         <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -5971,10 +5998,10 @@
         <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5982,10 +6009,10 @@
         <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5993,10 +6020,10 @@
         <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6004,10 +6031,10 @@
         <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6015,10 +6042,10 @@
         <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6026,10 +6053,10 @@
         <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6037,10 +6064,10 @@
         <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6048,54 +6075,54 @@
         <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -6166,7 +6193,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6174,59 +6201,59 @@
         <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D3" t="s">
         <v>511</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>512</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>513</v>
-      </c>
-      <c r="E3" t="s">
-        <v>514</v>
-      </c>
-      <c r="F3" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C4" t="s">
+        <v>515</v>
+      </c>
+      <c r="D4" t="s">
         <v>516</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>517</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>518</v>
-      </c>
-      <c r="E4" t="s">
-        <v>519</v>
-      </c>
-      <c r="F4" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6243,30 +6270,30 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C6" t="s">
+        <v>522</v>
+      </c>
+      <c r="D6" t="s">
         <v>523</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>524</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>525</v>
-      </c>
-      <c r="E6" t="s">
-        <v>526</v>
-      </c>
-      <c r="F6" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6274,1599 +6301,1599 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>526</v>
+      </c>
+      <c r="C7" t="s">
+        <v>527</v>
+      </c>
+      <c r="D7" t="s">
         <v>528</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>529</v>
       </c>
-      <c r="D7" t="s">
-        <v>530</v>
-      </c>
-      <c r="E7" t="s">
-        <v>531</v>
-      </c>
       <c r="F7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
+        <v>530</v>
+      </c>
+      <c r="C8" t="s">
+        <v>531</v>
+      </c>
+      <c r="D8" t="s">
         <v>532</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>533</v>
       </c>
-      <c r="D8" t="s">
-        <v>534</v>
-      </c>
-      <c r="E8" t="s">
-        <v>535</v>
-      </c>
       <c r="F8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C9" t="s">
+        <v>535</v>
+      </c>
+      <c r="D9" t="s">
         <v>536</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>537</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>538</v>
-      </c>
-      <c r="E9" t="s">
-        <v>539</v>
-      </c>
-      <c r="F9" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C10" t="s">
+        <v>540</v>
+      </c>
+      <c r="D10" t="s">
         <v>541</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>542</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>543</v>
-      </c>
-      <c r="E10" t="s">
-        <v>544</v>
-      </c>
-      <c r="F10" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s">
+        <v>544</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" t="s">
+        <v>545</v>
+      </c>
+      <c r="F11" t="s">
         <v>546</v>
-      </c>
-      <c r="C11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" t="s">
-        <v>547</v>
-      </c>
-      <c r="F11" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
+        <v>547</v>
+      </c>
+      <c r="C12" t="s">
+        <v>548</v>
+      </c>
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" t="s">
         <v>549</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F12" t="s">
         <v>550</v>
-      </c>
-      <c r="D12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" t="s">
-        <v>551</v>
-      </c>
-      <c r="F12" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
+        <v>551</v>
+      </c>
+      <c r="C13" t="s">
+        <v>552</v>
+      </c>
+      <c r="D13" t="s">
         <v>553</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>554</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>555</v>
-      </c>
-      <c r="E13" t="s">
-        <v>556</v>
-      </c>
-      <c r="F13" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B14" t="s">
+        <v>556</v>
+      </c>
+      <c r="C14" t="s">
+        <v>557</v>
+      </c>
+      <c r="D14" t="s">
         <v>558</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>559</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>560</v>
-      </c>
-      <c r="E14" t="s">
-        <v>561</v>
-      </c>
-      <c r="F14" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
+        <v>561</v>
+      </c>
+      <c r="C15" t="s">
+        <v>562</v>
+      </c>
+      <c r="D15" t="s">
         <v>563</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>564</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>565</v>
-      </c>
-      <c r="E15" t="s">
-        <v>566</v>
-      </c>
-      <c r="F15" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s">
+        <v>566</v>
+      </c>
+      <c r="C16" t="s">
+        <v>567</v>
+      </c>
+      <c r="D16" t="s">
         <v>568</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>569</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>570</v>
-      </c>
-      <c r="E16" t="s">
-        <v>571</v>
-      </c>
-      <c r="F16" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s">
+        <v>571</v>
+      </c>
+      <c r="C17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" t="s">
+        <v>572</v>
+      </c>
+      <c r="E17" t="s">
         <v>573</v>
       </c>
-      <c r="C17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>574</v>
-      </c>
-      <c r="E17" t="s">
-        <v>575</v>
-      </c>
-      <c r="F17" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B18" t="s">
+        <v>575</v>
+      </c>
+      <c r="C18" t="s">
+        <v>576</v>
+      </c>
+      <c r="D18" t="s">
         <v>577</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>578</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>579</v>
-      </c>
-      <c r="E18" t="s">
-        <v>580</v>
-      </c>
-      <c r="F18" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B19" t="s">
+        <v>580</v>
+      </c>
+      <c r="C19" t="s">
+        <v>581</v>
+      </c>
+      <c r="D19" t="s">
         <v>582</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>583</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>584</v>
-      </c>
-      <c r="E19" t="s">
-        <v>585</v>
-      </c>
-      <c r="F19" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B20" t="s">
+        <v>585</v>
+      </c>
+      <c r="C20" t="s">
+        <v>586</v>
+      </c>
+      <c r="D20" t="s">
         <v>587</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>588</v>
       </c>
-      <c r="D20" t="s">
-        <v>589</v>
-      </c>
-      <c r="E20" t="s">
-        <v>590</v>
-      </c>
       <c r="F20" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E22" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F22" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E23" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F23" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E24" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F24" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B25" t="s">
+        <v>595</v>
+      </c>
+      <c r="C25" t="s">
+        <v>596</v>
+      </c>
+      <c r="D25" t="s">
         <v>597</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>598</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>599</v>
-      </c>
-      <c r="E25" t="s">
-        <v>600</v>
-      </c>
-      <c r="F25" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B26" t="s">
+        <v>600</v>
+      </c>
+      <c r="C26" t="s">
+        <v>601</v>
+      </c>
+      <c r="D26" t="s">
         <v>602</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>603</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>604</v>
-      </c>
-      <c r="E26" t="s">
-        <v>605</v>
-      </c>
-      <c r="F26" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B27" t="s">
+        <v>605</v>
+      </c>
+      <c r="C27" t="s">
+        <v>606</v>
+      </c>
+      <c r="D27" t="s">
         <v>607</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>608</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
         <v>609</v>
-      </c>
-      <c r="E27" t="s">
-        <v>610</v>
-      </c>
-      <c r="F27" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B28" t="s">
+        <v>610</v>
+      </c>
+      <c r="C28" t="s">
+        <v>611</v>
+      </c>
+      <c r="D28" t="s">
         <v>612</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>613</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>614</v>
-      </c>
-      <c r="E28" t="s">
-        <v>615</v>
-      </c>
-      <c r="F28" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B29" t="s">
+        <v>615</v>
+      </c>
+      <c r="C29" t="s">
+        <v>616</v>
+      </c>
+      <c r="D29" t="s">
         <v>617</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>618</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>619</v>
-      </c>
-      <c r="E29" t="s">
-        <v>620</v>
-      </c>
-      <c r="F29" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B30" t="s">
+        <v>620</v>
+      </c>
+      <c r="C30" t="s">
+        <v>621</v>
+      </c>
+      <c r="D30" t="s">
         <v>622</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
         <v>623</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
         <v>624</v>
-      </c>
-      <c r="E30" t="s">
-        <v>625</v>
-      </c>
-      <c r="F30" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B31" t="s">
+        <v>625</v>
+      </c>
+      <c r="C31" t="s">
+        <v>626</v>
+      </c>
+      <c r="D31" t="s">
         <v>627</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>628</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>629</v>
-      </c>
-      <c r="E31" t="s">
-        <v>630</v>
-      </c>
-      <c r="F31" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B32" t="s">
+        <v>630</v>
+      </c>
+      <c r="C32" t="s">
+        <v>631</v>
+      </c>
+      <c r="D32" t="s">
         <v>632</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E32" t="s">
         <v>633</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
         <v>634</v>
-      </c>
-      <c r="E32" t="s">
-        <v>635</v>
-      </c>
-      <c r="F32" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B34" t="s">
+        <v>635</v>
+      </c>
+      <c r="C34" t="s">
+        <v>636</v>
+      </c>
+      <c r="D34" t="s">
         <v>637</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>638</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
         <v>639</v>
-      </c>
-      <c r="E34" t="s">
-        <v>640</v>
-      </c>
-      <c r="F34" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B35" t="s">
+        <v>640</v>
+      </c>
+      <c r="C35" t="s">
+        <v>641</v>
+      </c>
+      <c r="D35" t="s">
         <v>642</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>643</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
         <v>644</v>
-      </c>
-      <c r="E35" t="s">
-        <v>645</v>
-      </c>
-      <c r="F35" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B36" t="s">
+        <v>645</v>
+      </c>
+      <c r="C36" t="s">
+        <v>646</v>
+      </c>
+      <c r="D36" t="s">
         <v>647</v>
       </c>
-      <c r="C36" t="s">
+      <c r="E36" t="s">
         <v>648</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F36" t="s">
         <v>649</v>
-      </c>
-      <c r="E36" t="s">
-        <v>650</v>
-      </c>
-      <c r="F36" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B37" t="s">
+        <v>650</v>
+      </c>
+      <c r="C37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D37" t="s">
         <v>652</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" t="s">
         <v>653</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
         <v>654</v>
-      </c>
-      <c r="E37" t="s">
-        <v>655</v>
-      </c>
-      <c r="F37" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B38" t="s">
+        <v>655</v>
+      </c>
+      <c r="C38" t="s">
+        <v>656</v>
+      </c>
+      <c r="D38" t="s">
         <v>657</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>658</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
         <v>659</v>
-      </c>
-      <c r="E38" t="s">
-        <v>660</v>
-      </c>
-      <c r="F38" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B39" t="s">
+        <v>660</v>
+      </c>
+      <c r="C39" t="s">
+        <v>661</v>
+      </c>
+      <c r="D39" t="s">
         <v>662</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>663</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
         <v>664</v>
-      </c>
-      <c r="E39" t="s">
-        <v>665</v>
-      </c>
-      <c r="F39" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B40" t="s">
+        <v>665</v>
+      </c>
+      <c r="C40" t="s">
+        <v>666</v>
+      </c>
+      <c r="D40" t="s">
         <v>667</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
         <v>668</v>
       </c>
-      <c r="D40" t="s">
+      <c r="F40" t="s">
         <v>669</v>
-      </c>
-      <c r="E40" t="s">
-        <v>670</v>
-      </c>
-      <c r="F40" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B41" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C41" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D41" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E41" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F41" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B42" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C42" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D42" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E42" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F42" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B43" t="s">
+        <v>670</v>
+      </c>
+      <c r="C43" t="s">
+        <v>671</v>
+      </c>
+      <c r="D43" t="s">
         <v>672</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
         <v>673</v>
       </c>
-      <c r="D43" t="s">
+      <c r="F43" t="s">
         <v>674</v>
-      </c>
-      <c r="E43" t="s">
-        <v>675</v>
-      </c>
-      <c r="F43" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B44" t="s">
+        <v>675</v>
+      </c>
+      <c r="C44" t="s">
+        <v>676</v>
+      </c>
+      <c r="D44" t="s">
         <v>677</v>
       </c>
-      <c r="C44" t="s">
+      <c r="E44" t="s">
         <v>678</v>
       </c>
-      <c r="D44" t="s">
+      <c r="F44" t="s">
         <v>679</v>
-      </c>
-      <c r="E44" t="s">
-        <v>680</v>
-      </c>
-      <c r="F44" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B45" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C45" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D45" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E45" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F45" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B46" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C46" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D46" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E46" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F46" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B47" t="s">
+        <v>680</v>
+      </c>
+      <c r="C47" t="s">
+        <v>681</v>
+      </c>
+      <c r="D47" t="s">
         <v>682</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
         <v>683</v>
       </c>
-      <c r="D47" t="s">
+      <c r="F47" t="s">
         <v>684</v>
-      </c>
-      <c r="E47" t="s">
-        <v>685</v>
-      </c>
-      <c r="F47" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B48" t="s">
+        <v>685</v>
+      </c>
+      <c r="C48" t="s">
+        <v>686</v>
+      </c>
+      <c r="D48" t="s">
         <v>687</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
         <v>688</v>
       </c>
-      <c r="D48" t="s">
+      <c r="F48" t="s">
         <v>689</v>
-      </c>
-      <c r="E48" t="s">
-        <v>690</v>
-      </c>
-      <c r="F48" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B49" t="s">
+        <v>690</v>
+      </c>
+      <c r="C49" t="s">
+        <v>691</v>
+      </c>
+      <c r="D49" t="s">
         <v>692</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
         <v>693</v>
       </c>
-      <c r="D49" t="s">
+      <c r="F49" t="s">
         <v>694</v>
-      </c>
-      <c r="E49" t="s">
-        <v>695</v>
-      </c>
-      <c r="F49" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B50" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C50" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D50" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E50" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F50" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B51" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C51" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D51" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E51" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F51" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B52" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C52" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D52" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E52" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F52" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B53" t="s">
+        <v>695</v>
+      </c>
+      <c r="C53" t="s">
+        <v>696</v>
+      </c>
+      <c r="D53" t="s">
         <v>697</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
         <v>698</v>
       </c>
-      <c r="D53" t="s">
+      <c r="F53" t="s">
         <v>699</v>
-      </c>
-      <c r="E53" t="s">
-        <v>700</v>
-      </c>
-      <c r="F53" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B54" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C54" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D54" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E54" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F54" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B55" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C55" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D55" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E55" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F55" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B56" t="s">
+        <v>700</v>
+      </c>
+      <c r="C56" t="s">
+        <v>701</v>
+      </c>
+      <c r="D56" t="s">
         <v>702</v>
       </c>
-      <c r="C56" t="s">
+      <c r="E56" t="s">
         <v>703</v>
       </c>
-      <c r="D56" t="s">
-        <v>704</v>
-      </c>
-      <c r="E56" t="s">
-        <v>705</v>
-      </c>
       <c r="F56" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B57" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C57" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D57" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E57" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F57" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B58" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C58" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D58" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E58" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F58" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B59" t="s">
+        <v>704</v>
+      </c>
+      <c r="C59" t="s">
+        <v>705</v>
+      </c>
+      <c r="D59" t="s">
         <v>706</v>
       </c>
-      <c r="C59" t="s">
+      <c r="E59" t="s">
         <v>707</v>
       </c>
-      <c r="D59" t="s">
+      <c r="F59" t="s">
         <v>708</v>
-      </c>
-      <c r="E59" t="s">
-        <v>709</v>
-      </c>
-      <c r="F59" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B60" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C60" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D60" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E60" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F60" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B61" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C61" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D61" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E61" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F61" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B62" t="s">
+        <v>709</v>
+      </c>
+      <c r="C62" t="s">
+        <v>710</v>
+      </c>
+      <c r="D62" t="s">
         <v>711</v>
       </c>
-      <c r="C62" t="s">
+      <c r="E62" t="s">
         <v>712</v>
       </c>
-      <c r="D62" t="s">
+      <c r="F62" t="s">
         <v>713</v>
-      </c>
-      <c r="E62" t="s">
-        <v>714</v>
-      </c>
-      <c r="F62" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B63" t="s">
+        <v>714</v>
+      </c>
+      <c r="C63" t="s">
+        <v>714</v>
+      </c>
+      <c r="D63" t="s">
+        <v>715</v>
+      </c>
+      <c r="E63" t="s">
         <v>716</v>
       </c>
-      <c r="C63" t="s">
-        <v>716</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="F63" t="s">
         <v>717</v>
-      </c>
-      <c r="E63" t="s">
-        <v>718</v>
-      </c>
-      <c r="F63" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B64" t="s">
+        <v>718</v>
+      </c>
+      <c r="C64" t="s">
+        <v>719</v>
+      </c>
+      <c r="D64" t="s">
         <v>720</v>
       </c>
-      <c r="C64" t="s">
+      <c r="E64" t="s">
         <v>721</v>
       </c>
-      <c r="D64" t="s">
+      <c r="F64" t="s">
         <v>722</v>
-      </c>
-      <c r="E64" t="s">
-        <v>723</v>
-      </c>
-      <c r="F64" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B65" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C65" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D65" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E65" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F65" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B66" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C66" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D66" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E66" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F66" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B67" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C67" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D67" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E67" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F67" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B68" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C68" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D68" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E68" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F68" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B69" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C69" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D69" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E69" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F69" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B70" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C70" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D70" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E70" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F70" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B71" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C71" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D71" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E71" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F71" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B72" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C72" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D72" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E72" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F72" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B73" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C73" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D73" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E73" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F73" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B74" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C74" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D74" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E74" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F74" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B75" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C75" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D75" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E75" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F75" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B76" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C76" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D76" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E76" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F76" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B77" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C77" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D77" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E77" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F77" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B78" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C78" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D78" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E78" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F78" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B79" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C79" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D79" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E79" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F79" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B80" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C80" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D80" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E80" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F80" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B81" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C81" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D81" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E81" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F81" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B82" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C82" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D82" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E82" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F82" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B83" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C83" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D83" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E83" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F83" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B84" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C84" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D84" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E84" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F84" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B85" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C85" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D85" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E85" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F85" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B86" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C86" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D86" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E86" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F86" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -7891,42 +7918,42 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B88" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C88" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D88" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E88" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F88" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B89" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C89" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D89" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E89" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F89" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -7951,42 +7978,42 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B91" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C91" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D91" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E91" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F91" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B92" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C92" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D92" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E92" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F92" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8011,22 +8038,22 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B94" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C94" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D94" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E94" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F94" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -8075,12 +8102,12 @@
         <v>30</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" thickTop="1" thickBot="1">
       <c r="A3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -8096,28 +8123,28 @@
         <v>33</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4">
         <f>100/31.536</f>
         <v>3.1709791983764584</v>
       </c>
       <c r="K4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L4">
         <v>36.779029999999999</v>
@@ -8128,20 +8155,20 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5">
         <f>3.6</f>
         <v>3.6</v>
       </c>
       <c r="K5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L5">
         <v>-8.8383000000000003</v>
@@ -8152,19 +8179,19 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D6">
         <v>100</v>
       </c>
       <c r="K6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L6">
         <v>41.327500000000001</v>
@@ -8175,10 +8202,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
@@ -8187,7 +8214,7 @@
         <v>-1</v>
       </c>
       <c r="K7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L7">
         <v>25.23</v>
@@ -8198,7 +8225,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="K8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L8">
         <v>-34.602499999999999</v>
@@ -8209,7 +8236,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="K9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L9">
         <v>40.181199999999997</v>
@@ -8220,7 +8247,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="K10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L10">
         <v>-12.4254</v>
@@ -8231,7 +8258,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="K11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L11">
         <v>-27.454999999999998</v>
@@ -8242,7 +8269,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="K12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L12">
         <v>-34.935000000000002</v>
@@ -8253,7 +8280,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="K13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L13">
         <v>-33.92</v>
@@ -8264,7 +8291,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="K14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L14">
         <v>-42.85</v>
@@ -8275,7 +8302,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="K15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L15">
         <v>-37.82</v>
@@ -8286,7 +8313,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="K16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L16">
         <v>-31.954999999999998</v>
@@ -8297,7 +8324,7 @@
     </row>
     <row r="17" spans="11:13">
       <c r="K17" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L17">
         <v>48.2</v>
@@ -8308,7 +8335,7 @@
     </row>
     <row r="18" spans="11:13">
       <c r="K18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L18">
         <v>40.395299999999999</v>
@@ -8319,7 +8346,7 @@
     </row>
     <row r="19" spans="11:13">
       <c r="K19" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="L19">
         <v>-3.3761000000000001</v>
@@ -8330,7 +8357,7 @@
     </row>
     <row r="20" spans="11:13">
       <c r="K20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L20">
         <v>50.833300000000001</v>
@@ -8341,7 +8368,7 @@
     </row>
     <row r="21" spans="11:13">
       <c r="K21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L21">
         <v>7.1904000000000003</v>
@@ -8352,7 +8379,7 @@
     </row>
     <row r="22" spans="11:13">
       <c r="K22" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L22">
         <v>12.3703</v>
@@ -8363,7 +8390,7 @@
     </row>
     <row r="23" spans="11:13">
       <c r="K23" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L23">
         <v>23.723099999999999</v>
@@ -8374,7 +8401,7 @@
     </row>
     <row r="24" spans="11:13">
       <c r="K24" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L24">
         <v>42.683300000000003</v>
@@ -8385,7 +8412,7 @@
     </row>
     <row r="25" spans="11:13">
       <c r="K25" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L25">
         <v>26.2361</v>
@@ -8396,7 +8423,7 @@
     </row>
     <row r="26" spans="11:13">
       <c r="K26" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L26">
         <v>43.85</v>
@@ -8407,7 +8434,7 @@
     </row>
     <row r="27" spans="11:13">
       <c r="K27" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L27">
         <v>53.9</v>
@@ -8418,7 +8445,7 @@
     </row>
     <row r="28" spans="11:13">
       <c r="K28" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L28">
         <v>17.498699999999999</v>
@@ -8429,7 +8456,7 @@
     </row>
     <row r="29" spans="11:13">
       <c r="K29" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L29">
         <v>-17.753900000000002</v>
@@ -8440,7 +8467,7 @@
     </row>
     <row r="30" spans="11:13">
       <c r="K30" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="L30">
         <v>-1.45</v>
@@ -8451,7 +8478,7 @@
     </row>
     <row r="31" spans="11:13">
       <c r="K31" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L31">
         <v>4.8833000000000002</v>
@@ -8462,7 +8489,7 @@
     </row>
     <row r="32" spans="11:13">
       <c r="K32" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L32">
         <v>27.472999999999999</v>
@@ -8473,7 +8500,7 @@
     </row>
     <row r="33" spans="11:13">
       <c r="K33" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L33">
         <v>-24.6463</v>
@@ -8484,7 +8511,7 @@
     </row>
     <row r="34" spans="11:13">
       <c r="K34" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L34">
         <v>4.3666</v>
@@ -8495,7 +8522,7 @@
     </row>
     <row r="35" spans="11:13">
       <c r="K35" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L35">
         <v>43.7</v>
@@ -8506,7 +8533,7 @@
     </row>
     <row r="36" spans="11:13">
       <c r="K36" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L36">
         <v>47.38</v>
@@ -8517,7 +8544,7 @@
     </row>
     <row r="37" spans="11:13">
       <c r="K37" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L37">
         <v>-33.450000000000003</v>
@@ -8528,7 +8555,7 @@
     </row>
     <row r="38" spans="11:13">
       <c r="K38" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="L38">
         <v>39.928899999999999</v>
@@ -8539,7 +8566,7 @@
     </row>
     <row r="39" spans="11:13">
       <c r="K39" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="L39">
         <v>5.32</v>
@@ -8550,7 +8577,7 @@
     </row>
     <row r="40" spans="11:13">
       <c r="K40" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L40">
         <v>3.8666999999999998</v>
@@ -8561,7 +8588,7 @@
     </row>
     <row r="41" spans="11:13">
       <c r="K41" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L41">
         <v>-4.3296999999999999</v>
@@ -8572,7 +8599,7 @@
     </row>
     <row r="42" spans="11:13">
       <c r="K42" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="L42">
         <v>-4.2591999999999999</v>
@@ -8583,7 +8610,7 @@
     </row>
     <row r="43" spans="11:13">
       <c r="K43" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L43">
         <v>4.5964</v>
@@ -8594,7 +8621,7 @@
     </row>
     <row r="44" spans="11:13">
       <c r="K44" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L44">
         <v>9.9347390000000004</v>
@@ -8605,7 +8632,7 @@
     </row>
     <row r="45" spans="11:13">
       <c r="K45" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L45">
         <v>23.132000000000001</v>
@@ -8616,7 +8643,7 @@
     </row>
     <row r="46" spans="11:13">
       <c r="K46" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L46">
         <v>35.166699999999999</v>
@@ -8627,7 +8654,7 @@
     </row>
     <row r="47" spans="11:13">
       <c r="K47" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L47">
         <v>50.083300000000001</v>
@@ -8638,7 +8665,7 @@
     </row>
     <row r="48" spans="11:13">
       <c r="K48" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="L48">
         <v>52.521799999999999</v>
@@ -8649,7 +8676,7 @@
     </row>
     <row r="49" spans="11:13">
       <c r="K49" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L49">
         <v>11.595000000000001</v>
@@ -8660,7 +8687,7 @@
     </row>
     <row r="50" spans="11:13">
       <c r="K50" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L50">
         <v>55.678600000000003</v>
@@ -8671,7 +8698,7 @@
     </row>
     <row r="51" spans="11:13">
       <c r="K51" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="L51">
         <v>18.470099999999999</v>
@@ -8682,7 +8709,7 @@
     </row>
     <row r="52" spans="11:13">
       <c r="K52" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L52">
         <v>36.763100000000001</v>
@@ -8693,7 +8720,7 @@
     </row>
     <row r="53" spans="11:13">
       <c r="K53" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L53">
         <v>-2.2200000000000002</v>
@@ -8704,7 +8731,7 @@
     </row>
     <row r="54" spans="11:13">
       <c r="K54" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="L54">
         <v>30.05</v>
@@ -8715,7 +8742,7 @@
     </row>
     <row r="55" spans="11:13">
       <c r="K55" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L55">
         <v>15.333299999999999</v>
@@ -8726,7 +8753,7 @@
     </row>
     <row r="56" spans="11:13">
       <c r="K56" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L56">
         <v>27.15</v>
@@ -8737,7 +8764,7 @@
     </row>
     <row r="57" spans="11:13">
       <c r="K57" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L57">
         <v>40.4</v>
@@ -8748,7 +8775,7 @@
     </row>
     <row r="58" spans="11:13">
       <c r="K58" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L58">
         <v>59.436962000000001</v>
@@ -8759,7 +8786,7 @@
     </row>
     <row r="59" spans="11:13">
       <c r="K59" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L59">
         <v>13.5</v>
@@ -8770,7 +8797,7 @@
     </row>
     <row r="60" spans="11:13">
       <c r="K60" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="L60">
         <v>60.175600000000003</v>
@@ -8781,7 +8808,7 @@
     </row>
     <row r="61" spans="11:13">
       <c r="K61" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L61">
         <v>48.866700000000002</v>
@@ -8792,7 +8819,7 @@
     </row>
     <row r="62" spans="11:13">
       <c r="K62" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L62">
         <v>0.38540000000000002</v>
@@ -8803,7 +8830,7 @@
     </row>
     <row r="63" spans="11:13">
       <c r="K63" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L63">
         <v>51.5</v>
@@ -8814,7 +8841,7 @@
     </row>
     <row r="64" spans="11:13">
       <c r="K64" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="L64">
         <v>41.725000000000001</v>
@@ -8825,7 +8852,7 @@
     </row>
     <row r="65" spans="11:13">
       <c r="K65" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="L65">
         <v>6.69</v>
@@ -8836,7 +8863,7 @@
     </row>
     <row r="66" spans="11:13">
       <c r="K66" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L66">
         <v>9.5314999999999994</v>
@@ -8847,7 +8874,7 @@
     </row>
     <row r="67" spans="11:13">
       <c r="K67" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L67">
         <v>13.448395</v>
@@ -8858,7 +8885,7 @@
     </row>
     <row r="68" spans="11:13">
       <c r="K68" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L68">
         <v>11.865</v>
@@ -8869,7 +8896,7 @@
     </row>
     <row r="69" spans="11:13">
       <c r="K69" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L69">
         <v>1.87</v>
@@ -8880,7 +8907,7 @@
     </row>
     <row r="70" spans="11:13">
       <c r="K70" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L70">
         <v>37.9833</v>
@@ -8891,7 +8918,7 @@
     </row>
     <row r="71" spans="11:13">
       <c r="K71" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L71">
         <v>60.270832249999998</v>
@@ -8902,7 +8929,7 @@
     </row>
     <row r="72" spans="11:13">
       <c r="K72" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="L72">
         <v>14.6211</v>
@@ -8913,7 +8940,7 @@
     </row>
     <row r="73" spans="11:13">
       <c r="K73" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="L73">
         <v>4.9223999999999997</v>
@@ -8924,7 +8951,7 @@
     </row>
     <row r="74" spans="11:13">
       <c r="K74" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="L74">
         <v>6.8019999999999996</v>
@@ -8935,7 +8962,7 @@
     </row>
     <row r="75" spans="11:13">
       <c r="K75" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L75">
         <v>14.102</v>
@@ -8946,7 +8973,7 @@
     </row>
     <row r="76" spans="11:13">
       <c r="K76" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L76">
         <v>45.8</v>
@@ -8957,7 +8984,7 @@
     </row>
     <row r="77" spans="11:13">
       <c r="K77" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="L77">
         <v>18.533332999999999</v>
@@ -8968,7 +8995,7 @@
     </row>
     <row r="78" spans="11:13">
       <c r="K78" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L78">
         <v>47.5</v>
@@ -8979,7 +9006,7 @@
     </row>
     <row r="79" spans="11:13">
       <c r="K79" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L79">
         <v>-6.1744000000000003</v>
@@ -8990,7 +9017,7 @@
     </row>
     <row r="80" spans="11:13">
       <c r="K80" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="L80">
         <v>28.67</v>
@@ -9001,7 +9028,7 @@
     </row>
     <row r="81" spans="11:13">
       <c r="K81" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L81">
         <v>53.333100000000002</v>
@@ -9012,7 +9039,7 @@
     </row>
     <row r="82" spans="11:13">
       <c r="K82" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L82">
         <v>35.671900000000001</v>
@@ -9023,7 +9050,7 @@
     </row>
     <row r="83" spans="11:13">
       <c r="K83" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L83">
         <v>33.3386</v>
@@ -9034,7 +9061,7 @@
     </row>
     <row r="84" spans="11:13">
       <c r="K84" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="L84">
         <v>64.150000000000006</v>
@@ -9045,7 +9072,7 @@
     </row>
     <row r="85" spans="11:13">
       <c r="K85" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L85">
         <v>32.08</v>
@@ -9056,7 +9083,7 @@
     </row>
     <row r="86" spans="11:13">
       <c r="K86" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="L86">
         <v>41.896000000000001</v>
@@ -9067,7 +9094,7 @@
     </row>
     <row r="87" spans="11:13">
       <c r="K87" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L87">
         <v>17.9771</v>
@@ -9078,7 +9105,7 @@
     </row>
     <row r="88" spans="11:13">
       <c r="K88" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L88">
         <v>31.95</v>
@@ -9089,7 +9116,7 @@
     </row>
     <row r="89" spans="11:13">
       <c r="K89" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L89">
         <v>35.685000000000002</v>
@@ -9100,7 +9127,7 @@
     </row>
     <row r="90" spans="11:13">
       <c r="K90" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L90">
         <v>43.325000000000003</v>
@@ -9111,7 +9138,7 @@
     </row>
     <row r="91" spans="11:13">
       <c r="K91" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="L91">
         <v>-1.2833000000000001</v>
@@ -9122,7 +9149,7 @@
     </row>
     <row r="92" spans="11:13">
       <c r="K92" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L92">
         <v>42.873100000000001</v>
@@ -9133,7 +9160,7 @@
     </row>
     <row r="93" spans="11:13">
       <c r="K93" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="L93">
         <v>11.55</v>
@@ -9144,7 +9171,7 @@
     </row>
     <row r="94" spans="11:13">
       <c r="K94" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="L94">
         <v>37.566299999999998</v>
@@ -9155,7 +9182,7 @@
     </row>
     <row r="95" spans="11:13">
       <c r="K95" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="L95">
         <v>42.6629</v>
@@ -9166,7 +9193,7 @@
     </row>
     <row r="96" spans="11:13">
       <c r="K96" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="L96">
         <v>29.369700000000002</v>
@@ -9177,7 +9204,7 @@
     </row>
     <row r="97" spans="11:13">
       <c r="K97" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="L97">
         <v>17.966699999999999</v>
@@ -9188,7 +9215,7 @@
     </row>
     <row r="98" spans="11:13">
       <c r="K98" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L98">
         <v>33.872</v>
@@ -9199,7 +9226,7 @@
     </row>
     <row r="99" spans="11:13">
       <c r="K99" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L99">
         <v>6.3106</v>
@@ -9210,7 +9237,7 @@
     </row>
     <row r="100" spans="11:13">
       <c r="K100" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="L100">
         <v>32.892499999999998</v>
@@ -9221,7 +9248,7 @@
     </row>
     <row r="101" spans="11:13">
       <c r="K101" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L101">
         <v>6.9320000000000004</v>
@@ -9232,7 +9259,7 @@
     </row>
     <row r="102" spans="11:13">
       <c r="K102" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L102">
         <v>-29.316700000000001</v>
@@ -9243,7 +9270,7 @@
     </row>
     <row r="103" spans="11:13">
       <c r="K103" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L103">
         <v>54.683399999999999</v>
@@ -9254,7 +9281,7 @@
     </row>
     <row r="104" spans="11:13">
       <c r="K104" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L104">
         <v>49.611621999999997</v>
@@ -9265,7 +9292,7 @@
     </row>
     <row r="105" spans="11:13">
       <c r="K105" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="L105">
         <v>56.95</v>
@@ -9276,7 +9303,7 @@
     </row>
     <row r="106" spans="11:13">
       <c r="K106" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="L106">
         <v>33.6</v>
@@ -9287,7 +9314,7 @@
     </row>
     <row r="107" spans="11:13">
       <c r="K107" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L107">
         <v>47.005000000000003</v>
@@ -9298,7 +9325,7 @@
     </row>
     <row r="108" spans="11:13">
       <c r="K108" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L108">
         <v>-18.916599999999999</v>
@@ -9309,7 +9336,7 @@
     </row>
     <row r="109" spans="11:13">
       <c r="K109" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L109">
         <v>19.442399999999999</v>
@@ -9320,7 +9347,7 @@
     </row>
     <row r="110" spans="11:13">
       <c r="K110" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L110">
         <v>42</v>
@@ -9331,7 +9358,7 @@
     </row>
     <row r="111" spans="11:13">
       <c r="K111" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L111">
         <v>12.65</v>
@@ -9342,7 +9369,7 @@
     </row>
     <row r="112" spans="11:13">
       <c r="K112" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L112">
         <v>35.899700000000003</v>
@@ -9353,7 +9380,7 @@
     </row>
     <row r="113" spans="11:13">
       <c r="K113" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="L113">
         <v>16.871310999999999</v>
@@ -9364,7 +9391,7 @@
     </row>
     <row r="114" spans="11:13">
       <c r="K114" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L114">
         <v>42.442574</v>
@@ -9375,7 +9402,7 @@
     </row>
     <row r="115" spans="11:13">
       <c r="K115" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="L115">
         <v>47.916699999999999</v>
@@ -9386,7 +9413,7 @@
     </row>
     <row r="116" spans="11:13">
       <c r="K116" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L116">
         <v>-25.9696</v>
@@ -9397,7 +9424,7 @@
     </row>
     <row r="117" spans="11:13">
       <c r="K117" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L117">
         <v>18.086400000000001</v>
@@ -9408,7 +9435,7 @@
     </row>
     <row r="118" spans="11:13">
       <c r="K118" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L118">
         <v>-13.9833</v>
@@ -9419,7 +9446,7 @@
     </row>
     <row r="119" spans="11:13">
       <c r="K119" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L119">
         <v>3.1667000000000001</v>
@@ -9430,7 +9457,7 @@
     </row>
     <row r="120" spans="11:13">
       <c r="K120" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="L120">
         <v>-22.57</v>
@@ -9441,7 +9468,7 @@
     </row>
     <row r="121" spans="11:13">
       <c r="K121" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="L121">
         <v>13.5167</v>
@@ -9452,7 +9479,7 @@
     </row>
     <row r="122" spans="11:13">
       <c r="K122" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="L122">
         <v>6.4432999999999998</v>
@@ -9463,7 +9490,7 @@
     </row>
     <row r="123" spans="11:13">
       <c r="K123" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L123">
         <v>12.153</v>
@@ -9474,7 +9501,7 @@
     </row>
     <row r="124" spans="11:13">
       <c r="K124" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L124">
         <v>52.35</v>
@@ -9485,7 +9512,7 @@
     </row>
     <row r="125" spans="11:13">
       <c r="K125" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="L125">
         <v>59.916699999999999</v>
@@ -9496,7 +9523,7 @@
     </row>
     <row r="126" spans="11:13">
       <c r="K126" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L126">
         <v>27.716699999999999</v>
@@ -9507,7 +9534,7 @@
     </row>
     <row r="127" spans="11:13">
       <c r="K127" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="L127">
         <v>-36.848100000000002</v>
@@ -9518,7 +9545,7 @@
     </row>
     <row r="128" spans="11:13">
       <c r="K128" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="L128">
         <v>23.613299999999999</v>
@@ -9529,7 +9556,7 @@
     </row>
     <row r="129" spans="11:13">
       <c r="K129" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="L129">
         <v>24.87</v>
@@ -9540,7 +9567,7 @@
     </row>
     <row r="130" spans="11:13">
       <c r="K130" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L130">
         <v>8.968</v>
@@ -9551,7 +9578,7 @@
     </row>
     <row r="131" spans="11:13">
       <c r="K131" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="L131">
         <v>-12.048</v>
@@ -9562,7 +9589,7 @@
     </row>
     <row r="132" spans="11:13">
       <c r="K132" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="L132">
         <v>14.604200000000001</v>
@@ -9573,7 +9600,7 @@
     </row>
     <row r="133" spans="11:13">
       <c r="K133" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L133">
         <v>-9.4647000000000006</v>
@@ -9584,7 +9611,7 @@
     </row>
     <row r="134" spans="11:13">
       <c r="K134" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="L134">
         <v>52.25</v>
@@ -9595,7 +9622,7 @@
     </row>
     <row r="135" spans="11:13">
       <c r="K135" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="L135">
         <v>39.019399999999997</v>
@@ -9606,7 +9633,7 @@
     </row>
     <row r="136" spans="11:13">
       <c r="K136" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L136">
         <v>38.722700000000003</v>
@@ -9617,7 +9644,7 @@
     </row>
     <row r="137" spans="11:13">
       <c r="K137" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="L137">
         <v>-25.296399999999998</v>
@@ -9628,7 +9655,7 @@
     </row>
     <row r="138" spans="11:13">
       <c r="K138" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="L138">
         <v>25.291899999999998</v>
@@ -9639,7 +9666,7 @@
     </row>
     <row r="139" spans="11:13">
       <c r="K139" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="L139">
         <v>44.433399999999999</v>
@@ -9650,7 +9677,7 @@
     </row>
     <row r="140" spans="11:13">
       <c r="K140" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L140">
         <v>55.749899999999997</v>
@@ -9661,7 +9688,7 @@
     </row>
     <row r="141" spans="11:13">
       <c r="K141" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L141">
         <v>-1.9536</v>
@@ -9672,7 +9699,7 @@
     </row>
     <row r="142" spans="11:13">
       <c r="K142" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L142">
         <v>24.640799999999999</v>
@@ -9683,7 +9710,7 @@
     </row>
     <row r="143" spans="11:13">
       <c r="K143" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L143">
         <v>15.588100000000001</v>
@@ -9694,7 +9721,7 @@
     </row>
     <row r="144" spans="11:13">
       <c r="K144" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L144">
         <v>14.7158</v>
@@ -9705,7 +9732,7 @@
     </row>
     <row r="145" spans="11:13">
       <c r="K145" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L145">
         <v>1.2929999999999999</v>
@@ -9716,7 +9743,7 @@
     </row>
     <row r="146" spans="11:13">
       <c r="K146" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L146">
         <v>8.4700000000000006</v>
@@ -9727,7 +9754,7 @@
     </row>
     <row r="147" spans="11:13">
       <c r="K147" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L147">
         <v>13.71</v>
@@ -9738,7 +9765,7 @@
     </row>
     <row r="148" spans="11:13">
       <c r="K148" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L148">
         <v>2.0667</v>
@@ -9749,7 +9776,7 @@
     </row>
     <row r="149" spans="11:13">
       <c r="K149" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L149">
         <v>44.818600000000004</v>
@@ -9760,7 +9787,7 @@
     </row>
     <row r="150" spans="11:13">
       <c r="K150" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L150">
         <v>5.835</v>
@@ -9771,7 +9798,7 @@
     </row>
     <row r="151" spans="11:13">
       <c r="K151" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L151">
         <v>48.15</v>
@@ -9782,7 +9809,7 @@
     </row>
     <row r="152" spans="11:13">
       <c r="K152" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L152">
         <v>46.055300000000003</v>
@@ -9793,7 +9820,7 @@
     </row>
     <row r="153" spans="11:13">
       <c r="K153" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L153">
         <v>59.3508</v>
@@ -9804,7 +9831,7 @@
     </row>
     <row r="154" spans="11:13">
       <c r="K154" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L154">
         <v>-26.495000000000001</v>
@@ -9815,7 +9842,7 @@
     </row>
     <row r="155" spans="11:13">
       <c r="K155" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L155">
         <v>33.5</v>
@@ -9826,7 +9853,7 @@
     </row>
     <row r="156" spans="11:13">
       <c r="K156" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L156">
         <v>12.113099999999999</v>
@@ -9837,7 +9864,7 @@
     </row>
     <row r="157" spans="11:13">
       <c r="K157" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L157">
         <v>6.1318999999999999</v>
@@ -9848,7 +9875,7 @@
     </row>
     <row r="158" spans="11:13">
       <c r="K158" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L158">
         <v>13.75</v>
@@ -9859,7 +9886,7 @@
     </row>
     <row r="159" spans="11:13">
       <c r="K159" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L159">
         <v>38.56</v>
@@ -9870,7 +9897,7 @@
     </row>
     <row r="160" spans="11:13">
       <c r="K160" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L160">
         <v>37.950000000000003</v>
@@ -9881,7 +9908,7 @@
     </row>
     <row r="161" spans="11:13">
       <c r="K161" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L161">
         <v>-8.5594000000000001</v>
@@ -9892,7 +9919,7 @@
     </row>
     <row r="162" spans="11:13">
       <c r="K162" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L162">
         <v>10.651999999999999</v>
@@ -9903,7 +9930,7 @@
     </row>
     <row r="163" spans="11:13">
       <c r="K163" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L163">
         <v>36.802799999999998</v>
@@ -9914,7 +9941,7 @@
     </row>
     <row r="164" spans="11:13">
       <c r="K164" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L164">
         <v>41.104999999999997</v>
@@ -9925,7 +9952,7 @@
     </row>
     <row r="165" spans="11:13">
       <c r="K165" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L165">
         <v>25.035799999999998</v>
@@ -9936,7 +9963,7 @@
     </row>
     <row r="166" spans="11:13">
       <c r="K166" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L166">
         <v>-6.8</v>
@@ -9947,7 +9974,7 @@
     </row>
     <row r="167" spans="11:13">
       <c r="K167" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L167">
         <v>0.31669999999999998</v>
@@ -9958,7 +9985,7 @@
     </row>
     <row r="168" spans="11:13">
       <c r="K168" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L168">
         <v>50.434341000000003</v>
@@ -9969,7 +9996,7 @@
     </row>
     <row r="169" spans="11:13">
       <c r="K169" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L169">
         <v>-34.857999999999997</v>
@@ -9980,7 +10007,7 @@
     </row>
     <row r="170" spans="11:13">
       <c r="K170" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="L170">
         <v>44.963500000000003</v>
@@ -9991,7 +10018,7 @@
     </row>
     <row r="171" spans="11:13">
       <c r="K171" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L171">
         <v>41.311700000000002</v>
@@ -10002,7 +10029,7 @@
     </row>
     <row r="172" spans="11:13">
       <c r="K172" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="L172">
         <v>10.5</v>
@@ -10013,7 +10040,7 @@
     </row>
     <row r="173" spans="11:13">
       <c r="K173" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L173">
         <v>10.810582999999999</v>
@@ -10024,7 +10051,7 @@
     </row>
     <row r="174" spans="11:13">
       <c r="K174" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L174">
         <v>15.354699999999999</v>
@@ -10035,7 +10062,7 @@
     </row>
     <row r="175" spans="11:13">
       <c r="K175" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="L175">
         <v>-26.17</v>
@@ -10046,7 +10073,7 @@
     </row>
     <row r="176" spans="11:13">
       <c r="K176" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L176">
         <v>-15.416600000000001</v>
@@ -10057,7 +10084,7 @@
     </row>
     <row r="177" spans="11:13">
       <c r="K177" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="L177">
         <v>-17.817799999999998</v>
@@ -10068,7 +10095,7 @@
     </row>
     <row r="178" spans="11:13">
       <c r="K178" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L178">
         <v>4.8539000000000003</v>
@@ -10085,11 +10112,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet19"/>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10184,22 +10211,19 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K3" t="s">
         <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P3" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>59</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -10207,16 +10231,16 @@
         <v>6</v>
       </c>
       <c r="H4" t="s">
+        <v>780</v>
+      </c>
+      <c r="K4" t="s">
+        <v>781</v>
+      </c>
+      <c r="N4" t="s">
         <v>782</v>
       </c>
-      <c r="K4" t="s">
+      <c r="P4" t="s">
         <v>783</v>
-      </c>
-      <c r="N4" t="s">
-        <v>784</v>
-      </c>
-      <c r="P4" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -10224,19 +10248,16 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="K5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P5" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>59</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -10244,16 +10265,16 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="N6" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>59</v>
+        <v>304</v>
+      </c>
+      <c r="P6" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -10261,23 +10282,20 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I7" s="2"/>
       <c r="K7" t="s">
         <v>37</v>
       </c>
       <c r="N7" t="s">
+        <v>809</v>
+      </c>
+      <c r="P7" t="s">
         <v>812</v>
-      </c>
-      <c r="P7" t="s">
-        <v>809</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -10285,19 +10303,19 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K8" t="s">
         <v>37</v>
       </c>
       <c r="N8" t="s">
-        <v>810</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>59</v>
+        <v>807</v>
+      </c>
+      <c r="P8" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -10305,19 +10323,19 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N9" t="s">
-        <v>811</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>59</v>
+        <v>808</v>
+      </c>
+      <c r="P9" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -10325,19 +10343,19 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K10" t="s">
         <v>37</v>
       </c>
       <c r="N10" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>59</v>
+        <v>308</v>
+      </c>
+      <c r="P10" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -10345,19 +10363,19 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K11" t="s">
         <v>37</v>
       </c>
       <c r="N11" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>59</v>
+        <v>309</v>
+      </c>
+      <c r="P11" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -10365,55 +10383,81 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K12" t="s">
         <v>9</v>
       </c>
       <c r="N12" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>59</v>
+        <v>310</v>
+      </c>
+      <c r="P12" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>725</v>
-      </c>
-      <c r="B13" t="s">
-        <v>726</v>
-      </c>
-      <c r="I13" t="s">
-        <v>786</v>
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>270</v>
+      </c>
+      <c r="H13" t="s">
+        <v>298</v>
       </c>
       <c r="K13" t="s">
-        <v>779</v>
+        <v>37</v>
       </c>
       <c r="N13" t="s">
-        <v>780</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>781</v>
+        <v>811</v>
+      </c>
+      <c r="P13" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
+        <v>723</v>
+      </c>
+      <c r="B14" t="s">
+        <v>724</v>
+      </c>
+      <c r="I14" t="s">
+        <v>784</v>
+      </c>
+      <c r="K14" t="s">
+        <v>777</v>
+      </c>
+      <c r="N14" t="s">
+        <v>778</v>
+      </c>
+      <c r="P14" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
+        <v>793</v>
+      </c>
+      <c r="B15" t="s">
+        <v>794</v>
+      </c>
+      <c r="C15" t="s">
+        <v>819</v>
+      </c>
+      <c r="K15" t="s">
+        <v>777</v>
+      </c>
+      <c r="N15" t="s">
         <v>795</v>
       </c>
-      <c r="B14" t="s">
-        <v>796</v>
-      </c>
-      <c r="C14" t="s">
-        <v>309</v>
-      </c>
-      <c r="K14" t="s">
-        <v>779</v>
-      </c>
-      <c r="N14" t="s">
-        <v>797</v>
-      </c>
-      <c r="Q14" t="s">
+      <c r="P15" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q15" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10426,9 +10470,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A417EBA-A3EF-4B7E-9A8B-6031DBC955E3}">
-  <dimension ref="C1:M10"/>
+  <dimension ref="C1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -10444,15 +10490,15 @@
   <sheetData>
     <row r="1" spans="3:13">
       <c r="C1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="3:13">
       <c r="C2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -10464,36 +10510,36 @@
         <v>44</v>
       </c>
       <c r="H2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" t="s">
         <v>66</v>
-      </c>
-      <c r="I2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" t="s">
-        <v>68</v>
       </c>
       <c r="K2" t="s">
         <v>11</v>
       </c>
       <c r="M2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="3:13">
       <c r="C3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" t="s">
         <v>70</v>
-      </c>
-      <c r="F3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" t="s">
-        <v>72</v>
       </c>
       <c r="J3" t="s">
         <v>38</v>
@@ -10501,19 +10547,19 @@
     </row>
     <row r="4" spans="3:13">
       <c r="C4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
         <v>311</v>
       </c>
-      <c r="E4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" t="s">
-        <v>313</v>
-      </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
         <v>38</v>
@@ -10521,29 +10567,19 @@
     </row>
     <row r="5" spans="3:13">
       <c r="C5" t="s">
-        <v>60</v>
+        <v>309</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>811</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="3:13">
-      <c r="C9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="10" spans="3:13">
-      <c r="C10" t="s">
-        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -10577,7 +10613,7 @@
   <sheetData>
     <row r="3" spans="2:13" ht="17.25" thickBot="1">
       <c r="B3" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="15" thickTop="1" thickBot="1">
@@ -10588,13 +10624,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>0</v>
@@ -10612,10 +10648,10 @@
         <v>44</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="2:13">
@@ -10632,13 +10668,13 @@
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L5" t="s">
         <v>38</v>
@@ -10649,7 +10685,7 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="str">
@@ -10658,10 +10694,10 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L6" t="s">
         <v>38</v>
@@ -10680,13 +10716,13 @@
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G7" t="s">
         <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="L7" t="s">
         <v>38</v>
@@ -10705,13 +10741,13 @@
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H8" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="L8" t="s">
         <v>38</v>
@@ -10730,13 +10766,13 @@
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G9" t="s">
         <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="L9" t="s">
         <v>38</v>
@@ -10747,17 +10783,17 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E10" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="G10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H10" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="L10" t="s">
         <v>38</v>
@@ -10768,7 +10804,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E11" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
@@ -10778,7 +10814,7 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="L11" t="s">
         <v>38</v>
@@ -10836,12 +10872,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -10852,23 +10888,23 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -10876,15 +10912,15 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -10892,106 +10928,106 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -11003,8 +11039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF522A4-03B3-4329-9210-404B1BD4B629}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11015,12 +11051,12 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -11031,156 +11067,156 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H5" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G8" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G9" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H9" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B12" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B13" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -11200,7 +11236,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -11216,343 +11252,343 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B5" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B6" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C6" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>759</v>
+      </c>
+      <c r="B7" t="s">
+        <v>729</v>
+      </c>
+      <c r="C7" t="s">
         <v>761</v>
-      </c>
-      <c r="B7" t="s">
-        <v>731</v>
-      </c>
-      <c r="C7" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C8" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B9" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C9" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B10" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C10" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B11" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C11" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B12" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B13" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C13" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C14" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B15" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C15" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B16" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C16" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B17" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B18" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C18" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B19" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C19" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B20" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C20" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C21" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B22" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C22" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B23" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C23" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B24" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C24" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B25" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C25" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B26" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C26" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B27" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C27" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B28" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C28" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B29" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C29" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B30" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C30" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B31" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C31" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B32" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C32" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B33" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C33" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
   </sheetData>
@@ -11601,10 +11637,10 @@
         <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:4" hidden="1">
@@ -11612,153 +11648,153 @@
         <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:4" hidden="1">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:4" hidden="1">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:4" hidden="1">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:4" hidden="1">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:4" hidden="1">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:4" hidden="1">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:4" hidden="1">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:4" hidden="1">
       <c r="A12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:4" hidden="1">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:4" hidden="1">
       <c r="A14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:4" hidden="1">
       <c r="A15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:4" hidden="1">
       <c r="A16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:4" hidden="1">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:4" hidden="1">
@@ -11766,10 +11802,10 @@
         <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:4" hidden="1">
@@ -11777,10 +11813,10 @@
         <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:4" hidden="1">
@@ -11788,10 +11824,10 @@
         <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:4" hidden="1">
@@ -11799,10 +11835,10 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:4" hidden="1">
@@ -11810,10 +11846,10 @@
         <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:4" hidden="1">
@@ -11821,10 +11857,10 @@
         <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:4" hidden="1">
@@ -11832,10 +11868,10 @@
         <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:4" hidden="1">
@@ -11843,10 +11879,10 @@
         <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:4" hidden="1">
@@ -11854,10 +11890,10 @@
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:4" hidden="1">
@@ -11865,10 +11901,10 @@
         <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:4" hidden="1">
@@ -11876,10 +11912,10 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:4" hidden="1">
@@ -11887,10 +11923,10 @@
         <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D29" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:4" hidden="1">
@@ -11898,208 +11934,208 @@
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D30" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C32" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C33" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:4" hidden="1">
       <c r="A34" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C34" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D34" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:4" hidden="1">
       <c r="A35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C35" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D35" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:4" hidden="1">
       <c r="A36" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C36" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D36" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:4" hidden="1">
       <c r="A37" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C37" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D37" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:4" hidden="1">
       <c r="A38" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C38" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D38" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:4" hidden="1">
       <c r="A39" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C39" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C40" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D40" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:4" hidden="1">
       <c r="A41" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D41" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:4" hidden="1">
       <c r="A42" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C42" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D42" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C43" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D43" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:4" hidden="1">
       <c r="A44" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C44" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D44" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:4" hidden="1">
       <c r="A45" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C45" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D45" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C46" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D46" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:4" hidden="1">
       <c r="A47" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C47" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D47" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:4" hidden="1">
       <c r="A48" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C48" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D48" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:4" hidden="1">
@@ -12107,10 +12143,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D49" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:4" hidden="1">
@@ -12118,87 +12154,87 @@
         <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D50" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C51" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D51" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C52" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D52" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C53" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D53" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C54" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D54" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C55" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D55" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C56" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D56" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C57" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D57" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:4" hidden="1">
@@ -12206,10 +12242,10 @@
         <v>51</v>
       </c>
       <c r="C58" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D58" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="59" spans="1:4" hidden="1">
@@ -12217,10 +12253,10 @@
         <v>51</v>
       </c>
       <c r="C59" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D59" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60" spans="1:4" hidden="1">
@@ -12228,10 +12264,10 @@
         <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D60" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="61" spans="1:4" hidden="1">
@@ -12239,10 +12275,10 @@
         <v>51</v>
       </c>
       <c r="C61" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D61" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="62" spans="1:4" hidden="1">
@@ -12253,7 +12289,7 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63" spans="1:4" hidden="1">
@@ -12261,10 +12297,10 @@
         <v>51</v>
       </c>
       <c r="C63" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D63" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64" spans="1:4" hidden="1">
@@ -12275,7 +12311,7 @@
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="65" spans="1:4" hidden="1">
@@ -12283,10 +12319,10 @@
         <v>51</v>
       </c>
       <c r="C65" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D65" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:4" hidden="1">
@@ -12294,10 +12330,10 @@
         <v>51</v>
       </c>
       <c r="C66" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D66" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="67" spans="1:4" hidden="1">
@@ -12305,10 +12341,10 @@
         <v>51</v>
       </c>
       <c r="C67" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D67" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="1:4" hidden="1">
@@ -12316,10 +12352,10 @@
         <v>51</v>
       </c>
       <c r="C68" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D68" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="69" spans="1:4" hidden="1">
@@ -12327,10 +12363,10 @@
         <v>51</v>
       </c>
       <c r="C69" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D69" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="70" spans="1:4" hidden="1">
@@ -12338,10 +12374,10 @@
         <v>51</v>
       </c>
       <c r="C70" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D70" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="1:4" hidden="1">
@@ -12349,10 +12385,10 @@
         <v>51</v>
       </c>
       <c r="C71" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D71" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="72" spans="1:4" hidden="1">
@@ -12360,10 +12396,10 @@
         <v>51</v>
       </c>
       <c r="C72" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D72" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="73" spans="1:4" hidden="1">
@@ -12371,10 +12407,10 @@
         <v>51</v>
       </c>
       <c r="C73" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D73" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="74" spans="1:4" hidden="1">
@@ -12382,10 +12418,10 @@
         <v>51</v>
       </c>
       <c r="C74" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D74" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="75" spans="1:4" hidden="1">
@@ -12393,10 +12429,10 @@
         <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D75" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="76" spans="1:4" hidden="1">
@@ -12404,10 +12440,10 @@
         <v>51</v>
       </c>
       <c r="C76" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D76" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="77" spans="1:4" hidden="1">
@@ -12415,10 +12451,10 @@
         <v>51</v>
       </c>
       <c r="C77" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D77" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="78" spans="1:4" hidden="1">
@@ -12426,10 +12462,10 @@
         <v>51</v>
       </c>
       <c r="C78" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D78" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="79" spans="1:4" hidden="1">
@@ -12437,10 +12473,10 @@
         <v>51</v>
       </c>
       <c r="C79" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D79" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="80" spans="1:4" hidden="1">
@@ -12448,10 +12484,10 @@
         <v>51</v>
       </c>
       <c r="C80" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D80" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="81" spans="1:4" hidden="1">
@@ -12459,10 +12495,10 @@
         <v>51</v>
       </c>
       <c r="C81" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D81" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="82" spans="1:4" hidden="1">
@@ -12470,10 +12506,10 @@
         <v>51</v>
       </c>
       <c r="C82" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D82" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="83" spans="1:4" hidden="1">
@@ -12484,7 +12520,7 @@
         <v>36</v>
       </c>
       <c r="D83" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="84" spans="1:4" hidden="1">
@@ -12492,10 +12528,10 @@
         <v>51</v>
       </c>
       <c r="C84" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D84" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="85" spans="1:4" hidden="1">
@@ -12506,7 +12542,7 @@
         <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="86" spans="1:4" hidden="1">
@@ -12517,7 +12553,7 @@
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="87" spans="1:4" hidden="1">
@@ -12525,10 +12561,10 @@
         <v>51</v>
       </c>
       <c r="C87" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D87" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="88" spans="1:4" hidden="1">
@@ -12536,10 +12572,10 @@
         <v>51</v>
       </c>
       <c r="C88" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D88" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="89" spans="1:4" hidden="1">
@@ -12547,10 +12583,10 @@
         <v>51</v>
       </c>
       <c r="C89" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D89" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="90" spans="1:4" hidden="1">
@@ -12558,10 +12594,10 @@
         <v>51</v>
       </c>
       <c r="C90" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D90" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="91" spans="1:4" hidden="1">
@@ -12569,10 +12605,10 @@
         <v>51</v>
       </c>
       <c r="C91" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D91" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="92" spans="1:4" hidden="1">
@@ -12580,10 +12616,10 @@
         <v>51</v>
       </c>
       <c r="C92" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D92" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="93" spans="1:4" hidden="1">
@@ -12591,10 +12627,10 @@
         <v>51</v>
       </c>
       <c r="C93" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D93" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="94" spans="1:4" hidden="1">
@@ -12602,54 +12638,54 @@
         <v>51</v>
       </c>
       <c r="C94" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D94" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="95" spans="1:4" hidden="1">
       <c r="A95" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B95" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C95" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="96" spans="1:4" hidden="1">
       <c r="A96" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B96" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C96" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="97" spans="1:4" hidden="1">
       <c r="A97" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C97" t="s">
+        <v>770</v>
+      </c>
+      <c r="D97" t="s">
         <v>772</v>
-      </c>
-      <c r="D97" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="98" spans="1:4" hidden="1">
       <c r="A98" t="s">
+        <v>769</v>
+      </c>
+      <c r="C98" t="s">
         <v>771</v>
       </c>
-      <c r="C98" t="s">
-        <v>773</v>
-      </c>
       <c r="D98" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
   </sheetData>

--- a/ReportDefs-TIMES-GEO.xlsx
+++ b/ReportDefs-TIMES-GEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\TIMES-GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE103D9-0833-48F5-AD6A-61369CCBB989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A85C619-7623-4F66-BE63-EE31BDA40C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="824">
   <si>
     <t>Unit</t>
   </si>
@@ -2577,6 +2577,9 @@
   </si>
   <si>
     <t>CO2 Captured - for storage</t>
+  </si>
+  <si>
+    <t>225</t>
   </si>
 </sst>
 </file>
@@ -3206,10 +3209,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:Z55"/>
+  <dimension ref="A1:Z65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3574,6 +3577,12 @@
         <f t="shared" si="3"/>
         <v>dr-01.0%</v>
       </c>
+      <c r="Y10">
+        <v>6</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>823</v>
+      </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" t="str">
@@ -5822,6 +5831,506 @@
       </c>
       <c r="V55" t="str">
         <f t="shared" si="12"/>
+        <v>dr-01.0%</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="A56" t="str">
+        <f t="shared" ref="A56:A65" si="13">$A$1&amp;TEXT(N56,"0000")</f>
+        <v>TGE~0051</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" ref="B56:B65" si="14">G56</f>
+        <v>cp-225.re-Hi.dr-10.0%</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" ref="G56:G65" si="15">_xlfn.TEXTJOIN(".",TRUE,T56:X56)</f>
+        <v>cp-225.re-Hi.dr-10.0%</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" ref="H56:H65" si="16">VLOOKUP(O56,$Y$5:$Z$11,2,FALSE)</f>
+        <v>225</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" ref="I56:I65" si="17">P56</f>
+        <v>Hi</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" ref="J56:J65" si="18">TEXT(Q56,"00.0%")</f>
+        <v>10.0%</v>
+      </c>
+      <c r="N56">
+        <v>51</v>
+      </c>
+      <c r="O56">
+        <v>6</v>
+      </c>
+      <c r="P56" t="s">
+        <v>791</v>
+      </c>
+      <c r="Q56">
+        <v>0.1</v>
+      </c>
+      <c r="T56" t="str">
+        <f t="shared" ref="T56:T65" si="19">H$1&amp;"-"&amp;VLOOKUP(O56,$Y$5:$Z$11,2,FALSE)</f>
+        <v>cp-225</v>
+      </c>
+      <c r="U56" t="str">
+        <f t="shared" ref="U56:U65" si="20">I$1&amp;"-"&amp;P56</f>
+        <v>re-Hi</v>
+      </c>
+      <c r="V56" t="str">
+        <f t="shared" ref="V56:V65" si="21">J$1&amp;"-"&amp;TEXT(Q56,"00.0%")</f>
+        <v>dr-10.0%</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="A57" t="str">
+        <f t="shared" si="13"/>
+        <v>TGE~0052</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="14"/>
+        <v>cp-225.re-Hi.dr-07.5%</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="15"/>
+        <v>cp-225.re-Hi.dr-07.5%</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="16"/>
+        <v>225</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="17"/>
+        <v>Hi</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="18"/>
+        <v>07.5%</v>
+      </c>
+      <c r="N57">
+        <v>52</v>
+      </c>
+      <c r="O57">
+        <v>6</v>
+      </c>
+      <c r="P57" t="s">
+        <v>791</v>
+      </c>
+      <c r="Q57">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="T57" t="str">
+        <f t="shared" si="19"/>
+        <v>cp-225</v>
+      </c>
+      <c r="U57" t="str">
+        <f t="shared" si="20"/>
+        <v>re-Hi</v>
+      </c>
+      <c r="V57" t="str">
+        <f t="shared" si="21"/>
+        <v>dr-07.5%</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
+      <c r="A58" t="str">
+        <f t="shared" si="13"/>
+        <v>TGE~0053</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="14"/>
+        <v>cp-225.re-Hi.dr-05.0%</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="15"/>
+        <v>cp-225.re-Hi.dr-05.0%</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="16"/>
+        <v>225</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="17"/>
+        <v>Hi</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="18"/>
+        <v>05.0%</v>
+      </c>
+      <c r="N58">
+        <v>53</v>
+      </c>
+      <c r="O58">
+        <v>6</v>
+      </c>
+      <c r="P58" t="s">
+        <v>791</v>
+      </c>
+      <c r="Q58">
+        <v>0.05</v>
+      </c>
+      <c r="T58" t="str">
+        <f t="shared" si="19"/>
+        <v>cp-225</v>
+      </c>
+      <c r="U58" t="str">
+        <f t="shared" si="20"/>
+        <v>re-Hi</v>
+      </c>
+      <c r="V58" t="str">
+        <f t="shared" si="21"/>
+        <v>dr-05.0%</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="A59" t="str">
+        <f t="shared" si="13"/>
+        <v>TGE~0054</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="14"/>
+        <v>cp-225.re-Hi.dr-02.0%</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="15"/>
+        <v>cp-225.re-Hi.dr-02.0%</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="16"/>
+        <v>225</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="17"/>
+        <v>Hi</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="18"/>
+        <v>02.0%</v>
+      </c>
+      <c r="N59">
+        <v>54</v>
+      </c>
+      <c r="O59">
+        <v>6</v>
+      </c>
+      <c r="P59" t="s">
+        <v>791</v>
+      </c>
+      <c r="Q59">
+        <v>0.02</v>
+      </c>
+      <c r="T59" t="str">
+        <f t="shared" si="19"/>
+        <v>cp-225</v>
+      </c>
+      <c r="U59" t="str">
+        <f t="shared" si="20"/>
+        <v>re-Hi</v>
+      </c>
+      <c r="V59" t="str">
+        <f t="shared" si="21"/>
+        <v>dr-02.0%</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="A60" t="str">
+        <f t="shared" si="13"/>
+        <v>TGE~0055</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="14"/>
+        <v>cp-225.re-Hi.dr-01.0%</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="15"/>
+        <v>cp-225.re-Hi.dr-01.0%</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="16"/>
+        <v>225</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="17"/>
+        <v>Hi</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="18"/>
+        <v>01.0%</v>
+      </c>
+      <c r="N60">
+        <v>55</v>
+      </c>
+      <c r="O60">
+        <v>6</v>
+      </c>
+      <c r="P60" t="s">
+        <v>791</v>
+      </c>
+      <c r="Q60">
+        <v>0.01</v>
+      </c>
+      <c r="T60" t="str">
+        <f t="shared" si="19"/>
+        <v>cp-225</v>
+      </c>
+      <c r="U60" t="str">
+        <f t="shared" si="20"/>
+        <v>re-Hi</v>
+      </c>
+      <c r="V60" t="str">
+        <f t="shared" si="21"/>
+        <v>dr-01.0%</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="A61" t="str">
+        <f t="shared" si="13"/>
+        <v>TGE~0056</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="14"/>
+        <v>cp-225.re-Ref.dr-10.0%</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="15"/>
+        <v>cp-225.re-Ref.dr-10.0%</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="16"/>
+        <v>225</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="17"/>
+        <v>Ref</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="18"/>
+        <v>10.0%</v>
+      </c>
+      <c r="N61">
+        <v>56</v>
+      </c>
+      <c r="O61">
+        <v>6</v>
+      </c>
+      <c r="P61" t="s">
+        <v>792</v>
+      </c>
+      <c r="Q61">
+        <v>0.1</v>
+      </c>
+      <c r="T61" t="str">
+        <f t="shared" si="19"/>
+        <v>cp-225</v>
+      </c>
+      <c r="U61" t="str">
+        <f t="shared" si="20"/>
+        <v>re-Ref</v>
+      </c>
+      <c r="V61" t="str">
+        <f t="shared" si="21"/>
+        <v>dr-10.0%</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
+      <c r="A62" t="str">
+        <f t="shared" si="13"/>
+        <v>TGE~0057</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="14"/>
+        <v>cp-225.re-Ref.dr-07.5%</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="15"/>
+        <v>cp-225.re-Ref.dr-07.5%</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="16"/>
+        <v>225</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="17"/>
+        <v>Ref</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="18"/>
+        <v>07.5%</v>
+      </c>
+      <c r="N62">
+        <v>57</v>
+      </c>
+      <c r="O62">
+        <v>6</v>
+      </c>
+      <c r="P62" t="s">
+        <v>792</v>
+      </c>
+      <c r="Q62">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="T62" t="str">
+        <f t="shared" si="19"/>
+        <v>cp-225</v>
+      </c>
+      <c r="U62" t="str">
+        <f t="shared" si="20"/>
+        <v>re-Ref</v>
+      </c>
+      <c r="V62" t="str">
+        <f t="shared" si="21"/>
+        <v>dr-07.5%</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
+      <c r="A63" t="str">
+        <f t="shared" si="13"/>
+        <v>TGE~0058</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="14"/>
+        <v>cp-225.re-Ref.dr-05.0%</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="15"/>
+        <v>cp-225.re-Ref.dr-05.0%</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="16"/>
+        <v>225</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="17"/>
+        <v>Ref</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="18"/>
+        <v>05.0%</v>
+      </c>
+      <c r="N63">
+        <v>58</v>
+      </c>
+      <c r="O63">
+        <v>6</v>
+      </c>
+      <c r="P63" t="s">
+        <v>792</v>
+      </c>
+      <c r="Q63">
+        <v>0.05</v>
+      </c>
+      <c r="T63" t="str">
+        <f t="shared" si="19"/>
+        <v>cp-225</v>
+      </c>
+      <c r="U63" t="str">
+        <f t="shared" si="20"/>
+        <v>re-Ref</v>
+      </c>
+      <c r="V63" t="str">
+        <f t="shared" si="21"/>
+        <v>dr-05.0%</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="A64" t="str">
+        <f t="shared" si="13"/>
+        <v>TGE~0059</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="14"/>
+        <v>cp-225.re-Ref.dr-02.0%</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="15"/>
+        <v>cp-225.re-Ref.dr-02.0%</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="16"/>
+        <v>225</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="17"/>
+        <v>Ref</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="18"/>
+        <v>02.0%</v>
+      </c>
+      <c r="N64">
+        <v>59</v>
+      </c>
+      <c r="O64">
+        <v>6</v>
+      </c>
+      <c r="P64" t="s">
+        <v>792</v>
+      </c>
+      <c r="Q64">
+        <v>0.02</v>
+      </c>
+      <c r="T64" t="str">
+        <f t="shared" si="19"/>
+        <v>cp-225</v>
+      </c>
+      <c r="U64" t="str">
+        <f t="shared" si="20"/>
+        <v>re-Ref</v>
+      </c>
+      <c r="V64" t="str">
+        <f t="shared" si="21"/>
+        <v>dr-02.0%</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
+      <c r="A65" t="str">
+        <f t="shared" si="13"/>
+        <v>TGE~0060</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="14"/>
+        <v>cp-225.re-Ref.dr-01.0%</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="15"/>
+        <v>cp-225.re-Ref.dr-01.0%</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="16"/>
+        <v>225</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="17"/>
+        <v>Ref</v>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" si="18"/>
+        <v>01.0%</v>
+      </c>
+      <c r="N65">
+        <v>60</v>
+      </c>
+      <c r="O65">
+        <v>6</v>
+      </c>
+      <c r="P65" t="s">
+        <v>792</v>
+      </c>
+      <c r="Q65">
+        <v>0.01</v>
+      </c>
+      <c r="T65" t="str">
+        <f t="shared" si="19"/>
+        <v>cp-225</v>
+      </c>
+      <c r="U65" t="str">
+        <f t="shared" si="20"/>
+        <v>re-Ref</v>
+      </c>
+      <c r="V65" t="str">
+        <f t="shared" si="21"/>
         <v>dr-01.0%</v>
       </c>
     </row>
@@ -10114,7 +10623,7 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
     </sheetView>

--- a/ReportDefs-TIMES-GEO.xlsx
+++ b/ReportDefs-TIMES-GEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\TIMES-GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A85C619-7623-4F66-BE63-EE31BDA40C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9548A415-4937-406A-8F43-6F0B4D75D20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="828">
   <si>
     <t>Unit</t>
   </si>
@@ -2580,6 +2580,18 @@
   </si>
   <si>
     <t>225</t>
+  </si>
+  <si>
+    <t>Cost_Inv</t>
+  </si>
+  <si>
+    <t>mUSD</t>
+  </si>
+  <si>
+    <t>Cost_Investment</t>
+  </si>
+  <si>
+    <t>Annualized investment cost - by sector</t>
   </si>
 </sst>
 </file>
@@ -3211,7 +3223,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:Z65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
@@ -10621,11 +10633,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet19"/>
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10968,6 +10980,20 @@
       </c>
       <c r="Q15" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
+        <v>824</v>
+      </c>
+      <c r="K16" t="s">
+        <v>825</v>
+      </c>
+      <c r="N16" t="s">
+        <v>826</v>
+      </c>
+      <c r="P16" t="s">
+        <v>827</v>
       </c>
     </row>
   </sheetData>

--- a/ReportDefs-TIMES-GEO.xlsx
+++ b/ReportDefs-TIMES-GEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\TIMES-GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9548A415-4937-406A-8F43-6F0B4D75D20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98113D8-D525-45A6-A4B8-79639E4F9108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="832">
   <si>
     <t>Unit</t>
   </si>
@@ -2592,6 +2592,18 @@
   </si>
   <si>
     <t>Annualized investment cost - by sector</t>
+  </si>
+  <si>
+    <t>Reg_Acost</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>Cost_System</t>
+  </si>
+  <si>
+    <t>Annualized system cost by component (INV, FIX, VAR, and IRE)</t>
   </si>
 </sst>
 </file>
@@ -10633,11 +10645,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet19"/>
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10994,6 +11006,23 @@
       </c>
       <c r="P16" t="s">
         <v>827</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" t="s">
+        <v>828</v>
+      </c>
+      <c r="K17" t="s">
+        <v>825</v>
+      </c>
+      <c r="N17" t="s">
+        <v>830</v>
+      </c>
+      <c r="P17" t="s">
+        <v>831</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>829</v>
       </c>
     </row>
   </sheetData>

--- a/ReportDefs-TIMES-GEO.xlsx
+++ b/ReportDefs-TIMES-GEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\TIMES-GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98113D8-D525-45A6-A4B8-79639E4F9108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3924F37-F1BC-464C-9B59-FB41CFD1A2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="UnitConv" sheetId="59" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'process map'!$A$2:$B$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'process map'!$A$2:$B$99</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TS_Defs!$A$2:$N$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="833">
   <si>
     <t>Unit</t>
   </si>
@@ -2604,6 +2604,9 @@
   </si>
   <si>
     <t>Annualized system cost by component (INV, FIX, VAR, and IRE)</t>
+  </si>
+  <si>
+    <t>U-H2P,U-H2C,U-H2S,U-H2D</t>
   </si>
 </sst>
 </file>
@@ -10647,7 +10650,7 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P17" sqref="P17"/>
     </sheetView>
@@ -12162,11 +12165,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ADB714-E6AA-4E3E-B77B-62B65BA0E218}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:D46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12196,7 +12198,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -12207,7 +12209,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -12218,7 +12220,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -12229,7 +12231,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>167</v>
       </c>
@@ -12240,7 +12242,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>167</v>
       </c>
@@ -12251,7 +12253,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>167</v>
       </c>
@@ -12262,7 +12264,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>167</v>
       </c>
@@ -12273,7 +12275,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>167</v>
       </c>
@@ -12284,7 +12286,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>167</v>
       </c>
@@ -12295,7 +12297,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>167</v>
       </c>
@@ -12306,7 +12308,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>167</v>
       </c>
@@ -12317,7 +12319,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>167</v>
       </c>
@@ -12328,7 +12330,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>167</v>
       </c>
@@ -12339,7 +12341,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>167</v>
       </c>
@@ -12350,7 +12352,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>167</v>
       </c>
@@ -12361,158 +12363,158 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" hidden="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" hidden="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" hidden="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D22" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" hidden="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D23" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" hidden="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D24" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" hidden="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" hidden="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D27" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" hidden="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D28" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" hidden="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>51</v>
       </c>
       <c r="C29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
         <v>181</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" hidden="1">
-      <c r="A30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" t="s">
-        <v>507</v>
-      </c>
-      <c r="D30" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>224</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>187</v>
+        <v>507</v>
       </c>
       <c r="D31" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -12520,10 +12522,10 @@
         <v>224</v>
       </c>
       <c r="C32" t="s">
-        <v>806</v>
+        <v>187</v>
       </c>
       <c r="D32" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -12531,208 +12533,208 @@
         <v>224</v>
       </c>
       <c r="C33" t="s">
+        <v>806</v>
+      </c>
+      <c r="D33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" t="s">
         <v>805</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1">
-      <c r="A34" t="s">
-        <v>167</v>
-      </c>
-      <c r="C34" t="s">
-        <v>195</v>
-      </c>
-      <c r="D34" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" hidden="1">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>167</v>
       </c>
       <c r="C35" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D35" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" hidden="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>167</v>
       </c>
       <c r="C36" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D36" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" hidden="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>167</v>
       </c>
       <c r="C37" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D37" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" hidden="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>167</v>
       </c>
       <c r="C38" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D38" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" hidden="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>167</v>
       </c>
       <c r="C39" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D39" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
         <v>224</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>207</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1">
-      <c r="A41" t="s">
-        <v>167</v>
-      </c>
-      <c r="C41" t="s">
-        <v>209</v>
-      </c>
-      <c r="D41" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" hidden="1">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>167</v>
       </c>
       <c r="C42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D42" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" t="s">
+        <v>211</v>
+      </c>
+      <c r="D43" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
         <v>224</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>213</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1">
-      <c r="A44" t="s">
-        <v>167</v>
-      </c>
-      <c r="C44" t="s">
-        <v>215</v>
-      </c>
-      <c r="D44" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" hidden="1">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>167</v>
       </c>
       <c r="C45" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D45" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" t="s">
+        <v>217</v>
+      </c>
+      <c r="D46" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
         <v>224</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>219</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1">
-      <c r="A47" t="s">
-        <v>167</v>
-      </c>
-      <c r="C47" t="s">
-        <v>221</v>
-      </c>
-      <c r="D47" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" hidden="1">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>167</v>
       </c>
       <c r="C48" t="s">
+        <v>221</v>
+      </c>
+      <c r="D48" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>167</v>
+      </c>
+      <c r="C49" t="s">
         <v>223</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1">
-      <c r="A49" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" t="s">
-        <v>241</v>
-      </c>
-      <c r="D49" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" hidden="1">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>224</v>
+        <v>43</v>
       </c>
       <c r="C51" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="D51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -12740,10 +12742,10 @@
         <v>224</v>
       </c>
       <c r="C52" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D52" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -12751,10 +12753,10 @@
         <v>224</v>
       </c>
       <c r="C53" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D53" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -12762,10 +12764,10 @@
         <v>224</v>
       </c>
       <c r="C54" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D54" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -12773,10 +12775,10 @@
         <v>224</v>
       </c>
       <c r="C55" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D55" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -12784,10 +12786,10 @@
         <v>224</v>
       </c>
       <c r="C56" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D56" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -12795,471 +12797,475 @@
         <v>224</v>
       </c>
       <c r="C57" t="s">
+        <v>238</v>
+      </c>
+      <c r="D57" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>224</v>
+      </c>
+      <c r="C58" t="s">
         <v>240</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D58" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1">
-      <c r="A58" t="s">
-        <v>51</v>
-      </c>
-      <c r="C58" t="s">
-        <v>244</v>
-      </c>
-      <c r="D58" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" hidden="1">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>51</v>
       </c>
       <c r="C59" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D59" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" hidden="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>100</v>
+        <v>246</v>
       </c>
       <c r="D60" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" hidden="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>51</v>
       </c>
       <c r="C61" t="s">
-        <v>282</v>
+        <v>100</v>
       </c>
       <c r="D61" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" hidden="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>51</v>
       </c>
       <c r="C62" t="s">
-        <v>3</v>
+        <v>282</v>
       </c>
       <c r="D62" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" hidden="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>51</v>
       </c>
       <c r="C63" t="s">
-        <v>283</v>
+        <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" hidden="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>51</v>
       </c>
       <c r="C64" t="s">
-        <v>4</v>
+        <v>283</v>
       </c>
       <c r="D64" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" hidden="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>51</v>
       </c>
       <c r="C65" t="s">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" hidden="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>51</v>
       </c>
       <c r="C66" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D66" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" hidden="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>51</v>
       </c>
       <c r="C67" t="s">
-        <v>284</v>
+        <v>118</v>
       </c>
       <c r="D67" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" hidden="1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>51</v>
       </c>
       <c r="C68" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D68" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" hidden="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>51</v>
       </c>
       <c r="C69" t="s">
-        <v>112</v>
+        <v>285</v>
       </c>
       <c r="D69" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" hidden="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>51</v>
       </c>
       <c r="C70" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D70" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" hidden="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>51</v>
       </c>
       <c r="C71" t="s">
-        <v>286</v>
+        <v>96</v>
       </c>
       <c r="D71" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" hidden="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>51</v>
       </c>
       <c r="C72" t="s">
-        <v>114</v>
+        <v>286</v>
       </c>
       <c r="D72" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" hidden="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>51</v>
       </c>
       <c r="C73" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="D73" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" hidden="1">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>51</v>
       </c>
       <c r="C74" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D74" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" hidden="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>287</v>
+        <v>94</v>
       </c>
       <c r="D75" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" hidden="1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>51</v>
       </c>
       <c r="C76" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D76" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" hidden="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>51</v>
       </c>
       <c r="C77" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D77" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" hidden="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>51</v>
       </c>
       <c r="C78" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D78" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" hidden="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>51</v>
       </c>
       <c r="C79" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D79" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" hidden="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>51</v>
       </c>
       <c r="C80" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D80" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" hidden="1">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>51</v>
       </c>
       <c r="C81" t="s">
-        <v>122</v>
+        <v>292</v>
       </c>
       <c r="D81" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" hidden="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>51</v>
       </c>
       <c r="C82" t="s">
+        <v>122</v>
+      </c>
+      <c r="D82" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>51</v>
+      </c>
+      <c r="C83" t="s">
         <v>124</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D83" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1">
-      <c r="A83" t="s">
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
         <v>43</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C84" t="s">
         <v>36</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D84" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1">
-      <c r="A84" t="s">
-        <v>51</v>
-      </c>
-      <c r="C84" t="s">
-        <v>100</v>
-      </c>
-      <c r="D84" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" hidden="1">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>51</v>
       </c>
       <c r="C85" t="s">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="D85" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" hidden="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>51</v>
       </c>
       <c r="C86" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" hidden="1">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>51</v>
       </c>
       <c r="C87" t="s">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" hidden="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>51</v>
       </c>
       <c r="C88" t="s">
-        <v>288</v>
+        <v>116</v>
       </c>
       <c r="D88" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" hidden="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>51</v>
       </c>
       <c r="C89" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D89" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" hidden="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>51</v>
       </c>
       <c r="C90" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D90" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" hidden="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>51</v>
       </c>
       <c r="C91" t="s">
-        <v>122</v>
+        <v>292</v>
       </c>
       <c r="D91" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" hidden="1">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>51</v>
       </c>
       <c r="C92" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D92" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" hidden="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>51</v>
       </c>
       <c r="C93" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="D93" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" hidden="1">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>51</v>
       </c>
       <c r="C94" t="s">
+        <v>98</v>
+      </c>
+      <c r="D94" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>51</v>
+      </c>
+      <c r="C95" t="s">
         <v>112</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D95" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1">
-      <c r="A95" t="s">
-        <v>804</v>
-      </c>
-      <c r="B95" t="s">
-        <v>293</v>
-      </c>
-      <c r="C95" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" hidden="1">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>804</v>
       </c>
       <c r="B96" t="s">
+        <v>293</v>
+      </c>
+      <c r="C96" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>804</v>
+      </c>
+      <c r="B97" t="s">
         <v>295</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C97" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1">
-      <c r="A97" t="s">
-        <v>769</v>
-      </c>
-      <c r="C97" t="s">
-        <v>770</v>
-      </c>
-      <c r="D97" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" hidden="1">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>769</v>
       </c>
       <c r="C98" t="s">
+        <v>770</v>
+      </c>
+      <c r="D98" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>769</v>
+      </c>
+      <c r="C99" t="s">
         <v>771</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D99" t="s">
         <v>771</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:B98" xr:uid="{10ADB714-E6AA-4E3E-B77B-62B65BA0E218}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="sub-sector"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/ReportDefs-TIMES-GEO.xlsx
+++ b/ReportDefs-TIMES-GEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\TIMES-GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3924F37-F1BC-464C-9B59-FB41CFD1A2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34ED3B4D-CAED-43D4-8FA6-8C3D7CC511D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="14566" windowHeight="17363" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="UnitConv" sheetId="59" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'process map'!$A$2:$B$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'process map'!$A$2:$B$107</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TS_Defs!$A$2:$N$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="843">
   <si>
     <t>Unit</t>
   </si>
@@ -2607,6 +2607,36 @@
   </si>
   <si>
     <t>U-H2P,U-H2C,U-H2S,U-H2D</t>
+  </si>
+  <si>
+    <t>pset_co</t>
+  </si>
+  <si>
+    <t>IIS</t>
+  </si>
+  <si>
+    <t>ICH</t>
+  </si>
+  <si>
+    <t>INM</t>
+  </si>
+  <si>
+    <t>INF</t>
+  </si>
+  <si>
+    <t>IPP</t>
+  </si>
+  <si>
+    <t>IWP</t>
+  </si>
+  <si>
+    <t>IOI</t>
+  </si>
+  <si>
+    <t>I??</t>
+  </si>
+  <si>
+    <t>I-*</t>
   </si>
 </sst>
 </file>
@@ -12165,10 +12195,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ADB714-E6AA-4E3E-B77B-62B65BA0E218}">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12179,12 +12209,12 @@
     <col min="4" max="4" width="10.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" thickBot="1">
+    <row r="1" spans="1:5" ht="17.25" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickTop="1" thickBot="1">
+    <row r="2" spans="1:5" ht="15" thickTop="1" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>40</v>
       </c>
@@ -12197,8 +12227,11 @@
       <c r="D2" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="4" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -12209,7 +12242,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -12220,7 +12253,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -12231,7 +12264,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>167</v>
       </c>
@@ -12242,7 +12275,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>167</v>
       </c>
@@ -12253,7 +12286,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>167</v>
       </c>
@@ -12264,7 +12297,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>167</v>
       </c>
@@ -12275,7 +12308,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>167</v>
       </c>
@@ -12286,7 +12319,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>167</v>
       </c>
@@ -12297,7 +12330,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>167</v>
       </c>
@@ -12308,7 +12341,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>167</v>
       </c>
@@ -12319,7 +12352,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>167</v>
       </c>
@@ -12330,7 +12363,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>167</v>
       </c>
@@ -12341,7 +12374,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>167</v>
       </c>
@@ -12704,7 +12737,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>167</v>
       </c>
@@ -12715,7 +12748,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>43</v>
       </c>
@@ -12726,7 +12759,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -12737,169 +12770,172 @@
         <v>226</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>224</v>
+        <v>43</v>
+      </c>
+      <c r="B52" t="s">
+        <v>842</v>
       </c>
       <c r="C52" t="s">
-        <v>228</v>
-      </c>
-      <c r="D52" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>242</v>
+      </c>
+      <c r="E52" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>224</v>
       </c>
       <c r="C53" t="s">
-        <v>230</v>
-      </c>
-      <c r="D53" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>228</v>
+      </c>
+      <c r="E53" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>224</v>
       </c>
       <c r="C54" t="s">
-        <v>232</v>
-      </c>
-      <c r="D54" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>230</v>
+      </c>
+      <c r="E54" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>224</v>
       </c>
       <c r="C55" t="s">
-        <v>234</v>
-      </c>
-      <c r="D55" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>232</v>
+      </c>
+      <c r="E55" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>224</v>
       </c>
       <c r="C56" t="s">
-        <v>236</v>
-      </c>
-      <c r="D56" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>234</v>
+      </c>
+      <c r="E56" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>224</v>
       </c>
       <c r="C57" t="s">
-        <v>238</v>
-      </c>
-      <c r="D57" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>236</v>
+      </c>
+      <c r="E57" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>224</v>
       </c>
       <c r="C58" t="s">
+        <v>238</v>
+      </c>
+      <c r="E58" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>224</v>
+      </c>
+      <c r="C59" t="s">
         <v>240</v>
       </c>
-      <c r="D58" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>51</v>
-      </c>
-      <c r="C59" t="s">
-        <v>244</v>
-      </c>
-      <c r="D59" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>224</v>
       </c>
       <c r="C60" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="D60" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>51</v>
+        <v>224</v>
       </c>
       <c r="C61" t="s">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="D61" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>51</v>
+        <v>224</v>
       </c>
       <c r="C62" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="D62" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>51</v>
+        <v>224</v>
       </c>
       <c r="C63" t="s">
-        <v>3</v>
+        <v>234</v>
       </c>
       <c r="D63" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>51</v>
+        <v>224</v>
       </c>
       <c r="C64" t="s">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="D64" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>51</v>
+        <v>224</v>
       </c>
       <c r="C65" t="s">
-        <v>4</v>
+        <v>238</v>
       </c>
       <c r="D65" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>51</v>
+        <v>224</v>
       </c>
       <c r="C66" t="s">
-        <v>116</v>
+        <v>240</v>
       </c>
       <c r="D66" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -12907,10 +12943,10 @@
         <v>51</v>
       </c>
       <c r="C67" t="s">
-        <v>118</v>
+        <v>244</v>
       </c>
       <c r="D67" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -12918,10 +12954,10 @@
         <v>51</v>
       </c>
       <c r="C68" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="D68" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -12929,10 +12965,10 @@
         <v>51</v>
       </c>
       <c r="C69" t="s">
-        <v>285</v>
+        <v>100</v>
       </c>
       <c r="D69" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -12940,10 +12976,10 @@
         <v>51</v>
       </c>
       <c r="C70" t="s">
-        <v>112</v>
+        <v>282</v>
       </c>
       <c r="D70" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -12951,10 +12987,10 @@
         <v>51</v>
       </c>
       <c r="C71" t="s">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -12962,10 +12998,10 @@
         <v>51</v>
       </c>
       <c r="C72" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D72" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -12973,10 +13009,10 @@
         <v>51</v>
       </c>
       <c r="C73" t="s">
-        <v>114</v>
+        <v>4</v>
       </c>
       <c r="D73" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -12984,10 +13020,10 @@
         <v>51</v>
       </c>
       <c r="C74" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D74" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -12995,10 +13031,10 @@
         <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="D75" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -13006,10 +13042,10 @@
         <v>51</v>
       </c>
       <c r="C76" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D76" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -13017,10 +13053,10 @@
         <v>51</v>
       </c>
       <c r="C77" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D77" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -13028,10 +13064,10 @@
         <v>51</v>
       </c>
       <c r="C78" t="s">
-        <v>289</v>
+        <v>112</v>
       </c>
       <c r="D78" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -13039,10 +13075,10 @@
         <v>51</v>
       </c>
       <c r="C79" t="s">
-        <v>290</v>
+        <v>96</v>
       </c>
       <c r="D79" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -13050,10 +13086,10 @@
         <v>51</v>
       </c>
       <c r="C80" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D80" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -13061,10 +13097,10 @@
         <v>51</v>
       </c>
       <c r="C81" t="s">
-        <v>292</v>
+        <v>114</v>
       </c>
       <c r="D81" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -13072,10 +13108,10 @@
         <v>51</v>
       </c>
       <c r="C82" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="D82" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -13083,21 +13119,21 @@
         <v>51</v>
       </c>
       <c r="C83" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="D83" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C84" t="s">
-        <v>36</v>
+        <v>287</v>
       </c>
       <c r="D84" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -13105,10 +13141,10 @@
         <v>51</v>
       </c>
       <c r="C85" t="s">
-        <v>100</v>
+        <v>288</v>
       </c>
       <c r="D85" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -13116,10 +13152,10 @@
         <v>51</v>
       </c>
       <c r="C86" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="D86" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -13127,10 +13163,10 @@
         <v>51</v>
       </c>
       <c r="C87" t="s">
-        <v>4</v>
+        <v>290</v>
       </c>
       <c r="D87" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -13138,10 +13174,10 @@
         <v>51</v>
       </c>
       <c r="C88" t="s">
-        <v>116</v>
+        <v>291</v>
       </c>
       <c r="D88" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -13149,10 +13185,10 @@
         <v>51</v>
       </c>
       <c r="C89" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D89" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -13160,10 +13196,10 @@
         <v>51</v>
       </c>
       <c r="C90" t="s">
-        <v>290</v>
+        <v>122</v>
       </c>
       <c r="D90" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -13171,21 +13207,21 @@
         <v>51</v>
       </c>
       <c r="C91" t="s">
-        <v>292</v>
+        <v>124</v>
       </c>
       <c r="D91" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C92" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="D92" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -13193,10 +13229,10 @@
         <v>51</v>
       </c>
       <c r="C93" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D93" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -13204,10 +13240,10 @@
         <v>51</v>
       </c>
       <c r="C94" t="s">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="D94" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -13215,53 +13251,141 @@
         <v>51</v>
       </c>
       <c r="C95" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="D95" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>804</v>
-      </c>
-      <c r="B96" t="s">
-        <v>293</v>
+        <v>51</v>
       </c>
       <c r="C96" t="s">
-        <v>294</v>
+        <v>116</v>
+      </c>
+      <c r="D96" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>804</v>
-      </c>
-      <c r="B97" t="s">
-        <v>295</v>
+        <v>51</v>
       </c>
       <c r="C97" t="s">
-        <v>296</v>
+        <v>288</v>
+      </c>
+      <c r="D97" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>769</v>
+        <v>51</v>
       </c>
       <c r="C98" t="s">
-        <v>770</v>
+        <v>290</v>
       </c>
       <c r="D98" t="s">
-        <v>772</v>
+        <v>276</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
+        <v>51</v>
+      </c>
+      <c r="C99" t="s">
+        <v>292</v>
+      </c>
+      <c r="D99" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>51</v>
+      </c>
+      <c r="C100" t="s">
+        <v>122</v>
+      </c>
+      <c r="D100" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>51</v>
+      </c>
+      <c r="C101" t="s">
+        <v>124</v>
+      </c>
+      <c r="D101" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>51</v>
+      </c>
+      <c r="C102" t="s">
+        <v>98</v>
+      </c>
+      <c r="D102" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>51</v>
+      </c>
+      <c r="C103" t="s">
+        <v>112</v>
+      </c>
+      <c r="D103" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>804</v>
+      </c>
+      <c r="B104" t="s">
+        <v>293</v>
+      </c>
+      <c r="C104" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>804</v>
+      </c>
+      <c r="B105" t="s">
+        <v>295</v>
+      </c>
+      <c r="C105" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
         <v>769</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C106" t="s">
+        <v>770</v>
+      </c>
+      <c r="D106" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>769</v>
+      </c>
+      <c r="C107" t="s">
         <v>771</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D107" t="s">
         <v>771</v>
       </c>
     </row>

--- a/ReportDefs-TIMES-GEO.xlsx
+++ b/ReportDefs-TIMES-GEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\TIMES-GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34ED3B4D-CAED-43D4-8FA6-8C3D7CC511D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FD9D4A-1601-47C6-9F65-98D3786E7094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="14566" windowHeight="17363" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="UnitConv" sheetId="59" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'process map'!$A$2:$B$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'process map'!$A$2:$B$109</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TS_Defs!$A$2:$N$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="846">
   <si>
     <t>Unit</t>
   </si>
@@ -2637,6 +2637,15 @@
   </si>
   <si>
     <t>I-*</t>
+  </si>
+  <si>
+    <t>P-Elc_Sto</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>P_All,P-Elc_Sto</t>
   </si>
 </sst>
 </file>
@@ -10680,9 +10689,9 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P17" sqref="P17"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10949,7 +10958,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>270</v>
+        <v>845</v>
       </c>
       <c r="K12" t="s">
         <v>9</v>
@@ -12195,10 +12204,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ADB714-E6AA-4E3E-B77B-62B65BA0E218}">
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13226,13 +13235,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C93" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="D93" t="s">
-        <v>271</v>
+        <v>843</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -13240,10 +13249,10 @@
         <v>51</v>
       </c>
       <c r="C94" t="s">
-        <v>3</v>
+        <v>844</v>
       </c>
       <c r="D94" t="s">
-        <v>272</v>
+        <v>843</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -13251,10 +13260,10 @@
         <v>51</v>
       </c>
       <c r="C95" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D95" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -13262,10 +13271,10 @@
         <v>51</v>
       </c>
       <c r="C96" t="s">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="D96" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -13273,10 +13282,10 @@
         <v>51</v>
       </c>
       <c r="C97" t="s">
-        <v>288</v>
+        <v>4</v>
       </c>
       <c r="D97" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -13284,10 +13293,10 @@
         <v>51</v>
       </c>
       <c r="C98" t="s">
-        <v>290</v>
+        <v>116</v>
       </c>
       <c r="D98" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -13295,10 +13304,10 @@
         <v>51</v>
       </c>
       <c r="C99" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D99" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -13306,10 +13315,10 @@
         <v>51</v>
       </c>
       <c r="C100" t="s">
-        <v>122</v>
+        <v>290</v>
       </c>
       <c r="D100" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -13317,10 +13326,10 @@
         <v>51</v>
       </c>
       <c r="C101" t="s">
-        <v>124</v>
+        <v>292</v>
       </c>
       <c r="D101" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -13328,10 +13337,10 @@
         <v>51</v>
       </c>
       <c r="C102" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="D102" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -13339,53 +13348,75 @@
         <v>51</v>
       </c>
       <c r="C103" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D103" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>804</v>
-      </c>
-      <c r="B104" t="s">
-        <v>293</v>
+        <v>51</v>
       </c>
       <c r="C104" t="s">
-        <v>294</v>
+        <v>98</v>
+      </c>
+      <c r="D104" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>804</v>
-      </c>
-      <c r="B105" t="s">
-        <v>295</v>
+        <v>51</v>
       </c>
       <c r="C105" t="s">
-        <v>296</v>
+        <v>112</v>
+      </c>
+      <c r="D105" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>769</v>
+        <v>804</v>
+      </c>
+      <c r="B106" t="s">
+        <v>293</v>
       </c>
       <c r="C106" t="s">
-        <v>770</v>
-      </c>
-      <c r="D106" t="s">
-        <v>772</v>
+        <v>294</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
+        <v>804</v>
+      </c>
+      <c r="B107" t="s">
+        <v>295</v>
+      </c>
+      <c r="C107" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
         <v>769</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C108" t="s">
+        <v>770</v>
+      </c>
+      <c r="D108" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>769</v>
+      </c>
+      <c r="C109" t="s">
         <v>771</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D109" t="s">
         <v>771</v>
       </c>
     </row>

--- a/ReportDefs-TIMES-GEO.xlsx
+++ b/ReportDefs-TIMES-GEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\TIMES-GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FD9D4A-1601-47C6-9F65-98D3786E7094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733A9686-DDE9-4242-8EAF-F551507CC1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="852">
   <si>
     <t>Unit</t>
   </si>
@@ -2646,6 +2646,24 @@
   </si>
   <si>
     <t>P_All,P-Elc_Sto</t>
+  </si>
+  <si>
+    <t>$ 000/t CO2</t>
+  </si>
+  <si>
+    <t>$ 050/t CO2</t>
+  </si>
+  <si>
+    <t>$ 100/t CO2</t>
+  </si>
+  <si>
+    <t>$ 150/t CO2</t>
+  </si>
+  <si>
+    <t>$ 300/t CO2</t>
+  </si>
+  <si>
+    <t>$ 225/t CO2</t>
   </si>
 </sst>
 </file>
@@ -3277,8 +3295,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:Z65"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3383,9 +3401,8 @@
         <f>_xlfn.TEXTJOIN(".",TRUE,T6:X6)</f>
         <v>cp-000.re-Hi.dr-10.0%</v>
       </c>
-      <c r="H6" t="str">
-        <f>VLOOKUP(O6,$Y$5:$Z$11,2,FALSE)</f>
-        <v>000</v>
+      <c r="H6" t="s">
+        <v>846</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" ref="I6" si="0">P6</f>
@@ -3439,16 +3456,15 @@
         <f t="shared" ref="G7:G55" si="6">_xlfn.TEXTJOIN(".",TRUE,T7:X7)</f>
         <v>cp-000.re-Hi.dr-07.5%</v>
       </c>
-      <c r="H7" t="str">
-        <f t="shared" ref="H7:H55" si="7">VLOOKUP(O7,$Y$5:$Z$11,2,FALSE)</f>
-        <v>000</v>
+      <c r="H7" t="s">
+        <v>846</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" ref="I7:I55" si="8">P7</f>
+        <f t="shared" ref="I7:I55" si="7">P7</f>
         <v>Hi</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" ref="J7:J55" si="9">TEXT(Q7,"00.0%")</f>
+        <f t="shared" ref="J7:J55" si="8">TEXT(Q7,"00.0%")</f>
         <v>07.5%</v>
       </c>
       <c r="N7">
@@ -3495,16 +3511,15 @@
         <f t="shared" si="6"/>
         <v>cp-000.re-Hi.dr-05.0%</v>
       </c>
-      <c r="H8" t="str">
+      <c r="H8" t="s">
+        <v>846</v>
+      </c>
+      <c r="I8" t="str">
         <f t="shared" si="7"/>
-        <v>000</v>
-      </c>
-      <c r="I8" t="str">
+        <v>Hi</v>
+      </c>
+      <c r="J8" t="str">
         <f t="shared" si="8"/>
-        <v>Hi</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="9"/>
         <v>05.0%</v>
       </c>
       <c r="N8">
@@ -3551,16 +3566,15 @@
         <f t="shared" si="6"/>
         <v>cp-000.re-Hi.dr-02.0%</v>
       </c>
-      <c r="H9" t="str">
+      <c r="H9" t="s">
+        <v>846</v>
+      </c>
+      <c r="I9" t="str">
         <f t="shared" si="7"/>
-        <v>000</v>
-      </c>
-      <c r="I9" t="str">
+        <v>Hi</v>
+      </c>
+      <c r="J9" t="str">
         <f t="shared" si="8"/>
-        <v>Hi</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="9"/>
         <v>02.0%</v>
       </c>
       <c r="N9">
@@ -3607,16 +3621,15 @@
         <f t="shared" si="6"/>
         <v>cp-000.re-Hi.dr-01.0%</v>
       </c>
-      <c r="H10" t="str">
+      <c r="H10" t="s">
+        <v>846</v>
+      </c>
+      <c r="I10" t="str">
         <f t="shared" si="7"/>
-        <v>000</v>
-      </c>
-      <c r="I10" t="str">
+        <v>Hi</v>
+      </c>
+      <c r="J10" t="str">
         <f t="shared" si="8"/>
-        <v>Hi</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="9"/>
         <v>01.0%</v>
       </c>
       <c r="N10">
@@ -3663,16 +3676,15 @@
         <f t="shared" si="6"/>
         <v>cp-000.re-Ref.dr-10.0%</v>
       </c>
-      <c r="H11" t="str">
+      <c r="H11" t="s">
+        <v>846</v>
+      </c>
+      <c r="I11" t="str">
         <f t="shared" si="7"/>
-        <v>000</v>
-      </c>
-      <c r="I11" t="str">
+        <v>Ref</v>
+      </c>
+      <c r="J11" t="str">
         <f t="shared" si="8"/>
-        <v>Ref</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="9"/>
         <v>10.0%</v>
       </c>
       <c r="N11">
@@ -3713,16 +3725,15 @@
         <f t="shared" si="6"/>
         <v>cp-000.re-Ref.dr-07.5%</v>
       </c>
-      <c r="H12" t="str">
+      <c r="H12" t="s">
+        <v>846</v>
+      </c>
+      <c r="I12" t="str">
         <f t="shared" si="7"/>
-        <v>000</v>
-      </c>
-      <c r="I12" t="str">
+        <v>Ref</v>
+      </c>
+      <c r="J12" t="str">
         <f t="shared" si="8"/>
-        <v>Ref</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="9"/>
         <v>07.5%</v>
       </c>
       <c r="N12">
@@ -3763,16 +3774,15 @@
         <f t="shared" si="6"/>
         <v>cp-000.re-Ref.dr-05.0%</v>
       </c>
-      <c r="H13" t="str">
+      <c r="H13" t="s">
+        <v>846</v>
+      </c>
+      <c r="I13" t="str">
         <f t="shared" si="7"/>
-        <v>000</v>
-      </c>
-      <c r="I13" t="str">
+        <v>Ref</v>
+      </c>
+      <c r="J13" t="str">
         <f t="shared" si="8"/>
-        <v>Ref</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="9"/>
         <v>05.0%</v>
       </c>
       <c r="N13">
@@ -3813,16 +3823,15 @@
         <f t="shared" si="6"/>
         <v>cp-000.re-Ref.dr-02.0%</v>
       </c>
-      <c r="H14" t="str">
+      <c r="H14" t="s">
+        <v>846</v>
+      </c>
+      <c r="I14" t="str">
         <f t="shared" si="7"/>
-        <v>000</v>
-      </c>
-      <c r="I14" t="str">
+        <v>Ref</v>
+      </c>
+      <c r="J14" t="str">
         <f t="shared" si="8"/>
-        <v>Ref</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" si="9"/>
         <v>02.0%</v>
       </c>
       <c r="N14">
@@ -3863,16 +3872,15 @@
         <f t="shared" si="6"/>
         <v>cp-000.re-Ref.dr-01.0%</v>
       </c>
-      <c r="H15" t="str">
+      <c r="H15" t="s">
+        <v>846</v>
+      </c>
+      <c r="I15" t="str">
         <f t="shared" si="7"/>
-        <v>000</v>
-      </c>
-      <c r="I15" t="str">
+        <v>Ref</v>
+      </c>
+      <c r="J15" t="str">
         <f t="shared" si="8"/>
-        <v>Ref</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="9"/>
         <v>01.0%</v>
       </c>
       <c r="N15">
@@ -3913,16 +3921,15 @@
         <f t="shared" si="6"/>
         <v>cp-050.re-Hi.dr-10.0%</v>
       </c>
-      <c r="H16" t="str">
+      <c r="H16" t="s">
+        <v>847</v>
+      </c>
+      <c r="I16" t="str">
         <f t="shared" si="7"/>
-        <v>050</v>
-      </c>
-      <c r="I16" t="str">
+        <v>Hi</v>
+      </c>
+      <c r="J16" t="str">
         <f t="shared" si="8"/>
-        <v>Hi</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="9"/>
         <v>10.0%</v>
       </c>
       <c r="N16">
@@ -3963,16 +3970,15 @@
         <f t="shared" si="6"/>
         <v>cp-050.re-Hi.dr-07.5%</v>
       </c>
-      <c r="H17" t="str">
+      <c r="H17" t="s">
+        <v>847</v>
+      </c>
+      <c r="I17" t="str">
         <f t="shared" si="7"/>
-        <v>050</v>
-      </c>
-      <c r="I17" t="str">
+        <v>Hi</v>
+      </c>
+      <c r="J17" t="str">
         <f t="shared" si="8"/>
-        <v>Hi</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="9"/>
         <v>07.5%</v>
       </c>
       <c r="N17">
@@ -4013,16 +4019,15 @@
         <f t="shared" si="6"/>
         <v>cp-050.re-Hi.dr-05.0%</v>
       </c>
-      <c r="H18" t="str">
+      <c r="H18" t="s">
+        <v>847</v>
+      </c>
+      <c r="I18" t="str">
         <f t="shared" si="7"/>
-        <v>050</v>
-      </c>
-      <c r="I18" t="str">
+        <v>Hi</v>
+      </c>
+      <c r="J18" t="str">
         <f t="shared" si="8"/>
-        <v>Hi</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="9"/>
         <v>05.0%</v>
       </c>
       <c r="N18">
@@ -4063,16 +4068,15 @@
         <f t="shared" si="6"/>
         <v>cp-050.re-Hi.dr-02.0%</v>
       </c>
-      <c r="H19" t="str">
+      <c r="H19" t="s">
+        <v>847</v>
+      </c>
+      <c r="I19" t="str">
         <f t="shared" si="7"/>
-        <v>050</v>
-      </c>
-      <c r="I19" t="str">
+        <v>Hi</v>
+      </c>
+      <c r="J19" t="str">
         <f t="shared" si="8"/>
-        <v>Hi</v>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="9"/>
         <v>02.0%</v>
       </c>
       <c r="N19">
@@ -4113,16 +4117,15 @@
         <f t="shared" si="6"/>
         <v>cp-050.re-Hi.dr-01.0%</v>
       </c>
-      <c r="H20" t="str">
+      <c r="H20" t="s">
+        <v>847</v>
+      </c>
+      <c r="I20" t="str">
         <f t="shared" si="7"/>
-        <v>050</v>
-      </c>
-      <c r="I20" t="str">
+        <v>Hi</v>
+      </c>
+      <c r="J20" t="str">
         <f t="shared" si="8"/>
-        <v>Hi</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="9"/>
         <v>01.0%</v>
       </c>
       <c r="N20">
@@ -4163,16 +4166,15 @@
         <f t="shared" si="6"/>
         <v>cp-050.re-Ref.dr-10.0%</v>
       </c>
-      <c r="H21" t="str">
+      <c r="H21" t="s">
+        <v>847</v>
+      </c>
+      <c r="I21" t="str">
         <f t="shared" si="7"/>
-        <v>050</v>
-      </c>
-      <c r="I21" t="str">
+        <v>Ref</v>
+      </c>
+      <c r="J21" t="str">
         <f t="shared" si="8"/>
-        <v>Ref</v>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="9"/>
         <v>10.0%</v>
       </c>
       <c r="N21">
@@ -4213,16 +4215,15 @@
         <f t="shared" si="6"/>
         <v>cp-050.re-Ref.dr-07.5%</v>
       </c>
-      <c r="H22" t="str">
+      <c r="H22" t="s">
+        <v>847</v>
+      </c>
+      <c r="I22" t="str">
         <f t="shared" si="7"/>
-        <v>050</v>
-      </c>
-      <c r="I22" t="str">
+        <v>Ref</v>
+      </c>
+      <c r="J22" t="str">
         <f t="shared" si="8"/>
-        <v>Ref</v>
-      </c>
-      <c r="J22" t="str">
-        <f t="shared" si="9"/>
         <v>07.5%</v>
       </c>
       <c r="N22">
@@ -4263,16 +4264,15 @@
         <f t="shared" si="6"/>
         <v>cp-050.re-Ref.dr-05.0%</v>
       </c>
-      <c r="H23" t="str">
+      <c r="H23" t="s">
+        <v>847</v>
+      </c>
+      <c r="I23" t="str">
         <f t="shared" si="7"/>
-        <v>050</v>
-      </c>
-      <c r="I23" t="str">
+        <v>Ref</v>
+      </c>
+      <c r="J23" t="str">
         <f t="shared" si="8"/>
-        <v>Ref</v>
-      </c>
-      <c r="J23" t="str">
-        <f t="shared" si="9"/>
         <v>05.0%</v>
       </c>
       <c r="N23">
@@ -4313,16 +4313,15 @@
         <f t="shared" si="6"/>
         <v>cp-050.re-Ref.dr-02.0%</v>
       </c>
-      <c r="H24" t="str">
+      <c r="H24" t="s">
+        <v>847</v>
+      </c>
+      <c r="I24" t="str">
         <f t="shared" si="7"/>
-        <v>050</v>
-      </c>
-      <c r="I24" t="str">
+        <v>Ref</v>
+      </c>
+      <c r="J24" t="str">
         <f t="shared" si="8"/>
-        <v>Ref</v>
-      </c>
-      <c r="J24" t="str">
-        <f t="shared" si="9"/>
         <v>02.0%</v>
       </c>
       <c r="N24">
@@ -4363,16 +4362,15 @@
         <f t="shared" si="6"/>
         <v>cp-050.re-Ref.dr-01.0%</v>
       </c>
-      <c r="H25" t="str">
+      <c r="H25" t="s">
+        <v>847</v>
+      </c>
+      <c r="I25" t="str">
         <f t="shared" si="7"/>
-        <v>050</v>
-      </c>
-      <c r="I25" t="str">
+        <v>Ref</v>
+      </c>
+      <c r="J25" t="str">
         <f t="shared" si="8"/>
-        <v>Ref</v>
-      </c>
-      <c r="J25" t="str">
-        <f t="shared" si="9"/>
         <v>01.0%</v>
       </c>
       <c r="N25">
@@ -4413,16 +4411,15 @@
         <f t="shared" si="6"/>
         <v>cp-100.re-Hi.dr-10.0%</v>
       </c>
-      <c r="H26" t="str">
+      <c r="H26" t="s">
+        <v>848</v>
+      </c>
+      <c r="I26" t="str">
         <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="I26" t="str">
+        <v>Hi</v>
+      </c>
+      <c r="J26" t="str">
         <f t="shared" si="8"/>
-        <v>Hi</v>
-      </c>
-      <c r="J26" t="str">
-        <f t="shared" si="9"/>
         <v>10.0%</v>
       </c>
       <c r="N26">
@@ -4463,16 +4460,15 @@
         <f t="shared" si="6"/>
         <v>cp-100.re-Hi.dr-07.5%</v>
       </c>
-      <c r="H27" t="str">
+      <c r="H27" t="s">
+        <v>848</v>
+      </c>
+      <c r="I27" t="str">
         <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="I27" t="str">
+        <v>Hi</v>
+      </c>
+      <c r="J27" t="str">
         <f t="shared" si="8"/>
-        <v>Hi</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="9"/>
         <v>07.5%</v>
       </c>
       <c r="N27">
@@ -4513,16 +4509,15 @@
         <f t="shared" si="6"/>
         <v>cp-100.re-Hi.dr-05.0%</v>
       </c>
-      <c r="H28" t="str">
+      <c r="H28" t="s">
+        <v>848</v>
+      </c>
+      <c r="I28" t="str">
         <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="I28" t="str">
+        <v>Hi</v>
+      </c>
+      <c r="J28" t="str">
         <f t="shared" si="8"/>
-        <v>Hi</v>
-      </c>
-      <c r="J28" t="str">
-        <f t="shared" si="9"/>
         <v>05.0%</v>
       </c>
       <c r="N28">
@@ -4563,16 +4558,15 @@
         <f t="shared" si="6"/>
         <v>cp-100.re-Hi.dr-02.0%</v>
       </c>
-      <c r="H29" t="str">
+      <c r="H29" t="s">
+        <v>848</v>
+      </c>
+      <c r="I29" t="str">
         <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="I29" t="str">
+        <v>Hi</v>
+      </c>
+      <c r="J29" t="str">
         <f t="shared" si="8"/>
-        <v>Hi</v>
-      </c>
-      <c r="J29" t="str">
-        <f t="shared" si="9"/>
         <v>02.0%</v>
       </c>
       <c r="N29">
@@ -4613,16 +4607,15 @@
         <f t="shared" si="6"/>
         <v>cp-100.re-Hi.dr-01.0%</v>
       </c>
-      <c r="H30" t="str">
+      <c r="H30" t="s">
+        <v>848</v>
+      </c>
+      <c r="I30" t="str">
         <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="I30" t="str">
+        <v>Hi</v>
+      </c>
+      <c r="J30" t="str">
         <f t="shared" si="8"/>
-        <v>Hi</v>
-      </c>
-      <c r="J30" t="str">
-        <f t="shared" si="9"/>
         <v>01.0%</v>
       </c>
       <c r="N30">
@@ -4663,16 +4656,15 @@
         <f t="shared" si="6"/>
         <v>cp-100.re-Ref.dr-10.0%</v>
       </c>
-      <c r="H31" t="str">
+      <c r="H31" t="s">
+        <v>848</v>
+      </c>
+      <c r="I31" t="str">
         <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="I31" t="str">
+        <v>Ref</v>
+      </c>
+      <c r="J31" t="str">
         <f t="shared" si="8"/>
-        <v>Ref</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="9"/>
         <v>10.0%</v>
       </c>
       <c r="N31">
@@ -4713,16 +4705,15 @@
         <f t="shared" si="6"/>
         <v>cp-100.re-Ref.dr-07.5%</v>
       </c>
-      <c r="H32" t="str">
+      <c r="H32" t="s">
+        <v>848</v>
+      </c>
+      <c r="I32" t="str">
         <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="I32" t="str">
+        <v>Ref</v>
+      </c>
+      <c r="J32" t="str">
         <f t="shared" si="8"/>
-        <v>Ref</v>
-      </c>
-      <c r="J32" t="str">
-        <f t="shared" si="9"/>
         <v>07.5%</v>
       </c>
       <c r="N32">
@@ -4763,16 +4754,15 @@
         <f t="shared" si="6"/>
         <v>cp-100.re-Ref.dr-05.0%</v>
       </c>
-      <c r="H33" t="str">
+      <c r="H33" t="s">
+        <v>848</v>
+      </c>
+      <c r="I33" t="str">
         <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="I33" t="str">
+        <v>Ref</v>
+      </c>
+      <c r="J33" t="str">
         <f t="shared" si="8"/>
-        <v>Ref</v>
-      </c>
-      <c r="J33" t="str">
-        <f t="shared" si="9"/>
         <v>05.0%</v>
       </c>
       <c r="N33">
@@ -4813,16 +4803,15 @@
         <f t="shared" si="6"/>
         <v>cp-100.re-Ref.dr-02.0%</v>
       </c>
-      <c r="H34" t="str">
+      <c r="H34" t="s">
+        <v>848</v>
+      </c>
+      <c r="I34" t="str">
         <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="I34" t="str">
+        <v>Ref</v>
+      </c>
+      <c r="J34" t="str">
         <f t="shared" si="8"/>
-        <v>Ref</v>
-      </c>
-      <c r="J34" t="str">
-        <f t="shared" si="9"/>
         <v>02.0%</v>
       </c>
       <c r="N34">
@@ -4863,16 +4852,15 @@
         <f t="shared" si="6"/>
         <v>cp-100.re-Ref.dr-01.0%</v>
       </c>
-      <c r="H35" t="str">
+      <c r="H35" t="s">
+        <v>848</v>
+      </c>
+      <c r="I35" t="str">
         <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="I35" t="str">
+        <v>Ref</v>
+      </c>
+      <c r="J35" t="str">
         <f t="shared" si="8"/>
-        <v>Ref</v>
-      </c>
-      <c r="J35" t="str">
-        <f t="shared" si="9"/>
         <v>01.0%</v>
       </c>
       <c r="N35">
@@ -4913,16 +4901,15 @@
         <f t="shared" si="6"/>
         <v>cp-150.re-Hi.dr-10.0%</v>
       </c>
-      <c r="H36" t="str">
+      <c r="H36" t="s">
+        <v>849</v>
+      </c>
+      <c r="I36" t="str">
         <f t="shared" si="7"/>
-        <v>150</v>
-      </c>
-      <c r="I36" t="str">
+        <v>Hi</v>
+      </c>
+      <c r="J36" t="str">
         <f t="shared" si="8"/>
-        <v>Hi</v>
-      </c>
-      <c r="J36" t="str">
-        <f t="shared" si="9"/>
         <v>10.0%</v>
       </c>
       <c r="N36">
@@ -4963,16 +4950,15 @@
         <f t="shared" si="6"/>
         <v>cp-150.re-Hi.dr-07.5%</v>
       </c>
-      <c r="H37" t="str">
+      <c r="H37" t="s">
+        <v>849</v>
+      </c>
+      <c r="I37" t="str">
         <f t="shared" si="7"/>
-        <v>150</v>
-      </c>
-      <c r="I37" t="str">
+        <v>Hi</v>
+      </c>
+      <c r="J37" t="str">
         <f t="shared" si="8"/>
-        <v>Hi</v>
-      </c>
-      <c r="J37" t="str">
-        <f t="shared" si="9"/>
         <v>07.5%</v>
       </c>
       <c r="N37">
@@ -5013,16 +4999,15 @@
         <f t="shared" si="6"/>
         <v>cp-150.re-Hi.dr-05.0%</v>
       </c>
-      <c r="H38" t="str">
+      <c r="H38" t="s">
+        <v>849</v>
+      </c>
+      <c r="I38" t="str">
         <f t="shared" si="7"/>
-        <v>150</v>
-      </c>
-      <c r="I38" t="str">
+        <v>Hi</v>
+      </c>
+      <c r="J38" t="str">
         <f t="shared" si="8"/>
-        <v>Hi</v>
-      </c>
-      <c r="J38" t="str">
-        <f t="shared" si="9"/>
         <v>05.0%</v>
       </c>
       <c r="N38">
@@ -5038,15 +5023,15 @@
         <v>0.05</v>
       </c>
       <c r="T38" t="str">
-        <f t="shared" ref="T38:T55" si="10">H$1&amp;"-"&amp;VLOOKUP(O38,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" ref="T38:T55" si="9">H$1&amp;"-"&amp;VLOOKUP(O38,$Y$5:$Z$11,2,FALSE)</f>
         <v>cp-150</v>
       </c>
       <c r="U38" t="str">
-        <f t="shared" ref="U38:U55" si="11">I$1&amp;"-"&amp;P38</f>
+        <f t="shared" ref="U38:U55" si="10">I$1&amp;"-"&amp;P38</f>
         <v>re-Hi</v>
       </c>
       <c r="V38" t="str">
-        <f t="shared" ref="V38:V55" si="12">J$1&amp;"-"&amp;TEXT(Q38,"00.0%")</f>
+        <f t="shared" ref="V38:V55" si="11">J$1&amp;"-"&amp;TEXT(Q38,"00.0%")</f>
         <v>dr-05.0%</v>
       </c>
     </row>
@@ -5063,16 +5048,15 @@
         <f t="shared" si="6"/>
         <v>cp-150.re-Hi.dr-02.0%</v>
       </c>
-      <c r="H39" t="str">
+      <c r="H39" t="s">
+        <v>849</v>
+      </c>
+      <c r="I39" t="str">
         <f t="shared" si="7"/>
-        <v>150</v>
-      </c>
-      <c r="I39" t="str">
+        <v>Hi</v>
+      </c>
+      <c r="J39" t="str">
         <f t="shared" si="8"/>
-        <v>Hi</v>
-      </c>
-      <c r="J39" t="str">
-        <f t="shared" si="9"/>
         <v>02.0%</v>
       </c>
       <c r="N39">
@@ -5088,15 +5072,15 @@
         <v>0.02</v>
       </c>
       <c r="T39" t="str">
+        <f t="shared" si="9"/>
+        <v>cp-150</v>
+      </c>
+      <c r="U39" t="str">
         <f t="shared" si="10"/>
-        <v>cp-150</v>
-      </c>
-      <c r="U39" t="str">
+        <v>re-Hi</v>
+      </c>
+      <c r="V39" t="str">
         <f t="shared" si="11"/>
-        <v>re-Hi</v>
-      </c>
-      <c r="V39" t="str">
-        <f t="shared" si="12"/>
         <v>dr-02.0%</v>
       </c>
     </row>
@@ -5113,16 +5097,15 @@
         <f t="shared" si="6"/>
         <v>cp-150.re-Hi.dr-01.0%</v>
       </c>
-      <c r="H40" t="str">
+      <c r="H40" t="s">
+        <v>849</v>
+      </c>
+      <c r="I40" t="str">
         <f t="shared" si="7"/>
-        <v>150</v>
-      </c>
-      <c r="I40" t="str">
+        <v>Hi</v>
+      </c>
+      <c r="J40" t="str">
         <f t="shared" si="8"/>
-        <v>Hi</v>
-      </c>
-      <c r="J40" t="str">
-        <f t="shared" si="9"/>
         <v>01.0%</v>
       </c>
       <c r="N40">
@@ -5138,15 +5121,15 @@
         <v>0.01</v>
       </c>
       <c r="T40" t="str">
+        <f t="shared" si="9"/>
+        <v>cp-150</v>
+      </c>
+      <c r="U40" t="str">
         <f t="shared" si="10"/>
-        <v>cp-150</v>
-      </c>
-      <c r="U40" t="str">
+        <v>re-Hi</v>
+      </c>
+      <c r="V40" t="str">
         <f t="shared" si="11"/>
-        <v>re-Hi</v>
-      </c>
-      <c r="V40" t="str">
-        <f t="shared" si="12"/>
         <v>dr-01.0%</v>
       </c>
     </row>
@@ -5163,16 +5146,15 @@
         <f t="shared" si="6"/>
         <v>cp-150.re-Ref.dr-10.0%</v>
       </c>
-      <c r="H41" t="str">
+      <c r="H41" t="s">
+        <v>849</v>
+      </c>
+      <c r="I41" t="str">
         <f t="shared" si="7"/>
-        <v>150</v>
-      </c>
-      <c r="I41" t="str">
+        <v>Ref</v>
+      </c>
+      <c r="J41" t="str">
         <f t="shared" si="8"/>
-        <v>Ref</v>
-      </c>
-      <c r="J41" t="str">
-        <f t="shared" si="9"/>
         <v>10.0%</v>
       </c>
       <c r="N41">
@@ -5188,15 +5170,15 @@
         <v>0.1</v>
       </c>
       <c r="T41" t="str">
+        <f t="shared" si="9"/>
+        <v>cp-150</v>
+      </c>
+      <c r="U41" t="str">
         <f t="shared" si="10"/>
-        <v>cp-150</v>
-      </c>
-      <c r="U41" t="str">
+        <v>re-Ref</v>
+      </c>
+      <c r="V41" t="str">
         <f t="shared" si="11"/>
-        <v>re-Ref</v>
-      </c>
-      <c r="V41" t="str">
-        <f t="shared" si="12"/>
         <v>dr-10.0%</v>
       </c>
     </row>
@@ -5213,16 +5195,15 @@
         <f t="shared" si="6"/>
         <v>cp-150.re-Ref.dr-07.5%</v>
       </c>
-      <c r="H42" t="str">
+      <c r="H42" t="s">
+        <v>849</v>
+      </c>
+      <c r="I42" t="str">
         <f t="shared" si="7"/>
-        <v>150</v>
-      </c>
-      <c r="I42" t="str">
+        <v>Ref</v>
+      </c>
+      <c r="J42" t="str">
         <f t="shared" si="8"/>
-        <v>Ref</v>
-      </c>
-      <c r="J42" t="str">
-        <f t="shared" si="9"/>
         <v>07.5%</v>
       </c>
       <c r="N42">
@@ -5238,15 +5219,15 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="T42" t="str">
+        <f t="shared" si="9"/>
+        <v>cp-150</v>
+      </c>
+      <c r="U42" t="str">
         <f t="shared" si="10"/>
-        <v>cp-150</v>
-      </c>
-      <c r="U42" t="str">
+        <v>re-Ref</v>
+      </c>
+      <c r="V42" t="str">
         <f t="shared" si="11"/>
-        <v>re-Ref</v>
-      </c>
-      <c r="V42" t="str">
-        <f t="shared" si="12"/>
         <v>dr-07.5%</v>
       </c>
     </row>
@@ -5263,16 +5244,15 @@
         <f t="shared" si="6"/>
         <v>cp-150.re-Ref.dr-05.0%</v>
       </c>
-      <c r="H43" t="str">
+      <c r="H43" t="s">
+        <v>849</v>
+      </c>
+      <c r="I43" t="str">
         <f t="shared" si="7"/>
-        <v>150</v>
-      </c>
-      <c r="I43" t="str">
+        <v>Ref</v>
+      </c>
+      <c r="J43" t="str">
         <f t="shared" si="8"/>
-        <v>Ref</v>
-      </c>
-      <c r="J43" t="str">
-        <f t="shared" si="9"/>
         <v>05.0%</v>
       </c>
       <c r="N43">
@@ -5288,15 +5268,15 @@
         <v>0.05</v>
       </c>
       <c r="T43" t="str">
+        <f t="shared" si="9"/>
+        <v>cp-150</v>
+      </c>
+      <c r="U43" t="str">
         <f t="shared" si="10"/>
-        <v>cp-150</v>
-      </c>
-      <c r="U43" t="str">
+        <v>re-Ref</v>
+      </c>
+      <c r="V43" t="str">
         <f t="shared" si="11"/>
-        <v>re-Ref</v>
-      </c>
-      <c r="V43" t="str">
-        <f t="shared" si="12"/>
         <v>dr-05.0%</v>
       </c>
     </row>
@@ -5313,16 +5293,15 @@
         <f t="shared" si="6"/>
         <v>cp-150.re-Ref.dr-02.0%</v>
       </c>
-      <c r="H44" t="str">
+      <c r="H44" t="s">
+        <v>849</v>
+      </c>
+      <c r="I44" t="str">
         <f t="shared" si="7"/>
-        <v>150</v>
-      </c>
-      <c r="I44" t="str">
+        <v>Ref</v>
+      </c>
+      <c r="J44" t="str">
         <f t="shared" si="8"/>
-        <v>Ref</v>
-      </c>
-      <c r="J44" t="str">
-        <f t="shared" si="9"/>
         <v>02.0%</v>
       </c>
       <c r="N44">
@@ -5338,15 +5317,15 @@
         <v>0.02</v>
       </c>
       <c r="T44" t="str">
+        <f t="shared" si="9"/>
+        <v>cp-150</v>
+      </c>
+      <c r="U44" t="str">
         <f t="shared" si="10"/>
-        <v>cp-150</v>
-      </c>
-      <c r="U44" t="str">
+        <v>re-Ref</v>
+      </c>
+      <c r="V44" t="str">
         <f t="shared" si="11"/>
-        <v>re-Ref</v>
-      </c>
-      <c r="V44" t="str">
-        <f t="shared" si="12"/>
         <v>dr-02.0%</v>
       </c>
     </row>
@@ -5363,16 +5342,15 @@
         <f t="shared" si="6"/>
         <v>cp-150.re-Ref.dr-01.0%</v>
       </c>
-      <c r="H45" t="str">
+      <c r="H45" t="s">
+        <v>849</v>
+      </c>
+      <c r="I45" t="str">
         <f t="shared" si="7"/>
-        <v>150</v>
-      </c>
-      <c r="I45" t="str">
+        <v>Ref</v>
+      </c>
+      <c r="J45" t="str">
         <f t="shared" si="8"/>
-        <v>Ref</v>
-      </c>
-      <c r="J45" t="str">
-        <f t="shared" si="9"/>
         <v>01.0%</v>
       </c>
       <c r="N45">
@@ -5388,15 +5366,15 @@
         <v>0.01</v>
       </c>
       <c r="T45" t="str">
+        <f t="shared" si="9"/>
+        <v>cp-150</v>
+      </c>
+      <c r="U45" t="str">
         <f t="shared" si="10"/>
-        <v>cp-150</v>
-      </c>
-      <c r="U45" t="str">
+        <v>re-Ref</v>
+      </c>
+      <c r="V45" t="str">
         <f t="shared" si="11"/>
-        <v>re-Ref</v>
-      </c>
-      <c r="V45" t="str">
-        <f t="shared" si="12"/>
         <v>dr-01.0%</v>
       </c>
     </row>
@@ -5413,16 +5391,15 @@
         <f t="shared" si="6"/>
         <v>cp-300.re-Hi.dr-10.0%</v>
       </c>
-      <c r="H46" t="str">
+      <c r="H46" t="s">
+        <v>850</v>
+      </c>
+      <c r="I46" t="str">
         <f t="shared" si="7"/>
-        <v>300</v>
-      </c>
-      <c r="I46" t="str">
+        <v>Hi</v>
+      </c>
+      <c r="J46" t="str">
         <f t="shared" si="8"/>
-        <v>Hi</v>
-      </c>
-      <c r="J46" t="str">
-        <f t="shared" si="9"/>
         <v>10.0%</v>
       </c>
       <c r="N46">
@@ -5438,15 +5415,15 @@
         <v>0.1</v>
       </c>
       <c r="T46" t="str">
+        <f t="shared" si="9"/>
+        <v>cp-300</v>
+      </c>
+      <c r="U46" t="str">
         <f t="shared" si="10"/>
-        <v>cp-300</v>
-      </c>
-      <c r="U46" t="str">
+        <v>re-Hi</v>
+      </c>
+      <c r="V46" t="str">
         <f t="shared" si="11"/>
-        <v>re-Hi</v>
-      </c>
-      <c r="V46" t="str">
-        <f t="shared" si="12"/>
         <v>dr-10.0%</v>
       </c>
     </row>
@@ -5463,16 +5440,15 @@
         <f t="shared" si="6"/>
         <v>cp-300.re-Hi.dr-07.5%</v>
       </c>
-      <c r="H47" t="str">
+      <c r="H47" t="s">
+        <v>850</v>
+      </c>
+      <c r="I47" t="str">
         <f t="shared" si="7"/>
-        <v>300</v>
-      </c>
-      <c r="I47" t="str">
+        <v>Hi</v>
+      </c>
+      <c r="J47" t="str">
         <f t="shared" si="8"/>
-        <v>Hi</v>
-      </c>
-      <c r="J47" t="str">
-        <f t="shared" si="9"/>
         <v>07.5%</v>
       </c>
       <c r="N47">
@@ -5488,15 +5464,15 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="T47" t="str">
+        <f t="shared" si="9"/>
+        <v>cp-300</v>
+      </c>
+      <c r="U47" t="str">
         <f t="shared" si="10"/>
-        <v>cp-300</v>
-      </c>
-      <c r="U47" t="str">
+        <v>re-Hi</v>
+      </c>
+      <c r="V47" t="str">
         <f t="shared" si="11"/>
-        <v>re-Hi</v>
-      </c>
-      <c r="V47" t="str">
-        <f t="shared" si="12"/>
         <v>dr-07.5%</v>
       </c>
     </row>
@@ -5513,16 +5489,15 @@
         <f t="shared" si="6"/>
         <v>cp-300.re-Hi.dr-05.0%</v>
       </c>
-      <c r="H48" t="str">
+      <c r="H48" t="s">
+        <v>850</v>
+      </c>
+      <c r="I48" t="str">
         <f t="shared" si="7"/>
-        <v>300</v>
-      </c>
-      <c r="I48" t="str">
+        <v>Hi</v>
+      </c>
+      <c r="J48" t="str">
         <f t="shared" si="8"/>
-        <v>Hi</v>
-      </c>
-      <c r="J48" t="str">
-        <f t="shared" si="9"/>
         <v>05.0%</v>
       </c>
       <c r="N48">
@@ -5538,15 +5513,15 @@
         <v>0.05</v>
       </c>
       <c r="T48" t="str">
+        <f t="shared" si="9"/>
+        <v>cp-300</v>
+      </c>
+      <c r="U48" t="str">
         <f t="shared" si="10"/>
-        <v>cp-300</v>
-      </c>
-      <c r="U48" t="str">
+        <v>re-Hi</v>
+      </c>
+      <c r="V48" t="str">
         <f t="shared" si="11"/>
-        <v>re-Hi</v>
-      </c>
-      <c r="V48" t="str">
-        <f t="shared" si="12"/>
         <v>dr-05.0%</v>
       </c>
     </row>
@@ -5563,16 +5538,15 @@
         <f t="shared" si="6"/>
         <v>cp-300.re-Hi.dr-02.0%</v>
       </c>
-      <c r="H49" t="str">
+      <c r="H49" t="s">
+        <v>850</v>
+      </c>
+      <c r="I49" t="str">
         <f t="shared" si="7"/>
-        <v>300</v>
-      </c>
-      <c r="I49" t="str">
+        <v>Hi</v>
+      </c>
+      <c r="J49" t="str">
         <f t="shared" si="8"/>
-        <v>Hi</v>
-      </c>
-      <c r="J49" t="str">
-        <f t="shared" si="9"/>
         <v>02.0%</v>
       </c>
       <c r="N49">
@@ -5588,15 +5562,15 @@
         <v>0.02</v>
       </c>
       <c r="T49" t="str">
+        <f t="shared" si="9"/>
+        <v>cp-300</v>
+      </c>
+      <c r="U49" t="str">
         <f t="shared" si="10"/>
-        <v>cp-300</v>
-      </c>
-      <c r="U49" t="str">
+        <v>re-Hi</v>
+      </c>
+      <c r="V49" t="str">
         <f t="shared" si="11"/>
-        <v>re-Hi</v>
-      </c>
-      <c r="V49" t="str">
-        <f t="shared" si="12"/>
         <v>dr-02.0%</v>
       </c>
     </row>
@@ -5613,16 +5587,15 @@
         <f t="shared" si="6"/>
         <v>cp-300.re-Hi.dr-01.0%</v>
       </c>
-      <c r="H50" t="str">
+      <c r="H50" t="s">
+        <v>850</v>
+      </c>
+      <c r="I50" t="str">
         <f t="shared" si="7"/>
-        <v>300</v>
-      </c>
-      <c r="I50" t="str">
+        <v>Hi</v>
+      </c>
+      <c r="J50" t="str">
         <f t="shared" si="8"/>
-        <v>Hi</v>
-      </c>
-      <c r="J50" t="str">
-        <f t="shared" si="9"/>
         <v>01.0%</v>
       </c>
       <c r="N50">
@@ -5638,15 +5611,15 @@
         <v>0.01</v>
       </c>
       <c r="T50" t="str">
+        <f t="shared" si="9"/>
+        <v>cp-300</v>
+      </c>
+      <c r="U50" t="str">
         <f t="shared" si="10"/>
-        <v>cp-300</v>
-      </c>
-      <c r="U50" t="str">
+        <v>re-Hi</v>
+      </c>
+      <c r="V50" t="str">
         <f t="shared" si="11"/>
-        <v>re-Hi</v>
-      </c>
-      <c r="V50" t="str">
-        <f t="shared" si="12"/>
         <v>dr-01.0%</v>
       </c>
     </row>
@@ -5663,16 +5636,15 @@
         <f t="shared" si="6"/>
         <v>cp-300.re-Ref.dr-10.0%</v>
       </c>
-      <c r="H51" t="str">
+      <c r="H51" t="s">
+        <v>850</v>
+      </c>
+      <c r="I51" t="str">
         <f t="shared" si="7"/>
-        <v>300</v>
-      </c>
-      <c r="I51" t="str">
+        <v>Ref</v>
+      </c>
+      <c r="J51" t="str">
         <f t="shared" si="8"/>
-        <v>Ref</v>
-      </c>
-      <c r="J51" t="str">
-        <f t="shared" si="9"/>
         <v>10.0%</v>
       </c>
       <c r="N51">
@@ -5688,15 +5660,15 @@
         <v>0.1</v>
       </c>
       <c r="T51" t="str">
+        <f t="shared" si="9"/>
+        <v>cp-300</v>
+      </c>
+      <c r="U51" t="str">
         <f t="shared" si="10"/>
-        <v>cp-300</v>
-      </c>
-      <c r="U51" t="str">
+        <v>re-Ref</v>
+      </c>
+      <c r="V51" t="str">
         <f t="shared" si="11"/>
-        <v>re-Ref</v>
-      </c>
-      <c r="V51" t="str">
-        <f t="shared" si="12"/>
         <v>dr-10.0%</v>
       </c>
     </row>
@@ -5713,16 +5685,15 @@
         <f t="shared" si="6"/>
         <v>cp-300.re-Ref.dr-07.5%</v>
       </c>
-      <c r="H52" t="str">
+      <c r="H52" t="s">
+        <v>850</v>
+      </c>
+      <c r="I52" t="str">
         <f t="shared" si="7"/>
-        <v>300</v>
-      </c>
-      <c r="I52" t="str">
+        <v>Ref</v>
+      </c>
+      <c r="J52" t="str">
         <f t="shared" si="8"/>
-        <v>Ref</v>
-      </c>
-      <c r="J52" t="str">
-        <f t="shared" si="9"/>
         <v>07.5%</v>
       </c>
       <c r="N52">
@@ -5738,15 +5709,15 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="T52" t="str">
+        <f t="shared" si="9"/>
+        <v>cp-300</v>
+      </c>
+      <c r="U52" t="str">
         <f t="shared" si="10"/>
-        <v>cp-300</v>
-      </c>
-      <c r="U52" t="str">
+        <v>re-Ref</v>
+      </c>
+      <c r="V52" t="str">
         <f t="shared" si="11"/>
-        <v>re-Ref</v>
-      </c>
-      <c r="V52" t="str">
-        <f t="shared" si="12"/>
         <v>dr-07.5%</v>
       </c>
     </row>
@@ -5763,16 +5734,15 @@
         <f t="shared" si="6"/>
         <v>cp-300.re-Ref.dr-05.0%</v>
       </c>
-      <c r="H53" t="str">
+      <c r="H53" t="s">
+        <v>850</v>
+      </c>
+      <c r="I53" t="str">
         <f t="shared" si="7"/>
-        <v>300</v>
-      </c>
-      <c r="I53" t="str">
+        <v>Ref</v>
+      </c>
+      <c r="J53" t="str">
         <f t="shared" si="8"/>
-        <v>Ref</v>
-      </c>
-      <c r="J53" t="str">
-        <f t="shared" si="9"/>
         <v>05.0%</v>
       </c>
       <c r="N53">
@@ -5788,15 +5758,15 @@
         <v>0.05</v>
       </c>
       <c r="T53" t="str">
+        <f t="shared" si="9"/>
+        <v>cp-300</v>
+      </c>
+      <c r="U53" t="str">
         <f t="shared" si="10"/>
-        <v>cp-300</v>
-      </c>
-      <c r="U53" t="str">
+        <v>re-Ref</v>
+      </c>
+      <c r="V53" t="str">
         <f t="shared" si="11"/>
-        <v>re-Ref</v>
-      </c>
-      <c r="V53" t="str">
-        <f t="shared" si="12"/>
         <v>dr-05.0%</v>
       </c>
     </row>
@@ -5813,16 +5783,15 @@
         <f t="shared" si="6"/>
         <v>cp-300.re-Ref.dr-02.0%</v>
       </c>
-      <c r="H54" t="str">
+      <c r="H54" t="s">
+        <v>850</v>
+      </c>
+      <c r="I54" t="str">
         <f t="shared" si="7"/>
-        <v>300</v>
-      </c>
-      <c r="I54" t="str">
+        <v>Ref</v>
+      </c>
+      <c r="J54" t="str">
         <f t="shared" si="8"/>
-        <v>Ref</v>
-      </c>
-      <c r="J54" t="str">
-        <f t="shared" si="9"/>
         <v>02.0%</v>
       </c>
       <c r="N54">
@@ -5838,15 +5807,15 @@
         <v>0.02</v>
       </c>
       <c r="T54" t="str">
+        <f t="shared" si="9"/>
+        <v>cp-300</v>
+      </c>
+      <c r="U54" t="str">
         <f t="shared" si="10"/>
-        <v>cp-300</v>
-      </c>
-      <c r="U54" t="str">
+        <v>re-Ref</v>
+      </c>
+      <c r="V54" t="str">
         <f t="shared" si="11"/>
-        <v>re-Ref</v>
-      </c>
-      <c r="V54" t="str">
-        <f t="shared" si="12"/>
         <v>dr-02.0%</v>
       </c>
     </row>
@@ -5863,16 +5832,15 @@
         <f t="shared" si="6"/>
         <v>cp-300.re-Ref.dr-01.0%</v>
       </c>
-      <c r="H55" t="str">
+      <c r="H55" t="s">
+        <v>850</v>
+      </c>
+      <c r="I55" t="str">
         <f t="shared" si="7"/>
-        <v>300</v>
-      </c>
-      <c r="I55" t="str">
+        <v>Ref</v>
+      </c>
+      <c r="J55" t="str">
         <f t="shared" si="8"/>
-        <v>Ref</v>
-      </c>
-      <c r="J55" t="str">
-        <f t="shared" si="9"/>
         <v>01.0%</v>
       </c>
       <c r="N55">
@@ -5888,41 +5856,40 @@
         <v>0.01</v>
       </c>
       <c r="T55" t="str">
+        <f t="shared" si="9"/>
+        <v>cp-300</v>
+      </c>
+      <c r="U55" t="str">
         <f t="shared" si="10"/>
-        <v>cp-300</v>
-      </c>
-      <c r="U55" t="str">
+        <v>re-Ref</v>
+      </c>
+      <c r="V55" t="str">
         <f t="shared" si="11"/>
-        <v>re-Ref</v>
-      </c>
-      <c r="V55" t="str">
-        <f t="shared" si="12"/>
         <v>dr-01.0%</v>
       </c>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" t="str">
-        <f t="shared" ref="A56:A65" si="13">$A$1&amp;TEXT(N56,"0000")</f>
+        <f t="shared" ref="A56:A65" si="12">$A$1&amp;TEXT(N56,"0000")</f>
         <v>TGE~0051</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" ref="B56:B65" si="14">G56</f>
+        <f t="shared" ref="B56:B65" si="13">G56</f>
         <v>cp-225.re-Hi.dr-10.0%</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" ref="G56:G65" si="15">_xlfn.TEXTJOIN(".",TRUE,T56:X56)</f>
+        <f t="shared" ref="G56:G65" si="14">_xlfn.TEXTJOIN(".",TRUE,T56:X56)</f>
         <v>cp-225.re-Hi.dr-10.0%</v>
       </c>
-      <c r="H56" t="str">
-        <f t="shared" ref="H56:H65" si="16">VLOOKUP(O56,$Y$5:$Z$11,2,FALSE)</f>
-        <v>225</v>
+      <c r="H56" t="s">
+        <v>851</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" ref="I56:I65" si="17">P56</f>
+        <f t="shared" ref="I56:I65" si="15">P56</f>
         <v>Hi</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" ref="J56:J65" si="18">TEXT(Q56,"00.0%")</f>
+        <f t="shared" ref="J56:J65" si="16">TEXT(Q56,"00.0%")</f>
         <v>10.0%</v>
       </c>
       <c r="N56">
@@ -5938,41 +5905,40 @@
         <v>0.1</v>
       </c>
       <c r="T56" t="str">
-        <f t="shared" ref="T56:T65" si="19">H$1&amp;"-"&amp;VLOOKUP(O56,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" ref="T56:T65" si="17">H$1&amp;"-"&amp;VLOOKUP(O56,$Y$5:$Z$11,2,FALSE)</f>
         <v>cp-225</v>
       </c>
       <c r="U56" t="str">
-        <f t="shared" ref="U56:U65" si="20">I$1&amp;"-"&amp;P56</f>
+        <f t="shared" ref="U56:U65" si="18">I$1&amp;"-"&amp;P56</f>
         <v>re-Hi</v>
       </c>
       <c r="V56" t="str">
-        <f t="shared" ref="V56:V65" si="21">J$1&amp;"-"&amp;TEXT(Q56,"00.0%")</f>
+        <f t="shared" ref="V56:V65" si="19">J$1&amp;"-"&amp;TEXT(Q56,"00.0%")</f>
         <v>dr-10.0%</v>
       </c>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" t="str">
+        <f t="shared" si="12"/>
+        <v>TGE~0052</v>
+      </c>
+      <c r="B57" t="str">
         <f t="shared" si="13"/>
-        <v>TGE~0052</v>
-      </c>
-      <c r="B57" t="str">
+        <v>cp-225.re-Hi.dr-07.5%</v>
+      </c>
+      <c r="G57" t="str">
         <f t="shared" si="14"/>
         <v>cp-225.re-Hi.dr-07.5%</v>
       </c>
-      <c r="G57" t="str">
+      <c r="H57" t="s">
+        <v>851</v>
+      </c>
+      <c r="I57" t="str">
         <f t="shared" si="15"/>
-        <v>cp-225.re-Hi.dr-07.5%</v>
-      </c>
-      <c r="H57" t="str">
+        <v>Hi</v>
+      </c>
+      <c r="J57" t="str">
         <f t="shared" si="16"/>
-        <v>225</v>
-      </c>
-      <c r="I57" t="str">
-        <f t="shared" si="17"/>
-        <v>Hi</v>
-      </c>
-      <c r="J57" t="str">
-        <f t="shared" si="18"/>
         <v>07.5%</v>
       </c>
       <c r="N57">
@@ -5988,41 +5954,40 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="T57" t="str">
+        <f t="shared" si="17"/>
+        <v>cp-225</v>
+      </c>
+      <c r="U57" t="str">
+        <f t="shared" si="18"/>
+        <v>re-Hi</v>
+      </c>
+      <c r="V57" t="str">
         <f t="shared" si="19"/>
-        <v>cp-225</v>
-      </c>
-      <c r="U57" t="str">
-        <f t="shared" si="20"/>
-        <v>re-Hi</v>
-      </c>
-      <c r="V57" t="str">
-        <f t="shared" si="21"/>
         <v>dr-07.5%</v>
       </c>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" t="str">
+        <f t="shared" si="12"/>
+        <v>TGE~0053</v>
+      </c>
+      <c r="B58" t="str">
         <f t="shared" si="13"/>
-        <v>TGE~0053</v>
-      </c>
-      <c r="B58" t="str">
+        <v>cp-225.re-Hi.dr-05.0%</v>
+      </c>
+      <c r="G58" t="str">
         <f t="shared" si="14"/>
         <v>cp-225.re-Hi.dr-05.0%</v>
       </c>
-      <c r="G58" t="str">
+      <c r="H58" t="s">
+        <v>851</v>
+      </c>
+      <c r="I58" t="str">
         <f t="shared" si="15"/>
-        <v>cp-225.re-Hi.dr-05.0%</v>
-      </c>
-      <c r="H58" t="str">
+        <v>Hi</v>
+      </c>
+      <c r="J58" t="str">
         <f t="shared" si="16"/>
-        <v>225</v>
-      </c>
-      <c r="I58" t="str">
-        <f t="shared" si="17"/>
-        <v>Hi</v>
-      </c>
-      <c r="J58" t="str">
-        <f t="shared" si="18"/>
         <v>05.0%</v>
       </c>
       <c r="N58">
@@ -6038,41 +6003,40 @@
         <v>0.05</v>
       </c>
       <c r="T58" t="str">
+        <f t="shared" si="17"/>
+        <v>cp-225</v>
+      </c>
+      <c r="U58" t="str">
+        <f t="shared" si="18"/>
+        <v>re-Hi</v>
+      </c>
+      <c r="V58" t="str">
         <f t="shared" si="19"/>
-        <v>cp-225</v>
-      </c>
-      <c r="U58" t="str">
-        <f t="shared" si="20"/>
-        <v>re-Hi</v>
-      </c>
-      <c r="V58" t="str">
-        <f t="shared" si="21"/>
         <v>dr-05.0%</v>
       </c>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" t="str">
+        <f t="shared" si="12"/>
+        <v>TGE~0054</v>
+      </c>
+      <c r="B59" t="str">
         <f t="shared" si="13"/>
-        <v>TGE~0054</v>
-      </c>
-      <c r="B59" t="str">
+        <v>cp-225.re-Hi.dr-02.0%</v>
+      </c>
+      <c r="G59" t="str">
         <f t="shared" si="14"/>
         <v>cp-225.re-Hi.dr-02.0%</v>
       </c>
-      <c r="G59" t="str">
+      <c r="H59" t="s">
+        <v>851</v>
+      </c>
+      <c r="I59" t="str">
         <f t="shared" si="15"/>
-        <v>cp-225.re-Hi.dr-02.0%</v>
-      </c>
-      <c r="H59" t="str">
+        <v>Hi</v>
+      </c>
+      <c r="J59" t="str">
         <f t="shared" si="16"/>
-        <v>225</v>
-      </c>
-      <c r="I59" t="str">
-        <f t="shared" si="17"/>
-        <v>Hi</v>
-      </c>
-      <c r="J59" t="str">
-        <f t="shared" si="18"/>
         <v>02.0%</v>
       </c>
       <c r="N59">
@@ -6088,41 +6052,40 @@
         <v>0.02</v>
       </c>
       <c r="T59" t="str">
+        <f t="shared" si="17"/>
+        <v>cp-225</v>
+      </c>
+      <c r="U59" t="str">
+        <f t="shared" si="18"/>
+        <v>re-Hi</v>
+      </c>
+      <c r="V59" t="str">
         <f t="shared" si="19"/>
-        <v>cp-225</v>
-      </c>
-      <c r="U59" t="str">
-        <f t="shared" si="20"/>
-        <v>re-Hi</v>
-      </c>
-      <c r="V59" t="str">
-        <f t="shared" si="21"/>
         <v>dr-02.0%</v>
       </c>
     </row>
     <row r="60" spans="1:22">
       <c r="A60" t="str">
+        <f t="shared" si="12"/>
+        <v>TGE~0055</v>
+      </c>
+      <c r="B60" t="str">
         <f t="shared" si="13"/>
-        <v>TGE~0055</v>
-      </c>
-      <c r="B60" t="str">
+        <v>cp-225.re-Hi.dr-01.0%</v>
+      </c>
+      <c r="G60" t="str">
         <f t="shared" si="14"/>
         <v>cp-225.re-Hi.dr-01.0%</v>
       </c>
-      <c r="G60" t="str">
+      <c r="H60" t="s">
+        <v>851</v>
+      </c>
+      <c r="I60" t="str">
         <f t="shared" si="15"/>
-        <v>cp-225.re-Hi.dr-01.0%</v>
-      </c>
-      <c r="H60" t="str">
+        <v>Hi</v>
+      </c>
+      <c r="J60" t="str">
         <f t="shared" si="16"/>
-        <v>225</v>
-      </c>
-      <c r="I60" t="str">
-        <f t="shared" si="17"/>
-        <v>Hi</v>
-      </c>
-      <c r="J60" t="str">
-        <f t="shared" si="18"/>
         <v>01.0%</v>
       </c>
       <c r="N60">
@@ -6138,41 +6101,40 @@
         <v>0.01</v>
       </c>
       <c r="T60" t="str">
+        <f t="shared" si="17"/>
+        <v>cp-225</v>
+      </c>
+      <c r="U60" t="str">
+        <f t="shared" si="18"/>
+        <v>re-Hi</v>
+      </c>
+      <c r="V60" t="str">
         <f t="shared" si="19"/>
-        <v>cp-225</v>
-      </c>
-      <c r="U60" t="str">
-        <f t="shared" si="20"/>
-        <v>re-Hi</v>
-      </c>
-      <c r="V60" t="str">
-        <f t="shared" si="21"/>
         <v>dr-01.0%</v>
       </c>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" t="str">
+        <f t="shared" si="12"/>
+        <v>TGE~0056</v>
+      </c>
+      <c r="B61" t="str">
         <f t="shared" si="13"/>
-        <v>TGE~0056</v>
-      </c>
-      <c r="B61" t="str">
+        <v>cp-225.re-Ref.dr-10.0%</v>
+      </c>
+      <c r="G61" t="str">
         <f t="shared" si="14"/>
         <v>cp-225.re-Ref.dr-10.0%</v>
       </c>
-      <c r="G61" t="str">
+      <c r="H61" t="s">
+        <v>851</v>
+      </c>
+      <c r="I61" t="str">
         <f t="shared" si="15"/>
-        <v>cp-225.re-Ref.dr-10.0%</v>
-      </c>
-      <c r="H61" t="str">
+        <v>Ref</v>
+      </c>
+      <c r="J61" t="str">
         <f t="shared" si="16"/>
-        <v>225</v>
-      </c>
-      <c r="I61" t="str">
-        <f t="shared" si="17"/>
-        <v>Ref</v>
-      </c>
-      <c r="J61" t="str">
-        <f t="shared" si="18"/>
         <v>10.0%</v>
       </c>
       <c r="N61">
@@ -6188,41 +6150,40 @@
         <v>0.1</v>
       </c>
       <c r="T61" t="str">
+        <f t="shared" si="17"/>
+        <v>cp-225</v>
+      </c>
+      <c r="U61" t="str">
+        <f t="shared" si="18"/>
+        <v>re-Ref</v>
+      </c>
+      <c r="V61" t="str">
         <f t="shared" si="19"/>
-        <v>cp-225</v>
-      </c>
-      <c r="U61" t="str">
-        <f t="shared" si="20"/>
-        <v>re-Ref</v>
-      </c>
-      <c r="V61" t="str">
-        <f t="shared" si="21"/>
         <v>dr-10.0%</v>
       </c>
     </row>
     <row r="62" spans="1:22">
       <c r="A62" t="str">
+        <f t="shared" si="12"/>
+        <v>TGE~0057</v>
+      </c>
+      <c r="B62" t="str">
         <f t="shared" si="13"/>
-        <v>TGE~0057</v>
-      </c>
-      <c r="B62" t="str">
+        <v>cp-225.re-Ref.dr-07.5%</v>
+      </c>
+      <c r="G62" t="str">
         <f t="shared" si="14"/>
         <v>cp-225.re-Ref.dr-07.5%</v>
       </c>
-      <c r="G62" t="str">
+      <c r="H62" t="s">
+        <v>851</v>
+      </c>
+      <c r="I62" t="str">
         <f t="shared" si="15"/>
-        <v>cp-225.re-Ref.dr-07.5%</v>
-      </c>
-      <c r="H62" t="str">
+        <v>Ref</v>
+      </c>
+      <c r="J62" t="str">
         <f t="shared" si="16"/>
-        <v>225</v>
-      </c>
-      <c r="I62" t="str">
-        <f t="shared" si="17"/>
-        <v>Ref</v>
-      </c>
-      <c r="J62" t="str">
-        <f t="shared" si="18"/>
         <v>07.5%</v>
       </c>
       <c r="N62">
@@ -6238,41 +6199,40 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="T62" t="str">
+        <f t="shared" si="17"/>
+        <v>cp-225</v>
+      </c>
+      <c r="U62" t="str">
+        <f t="shared" si="18"/>
+        <v>re-Ref</v>
+      </c>
+      <c r="V62" t="str">
         <f t="shared" si="19"/>
-        <v>cp-225</v>
-      </c>
-      <c r="U62" t="str">
-        <f t="shared" si="20"/>
-        <v>re-Ref</v>
-      </c>
-      <c r="V62" t="str">
-        <f t="shared" si="21"/>
         <v>dr-07.5%</v>
       </c>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" t="str">
+        <f t="shared" si="12"/>
+        <v>TGE~0058</v>
+      </c>
+      <c r="B63" t="str">
         <f t="shared" si="13"/>
-        <v>TGE~0058</v>
-      </c>
-      <c r="B63" t="str">
+        <v>cp-225.re-Ref.dr-05.0%</v>
+      </c>
+      <c r="G63" t="str">
         <f t="shared" si="14"/>
         <v>cp-225.re-Ref.dr-05.0%</v>
       </c>
-      <c r="G63" t="str">
+      <c r="H63" t="s">
+        <v>851</v>
+      </c>
+      <c r="I63" t="str">
         <f t="shared" si="15"/>
-        <v>cp-225.re-Ref.dr-05.0%</v>
-      </c>
-      <c r="H63" t="str">
+        <v>Ref</v>
+      </c>
+      <c r="J63" t="str">
         <f t="shared" si="16"/>
-        <v>225</v>
-      </c>
-      <c r="I63" t="str">
-        <f t="shared" si="17"/>
-        <v>Ref</v>
-      </c>
-      <c r="J63" t="str">
-        <f t="shared" si="18"/>
         <v>05.0%</v>
       </c>
       <c r="N63">
@@ -6288,41 +6248,40 @@
         <v>0.05</v>
       </c>
       <c r="T63" t="str">
+        <f t="shared" si="17"/>
+        <v>cp-225</v>
+      </c>
+      <c r="U63" t="str">
+        <f t="shared" si="18"/>
+        <v>re-Ref</v>
+      </c>
+      <c r="V63" t="str">
         <f t="shared" si="19"/>
-        <v>cp-225</v>
-      </c>
-      <c r="U63" t="str">
-        <f t="shared" si="20"/>
-        <v>re-Ref</v>
-      </c>
-      <c r="V63" t="str">
-        <f t="shared" si="21"/>
         <v>dr-05.0%</v>
       </c>
     </row>
     <row r="64" spans="1:22">
       <c r="A64" t="str">
+        <f t="shared" si="12"/>
+        <v>TGE~0059</v>
+      </c>
+      <c r="B64" t="str">
         <f t="shared" si="13"/>
-        <v>TGE~0059</v>
-      </c>
-      <c r="B64" t="str">
+        <v>cp-225.re-Ref.dr-02.0%</v>
+      </c>
+      <c r="G64" t="str">
         <f t="shared" si="14"/>
         <v>cp-225.re-Ref.dr-02.0%</v>
       </c>
-      <c r="G64" t="str">
+      <c r="H64" t="s">
+        <v>851</v>
+      </c>
+      <c r="I64" t="str">
         <f t="shared" si="15"/>
-        <v>cp-225.re-Ref.dr-02.0%</v>
-      </c>
-      <c r="H64" t="str">
+        <v>Ref</v>
+      </c>
+      <c r="J64" t="str">
         <f t="shared" si="16"/>
-        <v>225</v>
-      </c>
-      <c r="I64" t="str">
-        <f t="shared" si="17"/>
-        <v>Ref</v>
-      </c>
-      <c r="J64" t="str">
-        <f t="shared" si="18"/>
         <v>02.0%</v>
       </c>
       <c r="N64">
@@ -6338,41 +6297,40 @@
         <v>0.02</v>
       </c>
       <c r="T64" t="str">
+        <f t="shared" si="17"/>
+        <v>cp-225</v>
+      </c>
+      <c r="U64" t="str">
+        <f t="shared" si="18"/>
+        <v>re-Ref</v>
+      </c>
+      <c r="V64" t="str">
         <f t="shared" si="19"/>
-        <v>cp-225</v>
-      </c>
-      <c r="U64" t="str">
-        <f t="shared" si="20"/>
-        <v>re-Ref</v>
-      </c>
-      <c r="V64" t="str">
-        <f t="shared" si="21"/>
         <v>dr-02.0%</v>
       </c>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" t="str">
+        <f t="shared" si="12"/>
+        <v>TGE~0060</v>
+      </c>
+      <c r="B65" t="str">
         <f t="shared" si="13"/>
-        <v>TGE~0060</v>
-      </c>
-      <c r="B65" t="str">
+        <v>cp-225.re-Ref.dr-01.0%</v>
+      </c>
+      <c r="G65" t="str">
         <f t="shared" si="14"/>
         <v>cp-225.re-Ref.dr-01.0%</v>
       </c>
-      <c r="G65" t="str">
+      <c r="H65" t="s">
+        <v>851</v>
+      </c>
+      <c r="I65" t="str">
         <f t="shared" si="15"/>
-        <v>cp-225.re-Ref.dr-01.0%</v>
-      </c>
-      <c r="H65" t="str">
+        <v>Ref</v>
+      </c>
+      <c r="J65" t="str">
         <f t="shared" si="16"/>
-        <v>225</v>
-      </c>
-      <c r="I65" t="str">
-        <f t="shared" si="17"/>
-        <v>Ref</v>
-      </c>
-      <c r="J65" t="str">
-        <f t="shared" si="18"/>
         <v>01.0%</v>
       </c>
       <c r="N65">
@@ -6388,15 +6346,15 @@
         <v>0.01</v>
       </c>
       <c r="T65" t="str">
+        <f t="shared" si="17"/>
+        <v>cp-225</v>
+      </c>
+      <c r="U65" t="str">
+        <f t="shared" si="18"/>
+        <v>re-Ref</v>
+      </c>
+      <c r="V65" t="str">
         <f t="shared" si="19"/>
-        <v>cp-225</v>
-      </c>
-      <c r="U65" t="str">
-        <f t="shared" si="20"/>
-        <v>re-Ref</v>
-      </c>
-      <c r="V65" t="str">
-        <f t="shared" si="21"/>
         <v>dr-01.0%</v>
       </c>
     </row>
@@ -10689,7 +10647,7 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>

--- a/ReportDefs-TIMES-GEO.xlsx
+++ b/ReportDefs-TIMES-GEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\TIMES-GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733A9686-DDE9-4242-8EAF-F551507CC1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99224E22-66D7-429F-9DC2-2DAF5E63DE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2648,22 +2648,22 @@
     <t>P_All,P-Elc_Sto</t>
   </si>
   <si>
-    <t>$ 000/t CO2</t>
-  </si>
-  <si>
-    <t>$ 050/t CO2</t>
-  </si>
-  <si>
-    <t>$ 100/t CO2</t>
-  </si>
-  <si>
-    <t>$ 150/t CO2</t>
-  </si>
-  <si>
-    <t>$ 300/t CO2</t>
-  </si>
-  <si>
-    <t>$ 225/t CO2</t>
+    <t>$000/t CO2</t>
+  </si>
+  <si>
+    <t>$050/t CO2</t>
+  </si>
+  <si>
+    <t>$100/t CO2</t>
+  </si>
+  <si>
+    <t>$150/t CO2</t>
+  </si>
+  <si>
+    <t>$300/t CO2</t>
+  </si>
+  <si>
+    <t>$225/t CO2</t>
   </si>
 </sst>
 </file>
@@ -3296,7 +3296,7 @@
   <dimension ref="A1:Z65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/ReportDefs-TIMES-GEO.xlsx
+++ b/ReportDefs-TIMES-GEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\TIMES-GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99224E22-66D7-429F-9DC2-2DAF5E63DE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC89707-ABBD-4BD7-AC0D-60B9E079AD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="UnitConv" sheetId="59" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'process map'!$A$2:$B$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'process map'!$A$2:$B$113</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TS_Defs!$A$2:$N$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="866">
   <si>
     <t>Unit</t>
   </si>
@@ -2664,6 +2664,48 @@
   </si>
   <si>
     <t>$225/t CO2</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>Western Europe</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>CenAsia EastEurope</t>
+  </si>
+  <si>
+    <t>RegionAgg10</t>
+  </si>
+  <si>
+    <t>I??HTH</t>
+  </si>
+  <si>
+    <t>I??LTH</t>
+  </si>
+  <si>
+    <t>I??MDR</t>
+  </si>
+  <si>
+    <t>I??OTS</t>
+  </si>
+  <si>
+    <t>High Temp Heat</t>
+  </si>
+  <si>
+    <t>Low Temp Heat</t>
+  </si>
+  <si>
+    <t>Machine Drive</t>
+  </si>
+  <si>
+    <t>Other Services</t>
   </si>
 </sst>
 </file>
@@ -3295,7 +3337,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:Z65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -11790,11 +11832,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C639ABCB-5F46-46FD-A29B-730BA5D084CB}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
@@ -12153,6 +12193,347 @@
       </c>
       <c r="C33" t="s">
         <v>758</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>857</v>
+      </c>
+      <c r="B34" t="s">
+        <v>725</v>
+      </c>
+      <c r="C34" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>857</v>
+      </c>
+      <c r="B35" t="s">
+        <v>726</v>
+      </c>
+      <c r="C35" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>857</v>
+      </c>
+      <c r="B36" t="s">
+        <v>727</v>
+      </c>
+      <c r="C36" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>857</v>
+      </c>
+      <c r="B37" t="s">
+        <v>728</v>
+      </c>
+      <c r="C37" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>857</v>
+      </c>
+      <c r="B38" t="s">
+        <v>729</v>
+      </c>
+      <c r="C38" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>857</v>
+      </c>
+      <c r="B39" t="s">
+        <v>316</v>
+      </c>
+      <c r="C39" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>857</v>
+      </c>
+      <c r="B40" t="s">
+        <v>731</v>
+      </c>
+      <c r="C40" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>857</v>
+      </c>
+      <c r="B41" t="s">
+        <v>733</v>
+      </c>
+      <c r="C41" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>857</v>
+      </c>
+      <c r="B42" t="s">
+        <v>735</v>
+      </c>
+      <c r="C42" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>857</v>
+      </c>
+      <c r="B43" t="s">
+        <v>737</v>
+      </c>
+      <c r="C43" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>857</v>
+      </c>
+      <c r="B44" t="s">
+        <v>477</v>
+      </c>
+      <c r="C44" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>857</v>
+      </c>
+      <c r="B45" t="s">
+        <v>479</v>
+      </c>
+      <c r="C45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>857</v>
+      </c>
+      <c r="B46" t="s">
+        <v>478</v>
+      </c>
+      <c r="C46" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>857</v>
+      </c>
+      <c r="B47" t="s">
+        <v>741</v>
+      </c>
+      <c r="C47" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>857</v>
+      </c>
+      <c r="B48" t="s">
+        <v>742</v>
+      </c>
+      <c r="C48" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>857</v>
+      </c>
+      <c r="B49" t="s">
+        <v>743</v>
+      </c>
+      <c r="C49" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>857</v>
+      </c>
+      <c r="B50" t="s">
+        <v>744</v>
+      </c>
+      <c r="C50" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>857</v>
+      </c>
+      <c r="B51" t="s">
+        <v>361</v>
+      </c>
+      <c r="C51" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>857</v>
+      </c>
+      <c r="B52" t="s">
+        <v>377</v>
+      </c>
+      <c r="C52" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>857</v>
+      </c>
+      <c r="B53" t="s">
+        <v>473</v>
+      </c>
+      <c r="C53" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>857</v>
+      </c>
+      <c r="B54" t="s">
+        <v>379</v>
+      </c>
+      <c r="C54" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>857</v>
+      </c>
+      <c r="B55" t="s">
+        <v>474</v>
+      </c>
+      <c r="C55" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>857</v>
+      </c>
+      <c r="B56" t="s">
+        <v>390</v>
+      </c>
+      <c r="C56" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>857</v>
+      </c>
+      <c r="B57" t="s">
+        <v>750</v>
+      </c>
+      <c r="C57" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>857</v>
+      </c>
+      <c r="B58" t="s">
+        <v>752</v>
+      </c>
+      <c r="C58" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>857</v>
+      </c>
+      <c r="B59" t="s">
+        <v>405</v>
+      </c>
+      <c r="C59" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>857</v>
+      </c>
+      <c r="B60" t="s">
+        <v>476</v>
+      </c>
+      <c r="C60" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>857</v>
+      </c>
+      <c r="B61" t="s">
+        <v>437</v>
+      </c>
+      <c r="C61" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>857</v>
+      </c>
+      <c r="B62" t="s">
+        <v>459</v>
+      </c>
+      <c r="C62" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>857</v>
+      </c>
+      <c r="B63" t="s">
+        <v>475</v>
+      </c>
+      <c r="C63" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>857</v>
+      </c>
+      <c r="B64" t="s">
+        <v>469</v>
+      </c>
+      <c r="C64" t="s">
+        <v>852</v>
       </c>
     </row>
   </sheetData>
@@ -12162,10 +12543,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ADB714-E6AA-4E3E-B77B-62B65BA0E218}">
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12883,7 +13264,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>224</v>
       </c>
@@ -12894,7 +13275,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>224</v>
       </c>
@@ -12905,158 +13286,158 @@
         <v>239</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="C67" t="s">
-        <v>244</v>
-      </c>
-      <c r="D67" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>862</v>
+      </c>
+      <c r="E67" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="C68" t="s">
-        <v>246</v>
-      </c>
-      <c r="D68" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>863</v>
+      </c>
+      <c r="E68" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="C69" t="s">
-        <v>100</v>
-      </c>
-      <c r="D69" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>864</v>
+      </c>
+      <c r="E69" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="C70" t="s">
-        <v>282</v>
-      </c>
-      <c r="D70" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>865</v>
+      </c>
+      <c r="E70" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>51</v>
       </c>
       <c r="C71" t="s">
-        <v>3</v>
+        <v>244</v>
       </c>
       <c r="D71" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>51</v>
       </c>
       <c r="C72" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="D72" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>51</v>
       </c>
       <c r="C73" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D73" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>51</v>
       </c>
       <c r="C74" t="s">
-        <v>116</v>
+        <v>282</v>
       </c>
       <c r="D74" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="D75" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>51</v>
       </c>
       <c r="C76" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D76" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>51</v>
       </c>
       <c r="C77" t="s">
-        <v>285</v>
+        <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>51</v>
       </c>
       <c r="C78" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D78" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>51</v>
       </c>
       <c r="C79" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="D79" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>51</v>
       </c>
       <c r="C80" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D80" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -13064,10 +13445,10 @@
         <v>51</v>
       </c>
       <c r="C81" t="s">
-        <v>114</v>
+        <v>285</v>
       </c>
       <c r="D81" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -13075,10 +13456,10 @@
         <v>51</v>
       </c>
       <c r="C82" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D82" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -13086,10 +13467,10 @@
         <v>51</v>
       </c>
       <c r="C83" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D83" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -13097,10 +13478,10 @@
         <v>51</v>
       </c>
       <c r="C84" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D84" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -13108,10 +13489,10 @@
         <v>51</v>
       </c>
       <c r="C85" t="s">
-        <v>288</v>
+        <v>114</v>
       </c>
       <c r="D85" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -13119,10 +13500,10 @@
         <v>51</v>
       </c>
       <c r="C86" t="s">
-        <v>289</v>
+        <v>95</v>
       </c>
       <c r="D86" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -13130,10 +13511,10 @@
         <v>51</v>
       </c>
       <c r="C87" t="s">
-        <v>290</v>
+        <v>94</v>
       </c>
       <c r="D87" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -13141,10 +13522,10 @@
         <v>51</v>
       </c>
       <c r="C88" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D88" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -13152,10 +13533,10 @@
         <v>51</v>
       </c>
       <c r="C89" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D89" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -13163,10 +13544,10 @@
         <v>51</v>
       </c>
       <c r="C90" t="s">
-        <v>122</v>
+        <v>289</v>
       </c>
       <c r="D90" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -13174,32 +13555,32 @@
         <v>51</v>
       </c>
       <c r="C91" t="s">
-        <v>124</v>
+        <v>290</v>
       </c>
       <c r="D91" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C92" t="s">
-        <v>36</v>
+        <v>291</v>
       </c>
       <c r="D92" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C93" t="s">
-        <v>36</v>
+        <v>292</v>
       </c>
       <c r="D93" t="s">
-        <v>843</v>
+        <v>267</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -13207,10 +13588,10 @@
         <v>51</v>
       </c>
       <c r="C94" t="s">
-        <v>844</v>
+        <v>122</v>
       </c>
       <c r="D94" t="s">
-        <v>843</v>
+        <v>268</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -13218,32 +13599,32 @@
         <v>51</v>
       </c>
       <c r="C95" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="D95" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C96" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="D96" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C97" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D97" t="s">
-        <v>273</v>
+        <v>843</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -13251,10 +13632,10 @@
         <v>51</v>
       </c>
       <c r="C98" t="s">
-        <v>116</v>
+        <v>844</v>
       </c>
       <c r="D98" t="s">
-        <v>274</v>
+        <v>843</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -13262,10 +13643,10 @@
         <v>51</v>
       </c>
       <c r="C99" t="s">
-        <v>288</v>
+        <v>100</v>
       </c>
       <c r="D99" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -13273,10 +13654,10 @@
         <v>51</v>
       </c>
       <c r="C100" t="s">
-        <v>290</v>
+        <v>3</v>
       </c>
       <c r="D100" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -13284,10 +13665,10 @@
         <v>51</v>
       </c>
       <c r="C101" t="s">
-        <v>292</v>
+        <v>4</v>
       </c>
       <c r="D101" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -13295,10 +13676,10 @@
         <v>51</v>
       </c>
       <c r="C102" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D102" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -13306,10 +13687,10 @@
         <v>51</v>
       </c>
       <c r="C103" t="s">
-        <v>124</v>
+        <v>288</v>
       </c>
       <c r="D103" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -13317,10 +13698,10 @@
         <v>51</v>
       </c>
       <c r="C104" t="s">
-        <v>98</v>
+        <v>290</v>
       </c>
       <c r="D104" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -13328,53 +13709,97 @@
         <v>51</v>
       </c>
       <c r="C105" t="s">
-        <v>112</v>
+        <v>292</v>
       </c>
       <c r="D105" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>804</v>
-      </c>
-      <c r="B106" t="s">
-        <v>293</v>
+        <v>51</v>
       </c>
       <c r="C106" t="s">
-        <v>294</v>
+        <v>122</v>
+      </c>
+      <c r="D106" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>804</v>
-      </c>
-      <c r="B107" t="s">
-        <v>295</v>
+        <v>51</v>
       </c>
       <c r="C107" t="s">
-        <v>296</v>
+        <v>124</v>
+      </c>
+      <c r="D107" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>769</v>
+        <v>51</v>
       </c>
       <c r="C108" t="s">
-        <v>770</v>
+        <v>98</v>
       </c>
       <c r="D108" t="s">
-        <v>772</v>
+        <v>280</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
+        <v>51</v>
+      </c>
+      <c r="C109" t="s">
+        <v>112</v>
+      </c>
+      <c r="D109" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>804</v>
+      </c>
+      <c r="B110" t="s">
+        <v>293</v>
+      </c>
+      <c r="C110" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>804</v>
+      </c>
+      <c r="B111" t="s">
+        <v>295</v>
+      </c>
+      <c r="C111" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
         <v>769</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C112" t="s">
+        <v>770</v>
+      </c>
+      <c r="D112" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>769</v>
+      </c>
+      <c r="C113" t="s">
         <v>771</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D113" t="s">
         <v>771</v>
       </c>
     </row>

--- a/ReportDefs-TIMES-GEO.xlsx
+++ b/ReportDefs-TIMES-GEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\TIMES-GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC89707-ABBD-4BD7-AC0D-60B9E079AD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1170E6-3F40-470E-9C0B-F445CFBF2F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
@@ -383,15 +383,6 @@
     <t>dr</t>
   </si>
   <si>
-    <t>CO2Price</t>
-  </si>
-  <si>
-    <t>RE Cost</t>
-  </si>
-  <si>
-    <t>DiscRate</t>
-  </si>
-  <si>
     <t>Wind Offshore</t>
   </si>
   <si>
@@ -2706,6 +2697,15 @@
   </si>
   <si>
     <t>Other Services</t>
+  </si>
+  <si>
+    <t>RE-Cost</t>
+  </si>
+  <si>
+    <t>CO2-Price</t>
+  </si>
+  <si>
+    <t>Disc-Rate</t>
   </si>
 </sst>
 </file>
@@ -3337,8 +3337,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:Z65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3355,7 +3355,7 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="H1" t="s">
         <v>88</v>
@@ -3369,13 +3369,13 @@
     </row>
     <row r="2" spans="1:26">
       <c r="H2" t="s">
-        <v>91</v>
+        <v>864</v>
       </c>
       <c r="I2" t="s">
-        <v>92</v>
+        <v>863</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>865</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -3404,15 +3404,15 @@
       </c>
       <c r="H5" t="str">
         <f>"sg_"&amp;H2</f>
-        <v>sg_CO2Price</v>
+        <v>sg_CO2-Price</v>
       </c>
       <c r="I5" t="str">
         <f>"sg_"&amp;I2</f>
-        <v>sg_RE Cost</v>
+        <v>sg_RE-Cost</v>
       </c>
       <c r="J5" t="str">
         <f>"sg_"&amp;J2</f>
-        <v>sg_DiscRate</v>
+        <v>sg_Disc-Rate</v>
       </c>
       <c r="O5" t="s">
         <v>86</v>
@@ -3427,7 +3427,7 @@
         <v>1</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -3444,7 +3444,7 @@
         <v>cp-000.re-Hi.dr-10.0%</v>
       </c>
       <c r="H6" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" ref="I6" si="0">P6</f>
@@ -3461,7 +3461,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="Q6">
         <v>0.1</v>
@@ -3482,7 +3482,7 @@
         <v>2</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -3499,7 +3499,7 @@
         <v>cp-000.re-Hi.dr-07.5%</v>
       </c>
       <c r="H7" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" ref="I7:I55" si="7">P7</f>
@@ -3516,7 +3516,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="Q7">
         <v>7.4999999999999997E-2</v>
@@ -3537,7 +3537,7 @@
         <v>3</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -3554,7 +3554,7 @@
         <v>cp-000.re-Hi.dr-05.0%</v>
       </c>
       <c r="H8" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="7"/>
@@ -3571,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="Q8">
         <v>0.05</v>
@@ -3592,7 +3592,7 @@
         <v>4</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -3609,7 +3609,7 @@
         <v>cp-000.re-Hi.dr-02.0%</v>
       </c>
       <c r="H9" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="7"/>
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="Q9">
         <v>0.02</v>
@@ -3647,7 +3647,7 @@
         <v>5</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -3664,7 +3664,7 @@
         <v>cp-000.re-Hi.dr-01.0%</v>
       </c>
       <c r="H10" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="7"/>
@@ -3681,7 +3681,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="Q10">
         <v>0.01</v>
@@ -3702,7 +3702,7 @@
         <v>6</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -3719,7 +3719,7 @@
         <v>cp-000.re-Ref.dr-10.0%</v>
       </c>
       <c r="H11" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="7"/>
@@ -3736,7 +3736,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="Q11">
         <v>0.1</v>
@@ -3768,7 +3768,7 @@
         <v>cp-000.re-Ref.dr-07.5%</v>
       </c>
       <c r="H12" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="7"/>
@@ -3785,7 +3785,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="Q12">
         <v>7.4999999999999997E-2</v>
@@ -3817,7 +3817,7 @@
         <v>cp-000.re-Ref.dr-05.0%</v>
       </c>
       <c r="H13" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="7"/>
@@ -3834,7 +3834,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="Q13">
         <v>0.05</v>
@@ -3866,7 +3866,7 @@
         <v>cp-000.re-Ref.dr-02.0%</v>
       </c>
       <c r="H14" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="7"/>
@@ -3883,7 +3883,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="Q14">
         <v>0.02</v>
@@ -3915,7 +3915,7 @@
         <v>cp-000.re-Ref.dr-01.0%</v>
       </c>
       <c r="H15" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="7"/>
@@ -3932,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="Q15">
         <v>0.01</v>
@@ -3964,7 +3964,7 @@
         <v>cp-050.re-Hi.dr-10.0%</v>
       </c>
       <c r="H16" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="7"/>
@@ -3981,7 +3981,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="Q16">
         <v>0.1</v>
@@ -4013,7 +4013,7 @@
         <v>cp-050.re-Hi.dr-07.5%</v>
       </c>
       <c r="H17" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="7"/>
@@ -4030,7 +4030,7 @@
         <v>2</v>
       </c>
       <c r="P17" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="Q17">
         <v>7.4999999999999997E-2</v>
@@ -4062,7 +4062,7 @@
         <v>cp-050.re-Hi.dr-05.0%</v>
       </c>
       <c r="H18" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="7"/>
@@ -4079,7 +4079,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="Q18">
         <v>0.05</v>
@@ -4111,7 +4111,7 @@
         <v>cp-050.re-Hi.dr-02.0%</v>
       </c>
       <c r="H19" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="7"/>
@@ -4128,7 +4128,7 @@
         <v>2</v>
       </c>
       <c r="P19" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="Q19">
         <v>0.02</v>
@@ -4160,7 +4160,7 @@
         <v>cp-050.re-Hi.dr-01.0%</v>
       </c>
       <c r="H20" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="7"/>
@@ -4177,7 +4177,7 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="Q20">
         <v>0.01</v>
@@ -4209,7 +4209,7 @@
         <v>cp-050.re-Ref.dr-10.0%</v>
       </c>
       <c r="H21" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="7"/>
@@ -4226,7 +4226,7 @@
         <v>2</v>
       </c>
       <c r="P21" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="Q21">
         <v>0.1</v>
@@ -4258,7 +4258,7 @@
         <v>cp-050.re-Ref.dr-07.5%</v>
       </c>
       <c r="H22" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="7"/>
@@ -4275,7 +4275,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="Q22">
         <v>7.4999999999999997E-2</v>
@@ -4307,7 +4307,7 @@
         <v>cp-050.re-Ref.dr-05.0%</v>
       </c>
       <c r="H23" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="7"/>
@@ -4324,7 +4324,7 @@
         <v>2</v>
       </c>
       <c r="P23" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="Q23">
         <v>0.05</v>
@@ -4356,7 +4356,7 @@
         <v>cp-050.re-Ref.dr-02.0%</v>
       </c>
       <c r="H24" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="7"/>
@@ -4373,7 +4373,7 @@
         <v>2</v>
       </c>
       <c r="P24" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="Q24">
         <v>0.02</v>
@@ -4405,7 +4405,7 @@
         <v>cp-050.re-Ref.dr-01.0%</v>
       </c>
       <c r="H25" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="7"/>
@@ -4422,7 +4422,7 @@
         <v>2</v>
       </c>
       <c r="P25" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="Q25">
         <v>0.01</v>
@@ -4454,7 +4454,7 @@
         <v>cp-100.re-Hi.dr-10.0%</v>
       </c>
       <c r="H26" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="7"/>
@@ -4471,7 +4471,7 @@
         <v>3</v>
       </c>
       <c r="P26" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="Q26">
         <v>0.1</v>
@@ -4503,7 +4503,7 @@
         <v>cp-100.re-Hi.dr-07.5%</v>
       </c>
       <c r="H27" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="7"/>
@@ -4520,7 +4520,7 @@
         <v>3</v>
       </c>
       <c r="P27" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="Q27">
         <v>7.4999999999999997E-2</v>
@@ -4552,7 +4552,7 @@
         <v>cp-100.re-Hi.dr-05.0%</v>
       </c>
       <c r="H28" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="7"/>
@@ -4569,7 +4569,7 @@
         <v>3</v>
       </c>
       <c r="P28" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="Q28">
         <v>0.05</v>
@@ -4601,7 +4601,7 @@
         <v>cp-100.re-Hi.dr-02.0%</v>
       </c>
       <c r="H29" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="7"/>
@@ -4618,7 +4618,7 @@
         <v>3</v>
       </c>
       <c r="P29" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="Q29">
         <v>0.02</v>
@@ -4650,7 +4650,7 @@
         <v>cp-100.re-Hi.dr-01.0%</v>
       </c>
       <c r="H30" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="7"/>
@@ -4667,7 +4667,7 @@
         <v>3</v>
       </c>
       <c r="P30" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="Q30">
         <v>0.01</v>
@@ -4699,7 +4699,7 @@
         <v>cp-100.re-Ref.dr-10.0%</v>
       </c>
       <c r="H31" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="7"/>
@@ -4716,7 +4716,7 @@
         <v>3</v>
       </c>
       <c r="P31" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="Q31">
         <v>0.1</v>
@@ -4748,7 +4748,7 @@
         <v>cp-100.re-Ref.dr-07.5%</v>
       </c>
       <c r="H32" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="7"/>
@@ -4765,7 +4765,7 @@
         <v>3</v>
       </c>
       <c r="P32" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="Q32">
         <v>7.4999999999999997E-2</v>
@@ -4797,7 +4797,7 @@
         <v>cp-100.re-Ref.dr-05.0%</v>
       </c>
       <c r="H33" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="7"/>
@@ -4814,7 +4814,7 @@
         <v>3</v>
       </c>
       <c r="P33" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="Q33">
         <v>0.05</v>
@@ -4846,7 +4846,7 @@
         <v>cp-100.re-Ref.dr-02.0%</v>
       </c>
       <c r="H34" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="7"/>
@@ -4863,7 +4863,7 @@
         <v>3</v>
       </c>
       <c r="P34" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="Q34">
         <v>0.02</v>
@@ -4895,7 +4895,7 @@
         <v>cp-100.re-Ref.dr-01.0%</v>
       </c>
       <c r="H35" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="7"/>
@@ -4912,7 +4912,7 @@
         <v>3</v>
       </c>
       <c r="P35" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="Q35">
         <v>0.01</v>
@@ -4944,7 +4944,7 @@
         <v>cp-150.re-Hi.dr-10.0%</v>
       </c>
       <c r="H36" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="7"/>
@@ -4961,7 +4961,7 @@
         <v>4</v>
       </c>
       <c r="P36" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="Q36">
         <v>0.1</v>
@@ -4993,7 +4993,7 @@
         <v>cp-150.re-Hi.dr-07.5%</v>
       </c>
       <c r="H37" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="7"/>
@@ -5010,7 +5010,7 @@
         <v>4</v>
       </c>
       <c r="P37" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="Q37">
         <v>7.4999999999999997E-2</v>
@@ -5042,7 +5042,7 @@
         <v>cp-150.re-Hi.dr-05.0%</v>
       </c>
       <c r="H38" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="7"/>
@@ -5059,7 +5059,7 @@
         <v>4</v>
       </c>
       <c r="P38" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="Q38">
         <v>0.05</v>
@@ -5091,7 +5091,7 @@
         <v>cp-150.re-Hi.dr-02.0%</v>
       </c>
       <c r="H39" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="7"/>
@@ -5108,7 +5108,7 @@
         <v>4</v>
       </c>
       <c r="P39" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="Q39">
         <v>0.02</v>
@@ -5140,7 +5140,7 @@
         <v>cp-150.re-Hi.dr-01.0%</v>
       </c>
       <c r="H40" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="7"/>
@@ -5157,7 +5157,7 @@
         <v>4</v>
       </c>
       <c r="P40" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="Q40">
         <v>0.01</v>
@@ -5189,7 +5189,7 @@
         <v>cp-150.re-Ref.dr-10.0%</v>
       </c>
       <c r="H41" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="7"/>
@@ -5206,7 +5206,7 @@
         <v>4</v>
       </c>
       <c r="P41" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="Q41">
         <v>0.1</v>
@@ -5238,7 +5238,7 @@
         <v>cp-150.re-Ref.dr-07.5%</v>
       </c>
       <c r="H42" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="7"/>
@@ -5255,7 +5255,7 @@
         <v>4</v>
       </c>
       <c r="P42" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="Q42">
         <v>7.4999999999999997E-2</v>
@@ -5287,7 +5287,7 @@
         <v>cp-150.re-Ref.dr-05.0%</v>
       </c>
       <c r="H43" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="7"/>
@@ -5304,7 +5304,7 @@
         <v>4</v>
       </c>
       <c r="P43" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="Q43">
         <v>0.05</v>
@@ -5336,7 +5336,7 @@
         <v>cp-150.re-Ref.dr-02.0%</v>
       </c>
       <c r="H44" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="7"/>
@@ -5353,7 +5353,7 @@
         <v>4</v>
       </c>
       <c r="P44" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="Q44">
         <v>0.02</v>
@@ -5385,7 +5385,7 @@
         <v>cp-150.re-Ref.dr-01.0%</v>
       </c>
       <c r="H45" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="7"/>
@@ -5402,7 +5402,7 @@
         <v>4</v>
       </c>
       <c r="P45" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="Q45">
         <v>0.01</v>
@@ -5434,7 +5434,7 @@
         <v>cp-300.re-Hi.dr-10.0%</v>
       </c>
       <c r="H46" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="I46" t="str">
         <f t="shared" si="7"/>
@@ -5451,7 +5451,7 @@
         <v>5</v>
       </c>
       <c r="P46" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="Q46">
         <v>0.1</v>
@@ -5483,7 +5483,7 @@
         <v>cp-300.re-Hi.dr-07.5%</v>
       </c>
       <c r="H47" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="7"/>
@@ -5500,7 +5500,7 @@
         <v>5</v>
       </c>
       <c r="P47" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="Q47">
         <v>7.4999999999999997E-2</v>
@@ -5532,7 +5532,7 @@
         <v>cp-300.re-Hi.dr-05.0%</v>
       </c>
       <c r="H48" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="7"/>
@@ -5549,7 +5549,7 @@
         <v>5</v>
       </c>
       <c r="P48" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="Q48">
         <v>0.05</v>
@@ -5581,7 +5581,7 @@
         <v>cp-300.re-Hi.dr-02.0%</v>
       </c>
       <c r="H49" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="7"/>
@@ -5598,7 +5598,7 @@
         <v>5</v>
       </c>
       <c r="P49" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="Q49">
         <v>0.02</v>
@@ -5630,7 +5630,7 @@
         <v>cp-300.re-Hi.dr-01.0%</v>
       </c>
       <c r="H50" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="7"/>
@@ -5647,7 +5647,7 @@
         <v>5</v>
       </c>
       <c r="P50" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="Q50">
         <v>0.01</v>
@@ -5679,7 +5679,7 @@
         <v>cp-300.re-Ref.dr-10.0%</v>
       </c>
       <c r="H51" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="7"/>
@@ -5696,7 +5696,7 @@
         <v>5</v>
       </c>
       <c r="P51" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="Q51">
         <v>0.1</v>
@@ -5728,7 +5728,7 @@
         <v>cp-300.re-Ref.dr-07.5%</v>
       </c>
       <c r="H52" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="7"/>
@@ -5745,7 +5745,7 @@
         <v>5</v>
       </c>
       <c r="P52" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="Q52">
         <v>7.4999999999999997E-2</v>
@@ -5777,7 +5777,7 @@
         <v>cp-300.re-Ref.dr-05.0%</v>
       </c>
       <c r="H53" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" si="7"/>
@@ -5794,7 +5794,7 @@
         <v>5</v>
       </c>
       <c r="P53" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="Q53">
         <v>0.05</v>
@@ -5826,7 +5826,7 @@
         <v>cp-300.re-Ref.dr-02.0%</v>
       </c>
       <c r="H54" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" si="7"/>
@@ -5843,7 +5843,7 @@
         <v>5</v>
       </c>
       <c r="P54" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="Q54">
         <v>0.02</v>
@@ -5875,7 +5875,7 @@
         <v>cp-300.re-Ref.dr-01.0%</v>
       </c>
       <c r="H55" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" si="7"/>
@@ -5892,7 +5892,7 @@
         <v>5</v>
       </c>
       <c r="P55" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="Q55">
         <v>0.01</v>
@@ -5924,7 +5924,7 @@
         <v>cp-225.re-Hi.dr-10.0%</v>
       </c>
       <c r="H56" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" ref="I56:I65" si="15">P56</f>
@@ -5941,7 +5941,7 @@
         <v>6</v>
       </c>
       <c r="P56" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="Q56">
         <v>0.1</v>
@@ -5973,7 +5973,7 @@
         <v>cp-225.re-Hi.dr-07.5%</v>
       </c>
       <c r="H57" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="15"/>
@@ -5990,7 +5990,7 @@
         <v>6</v>
       </c>
       <c r="P57" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="Q57">
         <v>7.4999999999999997E-2</v>
@@ -6022,7 +6022,7 @@
         <v>cp-225.re-Hi.dr-05.0%</v>
       </c>
       <c r="H58" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" si="15"/>
@@ -6039,7 +6039,7 @@
         <v>6</v>
       </c>
       <c r="P58" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="Q58">
         <v>0.05</v>
@@ -6071,7 +6071,7 @@
         <v>cp-225.re-Hi.dr-02.0%</v>
       </c>
       <c r="H59" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="I59" t="str">
         <f t="shared" si="15"/>
@@ -6088,7 +6088,7 @@
         <v>6</v>
       </c>
       <c r="P59" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="Q59">
         <v>0.02</v>
@@ -6120,7 +6120,7 @@
         <v>cp-225.re-Hi.dr-01.0%</v>
       </c>
       <c r="H60" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="15"/>
@@ -6137,7 +6137,7 @@
         <v>6</v>
       </c>
       <c r="P60" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="Q60">
         <v>0.01</v>
@@ -6169,7 +6169,7 @@
         <v>cp-225.re-Ref.dr-10.0%</v>
       </c>
       <c r="H61" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" si="15"/>
@@ -6186,7 +6186,7 @@
         <v>6</v>
       </c>
       <c r="P61" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="Q61">
         <v>0.1</v>
@@ -6218,7 +6218,7 @@
         <v>cp-225.re-Ref.dr-07.5%</v>
       </c>
       <c r="H62" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" si="15"/>
@@ -6235,7 +6235,7 @@
         <v>6</v>
       </c>
       <c r="P62" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="Q62">
         <v>7.4999999999999997E-2</v>
@@ -6267,7 +6267,7 @@
         <v>cp-225.re-Ref.dr-05.0%</v>
       </c>
       <c r="H63" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="15"/>
@@ -6284,7 +6284,7 @@
         <v>6</v>
       </c>
       <c r="P63" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="Q63">
         <v>0.05</v>
@@ -6316,7 +6316,7 @@
         <v>cp-225.re-Ref.dr-02.0%</v>
       </c>
       <c r="H64" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="I64" t="str">
         <f t="shared" si="15"/>
@@ -6333,7 +6333,7 @@
         <v>6</v>
       </c>
       <c r="P64" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="Q64">
         <v>0.02</v>
@@ -6365,7 +6365,7 @@
         <v>cp-225.re-Ref.dr-01.0%</v>
       </c>
       <c r="H65" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" si="15"/>
@@ -6382,7 +6382,7 @@
         <v>6</v>
       </c>
       <c r="P65" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="Q65">
         <v>0.01</v>
@@ -6462,10 +6462,10 @@
         <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -6473,10 +6473,10 @@
         <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6487,7 +6487,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6495,10 +6495,10 @@
         <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6509,7 +6509,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6517,10 +6517,10 @@
         <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6528,10 +6528,10 @@
         <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6539,10 +6539,10 @@
         <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6551,10 +6551,10 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6562,10 +6562,10 @@
         <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6573,10 +6573,10 @@
         <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6584,10 +6584,10 @@
         <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6595,10 +6595,10 @@
         <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6606,10 +6606,10 @@
         <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6617,10 +6617,10 @@
         <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6628,10 +6628,10 @@
         <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6639,10 +6639,10 @@
         <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6650,54 +6650,54 @@
         <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D24" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -6768,7 +6768,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6776,59 +6776,59 @@
         <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C3" t="s">
+        <v>507</v>
+      </c>
+      <c r="D3" t="s">
+        <v>508</v>
+      </c>
+      <c r="E3" t="s">
         <v>509</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>510</v>
-      </c>
-      <c r="D3" t="s">
-        <v>511</v>
-      </c>
-      <c r="E3" t="s">
-        <v>512</v>
-      </c>
-      <c r="F3" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D4" t="s">
+        <v>513</v>
+      </c>
+      <c r="E4" t="s">
         <v>514</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>515</v>
-      </c>
-      <c r="D4" t="s">
-        <v>516</v>
-      </c>
-      <c r="E4" t="s">
-        <v>517</v>
-      </c>
-      <c r="F4" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6845,30 +6845,30 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F5" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D6" t="s">
+        <v>520</v>
+      </c>
+      <c r="E6" t="s">
         <v>521</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>522</v>
-      </c>
-      <c r="D6" t="s">
-        <v>523</v>
-      </c>
-      <c r="E6" t="s">
-        <v>524</v>
-      </c>
-      <c r="F6" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6876,1599 +6876,1599 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>523</v>
+      </c>
+      <c r="C7" t="s">
+        <v>524</v>
+      </c>
+      <c r="D7" t="s">
+        <v>525</v>
+      </c>
+      <c r="E7" t="s">
         <v>526</v>
       </c>
-      <c r="C7" t="s">
-        <v>527</v>
-      </c>
-      <c r="D7" t="s">
-        <v>528</v>
-      </c>
-      <c r="E7" t="s">
-        <v>529</v>
-      </c>
       <c r="F7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
+        <v>527</v>
+      </c>
+      <c r="C8" t="s">
+        <v>528</v>
+      </c>
+      <c r="D8" t="s">
+        <v>529</v>
+      </c>
+      <c r="E8" t="s">
         <v>530</v>
       </c>
-      <c r="C8" t="s">
-        <v>531</v>
-      </c>
-      <c r="D8" t="s">
-        <v>532</v>
-      </c>
-      <c r="E8" t="s">
-        <v>533</v>
-      </c>
       <c r="F8" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
+        <v>531</v>
+      </c>
+      <c r="C9" t="s">
+        <v>532</v>
+      </c>
+      <c r="D9" t="s">
+        <v>533</v>
+      </c>
+      <c r="E9" t="s">
         <v>534</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
         <v>535</v>
-      </c>
-      <c r="D9" t="s">
-        <v>536</v>
-      </c>
-      <c r="E9" t="s">
-        <v>537</v>
-      </c>
-      <c r="F9" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
+        <v>536</v>
+      </c>
+      <c r="C10" t="s">
+        <v>537</v>
+      </c>
+      <c r="D10" t="s">
+        <v>538</v>
+      </c>
+      <c r="E10" t="s">
         <v>539</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
         <v>540</v>
-      </c>
-      <c r="D10" t="s">
-        <v>541</v>
-      </c>
-      <c r="E10" t="s">
-        <v>542</v>
-      </c>
-      <c r="F10" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E11" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F11" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
+        <v>544</v>
+      </c>
+      <c r="C12" t="s">
+        <v>545</v>
+      </c>
+      <c r="D12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" t="s">
+        <v>546</v>
+      </c>
+      <c r="F12" t="s">
         <v>547</v>
-      </c>
-      <c r="C12" t="s">
-        <v>548</v>
-      </c>
-      <c r="D12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E12" t="s">
-        <v>549</v>
-      </c>
-      <c r="F12" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
+        <v>548</v>
+      </c>
+      <c r="C13" t="s">
+        <v>549</v>
+      </c>
+      <c r="D13" t="s">
+        <v>550</v>
+      </c>
+      <c r="E13" t="s">
         <v>551</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F13" t="s">
         <v>552</v>
-      </c>
-      <c r="D13" t="s">
-        <v>553</v>
-      </c>
-      <c r="E13" t="s">
-        <v>554</v>
-      </c>
-      <c r="F13" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
+        <v>553</v>
+      </c>
+      <c r="C14" t="s">
+        <v>554</v>
+      </c>
+      <c r="D14" t="s">
+        <v>555</v>
+      </c>
+      <c r="E14" t="s">
         <v>556</v>
       </c>
-      <c r="C14" t="s">
+      <c r="F14" t="s">
         <v>557</v>
-      </c>
-      <c r="D14" t="s">
-        <v>558</v>
-      </c>
-      <c r="E14" t="s">
-        <v>559</v>
-      </c>
-      <c r="F14" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
+        <v>558</v>
+      </c>
+      <c r="C15" t="s">
+        <v>559</v>
+      </c>
+      <c r="D15" t="s">
+        <v>560</v>
+      </c>
+      <c r="E15" t="s">
         <v>561</v>
       </c>
-      <c r="C15" t="s">
+      <c r="F15" t="s">
         <v>562</v>
-      </c>
-      <c r="D15" t="s">
-        <v>563</v>
-      </c>
-      <c r="E15" t="s">
-        <v>564</v>
-      </c>
-      <c r="F15" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C16" t="s">
+        <v>564</v>
+      </c>
+      <c r="D16" t="s">
+        <v>565</v>
+      </c>
+      <c r="E16" t="s">
         <v>566</v>
       </c>
-      <c r="C16" t="s">
+      <c r="F16" t="s">
         <v>567</v>
-      </c>
-      <c r="D16" t="s">
-        <v>568</v>
-      </c>
-      <c r="E16" t="s">
-        <v>569</v>
-      </c>
-      <c r="F16" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B17" t="s">
+        <v>568</v>
+      </c>
+      <c r="C17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" t="s">
+        <v>569</v>
+      </c>
+      <c r="E17" t="s">
+        <v>570</v>
+      </c>
+      <c r="F17" t="s">
         <v>571</v>
-      </c>
-      <c r="C17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" t="s">
-        <v>572</v>
-      </c>
-      <c r="E17" t="s">
-        <v>573</v>
-      </c>
-      <c r="F17" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B18" t="s">
+        <v>572</v>
+      </c>
+      <c r="C18" t="s">
+        <v>573</v>
+      </c>
+      <c r="D18" t="s">
+        <v>574</v>
+      </c>
+      <c r="E18" t="s">
         <v>575</v>
       </c>
-      <c r="C18" t="s">
+      <c r="F18" t="s">
         <v>576</v>
-      </c>
-      <c r="D18" t="s">
-        <v>577</v>
-      </c>
-      <c r="E18" t="s">
-        <v>578</v>
-      </c>
-      <c r="F18" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
+        <v>577</v>
+      </c>
+      <c r="C19" t="s">
+        <v>578</v>
+      </c>
+      <c r="D19" t="s">
+        <v>579</v>
+      </c>
+      <c r="E19" t="s">
         <v>580</v>
       </c>
-      <c r="C19" t="s">
+      <c r="F19" t="s">
         <v>581</v>
-      </c>
-      <c r="D19" t="s">
-        <v>582</v>
-      </c>
-      <c r="E19" t="s">
-        <v>583</v>
-      </c>
-      <c r="F19" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B20" t="s">
+        <v>582</v>
+      </c>
+      <c r="C20" t="s">
+        <v>583</v>
+      </c>
+      <c r="D20" t="s">
+        <v>584</v>
+      </c>
+      <c r="E20" t="s">
         <v>585</v>
       </c>
-      <c r="C20" t="s">
-        <v>586</v>
-      </c>
-      <c r="D20" t="s">
-        <v>587</v>
-      </c>
-      <c r="E20" t="s">
-        <v>588</v>
-      </c>
       <c r="F20" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C22" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E22" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F22" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E23" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F23" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E24" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F24" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B25" t="s">
+        <v>592</v>
+      </c>
+      <c r="C25" t="s">
+        <v>593</v>
+      </c>
+      <c r="D25" t="s">
+        <v>594</v>
+      </c>
+      <c r="E25" t="s">
         <v>595</v>
       </c>
-      <c r="C25" t="s">
+      <c r="F25" t="s">
         <v>596</v>
-      </c>
-      <c r="D25" t="s">
-        <v>597</v>
-      </c>
-      <c r="E25" t="s">
-        <v>598</v>
-      </c>
-      <c r="F25" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s">
+        <v>597</v>
+      </c>
+      <c r="C26" t="s">
+        <v>598</v>
+      </c>
+      <c r="D26" t="s">
+        <v>599</v>
+      </c>
+      <c r="E26" t="s">
         <v>600</v>
       </c>
-      <c r="C26" t="s">
+      <c r="F26" t="s">
         <v>601</v>
-      </c>
-      <c r="D26" t="s">
-        <v>602</v>
-      </c>
-      <c r="E26" t="s">
-        <v>603</v>
-      </c>
-      <c r="F26" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s">
+        <v>602</v>
+      </c>
+      <c r="C27" t="s">
+        <v>603</v>
+      </c>
+      <c r="D27" t="s">
+        <v>604</v>
+      </c>
+      <c r="E27" t="s">
         <v>605</v>
       </c>
-      <c r="C27" t="s">
+      <c r="F27" t="s">
         <v>606</v>
-      </c>
-      <c r="D27" t="s">
-        <v>607</v>
-      </c>
-      <c r="E27" t="s">
-        <v>608</v>
-      </c>
-      <c r="F27" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B28" t="s">
+        <v>607</v>
+      </c>
+      <c r="C28" t="s">
+        <v>608</v>
+      </c>
+      <c r="D28" t="s">
+        <v>609</v>
+      </c>
+      <c r="E28" t="s">
         <v>610</v>
       </c>
-      <c r="C28" t="s">
+      <c r="F28" t="s">
         <v>611</v>
-      </c>
-      <c r="D28" t="s">
-        <v>612</v>
-      </c>
-      <c r="E28" t="s">
-        <v>613</v>
-      </c>
-      <c r="F28" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B29" t="s">
+        <v>612</v>
+      </c>
+      <c r="C29" t="s">
+        <v>613</v>
+      </c>
+      <c r="D29" t="s">
+        <v>614</v>
+      </c>
+      <c r="E29" t="s">
         <v>615</v>
       </c>
-      <c r="C29" t="s">
+      <c r="F29" t="s">
         <v>616</v>
-      </c>
-      <c r="D29" t="s">
-        <v>617</v>
-      </c>
-      <c r="E29" t="s">
-        <v>618</v>
-      </c>
-      <c r="F29" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B30" t="s">
+        <v>617</v>
+      </c>
+      <c r="C30" t="s">
+        <v>618</v>
+      </c>
+      <c r="D30" t="s">
+        <v>619</v>
+      </c>
+      <c r="E30" t="s">
         <v>620</v>
       </c>
-      <c r="C30" t="s">
+      <c r="F30" t="s">
         <v>621</v>
-      </c>
-      <c r="D30" t="s">
-        <v>622</v>
-      </c>
-      <c r="E30" t="s">
-        <v>623</v>
-      </c>
-      <c r="F30" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B31" t="s">
+        <v>622</v>
+      </c>
+      <c r="C31" t="s">
+        <v>623</v>
+      </c>
+      <c r="D31" t="s">
+        <v>624</v>
+      </c>
+      <c r="E31" t="s">
         <v>625</v>
       </c>
-      <c r="C31" t="s">
+      <c r="F31" t="s">
         <v>626</v>
-      </c>
-      <c r="D31" t="s">
-        <v>627</v>
-      </c>
-      <c r="E31" t="s">
-        <v>628</v>
-      </c>
-      <c r="F31" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B32" t="s">
+        <v>627</v>
+      </c>
+      <c r="C32" t="s">
+        <v>628</v>
+      </c>
+      <c r="D32" t="s">
+        <v>629</v>
+      </c>
+      <c r="E32" t="s">
         <v>630</v>
       </c>
-      <c r="C32" t="s">
+      <c r="F32" t="s">
         <v>631</v>
-      </c>
-      <c r="D32" t="s">
-        <v>632</v>
-      </c>
-      <c r="E32" t="s">
-        <v>633</v>
-      </c>
-      <c r="F32" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B33" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C33" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D33" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E33" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F33" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B34" t="s">
+        <v>632</v>
+      </c>
+      <c r="C34" t="s">
+        <v>633</v>
+      </c>
+      <c r="D34" t="s">
+        <v>634</v>
+      </c>
+      <c r="E34" t="s">
         <v>635</v>
       </c>
-      <c r="C34" t="s">
+      <c r="F34" t="s">
         <v>636</v>
-      </c>
-      <c r="D34" t="s">
-        <v>637</v>
-      </c>
-      <c r="E34" t="s">
-        <v>638</v>
-      </c>
-      <c r="F34" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B35" t="s">
+        <v>637</v>
+      </c>
+      <c r="C35" t="s">
+        <v>638</v>
+      </c>
+      <c r="D35" t="s">
+        <v>639</v>
+      </c>
+      <c r="E35" t="s">
         <v>640</v>
       </c>
-      <c r="C35" t="s">
+      <c r="F35" t="s">
         <v>641</v>
-      </c>
-      <c r="D35" t="s">
-        <v>642</v>
-      </c>
-      <c r="E35" t="s">
-        <v>643</v>
-      </c>
-      <c r="F35" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B36" t="s">
+        <v>642</v>
+      </c>
+      <c r="C36" t="s">
+        <v>643</v>
+      </c>
+      <c r="D36" t="s">
+        <v>644</v>
+      </c>
+      <c r="E36" t="s">
         <v>645</v>
       </c>
-      <c r="C36" t="s">
+      <c r="F36" t="s">
         <v>646</v>
-      </c>
-      <c r="D36" t="s">
-        <v>647</v>
-      </c>
-      <c r="E36" t="s">
-        <v>648</v>
-      </c>
-      <c r="F36" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B37" t="s">
+        <v>647</v>
+      </c>
+      <c r="C37" t="s">
+        <v>648</v>
+      </c>
+      <c r="D37" t="s">
+        <v>649</v>
+      </c>
+      <c r="E37" t="s">
         <v>650</v>
       </c>
-      <c r="C37" t="s">
+      <c r="F37" t="s">
         <v>651</v>
-      </c>
-      <c r="D37" t="s">
-        <v>652</v>
-      </c>
-      <c r="E37" t="s">
-        <v>653</v>
-      </c>
-      <c r="F37" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B38" t="s">
+        <v>652</v>
+      </c>
+      <c r="C38" t="s">
+        <v>653</v>
+      </c>
+      <c r="D38" t="s">
+        <v>654</v>
+      </c>
+      <c r="E38" t="s">
         <v>655</v>
       </c>
-      <c r="C38" t="s">
+      <c r="F38" t="s">
         <v>656</v>
-      </c>
-      <c r="D38" t="s">
-        <v>657</v>
-      </c>
-      <c r="E38" t="s">
-        <v>658</v>
-      </c>
-      <c r="F38" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B39" t="s">
+        <v>657</v>
+      </c>
+      <c r="C39" t="s">
+        <v>658</v>
+      </c>
+      <c r="D39" t="s">
+        <v>659</v>
+      </c>
+      <c r="E39" t="s">
         <v>660</v>
       </c>
-      <c r="C39" t="s">
+      <c r="F39" t="s">
         <v>661</v>
-      </c>
-      <c r="D39" t="s">
-        <v>662</v>
-      </c>
-      <c r="E39" t="s">
-        <v>663</v>
-      </c>
-      <c r="F39" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B40" t="s">
+        <v>662</v>
+      </c>
+      <c r="C40" t="s">
+        <v>663</v>
+      </c>
+      <c r="D40" t="s">
+        <v>664</v>
+      </c>
+      <c r="E40" t="s">
         <v>665</v>
       </c>
-      <c r="C40" t="s">
+      <c r="F40" t="s">
         <v>666</v>
-      </c>
-      <c r="D40" t="s">
-        <v>667</v>
-      </c>
-      <c r="E40" t="s">
-        <v>668</v>
-      </c>
-      <c r="F40" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B41" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C41" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D41" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E41" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F41" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B42" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C42" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D42" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E42" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F42" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B43" t="s">
+        <v>667</v>
+      </c>
+      <c r="C43" t="s">
+        <v>668</v>
+      </c>
+      <c r="D43" t="s">
+        <v>669</v>
+      </c>
+      <c r="E43" t="s">
         <v>670</v>
       </c>
-      <c r="C43" t="s">
+      <c r="F43" t="s">
         <v>671</v>
-      </c>
-      <c r="D43" t="s">
-        <v>672</v>
-      </c>
-      <c r="E43" t="s">
-        <v>673</v>
-      </c>
-      <c r="F43" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B44" t="s">
+        <v>672</v>
+      </c>
+      <c r="C44" t="s">
+        <v>673</v>
+      </c>
+      <c r="D44" t="s">
+        <v>674</v>
+      </c>
+      <c r="E44" t="s">
         <v>675</v>
       </c>
-      <c r="C44" t="s">
+      <c r="F44" t="s">
         <v>676</v>
-      </c>
-      <c r="D44" t="s">
-        <v>677</v>
-      </c>
-      <c r="E44" t="s">
-        <v>678</v>
-      </c>
-      <c r="F44" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B45" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C45" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D45" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E45" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F45" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B46" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C46" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D46" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E46" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F46" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B47" t="s">
+        <v>677</v>
+      </c>
+      <c r="C47" t="s">
+        <v>678</v>
+      </c>
+      <c r="D47" t="s">
+        <v>679</v>
+      </c>
+      <c r="E47" t="s">
         <v>680</v>
       </c>
-      <c r="C47" t="s">
+      <c r="F47" t="s">
         <v>681</v>
-      </c>
-      <c r="D47" t="s">
-        <v>682</v>
-      </c>
-      <c r="E47" t="s">
-        <v>683</v>
-      </c>
-      <c r="F47" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B48" t="s">
+        <v>682</v>
+      </c>
+      <c r="C48" t="s">
+        <v>683</v>
+      </c>
+      <c r="D48" t="s">
+        <v>684</v>
+      </c>
+      <c r="E48" t="s">
         <v>685</v>
       </c>
-      <c r="C48" t="s">
+      <c r="F48" t="s">
         <v>686</v>
-      </c>
-      <c r="D48" t="s">
-        <v>687</v>
-      </c>
-      <c r="E48" t="s">
-        <v>688</v>
-      </c>
-      <c r="F48" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B49" t="s">
+        <v>687</v>
+      </c>
+      <c r="C49" t="s">
+        <v>688</v>
+      </c>
+      <c r="D49" t="s">
+        <v>689</v>
+      </c>
+      <c r="E49" t="s">
         <v>690</v>
       </c>
-      <c r="C49" t="s">
+      <c r="F49" t="s">
         <v>691</v>
-      </c>
-      <c r="D49" t="s">
-        <v>692</v>
-      </c>
-      <c r="E49" t="s">
-        <v>693</v>
-      </c>
-      <c r="F49" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B50" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C50" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D50" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E50" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F50" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B51" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C51" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D51" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E51" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F51" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B52" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C52" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D52" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E52" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F52" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B53" t="s">
+        <v>692</v>
+      </c>
+      <c r="C53" t="s">
+        <v>693</v>
+      </c>
+      <c r="D53" t="s">
+        <v>694</v>
+      </c>
+      <c r="E53" t="s">
         <v>695</v>
       </c>
-      <c r="C53" t="s">
+      <c r="F53" t="s">
         <v>696</v>
-      </c>
-      <c r="D53" t="s">
-        <v>697</v>
-      </c>
-      <c r="E53" t="s">
-        <v>698</v>
-      </c>
-      <c r="F53" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B54" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C54" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D54" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E54" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F54" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B55" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C55" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D55" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E55" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F55" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B56" t="s">
+        <v>697</v>
+      </c>
+      <c r="C56" t="s">
+        <v>698</v>
+      </c>
+      <c r="D56" t="s">
+        <v>699</v>
+      </c>
+      <c r="E56" t="s">
         <v>700</v>
       </c>
-      <c r="C56" t="s">
-        <v>701</v>
-      </c>
-      <c r="D56" t="s">
-        <v>702</v>
-      </c>
-      <c r="E56" t="s">
-        <v>703</v>
-      </c>
       <c r="F56" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B57" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C57" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D57" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E57" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F57" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B58" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C58" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D58" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E58" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F58" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B59" t="s">
+        <v>701</v>
+      </c>
+      <c r="C59" t="s">
+        <v>702</v>
+      </c>
+      <c r="D59" t="s">
+        <v>703</v>
+      </c>
+      <c r="E59" t="s">
         <v>704</v>
       </c>
-      <c r="C59" t="s">
+      <c r="F59" t="s">
         <v>705</v>
-      </c>
-      <c r="D59" t="s">
-        <v>706</v>
-      </c>
-      <c r="E59" t="s">
-        <v>707</v>
-      </c>
-      <c r="F59" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B60" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C60" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D60" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E60" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F60" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B61" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C61" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D61" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E61" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F61" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B62" t="s">
+        <v>706</v>
+      </c>
+      <c r="C62" t="s">
+        <v>707</v>
+      </c>
+      <c r="D62" t="s">
+        <v>708</v>
+      </c>
+      <c r="E62" t="s">
         <v>709</v>
       </c>
-      <c r="C62" t="s">
+      <c r="F62" t="s">
         <v>710</v>
-      </c>
-      <c r="D62" t="s">
-        <v>711</v>
-      </c>
-      <c r="E62" t="s">
-        <v>712</v>
-      </c>
-      <c r="F62" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B63" t="s">
+        <v>711</v>
+      </c>
+      <c r="C63" t="s">
+        <v>711</v>
+      </c>
+      <c r="D63" t="s">
+        <v>712</v>
+      </c>
+      <c r="E63" t="s">
+        <v>713</v>
+      </c>
+      <c r="F63" t="s">
         <v>714</v>
-      </c>
-      <c r="C63" t="s">
-        <v>714</v>
-      </c>
-      <c r="D63" t="s">
-        <v>715</v>
-      </c>
-      <c r="E63" t="s">
-        <v>716</v>
-      </c>
-      <c r="F63" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B64" t="s">
+        <v>715</v>
+      </c>
+      <c r="C64" t="s">
+        <v>716</v>
+      </c>
+      <c r="D64" t="s">
+        <v>717</v>
+      </c>
+      <c r="E64" t="s">
         <v>718</v>
       </c>
-      <c r="C64" t="s">
+      <c r="F64" t="s">
         <v>719</v>
-      </c>
-      <c r="D64" t="s">
-        <v>720</v>
-      </c>
-      <c r="E64" t="s">
-        <v>721</v>
-      </c>
-      <c r="F64" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B65" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C65" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D65" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E65" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F65" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B66" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C66" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D66" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E66" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F66" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B67" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C67" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D67" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E67" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F67" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B68" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C68" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D68" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E68" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F68" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B69" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C69" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D69" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E69" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F69" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B70" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C70" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D70" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E70" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F70" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B71" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C71" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D71" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E71" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F71" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B72" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C72" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D72" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E72" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F72" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B73" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C73" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D73" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E73" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F73" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B74" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C74" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D74" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E74" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F74" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B75" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C75" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D75" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E75" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F75" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B76" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C76" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D76" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E76" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F76" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B77" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C77" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D77" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E77" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F77" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B78" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C78" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D78" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E78" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F78" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C79" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D79" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E79" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F79" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B80" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C80" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D80" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E80" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F80" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B81" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C81" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D81" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E81" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F81" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B82" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C82" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D82" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E82" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F82" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B83" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C83" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D83" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E83" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F83" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B84" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C84" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D84" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E84" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F84" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B85" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C85" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D85" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E85" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F85" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B86" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C86" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D86" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E86" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F86" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8493,42 +8493,42 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B88" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C88" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D88" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E88" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F88" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B89" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C89" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D89" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E89" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F89" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8613,22 +8613,22 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B94" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C94" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D94" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E94" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F94" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -8682,7 +8682,7 @@
     </row>
     <row r="3" spans="1:13" ht="15" thickTop="1" thickBot="1">
       <c r="A3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -8706,7 +8706,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
@@ -8719,7 +8719,7 @@
         <v>3.1709791983764584</v>
       </c>
       <c r="K4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L4">
         <v>36.779029999999999</v>
@@ -8730,10 +8730,10 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -8743,7 +8743,7 @@
         <v>3.6</v>
       </c>
       <c r="K5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L5">
         <v>-8.8383000000000003</v>
@@ -8754,7 +8754,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
@@ -8766,7 +8766,7 @@
         <v>100</v>
       </c>
       <c r="K6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L6">
         <v>41.327500000000001</v>
@@ -8777,10 +8777,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
@@ -8789,7 +8789,7 @@
         <v>-1</v>
       </c>
       <c r="K7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="L7">
         <v>25.23</v>
@@ -8800,7 +8800,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="K8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L8">
         <v>-34.602499999999999</v>
@@ -8811,7 +8811,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="K9" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L9">
         <v>40.181199999999997</v>
@@ -8899,7 +8899,7 @@
     </row>
     <row r="17" spans="11:13">
       <c r="K17" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L17">
         <v>48.2</v>
@@ -8910,7 +8910,7 @@
     </row>
     <row r="18" spans="11:13">
       <c r="K18" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="L18">
         <v>40.395299999999999</v>
@@ -8921,7 +8921,7 @@
     </row>
     <row r="19" spans="11:13">
       <c r="K19" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L19">
         <v>-3.3761000000000001</v>
@@ -8932,7 +8932,7 @@
     </row>
     <row r="20" spans="11:13">
       <c r="K20" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L20">
         <v>50.833300000000001</v>
@@ -8943,7 +8943,7 @@
     </row>
     <row r="21" spans="11:13">
       <c r="K21" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L21">
         <v>7.1904000000000003</v>
@@ -8954,7 +8954,7 @@
     </row>
     <row r="22" spans="11:13">
       <c r="K22" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L22">
         <v>12.3703</v>
@@ -8965,7 +8965,7 @@
     </row>
     <row r="23" spans="11:13">
       <c r="K23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L23">
         <v>23.723099999999999</v>
@@ -8976,7 +8976,7 @@
     </row>
     <row r="24" spans="11:13">
       <c r="K24" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L24">
         <v>42.683300000000003</v>
@@ -8987,7 +8987,7 @@
     </row>
     <row r="25" spans="11:13">
       <c r="K25" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="L25">
         <v>26.2361</v>
@@ -8998,7 +8998,7 @@
     </row>
     <row r="26" spans="11:13">
       <c r="K26" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L26">
         <v>43.85</v>
@@ -9009,7 +9009,7 @@
     </row>
     <row r="27" spans="11:13">
       <c r="K27" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="L27">
         <v>53.9</v>
@@ -9020,7 +9020,7 @@
     </row>
     <row r="28" spans="11:13">
       <c r="K28" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L28">
         <v>17.498699999999999</v>
@@ -9031,7 +9031,7 @@
     </row>
     <row r="29" spans="11:13">
       <c r="K29" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="L29">
         <v>-17.753900000000002</v>
@@ -9042,7 +9042,7 @@
     </row>
     <row r="30" spans="11:13">
       <c r="K30" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="L30">
         <v>-1.45</v>
@@ -9053,7 +9053,7 @@
     </row>
     <row r="31" spans="11:13">
       <c r="K31" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L31">
         <v>4.8833000000000002</v>
@@ -9064,7 +9064,7 @@
     </row>
     <row r="32" spans="11:13">
       <c r="K32" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L32">
         <v>27.472999999999999</v>
@@ -9075,7 +9075,7 @@
     </row>
     <row r="33" spans="11:13">
       <c r="K33" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L33">
         <v>-24.6463</v>
@@ -9086,7 +9086,7 @@
     </row>
     <row r="34" spans="11:13">
       <c r="K34" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L34">
         <v>4.3666</v>
@@ -9097,7 +9097,7 @@
     </row>
     <row r="35" spans="11:13">
       <c r="K35" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="L35">
         <v>43.7</v>
@@ -9108,7 +9108,7 @@
     </row>
     <row r="36" spans="11:13">
       <c r="K36" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L36">
         <v>47.38</v>
@@ -9119,7 +9119,7 @@
     </row>
     <row r="37" spans="11:13">
       <c r="K37" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L37">
         <v>-33.450000000000003</v>
@@ -9130,7 +9130,7 @@
     </row>
     <row r="38" spans="11:13">
       <c r="K38" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L38">
         <v>39.928899999999999</v>
@@ -9141,7 +9141,7 @@
     </row>
     <row r="39" spans="11:13">
       <c r="K39" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L39">
         <v>5.32</v>
@@ -9152,7 +9152,7 @@
     </row>
     <row r="40" spans="11:13">
       <c r="K40" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="L40">
         <v>3.8666999999999998</v>
@@ -9163,7 +9163,7 @@
     </row>
     <row r="41" spans="11:13">
       <c r="K41" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L41">
         <v>-4.3296999999999999</v>
@@ -9174,7 +9174,7 @@
     </row>
     <row r="42" spans="11:13">
       <c r="K42" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="L42">
         <v>-4.2591999999999999</v>
@@ -9185,7 +9185,7 @@
     </row>
     <row r="43" spans="11:13">
       <c r="K43" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L43">
         <v>4.5964</v>
@@ -9196,7 +9196,7 @@
     </row>
     <row r="44" spans="11:13">
       <c r="K44" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L44">
         <v>9.9347390000000004</v>
@@ -9207,7 +9207,7 @@
     </row>
     <row r="45" spans="11:13">
       <c r="K45" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L45">
         <v>23.132000000000001</v>
@@ -9218,7 +9218,7 @@
     </row>
     <row r="46" spans="11:13">
       <c r="K46" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L46">
         <v>35.166699999999999</v>
@@ -9229,7 +9229,7 @@
     </row>
     <row r="47" spans="11:13">
       <c r="K47" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="L47">
         <v>50.083300000000001</v>
@@ -9240,7 +9240,7 @@
     </row>
     <row r="48" spans="11:13">
       <c r="K48" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L48">
         <v>52.521799999999999</v>
@@ -9251,7 +9251,7 @@
     </row>
     <row r="49" spans="11:13">
       <c r="K49" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L49">
         <v>11.595000000000001</v>
@@ -9262,7 +9262,7 @@
     </row>
     <row r="50" spans="11:13">
       <c r="K50" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L50">
         <v>55.678600000000003</v>
@@ -9273,7 +9273,7 @@
     </row>
     <row r="51" spans="11:13">
       <c r="K51" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L51">
         <v>18.470099999999999</v>
@@ -9284,7 +9284,7 @@
     </row>
     <row r="52" spans="11:13">
       <c r="K52" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L52">
         <v>36.763100000000001</v>
@@ -9295,7 +9295,7 @@
     </row>
     <row r="53" spans="11:13">
       <c r="K53" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L53">
         <v>-2.2200000000000002</v>
@@ -9306,7 +9306,7 @@
     </row>
     <row r="54" spans="11:13">
       <c r="K54" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L54">
         <v>30.05</v>
@@ -9317,7 +9317,7 @@
     </row>
     <row r="55" spans="11:13">
       <c r="K55" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L55">
         <v>15.333299999999999</v>
@@ -9328,7 +9328,7 @@
     </row>
     <row r="56" spans="11:13">
       <c r="K56" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L56">
         <v>27.15</v>
@@ -9339,7 +9339,7 @@
     </row>
     <row r="57" spans="11:13">
       <c r="K57" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L57">
         <v>40.4</v>
@@ -9350,7 +9350,7 @@
     </row>
     <row r="58" spans="11:13">
       <c r="K58" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L58">
         <v>59.436962000000001</v>
@@ -9361,7 +9361,7 @@
     </row>
     <row r="59" spans="11:13">
       <c r="K59" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L59">
         <v>13.5</v>
@@ -9372,7 +9372,7 @@
     </row>
     <row r="60" spans="11:13">
       <c r="K60" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="L60">
         <v>60.175600000000003</v>
@@ -9383,7 +9383,7 @@
     </row>
     <row r="61" spans="11:13">
       <c r="K61" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L61">
         <v>48.866700000000002</v>
@@ -9394,7 +9394,7 @@
     </row>
     <row r="62" spans="11:13">
       <c r="K62" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L62">
         <v>0.38540000000000002</v>
@@ -9405,7 +9405,7 @@
     </row>
     <row r="63" spans="11:13">
       <c r="K63" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L63">
         <v>51.5</v>
@@ -9416,7 +9416,7 @@
     </row>
     <row r="64" spans="11:13">
       <c r="K64" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="L64">
         <v>41.725000000000001</v>
@@ -9427,7 +9427,7 @@
     </row>
     <row r="65" spans="11:13">
       <c r="K65" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L65">
         <v>6.69</v>
@@ -9438,7 +9438,7 @@
     </row>
     <row r="66" spans="11:13">
       <c r="K66" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L66">
         <v>9.5314999999999994</v>
@@ -9449,7 +9449,7 @@
     </row>
     <row r="67" spans="11:13">
       <c r="K67" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L67">
         <v>13.448395</v>
@@ -9460,7 +9460,7 @@
     </row>
     <row r="68" spans="11:13">
       <c r="K68" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L68">
         <v>11.865</v>
@@ -9471,7 +9471,7 @@
     </row>
     <row r="69" spans="11:13">
       <c r="K69" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L69">
         <v>1.87</v>
@@ -9482,7 +9482,7 @@
     </row>
     <row r="70" spans="11:13">
       <c r="K70" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L70">
         <v>37.9833</v>
@@ -9493,7 +9493,7 @@
     </row>
     <row r="71" spans="11:13">
       <c r="K71" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="L71">
         <v>60.270832249999998</v>
@@ -9504,7 +9504,7 @@
     </row>
     <row r="72" spans="11:13">
       <c r="K72" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L72">
         <v>14.6211</v>
@@ -9515,7 +9515,7 @@
     </row>
     <row r="73" spans="11:13">
       <c r="K73" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L73">
         <v>4.9223999999999997</v>
@@ -9526,7 +9526,7 @@
     </row>
     <row r="74" spans="11:13">
       <c r="K74" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L74">
         <v>6.8019999999999996</v>
@@ -9537,7 +9537,7 @@
     </row>
     <row r="75" spans="11:13">
       <c r="K75" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L75">
         <v>14.102</v>
@@ -9548,7 +9548,7 @@
     </row>
     <row r="76" spans="11:13">
       <c r="K76" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="L76">
         <v>45.8</v>
@@ -9559,7 +9559,7 @@
     </row>
     <row r="77" spans="11:13">
       <c r="K77" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="L77">
         <v>18.533332999999999</v>
@@ -9570,7 +9570,7 @@
     </row>
     <row r="78" spans="11:13">
       <c r="K78" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L78">
         <v>47.5</v>
@@ -9581,7 +9581,7 @@
     </row>
     <row r="79" spans="11:13">
       <c r="K79" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="L79">
         <v>-6.1744000000000003</v>
@@ -9592,7 +9592,7 @@
     </row>
     <row r="80" spans="11:13">
       <c r="K80" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L80">
         <v>28.67</v>
@@ -9603,7 +9603,7 @@
     </row>
     <row r="81" spans="11:13">
       <c r="K81" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L81">
         <v>53.333100000000002</v>
@@ -9614,7 +9614,7 @@
     </row>
     <row r="82" spans="11:13">
       <c r="K82" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L82">
         <v>35.671900000000001</v>
@@ -9625,7 +9625,7 @@
     </row>
     <row r="83" spans="11:13">
       <c r="K83" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L83">
         <v>33.3386</v>
@@ -9636,7 +9636,7 @@
     </row>
     <row r="84" spans="11:13">
       <c r="K84" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="L84">
         <v>64.150000000000006</v>
@@ -9647,7 +9647,7 @@
     </row>
     <row r="85" spans="11:13">
       <c r="K85" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="L85">
         <v>32.08</v>
@@ -9658,7 +9658,7 @@
     </row>
     <row r="86" spans="11:13">
       <c r="K86" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="L86">
         <v>41.896000000000001</v>
@@ -9669,7 +9669,7 @@
     </row>
     <row r="87" spans="11:13">
       <c r="K87" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="L87">
         <v>17.9771</v>
@@ -9680,7 +9680,7 @@
     </row>
     <row r="88" spans="11:13">
       <c r="K88" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L88">
         <v>31.95</v>
@@ -9691,7 +9691,7 @@
     </row>
     <row r="89" spans="11:13">
       <c r="K89" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="L89">
         <v>35.685000000000002</v>
@@ -9702,7 +9702,7 @@
     </row>
     <row r="90" spans="11:13">
       <c r="K90" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L90">
         <v>43.325000000000003</v>
@@ -9713,7 +9713,7 @@
     </row>
     <row r="91" spans="11:13">
       <c r="K91" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L91">
         <v>-1.2833000000000001</v>
@@ -9724,7 +9724,7 @@
     </row>
     <row r="92" spans="11:13">
       <c r="K92" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="L92">
         <v>42.873100000000001</v>
@@ -9735,7 +9735,7 @@
     </row>
     <row r="93" spans="11:13">
       <c r="K93" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="L93">
         <v>11.55</v>
@@ -9746,7 +9746,7 @@
     </row>
     <row r="94" spans="11:13">
       <c r="K94" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L94">
         <v>37.566299999999998</v>
@@ -9757,7 +9757,7 @@
     </row>
     <row r="95" spans="11:13">
       <c r="K95" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L95">
         <v>42.6629</v>
@@ -9768,7 +9768,7 @@
     </row>
     <row r="96" spans="11:13">
       <c r="K96" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="L96">
         <v>29.369700000000002</v>
@@ -9779,7 +9779,7 @@
     </row>
     <row r="97" spans="11:13">
       <c r="K97" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L97">
         <v>17.966699999999999</v>
@@ -9790,7 +9790,7 @@
     </row>
     <row r="98" spans="11:13">
       <c r="K98" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L98">
         <v>33.872</v>
@@ -9801,7 +9801,7 @@
     </row>
     <row r="99" spans="11:13">
       <c r="K99" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L99">
         <v>6.3106</v>
@@ -9812,7 +9812,7 @@
     </row>
     <row r="100" spans="11:13">
       <c r="K100" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L100">
         <v>32.892499999999998</v>
@@ -9823,7 +9823,7 @@
     </row>
     <row r="101" spans="11:13">
       <c r="K101" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="L101">
         <v>6.9320000000000004</v>
@@ -9834,7 +9834,7 @@
     </row>
     <row r="102" spans="11:13">
       <c r="K102" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L102">
         <v>-29.316700000000001</v>
@@ -9845,7 +9845,7 @@
     </row>
     <row r="103" spans="11:13">
       <c r="K103" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="L103">
         <v>54.683399999999999</v>
@@ -9856,7 +9856,7 @@
     </row>
     <row r="104" spans="11:13">
       <c r="K104" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="L104">
         <v>49.611621999999997</v>
@@ -9867,7 +9867,7 @@
     </row>
     <row r="105" spans="11:13">
       <c r="K105" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="L105">
         <v>56.95</v>
@@ -9878,7 +9878,7 @@
     </row>
     <row r="106" spans="11:13">
       <c r="K106" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="L106">
         <v>33.6</v>
@@ -9889,7 +9889,7 @@
     </row>
     <row r="107" spans="11:13">
       <c r="K107" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="L107">
         <v>47.005000000000003</v>
@@ -9900,7 +9900,7 @@
     </row>
     <row r="108" spans="11:13">
       <c r="K108" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="L108">
         <v>-18.916599999999999</v>
@@ -9911,7 +9911,7 @@
     </row>
     <row r="109" spans="11:13">
       <c r="K109" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="L109">
         <v>19.442399999999999</v>
@@ -9922,7 +9922,7 @@
     </row>
     <row r="110" spans="11:13">
       <c r="K110" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="L110">
         <v>42</v>
@@ -9933,7 +9933,7 @@
     </row>
     <row r="111" spans="11:13">
       <c r="K111" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="L111">
         <v>12.65</v>
@@ -9944,7 +9944,7 @@
     </row>
     <row r="112" spans="11:13">
       <c r="K112" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="L112">
         <v>35.899700000000003</v>
@@ -9955,7 +9955,7 @@
     </row>
     <row r="113" spans="11:13">
       <c r="K113" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="L113">
         <v>16.871310999999999</v>
@@ -9966,7 +9966,7 @@
     </row>
     <row r="114" spans="11:13">
       <c r="K114" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L114">
         <v>42.442574</v>
@@ -9977,7 +9977,7 @@
     </row>
     <row r="115" spans="11:13">
       <c r="K115" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="L115">
         <v>47.916699999999999</v>
@@ -9988,7 +9988,7 @@
     </row>
     <row r="116" spans="11:13">
       <c r="K116" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="L116">
         <v>-25.9696</v>
@@ -9999,7 +9999,7 @@
     </row>
     <row r="117" spans="11:13">
       <c r="K117" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="L117">
         <v>18.086400000000001</v>
@@ -10010,7 +10010,7 @@
     </row>
     <row r="118" spans="11:13">
       <c r="K118" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="L118">
         <v>-13.9833</v>
@@ -10021,7 +10021,7 @@
     </row>
     <row r="119" spans="11:13">
       <c r="K119" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="L119">
         <v>3.1667000000000001</v>
@@ -10032,7 +10032,7 @@
     </row>
     <row r="120" spans="11:13">
       <c r="K120" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="L120">
         <v>-22.57</v>
@@ -10043,7 +10043,7 @@
     </row>
     <row r="121" spans="11:13">
       <c r="K121" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="L121">
         <v>13.5167</v>
@@ -10054,7 +10054,7 @@
     </row>
     <row r="122" spans="11:13">
       <c r="K122" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="L122">
         <v>6.4432999999999998</v>
@@ -10065,7 +10065,7 @@
     </row>
     <row r="123" spans="11:13">
       <c r="K123" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="L123">
         <v>12.153</v>
@@ -10076,7 +10076,7 @@
     </row>
     <row r="124" spans="11:13">
       <c r="K124" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="L124">
         <v>52.35</v>
@@ -10087,7 +10087,7 @@
     </row>
     <row r="125" spans="11:13">
       <c r="K125" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L125">
         <v>59.916699999999999</v>
@@ -10098,7 +10098,7 @@
     </row>
     <row r="126" spans="11:13">
       <c r="K126" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="L126">
         <v>27.716699999999999</v>
@@ -10109,7 +10109,7 @@
     </row>
     <row r="127" spans="11:13">
       <c r="K127" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L127">
         <v>-36.848100000000002</v>
@@ -10120,7 +10120,7 @@
     </row>
     <row r="128" spans="11:13">
       <c r="K128" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="L128">
         <v>23.613299999999999</v>
@@ -10131,7 +10131,7 @@
     </row>
     <row r="129" spans="11:13">
       <c r="K129" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L129">
         <v>24.87</v>
@@ -10142,7 +10142,7 @@
     </row>
     <row r="130" spans="11:13">
       <c r="K130" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="L130">
         <v>8.968</v>
@@ -10153,7 +10153,7 @@
     </row>
     <row r="131" spans="11:13">
       <c r="K131" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="L131">
         <v>-12.048</v>
@@ -10164,7 +10164,7 @@
     </row>
     <row r="132" spans="11:13">
       <c r="K132" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="L132">
         <v>14.604200000000001</v>
@@ -10175,7 +10175,7 @@
     </row>
     <row r="133" spans="11:13">
       <c r="K133" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="L133">
         <v>-9.4647000000000006</v>
@@ -10186,7 +10186,7 @@
     </row>
     <row r="134" spans="11:13">
       <c r="K134" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L134">
         <v>52.25</v>
@@ -10197,7 +10197,7 @@
     </row>
     <row r="135" spans="11:13">
       <c r="K135" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L135">
         <v>39.019399999999997</v>
@@ -10208,7 +10208,7 @@
     </row>
     <row r="136" spans="11:13">
       <c r="K136" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L136">
         <v>38.722700000000003</v>
@@ -10219,7 +10219,7 @@
     </row>
     <row r="137" spans="11:13">
       <c r="K137" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L137">
         <v>-25.296399999999998</v>
@@ -10230,7 +10230,7 @@
     </row>
     <row r="138" spans="11:13">
       <c r="K138" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L138">
         <v>25.291899999999998</v>
@@ -10241,7 +10241,7 @@
     </row>
     <row r="139" spans="11:13">
       <c r="K139" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L139">
         <v>44.433399999999999</v>
@@ -10252,7 +10252,7 @@
     </row>
     <row r="140" spans="11:13">
       <c r="K140" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="L140">
         <v>55.749899999999997</v>
@@ -10263,7 +10263,7 @@
     </row>
     <row r="141" spans="11:13">
       <c r="K141" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="L141">
         <v>-1.9536</v>
@@ -10274,7 +10274,7 @@
     </row>
     <row r="142" spans="11:13">
       <c r="K142" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="L142">
         <v>24.640799999999999</v>
@@ -10285,7 +10285,7 @@
     </row>
     <row r="143" spans="11:13">
       <c r="K143" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="L143">
         <v>15.588100000000001</v>
@@ -10296,7 +10296,7 @@
     </row>
     <row r="144" spans="11:13">
       <c r="K144" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="L144">
         <v>14.7158</v>
@@ -10307,7 +10307,7 @@
     </row>
     <row r="145" spans="11:13">
       <c r="K145" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="L145">
         <v>1.2929999999999999</v>
@@ -10318,7 +10318,7 @@
     </row>
     <row r="146" spans="11:13">
       <c r="K146" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L146">
         <v>8.4700000000000006</v>
@@ -10329,7 +10329,7 @@
     </row>
     <row r="147" spans="11:13">
       <c r="K147" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L147">
         <v>13.71</v>
@@ -10340,7 +10340,7 @@
     </row>
     <row r="148" spans="11:13">
       <c r="K148" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="L148">
         <v>2.0667</v>
@@ -10351,7 +10351,7 @@
     </row>
     <row r="149" spans="11:13">
       <c r="K149" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="L149">
         <v>44.818600000000004</v>
@@ -10362,7 +10362,7 @@
     </row>
     <row r="150" spans="11:13">
       <c r="K150" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L150">
         <v>5.835</v>
@@ -10373,7 +10373,7 @@
     </row>
     <row r="151" spans="11:13">
       <c r="K151" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L151">
         <v>48.15</v>
@@ -10384,7 +10384,7 @@
     </row>
     <row r="152" spans="11:13">
       <c r="K152" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="L152">
         <v>46.055300000000003</v>
@@ -10395,7 +10395,7 @@
     </row>
     <row r="153" spans="11:13">
       <c r="K153" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="L153">
         <v>59.3508</v>
@@ -10406,7 +10406,7 @@
     </row>
     <row r="154" spans="11:13">
       <c r="K154" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="L154">
         <v>-26.495000000000001</v>
@@ -10417,7 +10417,7 @@
     </row>
     <row r="155" spans="11:13">
       <c r="K155" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="L155">
         <v>33.5</v>
@@ -10428,7 +10428,7 @@
     </row>
     <row r="156" spans="11:13">
       <c r="K156" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L156">
         <v>12.113099999999999</v>
@@ -10439,7 +10439,7 @@
     </row>
     <row r="157" spans="11:13">
       <c r="K157" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="L157">
         <v>6.1318999999999999</v>
@@ -10450,7 +10450,7 @@
     </row>
     <row r="158" spans="11:13">
       <c r="K158" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="L158">
         <v>13.75</v>
@@ -10461,7 +10461,7 @@
     </row>
     <row r="159" spans="11:13">
       <c r="K159" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="L159">
         <v>38.56</v>
@@ -10472,7 +10472,7 @@
     </row>
     <row r="160" spans="11:13">
       <c r="K160" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="L160">
         <v>37.950000000000003</v>
@@ -10483,7 +10483,7 @@
     </row>
     <row r="161" spans="11:13">
       <c r="K161" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L161">
         <v>-8.5594000000000001</v>
@@ -10494,7 +10494,7 @@
     </row>
     <row r="162" spans="11:13">
       <c r="K162" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="L162">
         <v>10.651999999999999</v>
@@ -10505,7 +10505,7 @@
     </row>
     <row r="163" spans="11:13">
       <c r="K163" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="L163">
         <v>36.802799999999998</v>
@@ -10516,7 +10516,7 @@
     </row>
     <row r="164" spans="11:13">
       <c r="K164" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L164">
         <v>41.104999999999997</v>
@@ -10527,7 +10527,7 @@
     </row>
     <row r="165" spans="11:13">
       <c r="K165" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="L165">
         <v>25.035799999999998</v>
@@ -10538,7 +10538,7 @@
     </row>
     <row r="166" spans="11:13">
       <c r="K166" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="L166">
         <v>-6.8</v>
@@ -10549,7 +10549,7 @@
     </row>
     <row r="167" spans="11:13">
       <c r="K167" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L167">
         <v>0.31669999999999998</v>
@@ -10560,7 +10560,7 @@
     </row>
     <row r="168" spans="11:13">
       <c r="K168" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L168">
         <v>50.434341000000003</v>
@@ -10571,7 +10571,7 @@
     </row>
     <row r="169" spans="11:13">
       <c r="K169" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="L169">
         <v>-34.857999999999997</v>
@@ -10582,7 +10582,7 @@
     </row>
     <row r="170" spans="11:13">
       <c r="K170" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="L170">
         <v>44.963500000000003</v>
@@ -10593,7 +10593,7 @@
     </row>
     <row r="171" spans="11:13">
       <c r="K171" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L171">
         <v>41.311700000000002</v>
@@ -10604,7 +10604,7 @@
     </row>
     <row r="172" spans="11:13">
       <c r="K172" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="L172">
         <v>10.5</v>
@@ -10615,7 +10615,7 @@
     </row>
     <row r="173" spans="11:13">
       <c r="K173" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L173">
         <v>10.810582999999999</v>
@@ -10626,7 +10626,7 @@
     </row>
     <row r="174" spans="11:13">
       <c r="K174" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L174">
         <v>15.354699999999999</v>
@@ -10637,7 +10637,7 @@
     </row>
     <row r="175" spans="11:13">
       <c r="K175" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L175">
         <v>-26.17</v>
@@ -10648,7 +10648,7 @@
     </row>
     <row r="176" spans="11:13">
       <c r="K176" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="L176">
         <v>-15.416600000000001</v>
@@ -10659,7 +10659,7 @@
     </row>
     <row r="177" spans="11:13">
       <c r="K177" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="L177">
         <v>-17.817799999999998</v>
@@ -10670,7 +10670,7 @@
     </row>
     <row r="178" spans="11:13">
       <c r="K178" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="L178">
         <v>4.8539000000000003</v>
@@ -10786,19 +10786,19 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K3" t="s">
         <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -10806,16 +10806,16 @@
         <v>6</v>
       </c>
       <c r="H4" t="s">
+        <v>777</v>
+      </c>
+      <c r="K4" t="s">
+        <v>778</v>
+      </c>
+      <c r="N4" t="s">
+        <v>779</v>
+      </c>
+      <c r="P4" t="s">
         <v>780</v>
-      </c>
-      <c r="K4" t="s">
-        <v>781</v>
-      </c>
-      <c r="N4" t="s">
-        <v>782</v>
-      </c>
-      <c r="P4" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -10823,16 +10823,16 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="K5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="N5" t="s">
         <v>60</v>
       </c>
       <c r="P5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -10840,16 +10840,16 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K6" t="s">
+        <v>298</v>
+      </c>
+      <c r="N6" t="s">
         <v>301</v>
       </c>
-      <c r="N6" t="s">
-        <v>304</v>
-      </c>
       <c r="P6" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -10857,20 +10857,20 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I7" s="2"/>
       <c r="K7" t="s">
         <v>37</v>
       </c>
       <c r="N7" t="s">
+        <v>806</v>
+      </c>
+      <c r="P7" t="s">
         <v>809</v>
-      </c>
-      <c r="P7" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -10878,19 +10878,19 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K8" t="s">
         <v>37</v>
       </c>
       <c r="N8" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="P8" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -10898,19 +10898,19 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K9" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N9" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="P9" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -10918,19 +10918,19 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K10" t="s">
         <v>37</v>
       </c>
       <c r="N10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="P10" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -10938,19 +10938,19 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K11" t="s">
         <v>37</v>
       </c>
       <c r="N11" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="P11" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -10958,16 +10958,16 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="K12" t="s">
         <v>9</v>
       </c>
       <c r="N12" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P12" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -10975,62 +10975,62 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H13" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K13" t="s">
         <v>37</v>
       </c>
       <c r="N13" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="P13" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B14" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="I14" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="K14" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="N14" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="P14" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="Q14" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B15" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C15" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="K15" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="N15" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="P15" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="Q15" t="s">
         <v>59</v>
@@ -11038,33 +11038,33 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
+        <v>821</v>
+      </c>
+      <c r="K16" t="s">
+        <v>822</v>
+      </c>
+      <c r="N16" t="s">
+        <v>823</v>
+      </c>
+      <c r="P16" t="s">
         <v>824</v>
-      </c>
-      <c r="K16" t="s">
-        <v>825</v>
-      </c>
-      <c r="N16" t="s">
-        <v>826</v>
-      </c>
-      <c r="P16" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
+        <v>825</v>
+      </c>
+      <c r="K17" t="s">
+        <v>822</v>
+      </c>
+      <c r="N17" t="s">
+        <v>827</v>
+      </c>
+      <c r="P17" t="s">
         <v>828</v>
       </c>
-      <c r="K17" t="s">
-        <v>825</v>
-      </c>
-      <c r="N17" t="s">
-        <v>830</v>
-      </c>
-      <c r="P17" t="s">
-        <v>831</v>
-      </c>
       <c r="Q17" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
   </sheetData>
@@ -11133,10 +11133,10 @@
     </row>
     <row r="3" spans="3:13">
       <c r="C3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E3" t="s">
         <v>68</v>
@@ -11156,13 +11156,13 @@
         <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E4" t="s">
         <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I4" t="s">
         <v>70</v>
@@ -11173,10 +11173,10 @@
     </row>
     <row r="5" spans="3:13">
       <c r="C5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D5" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E5" t="s">
         <v>72</v>
@@ -11219,7 +11219,7 @@
   <sheetData>
     <row r="3" spans="2:13" ht="17.25" thickBot="1">
       <c r="B3" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="15" thickTop="1" thickBot="1">
@@ -11230,13 +11230,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>0</v>
@@ -11257,7 +11257,7 @@
         <v>64</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="2:13">
@@ -11274,13 +11274,13 @@
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="G5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H5" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="L5" t="s">
         <v>38</v>
@@ -11291,7 +11291,7 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="str">
@@ -11300,10 +11300,10 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H6" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="L6" t="s">
         <v>38</v>
@@ -11322,13 +11322,13 @@
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="G7" t="s">
         <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="L7" t="s">
         <v>38</v>
@@ -11347,13 +11347,13 @@
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="G8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H8" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="L8" t="s">
         <v>38</v>
@@ -11372,13 +11372,13 @@
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="G9" t="s">
         <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="L9" t="s">
         <v>38</v>
@@ -11389,17 +11389,17 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E10" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="G10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H10" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="L10" t="s">
         <v>38</v>
@@ -11410,7 +11410,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E11" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
@@ -11420,7 +11420,7 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="L11" t="s">
         <v>38</v>
@@ -11478,12 +11478,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -11494,23 +11494,23 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -11518,15 +11518,15 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -11534,106 +11534,106 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -11657,12 +11657,12 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -11673,156 +11673,156 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B3" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G3" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G4" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H4" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G5" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H5" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G8" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="H8" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G9" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="H9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G10" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="H10" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B12" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B13" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B14" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B15" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B16" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -11840,7 +11840,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -11856,684 +11856,684 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>756</v>
+      </c>
+      <c r="B3" t="s">
+        <v>722</v>
+      </c>
+      <c r="C3" t="s">
         <v>759</v>
-      </c>
-      <c r="B3" t="s">
-        <v>725</v>
-      </c>
-      <c r="C3" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B4" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C4" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B5" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C5" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B6" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C6" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B7" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C7" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C8" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B9" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C9" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B10" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C10" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B11" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C11" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B12" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C12" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B13" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C13" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B14" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C14" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B15" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C15" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B16" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C16" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B17" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C17" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B18" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C18" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B19" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C19" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B20" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C20" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B21" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C21" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C22" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B23" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C23" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B24" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C24" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B25" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C25" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B26" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C26" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B27" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C27" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B28" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C28" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B29" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C29" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B30" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C30" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B31" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C31" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B32" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C32" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B33" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C33" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B34" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C34" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B35" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C35" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B36" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C36" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B37" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C37" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B38" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C38" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B39" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C39" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B40" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C40" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B41" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C41" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B42" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C42" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B43" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C43" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B44" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C44" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B45" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C45" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B46" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C46" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B47" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C47" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B48" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C48" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B49" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C49" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B50" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C50" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B51" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C51" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B52" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C52" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B53" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C53" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B54" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C54" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B55" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C55" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B56" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C56" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B57" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C57" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B58" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C58" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B59" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C59" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B60" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C60" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B61" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C61" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B62" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C62" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B63" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C63" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B64" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C64" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
   </sheetData>
@@ -12545,7 +12545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ADB714-E6AA-4E3E-B77B-62B65BA0E218}">
   <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
@@ -12576,7 +12576,7 @@
         <v>50</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12584,10 +12584,10 @@
         <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -12595,153 +12595,153 @@
         <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" t="s">
         <v>167</v>
       </c>
-      <c r="C5" t="s">
-        <v>170</v>
-      </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" t="s">
         <v>167</v>
       </c>
-      <c r="C11" t="s">
-        <v>170</v>
-      </c>
       <c r="D11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -12749,10 +12749,10 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D18" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -12760,10 +12760,10 @@
         <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -12771,10 +12771,10 @@
         <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -12782,10 +12782,10 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -12793,10 +12793,10 @@
         <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -12804,10 +12804,10 @@
         <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D23" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -12815,10 +12815,10 @@
         <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -12826,10 +12826,10 @@
         <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -12837,10 +12837,10 @@
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D26" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -12848,10 +12848,10 @@
         <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D27" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -12859,10 +12859,10 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D28" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -12870,10 +12870,10 @@
         <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D29" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -12881,10 +12881,10 @@
         <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D30" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -12892,208 +12892,208 @@
         <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D31" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C32" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D32" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C33" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D33" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C34" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D34" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C35" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D35" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C36" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D36" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D37" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C38" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D38" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C39" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D39" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C40" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D40" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C41" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D41" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C42" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D42" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C43" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D43" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C44" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D44" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C45" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D45" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C46" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D46" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C47" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D47" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C48" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D48" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C49" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D49" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -13101,10 +13101,10 @@
         <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D50" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -13112,10 +13112,10 @@
         <v>43</v>
       </c>
       <c r="C51" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D51" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -13123,211 +13123,211 @@
         <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C52" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E52" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C53" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E53" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C54" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E54" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C55" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E55" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C56" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E56" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C57" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E57" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C58" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E58" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C59" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E59" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
+        <v>221</v>
+      </c>
+      <c r="C60" t="s">
+        <v>225</v>
+      </c>
+      <c r="D60" t="s">
         <v>224</v>
-      </c>
-      <c r="C60" t="s">
-        <v>228</v>
-      </c>
-      <c r="D60" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C61" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D61" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C62" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D62" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C63" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D63" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C64" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D64" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C65" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D65" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C66" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D66" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C67" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="E67" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C68" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="E68" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C69" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E69" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C70" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="E70" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -13335,10 +13335,10 @@
         <v>51</v>
       </c>
       <c r="C71" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D71" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -13346,10 +13346,10 @@
         <v>51</v>
       </c>
       <c r="C72" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D72" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -13357,10 +13357,10 @@
         <v>51</v>
       </c>
       <c r="C73" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D73" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -13368,10 +13368,10 @@
         <v>51</v>
       </c>
       <c r="C74" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D74" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -13382,7 +13382,7 @@
         <v>3</v>
       </c>
       <c r="D75" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -13390,10 +13390,10 @@
         <v>51</v>
       </c>
       <c r="C76" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D76" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -13404,7 +13404,7 @@
         <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -13412,10 +13412,10 @@
         <v>51</v>
       </c>
       <c r="C78" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D78" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -13423,10 +13423,10 @@
         <v>51</v>
       </c>
       <c r="C79" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D79" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -13434,10 +13434,10 @@
         <v>51</v>
       </c>
       <c r="C80" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D80" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -13445,10 +13445,10 @@
         <v>51</v>
       </c>
       <c r="C81" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D81" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -13456,10 +13456,10 @@
         <v>51</v>
       </c>
       <c r="C82" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D82" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -13467,10 +13467,10 @@
         <v>51</v>
       </c>
       <c r="C83" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D83" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -13478,10 +13478,10 @@
         <v>51</v>
       </c>
       <c r="C84" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D84" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -13489,10 +13489,10 @@
         <v>51</v>
       </c>
       <c r="C85" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D85" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -13500,10 +13500,10 @@
         <v>51</v>
       </c>
       <c r="C86" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D86" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -13511,10 +13511,10 @@
         <v>51</v>
       </c>
       <c r="C87" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D87" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -13522,10 +13522,10 @@
         <v>51</v>
       </c>
       <c r="C88" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D88" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -13533,10 +13533,10 @@
         <v>51</v>
       </c>
       <c r="C89" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D89" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -13544,10 +13544,10 @@
         <v>51</v>
       </c>
       <c r="C90" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D90" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -13555,10 +13555,10 @@
         <v>51</v>
       </c>
       <c r="C91" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D91" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -13566,10 +13566,10 @@
         <v>51</v>
       </c>
       <c r="C92" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D92" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -13577,10 +13577,10 @@
         <v>51</v>
       </c>
       <c r="C93" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D93" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -13588,10 +13588,10 @@
         <v>51</v>
       </c>
       <c r="C94" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D94" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -13599,10 +13599,10 @@
         <v>51</v>
       </c>
       <c r="C95" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D95" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -13613,7 +13613,7 @@
         <v>36</v>
       </c>
       <c r="D96" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -13624,7 +13624,7 @@
         <v>36</v>
       </c>
       <c r="D97" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -13632,10 +13632,10 @@
         <v>51</v>
       </c>
       <c r="C98" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D98" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -13643,10 +13643,10 @@
         <v>51</v>
       </c>
       <c r="C99" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D99" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -13657,7 +13657,7 @@
         <v>3</v>
       </c>
       <c r="D100" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -13668,7 +13668,7 @@
         <v>4</v>
       </c>
       <c r="D101" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -13676,10 +13676,10 @@
         <v>51</v>
       </c>
       <c r="C102" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D102" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -13687,10 +13687,10 @@
         <v>51</v>
       </c>
       <c r="C103" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D103" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -13698,10 +13698,10 @@
         <v>51</v>
       </c>
       <c r="C104" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D104" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -13709,10 +13709,10 @@
         <v>51</v>
       </c>
       <c r="C105" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D105" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -13720,10 +13720,10 @@
         <v>51</v>
       </c>
       <c r="C106" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D106" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -13731,10 +13731,10 @@
         <v>51</v>
       </c>
       <c r="C107" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D107" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -13742,10 +13742,10 @@
         <v>51</v>
       </c>
       <c r="C108" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D108" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -13753,54 +13753,54 @@
         <v>51</v>
       </c>
       <c r="C109" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D109" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B110" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C110" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B111" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C111" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
+        <v>766</v>
+      </c>
+      <c r="C112" t="s">
+        <v>767</v>
+      </c>
+      <c r="D112" t="s">
         <v>769</v>
-      </c>
-      <c r="C112" t="s">
-        <v>770</v>
-      </c>
-      <c r="D112" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C113" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D113" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
   </sheetData>

--- a/ReportDefs-TIMES-GEO.xlsx
+++ b/ReportDefs-TIMES-GEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\TIMES-GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1170E6-3F40-470E-9C0B-F445CFBF2F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB672BA-68FD-419F-B125-63CE24613C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="867">
   <si>
     <t>Unit</t>
   </si>
@@ -2706,6 +2706,9 @@
   </si>
   <si>
     <t>Disc-Rate</t>
+  </si>
+  <si>
+    <t>sg_DiscRate-CO2Price</t>
   </si>
 </sst>
 </file>
@@ -3338,7 +3341,7 @@
   <dimension ref="A1:Z65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3414,6 +3417,9 @@
         <f>"sg_"&amp;J2</f>
         <v>sg_Disc-Rate</v>
       </c>
+      <c r="K5" t="s">
+        <v>866</v>
+      </c>
       <c r="O5" t="s">
         <v>86</v>
       </c>
@@ -3454,6 +3460,10 @@
         <f>TEXT(Q6,"00.0%")</f>
         <v>10.0%</v>
       </c>
+      <c r="K6" t="str">
+        <f>J6&amp;" - "&amp;H6</f>
+        <v>10.0% - $000/t CO2</v>
+      </c>
       <c r="N6">
         <v>1</v>
       </c>
@@ -3509,6 +3519,10 @@
         <f t="shared" ref="J7:J55" si="8">TEXT(Q7,"00.0%")</f>
         <v>07.5%</v>
       </c>
+      <c r="K7" t="str">
+        <f t="shared" ref="K7:K65" si="9">J7&amp;" - "&amp;H7</f>
+        <v>07.5% - $000/t CO2</v>
+      </c>
       <c r="N7">
         <v>2</v>
       </c>
@@ -3564,6 +3578,10 @@
         <f t="shared" si="8"/>
         <v>05.0%</v>
       </c>
+      <c r="K8" t="str">
+        <f t="shared" si="9"/>
+        <v>05.0% - $000/t CO2</v>
+      </c>
       <c r="N8">
         <v>3</v>
       </c>
@@ -3619,6 +3637,10 @@
         <f t="shared" si="8"/>
         <v>02.0%</v>
       </c>
+      <c r="K9" t="str">
+        <f t="shared" si="9"/>
+        <v>02.0% - $000/t CO2</v>
+      </c>
       <c r="N9">
         <v>4</v>
       </c>
@@ -3674,6 +3696,10 @@
         <f t="shared" si="8"/>
         <v>01.0%</v>
       </c>
+      <c r="K10" t="str">
+        <f t="shared" si="9"/>
+        <v>01.0% - $000/t CO2</v>
+      </c>
       <c r="N10">
         <v>5</v>
       </c>
@@ -3729,6 +3755,10 @@
         <f t="shared" si="8"/>
         <v>10.0%</v>
       </c>
+      <c r="K11" t="str">
+        <f t="shared" si="9"/>
+        <v>10.0% - $000/t CO2</v>
+      </c>
       <c r="N11">
         <v>6</v>
       </c>
@@ -3778,6 +3808,10 @@
         <f t="shared" si="8"/>
         <v>07.5%</v>
       </c>
+      <c r="K12" t="str">
+        <f t="shared" si="9"/>
+        <v>07.5% - $000/t CO2</v>
+      </c>
       <c r="N12">
         <v>7</v>
       </c>
@@ -3827,6 +3861,10 @@
         <f t="shared" si="8"/>
         <v>05.0%</v>
       </c>
+      <c r="K13" t="str">
+        <f t="shared" si="9"/>
+        <v>05.0% - $000/t CO2</v>
+      </c>
       <c r="N13">
         <v>8</v>
       </c>
@@ -3876,6 +3914,10 @@
         <f t="shared" si="8"/>
         <v>02.0%</v>
       </c>
+      <c r="K14" t="str">
+        <f t="shared" si="9"/>
+        <v>02.0% - $000/t CO2</v>
+      </c>
       <c r="N14">
         <v>9</v>
       </c>
@@ -3925,6 +3967,10 @@
         <f t="shared" si="8"/>
         <v>01.0%</v>
       </c>
+      <c r="K15" t="str">
+        <f t="shared" si="9"/>
+        <v>01.0% - $000/t CO2</v>
+      </c>
       <c r="N15">
         <v>10</v>
       </c>
@@ -3974,6 +4020,10 @@
         <f t="shared" si="8"/>
         <v>10.0%</v>
       </c>
+      <c r="K16" t="str">
+        <f t="shared" si="9"/>
+        <v>10.0% - $050/t CO2</v>
+      </c>
       <c r="N16">
         <v>11</v>
       </c>
@@ -4023,6 +4073,10 @@
         <f t="shared" si="8"/>
         <v>07.5%</v>
       </c>
+      <c r="K17" t="str">
+        <f t="shared" si="9"/>
+        <v>07.5% - $050/t CO2</v>
+      </c>
       <c r="N17">
         <v>12</v>
       </c>
@@ -4072,6 +4126,10 @@
         <f t="shared" si="8"/>
         <v>05.0%</v>
       </c>
+      <c r="K18" t="str">
+        <f t="shared" si="9"/>
+        <v>05.0% - $050/t CO2</v>
+      </c>
       <c r="N18">
         <v>13</v>
       </c>
@@ -4121,6 +4179,10 @@
         <f t="shared" si="8"/>
         <v>02.0%</v>
       </c>
+      <c r="K19" t="str">
+        <f t="shared" si="9"/>
+        <v>02.0% - $050/t CO2</v>
+      </c>
       <c r="N19">
         <v>14</v>
       </c>
@@ -4170,6 +4232,10 @@
         <f t="shared" si="8"/>
         <v>01.0%</v>
       </c>
+      <c r="K20" t="str">
+        <f t="shared" si="9"/>
+        <v>01.0% - $050/t CO2</v>
+      </c>
       <c r="N20">
         <v>15</v>
       </c>
@@ -4219,6 +4285,10 @@
         <f t="shared" si="8"/>
         <v>10.0%</v>
       </c>
+      <c r="K21" t="str">
+        <f t="shared" si="9"/>
+        <v>10.0% - $050/t CO2</v>
+      </c>
       <c r="N21">
         <v>16</v>
       </c>
@@ -4268,6 +4338,10 @@
         <f t="shared" si="8"/>
         <v>07.5%</v>
       </c>
+      <c r="K22" t="str">
+        <f t="shared" si="9"/>
+        <v>07.5% - $050/t CO2</v>
+      </c>
       <c r="N22">
         <v>17</v>
       </c>
@@ -4317,6 +4391,10 @@
         <f t="shared" si="8"/>
         <v>05.0%</v>
       </c>
+      <c r="K23" t="str">
+        <f t="shared" si="9"/>
+        <v>05.0% - $050/t CO2</v>
+      </c>
       <c r="N23">
         <v>18</v>
       </c>
@@ -4366,6 +4444,10 @@
         <f t="shared" si="8"/>
         <v>02.0%</v>
       </c>
+      <c r="K24" t="str">
+        <f t="shared" si="9"/>
+        <v>02.0% - $050/t CO2</v>
+      </c>
       <c r="N24">
         <v>19</v>
       </c>
@@ -4415,6 +4497,10 @@
         <f t="shared" si="8"/>
         <v>01.0%</v>
       </c>
+      <c r="K25" t="str">
+        <f t="shared" si="9"/>
+        <v>01.0% - $050/t CO2</v>
+      </c>
       <c r="N25">
         <v>20</v>
       </c>
@@ -4464,6 +4550,10 @@
         <f t="shared" si="8"/>
         <v>10.0%</v>
       </c>
+      <c r="K26" t="str">
+        <f t="shared" si="9"/>
+        <v>10.0% - $100/t CO2</v>
+      </c>
       <c r="N26">
         <v>21</v>
       </c>
@@ -4513,6 +4603,10 @@
         <f t="shared" si="8"/>
         <v>07.5%</v>
       </c>
+      <c r="K27" t="str">
+        <f t="shared" si="9"/>
+        <v>07.5% - $100/t CO2</v>
+      </c>
       <c r="N27">
         <v>22</v>
       </c>
@@ -4562,6 +4656,10 @@
         <f t="shared" si="8"/>
         <v>05.0%</v>
       </c>
+      <c r="K28" t="str">
+        <f t="shared" si="9"/>
+        <v>05.0% - $100/t CO2</v>
+      </c>
       <c r="N28">
         <v>23</v>
       </c>
@@ -4611,6 +4709,10 @@
         <f t="shared" si="8"/>
         <v>02.0%</v>
       </c>
+      <c r="K29" t="str">
+        <f t="shared" si="9"/>
+        <v>02.0% - $100/t CO2</v>
+      </c>
       <c r="N29">
         <v>24</v>
       </c>
@@ -4660,6 +4762,10 @@
         <f t="shared" si="8"/>
         <v>01.0%</v>
       </c>
+      <c r="K30" t="str">
+        <f t="shared" si="9"/>
+        <v>01.0% - $100/t CO2</v>
+      </c>
       <c r="N30">
         <v>25</v>
       </c>
@@ -4709,6 +4815,10 @@
         <f t="shared" si="8"/>
         <v>10.0%</v>
       </c>
+      <c r="K31" t="str">
+        <f t="shared" si="9"/>
+        <v>10.0% - $100/t CO2</v>
+      </c>
       <c r="N31">
         <v>26</v>
       </c>
@@ -4758,6 +4868,10 @@
         <f t="shared" si="8"/>
         <v>07.5%</v>
       </c>
+      <c r="K32" t="str">
+        <f t="shared" si="9"/>
+        <v>07.5% - $100/t CO2</v>
+      </c>
       <c r="N32">
         <v>27</v>
       </c>
@@ -4807,6 +4921,10 @@
         <f t="shared" si="8"/>
         <v>05.0%</v>
       </c>
+      <c r="K33" t="str">
+        <f t="shared" si="9"/>
+        <v>05.0% - $100/t CO2</v>
+      </c>
       <c r="N33">
         <v>28</v>
       </c>
@@ -4856,6 +4974,10 @@
         <f t="shared" si="8"/>
         <v>02.0%</v>
       </c>
+      <c r="K34" t="str">
+        <f t="shared" si="9"/>
+        <v>02.0% - $100/t CO2</v>
+      </c>
       <c r="N34">
         <v>29</v>
       </c>
@@ -4905,6 +5027,10 @@
         <f t="shared" si="8"/>
         <v>01.0%</v>
       </c>
+      <c r="K35" t="str">
+        <f t="shared" si="9"/>
+        <v>01.0% - $100/t CO2</v>
+      </c>
       <c r="N35">
         <v>30</v>
       </c>
@@ -4954,6 +5080,10 @@
         <f t="shared" si="8"/>
         <v>10.0%</v>
       </c>
+      <c r="K36" t="str">
+        <f t="shared" si="9"/>
+        <v>10.0% - $150/t CO2</v>
+      </c>
       <c r="N36">
         <v>31</v>
       </c>
@@ -5003,6 +5133,10 @@
         <f t="shared" si="8"/>
         <v>07.5%</v>
       </c>
+      <c r="K37" t="str">
+        <f t="shared" si="9"/>
+        <v>07.5% - $150/t CO2</v>
+      </c>
       <c r="N37">
         <v>32</v>
       </c>
@@ -5052,6 +5186,10 @@
         <f t="shared" si="8"/>
         <v>05.0%</v>
       </c>
+      <c r="K38" t="str">
+        <f t="shared" si="9"/>
+        <v>05.0% - $150/t CO2</v>
+      </c>
       <c r="N38">
         <v>33</v>
       </c>
@@ -5065,15 +5203,15 @@
         <v>0.05</v>
       </c>
       <c r="T38" t="str">
-        <f t="shared" ref="T38:T55" si="9">H$1&amp;"-"&amp;VLOOKUP(O38,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" ref="T38:T55" si="10">H$1&amp;"-"&amp;VLOOKUP(O38,$Y$5:$Z$11,2,FALSE)</f>
         <v>cp-150</v>
       </c>
       <c r="U38" t="str">
-        <f t="shared" ref="U38:U55" si="10">I$1&amp;"-"&amp;P38</f>
+        <f t="shared" ref="U38:U55" si="11">I$1&amp;"-"&amp;P38</f>
         <v>re-Hi</v>
       </c>
       <c r="V38" t="str">
-        <f t="shared" ref="V38:V55" si="11">J$1&amp;"-"&amp;TEXT(Q38,"00.0%")</f>
+        <f t="shared" ref="V38:V55" si="12">J$1&amp;"-"&amp;TEXT(Q38,"00.0%")</f>
         <v>dr-05.0%</v>
       </c>
     </row>
@@ -5101,6 +5239,10 @@
         <f t="shared" si="8"/>
         <v>02.0%</v>
       </c>
+      <c r="K39" t="str">
+        <f t="shared" si="9"/>
+        <v>02.0% - $150/t CO2</v>
+      </c>
       <c r="N39">
         <v>34</v>
       </c>
@@ -5114,15 +5256,15 @@
         <v>0.02</v>
       </c>
       <c r="T39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>cp-150</v>
       </c>
       <c r="U39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>re-Hi</v>
       </c>
       <c r="V39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>dr-02.0%</v>
       </c>
     </row>
@@ -5150,6 +5292,10 @@
         <f t="shared" si="8"/>
         <v>01.0%</v>
       </c>
+      <c r="K40" t="str">
+        <f t="shared" si="9"/>
+        <v>01.0% - $150/t CO2</v>
+      </c>
       <c r="N40">
         <v>35</v>
       </c>
@@ -5163,15 +5309,15 @@
         <v>0.01</v>
       </c>
       <c r="T40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>cp-150</v>
       </c>
       <c r="U40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>re-Hi</v>
       </c>
       <c r="V40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>dr-01.0%</v>
       </c>
     </row>
@@ -5199,6 +5345,10 @@
         <f t="shared" si="8"/>
         <v>10.0%</v>
       </c>
+      <c r="K41" t="str">
+        <f t="shared" si="9"/>
+        <v>10.0% - $150/t CO2</v>
+      </c>
       <c r="N41">
         <v>36</v>
       </c>
@@ -5212,15 +5362,15 @@
         <v>0.1</v>
       </c>
       <c r="T41" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>cp-150</v>
       </c>
       <c r="U41" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>re-Ref</v>
       </c>
       <c r="V41" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>dr-10.0%</v>
       </c>
     </row>
@@ -5248,6 +5398,10 @@
         <f t="shared" si="8"/>
         <v>07.5%</v>
       </c>
+      <c r="K42" t="str">
+        <f t="shared" si="9"/>
+        <v>07.5% - $150/t CO2</v>
+      </c>
       <c r="N42">
         <v>37</v>
       </c>
@@ -5261,15 +5415,15 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="T42" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>cp-150</v>
       </c>
       <c r="U42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>re-Ref</v>
       </c>
       <c r="V42" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>dr-07.5%</v>
       </c>
     </row>
@@ -5297,6 +5451,10 @@
         <f t="shared" si="8"/>
         <v>05.0%</v>
       </c>
+      <c r="K43" t="str">
+        <f t="shared" si="9"/>
+        <v>05.0% - $150/t CO2</v>
+      </c>
       <c r="N43">
         <v>38</v>
       </c>
@@ -5310,15 +5468,15 @@
         <v>0.05</v>
       </c>
       <c r="T43" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>cp-150</v>
       </c>
       <c r="U43" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>re-Ref</v>
       </c>
       <c r="V43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>dr-05.0%</v>
       </c>
     </row>
@@ -5346,6 +5504,10 @@
         <f t="shared" si="8"/>
         <v>02.0%</v>
       </c>
+      <c r="K44" t="str">
+        <f t="shared" si="9"/>
+        <v>02.0% - $150/t CO2</v>
+      </c>
       <c r="N44">
         <v>39</v>
       </c>
@@ -5359,15 +5521,15 @@
         <v>0.02</v>
       </c>
       <c r="T44" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>cp-150</v>
       </c>
       <c r="U44" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>re-Ref</v>
       </c>
       <c r="V44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>dr-02.0%</v>
       </c>
     </row>
@@ -5395,6 +5557,10 @@
         <f t="shared" si="8"/>
         <v>01.0%</v>
       </c>
+      <c r="K45" t="str">
+        <f t="shared" si="9"/>
+        <v>01.0% - $150/t CO2</v>
+      </c>
       <c r="N45">
         <v>40</v>
       </c>
@@ -5408,15 +5574,15 @@
         <v>0.01</v>
       </c>
       <c r="T45" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>cp-150</v>
       </c>
       <c r="U45" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>re-Ref</v>
       </c>
       <c r="V45" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>dr-01.0%</v>
       </c>
     </row>
@@ -5444,6 +5610,10 @@
         <f t="shared" si="8"/>
         <v>10.0%</v>
       </c>
+      <c r="K46" t="str">
+        <f t="shared" si="9"/>
+        <v>10.0% - $300/t CO2</v>
+      </c>
       <c r="N46">
         <v>41</v>
       </c>
@@ -5457,15 +5627,15 @@
         <v>0.1</v>
       </c>
       <c r="T46" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>cp-300</v>
       </c>
       <c r="U46" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>re-Hi</v>
       </c>
       <c r="V46" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>dr-10.0%</v>
       </c>
     </row>
@@ -5493,6 +5663,10 @@
         <f t="shared" si="8"/>
         <v>07.5%</v>
       </c>
+      <c r="K47" t="str">
+        <f t="shared" si="9"/>
+        <v>07.5% - $300/t CO2</v>
+      </c>
       <c r="N47">
         <v>42</v>
       </c>
@@ -5506,15 +5680,15 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="T47" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>cp-300</v>
       </c>
       <c r="U47" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>re-Hi</v>
       </c>
       <c r="V47" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>dr-07.5%</v>
       </c>
     </row>
@@ -5542,6 +5716,10 @@
         <f t="shared" si="8"/>
         <v>05.0%</v>
       </c>
+      <c r="K48" t="str">
+        <f t="shared" si="9"/>
+        <v>05.0% - $300/t CO2</v>
+      </c>
       <c r="N48">
         <v>43</v>
       </c>
@@ -5555,15 +5733,15 @@
         <v>0.05</v>
       </c>
       <c r="T48" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>cp-300</v>
       </c>
       <c r="U48" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>re-Hi</v>
       </c>
       <c r="V48" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>dr-05.0%</v>
       </c>
     </row>
@@ -5591,6 +5769,10 @@
         <f t="shared" si="8"/>
         <v>02.0%</v>
       </c>
+      <c r="K49" t="str">
+        <f t="shared" si="9"/>
+        <v>02.0% - $300/t CO2</v>
+      </c>
       <c r="N49">
         <v>44</v>
       </c>
@@ -5604,15 +5786,15 @@
         <v>0.02</v>
       </c>
       <c r="T49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>cp-300</v>
       </c>
       <c r="U49" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>re-Hi</v>
       </c>
       <c r="V49" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>dr-02.0%</v>
       </c>
     </row>
@@ -5640,6 +5822,10 @@
         <f t="shared" si="8"/>
         <v>01.0%</v>
       </c>
+      <c r="K50" t="str">
+        <f t="shared" si="9"/>
+        <v>01.0% - $300/t CO2</v>
+      </c>
       <c r="N50">
         <v>45</v>
       </c>
@@ -5653,15 +5839,15 @@
         <v>0.01</v>
       </c>
       <c r="T50" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>cp-300</v>
       </c>
       <c r="U50" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>re-Hi</v>
       </c>
       <c r="V50" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>dr-01.0%</v>
       </c>
     </row>
@@ -5689,6 +5875,10 @@
         <f t="shared" si="8"/>
         <v>10.0%</v>
       </c>
+      <c r="K51" t="str">
+        <f t="shared" si="9"/>
+        <v>10.0% - $300/t CO2</v>
+      </c>
       <c r="N51">
         <v>46</v>
       </c>
@@ -5702,15 +5892,15 @@
         <v>0.1</v>
       </c>
       <c r="T51" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>cp-300</v>
       </c>
       <c r="U51" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>re-Ref</v>
       </c>
       <c r="V51" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>dr-10.0%</v>
       </c>
     </row>
@@ -5738,6 +5928,10 @@
         <f t="shared" si="8"/>
         <v>07.5%</v>
       </c>
+      <c r="K52" t="str">
+        <f t="shared" si="9"/>
+        <v>07.5% - $300/t CO2</v>
+      </c>
       <c r="N52">
         <v>47</v>
       </c>
@@ -5751,15 +5945,15 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="T52" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>cp-300</v>
       </c>
       <c r="U52" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>re-Ref</v>
       </c>
       <c r="V52" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>dr-07.5%</v>
       </c>
     </row>
@@ -5787,6 +5981,10 @@
         <f t="shared" si="8"/>
         <v>05.0%</v>
       </c>
+      <c r="K53" t="str">
+        <f t="shared" si="9"/>
+        <v>05.0% - $300/t CO2</v>
+      </c>
       <c r="N53">
         <v>48</v>
       </c>
@@ -5800,15 +5998,15 @@
         <v>0.05</v>
       </c>
       <c r="T53" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>cp-300</v>
       </c>
       <c r="U53" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>re-Ref</v>
       </c>
       <c r="V53" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>dr-05.0%</v>
       </c>
     </row>
@@ -5836,6 +6034,10 @@
         <f t="shared" si="8"/>
         <v>02.0%</v>
       </c>
+      <c r="K54" t="str">
+        <f t="shared" si="9"/>
+        <v>02.0% - $300/t CO2</v>
+      </c>
       <c r="N54">
         <v>49</v>
       </c>
@@ -5849,15 +6051,15 @@
         <v>0.02</v>
       </c>
       <c r="T54" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>cp-300</v>
       </c>
       <c r="U54" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>re-Ref</v>
       </c>
       <c r="V54" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>dr-02.0%</v>
       </c>
     </row>
@@ -5885,6 +6087,10 @@
         <f t="shared" si="8"/>
         <v>01.0%</v>
       </c>
+      <c r="K55" t="str">
+        <f t="shared" si="9"/>
+        <v>01.0% - $300/t CO2</v>
+      </c>
       <c r="N55">
         <v>50</v>
       </c>
@@ -5898,41 +6104,45 @@
         <v>0.01</v>
       </c>
       <c r="T55" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>cp-300</v>
       </c>
       <c r="U55" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>re-Ref</v>
       </c>
       <c r="V55" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>dr-01.0%</v>
       </c>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" t="str">
-        <f t="shared" ref="A56:A65" si="12">$A$1&amp;TEXT(N56,"0000")</f>
+        <f t="shared" ref="A56:A65" si="13">$A$1&amp;TEXT(N56,"0000")</f>
         <v>TGE~0051</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" ref="B56:B65" si="13">G56</f>
+        <f t="shared" ref="B56:B65" si="14">G56</f>
         <v>cp-225.re-Hi.dr-10.0%</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" ref="G56:G65" si="14">_xlfn.TEXTJOIN(".",TRUE,T56:X56)</f>
+        <f t="shared" ref="G56:G65" si="15">_xlfn.TEXTJOIN(".",TRUE,T56:X56)</f>
         <v>cp-225.re-Hi.dr-10.0%</v>
       </c>
       <c r="H56" t="s">
         <v>848</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" ref="I56:I65" si="15">P56</f>
+        <f t="shared" ref="I56:I65" si="16">P56</f>
         <v>Hi</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" ref="J56:J65" si="16">TEXT(Q56,"00.0%")</f>
+        <f t="shared" ref="J56:J65" si="17">TEXT(Q56,"00.0%")</f>
         <v>10.0%</v>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" si="9"/>
+        <v>10.0% - $225/t CO2</v>
       </c>
       <c r="N56">
         <v>51</v>
@@ -5947,41 +6157,45 @@
         <v>0.1</v>
       </c>
       <c r="T56" t="str">
-        <f t="shared" ref="T56:T65" si="17">H$1&amp;"-"&amp;VLOOKUP(O56,$Y$5:$Z$11,2,FALSE)</f>
+        <f t="shared" ref="T56:T65" si="18">H$1&amp;"-"&amp;VLOOKUP(O56,$Y$5:$Z$11,2,FALSE)</f>
         <v>cp-225</v>
       </c>
       <c r="U56" t="str">
-        <f t="shared" ref="U56:U65" si="18">I$1&amp;"-"&amp;P56</f>
+        <f t="shared" ref="U56:U65" si="19">I$1&amp;"-"&amp;P56</f>
         <v>re-Hi</v>
       </c>
       <c r="V56" t="str">
-        <f t="shared" ref="V56:V65" si="19">J$1&amp;"-"&amp;TEXT(Q56,"00.0%")</f>
+        <f t="shared" ref="V56:V65" si="20">J$1&amp;"-"&amp;TEXT(Q56,"00.0%")</f>
         <v>dr-10.0%</v>
       </c>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>TGE~0052</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="13"/>
-        <v>cp-225.re-Hi.dr-07.5%</v>
-      </c>
-      <c r="G57" t="str">
         <f t="shared" si="14"/>
         <v>cp-225.re-Hi.dr-07.5%</v>
       </c>
+      <c r="G57" t="str">
+        <f t="shared" si="15"/>
+        <v>cp-225.re-Hi.dr-07.5%</v>
+      </c>
       <c r="H57" t="s">
         <v>848</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Hi</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>07.5%</v>
+      </c>
+      <c r="K57" t="str">
+        <f t="shared" si="9"/>
+        <v>07.5% - $225/t CO2</v>
       </c>
       <c r="N57">
         <v>52</v>
@@ -5996,41 +6210,45 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="T57" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>cp-225</v>
       </c>
       <c r="U57" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>re-Hi</v>
       </c>
       <c r="V57" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>dr-07.5%</v>
       </c>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>TGE~0053</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" si="13"/>
-        <v>cp-225.re-Hi.dr-05.0%</v>
-      </c>
-      <c r="G58" t="str">
         <f t="shared" si="14"/>
         <v>cp-225.re-Hi.dr-05.0%</v>
       </c>
+      <c r="G58" t="str">
+        <f t="shared" si="15"/>
+        <v>cp-225.re-Hi.dr-05.0%</v>
+      </c>
       <c r="H58" t="s">
         <v>848</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Hi</v>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>05.0%</v>
+      </c>
+      <c r="K58" t="str">
+        <f t="shared" si="9"/>
+        <v>05.0% - $225/t CO2</v>
       </c>
       <c r="N58">
         <v>53</v>
@@ -6045,41 +6263,45 @@
         <v>0.05</v>
       </c>
       <c r="T58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>cp-225</v>
       </c>
       <c r="U58" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>re-Hi</v>
       </c>
       <c r="V58" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>dr-05.0%</v>
       </c>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>TGE~0054</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" si="13"/>
-        <v>cp-225.re-Hi.dr-02.0%</v>
-      </c>
-      <c r="G59" t="str">
         <f t="shared" si="14"/>
         <v>cp-225.re-Hi.dr-02.0%</v>
       </c>
+      <c r="G59" t="str">
+        <f t="shared" si="15"/>
+        <v>cp-225.re-Hi.dr-02.0%</v>
+      </c>
       <c r="H59" t="s">
         <v>848</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Hi</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>02.0%</v>
+      </c>
+      <c r="K59" t="str">
+        <f t="shared" si="9"/>
+        <v>02.0% - $225/t CO2</v>
       </c>
       <c r="N59">
         <v>54</v>
@@ -6094,41 +6316,45 @@
         <v>0.02</v>
       </c>
       <c r="T59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>cp-225</v>
       </c>
       <c r="U59" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>re-Hi</v>
       </c>
       <c r="V59" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>dr-02.0%</v>
       </c>
     </row>
     <row r="60" spans="1:22">
       <c r="A60" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>TGE~0055</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" si="13"/>
-        <v>cp-225.re-Hi.dr-01.0%</v>
-      </c>
-      <c r="G60" t="str">
         <f t="shared" si="14"/>
         <v>cp-225.re-Hi.dr-01.0%</v>
       </c>
+      <c r="G60" t="str">
+        <f t="shared" si="15"/>
+        <v>cp-225.re-Hi.dr-01.0%</v>
+      </c>
       <c r="H60" t="s">
         <v>848</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Hi</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>01.0%</v>
+      </c>
+      <c r="K60" t="str">
+        <f t="shared" si="9"/>
+        <v>01.0% - $225/t CO2</v>
       </c>
       <c r="N60">
         <v>55</v>
@@ -6143,41 +6369,45 @@
         <v>0.01</v>
       </c>
       <c r="T60" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>cp-225</v>
       </c>
       <c r="U60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>re-Hi</v>
       </c>
       <c r="V60" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>dr-01.0%</v>
       </c>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>TGE~0056</v>
       </c>
       <c r="B61" t="str">
-        <f t="shared" si="13"/>
-        <v>cp-225.re-Ref.dr-10.0%</v>
-      </c>
-      <c r="G61" t="str">
         <f t="shared" si="14"/>
         <v>cp-225.re-Ref.dr-10.0%</v>
       </c>
+      <c r="G61" t="str">
+        <f t="shared" si="15"/>
+        <v>cp-225.re-Ref.dr-10.0%</v>
+      </c>
       <c r="H61" t="s">
         <v>848</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Ref</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.0%</v>
+      </c>
+      <c r="K61" t="str">
+        <f t="shared" si="9"/>
+        <v>10.0% - $225/t CO2</v>
       </c>
       <c r="N61">
         <v>56</v>
@@ -6192,41 +6422,45 @@
         <v>0.1</v>
       </c>
       <c r="T61" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>cp-225</v>
       </c>
       <c r="U61" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>re-Ref</v>
       </c>
       <c r="V61" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>dr-10.0%</v>
       </c>
     </row>
     <row r="62" spans="1:22">
       <c r="A62" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>TGE~0057</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="13"/>
-        <v>cp-225.re-Ref.dr-07.5%</v>
-      </c>
-      <c r="G62" t="str">
         <f t="shared" si="14"/>
         <v>cp-225.re-Ref.dr-07.5%</v>
       </c>
+      <c r="G62" t="str">
+        <f t="shared" si="15"/>
+        <v>cp-225.re-Ref.dr-07.5%</v>
+      </c>
       <c r="H62" t="s">
         <v>848</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Ref</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>07.5%</v>
+      </c>
+      <c r="K62" t="str">
+        <f t="shared" si="9"/>
+        <v>07.5% - $225/t CO2</v>
       </c>
       <c r="N62">
         <v>57</v>
@@ -6241,41 +6475,45 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="T62" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>cp-225</v>
       </c>
       <c r="U62" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>re-Ref</v>
       </c>
       <c r="V62" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>dr-07.5%</v>
       </c>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>TGE~0058</v>
       </c>
       <c r="B63" t="str">
-        <f t="shared" si="13"/>
-        <v>cp-225.re-Ref.dr-05.0%</v>
-      </c>
-      <c r="G63" t="str">
         <f t="shared" si="14"/>
         <v>cp-225.re-Ref.dr-05.0%</v>
       </c>
+      <c r="G63" t="str">
+        <f t="shared" si="15"/>
+        <v>cp-225.re-Ref.dr-05.0%</v>
+      </c>
       <c r="H63" t="s">
         <v>848</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Ref</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>05.0%</v>
+      </c>
+      <c r="K63" t="str">
+        <f t="shared" si="9"/>
+        <v>05.0% - $225/t CO2</v>
       </c>
       <c r="N63">
         <v>58</v>
@@ -6290,41 +6528,45 @@
         <v>0.05</v>
       </c>
       <c r="T63" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>cp-225</v>
       </c>
       <c r="U63" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>re-Ref</v>
       </c>
       <c r="V63" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>dr-05.0%</v>
       </c>
     </row>
     <row r="64" spans="1:22">
       <c r="A64" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>TGE~0059</v>
       </c>
       <c r="B64" t="str">
-        <f t="shared" si="13"/>
-        <v>cp-225.re-Ref.dr-02.0%</v>
-      </c>
-      <c r="G64" t="str">
         <f t="shared" si="14"/>
         <v>cp-225.re-Ref.dr-02.0%</v>
       </c>
+      <c r="G64" t="str">
+        <f t="shared" si="15"/>
+        <v>cp-225.re-Ref.dr-02.0%</v>
+      </c>
       <c r="H64" t="s">
         <v>848</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Ref</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>02.0%</v>
+      </c>
+      <c r="K64" t="str">
+        <f t="shared" si="9"/>
+        <v>02.0% - $225/t CO2</v>
       </c>
       <c r="N64">
         <v>59</v>
@@ -6339,41 +6581,45 @@
         <v>0.02</v>
       </c>
       <c r="T64" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>cp-225</v>
       </c>
       <c r="U64" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>re-Ref</v>
       </c>
       <c r="V64" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>dr-02.0%</v>
       </c>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>TGE~0060</v>
       </c>
       <c r="B65" t="str">
-        <f t="shared" si="13"/>
-        <v>cp-225.re-Ref.dr-01.0%</v>
-      </c>
-      <c r="G65" t="str">
         <f t="shared" si="14"/>
         <v>cp-225.re-Ref.dr-01.0%</v>
       </c>
+      <c r="G65" t="str">
+        <f t="shared" si="15"/>
+        <v>cp-225.re-Ref.dr-01.0%</v>
+      </c>
       <c r="H65" t="s">
         <v>848</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Ref</v>
       </c>
       <c r="J65" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>01.0%</v>
+      </c>
+      <c r="K65" t="str">
+        <f t="shared" si="9"/>
+        <v>01.0% - $225/t CO2</v>
       </c>
       <c r="N65">
         <v>60</v>
@@ -6388,15 +6634,15 @@
         <v>0.01</v>
       </c>
       <c r="T65" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>cp-225</v>
       </c>
       <c r="U65" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>re-Ref</v>
       </c>
       <c r="V65" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>dr-01.0%</v>
       </c>
     </row>

--- a/ReportDefs-TIMES-GEO.xlsx
+++ b/ReportDefs-TIMES-GEO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\TIMES-GEO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\py_projects\GitHub\TIMES-GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB672BA-68FD-419F-B125-63CE24613C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3C2ECC-5EA0-4059-990D-6F933F6B700F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="1043">
   <si>
     <t>Unit</t>
   </si>
@@ -1634,15 +1634,9 @@
     <t>Electricidad</t>
   </si>
   <si>
-    <t>Elektrizität</t>
-  </si>
-  <si>
     <t>電気</t>
   </si>
   <si>
-    <t>电力</t>
-  </si>
-  <si>
     <t>Carbone</t>
   </si>
   <si>
@@ -1661,9 +1655,6 @@
     <t>ガス</t>
   </si>
   <si>
-    <t>天然气</t>
-  </si>
-  <si>
     <t>Gas (miscele)</t>
   </si>
   <si>
@@ -1673,51 +1664,21 @@
     <t>Gas (Mischungen)</t>
   </si>
   <si>
-    <t>混合ガス</t>
-  </si>
-  <si>
-    <t>混合气体</t>
-  </si>
-  <si>
-    <t>Petrolio</t>
-  </si>
-  <si>
-    <t>Petróleo</t>
-  </si>
-  <si>
     <t>Öl</t>
   </si>
   <si>
-    <t>石油</t>
-  </si>
-  <si>
-    <t>Petrolio (miscele)</t>
-  </si>
-  <si>
-    <t>Petróleo (mezclas)</t>
-  </si>
-  <si>
     <t>Öl (Mischungen)</t>
   </si>
   <si>
-    <t>混合石油</t>
-  </si>
-  <si>
     <t>Calore</t>
   </si>
   <si>
     <t>Calor</t>
   </si>
   <si>
-    <t>Wärme</t>
-  </si>
-  <si>
     <t>熱</t>
   </si>
   <si>
-    <t>热能</t>
-  </si>
-  <si>
     <t>Bioenergia</t>
   </si>
   <si>
@@ -1736,30 +1697,6 @@
     <t>Solare</t>
   </si>
   <si>
-    <t>太陽光</t>
-  </si>
-  <si>
-    <t>太阳能</t>
-  </si>
-  <si>
-    <t>Eolico</t>
-  </si>
-  <si>
-    <t>Eólica</t>
-  </si>
-  <si>
-    <t>風力</t>
-  </si>
-  <si>
-    <t>风能</t>
-  </si>
-  <si>
-    <t>Geotermico</t>
-  </si>
-  <si>
-    <t>Geotérmica</t>
-  </si>
-  <si>
     <t>Geothermie</t>
   </si>
   <si>
@@ -1769,63 +1706,21 @@
     <t>地热</t>
   </si>
   <si>
-    <t>Idroelettrico</t>
-  </si>
-  <si>
-    <t>Hidroeléctrica</t>
-  </si>
-  <si>
-    <t>Wasserkraft</t>
-  </si>
-  <si>
     <t>水力</t>
   </si>
   <si>
-    <t>水电</t>
-  </si>
-  <si>
-    <t>Altri</t>
-  </si>
-  <si>
-    <t>Otros</t>
-  </si>
-  <si>
     <t>Andere</t>
   </si>
   <si>
     <t>その他</t>
   </si>
   <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>Rifiuti</t>
-  </si>
-  <si>
-    <t>Residuos</t>
-  </si>
-  <si>
     <t>Abfall</t>
   </si>
   <si>
-    <t>廃棄物</t>
-  </si>
-  <si>
-    <t>废物</t>
-  </si>
-  <si>
     <t>Nucleare</t>
   </si>
   <si>
-    <t>Kernenergie</t>
-  </si>
-  <si>
-    <t>原子力</t>
-  </si>
-  <si>
-    <t>核能</t>
-  </si>
-  <si>
     <t>Idrogeno</t>
   </si>
   <si>
@@ -1838,9 +1733,6 @@
     <t>水素</t>
   </si>
   <si>
-    <t>氢能</t>
-  </si>
-  <si>
     <t>Ammoniaca</t>
   </si>
   <si>
@@ -1856,9 +1748,6 @@
     <t>氨</t>
   </si>
   <si>
-    <t>Combustibili sintetici</t>
-  </si>
-  <si>
     <t>Combustibles sintéticos</t>
   </si>
   <si>
@@ -1868,39 +1757,18 @@
     <t>合成燃料</t>
   </si>
   <si>
-    <t>二酸化炭素</t>
-  </si>
-  <si>
     <t>二氧化碳</t>
   </si>
   <si>
-    <t>メタン</t>
-  </si>
-  <si>
-    <t>甲烷</t>
-  </si>
-  <si>
-    <t>一酸化二窒素</t>
-  </si>
-  <si>
-    <t>一氧化二氮</t>
-  </si>
-  <si>
     <t>Residenziale</t>
   </si>
   <si>
     <t>Residencial</t>
   </si>
   <si>
-    <t>Wohnbereich</t>
-  </si>
-  <si>
     <t>住宅</t>
   </si>
   <si>
-    <t>居民</t>
-  </si>
-  <si>
     <t>Servizi</t>
   </si>
   <si>
@@ -1916,90 +1784,36 @@
     <t>服务</t>
   </si>
   <si>
-    <t>Tecnologie usi termici</t>
-  </si>
-  <si>
-    <t>Tecnologías usos térmicos</t>
-  </si>
-  <si>
-    <t>Technologien thermischer Nutzung</t>
-  </si>
-  <si>
-    <t>熱利用技術</t>
-  </si>
-  <si>
-    <t>热利用技术</t>
-  </si>
-  <si>
-    <t>Tecnologie di condizionamento</t>
-  </si>
-  <si>
-    <t>Tecnologías de aire acondicionado</t>
-  </si>
-  <si>
-    <t>Klimatisierungstechnologien</t>
-  </si>
-  <si>
     <t>空調技術</t>
   </si>
   <si>
     <t>空调技术</t>
   </si>
   <si>
-    <t>Tecnologie di cottura</t>
-  </si>
-  <si>
-    <t>Tecnologías de cocción</t>
-  </si>
-  <si>
-    <t>Kochtechnologien</t>
-  </si>
-  <si>
     <t>調理技術</t>
   </si>
   <si>
     <t>烹饪技术</t>
   </si>
   <si>
-    <t>Tecnologie di illuminazione</t>
-  </si>
-  <si>
-    <t>Tecnologías de iluminación</t>
-  </si>
-  <si>
-    <t>Beleuchtungstechnologien</t>
-  </si>
-  <si>
     <t>照明技術</t>
   </si>
   <si>
     <t>照明技术</t>
   </si>
   <si>
-    <t>Apparecchi elettrici</t>
-  </si>
-  <si>
     <t>Electrodomésticos</t>
   </si>
   <si>
-    <t>Elektrogeräte</t>
-  </si>
-  <si>
     <t>電化製品</t>
   </si>
   <si>
-    <t>电器设备</t>
-  </si>
-  <si>
     <t>Altri usi</t>
   </si>
   <si>
     <t>Otros usos</t>
   </si>
   <si>
-    <t>Andere Nutzungen</t>
-  </si>
-  <si>
     <t>その他の用途</t>
   </si>
   <si>
@@ -2045,12 +1859,6 @@
     <t>Wärmepumpen (Boden)</t>
   </si>
   <si>
-    <t>ヒートポンプ（地中）</t>
-  </si>
-  <si>
-    <t>热泵（地源）</t>
-  </si>
-  <si>
     <t>Resistenza</t>
   </si>
   <si>
@@ -2060,12 +1868,6 @@
     <t>Widerstand</t>
   </si>
   <si>
-    <t>抵抗加熱</t>
-  </si>
-  <si>
-    <t>电阻加热</t>
-  </si>
-  <si>
     <t>Stufe</t>
   </si>
   <si>
@@ -2075,12 +1877,6 @@
     <t>Öfen</t>
   </si>
   <si>
-    <t>コンロ</t>
-  </si>
-  <si>
-    <t>炉具</t>
-  </si>
-  <si>
     <t>Scambiatore di calore</t>
   </si>
   <si>
@@ -2093,66 +1889,24 @@
     <t>熱交換器</t>
   </si>
   <si>
-    <t>换热器</t>
-  </si>
-  <si>
-    <t>Trasporto totale</t>
-  </si>
-  <si>
-    <t>Transporte total</t>
-  </si>
-  <si>
-    <t>Gesamtverkehr</t>
-  </si>
-  <si>
-    <t>総輸送</t>
-  </si>
-  <si>
-    <t>全部运输</t>
-  </si>
-  <si>
     <t>Trasporto passeggeri</t>
   </si>
   <si>
     <t>Transporte de pasajeros</t>
   </si>
   <si>
-    <t>Personenverkehr</t>
-  </si>
-  <si>
-    <t>旅客輸送</t>
-  </si>
-  <si>
-    <t>客运</t>
-  </si>
-  <si>
     <t>Trasporto merci</t>
   </si>
   <si>
-    <t>Transporte de mercancías</t>
-  </si>
-  <si>
-    <t>Güterverkehr</t>
-  </si>
-  <si>
     <t>貨物輸送</t>
   </si>
   <si>
-    <t>货运</t>
-  </si>
-  <si>
-    <t>Automobili</t>
-  </si>
-  <si>
     <t>Coches</t>
   </si>
   <si>
     <t>Autos</t>
   </si>
   <si>
-    <t>自動車</t>
-  </si>
-  <si>
     <t>汽车</t>
   </si>
   <si>
@@ -2174,33 +1928,12 @@
     <t>Autobus</t>
   </si>
   <si>
-    <t>Autobuses</t>
-  </si>
-  <si>
     <t>Busse</t>
   </si>
   <si>
     <t>バス</t>
   </si>
   <si>
-    <t>公交车</t>
-  </si>
-  <si>
-    <t>Ferrovia</t>
-  </si>
-  <si>
-    <t>Ferrocarril</t>
-  </si>
-  <si>
-    <t>Bahn</t>
-  </si>
-  <si>
-    <t>鉄道</t>
-  </si>
-  <si>
-    <t>铁路</t>
-  </si>
-  <si>
     <t>Aviazione</t>
   </si>
   <si>
@@ -2219,15 +1952,6 @@
     <t>Navegación</t>
   </si>
   <si>
-    <t>Schifffahrt</t>
-  </si>
-  <si>
-    <t>航行</t>
-  </si>
-  <si>
-    <t>航运</t>
-  </si>
-  <si>
     <t>Agricoltura</t>
   </si>
   <si>
@@ -2249,12 +1973,6 @@
     <t>Industrie</t>
   </si>
   <si>
-    <t>産業</t>
-  </si>
-  <si>
-    <t>工业</t>
-  </si>
-  <si>
     <t>Ferro e acciaio</t>
   </si>
   <si>
@@ -2264,12 +1982,6 @@
     <t>Eisen und Stahl</t>
   </si>
   <si>
-    <t>鉄鋼</t>
-  </si>
-  <si>
-    <t>钢铁</t>
-  </si>
-  <si>
     <t>EQ_COMBALM</t>
   </si>
   <si>
@@ -2709,6 +2421,822 @@
   </si>
   <si>
     <t>sg_DiscRate-CO2Price</t>
+  </si>
+  <si>
+    <t>Strom</t>
+  </si>
+  <si>
+    <t>电</t>
+  </si>
+  <si>
+    <t>气体</t>
+  </si>
+  <si>
+    <t>ガス（ブレンド）</t>
+  </si>
+  <si>
+    <t>气（混合）</t>
+  </si>
+  <si>
+    <t>Olio</t>
+  </si>
+  <si>
+    <t>Aceite</t>
+  </si>
+  <si>
+    <t>油</t>
+  </si>
+  <si>
+    <t>Olio (miscele)</t>
+  </si>
+  <si>
+    <t>Aceite (mezclas)</t>
+  </si>
+  <si>
+    <t>オイル（ブレンド）</t>
+  </si>
+  <si>
+    <t>油（混合）</t>
+  </si>
+  <si>
+    <t>Hitze</t>
+  </si>
+  <si>
+    <t>热</t>
+  </si>
+  <si>
+    <t>太陽</t>
+  </si>
+  <si>
+    <t>太阳的</t>
+  </si>
+  <si>
+    <t>Vento</t>
+  </si>
+  <si>
+    <t>Viento</t>
+  </si>
+  <si>
+    <t>風</t>
+  </si>
+  <si>
+    <t>风</t>
+  </si>
+  <si>
+    <t>Hídico</t>
+  </si>
+  <si>
+    <t>ハイドロ</t>
+  </si>
+  <si>
+    <t>其他的</t>
+  </si>
+  <si>
+    <t>Sciupare</t>
+  </si>
+  <si>
+    <t>Desperdiciar</t>
+  </si>
+  <si>
+    <t>無駄</t>
+  </si>
+  <si>
+    <t>浪费</t>
+  </si>
+  <si>
+    <t>Nuklear</t>
+  </si>
+  <si>
+    <t>核</t>
+  </si>
+  <si>
+    <t>氢</t>
+  </si>
+  <si>
+    <t>Carburanti sintetici</t>
+  </si>
+  <si>
+    <t>CO2EQ</t>
+  </si>
+  <si>
+    <t>Wohnen</t>
+  </si>
+  <si>
+    <t>居住の</t>
+  </si>
+  <si>
+    <t>Thermal usa tecniche</t>
+  </si>
+  <si>
+    <t>Termal usa técnicos</t>
+  </si>
+  <si>
+    <t>Thermal verwendet Techniker</t>
+  </si>
+  <si>
+    <t>サーマルは技術を使用します</t>
+  </si>
+  <si>
+    <t>Thermal使用技术</t>
+  </si>
+  <si>
+    <t>Tecniche di aria condizionata</t>
+  </si>
+  <si>
+    <t>Techs de aire acondicionado</t>
+  </si>
+  <si>
+    <t>Klimaanlagen</t>
+  </si>
+  <si>
+    <t>Tecniche di cucina</t>
+  </si>
+  <si>
+    <t>Técnicos de cocina</t>
+  </si>
+  <si>
+    <t>Kochtechniker</t>
+  </si>
+  <si>
+    <t>Tecniche di illuminazione</t>
+  </si>
+  <si>
+    <t>Techs de iluminación</t>
+  </si>
+  <si>
+    <t>Lichttechniker</t>
+  </si>
+  <si>
+    <t>Elettrodomestici elettrici</t>
+  </si>
+  <si>
+    <t>Elektrische Geräte</t>
+  </si>
+  <si>
+    <t>电器</t>
+  </si>
+  <si>
+    <t>Andere Verwendungen</t>
+  </si>
+  <si>
+    <t>Tecniche di illuminazione stradale</t>
+  </si>
+  <si>
+    <t>Techs de iluminación callejera</t>
+  </si>
+  <si>
+    <t>Straßenbeleuchtungstechniker</t>
+  </si>
+  <si>
+    <t>街路照明技術</t>
+  </si>
+  <si>
+    <t>街道照明技术</t>
+  </si>
+  <si>
+    <t>ヒートポンプ（地面）</t>
+  </si>
+  <si>
+    <t>热泵（地面）</t>
+  </si>
+  <si>
+    <t>抵抗</t>
+  </si>
+  <si>
+    <t>反抗</t>
+  </si>
+  <si>
+    <t>ストーブ</t>
+  </si>
+  <si>
+    <t>炉子</t>
+  </si>
+  <si>
+    <t>热交换器</t>
+  </si>
+  <si>
+    <t>Trasporta tutto</t>
+  </si>
+  <si>
+    <t>Transportar todo</t>
+  </si>
+  <si>
+    <t>Alles transportieren</t>
+  </si>
+  <si>
+    <t>すべてを輸送します</t>
+  </si>
+  <si>
+    <t>运输全部</t>
+  </si>
+  <si>
+    <t>Trasporto su strada</t>
+  </si>
+  <si>
+    <t>Transporte por carretera</t>
+  </si>
+  <si>
+    <t>Straßenverkehr</t>
+  </si>
+  <si>
+    <t>道路輸送</t>
+  </si>
+  <si>
+    <t>公路运输</t>
+  </si>
+  <si>
+    <t>Trasporto non strato</t>
+  </si>
+  <si>
+    <t>Transporte sin carretera</t>
+  </si>
+  <si>
+    <t>Nichtstraßenverkehr</t>
+  </si>
+  <si>
+    <t>非道路輸送</t>
+  </si>
+  <si>
+    <t>非道路运输</t>
+  </si>
+  <si>
+    <t>Passagiertransport</t>
+  </si>
+  <si>
+    <t>乗客輸送</t>
+  </si>
+  <si>
+    <t>客运运输</t>
+  </si>
+  <si>
+    <t>Transporte de carga</t>
+  </si>
+  <si>
+    <t>Frachttransport</t>
+  </si>
+  <si>
+    <t>货运运输</t>
+  </si>
+  <si>
+    <t>Trasporto passeggeri terrestri</t>
+  </si>
+  <si>
+    <t>Transporte de pasajeros terrestres</t>
+  </si>
+  <si>
+    <t>Passagiertransport an Land</t>
+  </si>
+  <si>
+    <t>陸上の旅客輸送</t>
+  </si>
+  <si>
+    <t>陆基客运</t>
+  </si>
+  <si>
+    <t>Trasporto merci a terra</t>
+  </si>
+  <si>
+    <t>Transporte de carga terrestre</t>
+  </si>
+  <si>
+    <t>Landbasierter Frachttransport</t>
+  </si>
+  <si>
+    <t>陸上貨物輸送</t>
+  </si>
+  <si>
+    <t>陆基货运运输</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>車</t>
+  </si>
+  <si>
+    <t>Autobús</t>
+  </si>
+  <si>
+    <t>公共汽车</t>
+  </si>
+  <si>
+    <t>Veicoli commerciali leggeri</t>
+  </si>
+  <si>
+    <t>Vehículos comerciales ligeros</t>
+  </si>
+  <si>
+    <t>Leichte Nutzfahrzeuge</t>
+  </si>
+  <si>
+    <t>軽い商用車</t>
+  </si>
+  <si>
+    <t>轻型商用车</t>
+  </si>
+  <si>
+    <t>Veicoli di media perfoti</t>
+  </si>
+  <si>
+    <t>Vehículos de servicio mediano</t>
+  </si>
+  <si>
+    <t>Mittelschwere Fahrzeuge</t>
+  </si>
+  <si>
+    <t>中型車両</t>
+  </si>
+  <si>
+    <t>中型车辆</t>
+  </si>
+  <si>
+    <t>Veicoli per impieghi pesanti</t>
+  </si>
+  <si>
+    <t>Vehículos pesados</t>
+  </si>
+  <si>
+    <t>Hochleistungsfahrzeuge</t>
+  </si>
+  <si>
+    <t>頑丈な車両</t>
+  </si>
+  <si>
+    <t>重型车辆</t>
+  </si>
+  <si>
+    <t>Sbarra</t>
+  </si>
+  <si>
+    <t>Carril</t>
+  </si>
+  <si>
+    <t>Schiene</t>
+  </si>
+  <si>
+    <t>レール</t>
+  </si>
+  <si>
+    <t>轨</t>
+  </si>
+  <si>
+    <t>Rail - passeggero</t>
+  </si>
+  <si>
+    <t>Schiene - Passagier</t>
+  </si>
+  <si>
+    <t>鉄道 - 乗客</t>
+  </si>
+  <si>
+    <t>铁轨 - 乘客</t>
+  </si>
+  <si>
+    <t>Ferrocarril - Freight</t>
+  </si>
+  <si>
+    <t>Schiene - Fracht</t>
+  </si>
+  <si>
+    <t>鉄道 - 貨物</t>
+  </si>
+  <si>
+    <t>铁路 - 货运</t>
+  </si>
+  <si>
+    <t>Aviazione - domestico</t>
+  </si>
+  <si>
+    <t>Aviación - Doméstico</t>
+  </si>
+  <si>
+    <t>Luftfahrt - Haushalt</t>
+  </si>
+  <si>
+    <t>航空 - 国内</t>
+  </si>
+  <si>
+    <t>Aviazione - bunker internazionali</t>
+  </si>
+  <si>
+    <t>Aviación - Bunkers internacionales</t>
+  </si>
+  <si>
+    <t>Luftfahrt - internationale Bunker</t>
+  </si>
+  <si>
+    <t>航空 - 国際バンカー</t>
+  </si>
+  <si>
+    <t>航空 - 国际掩体</t>
+  </si>
+  <si>
+    <t>ナビゲーション</t>
+  </si>
+  <si>
+    <t>导航</t>
+  </si>
+  <si>
+    <t>Navigazione - Domestico</t>
+  </si>
+  <si>
+    <t>Navegación - doméstico</t>
+  </si>
+  <si>
+    <t>Navigation - Inland</t>
+  </si>
+  <si>
+    <t>ナビゲーション - 国内</t>
+  </si>
+  <si>
+    <t>导航 - 国内</t>
+  </si>
+  <si>
+    <t>Navigazione - bunker internazionali</t>
+  </si>
+  <si>
+    <t>Navegación - Bunkers internacionales</t>
+  </si>
+  <si>
+    <t>Navigation - internationale Bunker</t>
+  </si>
+  <si>
+    <t>ナビゲーション - 国際バンカー</t>
+  </si>
+  <si>
+    <t>导航 - 国际掩体</t>
+  </si>
+  <si>
+    <t>業界</t>
+  </si>
+  <si>
+    <t>行业</t>
+  </si>
+  <si>
+    <t>鉄＆鋼</t>
+  </si>
+  <si>
+    <t>铁与钢</t>
+  </si>
+  <si>
+    <t>Prodotti chimici</t>
+  </si>
+  <si>
+    <t>Chemikalien</t>
+  </si>
+  <si>
+    <t>化学物質</t>
+  </si>
+  <si>
+    <t>化学物质</t>
+  </si>
+  <si>
+    <t>Minerali non metallici</t>
+  </si>
+  <si>
+    <t>Minerales no metálicos</t>
+  </si>
+  <si>
+    <t>Nichtmetallische Mineralien</t>
+  </si>
+  <si>
+    <t>非金属鉱物</t>
+  </si>
+  <si>
+    <t>非金属矿物质</t>
+  </si>
+  <si>
+    <t>Metalli non ferrosi</t>
+  </si>
+  <si>
+    <t>Metales no ferrosos</t>
+  </si>
+  <si>
+    <t>Nichteisenmetalle</t>
+  </si>
+  <si>
+    <t>非鉄金属</t>
+  </si>
+  <si>
+    <t>非有产金属</t>
+  </si>
+  <si>
+    <t>Pulp e carta</t>
+  </si>
+  <si>
+    <t>Pulpa y papel</t>
+  </si>
+  <si>
+    <t>Zellstoff und Papier</t>
+  </si>
+  <si>
+    <t>パルプと紙</t>
+  </si>
+  <si>
+    <t>纸浆和纸</t>
+  </si>
+  <si>
+    <t>Prodotti in legno</t>
+  </si>
+  <si>
+    <t>Productos de madera</t>
+  </si>
+  <si>
+    <t>Holzprodukte</t>
+  </si>
+  <si>
+    <t>木材製品</t>
+  </si>
+  <si>
+    <t>木制品</t>
+  </si>
+  <si>
+    <t>Other industry</t>
+  </si>
+  <si>
+    <t>Altro industria</t>
+  </si>
+  <si>
+    <t>Otra industria</t>
+  </si>
+  <si>
+    <t>Andere Branche</t>
+  </si>
+  <si>
+    <t>その他の業界</t>
+  </si>
+  <si>
+    <t>其他行业</t>
+  </si>
+  <si>
+    <t>Commercio endogeno</t>
+  </si>
+  <si>
+    <t>Comercio endógeno</t>
+  </si>
+  <si>
+    <t>Endogener Handel</t>
+  </si>
+  <si>
+    <t>内因性貿易</t>
+  </si>
+  <si>
+    <t>内源性贸易</t>
+  </si>
+  <si>
+    <t>Commercio di elettricità</t>
+  </si>
+  <si>
+    <t>Comercio de electricidad</t>
+  </si>
+  <si>
+    <t>Stromhandel</t>
+  </si>
+  <si>
+    <t>電気貿易</t>
+  </si>
+  <si>
+    <t>电力贸易</t>
+  </si>
+  <si>
+    <t>CCS di carbone</t>
+  </si>
+  <si>
+    <t>CCS de carbón</t>
+  </si>
+  <si>
+    <t>Kohle -CCS</t>
+  </si>
+  <si>
+    <t>石炭CC</t>
+  </si>
+  <si>
+    <t>煤炭CCS</t>
+  </si>
+  <si>
+    <t>GAS CCS</t>
+  </si>
+  <si>
+    <t>CCS de gas</t>
+  </si>
+  <si>
+    <t>ガスCC</t>
+  </si>
+  <si>
+    <t>气体CCS</t>
+  </si>
+  <si>
+    <t>Presa hidráulica</t>
+  </si>
+  <si>
+    <t>Hydro -Damm</t>
+  </si>
+  <si>
+    <t>ハイドロダム</t>
+  </si>
+  <si>
+    <t>水坝</t>
+  </si>
+  <si>
+    <t>Hydro-river River</t>
+  </si>
+  <si>
+    <t>Hydro-Rennfahrer</t>
+  </si>
+  <si>
+    <t>ハイドロ走行路</t>
+  </si>
+  <si>
+    <t>水力运输</t>
+  </si>
+  <si>
+    <t>PV solare</t>
+  </si>
+  <si>
+    <t>Solar fotovolta</t>
+  </si>
+  <si>
+    <t>ソーラーPV</t>
+  </si>
+  <si>
+    <t>太阳能PV</t>
+  </si>
+  <si>
+    <t>CSP solare</t>
+  </si>
+  <si>
+    <t>CSP solar</t>
+  </si>
+  <si>
+    <t>ソーラーCSP</t>
+  </si>
+  <si>
+    <t>太阳CSP</t>
+  </si>
+  <si>
+    <t>Vento onshore</t>
+  </si>
+  <si>
+    <t>Viento en tierra</t>
+  </si>
+  <si>
+    <t>陸上の風</t>
+  </si>
+  <si>
+    <t>陆上风</t>
+  </si>
+  <si>
+    <t>Vento al largo</t>
+  </si>
+  <si>
+    <t>Viento en alta mar</t>
+  </si>
+  <si>
+    <t>Wind vor der Küste</t>
+  </si>
+  <si>
+    <t>オフショアの風</t>
+  </si>
+  <si>
+    <t>海上风</t>
+  </si>
+  <si>
+    <t>Oceano</t>
+  </si>
+  <si>
+    <t>Océano</t>
+  </si>
+  <si>
+    <t>Ozean</t>
+  </si>
+  <si>
+    <t>海</t>
+  </si>
+  <si>
+    <t>海洋</t>
+  </si>
+  <si>
+    <t>Biomassa</t>
+  </si>
+  <si>
+    <t>Biomasa</t>
+  </si>
+  <si>
+    <t>Biomasse</t>
+  </si>
+  <si>
+    <t>バイオマス</t>
+  </si>
+  <si>
+    <t>生物量</t>
+  </si>
+  <si>
+    <t>Biomassa CCS</t>
+  </si>
+  <si>
+    <t>Biomasa CCS</t>
+  </si>
+  <si>
+    <t>Biomasse CCS</t>
+  </si>
+  <si>
+    <t>バイオマスCC</t>
+  </si>
+  <si>
+    <t>生物质CCS</t>
+  </si>
+  <si>
+    <t>Biogás</t>
+  </si>
+  <si>
+    <t>バイオガス</t>
+  </si>
+  <si>
+    <t>沼气</t>
+  </si>
+  <si>
+    <t>BIOGA CCS</t>
+  </si>
+  <si>
+    <t>Biogás CCS</t>
+  </si>
+  <si>
+    <t>バイオガスCCS</t>
+  </si>
+  <si>
+    <t>沼气CCS</t>
+  </si>
+  <si>
+    <t>Bioliquidi</t>
+  </si>
+  <si>
+    <t>Biolíquidos</t>
+  </si>
+  <si>
+    <t>Bioliquide</t>
+  </si>
+  <si>
+    <t>生物肉体</t>
+  </si>
+  <si>
+    <t>生物易生</t>
+  </si>
+  <si>
+    <t>Energia</t>
+  </si>
+  <si>
+    <t>Fuerza</t>
+  </si>
+  <si>
+    <t>Leistung</t>
+  </si>
+  <si>
+    <t>力</t>
+  </si>
+  <si>
+    <t>力量</t>
+  </si>
+  <si>
+    <t>Zentralisiert</t>
+  </si>
+  <si>
+    <t>集中化された</t>
+  </si>
+  <si>
+    <t>集中</t>
+  </si>
+  <si>
+    <t>Decentralizzato</t>
+  </si>
+  <si>
+    <t>Dezentral</t>
+  </si>
+  <si>
+    <t>分散化</t>
+  </si>
+  <si>
+    <t>分散的</t>
+  </si>
+  <si>
+    <t>De %</t>
+  </si>
+  <si>
+    <t>％</t>
+  </si>
+  <si>
+    <t>G/kwh</t>
+  </si>
+  <si>
+    <t>G/kWh</t>
+  </si>
+  <si>
+    <t>g/kwh</t>
+  </si>
+  <si>
+    <t>Pj</t>
+  </si>
+  <si>
+    <t>KT</t>
   </si>
 </sst>
 </file>
@@ -2858,7 +3386,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2958,6 +3486,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2988,7 +3531,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -3014,6 +3557,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -3340,25 +3886,25 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:Z65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" t="s">
-        <v>787</v>
+        <v>691</v>
       </c>
       <c r="H1" t="s">
         <v>88</v>
@@ -3372,13 +3918,13 @@
     </row>
     <row r="2" spans="1:26">
       <c r="H2" t="s">
-        <v>864</v>
+        <v>768</v>
       </c>
       <c r="I2" t="s">
-        <v>863</v>
+        <v>767</v>
       </c>
       <c r="J2" t="s">
-        <v>865</v>
+        <v>769</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -3418,7 +3964,7 @@
         <v>sg_Disc-Rate</v>
       </c>
       <c r="K5" t="s">
-        <v>866</v>
+        <v>770</v>
       </c>
       <c r="O5" t="s">
         <v>86</v>
@@ -3433,7 +3979,7 @@
         <v>1</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>784</v>
+        <v>688</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -3450,7 +3996,7 @@
         <v>cp-000.re-Hi.dr-10.0%</v>
       </c>
       <c r="H6" t="s">
-        <v>843</v>
+        <v>747</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" ref="I6" si="0">P6</f>
@@ -3471,7 +4017,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>788</v>
+        <v>692</v>
       </c>
       <c r="Q6">
         <v>0.1</v>
@@ -3492,7 +4038,7 @@
         <v>2</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>785</v>
+        <v>689</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -3509,7 +4055,7 @@
         <v>cp-000.re-Hi.dr-07.5%</v>
       </c>
       <c r="H7" t="s">
-        <v>843</v>
+        <v>747</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" ref="I7:I55" si="7">P7</f>
@@ -3530,7 +4076,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>788</v>
+        <v>692</v>
       </c>
       <c r="Q7">
         <v>7.4999999999999997E-2</v>
@@ -3551,7 +4097,7 @@
         <v>3</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>782</v>
+        <v>686</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -3568,7 +4114,7 @@
         <v>cp-000.re-Hi.dr-05.0%</v>
       </c>
       <c r="H8" t="s">
-        <v>843</v>
+        <v>747</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="7"/>
@@ -3589,7 +4135,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>788</v>
+        <v>692</v>
       </c>
       <c r="Q8">
         <v>0.05</v>
@@ -3610,7 +4156,7 @@
         <v>4</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>786</v>
+        <v>690</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -3627,7 +4173,7 @@
         <v>cp-000.re-Hi.dr-02.0%</v>
       </c>
       <c r="H9" t="s">
-        <v>843</v>
+        <v>747</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="7"/>
@@ -3648,7 +4194,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>788</v>
+        <v>692</v>
       </c>
       <c r="Q9">
         <v>0.02</v>
@@ -3669,7 +4215,7 @@
         <v>5</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>783</v>
+        <v>687</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -3686,7 +4232,7 @@
         <v>cp-000.re-Hi.dr-01.0%</v>
       </c>
       <c r="H10" t="s">
-        <v>843</v>
+        <v>747</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="7"/>
@@ -3707,7 +4253,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>788</v>
+        <v>692</v>
       </c>
       <c r="Q10">
         <v>0.01</v>
@@ -3728,7 +4274,7 @@
         <v>6</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>820</v>
+        <v>724</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -3745,7 +4291,7 @@
         <v>cp-000.re-Ref.dr-10.0%</v>
       </c>
       <c r="H11" t="s">
-        <v>843</v>
+        <v>747</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="7"/>
@@ -3766,7 +4312,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>789</v>
+        <v>693</v>
       </c>
       <c r="Q11">
         <v>0.1</v>
@@ -3798,7 +4344,7 @@
         <v>cp-000.re-Ref.dr-07.5%</v>
       </c>
       <c r="H12" t="s">
-        <v>843</v>
+        <v>747</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="7"/>
@@ -3819,7 +4365,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>789</v>
+        <v>693</v>
       </c>
       <c r="Q12">
         <v>7.4999999999999997E-2</v>
@@ -3851,7 +4397,7 @@
         <v>cp-000.re-Ref.dr-05.0%</v>
       </c>
       <c r="H13" t="s">
-        <v>843</v>
+        <v>747</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="7"/>
@@ -3872,7 +4418,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>789</v>
+        <v>693</v>
       </c>
       <c r="Q13">
         <v>0.05</v>
@@ -3904,7 +4450,7 @@
         <v>cp-000.re-Ref.dr-02.0%</v>
       </c>
       <c r="H14" t="s">
-        <v>843</v>
+        <v>747</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="7"/>
@@ -3925,7 +4471,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>789</v>
+        <v>693</v>
       </c>
       <c r="Q14">
         <v>0.02</v>
@@ -3957,7 +4503,7 @@
         <v>cp-000.re-Ref.dr-01.0%</v>
       </c>
       <c r="H15" t="s">
-        <v>843</v>
+        <v>747</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="7"/>
@@ -3978,7 +4524,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>789</v>
+        <v>693</v>
       </c>
       <c r="Q15">
         <v>0.01</v>
@@ -4010,7 +4556,7 @@
         <v>cp-050.re-Hi.dr-10.0%</v>
       </c>
       <c r="H16" t="s">
-        <v>844</v>
+        <v>748</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="7"/>
@@ -4031,7 +4577,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>788</v>
+        <v>692</v>
       </c>
       <c r="Q16">
         <v>0.1</v>
@@ -4063,7 +4609,7 @@
         <v>cp-050.re-Hi.dr-07.5%</v>
       </c>
       <c r="H17" t="s">
-        <v>844</v>
+        <v>748</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="7"/>
@@ -4084,7 +4630,7 @@
         <v>2</v>
       </c>
       <c r="P17" t="s">
-        <v>788</v>
+        <v>692</v>
       </c>
       <c r="Q17">
         <v>7.4999999999999997E-2</v>
@@ -4116,7 +4662,7 @@
         <v>cp-050.re-Hi.dr-05.0%</v>
       </c>
       <c r="H18" t="s">
-        <v>844</v>
+        <v>748</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="7"/>
@@ -4137,7 +4683,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>788</v>
+        <v>692</v>
       </c>
       <c r="Q18">
         <v>0.05</v>
@@ -4169,7 +4715,7 @@
         <v>cp-050.re-Hi.dr-02.0%</v>
       </c>
       <c r="H19" t="s">
-        <v>844</v>
+        <v>748</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="7"/>
@@ -4190,7 +4736,7 @@
         <v>2</v>
       </c>
       <c r="P19" t="s">
-        <v>788</v>
+        <v>692</v>
       </c>
       <c r="Q19">
         <v>0.02</v>
@@ -4222,7 +4768,7 @@
         <v>cp-050.re-Hi.dr-01.0%</v>
       </c>
       <c r="H20" t="s">
-        <v>844</v>
+        <v>748</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="7"/>
@@ -4243,7 +4789,7 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>788</v>
+        <v>692</v>
       </c>
       <c r="Q20">
         <v>0.01</v>
@@ -4275,7 +4821,7 @@
         <v>cp-050.re-Ref.dr-10.0%</v>
       </c>
       <c r="H21" t="s">
-        <v>844</v>
+        <v>748</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="7"/>
@@ -4296,7 +4842,7 @@
         <v>2</v>
       </c>
       <c r="P21" t="s">
-        <v>789</v>
+        <v>693</v>
       </c>
       <c r="Q21">
         <v>0.1</v>
@@ -4328,7 +4874,7 @@
         <v>cp-050.re-Ref.dr-07.5%</v>
       </c>
       <c r="H22" t="s">
-        <v>844</v>
+        <v>748</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="7"/>
@@ -4349,7 +4895,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>789</v>
+        <v>693</v>
       </c>
       <c r="Q22">
         <v>7.4999999999999997E-2</v>
@@ -4381,7 +4927,7 @@
         <v>cp-050.re-Ref.dr-05.0%</v>
       </c>
       <c r="H23" t="s">
-        <v>844</v>
+        <v>748</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="7"/>
@@ -4402,7 +4948,7 @@
         <v>2</v>
       </c>
       <c r="P23" t="s">
-        <v>789</v>
+        <v>693</v>
       </c>
       <c r="Q23">
         <v>0.05</v>
@@ -4434,7 +4980,7 @@
         <v>cp-050.re-Ref.dr-02.0%</v>
       </c>
       <c r="H24" t="s">
-        <v>844</v>
+        <v>748</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="7"/>
@@ -4455,7 +5001,7 @@
         <v>2</v>
       </c>
       <c r="P24" t="s">
-        <v>789</v>
+        <v>693</v>
       </c>
       <c r="Q24">
         <v>0.02</v>
@@ -4487,7 +5033,7 @@
         <v>cp-050.re-Ref.dr-01.0%</v>
       </c>
       <c r="H25" t="s">
-        <v>844</v>
+        <v>748</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="7"/>
@@ -4508,7 +5054,7 @@
         <v>2</v>
       </c>
       <c r="P25" t="s">
-        <v>789</v>
+        <v>693</v>
       </c>
       <c r="Q25">
         <v>0.01</v>
@@ -4540,7 +5086,7 @@
         <v>cp-100.re-Hi.dr-10.0%</v>
       </c>
       <c r="H26" t="s">
-        <v>845</v>
+        <v>749</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="7"/>
@@ -4561,7 +5107,7 @@
         <v>3</v>
       </c>
       <c r="P26" t="s">
-        <v>788</v>
+        <v>692</v>
       </c>
       <c r="Q26">
         <v>0.1</v>
@@ -4593,7 +5139,7 @@
         <v>cp-100.re-Hi.dr-07.5%</v>
       </c>
       <c r="H27" t="s">
-        <v>845</v>
+        <v>749</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="7"/>
@@ -4614,7 +5160,7 @@
         <v>3</v>
       </c>
       <c r="P27" t="s">
-        <v>788</v>
+        <v>692</v>
       </c>
       <c r="Q27">
         <v>7.4999999999999997E-2</v>
@@ -4646,7 +5192,7 @@
         <v>cp-100.re-Hi.dr-05.0%</v>
       </c>
       <c r="H28" t="s">
-        <v>845</v>
+        <v>749</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="7"/>
@@ -4667,7 +5213,7 @@
         <v>3</v>
       </c>
       <c r="P28" t="s">
-        <v>788</v>
+        <v>692</v>
       </c>
       <c r="Q28">
         <v>0.05</v>
@@ -4699,7 +5245,7 @@
         <v>cp-100.re-Hi.dr-02.0%</v>
       </c>
       <c r="H29" t="s">
-        <v>845</v>
+        <v>749</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="7"/>
@@ -4720,7 +5266,7 @@
         <v>3</v>
       </c>
       <c r="P29" t="s">
-        <v>788</v>
+        <v>692</v>
       </c>
       <c r="Q29">
         <v>0.02</v>
@@ -4752,7 +5298,7 @@
         <v>cp-100.re-Hi.dr-01.0%</v>
       </c>
       <c r="H30" t="s">
-        <v>845</v>
+        <v>749</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="7"/>
@@ -4773,7 +5319,7 @@
         <v>3</v>
       </c>
       <c r="P30" t="s">
-        <v>788</v>
+        <v>692</v>
       </c>
       <c r="Q30">
         <v>0.01</v>
@@ -4805,7 +5351,7 @@
         <v>cp-100.re-Ref.dr-10.0%</v>
       </c>
       <c r="H31" t="s">
-        <v>845</v>
+        <v>749</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="7"/>
@@ -4826,7 +5372,7 @@
         <v>3</v>
       </c>
       <c r="P31" t="s">
-        <v>789</v>
+        <v>693</v>
       </c>
       <c r="Q31">
         <v>0.1</v>
@@ -4858,7 +5404,7 @@
         <v>cp-100.re-Ref.dr-07.5%</v>
       </c>
       <c r="H32" t="s">
-        <v>845</v>
+        <v>749</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="7"/>
@@ -4879,7 +5425,7 @@
         <v>3</v>
       </c>
       <c r="P32" t="s">
-        <v>789</v>
+        <v>693</v>
       </c>
       <c r="Q32">
         <v>7.4999999999999997E-2</v>
@@ -4911,7 +5457,7 @@
         <v>cp-100.re-Ref.dr-05.0%</v>
       </c>
       <c r="H33" t="s">
-        <v>845</v>
+        <v>749</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="7"/>
@@ -4932,7 +5478,7 @@
         <v>3</v>
       </c>
       <c r="P33" t="s">
-        <v>789</v>
+        <v>693</v>
       </c>
       <c r="Q33">
         <v>0.05</v>
@@ -4964,7 +5510,7 @@
         <v>cp-100.re-Ref.dr-02.0%</v>
       </c>
       <c r="H34" t="s">
-        <v>845</v>
+        <v>749</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="7"/>
@@ -4985,7 +5531,7 @@
         <v>3</v>
       </c>
       <c r="P34" t="s">
-        <v>789</v>
+        <v>693</v>
       </c>
       <c r="Q34">
         <v>0.02</v>
@@ -5017,7 +5563,7 @@
         <v>cp-100.re-Ref.dr-01.0%</v>
       </c>
       <c r="H35" t="s">
-        <v>845</v>
+        <v>749</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="7"/>
@@ -5038,7 +5584,7 @@
         <v>3</v>
       </c>
       <c r="P35" t="s">
-        <v>789</v>
+        <v>693</v>
       </c>
       <c r="Q35">
         <v>0.01</v>
@@ -5070,7 +5616,7 @@
         <v>cp-150.re-Hi.dr-10.0%</v>
       </c>
       <c r="H36" t="s">
-        <v>846</v>
+        <v>750</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="7"/>
@@ -5091,7 +5637,7 @@
         <v>4</v>
       </c>
       <c r="P36" t="s">
-        <v>788</v>
+        <v>692</v>
       </c>
       <c r="Q36">
         <v>0.1</v>
@@ -5123,7 +5669,7 @@
         <v>cp-150.re-Hi.dr-07.5%</v>
       </c>
       <c r="H37" t="s">
-        <v>846</v>
+        <v>750</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="7"/>
@@ -5144,7 +5690,7 @@
         <v>4</v>
       </c>
       <c r="P37" t="s">
-        <v>788</v>
+        <v>692</v>
       </c>
       <c r="Q37">
         <v>7.4999999999999997E-2</v>
@@ -5176,7 +5722,7 @@
         <v>cp-150.re-Hi.dr-05.0%</v>
       </c>
       <c r="H38" t="s">
-        <v>846</v>
+        <v>750</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="7"/>
@@ -5197,7 +5743,7 @@
         <v>4</v>
       </c>
       <c r="P38" t="s">
-        <v>788</v>
+        <v>692</v>
       </c>
       <c r="Q38">
         <v>0.05</v>
@@ -5229,7 +5775,7 @@
         <v>cp-150.re-Hi.dr-02.0%</v>
       </c>
       <c r="H39" t="s">
-        <v>846</v>
+        <v>750</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="7"/>
@@ -5250,7 +5796,7 @@
         <v>4</v>
       </c>
       <c r="P39" t="s">
-        <v>788</v>
+        <v>692</v>
       </c>
       <c r="Q39">
         <v>0.02</v>
@@ -5282,7 +5828,7 @@
         <v>cp-150.re-Hi.dr-01.0%</v>
       </c>
       <c r="H40" t="s">
-        <v>846</v>
+        <v>750</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="7"/>
@@ -5303,7 +5849,7 @@
         <v>4</v>
       </c>
       <c r="P40" t="s">
-        <v>788</v>
+        <v>692</v>
       </c>
       <c r="Q40">
         <v>0.01</v>
@@ -5335,7 +5881,7 @@
         <v>cp-150.re-Ref.dr-10.0%</v>
       </c>
       <c r="H41" t="s">
-        <v>846</v>
+        <v>750</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="7"/>
@@ -5356,7 +5902,7 @@
         <v>4</v>
       </c>
       <c r="P41" t="s">
-        <v>789</v>
+        <v>693</v>
       </c>
       <c r="Q41">
         <v>0.1</v>
@@ -5388,7 +5934,7 @@
         <v>cp-150.re-Ref.dr-07.5%</v>
       </c>
       <c r="H42" t="s">
-        <v>846</v>
+        <v>750</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="7"/>
@@ -5409,7 +5955,7 @@
         <v>4</v>
       </c>
       <c r="P42" t="s">
-        <v>789</v>
+        <v>693</v>
       </c>
       <c r="Q42">
         <v>7.4999999999999997E-2</v>
@@ -5441,7 +5987,7 @@
         <v>cp-150.re-Ref.dr-05.0%</v>
       </c>
       <c r="H43" t="s">
-        <v>846</v>
+        <v>750</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="7"/>
@@ -5462,7 +6008,7 @@
         <v>4</v>
       </c>
       <c r="P43" t="s">
-        <v>789</v>
+        <v>693</v>
       </c>
       <c r="Q43">
         <v>0.05</v>
@@ -5494,7 +6040,7 @@
         <v>cp-150.re-Ref.dr-02.0%</v>
       </c>
       <c r="H44" t="s">
-        <v>846</v>
+        <v>750</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="7"/>
@@ -5515,7 +6061,7 @@
         <v>4</v>
       </c>
       <c r="P44" t="s">
-        <v>789</v>
+        <v>693</v>
       </c>
       <c r="Q44">
         <v>0.02</v>
@@ -5547,7 +6093,7 @@
         <v>cp-150.re-Ref.dr-01.0%</v>
       </c>
       <c r="H45" t="s">
-        <v>846</v>
+        <v>750</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="7"/>
@@ -5568,7 +6114,7 @@
         <v>4</v>
       </c>
       <c r="P45" t="s">
-        <v>789</v>
+        <v>693</v>
       </c>
       <c r="Q45">
         <v>0.01</v>
@@ -5600,7 +6146,7 @@
         <v>cp-300.re-Hi.dr-10.0%</v>
       </c>
       <c r="H46" t="s">
-        <v>847</v>
+        <v>751</v>
       </c>
       <c r="I46" t="str">
         <f t="shared" si="7"/>
@@ -5621,7 +6167,7 @@
         <v>5</v>
       </c>
       <c r="P46" t="s">
-        <v>788</v>
+        <v>692</v>
       </c>
       <c r="Q46">
         <v>0.1</v>
@@ -5653,7 +6199,7 @@
         <v>cp-300.re-Hi.dr-07.5%</v>
       </c>
       <c r="H47" t="s">
-        <v>847</v>
+        <v>751</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="7"/>
@@ -5674,7 +6220,7 @@
         <v>5</v>
       </c>
       <c r="P47" t="s">
-        <v>788</v>
+        <v>692</v>
       </c>
       <c r="Q47">
         <v>7.4999999999999997E-2</v>
@@ -5706,7 +6252,7 @@
         <v>cp-300.re-Hi.dr-05.0%</v>
       </c>
       <c r="H48" t="s">
-        <v>847</v>
+        <v>751</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="7"/>
@@ -5727,7 +6273,7 @@
         <v>5</v>
       </c>
       <c r="P48" t="s">
-        <v>788</v>
+        <v>692</v>
       </c>
       <c r="Q48">
         <v>0.05</v>
@@ -5759,7 +6305,7 @@
         <v>cp-300.re-Hi.dr-02.0%</v>
       </c>
       <c r="H49" t="s">
-        <v>847</v>
+        <v>751</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="7"/>
@@ -5780,7 +6326,7 @@
         <v>5</v>
       </c>
       <c r="P49" t="s">
-        <v>788</v>
+        <v>692</v>
       </c>
       <c r="Q49">
         <v>0.02</v>
@@ -5812,7 +6358,7 @@
         <v>cp-300.re-Hi.dr-01.0%</v>
       </c>
       <c r="H50" t="s">
-        <v>847</v>
+        <v>751</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="7"/>
@@ -5833,7 +6379,7 @@
         <v>5</v>
       </c>
       <c r="P50" t="s">
-        <v>788</v>
+        <v>692</v>
       </c>
       <c r="Q50">
         <v>0.01</v>
@@ -5865,7 +6411,7 @@
         <v>cp-300.re-Ref.dr-10.0%</v>
       </c>
       <c r="H51" t="s">
-        <v>847</v>
+        <v>751</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="7"/>
@@ -5886,7 +6432,7 @@
         <v>5</v>
       </c>
       <c r="P51" t="s">
-        <v>789</v>
+        <v>693</v>
       </c>
       <c r="Q51">
         <v>0.1</v>
@@ -5918,7 +6464,7 @@
         <v>cp-300.re-Ref.dr-07.5%</v>
       </c>
       <c r="H52" t="s">
-        <v>847</v>
+        <v>751</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="7"/>
@@ -5939,7 +6485,7 @@
         <v>5</v>
       </c>
       <c r="P52" t="s">
-        <v>789</v>
+        <v>693</v>
       </c>
       <c r="Q52">
         <v>7.4999999999999997E-2</v>
@@ -5971,7 +6517,7 @@
         <v>cp-300.re-Ref.dr-05.0%</v>
       </c>
       <c r="H53" t="s">
-        <v>847</v>
+        <v>751</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" si="7"/>
@@ -5992,7 +6538,7 @@
         <v>5</v>
       </c>
       <c r="P53" t="s">
-        <v>789</v>
+        <v>693</v>
       </c>
       <c r="Q53">
         <v>0.05</v>
@@ -6024,7 +6570,7 @@
         <v>cp-300.re-Ref.dr-02.0%</v>
       </c>
       <c r="H54" t="s">
-        <v>847</v>
+        <v>751</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" si="7"/>
@@ -6045,7 +6591,7 @@
         <v>5</v>
       </c>
       <c r="P54" t="s">
-        <v>789</v>
+        <v>693</v>
       </c>
       <c r="Q54">
         <v>0.02</v>
@@ -6077,7 +6623,7 @@
         <v>cp-300.re-Ref.dr-01.0%</v>
       </c>
       <c r="H55" t="s">
-        <v>847</v>
+        <v>751</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" si="7"/>
@@ -6098,7 +6644,7 @@
         <v>5</v>
       </c>
       <c r="P55" t="s">
-        <v>789</v>
+        <v>693</v>
       </c>
       <c r="Q55">
         <v>0.01</v>
@@ -6130,7 +6676,7 @@
         <v>cp-225.re-Hi.dr-10.0%</v>
       </c>
       <c r="H56" t="s">
-        <v>848</v>
+        <v>752</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" ref="I56:I65" si="16">P56</f>
@@ -6151,7 +6697,7 @@
         <v>6</v>
       </c>
       <c r="P56" t="s">
-        <v>788</v>
+        <v>692</v>
       </c>
       <c r="Q56">
         <v>0.1</v>
@@ -6183,7 +6729,7 @@
         <v>cp-225.re-Hi.dr-07.5%</v>
       </c>
       <c r="H57" t="s">
-        <v>848</v>
+        <v>752</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="16"/>
@@ -6204,7 +6750,7 @@
         <v>6</v>
       </c>
       <c r="P57" t="s">
-        <v>788</v>
+        <v>692</v>
       </c>
       <c r="Q57">
         <v>7.4999999999999997E-2</v>
@@ -6236,7 +6782,7 @@
         <v>cp-225.re-Hi.dr-05.0%</v>
       </c>
       <c r="H58" t="s">
-        <v>848</v>
+        <v>752</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" si="16"/>
@@ -6257,7 +6803,7 @@
         <v>6</v>
       </c>
       <c r="P58" t="s">
-        <v>788</v>
+        <v>692</v>
       </c>
       <c r="Q58">
         <v>0.05</v>
@@ -6289,7 +6835,7 @@
         <v>cp-225.re-Hi.dr-02.0%</v>
       </c>
       <c r="H59" t="s">
-        <v>848</v>
+        <v>752</v>
       </c>
       <c r="I59" t="str">
         <f t="shared" si="16"/>
@@ -6310,7 +6856,7 @@
         <v>6</v>
       </c>
       <c r="P59" t="s">
-        <v>788</v>
+        <v>692</v>
       </c>
       <c r="Q59">
         <v>0.02</v>
@@ -6342,7 +6888,7 @@
         <v>cp-225.re-Hi.dr-01.0%</v>
       </c>
       <c r="H60" t="s">
-        <v>848</v>
+        <v>752</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="16"/>
@@ -6363,7 +6909,7 @@
         <v>6</v>
       </c>
       <c r="P60" t="s">
-        <v>788</v>
+        <v>692</v>
       </c>
       <c r="Q60">
         <v>0.01</v>
@@ -6395,7 +6941,7 @@
         <v>cp-225.re-Ref.dr-10.0%</v>
       </c>
       <c r="H61" t="s">
-        <v>848</v>
+        <v>752</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" si="16"/>
@@ -6416,7 +6962,7 @@
         <v>6</v>
       </c>
       <c r="P61" t="s">
-        <v>789</v>
+        <v>693</v>
       </c>
       <c r="Q61">
         <v>0.1</v>
@@ -6448,7 +6994,7 @@
         <v>cp-225.re-Ref.dr-07.5%</v>
       </c>
       <c r="H62" t="s">
-        <v>848</v>
+        <v>752</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" si="16"/>
@@ -6469,7 +7015,7 @@
         <v>6</v>
       </c>
       <c r="P62" t="s">
-        <v>789</v>
+        <v>693</v>
       </c>
       <c r="Q62">
         <v>7.4999999999999997E-2</v>
@@ -6501,7 +7047,7 @@
         <v>cp-225.re-Ref.dr-05.0%</v>
       </c>
       <c r="H63" t="s">
-        <v>848</v>
+        <v>752</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="16"/>
@@ -6522,7 +7068,7 @@
         <v>6</v>
       </c>
       <c r="P63" t="s">
-        <v>789</v>
+        <v>693</v>
       </c>
       <c r="Q63">
         <v>0.05</v>
@@ -6554,7 +7100,7 @@
         <v>cp-225.re-Ref.dr-02.0%</v>
       </c>
       <c r="H64" t="s">
-        <v>848</v>
+        <v>752</v>
       </c>
       <c r="I64" t="str">
         <f t="shared" si="16"/>
@@ -6575,7 +7121,7 @@
         <v>6</v>
       </c>
       <c r="P64" t="s">
-        <v>789</v>
+        <v>693</v>
       </c>
       <c r="Q64">
         <v>0.02</v>
@@ -6607,7 +7153,7 @@
         <v>cp-225.re-Ref.dr-01.0%</v>
       </c>
       <c r="H65" t="s">
-        <v>848</v>
+        <v>752</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" si="16"/>
@@ -6628,7 +7174,7 @@
         <v>6</v>
       </c>
       <c r="P65" t="s">
-        <v>789</v>
+        <v>693</v>
       </c>
       <c r="Q65">
         <v>0.01</v>
@@ -6660,16 +7206,16 @@
       <selection activeCell="C3" sqref="C3:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -6958,9 +7504,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -7003,11 +7549,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7080B6D8-5B4D-43BE-B27E-6742BCADC05C}">
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
   </cols>
@@ -7018,22 +7564,22 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="12" t="s">
         <v>475</v>
       </c>
     </row>
@@ -7048,13 +7594,13 @@
         <v>507</v>
       </c>
       <c r="D3" t="s">
+        <v>771</v>
+      </c>
+      <c r="E3" t="s">
         <v>508</v>
       </c>
-      <c r="E3" t="s">
-        <v>509</v>
-      </c>
       <c r="F3" t="s">
-        <v>510</v>
+        <v>772</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -7062,19 +7608,19 @@
         <v>97</v>
       </c>
       <c r="B4" t="s">
+        <v>509</v>
+      </c>
+      <c r="C4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D4" t="s">
         <v>511</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>512</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>513</v>
-      </c>
-      <c r="E4" t="s">
-        <v>514</v>
-      </c>
-      <c r="F4" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -7091,10 +7637,10 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F5" t="s">
-        <v>517</v>
+        <v>773</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7102,19 +7648,19 @@
         <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C6" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E6" t="s">
-        <v>521</v>
+        <v>774</v>
       </c>
       <c r="F6" t="s">
-        <v>522</v>
+        <v>775</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7122,19 +7668,19 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>523</v>
+        <v>776</v>
       </c>
       <c r="C7" t="s">
-        <v>524</v>
+        <v>777</v>
       </c>
       <c r="D7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="E7" t="s">
-        <v>526</v>
+        <v>778</v>
       </c>
       <c r="F7" t="s">
-        <v>526</v>
+        <v>778</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7142,19 +7688,19 @@
         <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>527</v>
+        <v>779</v>
       </c>
       <c r="C8" t="s">
-        <v>528</v>
+        <v>780</v>
       </c>
       <c r="D8" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="E8" t="s">
-        <v>530</v>
+        <v>781</v>
       </c>
       <c r="F8" t="s">
-        <v>530</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -7162,19 +7708,19 @@
         <v>105</v>
       </c>
       <c r="B9" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="C9" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="D9" t="s">
-        <v>533</v>
+        <v>783</v>
       </c>
       <c r="E9" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F9" t="s">
-        <v>535</v>
+        <v>784</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -7182,19 +7728,19 @@
         <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="C10" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="D10" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="E10" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="F10" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -7202,7 +7748,7 @@
         <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="C11" t="s">
         <v>109</v>
@@ -7211,10 +7757,10 @@
         <v>109</v>
       </c>
       <c r="E11" t="s">
-        <v>542</v>
+        <v>785</v>
       </c>
       <c r="F11" t="s">
-        <v>543</v>
+        <v>786</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -7222,19 +7768,19 @@
         <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>544</v>
+        <v>787</v>
       </c>
       <c r="C12" t="s">
-        <v>545</v>
+        <v>788</v>
       </c>
       <c r="D12" t="s">
         <v>111</v>
       </c>
       <c r="E12" t="s">
-        <v>546</v>
+        <v>789</v>
       </c>
       <c r="F12" t="s">
-        <v>547</v>
+        <v>790</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -7242,19 +7788,19 @@
         <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>548</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>549</v>
+        <v>113</v>
       </c>
       <c r="D13" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="E13" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
       <c r="F13" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -7262,19 +7808,19 @@
         <v>115</v>
       </c>
       <c r="B14" t="s">
-        <v>553</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>554</v>
+        <v>791</v>
       </c>
       <c r="D14" t="s">
-        <v>555</v>
+        <v>115</v>
       </c>
       <c r="E14" t="s">
-        <v>556</v>
+        <v>792</v>
       </c>
       <c r="F14" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -7282,19 +7828,19 @@
         <v>117</v>
       </c>
       <c r="B15" t="s">
-        <v>558</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s">
-        <v>559</v>
+        <v>117</v>
       </c>
       <c r="D15" t="s">
-        <v>560</v>
+        <v>533</v>
       </c>
       <c r="E15" t="s">
-        <v>561</v>
+        <v>534</v>
       </c>
       <c r="F15" t="s">
-        <v>562</v>
+        <v>793</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -7302,19 +7848,19 @@
         <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>563</v>
+        <v>794</v>
       </c>
       <c r="C16" t="s">
-        <v>564</v>
+        <v>795</v>
       </c>
       <c r="D16" t="s">
-        <v>565</v>
+        <v>535</v>
       </c>
       <c r="E16" t="s">
-        <v>566</v>
+        <v>796</v>
       </c>
       <c r="F16" t="s">
-        <v>567</v>
+        <v>797</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7322,19 +7868,19 @@
         <v>121</v>
       </c>
       <c r="B17" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="C17" t="s">
         <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>569</v>
+        <v>798</v>
       </c>
       <c r="E17" t="s">
-        <v>570</v>
+        <v>799</v>
       </c>
       <c r="F17" t="s">
-        <v>571</v>
+        <v>799</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7342,19 +7888,19 @@
         <v>123</v>
       </c>
       <c r="B18" t="s">
-        <v>572</v>
+        <v>537</v>
       </c>
       <c r="C18" t="s">
-        <v>573</v>
+        <v>538</v>
       </c>
       <c r="D18" t="s">
-        <v>574</v>
+        <v>539</v>
       </c>
       <c r="E18" t="s">
-        <v>575</v>
+        <v>540</v>
       </c>
       <c r="F18" t="s">
-        <v>576</v>
+        <v>800</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7362,19 +7908,19 @@
         <v>125</v>
       </c>
       <c r="B19" t="s">
-        <v>577</v>
+        <v>541</v>
       </c>
       <c r="C19" t="s">
-        <v>578</v>
+        <v>542</v>
       </c>
       <c r="D19" t="s">
-        <v>579</v>
+        <v>543</v>
       </c>
       <c r="E19" t="s">
-        <v>580</v>
+        <v>544</v>
       </c>
       <c r="F19" t="s">
-        <v>581</v>
+        <v>545</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7382,19 +7928,19 @@
         <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>582</v>
+        <v>801</v>
       </c>
       <c r="C20" t="s">
-        <v>583</v>
+        <v>546</v>
       </c>
       <c r="D20" t="s">
-        <v>584</v>
+        <v>547</v>
       </c>
       <c r="E20" t="s">
-        <v>585</v>
+        <v>548</v>
       </c>
       <c r="F20" t="s">
-        <v>585</v>
+        <v>548</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7402,19 +7948,19 @@
         <v>129</v>
       </c>
       <c r="B21" t="s">
-        <v>129</v>
+        <v>802</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>802</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>802</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>802</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>802</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7431,10 +7977,10 @@
         <v>131</v>
       </c>
       <c r="E22" t="s">
-        <v>586</v>
+        <v>131</v>
       </c>
       <c r="F22" t="s">
-        <v>587</v>
+        <v>549</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7451,10 +7997,10 @@
         <v>133</v>
       </c>
       <c r="E23" t="s">
-        <v>588</v>
+        <v>133</v>
       </c>
       <c r="F23" t="s">
-        <v>589</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7471,10 +8017,10 @@
         <v>135</v>
       </c>
       <c r="E24" t="s">
-        <v>590</v>
+        <v>135</v>
       </c>
       <c r="F24" t="s">
-        <v>591</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7482,19 +8028,19 @@
         <v>165</v>
       </c>
       <c r="B25" t="s">
-        <v>592</v>
+        <v>550</v>
       </c>
       <c r="C25" t="s">
-        <v>593</v>
+        <v>551</v>
       </c>
       <c r="D25" t="s">
-        <v>594</v>
+        <v>803</v>
       </c>
       <c r="E25" t="s">
-        <v>595</v>
+        <v>804</v>
       </c>
       <c r="F25" t="s">
-        <v>596</v>
+        <v>552</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7502,19 +8048,19 @@
         <v>166</v>
       </c>
       <c r="B26" t="s">
-        <v>597</v>
+        <v>553</v>
       </c>
       <c r="C26" t="s">
-        <v>598</v>
+        <v>554</v>
       </c>
       <c r="D26" t="s">
-        <v>599</v>
+        <v>555</v>
       </c>
       <c r="E26" t="s">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="F26" t="s">
-        <v>601</v>
+        <v>557</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7522,19 +8068,19 @@
         <v>167</v>
       </c>
       <c r="B27" t="s">
-        <v>602</v>
+        <v>805</v>
       </c>
       <c r="C27" t="s">
-        <v>603</v>
+        <v>806</v>
       </c>
       <c r="D27" t="s">
-        <v>604</v>
+        <v>807</v>
       </c>
       <c r="E27" t="s">
-        <v>605</v>
+        <v>808</v>
       </c>
       <c r="F27" t="s">
-        <v>606</v>
+        <v>809</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7542,19 +8088,19 @@
         <v>168</v>
       </c>
       <c r="B28" t="s">
-        <v>607</v>
+        <v>810</v>
       </c>
       <c r="C28" t="s">
-        <v>608</v>
+        <v>811</v>
       </c>
       <c r="D28" t="s">
-        <v>609</v>
+        <v>812</v>
       </c>
       <c r="E28" t="s">
-        <v>610</v>
+        <v>558</v>
       </c>
       <c r="F28" t="s">
-        <v>611</v>
+        <v>559</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7562,19 +8108,19 @@
         <v>169</v>
       </c>
       <c r="B29" t="s">
-        <v>612</v>
+        <v>813</v>
       </c>
       <c r="C29" t="s">
-        <v>613</v>
+        <v>814</v>
       </c>
       <c r="D29" t="s">
-        <v>614</v>
+        <v>815</v>
       </c>
       <c r="E29" t="s">
-        <v>615</v>
+        <v>560</v>
       </c>
       <c r="F29" t="s">
-        <v>616</v>
+        <v>561</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7582,19 +8128,19 @@
         <v>170</v>
       </c>
       <c r="B30" t="s">
-        <v>617</v>
+        <v>816</v>
       </c>
       <c r="C30" t="s">
-        <v>618</v>
+        <v>817</v>
       </c>
       <c r="D30" t="s">
-        <v>619</v>
+        <v>818</v>
       </c>
       <c r="E30" t="s">
-        <v>620</v>
+        <v>562</v>
       </c>
       <c r="F30" t="s">
-        <v>621</v>
+        <v>563</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7602,19 +8148,19 @@
         <v>171</v>
       </c>
       <c r="B31" t="s">
-        <v>622</v>
+        <v>819</v>
       </c>
       <c r="C31" t="s">
-        <v>623</v>
+        <v>564</v>
       </c>
       <c r="D31" t="s">
-        <v>624</v>
+        <v>820</v>
       </c>
       <c r="E31" t="s">
-        <v>625</v>
+        <v>565</v>
       </c>
       <c r="F31" t="s">
-        <v>626</v>
+        <v>821</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7622,19 +8168,19 @@
         <v>172</v>
       </c>
       <c r="B32" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
       <c r="C32" t="s">
-        <v>628</v>
+        <v>567</v>
       </c>
       <c r="D32" t="s">
-        <v>629</v>
+        <v>822</v>
       </c>
       <c r="E32" t="s">
-        <v>630</v>
+        <v>568</v>
       </c>
       <c r="F32" t="s">
-        <v>631</v>
+        <v>569</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7642,19 +8188,19 @@
         <v>179</v>
       </c>
       <c r="B33" t="s">
-        <v>179</v>
+        <v>823</v>
       </c>
       <c r="C33" t="s">
-        <v>179</v>
+        <v>824</v>
       </c>
       <c r="D33" t="s">
-        <v>179</v>
+        <v>825</v>
       </c>
       <c r="E33" t="s">
-        <v>179</v>
+        <v>826</v>
       </c>
       <c r="F33" t="s">
-        <v>179</v>
+        <v>827</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7662,19 +8208,19 @@
         <v>173</v>
       </c>
       <c r="B34" t="s">
-        <v>632</v>
+        <v>570</v>
       </c>
       <c r="C34" t="s">
-        <v>633</v>
+        <v>571</v>
       </c>
       <c r="D34" t="s">
-        <v>634</v>
+        <v>572</v>
       </c>
       <c r="E34" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="F34" t="s">
-        <v>636</v>
+        <v>574</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7682,19 +8228,19 @@
         <v>174</v>
       </c>
       <c r="B35" t="s">
-        <v>637</v>
+        <v>575</v>
       </c>
       <c r="C35" t="s">
-        <v>638</v>
+        <v>576</v>
       </c>
       <c r="D35" t="s">
-        <v>639</v>
+        <v>577</v>
       </c>
       <c r="E35" t="s">
-        <v>640</v>
+        <v>578</v>
       </c>
       <c r="F35" t="s">
-        <v>641</v>
+        <v>579</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7702,19 +8248,19 @@
         <v>175</v>
       </c>
       <c r="B36" t="s">
-        <v>642</v>
+        <v>580</v>
       </c>
       <c r="C36" t="s">
-        <v>643</v>
+        <v>581</v>
       </c>
       <c r="D36" t="s">
-        <v>644</v>
+        <v>582</v>
       </c>
       <c r="E36" t="s">
-        <v>645</v>
+        <v>828</v>
       </c>
       <c r="F36" t="s">
-        <v>646</v>
+        <v>829</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7722,19 +8268,19 @@
         <v>176</v>
       </c>
       <c r="B37" t="s">
-        <v>647</v>
+        <v>583</v>
       </c>
       <c r="C37" t="s">
-        <v>648</v>
+        <v>584</v>
       </c>
       <c r="D37" t="s">
-        <v>649</v>
+        <v>585</v>
       </c>
       <c r="E37" t="s">
-        <v>650</v>
+        <v>830</v>
       </c>
       <c r="F37" t="s">
-        <v>651</v>
+        <v>831</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7742,19 +8288,19 @@
         <v>177</v>
       </c>
       <c r="B38" t="s">
-        <v>652</v>
+        <v>586</v>
       </c>
       <c r="C38" t="s">
-        <v>653</v>
+        <v>587</v>
       </c>
       <c r="D38" t="s">
-        <v>654</v>
+        <v>588</v>
       </c>
       <c r="E38" t="s">
-        <v>655</v>
+        <v>832</v>
       </c>
       <c r="F38" t="s">
-        <v>656</v>
+        <v>833</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7762,19 +8308,19 @@
         <v>178</v>
       </c>
       <c r="B39" t="s">
-        <v>657</v>
+        <v>589</v>
       </c>
       <c r="C39" t="s">
-        <v>658</v>
+        <v>590</v>
       </c>
       <c r="D39" t="s">
-        <v>659</v>
+        <v>591</v>
       </c>
       <c r="E39" t="s">
-        <v>660</v>
+        <v>592</v>
       </c>
       <c r="F39" t="s">
-        <v>661</v>
+        <v>834</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7782,19 +8328,19 @@
         <v>181</v>
       </c>
       <c r="B40" t="s">
-        <v>662</v>
+        <v>835</v>
       </c>
       <c r="C40" t="s">
-        <v>663</v>
+        <v>836</v>
       </c>
       <c r="D40" t="s">
-        <v>664</v>
+        <v>837</v>
       </c>
       <c r="E40" t="s">
-        <v>665</v>
+        <v>838</v>
       </c>
       <c r="F40" t="s">
-        <v>666</v>
+        <v>839</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7802,19 +8348,19 @@
         <v>182</v>
       </c>
       <c r="B41" t="s">
-        <v>182</v>
+        <v>840</v>
       </c>
       <c r="C41" t="s">
-        <v>182</v>
+        <v>841</v>
       </c>
       <c r="D41" t="s">
-        <v>182</v>
+        <v>842</v>
       </c>
       <c r="E41" t="s">
-        <v>182</v>
+        <v>843</v>
       </c>
       <c r="F41" t="s">
-        <v>182</v>
+        <v>844</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7822,19 +8368,19 @@
         <v>184</v>
       </c>
       <c r="B42" t="s">
-        <v>184</v>
+        <v>845</v>
       </c>
       <c r="C42" t="s">
-        <v>184</v>
+        <v>846</v>
       </c>
       <c r="D42" t="s">
-        <v>184</v>
+        <v>847</v>
       </c>
       <c r="E42" t="s">
-        <v>184</v>
+        <v>848</v>
       </c>
       <c r="F42" t="s">
-        <v>184</v>
+        <v>849</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7842,19 +8388,19 @@
         <v>185</v>
       </c>
       <c r="B43" t="s">
-        <v>667</v>
+        <v>593</v>
       </c>
       <c r="C43" t="s">
-        <v>668</v>
+        <v>594</v>
       </c>
       <c r="D43" t="s">
-        <v>669</v>
+        <v>850</v>
       </c>
       <c r="E43" t="s">
-        <v>670</v>
+        <v>851</v>
       </c>
       <c r="F43" t="s">
-        <v>671</v>
+        <v>852</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7862,19 +8408,19 @@
         <v>186</v>
       </c>
       <c r="B44" t="s">
-        <v>672</v>
+        <v>595</v>
       </c>
       <c r="C44" t="s">
-        <v>673</v>
+        <v>853</v>
       </c>
       <c r="D44" t="s">
-        <v>674</v>
+        <v>854</v>
       </c>
       <c r="E44" t="s">
-        <v>675</v>
+        <v>596</v>
       </c>
       <c r="F44" t="s">
-        <v>676</v>
+        <v>855</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7882,19 +8428,19 @@
         <v>188</v>
       </c>
       <c r="B45" t="s">
-        <v>188</v>
+        <v>856</v>
       </c>
       <c r="C45" t="s">
-        <v>188</v>
+        <v>857</v>
       </c>
       <c r="D45" t="s">
-        <v>188</v>
+        <v>858</v>
       </c>
       <c r="E45" t="s">
-        <v>188</v>
+        <v>859</v>
       </c>
       <c r="F45" t="s">
-        <v>188</v>
+        <v>860</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7902,19 +8448,19 @@
         <v>190</v>
       </c>
       <c r="B46" t="s">
-        <v>190</v>
+        <v>861</v>
       </c>
       <c r="C46" t="s">
-        <v>190</v>
+        <v>862</v>
       </c>
       <c r="D46" t="s">
-        <v>190</v>
+        <v>863</v>
       </c>
       <c r="E46" t="s">
-        <v>190</v>
+        <v>864</v>
       </c>
       <c r="F46" t="s">
-        <v>190</v>
+        <v>865</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7922,19 +8468,19 @@
         <v>192</v>
       </c>
       <c r="B47" t="s">
-        <v>677</v>
+        <v>866</v>
       </c>
       <c r="C47" t="s">
-        <v>678</v>
+        <v>597</v>
       </c>
       <c r="D47" t="s">
-        <v>679</v>
+        <v>598</v>
       </c>
       <c r="E47" t="s">
-        <v>680</v>
+        <v>867</v>
       </c>
       <c r="F47" t="s">
-        <v>681</v>
+        <v>599</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7942,19 +8488,19 @@
         <v>194</v>
       </c>
       <c r="B48" t="s">
-        <v>682</v>
+        <v>600</v>
       </c>
       <c r="C48" t="s">
-        <v>683</v>
+        <v>601</v>
       </c>
       <c r="D48" t="s">
-        <v>684</v>
+        <v>602</v>
       </c>
       <c r="E48" t="s">
-        <v>685</v>
+        <v>603</v>
       </c>
       <c r="F48" t="s">
-        <v>686</v>
+        <v>604</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7962,19 +8508,19 @@
         <v>196</v>
       </c>
       <c r="B49" t="s">
-        <v>687</v>
+        <v>605</v>
       </c>
       <c r="C49" t="s">
-        <v>688</v>
+        <v>868</v>
       </c>
       <c r="D49" t="s">
-        <v>689</v>
+        <v>606</v>
       </c>
       <c r="E49" t="s">
-        <v>690</v>
+        <v>607</v>
       </c>
       <c r="F49" t="s">
-        <v>691</v>
+        <v>869</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7982,19 +8528,19 @@
         <v>198</v>
       </c>
       <c r="B50" t="s">
-        <v>198</v>
+        <v>870</v>
       </c>
       <c r="C50" t="s">
-        <v>198</v>
+        <v>871</v>
       </c>
       <c r="D50" t="s">
-        <v>198</v>
+        <v>872</v>
       </c>
       <c r="E50" t="s">
-        <v>198</v>
+        <v>873</v>
       </c>
       <c r="F50" t="s">
-        <v>198</v>
+        <v>874</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8002,19 +8548,19 @@
         <v>200</v>
       </c>
       <c r="B51" t="s">
-        <v>200</v>
+        <v>875</v>
       </c>
       <c r="C51" t="s">
-        <v>200</v>
+        <v>876</v>
       </c>
       <c r="D51" t="s">
-        <v>200</v>
+        <v>877</v>
       </c>
       <c r="E51" t="s">
-        <v>200</v>
+        <v>878</v>
       </c>
       <c r="F51" t="s">
-        <v>200</v>
+        <v>879</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8022,19 +8568,19 @@
         <v>202</v>
       </c>
       <c r="B52" t="s">
-        <v>202</v>
+        <v>880</v>
       </c>
       <c r="C52" t="s">
-        <v>202</v>
+        <v>881</v>
       </c>
       <c r="D52" t="s">
-        <v>202</v>
+        <v>882</v>
       </c>
       <c r="E52" t="s">
-        <v>202</v>
+        <v>883</v>
       </c>
       <c r="F52" t="s">
-        <v>202</v>
+        <v>884</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8042,19 +8588,19 @@
         <v>204</v>
       </c>
       <c r="B53" t="s">
-        <v>692</v>
+        <v>885</v>
       </c>
       <c r="C53" t="s">
-        <v>693</v>
+        <v>886</v>
       </c>
       <c r="D53" t="s">
-        <v>694</v>
+        <v>887</v>
       </c>
       <c r="E53" t="s">
-        <v>695</v>
+        <v>888</v>
       </c>
       <c r="F53" t="s">
-        <v>696</v>
+        <v>889</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8062,19 +8608,19 @@
         <v>206</v>
       </c>
       <c r="B54" t="s">
-        <v>206</v>
+        <v>890</v>
       </c>
       <c r="C54" t="s">
         <v>206</v>
       </c>
       <c r="D54" t="s">
-        <v>206</v>
+        <v>891</v>
       </c>
       <c r="E54" t="s">
-        <v>206</v>
+        <v>892</v>
       </c>
       <c r="F54" t="s">
-        <v>206</v>
+        <v>893</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8085,16 +8631,16 @@
         <v>208</v>
       </c>
       <c r="C55" t="s">
-        <v>208</v>
+        <v>894</v>
       </c>
       <c r="D55" t="s">
-        <v>208</v>
+        <v>895</v>
       </c>
       <c r="E55" t="s">
-        <v>208</v>
+        <v>896</v>
       </c>
       <c r="F55" t="s">
-        <v>208</v>
+        <v>897</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8102,19 +8648,19 @@
         <v>210</v>
       </c>
       <c r="B56" t="s">
-        <v>697</v>
+        <v>608</v>
       </c>
       <c r="C56" t="s">
-        <v>698</v>
+        <v>609</v>
       </c>
       <c r="D56" t="s">
-        <v>699</v>
+        <v>610</v>
       </c>
       <c r="E56" t="s">
-        <v>700</v>
+        <v>611</v>
       </c>
       <c r="F56" t="s">
-        <v>700</v>
+        <v>611</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8122,19 +8668,19 @@
         <v>212</v>
       </c>
       <c r="B57" t="s">
-        <v>212</v>
+        <v>898</v>
       </c>
       <c r="C57" t="s">
-        <v>212</v>
+        <v>899</v>
       </c>
       <c r="D57" t="s">
-        <v>212</v>
+        <v>900</v>
       </c>
       <c r="E57" t="s">
-        <v>212</v>
+        <v>901</v>
       </c>
       <c r="F57" t="s">
-        <v>212</v>
+        <v>901</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8142,19 +8688,19 @@
         <v>214</v>
       </c>
       <c r="B58" t="s">
-        <v>214</v>
+        <v>902</v>
       </c>
       <c r="C58" t="s">
-        <v>214</v>
+        <v>903</v>
       </c>
       <c r="D58" t="s">
-        <v>214</v>
+        <v>904</v>
       </c>
       <c r="E58" t="s">
-        <v>214</v>
+        <v>905</v>
       </c>
       <c r="F58" t="s">
-        <v>214</v>
+        <v>906</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8162,19 +8708,19 @@
         <v>216</v>
       </c>
       <c r="B59" t="s">
-        <v>701</v>
+        <v>612</v>
       </c>
       <c r="C59" t="s">
-        <v>702</v>
+        <v>613</v>
       </c>
       <c r="D59" t="s">
-        <v>703</v>
+        <v>216</v>
       </c>
       <c r="E59" t="s">
-        <v>704</v>
+        <v>907</v>
       </c>
       <c r="F59" t="s">
-        <v>705</v>
+        <v>908</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8182,19 +8728,19 @@
         <v>218</v>
       </c>
       <c r="B60" t="s">
-        <v>218</v>
+        <v>909</v>
       </c>
       <c r="C60" t="s">
-        <v>218</v>
+        <v>910</v>
       </c>
       <c r="D60" t="s">
-        <v>218</v>
+        <v>911</v>
       </c>
       <c r="E60" t="s">
-        <v>218</v>
+        <v>912</v>
       </c>
       <c r="F60" t="s">
-        <v>218</v>
+        <v>913</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8202,19 +8748,19 @@
         <v>220</v>
       </c>
       <c r="B61" t="s">
-        <v>220</v>
+        <v>914</v>
       </c>
       <c r="C61" t="s">
-        <v>220</v>
+        <v>915</v>
       </c>
       <c r="D61" t="s">
-        <v>220</v>
+        <v>916</v>
       </c>
       <c r="E61" t="s">
-        <v>220</v>
+        <v>917</v>
       </c>
       <c r="F61" t="s">
-        <v>220</v>
+        <v>918</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8222,19 +8768,19 @@
         <v>238</v>
       </c>
       <c r="B62" t="s">
-        <v>706</v>
+        <v>614</v>
       </c>
       <c r="C62" t="s">
-        <v>707</v>
+        <v>615</v>
       </c>
       <c r="D62" t="s">
-        <v>708</v>
+        <v>616</v>
       </c>
       <c r="E62" t="s">
-        <v>709</v>
+        <v>617</v>
       </c>
       <c r="F62" t="s">
-        <v>710</v>
+        <v>618</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8242,19 +8788,19 @@
         <v>239</v>
       </c>
       <c r="B63" t="s">
-        <v>711</v>
+        <v>619</v>
       </c>
       <c r="C63" t="s">
-        <v>711</v>
+        <v>619</v>
       </c>
       <c r="D63" t="s">
-        <v>712</v>
+        <v>620</v>
       </c>
       <c r="E63" t="s">
-        <v>713</v>
+        <v>919</v>
       </c>
       <c r="F63" t="s">
-        <v>714</v>
+        <v>920</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8262,19 +8808,19 @@
         <v>225</v>
       </c>
       <c r="B64" t="s">
-        <v>715</v>
+        <v>621</v>
       </c>
       <c r="C64" t="s">
-        <v>716</v>
+        <v>622</v>
       </c>
       <c r="D64" t="s">
-        <v>717</v>
+        <v>623</v>
       </c>
       <c r="E64" t="s">
-        <v>718</v>
+        <v>921</v>
       </c>
       <c r="F64" t="s">
-        <v>719</v>
+        <v>922</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8282,19 +8828,19 @@
         <v>227</v>
       </c>
       <c r="B65" t="s">
-        <v>227</v>
+        <v>923</v>
       </c>
       <c r="C65" t="s">
         <v>227</v>
       </c>
       <c r="D65" t="s">
-        <v>227</v>
+        <v>924</v>
       </c>
       <c r="E65" t="s">
-        <v>227</v>
+        <v>925</v>
       </c>
       <c r="F65" t="s">
-        <v>227</v>
+        <v>926</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8302,19 +8848,19 @@
         <v>229</v>
       </c>
       <c r="B66" t="s">
-        <v>229</v>
+        <v>927</v>
       </c>
       <c r="C66" t="s">
-        <v>229</v>
+        <v>928</v>
       </c>
       <c r="D66" t="s">
-        <v>229</v>
+        <v>929</v>
       </c>
       <c r="E66" t="s">
-        <v>229</v>
+        <v>930</v>
       </c>
       <c r="F66" t="s">
-        <v>229</v>
+        <v>931</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8322,19 +8868,19 @@
         <v>231</v>
       </c>
       <c r="B67" t="s">
-        <v>231</v>
+        <v>932</v>
       </c>
       <c r="C67" t="s">
-        <v>231</v>
+        <v>933</v>
       </c>
       <c r="D67" t="s">
-        <v>231</v>
+        <v>934</v>
       </c>
       <c r="E67" t="s">
-        <v>231</v>
+        <v>935</v>
       </c>
       <c r="F67" t="s">
-        <v>231</v>
+        <v>936</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8342,19 +8888,19 @@
         <v>233</v>
       </c>
       <c r="B68" t="s">
-        <v>233</v>
+        <v>937</v>
       </c>
       <c r="C68" t="s">
-        <v>233</v>
+        <v>938</v>
       </c>
       <c r="D68" t="s">
-        <v>233</v>
+        <v>939</v>
       </c>
       <c r="E68" t="s">
-        <v>233</v>
+        <v>940</v>
       </c>
       <c r="F68" t="s">
-        <v>233</v>
+        <v>941</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8362,39 +8908,39 @@
         <v>235</v>
       </c>
       <c r="B69" t="s">
-        <v>235</v>
+        <v>942</v>
       </c>
       <c r="C69" t="s">
-        <v>235</v>
+        <v>943</v>
       </c>
       <c r="D69" t="s">
-        <v>235</v>
+        <v>944</v>
       </c>
       <c r="E69" t="s">
-        <v>235</v>
+        <v>945</v>
       </c>
       <c r="F69" t="s">
-        <v>235</v>
+        <v>946</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>237</v>
+        <v>947</v>
       </c>
       <c r="B70" t="s">
-        <v>237</v>
+        <v>948</v>
       </c>
       <c r="C70" t="s">
-        <v>237</v>
+        <v>949</v>
       </c>
       <c r="D70" t="s">
-        <v>237</v>
+        <v>950</v>
       </c>
       <c r="E70" t="s">
-        <v>237</v>
+        <v>951</v>
       </c>
       <c r="F70" t="s">
-        <v>237</v>
+        <v>952</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8402,19 +8948,19 @@
         <v>241</v>
       </c>
       <c r="B71" t="s">
-        <v>241</v>
+        <v>953</v>
       </c>
       <c r="C71" t="s">
-        <v>241</v>
+        <v>954</v>
       </c>
       <c r="D71" t="s">
-        <v>241</v>
+        <v>955</v>
       </c>
       <c r="E71" t="s">
-        <v>241</v>
+        <v>956</v>
       </c>
       <c r="F71" t="s">
-        <v>241</v>
+        <v>957</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8422,19 +8968,19 @@
         <v>243</v>
       </c>
       <c r="B72" t="s">
-        <v>243</v>
+        <v>958</v>
       </c>
       <c r="C72" t="s">
-        <v>243</v>
+        <v>959</v>
       </c>
       <c r="D72" t="s">
-        <v>243</v>
+        <v>960</v>
       </c>
       <c r="E72" t="s">
-        <v>243</v>
+        <v>961</v>
       </c>
       <c r="F72" t="s">
-        <v>243</v>
+        <v>962</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8442,19 +8988,19 @@
         <v>279</v>
       </c>
       <c r="B73" t="s">
-        <v>279</v>
+        <v>963</v>
       </c>
       <c r="C73" t="s">
-        <v>279</v>
+        <v>964</v>
       </c>
       <c r="D73" t="s">
-        <v>279</v>
+        <v>965</v>
       </c>
       <c r="E73" t="s">
-        <v>279</v>
+        <v>966</v>
       </c>
       <c r="F73" t="s">
-        <v>279</v>
+        <v>967</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8462,19 +9008,19 @@
         <v>280</v>
       </c>
       <c r="B74" t="s">
-        <v>280</v>
+        <v>968</v>
       </c>
       <c r="C74" t="s">
-        <v>280</v>
+        <v>969</v>
       </c>
       <c r="D74" t="s">
         <v>280</v>
       </c>
       <c r="E74" t="s">
-        <v>280</v>
+        <v>970</v>
       </c>
       <c r="F74" t="s">
-        <v>280</v>
+        <v>971</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8485,16 +9031,16 @@
         <v>281</v>
       </c>
       <c r="C75" t="s">
-        <v>281</v>
+        <v>972</v>
       </c>
       <c r="D75" t="s">
-        <v>281</v>
+        <v>973</v>
       </c>
       <c r="E75" t="s">
-        <v>281</v>
+        <v>974</v>
       </c>
       <c r="F75" t="s">
-        <v>281</v>
+        <v>975</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8505,16 +9051,16 @@
         <v>282</v>
       </c>
       <c r="C76" t="s">
-        <v>282</v>
+        <v>976</v>
       </c>
       <c r="D76" t="s">
-        <v>282</v>
+        <v>977</v>
       </c>
       <c r="E76" t="s">
-        <v>282</v>
+        <v>978</v>
       </c>
       <c r="F76" t="s">
-        <v>282</v>
+        <v>979</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8522,19 +9068,19 @@
         <v>93</v>
       </c>
       <c r="B77" t="s">
-        <v>93</v>
+        <v>980</v>
       </c>
       <c r="C77" t="s">
-        <v>93</v>
+        <v>981</v>
       </c>
       <c r="D77" t="s">
         <v>93</v>
       </c>
       <c r="E77" t="s">
-        <v>93</v>
+        <v>982</v>
       </c>
       <c r="F77" t="s">
-        <v>93</v>
+        <v>983</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8542,19 +9088,19 @@
         <v>283</v>
       </c>
       <c r="B78" t="s">
-        <v>283</v>
+        <v>984</v>
       </c>
       <c r="C78" t="s">
-        <v>283</v>
+        <v>985</v>
       </c>
       <c r="D78" t="s">
         <v>283</v>
       </c>
       <c r="E78" t="s">
-        <v>283</v>
+        <v>986</v>
       </c>
       <c r="F78" t="s">
-        <v>283</v>
+        <v>987</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8562,19 +9108,19 @@
         <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>92</v>
+        <v>988</v>
       </c>
       <c r="C79" t="s">
-        <v>92</v>
+        <v>989</v>
       </c>
       <c r="D79" t="s">
         <v>92</v>
       </c>
       <c r="E79" t="s">
-        <v>92</v>
+        <v>990</v>
       </c>
       <c r="F79" t="s">
-        <v>92</v>
+        <v>991</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8582,19 +9128,19 @@
         <v>91</v>
       </c>
       <c r="B80" t="s">
-        <v>91</v>
+        <v>992</v>
       </c>
       <c r="C80" t="s">
-        <v>91</v>
+        <v>993</v>
       </c>
       <c r="D80" t="s">
-        <v>91</v>
+        <v>994</v>
       </c>
       <c r="E80" t="s">
-        <v>91</v>
+        <v>995</v>
       </c>
       <c r="F80" t="s">
-        <v>91</v>
+        <v>996</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8602,19 +9148,19 @@
         <v>284</v>
       </c>
       <c r="B81" t="s">
-        <v>284</v>
+        <v>997</v>
       </c>
       <c r="C81" t="s">
-        <v>284</v>
+        <v>998</v>
       </c>
       <c r="D81" t="s">
-        <v>284</v>
+        <v>999</v>
       </c>
       <c r="E81" t="s">
-        <v>284</v>
+        <v>1000</v>
       </c>
       <c r="F81" t="s">
-        <v>284</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8622,19 +9168,19 @@
         <v>285</v>
       </c>
       <c r="B82" t="s">
-        <v>285</v>
+        <v>1002</v>
       </c>
       <c r="C82" t="s">
-        <v>285</v>
+        <v>1003</v>
       </c>
       <c r="D82" t="s">
-        <v>285</v>
+        <v>1004</v>
       </c>
       <c r="E82" t="s">
-        <v>285</v>
+        <v>1005</v>
       </c>
       <c r="F82" t="s">
-        <v>285</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8642,19 +9188,19 @@
         <v>286</v>
       </c>
       <c r="B83" t="s">
-        <v>286</v>
+        <v>1007</v>
       </c>
       <c r="C83" t="s">
-        <v>286</v>
+        <v>1008</v>
       </c>
       <c r="D83" t="s">
-        <v>286</v>
+        <v>1009</v>
       </c>
       <c r="E83" t="s">
-        <v>286</v>
+        <v>1010</v>
       </c>
       <c r="F83" t="s">
-        <v>286</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8665,16 +9211,16 @@
         <v>287</v>
       </c>
       <c r="C84" t="s">
-        <v>287</v>
+        <v>1012</v>
       </c>
       <c r="D84" t="s">
         <v>287</v>
       </c>
       <c r="E84" t="s">
-        <v>287</v>
+        <v>1013</v>
       </c>
       <c r="F84" t="s">
-        <v>287</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8682,19 +9228,19 @@
         <v>288</v>
       </c>
       <c r="B85" t="s">
-        <v>288</v>
+        <v>1015</v>
       </c>
       <c r="C85" t="s">
-        <v>288</v>
+        <v>1016</v>
       </c>
       <c r="D85" t="s">
         <v>288</v>
       </c>
       <c r="E85" t="s">
-        <v>288</v>
+        <v>1017</v>
       </c>
       <c r="F85" t="s">
-        <v>288</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8702,19 +9248,19 @@
         <v>289</v>
       </c>
       <c r="B86" t="s">
-        <v>289</v>
+        <v>1019</v>
       </c>
       <c r="C86" t="s">
-        <v>289</v>
+        <v>1020</v>
       </c>
       <c r="D86" t="s">
-        <v>289</v>
+        <v>1021</v>
       </c>
       <c r="E86" t="s">
-        <v>289</v>
+        <v>1022</v>
       </c>
       <c r="F86" t="s">
-        <v>289</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8722,19 +9268,19 @@
         <v>36</v>
       </c>
       <c r="B87" t="s">
-        <v>36</v>
+        <v>1024</v>
       </c>
       <c r="C87" t="s">
-        <v>36</v>
+        <v>1025</v>
       </c>
       <c r="D87" t="s">
-        <v>36</v>
+        <v>1026</v>
       </c>
       <c r="E87" t="s">
-        <v>36</v>
+        <v>1027</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8748,13 +9294,13 @@
         <v>291</v>
       </c>
       <c r="D88" t="s">
-        <v>291</v>
+        <v>1029</v>
       </c>
       <c r="E88" t="s">
-        <v>291</v>
+        <v>1030</v>
       </c>
       <c r="F88" t="s">
-        <v>291</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8762,19 +9308,19 @@
         <v>293</v>
       </c>
       <c r="B89" t="s">
-        <v>293</v>
+        <v>1032</v>
       </c>
       <c r="C89" t="s">
         <v>293</v>
       </c>
       <c r="D89" t="s">
-        <v>293</v>
+        <v>1033</v>
       </c>
       <c r="E89" t="s">
-        <v>293</v>
+        <v>1034</v>
       </c>
       <c r="F89" t="s">
-        <v>293</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8805,16 +9351,16 @@
         <v>73</v>
       </c>
       <c r="C91" t="s">
-        <v>73</v>
+        <v>1036</v>
       </c>
       <c r="D91" t="s">
         <v>73</v>
       </c>
       <c r="E91" t="s">
-        <v>73</v>
+        <v>1037</v>
       </c>
       <c r="F91" t="s">
-        <v>73</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8822,19 +9368,19 @@
         <v>74</v>
       </c>
       <c r="B92" t="s">
-        <v>74</v>
+        <v>1038</v>
       </c>
       <c r="C92" t="s">
-        <v>74</v>
+        <v>1039</v>
       </c>
       <c r="D92" t="s">
-        <v>74</v>
+        <v>1039</v>
       </c>
       <c r="E92" t="s">
-        <v>74</v>
+        <v>1040</v>
       </c>
       <c r="F92" t="s">
-        <v>74</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8845,10 +9391,10 @@
         <v>37</v>
       </c>
       <c r="C93" t="s">
-        <v>37</v>
+        <v>1041</v>
       </c>
       <c r="D93" t="s">
-        <v>37</v>
+        <v>1041</v>
       </c>
       <c r="E93" t="s">
         <v>37</v>
@@ -8871,10 +9417,10 @@
         <v>298</v>
       </c>
       <c r="E94" t="s">
-        <v>298</v>
+        <v>1042</v>
       </c>
       <c r="F94" t="s">
-        <v>298</v>
+        <v>1042</v>
       </c>
     </row>
   </sheetData>
@@ -8887,18 +9433,18 @@
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:M178"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
@@ -8909,7 +9455,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17.25" thickBot="1">
+    <row r="2" spans="1:13" ht="18" thickBot="1">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -8926,7 +9472,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" thickTop="1" thickBot="1">
+    <row r="3" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" t="s">
         <v>485</v>
       </c>
@@ -10940,30 +11486,30 @@
       <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.1328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="47.53125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2.1328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="107.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="107.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -11052,16 +11598,16 @@
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>777</v>
+        <v>681</v>
       </c>
       <c r="K4" t="s">
-        <v>778</v>
+        <v>682</v>
       </c>
       <c r="N4" t="s">
-        <v>779</v>
+        <v>683</v>
       </c>
       <c r="P4" t="s">
-        <v>780</v>
+        <v>684</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -11069,7 +11615,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>800</v>
+        <v>704</v>
       </c>
       <c r="K5" t="s">
         <v>298</v>
@@ -11095,7 +11641,7 @@
         <v>301</v>
       </c>
       <c r="P6" t="s">
-        <v>819</v>
+        <v>723</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -11113,10 +11659,10 @@
         <v>37</v>
       </c>
       <c r="N7" t="s">
-        <v>806</v>
+        <v>710</v>
       </c>
       <c r="P7" t="s">
-        <v>809</v>
+        <v>713</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -11133,10 +11679,10 @@
         <v>37</v>
       </c>
       <c r="N8" t="s">
-        <v>804</v>
+        <v>708</v>
       </c>
       <c r="P8" t="s">
-        <v>810</v>
+        <v>714</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -11153,10 +11699,10 @@
         <v>303</v>
       </c>
       <c r="N9" t="s">
-        <v>805</v>
+        <v>709</v>
       </c>
       <c r="P9" t="s">
-        <v>811</v>
+        <v>715</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -11176,7 +11722,7 @@
         <v>305</v>
       </c>
       <c r="P10" t="s">
-        <v>812</v>
+        <v>716</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -11196,7 +11742,7 @@
         <v>306</v>
       </c>
       <c r="P11" t="s">
-        <v>813</v>
+        <v>717</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -11204,7 +11750,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>842</v>
+        <v>746</v>
       </c>
       <c r="K12" t="s">
         <v>9</v>
@@ -11213,7 +11759,7 @@
         <v>307</v>
       </c>
       <c r="P12" t="s">
-        <v>814</v>
+        <v>718</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -11230,53 +11776,53 @@
         <v>37</v>
       </c>
       <c r="N13" t="s">
-        <v>808</v>
+        <v>712</v>
       </c>
       <c r="P13" t="s">
-        <v>815</v>
+        <v>719</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>720</v>
+        <v>624</v>
       </c>
       <c r="B14" t="s">
-        <v>721</v>
+        <v>625</v>
       </c>
       <c r="I14" t="s">
-        <v>781</v>
+        <v>685</v>
       </c>
       <c r="K14" t="s">
-        <v>774</v>
+        <v>678</v>
       </c>
       <c r="N14" t="s">
-        <v>775</v>
+        <v>679</v>
       </c>
       <c r="P14" t="s">
-        <v>818</v>
+        <v>722</v>
       </c>
       <c r="Q14" t="s">
-        <v>776</v>
+        <v>680</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>790</v>
+        <v>694</v>
       </c>
       <c r="B15" t="s">
-        <v>791</v>
+        <v>695</v>
       </c>
       <c r="C15" t="s">
-        <v>816</v>
+        <v>720</v>
       </c>
       <c r="K15" t="s">
-        <v>774</v>
+        <v>678</v>
       </c>
       <c r="N15" t="s">
-        <v>792</v>
+        <v>696</v>
       </c>
       <c r="P15" t="s">
-        <v>817</v>
+        <v>721</v>
       </c>
       <c r="Q15" t="s">
         <v>59</v>
@@ -11284,33 +11830,33 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>821</v>
+        <v>725</v>
       </c>
       <c r="K16" t="s">
-        <v>822</v>
+        <v>726</v>
       </c>
       <c r="N16" t="s">
-        <v>823</v>
+        <v>727</v>
       </c>
       <c r="P16" t="s">
-        <v>824</v>
+        <v>728</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>825</v>
+        <v>729</v>
       </c>
       <c r="K17" t="s">
-        <v>822</v>
+        <v>726</v>
       </c>
       <c r="N17" t="s">
-        <v>827</v>
+        <v>731</v>
       </c>
       <c r="P17" t="s">
-        <v>828</v>
+        <v>732</v>
       </c>
       <c r="Q17" t="s">
-        <v>826</v>
+        <v>730</v>
       </c>
     </row>
   </sheetData>
@@ -11328,15 +11874,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.9296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.73046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11422,7 +11967,7 @@
         <v>306</v>
       </c>
       <c r="D5" t="s">
-        <v>808</v>
+        <v>712</v>
       </c>
       <c r="E5" t="s">
         <v>72</v>
@@ -11447,28 +11992,28 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="39.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.33203125" customWidth="1"/>
-    <col min="4" max="4" width="8.06640625" customWidth="1"/>
-    <col min="5" max="5" width="36.9296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.06640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.46484375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.53125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.9296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="17.25" thickBot="1">
+    <row r="3" spans="2:13" ht="18" thickBot="1">
       <c r="B3" s="3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="15" thickTop="1" thickBot="1">
+    <row r="4" spans="2:13" ht="16.5" thickTop="1" thickBot="1">
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -11476,13 +12021,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>799</v>
+        <v>703</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>770</v>
+        <v>674</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>0</v>
@@ -11520,7 +12065,7 @@
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>771</v>
+        <v>675</v>
       </c>
       <c r="G5" t="s">
         <v>303</v>
@@ -11568,7 +12113,7 @@
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>771</v>
+        <v>675</v>
       </c>
       <c r="G7" t="s">
         <v>37</v>
@@ -11593,13 +12138,13 @@
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>772</v>
+        <v>676</v>
       </c>
       <c r="G8" t="s">
         <v>303</v>
       </c>
       <c r="H8" t="s">
-        <v>807</v>
+        <v>711</v>
       </c>
       <c r="L8" t="s">
         <v>38</v>
@@ -11618,13 +12163,13 @@
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>772</v>
+        <v>676</v>
       </c>
       <c r="G9" t="s">
         <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>773</v>
+        <v>677</v>
       </c>
       <c r="L9" t="s">
         <v>38</v>
@@ -11645,7 +12190,7 @@
         <v>303</v>
       </c>
       <c r="H10" t="s">
-        <v>793</v>
+        <v>697</v>
       </c>
       <c r="L10" t="s">
         <v>38</v>
@@ -11666,7 +12211,7 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>794</v>
+        <v>698</v>
       </c>
       <c r="L11" t="s">
         <v>38</v>
@@ -11684,11 +12229,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11720,7 +12265,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -11895,10 +12440,10 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -11956,7 +12501,7 @@
         <v>486</v>
       </c>
       <c r="H5" t="s">
-        <v>798</v>
+        <v>702</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -12036,7 +12581,7 @@
         <v>187</v>
       </c>
       <c r="B12" t="s">
-        <v>803</v>
+        <v>707</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -12044,7 +12589,7 @@
         <v>189</v>
       </c>
       <c r="B13" t="s">
-        <v>802</v>
+        <v>706</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -12082,11 +12627,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>757</v>
+        <v>661</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -12102,684 +12647,684 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>756</v>
+        <v>660</v>
       </c>
       <c r="B3" t="s">
-        <v>722</v>
+        <v>626</v>
       </c>
       <c r="C3" t="s">
-        <v>759</v>
+        <v>663</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>756</v>
+        <v>660</v>
       </c>
       <c r="B4" t="s">
-        <v>723</v>
+        <v>627</v>
       </c>
       <c r="C4" t="s">
-        <v>760</v>
+        <v>664</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>756</v>
+        <v>660</v>
       </c>
       <c r="B5" t="s">
-        <v>724</v>
+        <v>628</v>
       </c>
       <c r="C5" t="s">
-        <v>755</v>
+        <v>659</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>756</v>
+        <v>660</v>
       </c>
       <c r="B6" t="s">
-        <v>725</v>
+        <v>629</v>
       </c>
       <c r="C6" t="s">
-        <v>761</v>
+        <v>665</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>756</v>
+        <v>660</v>
       </c>
       <c r="B7" t="s">
-        <v>726</v>
+        <v>630</v>
       </c>
       <c r="C7" t="s">
-        <v>758</v>
+        <v>662</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>756</v>
+        <v>660</v>
       </c>
       <c r="B8" t="s">
         <v>313</v>
       </c>
       <c r="C8" t="s">
-        <v>727</v>
+        <v>631</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>756</v>
+        <v>660</v>
       </c>
       <c r="B9" t="s">
-        <v>728</v>
+        <v>632</v>
       </c>
       <c r="C9" t="s">
-        <v>729</v>
+        <v>633</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>756</v>
+        <v>660</v>
       </c>
       <c r="B10" t="s">
-        <v>730</v>
+        <v>634</v>
       </c>
       <c r="C10" t="s">
-        <v>731</v>
+        <v>635</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>756</v>
+        <v>660</v>
       </c>
       <c r="B11" t="s">
-        <v>732</v>
+        <v>636</v>
       </c>
       <c r="C11" t="s">
-        <v>733</v>
+        <v>637</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>756</v>
+        <v>660</v>
       </c>
       <c r="B12" t="s">
-        <v>734</v>
+        <v>638</v>
       </c>
       <c r="C12" t="s">
-        <v>735</v>
+        <v>639</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>756</v>
+        <v>660</v>
       </c>
       <c r="B13" t="s">
         <v>474</v>
       </c>
       <c r="C13" t="s">
-        <v>736</v>
+        <v>640</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>756</v>
+        <v>660</v>
       </c>
       <c r="B14" t="s">
         <v>476</v>
       </c>
       <c r="C14" t="s">
-        <v>737</v>
+        <v>641</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>756</v>
+        <v>660</v>
       </c>
       <c r="B15" t="s">
         <v>475</v>
       </c>
       <c r="C15" t="s">
-        <v>795</v>
+        <v>699</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>756</v>
+        <v>660</v>
       </c>
       <c r="B16" t="s">
-        <v>738</v>
+        <v>642</v>
       </c>
       <c r="C16" t="s">
-        <v>762</v>
+        <v>666</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>756</v>
+        <v>660</v>
       </c>
       <c r="B17" t="s">
-        <v>739</v>
+        <v>643</v>
       </c>
       <c r="C17" t="s">
-        <v>763</v>
+        <v>667</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>756</v>
+        <v>660</v>
       </c>
       <c r="B18" t="s">
-        <v>740</v>
+        <v>644</v>
       </c>
       <c r="C18" t="s">
-        <v>796</v>
+        <v>700</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>756</v>
+        <v>660</v>
       </c>
       <c r="B19" t="s">
-        <v>741</v>
+        <v>645</v>
       </c>
       <c r="C19" t="s">
-        <v>797</v>
+        <v>701</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>756</v>
+        <v>660</v>
       </c>
       <c r="B20" t="s">
         <v>358</v>
       </c>
       <c r="C20" t="s">
-        <v>742</v>
+        <v>646</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>756</v>
+        <v>660</v>
       </c>
       <c r="B21" t="s">
         <v>374</v>
       </c>
       <c r="C21" t="s">
-        <v>743</v>
+        <v>647</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>756</v>
+        <v>660</v>
       </c>
       <c r="B22" t="s">
         <v>470</v>
       </c>
       <c r="C22" t="s">
-        <v>744</v>
+        <v>648</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>756</v>
+        <v>660</v>
       </c>
       <c r="B23" t="s">
         <v>376</v>
       </c>
       <c r="C23" t="s">
-        <v>764</v>
+        <v>668</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>756</v>
+        <v>660</v>
       </c>
       <c r="B24" t="s">
         <v>471</v>
       </c>
       <c r="C24" t="s">
-        <v>745</v>
+        <v>649</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>756</v>
+        <v>660</v>
       </c>
       <c r="B25" t="s">
         <v>387</v>
       </c>
       <c r="C25" t="s">
-        <v>746</v>
+        <v>650</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>756</v>
+        <v>660</v>
       </c>
       <c r="B26" t="s">
-        <v>747</v>
+        <v>651</v>
       </c>
       <c r="C26" t="s">
-        <v>748</v>
+        <v>652</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>756</v>
+        <v>660</v>
       </c>
       <c r="B27" t="s">
-        <v>749</v>
+        <v>653</v>
       </c>
       <c r="C27" t="s">
-        <v>750</v>
+        <v>654</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>756</v>
+        <v>660</v>
       </c>
       <c r="B28" t="s">
         <v>402</v>
       </c>
       <c r="C28" t="s">
-        <v>751</v>
+        <v>655</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>756</v>
+        <v>660</v>
       </c>
       <c r="B29" t="s">
         <v>473</v>
       </c>
       <c r="C29" t="s">
-        <v>765</v>
+        <v>669</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>756</v>
+        <v>660</v>
       </c>
       <c r="B30" t="s">
         <v>434</v>
       </c>
       <c r="C30" t="s">
-        <v>752</v>
+        <v>656</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>756</v>
+        <v>660</v>
       </c>
       <c r="B31" t="s">
         <v>456</v>
       </c>
       <c r="C31" t="s">
-        <v>753</v>
+        <v>657</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>756</v>
+        <v>660</v>
       </c>
       <c r="B32" t="s">
         <v>472</v>
       </c>
       <c r="C32" t="s">
-        <v>754</v>
+        <v>658</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>756</v>
+        <v>660</v>
       </c>
       <c r="B33" t="s">
         <v>466</v>
       </c>
       <c r="C33" t="s">
-        <v>755</v>
+        <v>659</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>854</v>
+        <v>758</v>
       </c>
       <c r="B34" t="s">
-        <v>722</v>
+        <v>626</v>
       </c>
       <c r="C34" t="s">
-        <v>849</v>
+        <v>753</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>854</v>
+        <v>758</v>
       </c>
       <c r="B35" t="s">
-        <v>723</v>
+        <v>627</v>
       </c>
       <c r="C35" t="s">
-        <v>849</v>
+        <v>753</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>854</v>
+        <v>758</v>
       </c>
       <c r="B36" t="s">
-        <v>724</v>
+        <v>628</v>
       </c>
       <c r="C36" t="s">
-        <v>849</v>
+        <v>753</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>854</v>
+        <v>758</v>
       </c>
       <c r="B37" t="s">
-        <v>725</v>
+        <v>629</v>
       </c>
       <c r="C37" t="s">
-        <v>849</v>
+        <v>753</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>854</v>
+        <v>758</v>
       </c>
       <c r="B38" t="s">
-        <v>726</v>
+        <v>630</v>
       </c>
       <c r="C38" t="s">
-        <v>852</v>
+        <v>756</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>854</v>
+        <v>758</v>
       </c>
       <c r="B39" t="s">
         <v>313</v>
       </c>
       <c r="C39" t="s">
-        <v>748</v>
+        <v>652</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>854</v>
+        <v>758</v>
       </c>
       <c r="B40" t="s">
-        <v>728</v>
+        <v>632</v>
       </c>
       <c r="C40" t="s">
-        <v>853</v>
+        <v>757</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>854</v>
+        <v>758</v>
       </c>
       <c r="B41" t="s">
-        <v>730</v>
+        <v>634</v>
       </c>
       <c r="C41" t="s">
-        <v>852</v>
+        <v>756</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>854</v>
+        <v>758</v>
       </c>
       <c r="B42" t="s">
-        <v>732</v>
+        <v>636</v>
       </c>
       <c r="C42" t="s">
-        <v>852</v>
+        <v>756</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>854</v>
+        <v>758</v>
       </c>
       <c r="B43" t="s">
-        <v>734</v>
+        <v>638</v>
       </c>
       <c r="C43" t="s">
-        <v>852</v>
+        <v>756</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>854</v>
+        <v>758</v>
       </c>
       <c r="B44" t="s">
         <v>474</v>
       </c>
       <c r="C44" t="s">
-        <v>748</v>
+        <v>652</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>854</v>
+        <v>758</v>
       </c>
       <c r="B45" t="s">
         <v>476</v>
       </c>
       <c r="C45" t="s">
-        <v>850</v>
+        <v>754</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>854</v>
+        <v>758</v>
       </c>
       <c r="B46" t="s">
         <v>475</v>
       </c>
       <c r="C46" t="s">
-        <v>795</v>
+        <v>699</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>854</v>
+        <v>758</v>
       </c>
       <c r="B47" t="s">
-        <v>738</v>
+        <v>642</v>
       </c>
       <c r="C47" t="s">
-        <v>853</v>
+        <v>757</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>854</v>
+        <v>758</v>
       </c>
       <c r="B48" t="s">
-        <v>739</v>
+        <v>643</v>
       </c>
       <c r="C48" t="s">
-        <v>851</v>
+        <v>755</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>854</v>
+        <v>758</v>
       </c>
       <c r="B49" t="s">
-        <v>740</v>
+        <v>644</v>
       </c>
       <c r="C49" t="s">
-        <v>851</v>
+        <v>755</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>854</v>
+        <v>758</v>
       </c>
       <c r="B50" t="s">
-        <v>741</v>
+        <v>645</v>
       </c>
       <c r="C50" t="s">
-        <v>851</v>
+        <v>755</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>854</v>
+        <v>758</v>
       </c>
       <c r="B51" t="s">
         <v>358</v>
       </c>
       <c r="C51" t="s">
-        <v>851</v>
+        <v>755</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>854</v>
+        <v>758</v>
       </c>
       <c r="B52" t="s">
         <v>374</v>
       </c>
       <c r="C52" t="s">
-        <v>852</v>
+        <v>756</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>854</v>
+        <v>758</v>
       </c>
       <c r="B53" t="s">
         <v>470</v>
       </c>
       <c r="C53" t="s">
-        <v>744</v>
+        <v>648</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>854</v>
+        <v>758</v>
       </c>
       <c r="B54" t="s">
         <v>376</v>
       </c>
       <c r="C54" t="s">
-        <v>750</v>
+        <v>654</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>854</v>
+        <v>758</v>
       </c>
       <c r="B55" t="s">
         <v>471</v>
       </c>
       <c r="C55" t="s">
-        <v>852</v>
+        <v>756</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>854</v>
+        <v>758</v>
       </c>
       <c r="B56" t="s">
         <v>387</v>
       </c>
       <c r="C56" t="s">
-        <v>852</v>
+        <v>756</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>854</v>
+        <v>758</v>
       </c>
       <c r="B57" t="s">
-        <v>747</v>
+        <v>651</v>
       </c>
       <c r="C57" t="s">
-        <v>748</v>
+        <v>652</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>854</v>
+        <v>758</v>
       </c>
       <c r="B58" t="s">
-        <v>749</v>
+        <v>653</v>
       </c>
       <c r="C58" t="s">
-        <v>750</v>
+        <v>654</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>854</v>
+        <v>758</v>
       </c>
       <c r="B59" t="s">
         <v>402</v>
       </c>
       <c r="C59" t="s">
-        <v>850</v>
+        <v>754</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>854</v>
+        <v>758</v>
       </c>
       <c r="B60" t="s">
         <v>473</v>
       </c>
       <c r="C60" t="s">
-        <v>765</v>
+        <v>669</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>854</v>
+        <v>758</v>
       </c>
       <c r="B61" t="s">
         <v>434</v>
       </c>
       <c r="C61" t="s">
-        <v>750</v>
+        <v>654</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>854</v>
+        <v>758</v>
       </c>
       <c r="B62" t="s">
         <v>456</v>
       </c>
       <c r="C62" t="s">
-        <v>750</v>
+        <v>654</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>854</v>
+        <v>758</v>
       </c>
       <c r="B63" t="s">
         <v>472</v>
       </c>
       <c r="C63" t="s">
-        <v>850</v>
+        <v>754</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>854</v>
+        <v>758</v>
       </c>
       <c r="B64" t="s">
         <v>466</v>
       </c>
       <c r="C64" t="s">
-        <v>849</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>
@@ -12795,20 +13340,20 @@
       <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" thickBot="1">
+    <row r="1" spans="1:5" ht="18" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickTop="1" thickBot="1">
+    <row r="2" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>40</v>
       </c>
@@ -12822,7 +13367,7 @@
         <v>50</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>830</v>
+        <v>734</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12998,7 +13543,7 @@
         <v>123</v>
       </c>
       <c r="D18" t="s">
-        <v>829</v>
+        <v>733</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -13160,7 +13705,7 @@
         <v>221</v>
       </c>
       <c r="C33" t="s">
-        <v>803</v>
+        <v>707</v>
       </c>
       <c r="D33" t="s">
         <v>187</v>
@@ -13171,7 +13716,7 @@
         <v>221</v>
       </c>
       <c r="C34" t="s">
-        <v>802</v>
+        <v>706</v>
       </c>
       <c r="D34" t="s">
         <v>189</v>
@@ -13369,13 +13914,13 @@
         <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>839</v>
+        <v>743</v>
       </c>
       <c r="C52" t="s">
         <v>239</v>
       </c>
       <c r="E52" t="s">
-        <v>838</v>
+        <v>742</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -13386,7 +13931,7 @@
         <v>225</v>
       </c>
       <c r="E53" t="s">
-        <v>831</v>
+        <v>735</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -13397,7 +13942,7 @@
         <v>227</v>
       </c>
       <c r="E54" t="s">
-        <v>832</v>
+        <v>736</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -13408,7 +13953,7 @@
         <v>229</v>
       </c>
       <c r="E55" t="s">
-        <v>833</v>
+        <v>737</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -13419,7 +13964,7 @@
         <v>231</v>
       </c>
       <c r="E56" t="s">
-        <v>834</v>
+        <v>738</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -13430,7 +13975,7 @@
         <v>233</v>
       </c>
       <c r="E57" t="s">
-        <v>835</v>
+        <v>739</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -13441,7 +13986,7 @@
         <v>235</v>
       </c>
       <c r="E58" t="s">
-        <v>836</v>
+        <v>740</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -13452,7 +13997,7 @@
         <v>237</v>
       </c>
       <c r="E59" t="s">
-        <v>837</v>
+        <v>741</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -13537,10 +14082,10 @@
         <v>164</v>
       </c>
       <c r="C67" t="s">
-        <v>859</v>
+        <v>763</v>
       </c>
       <c r="E67" t="s">
-        <v>855</v>
+        <v>759</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -13548,10 +14093,10 @@
         <v>164</v>
       </c>
       <c r="C68" t="s">
-        <v>860</v>
+        <v>764</v>
       </c>
       <c r="E68" t="s">
-        <v>856</v>
+        <v>760</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -13559,10 +14104,10 @@
         <v>164</v>
       </c>
       <c r="C69" t="s">
-        <v>861</v>
+        <v>765</v>
       </c>
       <c r="E69" t="s">
-        <v>857</v>
+        <v>761</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -13570,10 +14115,10 @@
         <v>164</v>
       </c>
       <c r="C70" t="s">
-        <v>862</v>
+        <v>766</v>
       </c>
       <c r="E70" t="s">
-        <v>858</v>
+        <v>762</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -13870,7 +14415,7 @@
         <v>36</v>
       </c>
       <c r="D97" t="s">
-        <v>840</v>
+        <v>744</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -13878,10 +14423,10 @@
         <v>51</v>
       </c>
       <c r="C98" t="s">
-        <v>841</v>
+        <v>745</v>
       </c>
       <c r="D98" t="s">
-        <v>840</v>
+        <v>744</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -14007,7 +14552,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>801</v>
+        <v>705</v>
       </c>
       <c r="B110" t="s">
         <v>290</v>
@@ -14018,7 +14563,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>801</v>
+        <v>705</v>
       </c>
       <c r="B111" t="s">
         <v>292</v>
@@ -14029,24 +14574,24 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>766</v>
+        <v>670</v>
       </c>
       <c r="C112" t="s">
-        <v>767</v>
+        <v>671</v>
       </c>
       <c r="D112" t="s">
-        <v>769</v>
+        <v>673</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>766</v>
+        <v>670</v>
       </c>
       <c r="C113" t="s">
-        <v>768</v>
+        <v>672</v>
       </c>
       <c r="D113" t="s">
-        <v>768</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>

--- a/ReportDefs-TIMES-GEO.xlsx
+++ b/ReportDefs-TIMES-GEO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\py_projects\GitHub\TIMES-GEO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\TIMES-GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3C2ECC-5EA0-4059-990D-6F933F6B700F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E19E5F-B390-4735-ACFF-9D47EF54E91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
@@ -2420,9 +2420,6 @@
     <t>Disc-Rate</t>
   </si>
   <si>
-    <t>sg_DiscRate-CO2Price</t>
-  </si>
-  <si>
     <t>Strom</t>
   </si>
   <si>
@@ -3237,6 +3234,9 @@
   </si>
   <si>
     <t>KT</t>
+  </si>
+  <si>
+    <t>sg_DRate-CO2Pr</t>
   </si>
 </sst>
 </file>
@@ -3886,20 +3886,20 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:Z65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -3964,7 +3964,7 @@
         <v>sg_Disc-Rate</v>
       </c>
       <c r="K5" t="s">
-        <v>770</v>
+        <v>1042</v>
       </c>
       <c r="O5" t="s">
         <v>86</v>
@@ -7206,16 +7206,16 @@
       <selection activeCell="C3" sqref="C3:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="13.86328125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7504,9 +7504,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -7549,11 +7549,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7080B6D8-5B4D-43BE-B27E-6742BCADC05C}">
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
   </cols>
@@ -7594,13 +7594,13 @@
         <v>507</v>
       </c>
       <c r="D3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E3" t="s">
         <v>508</v>
       </c>
       <c r="F3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -7640,7 +7640,7 @@
         <v>514</v>
       </c>
       <c r="F5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7657,10 +7657,10 @@
         <v>517</v>
       </c>
       <c r="E6" t="s">
+        <v>773</v>
+      </c>
+      <c r="F6" t="s">
         <v>774</v>
-      </c>
-      <c r="F6" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7668,19 +7668,19 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>775</v>
+      </c>
+      <c r="C7" t="s">
         <v>776</v>
-      </c>
-      <c r="C7" t="s">
-        <v>777</v>
       </c>
       <c r="D7" t="s">
         <v>518</v>
       </c>
       <c r="E7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7688,19 +7688,19 @@
         <v>103</v>
       </c>
       <c r="B8" t="s">
+        <v>778</v>
+      </c>
+      <c r="C8" t="s">
         <v>779</v>
-      </c>
-      <c r="C8" t="s">
-        <v>780</v>
       </c>
       <c r="D8" t="s">
         <v>519</v>
       </c>
       <c r="E8" t="s">
+        <v>780</v>
+      </c>
+      <c r="F8" t="s">
         <v>781</v>
-      </c>
-      <c r="F8" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -7714,13 +7714,13 @@
         <v>521</v>
       </c>
       <c r="D9" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E9" t="s">
         <v>522</v>
       </c>
       <c r="F9" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -7757,10 +7757,10 @@
         <v>109</v>
       </c>
       <c r="E11" t="s">
+        <v>784</v>
+      </c>
+      <c r="F11" t="s">
         <v>785</v>
-      </c>
-      <c r="F11" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -7768,19 +7768,19 @@
         <v>111</v>
       </c>
       <c r="B12" t="s">
+        <v>786</v>
+      </c>
+      <c r="C12" t="s">
         <v>787</v>
-      </c>
-      <c r="C12" t="s">
-        <v>788</v>
       </c>
       <c r="D12" t="s">
         <v>111</v>
       </c>
       <c r="E12" t="s">
+        <v>788</v>
+      </c>
+      <c r="F12" t="s">
         <v>789</v>
-      </c>
-      <c r="F12" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -7811,13 +7811,13 @@
         <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D14" t="s">
         <v>115</v>
       </c>
       <c r="E14" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F14" t="s">
         <v>532</v>
@@ -7840,7 +7840,7 @@
         <v>534</v>
       </c>
       <c r="F15" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -7848,19 +7848,19 @@
         <v>119</v>
       </c>
       <c r="B16" t="s">
+        <v>793</v>
+      </c>
+      <c r="C16" t="s">
         <v>794</v>
-      </c>
-      <c r="C16" t="s">
-        <v>795</v>
       </c>
       <c r="D16" t="s">
         <v>535</v>
       </c>
       <c r="E16" t="s">
+        <v>795</v>
+      </c>
+      <c r="F16" t="s">
         <v>796</v>
-      </c>
-      <c r="F16" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7874,13 +7874,13 @@
         <v>121</v>
       </c>
       <c r="D17" t="s">
+        <v>797</v>
+      </c>
+      <c r="E17" t="s">
         <v>798</v>
       </c>
-      <c r="E17" t="s">
-        <v>799</v>
-      </c>
       <c r="F17" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7900,7 +7900,7 @@
         <v>540</v>
       </c>
       <c r="F18" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7928,7 +7928,7 @@
         <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C20" t="s">
         <v>546</v>
@@ -7948,19 +7948,19 @@
         <v>129</v>
       </c>
       <c r="B21" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C21" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D21" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E21" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F21" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -8034,10 +8034,10 @@
         <v>551</v>
       </c>
       <c r="D25" t="s">
+        <v>802</v>
+      </c>
+      <c r="E25" t="s">
         <v>803</v>
-      </c>
-      <c r="E25" t="s">
-        <v>804</v>
       </c>
       <c r="F25" t="s">
         <v>552</v>
@@ -8068,19 +8068,19 @@
         <v>167</v>
       </c>
       <c r="B27" t="s">
+        <v>804</v>
+      </c>
+      <c r="C27" t="s">
         <v>805</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>806</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>807</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>808</v>
-      </c>
-      <c r="F27" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -8088,13 +8088,13 @@
         <v>168</v>
       </c>
       <c r="B28" t="s">
+        <v>809</v>
+      </c>
+      <c r="C28" t="s">
         <v>810</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>811</v>
-      </c>
-      <c r="D28" t="s">
-        <v>812</v>
       </c>
       <c r="E28" t="s">
         <v>558</v>
@@ -8108,13 +8108,13 @@
         <v>169</v>
       </c>
       <c r="B29" t="s">
+        <v>812</v>
+      </c>
+      <c r="C29" t="s">
         <v>813</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>814</v>
-      </c>
-      <c r="D29" t="s">
-        <v>815</v>
       </c>
       <c r="E29" t="s">
         <v>560</v>
@@ -8128,13 +8128,13 @@
         <v>170</v>
       </c>
       <c r="B30" t="s">
+        <v>815</v>
+      </c>
+      <c r="C30" t="s">
         <v>816</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>817</v>
-      </c>
-      <c r="D30" t="s">
-        <v>818</v>
       </c>
       <c r="E30" t="s">
         <v>562</v>
@@ -8148,19 +8148,19 @@
         <v>171</v>
       </c>
       <c r="B31" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C31" t="s">
         <v>564</v>
       </c>
       <c r="D31" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E31" t="s">
         <v>565</v>
       </c>
       <c r="F31" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -8174,7 +8174,7 @@
         <v>567</v>
       </c>
       <c r="D32" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E32" t="s">
         <v>568</v>
@@ -8188,19 +8188,19 @@
         <v>179</v>
       </c>
       <c r="B33" t="s">
+        <v>822</v>
+      </c>
+      <c r="C33" t="s">
         <v>823</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>824</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>825</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>826</v>
-      </c>
-      <c r="F33" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -8257,10 +8257,10 @@
         <v>582</v>
       </c>
       <c r="E36" t="s">
+        <v>827</v>
+      </c>
+      <c r="F36" t="s">
         <v>828</v>
-      </c>
-      <c r="F36" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -8277,10 +8277,10 @@
         <v>585</v>
       </c>
       <c r="E37" t="s">
+        <v>829</v>
+      </c>
+      <c r="F37" t="s">
         <v>830</v>
-      </c>
-      <c r="F37" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -8297,10 +8297,10 @@
         <v>588</v>
       </c>
       <c r="E38" t="s">
+        <v>831</v>
+      </c>
+      <c r="F38" t="s">
         <v>832</v>
-      </c>
-      <c r="F38" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -8320,7 +8320,7 @@
         <v>592</v>
       </c>
       <c r="F39" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -8328,19 +8328,19 @@
         <v>181</v>
       </c>
       <c r="B40" t="s">
+        <v>834</v>
+      </c>
+      <c r="C40" t="s">
         <v>835</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>836</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>837</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>838</v>
-      </c>
-      <c r="F40" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -8348,19 +8348,19 @@
         <v>182</v>
       </c>
       <c r="B41" t="s">
+        <v>839</v>
+      </c>
+      <c r="C41" t="s">
         <v>840</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>841</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>842</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>843</v>
-      </c>
-      <c r="F41" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -8368,19 +8368,19 @@
         <v>184</v>
       </c>
       <c r="B42" t="s">
+        <v>844</v>
+      </c>
+      <c r="C42" t="s">
         <v>845</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>846</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>847</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>848</v>
-      </c>
-      <c r="F42" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -8394,13 +8394,13 @@
         <v>594</v>
       </c>
       <c r="D43" t="s">
+        <v>849</v>
+      </c>
+      <c r="E43" t="s">
         <v>850</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>851</v>
-      </c>
-      <c r="F43" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -8411,16 +8411,16 @@
         <v>595</v>
       </c>
       <c r="C44" t="s">
+        <v>852</v>
+      </c>
+      <c r="D44" t="s">
         <v>853</v>
-      </c>
-      <c r="D44" t="s">
-        <v>854</v>
       </c>
       <c r="E44" t="s">
         <v>596</v>
       </c>
       <c r="F44" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8428,19 +8428,19 @@
         <v>188</v>
       </c>
       <c r="B45" t="s">
+        <v>855</v>
+      </c>
+      <c r="C45" t="s">
         <v>856</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>857</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>858</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>859</v>
-      </c>
-      <c r="F45" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8448,19 +8448,19 @@
         <v>190</v>
       </c>
       <c r="B46" t="s">
+        <v>860</v>
+      </c>
+      <c r="C46" t="s">
         <v>861</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>862</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>863</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>864</v>
-      </c>
-      <c r="F46" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8468,7 +8468,7 @@
         <v>192</v>
       </c>
       <c r="B47" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C47" t="s">
         <v>597</v>
@@ -8477,7 +8477,7 @@
         <v>598</v>
       </c>
       <c r="E47" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F47" t="s">
         <v>599</v>
@@ -8511,7 +8511,7 @@
         <v>605</v>
       </c>
       <c r="C49" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D49" t="s">
         <v>606</v>
@@ -8520,7 +8520,7 @@
         <v>607</v>
       </c>
       <c r="F49" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8528,19 +8528,19 @@
         <v>198</v>
       </c>
       <c r="B50" t="s">
+        <v>869</v>
+      </c>
+      <c r="C50" t="s">
         <v>870</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>871</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>872</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>873</v>
-      </c>
-      <c r="F50" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8548,19 +8548,19 @@
         <v>200</v>
       </c>
       <c r="B51" t="s">
+        <v>874</v>
+      </c>
+      <c r="C51" t="s">
         <v>875</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>876</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>877</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>878</v>
-      </c>
-      <c r="F51" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8568,19 +8568,19 @@
         <v>202</v>
       </c>
       <c r="B52" t="s">
+        <v>879</v>
+      </c>
+      <c r="C52" t="s">
         <v>880</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>881</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>882</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>883</v>
-      </c>
-      <c r="F52" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8588,19 +8588,19 @@
         <v>204</v>
       </c>
       <c r="B53" t="s">
+        <v>884</v>
+      </c>
+      <c r="C53" t="s">
         <v>885</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>886</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>887</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>888</v>
-      </c>
-      <c r="F53" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8608,19 +8608,19 @@
         <v>206</v>
       </c>
       <c r="B54" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C54" t="s">
         <v>206</v>
       </c>
       <c r="D54" t="s">
+        <v>890</v>
+      </c>
+      <c r="E54" t="s">
         <v>891</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>892</v>
-      </c>
-      <c r="F54" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8631,16 +8631,16 @@
         <v>208</v>
       </c>
       <c r="C55" t="s">
+        <v>893</v>
+      </c>
+      <c r="D55" t="s">
         <v>894</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>895</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>896</v>
-      </c>
-      <c r="F55" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8668,19 +8668,19 @@
         <v>212</v>
       </c>
       <c r="B57" t="s">
+        <v>897</v>
+      </c>
+      <c r="C57" t="s">
         <v>898</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>899</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>900</v>
       </c>
-      <c r="E57" t="s">
-        <v>901</v>
-      </c>
       <c r="F57" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8688,19 +8688,19 @@
         <v>214</v>
       </c>
       <c r="B58" t="s">
+        <v>901</v>
+      </c>
+      <c r="C58" t="s">
         <v>902</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>903</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>904</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>905</v>
-      </c>
-      <c r="F58" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8717,10 +8717,10 @@
         <v>216</v>
       </c>
       <c r="E59" t="s">
+        <v>906</v>
+      </c>
+      <c r="F59" t="s">
         <v>907</v>
-      </c>
-      <c r="F59" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8728,19 +8728,19 @@
         <v>218</v>
       </c>
       <c r="B60" t="s">
+        <v>908</v>
+      </c>
+      <c r="C60" t="s">
         <v>909</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>910</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>911</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>912</v>
-      </c>
-      <c r="F60" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8748,19 +8748,19 @@
         <v>220</v>
       </c>
       <c r="B61" t="s">
+        <v>913</v>
+      </c>
+      <c r="C61" t="s">
         <v>914</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>915</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>916</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>917</v>
-      </c>
-      <c r="F61" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8797,10 +8797,10 @@
         <v>620</v>
       </c>
       <c r="E63" t="s">
+        <v>918</v>
+      </c>
+      <c r="F63" t="s">
         <v>919</v>
-      </c>
-      <c r="F63" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8817,10 +8817,10 @@
         <v>623</v>
       </c>
       <c r="E64" t="s">
+        <v>920</v>
+      </c>
+      <c r="F64" t="s">
         <v>921</v>
-      </c>
-      <c r="F64" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8828,19 +8828,19 @@
         <v>227</v>
       </c>
       <c r="B65" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C65" t="s">
         <v>227</v>
       </c>
       <c r="D65" t="s">
+        <v>923</v>
+      </c>
+      <c r="E65" t="s">
         <v>924</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>925</v>
-      </c>
-      <c r="F65" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8848,19 +8848,19 @@
         <v>229</v>
       </c>
       <c r="B66" t="s">
+        <v>926</v>
+      </c>
+      <c r="C66" t="s">
         <v>927</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>928</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>929</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>930</v>
-      </c>
-      <c r="F66" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8868,19 +8868,19 @@
         <v>231</v>
       </c>
       <c r="B67" t="s">
+        <v>931</v>
+      </c>
+      <c r="C67" t="s">
         <v>932</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>933</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>934</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>935</v>
-      </c>
-      <c r="F67" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8888,19 +8888,19 @@
         <v>233</v>
       </c>
       <c r="B68" t="s">
+        <v>936</v>
+      </c>
+      <c r="C68" t="s">
         <v>937</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>938</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>939</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>940</v>
-      </c>
-      <c r="F68" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8908,39 +8908,39 @@
         <v>235</v>
       </c>
       <c r="B69" t="s">
+        <v>941</v>
+      </c>
+      <c r="C69" t="s">
         <v>942</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>943</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>944</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>945</v>
-      </c>
-      <c r="F69" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
+        <v>946</v>
+      </c>
+      <c r="B70" t="s">
         <v>947</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>948</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>949</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>950</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>951</v>
-      </c>
-      <c r="F70" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8948,19 +8948,19 @@
         <v>241</v>
       </c>
       <c r="B71" t="s">
+        <v>952</v>
+      </c>
+      <c r="C71" t="s">
         <v>953</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>954</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>955</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>956</v>
-      </c>
-      <c r="F71" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8968,19 +8968,19 @@
         <v>243</v>
       </c>
       <c r="B72" t="s">
+        <v>957</v>
+      </c>
+      <c r="C72" t="s">
         <v>958</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>959</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>960</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>961</v>
-      </c>
-      <c r="F72" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8988,19 +8988,19 @@
         <v>279</v>
       </c>
       <c r="B73" t="s">
+        <v>962</v>
+      </c>
+      <c r="C73" t="s">
         <v>963</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>964</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>965</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>966</v>
-      </c>
-      <c r="F73" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -9008,19 +9008,19 @@
         <v>280</v>
       </c>
       <c r="B74" t="s">
+        <v>967</v>
+      </c>
+      <c r="C74" t="s">
         <v>968</v>
-      </c>
-      <c r="C74" t="s">
-        <v>969</v>
       </c>
       <c r="D74" t="s">
         <v>280</v>
       </c>
       <c r="E74" t="s">
+        <v>969</v>
+      </c>
+      <c r="F74" t="s">
         <v>970</v>
-      </c>
-      <c r="F74" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -9031,16 +9031,16 @@
         <v>281</v>
       </c>
       <c r="C75" t="s">
+        <v>971</v>
+      </c>
+      <c r="D75" t="s">
         <v>972</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>973</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>974</v>
-      </c>
-      <c r="F75" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -9051,16 +9051,16 @@
         <v>282</v>
       </c>
       <c r="C76" t="s">
+        <v>975</v>
+      </c>
+      <c r="D76" t="s">
         <v>976</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>977</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>978</v>
-      </c>
-      <c r="F76" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -9068,19 +9068,19 @@
         <v>93</v>
       </c>
       <c r="B77" t="s">
+        <v>979</v>
+      </c>
+      <c r="C77" t="s">
         <v>980</v>
-      </c>
-      <c r="C77" t="s">
-        <v>981</v>
       </c>
       <c r="D77" t="s">
         <v>93</v>
       </c>
       <c r="E77" t="s">
+        <v>981</v>
+      </c>
+      <c r="F77" t="s">
         <v>982</v>
-      </c>
-      <c r="F77" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -9088,19 +9088,19 @@
         <v>283</v>
       </c>
       <c r="B78" t="s">
+        <v>983</v>
+      </c>
+      <c r="C78" t="s">
         <v>984</v>
-      </c>
-      <c r="C78" t="s">
-        <v>985</v>
       </c>
       <c r="D78" t="s">
         <v>283</v>
       </c>
       <c r="E78" t="s">
+        <v>985</v>
+      </c>
+      <c r="F78" t="s">
         <v>986</v>
-      </c>
-      <c r="F78" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -9108,19 +9108,19 @@
         <v>92</v>
       </c>
       <c r="B79" t="s">
+        <v>987</v>
+      </c>
+      <c r="C79" t="s">
         <v>988</v>
-      </c>
-      <c r="C79" t="s">
-        <v>989</v>
       </c>
       <c r="D79" t="s">
         <v>92</v>
       </c>
       <c r="E79" t="s">
+        <v>989</v>
+      </c>
+      <c r="F79" t="s">
         <v>990</v>
-      </c>
-      <c r="F79" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -9128,19 +9128,19 @@
         <v>91</v>
       </c>
       <c r="B80" t="s">
+        <v>991</v>
+      </c>
+      <c r="C80" t="s">
         <v>992</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>993</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>994</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>995</v>
-      </c>
-      <c r="F80" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -9148,19 +9148,19 @@
         <v>284</v>
       </c>
       <c r="B81" t="s">
+        <v>996</v>
+      </c>
+      <c r="C81" t="s">
         <v>997</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>998</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>999</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>1000</v>
-      </c>
-      <c r="F81" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -9168,19 +9168,19 @@
         <v>285</v>
       </c>
       <c r="B82" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C82" t="s">
         <v>1002</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>1003</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>1004</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>1005</v>
-      </c>
-      <c r="F82" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -9188,19 +9188,19 @@
         <v>286</v>
       </c>
       <c r="B83" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C83" t="s">
         <v>1007</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>1008</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>1009</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>1010</v>
-      </c>
-      <c r="F83" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -9211,16 +9211,16 @@
         <v>287</v>
       </c>
       <c r="C84" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D84" t="s">
         <v>287</v>
       </c>
       <c r="E84" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F84" t="s">
         <v>1013</v>
-      </c>
-      <c r="F84" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -9228,19 +9228,19 @@
         <v>288</v>
       </c>
       <c r="B85" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C85" t="s">
         <v>1015</v>
-      </c>
-      <c r="C85" t="s">
-        <v>1016</v>
       </c>
       <c r="D85" t="s">
         <v>288</v>
       </c>
       <c r="E85" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F85" t="s">
         <v>1017</v>
-      </c>
-      <c r="F85" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -9248,19 +9248,19 @@
         <v>289</v>
       </c>
       <c r="B86" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C86" t="s">
         <v>1019</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>1020</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>1021</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>1022</v>
-      </c>
-      <c r="F86" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -9268,19 +9268,19 @@
         <v>36</v>
       </c>
       <c r="B87" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C87" t="s">
         <v>1024</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>1025</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>1026</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>1027</v>
-      </c>
-      <c r="F87" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -9294,13 +9294,13 @@
         <v>291</v>
       </c>
       <c r="D88" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E88" t="s">
         <v>1029</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>1030</v>
-      </c>
-      <c r="F88" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -9308,19 +9308,19 @@
         <v>293</v>
       </c>
       <c r="B89" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C89" t="s">
         <v>293</v>
       </c>
       <c r="D89" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E89" t="s">
         <v>1033</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>1034</v>
-      </c>
-      <c r="F89" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -9351,16 +9351,16 @@
         <v>73</v>
       </c>
       <c r="C91" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D91" t="s">
         <v>73</v>
       </c>
       <c r="E91" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F91" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -9368,19 +9368,19 @@
         <v>74</v>
       </c>
       <c r="B92" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C92" t="s">
         <v>1038</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E92" t="s">
         <v>1039</v>
       </c>
-      <c r="D92" t="s">
+      <c r="F92" t="s">
         <v>1039</v>
-      </c>
-      <c r="E92" t="s">
-        <v>1040</v>
-      </c>
-      <c r="F92" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -9391,10 +9391,10 @@
         <v>37</v>
       </c>
       <c r="C93" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D93" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E93" t="s">
         <v>37</v>
@@ -9417,10 +9417,10 @@
         <v>298</v>
       </c>
       <c r="E94" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F94" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
   </sheetData>
@@ -9437,14 +9437,14 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.73046875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
@@ -9455,7 +9455,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18" thickBot="1">
+    <row r="2" spans="1:13" ht="17.25" thickBot="1">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+    <row r="3" spans="1:13" ht="15" thickTop="1" thickBot="1">
       <c r="A3" t="s">
         <v>485</v>
       </c>
@@ -11486,30 +11486,30 @@
       <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="47.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="107.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="47.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.1328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="107.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -11874,14 +11874,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11992,28 +11992,28 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.265625" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
     <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.86328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.73046875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="18" thickBot="1">
+    <row r="3" spans="2:13" ht="17.25" thickBot="1">
       <c r="B3" s="3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="16.5" thickTop="1" thickBot="1">
+    <row r="4" spans="2:13" ht="15" thickTop="1" thickBot="1">
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -12229,11 +12229,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12265,7 +12265,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -12440,10 +12440,10 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -12627,7 +12627,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -13340,20 +13340,20 @@
       <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" thickBot="1">
+    <row r="1" spans="1:5" ht="17.25" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="2" spans="1:5" ht="15" thickTop="1" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>40</v>
       </c>

--- a/ReportDefs-TIMES-GEO.xlsx
+++ b/ReportDefs-TIMES-GEO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\TIMES-GEO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\py_projects\GitHub\TIMES-GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E19E5F-B390-4735-ACFF-9D47EF54E91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E2D1BB-BB9B-4235-9A17-3B04B318F8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="1043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="1215">
   <si>
     <t>Unit</t>
   </si>
@@ -653,36 +653,18 @@
     <t>T_All</t>
   </si>
   <si>
-    <t>Transport all</t>
-  </si>
-  <si>
-    <t>Road Transport</t>
-  </si>
-  <si>
     <t>T_NRoad</t>
   </si>
   <si>
     <t>Non-Road Transport</t>
   </si>
   <si>
-    <t>Passenger Transport</t>
-  </si>
-  <si>
-    <t>Freight Transport</t>
-  </si>
-  <si>
     <t>T_PassLand</t>
   </si>
   <si>
-    <t>Land-based passenger transport</t>
-  </si>
-  <si>
     <t>T_FreLand</t>
   </si>
   <si>
-    <t>Land-based freight Transport</t>
-  </si>
-  <si>
     <t>T-CAR</t>
   </si>
   <si>
@@ -1889,18 +1871,6 @@
     <t>熱交換器</t>
   </si>
   <si>
-    <t>Trasporto passeggeri</t>
-  </si>
-  <si>
-    <t>Transporte de pasajeros</t>
-  </si>
-  <si>
-    <t>Trasporto merci</t>
-  </si>
-  <si>
-    <t>貨物輸送</t>
-  </si>
-  <si>
     <t>Coches</t>
   </si>
   <si>
@@ -2612,36 +2582,6 @@
     <t>热交换器</t>
   </si>
   <si>
-    <t>Trasporta tutto</t>
-  </si>
-  <si>
-    <t>Transportar todo</t>
-  </si>
-  <si>
-    <t>Alles transportieren</t>
-  </si>
-  <si>
-    <t>すべてを輸送します</t>
-  </si>
-  <si>
-    <t>运输全部</t>
-  </si>
-  <si>
-    <t>Trasporto su strada</t>
-  </si>
-  <si>
-    <t>Transporte por carretera</t>
-  </si>
-  <si>
-    <t>Straßenverkehr</t>
-  </si>
-  <si>
-    <t>道路輸送</t>
-  </si>
-  <si>
-    <t>公路运输</t>
-  </si>
-  <si>
     <t>Trasporto non strato</t>
   </si>
   <si>
@@ -2657,54 +2597,6 @@
     <t>非道路运输</t>
   </si>
   <si>
-    <t>Passagiertransport</t>
-  </si>
-  <si>
-    <t>乗客輸送</t>
-  </si>
-  <si>
-    <t>客运运输</t>
-  </si>
-  <si>
-    <t>Transporte de carga</t>
-  </si>
-  <si>
-    <t>Frachttransport</t>
-  </si>
-  <si>
-    <t>货运运输</t>
-  </si>
-  <si>
-    <t>Trasporto passeggeri terrestri</t>
-  </si>
-  <si>
-    <t>Transporte de pasajeros terrestres</t>
-  </si>
-  <si>
-    <t>Passagiertransport an Land</t>
-  </si>
-  <si>
-    <t>陸上の旅客輸送</t>
-  </si>
-  <si>
-    <t>陆基客运</t>
-  </si>
-  <si>
-    <t>Trasporto merci a terra</t>
-  </si>
-  <si>
-    <t>Transporte de carga terrestre</t>
-  </si>
-  <si>
-    <t>Landbasierter Frachttransport</t>
-  </si>
-  <si>
-    <t>陸上貨物輸送</t>
-  </si>
-  <si>
-    <t>陆基货运运输</t>
-  </si>
-  <si>
     <t>Auto</t>
   </si>
   <si>
@@ -3215,28 +3107,652 @@
     <t>分散的</t>
   </si>
   <si>
-    <t>De %</t>
-  </si>
-  <si>
-    <t>％</t>
-  </si>
-  <si>
-    <t>G/kwh</t>
-  </si>
-  <si>
-    <t>G/kWh</t>
-  </si>
-  <si>
-    <t>g/kwh</t>
-  </si>
-  <si>
-    <t>Pj</t>
-  </si>
-  <si>
-    <t>KT</t>
-  </si>
-  <si>
     <t>sg_DRate-CO2Pr</t>
+  </si>
+  <si>
+    <t>Pulp and paper</t>
+  </si>
+  <si>
+    <t>Calore ad alto temperatura</t>
+  </si>
+  <si>
+    <t>Calor de alta temperatura</t>
+  </si>
+  <si>
+    <t>Hohe Temperaturwärme</t>
+  </si>
+  <si>
+    <t>高温熱</t>
+  </si>
+  <si>
+    <t>高温热</t>
+  </si>
+  <si>
+    <t>Indonesien</t>
+  </si>
+  <si>
+    <t>インドネシア</t>
+  </si>
+  <si>
+    <t>印度尼西亚</t>
+  </si>
+  <si>
+    <t>Asia meridionale</t>
+  </si>
+  <si>
+    <t>Asia del sur</t>
+  </si>
+  <si>
+    <t>Südasien</t>
+  </si>
+  <si>
+    <t>南アジア</t>
+  </si>
+  <si>
+    <t>南亚</t>
+  </si>
+  <si>
+    <t>Rusia</t>
+  </si>
+  <si>
+    <t>Russland</t>
+  </si>
+  <si>
+    <t>ロシア</t>
+  </si>
+  <si>
+    <t>俄罗斯</t>
+  </si>
+  <si>
+    <t>Produzione di idrogeno</t>
+  </si>
+  <si>
+    <t>Producción de hidrógeno</t>
+  </si>
+  <si>
+    <t>Wasserstoffproduktion</t>
+  </si>
+  <si>
+    <t>水素生産</t>
+  </si>
+  <si>
+    <t>氢产生</t>
+  </si>
+  <si>
+    <t>Piante di riscaldamento</t>
+  </si>
+  <si>
+    <t>Plantas de calefacción</t>
+  </si>
+  <si>
+    <t>Heizungsanlagen</t>
+  </si>
+  <si>
+    <t>暖房植物</t>
+  </si>
+  <si>
+    <t>加热植物</t>
+  </si>
+  <si>
+    <t>America Latina</t>
+  </si>
+  <si>
+    <t>América Latina</t>
+  </si>
+  <si>
+    <t>Lateinamerika</t>
+  </si>
+  <si>
+    <t>ラテンアメリカ</t>
+  </si>
+  <si>
+    <t>拉美</t>
+  </si>
+  <si>
+    <t>Magazzinaggio</t>
+  </si>
+  <si>
+    <t>Almacenamiento</t>
+  </si>
+  <si>
+    <t>Lagerung</t>
+  </si>
+  <si>
+    <t>ストレージ</t>
+  </si>
+  <si>
+    <t>贮存</t>
+  </si>
+  <si>
+    <t>Produzione primaria</t>
+  </si>
+  <si>
+    <t>Producción primaria</t>
+  </si>
+  <si>
+    <t>Primärproduktion</t>
+  </si>
+  <si>
+    <t>一次生産</t>
+  </si>
+  <si>
+    <t>初级生产</t>
+  </si>
+  <si>
+    <t>Truthahn</t>
+  </si>
+  <si>
+    <t>七面鳥</t>
+  </si>
+  <si>
+    <t>火鸡</t>
+  </si>
+  <si>
+    <t>Sud -est asiatico</t>
+  </si>
+  <si>
+    <t>Sudeste de Asia</t>
+  </si>
+  <si>
+    <t>Südostasien</t>
+  </si>
+  <si>
+    <t>東南アジア</t>
+  </si>
+  <si>
+    <t>东南亚</t>
+  </si>
+  <si>
+    <t>Messico</t>
+  </si>
+  <si>
+    <t>México</t>
+  </si>
+  <si>
+    <t>Mexiko</t>
+  </si>
+  <si>
+    <t>メキシコ</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>Medio Oriente</t>
+  </si>
+  <si>
+    <t>Oriente Medio</t>
+  </si>
+  <si>
+    <t>Naher Osten</t>
+  </si>
+  <si>
+    <t>中東</t>
+  </si>
+  <si>
+    <t>中东</t>
+  </si>
+  <si>
+    <t>Asien</t>
+  </si>
+  <si>
+    <t>アジア</t>
+  </si>
+  <si>
+    <t>亚洲</t>
+  </si>
+  <si>
+    <t>Calore a bassa temperatura</t>
+  </si>
+  <si>
+    <t>Calor de baja temperatura</t>
+  </si>
+  <si>
+    <t>Wärme niedriger Temperatur</t>
+  </si>
+  <si>
+    <t>低温熱</t>
+  </si>
+  <si>
+    <t>低温热</t>
+  </si>
+  <si>
+    <t>Europa occidentale</t>
+  </si>
+  <si>
+    <t>Europa occidental</t>
+  </si>
+  <si>
+    <t>Westeuropa</t>
+  </si>
+  <si>
+    <t>西欧</t>
+  </si>
+  <si>
+    <t>Trasporto</t>
+  </si>
+  <si>
+    <t>Transporte</t>
+  </si>
+  <si>
+    <t>輸送</t>
+  </si>
+  <si>
+    <t>运输</t>
+  </si>
+  <si>
+    <t>Solo elec</t>
+  </si>
+  <si>
+    <t>ELEC SOLO</t>
+  </si>
+  <si>
+    <t>Nur elec</t>
+  </si>
+  <si>
+    <t>Elecのみ</t>
+  </si>
+  <si>
+    <t>仅电子</t>
+  </si>
+  <si>
+    <t>Non-ferrous metals</t>
+  </si>
+  <si>
+    <t>Passeggero stradale</t>
+  </si>
+  <si>
+    <t>Straßen Passagier</t>
+  </si>
+  <si>
+    <t>道路の乗客</t>
+  </si>
+  <si>
+    <t>道路乘客</t>
+  </si>
+  <si>
+    <t>Nord Africa</t>
+  </si>
+  <si>
+    <t>África del Norte</t>
+  </si>
+  <si>
+    <t>Nordafrika</t>
+  </si>
+  <si>
+    <t>北アフリカ</t>
+  </si>
+  <si>
+    <t>北非</t>
+  </si>
+  <si>
+    <t>Europa occidentale non UE</t>
+  </si>
+  <si>
+    <t>Europa no es de EEU Europa</t>
+  </si>
+  <si>
+    <t>Nicht-EU-Westeuropa</t>
+  </si>
+  <si>
+    <t>非EU西ヨーロッパ</t>
+  </si>
+  <si>
+    <t>西欧非欧盟</t>
+  </si>
+  <si>
+    <t>EU EUR EUR EA EU EUR</t>
+  </si>
+  <si>
+    <t>UE Europa este</t>
+  </si>
+  <si>
+    <t>EU Osteuropa</t>
+  </si>
+  <si>
+    <t>EU東ヨーロッパ</t>
+  </si>
+  <si>
+    <t>欧盟东欧</t>
+  </si>
+  <si>
+    <t>Africa occidentale</t>
+  </si>
+  <si>
+    <t>África occidental</t>
+  </si>
+  <si>
+    <t>Westafrika</t>
+  </si>
+  <si>
+    <t>西アフリカ</t>
+  </si>
+  <si>
+    <t>西非</t>
+  </si>
+  <si>
+    <t>Brasile</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Brasilien</t>
+  </si>
+  <si>
+    <t>ブラジル</t>
+  </si>
+  <si>
+    <t>巴西</t>
+  </si>
+  <si>
+    <t>Sudafrica</t>
+  </si>
+  <si>
+    <t>Sudáfrica</t>
+  </si>
+  <si>
+    <t>Südafrika</t>
+  </si>
+  <si>
+    <t>南アフリカ</t>
+  </si>
+  <si>
+    <t>南非</t>
+  </si>
+  <si>
+    <t>Cenasia easteurope</t>
+  </si>
+  <si>
+    <t>Cenesia Eastteurope</t>
+  </si>
+  <si>
+    <t>Cenasia Easteurope</t>
+  </si>
+  <si>
+    <t>Irán</t>
+  </si>
+  <si>
+    <t>イラン</t>
+  </si>
+  <si>
+    <t>伊朗</t>
+  </si>
+  <si>
+    <t>Australia e Nuova Zelanda</t>
+  </si>
+  <si>
+    <t>Australia y Nueva Zelanda</t>
+  </si>
+  <si>
+    <t>Australien und Neuseeland</t>
+  </si>
+  <si>
+    <t>オーストラリアとニュージーランド</t>
+  </si>
+  <si>
+    <t>澳大利亚和新西兰</t>
+  </si>
+  <si>
+    <t>Asia centrale</t>
+  </si>
+  <si>
+    <t>Asia central</t>
+  </si>
+  <si>
+    <t>Zentralasien</t>
+  </si>
+  <si>
+    <t>中央アジア</t>
+  </si>
+  <si>
+    <t>中亚</t>
+  </si>
+  <si>
+    <t>America del Nord</t>
+  </si>
+  <si>
+    <t>América del norte</t>
+  </si>
+  <si>
+    <t>Nordamerika</t>
+  </si>
+  <si>
+    <t>北米</t>
+  </si>
+  <si>
+    <t>北美</t>
+  </si>
+  <si>
+    <t>Africa orientale</t>
+  </si>
+  <si>
+    <t>África oriental</t>
+  </si>
+  <si>
+    <t>Ostafrika</t>
+  </si>
+  <si>
+    <t>東アフリカ</t>
+  </si>
+  <si>
+    <t>东非</t>
+  </si>
+  <si>
+    <t>Corea</t>
+  </si>
+  <si>
+    <t>韓国</t>
+  </si>
+  <si>
+    <t>韩国</t>
+  </si>
+  <si>
+    <t>Azionamento a macchina</t>
+  </si>
+  <si>
+    <t>Manejo de la máquina</t>
+  </si>
+  <si>
+    <t>Maschinenantrieb</t>
+  </si>
+  <si>
+    <t>マシンドライブ</t>
+  </si>
+  <si>
+    <t>机器驱动器</t>
+  </si>
+  <si>
+    <t>Servizio</t>
+  </si>
+  <si>
+    <t>Servicio</t>
+  </si>
+  <si>
+    <t>Europa occidentale dell'UE</t>
+  </si>
+  <si>
+    <t>UE Europa occidental</t>
+  </si>
+  <si>
+    <t>EU Westeuropa</t>
+  </si>
+  <si>
+    <t>EU西ヨーロッパ</t>
+  </si>
+  <si>
+    <t>欧盟西欧</t>
+  </si>
+  <si>
+    <t>Centrali elettriche</t>
+  </si>
+  <si>
+    <t>Plantas de energía</t>
+  </si>
+  <si>
+    <t>Kraftwerke</t>
+  </si>
+  <si>
+    <t>発電所</t>
+  </si>
+  <si>
+    <t>发电厂</t>
+  </si>
+  <si>
+    <t>Cina</t>
+  </si>
+  <si>
+    <t>Porcelana</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>Regione asiatica</t>
+  </si>
+  <si>
+    <t>Región de Asia</t>
+  </si>
+  <si>
+    <t>Asienregion</t>
+  </si>
+  <si>
+    <t>アジア地域</t>
+  </si>
+  <si>
+    <t>亚洲地区</t>
+  </si>
+  <si>
+    <t>Canadá</t>
+  </si>
+  <si>
+    <t>Kanada</t>
+  </si>
+  <si>
+    <t>カナダ</t>
+  </si>
+  <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t>Regno Unito</t>
+  </si>
+  <si>
+    <t>Reino Unido</t>
+  </si>
+  <si>
+    <t>Vereinigtes Königreich</t>
+  </si>
+  <si>
+    <t>イギリス</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>Giappone</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>卫生</t>
+  </si>
+  <si>
+    <t>Argentinien</t>
+  </si>
+  <si>
+    <t>アルゼンチン</t>
+  </si>
+  <si>
+    <t>阿根廷</t>
+  </si>
+  <si>
+    <t>Europa orientale non UE</t>
+  </si>
+  <si>
+    <t>Nicht-EU-Osteuropa</t>
+  </si>
+  <si>
+    <t>非EU東ヨーロッパ</t>
+  </si>
+  <si>
+    <t>东欧非欧盟</t>
+  </si>
+  <si>
+    <t>Trasporto stradale</t>
+  </si>
+  <si>
+    <t>Flete de carretera</t>
+  </si>
+  <si>
+    <t>Straßenfracht</t>
+  </si>
+  <si>
+    <t>道路貨物</t>
+  </si>
+  <si>
+    <t>道路货运</t>
+  </si>
+  <si>
+    <t>Afrika</t>
+  </si>
+  <si>
+    <t>アフリカ</t>
+  </si>
+  <si>
+    <t>非洲</t>
+  </si>
+  <si>
+    <t>Stati Uniti</t>
+  </si>
+  <si>
+    <t>Estados Unidos</t>
+  </si>
+  <si>
+    <t>Vereinigte Staaten</t>
+  </si>
+  <si>
+    <t>米国</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>Altri servizi</t>
+  </si>
+  <si>
+    <t>Otros servicios</t>
+  </si>
+  <si>
+    <t>Andere Dienste</t>
+  </si>
+  <si>
+    <t>その他のサービス</t>
+  </si>
+  <si>
+    <t>其他服务</t>
+  </si>
+  <si>
+    <t>Indien</t>
+  </si>
+  <si>
+    <t>インド</t>
+  </si>
+  <si>
+    <t>印度</t>
+  </si>
+  <si>
+    <t>Arabia Saudita</t>
+  </si>
+  <si>
+    <t>Saudi-Arabien</t>
+  </si>
+  <si>
+    <t>サウジアラビア</t>
+  </si>
+  <si>
+    <t>沙特阿拉伯</t>
   </si>
 </sst>
 </file>
@@ -3886,25 +4402,25 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:Z65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="H1" t="s">
         <v>88</v>
@@ -3918,13 +4434,13 @@
     </row>
     <row r="2" spans="1:26">
       <c r="H2" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="I2" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="J2" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -3964,7 +4480,7 @@
         <v>sg_Disc-Rate</v>
       </c>
       <c r="K5" t="s">
-        <v>1042</v>
+        <v>999</v>
       </c>
       <c r="O5" t="s">
         <v>86</v>
@@ -3979,7 +4495,7 @@
         <v>1</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -3996,7 +4512,7 @@
         <v>cp-000.re-Hi.dr-10.0%</v>
       </c>
       <c r="H6" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" ref="I6" si="0">P6</f>
@@ -4017,7 +4533,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="Q6">
         <v>0.1</v>
@@ -4038,7 +4554,7 @@
         <v>2</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -4055,7 +4571,7 @@
         <v>cp-000.re-Hi.dr-07.5%</v>
       </c>
       <c r="H7" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" ref="I7:I55" si="7">P7</f>
@@ -4076,7 +4592,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="Q7">
         <v>7.4999999999999997E-2</v>
@@ -4097,7 +4613,7 @@
         <v>3</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -4114,7 +4630,7 @@
         <v>cp-000.re-Hi.dr-05.0%</v>
       </c>
       <c r="H8" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="7"/>
@@ -4135,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="Q8">
         <v>0.05</v>
@@ -4156,7 +4672,7 @@
         <v>4</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -4173,7 +4689,7 @@
         <v>cp-000.re-Hi.dr-02.0%</v>
       </c>
       <c r="H9" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="7"/>
@@ -4194,7 +4710,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="Q9">
         <v>0.02</v>
@@ -4215,7 +4731,7 @@
         <v>5</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -4232,7 +4748,7 @@
         <v>cp-000.re-Hi.dr-01.0%</v>
       </c>
       <c r="H10" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="7"/>
@@ -4253,7 +4769,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="Q10">
         <v>0.01</v>
@@ -4274,7 +4790,7 @@
         <v>6</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -4291,7 +4807,7 @@
         <v>cp-000.re-Ref.dr-10.0%</v>
       </c>
       <c r="H11" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="7"/>
@@ -4312,7 +4828,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="Q11">
         <v>0.1</v>
@@ -4344,7 +4860,7 @@
         <v>cp-000.re-Ref.dr-07.5%</v>
       </c>
       <c r="H12" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="7"/>
@@ -4365,7 +4881,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="Q12">
         <v>7.4999999999999997E-2</v>
@@ -4397,7 +4913,7 @@
         <v>cp-000.re-Ref.dr-05.0%</v>
       </c>
       <c r="H13" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="7"/>
@@ -4418,7 +4934,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="Q13">
         <v>0.05</v>
@@ -4450,7 +4966,7 @@
         <v>cp-000.re-Ref.dr-02.0%</v>
       </c>
       <c r="H14" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="7"/>
@@ -4471,7 +4987,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="Q14">
         <v>0.02</v>
@@ -4503,7 +5019,7 @@
         <v>cp-000.re-Ref.dr-01.0%</v>
       </c>
       <c r="H15" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="7"/>
@@ -4524,7 +5040,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="Q15">
         <v>0.01</v>
@@ -4556,7 +5072,7 @@
         <v>cp-050.re-Hi.dr-10.0%</v>
       </c>
       <c r="H16" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="7"/>
@@ -4577,7 +5093,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="Q16">
         <v>0.1</v>
@@ -4609,7 +5125,7 @@
         <v>cp-050.re-Hi.dr-07.5%</v>
       </c>
       <c r="H17" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="7"/>
@@ -4630,7 +5146,7 @@
         <v>2</v>
       </c>
       <c r="P17" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="Q17">
         <v>7.4999999999999997E-2</v>
@@ -4662,7 +5178,7 @@
         <v>cp-050.re-Hi.dr-05.0%</v>
       </c>
       <c r="H18" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="7"/>
@@ -4683,7 +5199,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="Q18">
         <v>0.05</v>
@@ -4715,7 +5231,7 @@
         <v>cp-050.re-Hi.dr-02.0%</v>
       </c>
       <c r="H19" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="7"/>
@@ -4736,7 +5252,7 @@
         <v>2</v>
       </c>
       <c r="P19" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="Q19">
         <v>0.02</v>
@@ -4768,7 +5284,7 @@
         <v>cp-050.re-Hi.dr-01.0%</v>
       </c>
       <c r="H20" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="7"/>
@@ -4789,7 +5305,7 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="Q20">
         <v>0.01</v>
@@ -4821,7 +5337,7 @@
         <v>cp-050.re-Ref.dr-10.0%</v>
       </c>
       <c r="H21" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="7"/>
@@ -4842,7 +5358,7 @@
         <v>2</v>
       </c>
       <c r="P21" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="Q21">
         <v>0.1</v>
@@ -4874,7 +5390,7 @@
         <v>cp-050.re-Ref.dr-07.5%</v>
       </c>
       <c r="H22" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="7"/>
@@ -4895,7 +5411,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="Q22">
         <v>7.4999999999999997E-2</v>
@@ -4927,7 +5443,7 @@
         <v>cp-050.re-Ref.dr-05.0%</v>
       </c>
       <c r="H23" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="7"/>
@@ -4948,7 +5464,7 @@
         <v>2</v>
       </c>
       <c r="P23" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="Q23">
         <v>0.05</v>
@@ -4980,7 +5496,7 @@
         <v>cp-050.re-Ref.dr-02.0%</v>
       </c>
       <c r="H24" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="7"/>
@@ -5001,7 +5517,7 @@
         <v>2</v>
       </c>
       <c r="P24" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="Q24">
         <v>0.02</v>
@@ -5033,7 +5549,7 @@
         <v>cp-050.re-Ref.dr-01.0%</v>
       </c>
       <c r="H25" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="7"/>
@@ -5054,7 +5570,7 @@
         <v>2</v>
       </c>
       <c r="P25" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="Q25">
         <v>0.01</v>
@@ -5086,7 +5602,7 @@
         <v>cp-100.re-Hi.dr-10.0%</v>
       </c>
       <c r="H26" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="7"/>
@@ -5107,7 +5623,7 @@
         <v>3</v>
       </c>
       <c r="P26" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="Q26">
         <v>0.1</v>
@@ -5139,7 +5655,7 @@
         <v>cp-100.re-Hi.dr-07.5%</v>
       </c>
       <c r="H27" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="7"/>
@@ -5160,7 +5676,7 @@
         <v>3</v>
       </c>
       <c r="P27" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="Q27">
         <v>7.4999999999999997E-2</v>
@@ -5192,7 +5708,7 @@
         <v>cp-100.re-Hi.dr-05.0%</v>
       </c>
       <c r="H28" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="7"/>
@@ -5213,7 +5729,7 @@
         <v>3</v>
       </c>
       <c r="P28" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="Q28">
         <v>0.05</v>
@@ -5245,7 +5761,7 @@
         <v>cp-100.re-Hi.dr-02.0%</v>
       </c>
       <c r="H29" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="7"/>
@@ -5266,7 +5782,7 @@
         <v>3</v>
       </c>
       <c r="P29" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="Q29">
         <v>0.02</v>
@@ -5298,7 +5814,7 @@
         <v>cp-100.re-Hi.dr-01.0%</v>
       </c>
       <c r="H30" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="7"/>
@@ -5319,7 +5835,7 @@
         <v>3</v>
       </c>
       <c r="P30" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="Q30">
         <v>0.01</v>
@@ -5351,7 +5867,7 @@
         <v>cp-100.re-Ref.dr-10.0%</v>
       </c>
       <c r="H31" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="7"/>
@@ -5372,7 +5888,7 @@
         <v>3</v>
       </c>
       <c r="P31" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="Q31">
         <v>0.1</v>
@@ -5404,7 +5920,7 @@
         <v>cp-100.re-Ref.dr-07.5%</v>
       </c>
       <c r="H32" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="7"/>
@@ -5425,7 +5941,7 @@
         <v>3</v>
       </c>
       <c r="P32" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="Q32">
         <v>7.4999999999999997E-2</v>
@@ -5457,7 +5973,7 @@
         <v>cp-100.re-Ref.dr-05.0%</v>
       </c>
       <c r="H33" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="7"/>
@@ -5478,7 +5994,7 @@
         <v>3</v>
       </c>
       <c r="P33" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="Q33">
         <v>0.05</v>
@@ -5510,7 +6026,7 @@
         <v>cp-100.re-Ref.dr-02.0%</v>
       </c>
       <c r="H34" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="7"/>
@@ -5531,7 +6047,7 @@
         <v>3</v>
       </c>
       <c r="P34" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="Q34">
         <v>0.02</v>
@@ -5563,7 +6079,7 @@
         <v>cp-100.re-Ref.dr-01.0%</v>
       </c>
       <c r="H35" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="7"/>
@@ -5584,7 +6100,7 @@
         <v>3</v>
       </c>
       <c r="P35" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="Q35">
         <v>0.01</v>
@@ -5616,7 +6132,7 @@
         <v>cp-150.re-Hi.dr-10.0%</v>
       </c>
       <c r="H36" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="7"/>
@@ -5637,7 +6153,7 @@
         <v>4</v>
       </c>
       <c r="P36" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="Q36">
         <v>0.1</v>
@@ -5669,7 +6185,7 @@
         <v>cp-150.re-Hi.dr-07.5%</v>
       </c>
       <c r="H37" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="7"/>
@@ -5690,7 +6206,7 @@
         <v>4</v>
       </c>
       <c r="P37" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="Q37">
         <v>7.4999999999999997E-2</v>
@@ -5722,7 +6238,7 @@
         <v>cp-150.re-Hi.dr-05.0%</v>
       </c>
       <c r="H38" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="7"/>
@@ -5743,7 +6259,7 @@
         <v>4</v>
       </c>
       <c r="P38" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="Q38">
         <v>0.05</v>
@@ -5775,7 +6291,7 @@
         <v>cp-150.re-Hi.dr-02.0%</v>
       </c>
       <c r="H39" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="7"/>
@@ -5796,7 +6312,7 @@
         <v>4</v>
       </c>
       <c r="P39" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="Q39">
         <v>0.02</v>
@@ -5828,7 +6344,7 @@
         <v>cp-150.re-Hi.dr-01.0%</v>
       </c>
       <c r="H40" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="7"/>
@@ -5849,7 +6365,7 @@
         <v>4</v>
       </c>
       <c r="P40" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="Q40">
         <v>0.01</v>
@@ -5881,7 +6397,7 @@
         <v>cp-150.re-Ref.dr-10.0%</v>
       </c>
       <c r="H41" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="7"/>
@@ -5902,7 +6418,7 @@
         <v>4</v>
       </c>
       <c r="P41" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="Q41">
         <v>0.1</v>
@@ -5934,7 +6450,7 @@
         <v>cp-150.re-Ref.dr-07.5%</v>
       </c>
       <c r="H42" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="7"/>
@@ -5955,7 +6471,7 @@
         <v>4</v>
       </c>
       <c r="P42" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="Q42">
         <v>7.4999999999999997E-2</v>
@@ -5987,7 +6503,7 @@
         <v>cp-150.re-Ref.dr-05.0%</v>
       </c>
       <c r="H43" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="7"/>
@@ -6008,7 +6524,7 @@
         <v>4</v>
       </c>
       <c r="P43" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="Q43">
         <v>0.05</v>
@@ -6040,7 +6556,7 @@
         <v>cp-150.re-Ref.dr-02.0%</v>
       </c>
       <c r="H44" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="7"/>
@@ -6061,7 +6577,7 @@
         <v>4</v>
       </c>
       <c r="P44" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="Q44">
         <v>0.02</v>
@@ -6093,7 +6609,7 @@
         <v>cp-150.re-Ref.dr-01.0%</v>
       </c>
       <c r="H45" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="7"/>
@@ -6114,7 +6630,7 @@
         <v>4</v>
       </c>
       <c r="P45" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="Q45">
         <v>0.01</v>
@@ -6146,7 +6662,7 @@
         <v>cp-300.re-Hi.dr-10.0%</v>
       </c>
       <c r="H46" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="I46" t="str">
         <f t="shared" si="7"/>
@@ -6167,7 +6683,7 @@
         <v>5</v>
       </c>
       <c r="P46" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="Q46">
         <v>0.1</v>
@@ -6199,7 +6715,7 @@
         <v>cp-300.re-Hi.dr-07.5%</v>
       </c>
       <c r="H47" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="7"/>
@@ -6220,7 +6736,7 @@
         <v>5</v>
       </c>
       <c r="P47" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="Q47">
         <v>7.4999999999999997E-2</v>
@@ -6252,7 +6768,7 @@
         <v>cp-300.re-Hi.dr-05.0%</v>
       </c>
       <c r="H48" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="7"/>
@@ -6273,7 +6789,7 @@
         <v>5</v>
       </c>
       <c r="P48" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="Q48">
         <v>0.05</v>
@@ -6305,7 +6821,7 @@
         <v>cp-300.re-Hi.dr-02.0%</v>
       </c>
       <c r="H49" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="7"/>
@@ -6326,7 +6842,7 @@
         <v>5</v>
       </c>
       <c r="P49" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="Q49">
         <v>0.02</v>
@@ -6358,7 +6874,7 @@
         <v>cp-300.re-Hi.dr-01.0%</v>
       </c>
       <c r="H50" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="7"/>
@@ -6379,7 +6895,7 @@
         <v>5</v>
       </c>
       <c r="P50" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="Q50">
         <v>0.01</v>
@@ -6411,7 +6927,7 @@
         <v>cp-300.re-Ref.dr-10.0%</v>
       </c>
       <c r="H51" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="7"/>
@@ -6432,7 +6948,7 @@
         <v>5</v>
       </c>
       <c r="P51" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="Q51">
         <v>0.1</v>
@@ -6464,7 +6980,7 @@
         <v>cp-300.re-Ref.dr-07.5%</v>
       </c>
       <c r="H52" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="7"/>
@@ -6485,7 +7001,7 @@
         <v>5</v>
       </c>
       <c r="P52" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="Q52">
         <v>7.4999999999999997E-2</v>
@@ -6517,7 +7033,7 @@
         <v>cp-300.re-Ref.dr-05.0%</v>
       </c>
       <c r="H53" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" si="7"/>
@@ -6538,7 +7054,7 @@
         <v>5</v>
       </c>
       <c r="P53" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="Q53">
         <v>0.05</v>
@@ -6570,7 +7086,7 @@
         <v>cp-300.re-Ref.dr-02.0%</v>
       </c>
       <c r="H54" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" si="7"/>
@@ -6591,7 +7107,7 @@
         <v>5</v>
       </c>
       <c r="P54" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="Q54">
         <v>0.02</v>
@@ -6623,7 +7139,7 @@
         <v>cp-300.re-Ref.dr-01.0%</v>
       </c>
       <c r="H55" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" si="7"/>
@@ -6644,7 +7160,7 @@
         <v>5</v>
       </c>
       <c r="P55" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="Q55">
         <v>0.01</v>
@@ -6676,7 +7192,7 @@
         <v>cp-225.re-Hi.dr-10.0%</v>
       </c>
       <c r="H56" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" ref="I56:I65" si="16">P56</f>
@@ -6697,7 +7213,7 @@
         <v>6</v>
       </c>
       <c r="P56" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="Q56">
         <v>0.1</v>
@@ -6729,7 +7245,7 @@
         <v>cp-225.re-Hi.dr-07.5%</v>
       </c>
       <c r="H57" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="16"/>
@@ -6750,7 +7266,7 @@
         <v>6</v>
       </c>
       <c r="P57" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="Q57">
         <v>7.4999999999999997E-2</v>
@@ -6782,7 +7298,7 @@
         <v>cp-225.re-Hi.dr-05.0%</v>
       </c>
       <c r="H58" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" si="16"/>
@@ -6803,7 +7319,7 @@
         <v>6</v>
       </c>
       <c r="P58" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="Q58">
         <v>0.05</v>
@@ -6835,7 +7351,7 @@
         <v>cp-225.re-Hi.dr-02.0%</v>
       </c>
       <c r="H59" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="I59" t="str">
         <f t="shared" si="16"/>
@@ -6856,7 +7372,7 @@
         <v>6</v>
       </c>
       <c r="P59" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="Q59">
         <v>0.02</v>
@@ -6888,7 +7404,7 @@
         <v>cp-225.re-Hi.dr-01.0%</v>
       </c>
       <c r="H60" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="16"/>
@@ -6909,7 +7425,7 @@
         <v>6</v>
       </c>
       <c r="P60" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="Q60">
         <v>0.01</v>
@@ -6941,7 +7457,7 @@
         <v>cp-225.re-Ref.dr-10.0%</v>
       </c>
       <c r="H61" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" si="16"/>
@@ -6962,7 +7478,7 @@
         <v>6</v>
       </c>
       <c r="P61" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="Q61">
         <v>0.1</v>
@@ -6994,7 +7510,7 @@
         <v>cp-225.re-Ref.dr-07.5%</v>
       </c>
       <c r="H62" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" si="16"/>
@@ -7015,7 +7531,7 @@
         <v>6</v>
       </c>
       <c r="P62" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="Q62">
         <v>7.4999999999999997E-2</v>
@@ -7047,7 +7563,7 @@
         <v>cp-225.re-Ref.dr-05.0%</v>
       </c>
       <c r="H63" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="16"/>
@@ -7068,7 +7584,7 @@
         <v>6</v>
       </c>
       <c r="P63" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="Q63">
         <v>0.05</v>
@@ -7100,7 +7616,7 @@
         <v>cp-225.re-Ref.dr-02.0%</v>
       </c>
       <c r="H64" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="I64" t="str">
         <f t="shared" si="16"/>
@@ -7121,7 +7637,7 @@
         <v>6</v>
       </c>
       <c r="P64" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="Q64">
         <v>0.02</v>
@@ -7153,7 +7669,7 @@
         <v>cp-225.re-Ref.dr-01.0%</v>
       </c>
       <c r="H65" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" si="16"/>
@@ -7174,7 +7690,7 @@
         <v>6</v>
       </c>
       <c r="P65" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="Q65">
         <v>0.01</v>
@@ -7206,16 +7722,16 @@
       <selection activeCell="C3" sqref="C3:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.86328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7504,9 +8020,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -7547,20 +8063,23 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7080B6D8-5B4D-43BE-B27E-6742BCADC05C}">
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7568,693 +8087,693 @@
         <v>41</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>506</v>
+        <v>802</v>
       </c>
       <c r="C3" t="s">
-        <v>507</v>
+        <v>803</v>
       </c>
       <c r="D3" t="s">
-        <v>770</v>
+        <v>804</v>
       </c>
       <c r="E3" t="s">
-        <v>508</v>
+        <v>554</v>
       </c>
       <c r="F3" t="s">
-        <v>771</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>1000</v>
       </c>
       <c r="B4" t="s">
-        <v>509</v>
+        <v>900</v>
       </c>
       <c r="C4" t="s">
-        <v>510</v>
+        <v>901</v>
       </c>
       <c r="D4" t="s">
-        <v>511</v>
+        <v>902</v>
       </c>
       <c r="E4" t="s">
-        <v>512</v>
+        <v>903</v>
       </c>
       <c r="F4" t="s">
-        <v>513</v>
+        <v>904</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>279</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>965</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>966</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>967</v>
       </c>
       <c r="E5" t="s">
-        <v>514</v>
+        <v>968</v>
       </c>
       <c r="F5" t="s">
-        <v>772</v>
+        <v>969</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>753</v>
       </c>
       <c r="B6" t="s">
-        <v>515</v>
+        <v>1001</v>
       </c>
       <c r="C6" t="s">
-        <v>516</v>
+        <v>1002</v>
       </c>
       <c r="D6" t="s">
-        <v>517</v>
+        <v>1003</v>
       </c>
       <c r="E6" t="s">
-        <v>773</v>
+        <v>1004</v>
       </c>
       <c r="F6" t="s">
-        <v>774</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>775</v>
+        <v>916</v>
       </c>
       <c r="C7" t="s">
-        <v>776</v>
+        <v>917</v>
       </c>
       <c r="D7" t="s">
-        <v>518</v>
+        <v>918</v>
       </c>
       <c r="E7" t="s">
-        <v>777</v>
+        <v>919</v>
       </c>
       <c r="F7" t="s">
-        <v>777</v>
+        <v>920</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>637</v>
       </c>
       <c r="B8" t="s">
-        <v>778</v>
+        <v>637</v>
       </c>
       <c r="C8" t="s">
-        <v>779</v>
+        <v>637</v>
       </c>
       <c r="D8" t="s">
-        <v>519</v>
+        <v>1006</v>
       </c>
       <c r="E8" t="s">
-        <v>780</v>
+        <v>1007</v>
       </c>
       <c r="F8" t="s">
-        <v>781</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>627</v>
       </c>
       <c r="B9" t="s">
-        <v>520</v>
+        <v>1009</v>
       </c>
       <c r="C9" t="s">
-        <v>521</v>
+        <v>1010</v>
       </c>
       <c r="D9" t="s">
-        <v>782</v>
+        <v>1011</v>
       </c>
       <c r="E9" t="s">
-        <v>522</v>
+        <v>1012</v>
       </c>
       <c r="F9" t="s">
-        <v>783</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>659</v>
       </c>
       <c r="B10" t="s">
-        <v>523</v>
+        <v>659</v>
       </c>
       <c r="C10" t="s">
-        <v>524</v>
+        <v>1014</v>
       </c>
       <c r="D10" t="s">
-        <v>525</v>
+        <v>1015</v>
       </c>
       <c r="E10" t="s">
-        <v>526</v>
+        <v>1016</v>
       </c>
       <c r="F10" t="s">
-        <v>527</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s">
-        <v>528</v>
+        <v>577</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>578</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>579</v>
       </c>
       <c r="E11" t="s">
-        <v>784</v>
+        <v>819</v>
       </c>
       <c r="F11" t="s">
-        <v>785</v>
+        <v>820</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="B12" t="s">
-        <v>786</v>
+        <v>202</v>
       </c>
       <c r="C12" t="s">
-        <v>787</v>
+        <v>857</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>858</v>
       </c>
       <c r="E12" t="s">
-        <v>788</v>
+        <v>859</v>
       </c>
       <c r="F12" t="s">
-        <v>789</v>
+        <v>860</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>530</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>529</v>
+        <v>787</v>
       </c>
       <c r="E13" t="s">
-        <v>530</v>
+        <v>788</v>
       </c>
       <c r="F13" t="s">
-        <v>531</v>
+        <v>788</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>790</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>791</v>
+        <v>508</v>
       </c>
       <c r="F14" t="s">
-        <v>532</v>
+        <v>762</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>595</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>831</v>
       </c>
       <c r="D15" t="s">
-        <v>533</v>
+        <v>596</v>
       </c>
       <c r="E15" t="s">
-        <v>534</v>
+        <v>597</v>
       </c>
       <c r="F15" t="s">
-        <v>792</v>
+        <v>832</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>487</v>
       </c>
       <c r="B16" t="s">
-        <v>793</v>
+        <v>1018</v>
       </c>
       <c r="C16" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="D16" t="s">
-        <v>535</v>
+        <v>1020</v>
       </c>
       <c r="E16" t="s">
-        <v>795</v>
+        <v>1021</v>
       </c>
       <c r="F16" t="s">
-        <v>796</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>495</v>
       </c>
       <c r="B17" t="s">
-        <v>536</v>
+        <v>1023</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>1024</v>
       </c>
       <c r="D17" t="s">
-        <v>797</v>
+        <v>1025</v>
       </c>
       <c r="E17" t="s">
-        <v>798</v>
+        <v>1026</v>
       </c>
       <c r="F17" t="s">
-        <v>798</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>642</v>
       </c>
       <c r="B18" t="s">
-        <v>537</v>
+        <v>1028</v>
       </c>
       <c r="C18" t="s">
-        <v>538</v>
+        <v>1029</v>
       </c>
       <c r="D18" t="s">
-        <v>539</v>
+        <v>1030</v>
       </c>
       <c r="E18" t="s">
-        <v>540</v>
+        <v>1031</v>
       </c>
       <c r="F18" t="s">
-        <v>799</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>223</v>
       </c>
       <c r="B19" t="s">
-        <v>541</v>
+        <v>890</v>
       </c>
       <c r="C19" t="s">
-        <v>542</v>
+        <v>891</v>
       </c>
       <c r="D19" t="s">
-        <v>543</v>
+        <v>892</v>
       </c>
       <c r="E19" t="s">
-        <v>544</v>
+        <v>893</v>
       </c>
       <c r="F19" t="s">
-        <v>545</v>
+        <v>894</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>735</v>
       </c>
       <c r="B20" t="s">
-        <v>800</v>
+        <v>1033</v>
       </c>
       <c r="C20" t="s">
-        <v>546</v>
+        <v>1034</v>
       </c>
       <c r="D20" t="s">
-        <v>547</v>
+        <v>1035</v>
       </c>
       <c r="E20" t="s">
-        <v>548</v>
+        <v>1036</v>
       </c>
       <c r="F20" t="s">
-        <v>548</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>483</v>
       </c>
       <c r="B21" t="s">
-        <v>801</v>
+        <v>1038</v>
       </c>
       <c r="C21" t="s">
-        <v>801</v>
+        <v>1039</v>
       </c>
       <c r="D21" t="s">
-        <v>801</v>
+        <v>1040</v>
       </c>
       <c r="E21" t="s">
-        <v>801</v>
+        <v>1041</v>
       </c>
       <c r="F21" t="s">
-        <v>801</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>206</v>
       </c>
       <c r="B22" t="s">
-        <v>131</v>
+        <v>861</v>
       </c>
       <c r="C22" t="s">
-        <v>131</v>
+        <v>862</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>863</v>
       </c>
       <c r="E22" t="s">
-        <v>131</v>
+        <v>864</v>
       </c>
       <c r="F22" t="s">
-        <v>549</v>
+        <v>864</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>500</v>
       </c>
       <c r="C23" t="s">
-        <v>133</v>
+        <v>501</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
+        <v>760</v>
       </c>
       <c r="E23" t="s">
-        <v>133</v>
+        <v>502</v>
       </c>
       <c r="F23" t="s">
-        <v>133</v>
+        <v>761</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>135</v>
+        <v>647</v>
       </c>
       <c r="B24" t="s">
-        <v>135</v>
+        <v>647</v>
       </c>
       <c r="C24" t="s">
-        <v>135</v>
+        <v>647</v>
       </c>
       <c r="D24" t="s">
-        <v>135</v>
+        <v>1043</v>
       </c>
       <c r="E24" t="s">
-        <v>135</v>
+        <v>1044</v>
       </c>
       <c r="F24" t="s">
-        <v>135</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>165</v>
+        <v>625</v>
       </c>
       <c r="B25" t="s">
-        <v>550</v>
+        <v>1046</v>
       </c>
       <c r="C25" t="s">
-        <v>551</v>
+        <v>1047</v>
       </c>
       <c r="D25" t="s">
-        <v>802</v>
+        <v>1048</v>
       </c>
       <c r="E25" t="s">
-        <v>803</v>
+        <v>1049</v>
       </c>
       <c r="F25" t="s">
-        <v>552</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="B26" t="s">
-        <v>553</v>
+        <v>853</v>
       </c>
       <c r="C26" t="s">
-        <v>554</v>
+        <v>200</v>
       </c>
       <c r="D26" t="s">
-        <v>555</v>
+        <v>854</v>
       </c>
       <c r="E26" t="s">
-        <v>556</v>
+        <v>855</v>
       </c>
       <c r="F26" t="s">
-        <v>557</v>
+        <v>856</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="B27" t="s">
-        <v>804</v>
+        <v>598</v>
       </c>
       <c r="C27" t="s">
-        <v>805</v>
+        <v>599</v>
       </c>
       <c r="D27" t="s">
-        <v>806</v>
+        <v>600</v>
       </c>
       <c r="E27" t="s">
-        <v>807</v>
+        <v>601</v>
       </c>
       <c r="F27" t="s">
-        <v>808</v>
+        <v>601</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>645</v>
       </c>
       <c r="B28" t="s">
-        <v>809</v>
+        <v>1051</v>
       </c>
       <c r="C28" t="s">
-        <v>810</v>
+        <v>1052</v>
       </c>
       <c r="D28" t="s">
-        <v>811</v>
+        <v>1053</v>
       </c>
       <c r="E28" t="s">
-        <v>558</v>
+        <v>1054</v>
       </c>
       <c r="F28" t="s">
-        <v>559</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>169</v>
+        <v>644</v>
       </c>
       <c r="B29" t="s">
-        <v>812</v>
+        <v>1056</v>
       </c>
       <c r="C29" t="s">
-        <v>813</v>
+        <v>1057</v>
       </c>
       <c r="D29" t="s">
-        <v>814</v>
+        <v>1058</v>
       </c>
       <c r="E29" t="s">
-        <v>560</v>
+        <v>1059</v>
       </c>
       <c r="F29" t="s">
-        <v>561</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="B30" t="s">
-        <v>815</v>
+        <v>503</v>
       </c>
       <c r="C30" t="s">
-        <v>816</v>
+        <v>504</v>
       </c>
       <c r="D30" t="s">
-        <v>817</v>
+        <v>505</v>
       </c>
       <c r="E30" t="s">
-        <v>562</v>
+        <v>506</v>
       </c>
       <c r="F30" t="s">
-        <v>563</v>
+        <v>507</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>171</v>
+        <v>287</v>
       </c>
       <c r="B31" t="s">
-        <v>818</v>
+        <v>995</v>
       </c>
       <c r="C31" t="s">
-        <v>564</v>
+        <v>287</v>
       </c>
       <c r="D31" t="s">
-        <v>819</v>
+        <v>996</v>
       </c>
       <c r="E31" t="s">
-        <v>565</v>
+        <v>997</v>
       </c>
       <c r="F31" t="s">
-        <v>820</v>
+        <v>998</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>172</v>
+        <v>746</v>
       </c>
       <c r="B32" t="s">
-        <v>566</v>
+        <v>746</v>
       </c>
       <c r="C32" t="s">
-        <v>567</v>
+        <v>746</v>
       </c>
       <c r="D32" t="s">
-        <v>821</v>
+        <v>1061</v>
       </c>
       <c r="E32" t="s">
-        <v>568</v>
+        <v>1062</v>
       </c>
       <c r="F32" t="s">
-        <v>569</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="B33" t="s">
-        <v>822</v>
+        <v>133</v>
       </c>
       <c r="C33" t="s">
-        <v>823</v>
+        <v>133</v>
       </c>
       <c r="D33" t="s">
-        <v>824</v>
+        <v>133</v>
       </c>
       <c r="E33" t="s">
-        <v>825</v>
+        <v>133</v>
       </c>
       <c r="F33" t="s">
-        <v>826</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="B34" t="s">
-        <v>570</v>
+        <v>776</v>
       </c>
       <c r="C34" t="s">
-        <v>571</v>
+        <v>777</v>
       </c>
       <c r="D34" t="s">
-        <v>572</v>
+        <v>111</v>
       </c>
       <c r="E34" t="s">
-        <v>573</v>
+        <v>778</v>
       </c>
       <c r="F34" t="s">
-        <v>574</v>
+        <v>779</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>174</v>
+        <v>754</v>
       </c>
       <c r="B35" t="s">
-        <v>575</v>
+        <v>1064</v>
       </c>
       <c r="C35" t="s">
-        <v>576</v>
+        <v>1065</v>
       </c>
       <c r="D35" t="s">
-        <v>577</v>
+        <v>1066</v>
       </c>
       <c r="E35" t="s">
-        <v>578</v>
+        <v>1067</v>
       </c>
       <c r="F35" t="s">
-        <v>579</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B36" t="s">
-        <v>580</v>
+        <v>824</v>
       </c>
       <c r="C36" t="s">
-        <v>581</v>
+        <v>825</v>
       </c>
       <c r="D36" t="s">
-        <v>582</v>
+        <v>826</v>
       </c>
       <c r="E36" t="s">
         <v>827</v>
@@ -8265,1162 +8784,1942 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>583</v>
+        <v>514</v>
       </c>
       <c r="C37" t="s">
-        <v>584</v>
+        <v>515</v>
       </c>
       <c r="D37" t="s">
-        <v>585</v>
+        <v>772</v>
       </c>
       <c r="E37" t="s">
-        <v>829</v>
+        <v>516</v>
       </c>
       <c r="F37" t="s">
-        <v>830</v>
+        <v>773</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>177</v>
+        <v>276</v>
       </c>
       <c r="B38" t="s">
-        <v>586</v>
+        <v>276</v>
       </c>
       <c r="C38" t="s">
-        <v>587</v>
+        <v>939</v>
       </c>
       <c r="D38" t="s">
-        <v>588</v>
+        <v>940</v>
       </c>
       <c r="E38" t="s">
-        <v>831</v>
+        <v>941</v>
       </c>
       <c r="F38" t="s">
-        <v>832</v>
+        <v>942</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c r="B39" t="s">
-        <v>589</v>
+        <v>921</v>
       </c>
       <c r="C39" t="s">
-        <v>590</v>
+        <v>922</v>
       </c>
       <c r="D39" t="s">
-        <v>591</v>
+        <v>923</v>
       </c>
       <c r="E39" t="s">
-        <v>592</v>
+        <v>924</v>
       </c>
       <c r="F39" t="s">
-        <v>833</v>
+        <v>925</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>181</v>
+        <v>745</v>
       </c>
       <c r="B40" t="s">
-        <v>834</v>
+        <v>1069</v>
       </c>
       <c r="C40" t="s">
-        <v>835</v>
+        <v>1070</v>
       </c>
       <c r="D40" t="s">
-        <v>836</v>
+        <v>1071</v>
       </c>
       <c r="E40" t="s">
-        <v>837</v>
+        <v>1072</v>
       </c>
       <c r="F40" t="s">
-        <v>838</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>182</v>
+        <v>273</v>
       </c>
       <c r="B41" t="s">
-        <v>839</v>
+        <v>926</v>
       </c>
       <c r="C41" t="s">
-        <v>840</v>
+        <v>927</v>
       </c>
       <c r="D41" t="s">
-        <v>841</v>
+        <v>928</v>
       </c>
       <c r="E41" t="s">
-        <v>842</v>
+        <v>929</v>
       </c>
       <c r="F41" t="s">
-        <v>843</v>
+        <v>930</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>184</v>
+        <v>283</v>
       </c>
       <c r="B42" t="s">
-        <v>844</v>
+        <v>982</v>
       </c>
       <c r="C42" t="s">
-        <v>845</v>
+        <v>983</v>
       </c>
       <c r="D42" t="s">
-        <v>846</v>
+        <v>984</v>
       </c>
       <c r="E42" t="s">
-        <v>847</v>
+        <v>985</v>
       </c>
       <c r="F42" t="s">
-        <v>848</v>
+        <v>986</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>185</v>
+        <v>498</v>
       </c>
       <c r="B43" t="s">
-        <v>593</v>
+        <v>1073</v>
       </c>
       <c r="C43" t="s">
-        <v>594</v>
+        <v>1074</v>
       </c>
       <c r="D43" t="s">
-        <v>849</v>
+        <v>498</v>
       </c>
       <c r="E43" t="s">
-        <v>850</v>
+        <v>1075</v>
       </c>
       <c r="F43" t="s">
-        <v>851</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="B44" t="s">
-        <v>595</v>
+        <v>131</v>
       </c>
       <c r="C44" t="s">
-        <v>852</v>
+        <v>131</v>
       </c>
       <c r="D44" t="s">
-        <v>853</v>
+        <v>131</v>
       </c>
       <c r="E44" t="s">
-        <v>596</v>
+        <v>131</v>
       </c>
       <c r="F44" t="s">
-        <v>854</v>
+        <v>543</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>188</v>
+        <v>277</v>
       </c>
       <c r="B45" t="s">
-        <v>855</v>
+        <v>947</v>
       </c>
       <c r="C45" t="s">
-        <v>856</v>
+        <v>948</v>
       </c>
       <c r="D45" t="s">
-        <v>857</v>
+        <v>277</v>
       </c>
       <c r="E45" t="s">
-        <v>858</v>
+        <v>949</v>
       </c>
       <c r="F45" t="s">
-        <v>859</v>
+        <v>950</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>190</v>
+        <v>661</v>
       </c>
       <c r="B46" t="s">
-        <v>860</v>
+        <v>1077</v>
       </c>
       <c r="C46" t="s">
-        <v>861</v>
+        <v>1078</v>
       </c>
       <c r="D46" t="s">
-        <v>862</v>
+        <v>1079</v>
       </c>
       <c r="E46" t="s">
-        <v>863</v>
+        <v>1080</v>
       </c>
       <c r="F46" t="s">
-        <v>864</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B47" t="s">
-        <v>865</v>
+        <v>848</v>
       </c>
       <c r="C47" t="s">
-        <v>597</v>
+        <v>849</v>
       </c>
       <c r="D47" t="s">
-        <v>598</v>
+        <v>850</v>
       </c>
       <c r="E47" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
       <c r="F47" t="s">
-        <v>599</v>
+        <v>852</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B48" t="s">
-        <v>600</v>
+        <v>829</v>
       </c>
       <c r="C48" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="D48" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="E48" t="s">
-        <v>603</v>
+        <v>830</v>
       </c>
       <c r="F48" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>196</v>
+        <v>1082</v>
       </c>
       <c r="B49" t="s">
-        <v>605</v>
+        <v>895</v>
       </c>
       <c r="C49" t="s">
-        <v>867</v>
+        <v>896</v>
       </c>
       <c r="D49" t="s">
-        <v>606</v>
+        <v>897</v>
       </c>
       <c r="E49" t="s">
-        <v>607</v>
+        <v>898</v>
       </c>
       <c r="F49" t="s">
-        <v>868</v>
+        <v>899</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>198</v>
+        <v>282</v>
       </c>
       <c r="B50" t="s">
-        <v>869</v>
+        <v>978</v>
       </c>
       <c r="C50" t="s">
-        <v>870</v>
+        <v>979</v>
       </c>
       <c r="D50" t="s">
-        <v>871</v>
+        <v>282</v>
       </c>
       <c r="E50" t="s">
-        <v>872</v>
+        <v>980</v>
       </c>
       <c r="F50" t="s">
-        <v>873</v>
+        <v>981</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="B51" t="s">
-        <v>874</v>
+        <v>799</v>
       </c>
       <c r="C51" t="s">
-        <v>875</v>
+        <v>800</v>
       </c>
       <c r="D51" t="s">
-        <v>876</v>
+        <v>801</v>
       </c>
       <c r="E51" t="s">
-        <v>877</v>
+        <v>552</v>
       </c>
       <c r="F51" t="s">
-        <v>878</v>
+        <v>553</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>202</v>
+        <v>278</v>
       </c>
       <c r="B52" t="s">
-        <v>879</v>
+        <v>960</v>
       </c>
       <c r="C52" t="s">
-        <v>880</v>
+        <v>961</v>
       </c>
       <c r="D52" t="s">
-        <v>881</v>
+        <v>962</v>
       </c>
       <c r="E52" t="s">
-        <v>882</v>
+        <v>963</v>
       </c>
       <c r="F52" t="s">
-        <v>883</v>
+        <v>964</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>204</v>
+        <v>697</v>
       </c>
       <c r="B53" t="s">
-        <v>884</v>
+        <v>1083</v>
       </c>
       <c r="C53" t="s">
-        <v>885</v>
+        <v>697</v>
       </c>
       <c r="D53" t="s">
-        <v>886</v>
+        <v>1084</v>
       </c>
       <c r="E53" t="s">
-        <v>887</v>
+        <v>1085</v>
       </c>
       <c r="F53" t="s">
-        <v>888</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>206</v>
+        <v>654</v>
       </c>
       <c r="B54" t="s">
-        <v>889</v>
+        <v>1087</v>
       </c>
       <c r="C54" t="s">
-        <v>206</v>
+        <v>1088</v>
       </c>
       <c r="D54" t="s">
-        <v>890</v>
+        <v>1089</v>
       </c>
       <c r="E54" t="s">
-        <v>891</v>
+        <v>1090</v>
       </c>
       <c r="F54" t="s">
-        <v>892</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>208</v>
+        <v>657</v>
       </c>
       <c r="B55" t="s">
-        <v>208</v>
+        <v>1092</v>
       </c>
       <c r="C55" t="s">
-        <v>893</v>
+        <v>1093</v>
       </c>
       <c r="D55" t="s">
-        <v>894</v>
+        <v>1094</v>
       </c>
       <c r="E55" t="s">
-        <v>895</v>
+        <v>1095</v>
       </c>
       <c r="F55" t="s">
-        <v>896</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="B56" t="s">
-        <v>608</v>
+        <v>580</v>
       </c>
       <c r="C56" t="s">
-        <v>609</v>
+        <v>581</v>
       </c>
       <c r="D56" t="s">
-        <v>610</v>
+        <v>582</v>
       </c>
       <c r="E56" t="s">
-        <v>611</v>
+        <v>821</v>
       </c>
       <c r="F56" t="s">
-        <v>611</v>
+        <v>822</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>212</v>
+        <v>92</v>
       </c>
       <c r="B57" t="s">
-        <v>897</v>
+        <v>951</v>
       </c>
       <c r="C57" t="s">
-        <v>898</v>
+        <v>952</v>
       </c>
       <c r="D57" t="s">
-        <v>899</v>
+        <v>92</v>
       </c>
       <c r="E57" t="s">
-        <v>900</v>
+        <v>953</v>
       </c>
       <c r="F57" t="s">
-        <v>900</v>
+        <v>954</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>214</v>
+        <v>690</v>
       </c>
       <c r="B58" t="s">
-        <v>901</v>
+        <v>1097</v>
       </c>
       <c r="C58" t="s">
-        <v>902</v>
+        <v>1098</v>
       </c>
       <c r="D58" t="s">
-        <v>903</v>
+        <v>1099</v>
       </c>
       <c r="E58" t="s">
-        <v>904</v>
+        <v>1100</v>
       </c>
       <c r="F58" t="s">
-        <v>905</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>216</v>
+        <v>655</v>
       </c>
       <c r="B59" t="s">
-        <v>612</v>
+        <v>1102</v>
       </c>
       <c r="C59" t="s">
-        <v>613</v>
+        <v>1103</v>
       </c>
       <c r="D59" t="s">
-        <v>216</v>
+        <v>1104</v>
       </c>
       <c r="E59" t="s">
-        <v>906</v>
+        <v>1105</v>
       </c>
       <c r="F59" t="s">
-        <v>907</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>218</v>
+        <v>93</v>
       </c>
       <c r="B60" t="s">
-        <v>908</v>
+        <v>943</v>
       </c>
       <c r="C60" t="s">
-        <v>909</v>
+        <v>944</v>
       </c>
       <c r="D60" t="s">
-        <v>910</v>
+        <v>93</v>
       </c>
       <c r="E60" t="s">
-        <v>911</v>
+        <v>945</v>
       </c>
       <c r="F60" t="s">
-        <v>912</v>
+        <v>946</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>220</v>
+        <v>630</v>
       </c>
       <c r="B61" t="s">
-        <v>913</v>
+        <v>1107</v>
       </c>
       <c r="C61" t="s">
-        <v>914</v>
+        <v>1108</v>
       </c>
       <c r="D61" t="s">
-        <v>915</v>
+        <v>1109</v>
       </c>
       <c r="E61" t="s">
-        <v>916</v>
+        <v>1110</v>
       </c>
       <c r="F61" t="s">
-        <v>917</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>238</v>
+        <v>107</v>
       </c>
       <c r="B62" t="s">
-        <v>614</v>
+        <v>517</v>
       </c>
       <c r="C62" t="s">
-        <v>615</v>
+        <v>518</v>
       </c>
       <c r="D62" t="s">
-        <v>616</v>
+        <v>519</v>
       </c>
       <c r="E62" t="s">
-        <v>617</v>
+        <v>520</v>
       </c>
       <c r="F62" t="s">
-        <v>618</v>
+        <v>521</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>239</v>
+        <v>135</v>
       </c>
       <c r="B63" t="s">
-        <v>619</v>
+        <v>135</v>
       </c>
       <c r="C63" t="s">
-        <v>619</v>
+        <v>135</v>
       </c>
       <c r="D63" t="s">
-        <v>620</v>
+        <v>135</v>
       </c>
       <c r="E63" t="s">
-        <v>918</v>
+        <v>135</v>
       </c>
       <c r="F63" t="s">
-        <v>919</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B64" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="C64" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="D64" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="E64" t="s">
-        <v>920</v>
+        <v>882</v>
       </c>
       <c r="F64" t="s">
-        <v>921</v>
+        <v>883</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>227</v>
+        <v>649</v>
       </c>
       <c r="B65" t="s">
-        <v>922</v>
+        <v>1112</v>
       </c>
       <c r="C65" t="s">
-        <v>227</v>
+        <v>1113</v>
       </c>
       <c r="D65" t="s">
-        <v>923</v>
+        <v>1114</v>
       </c>
       <c r="E65" t="s">
-        <v>924</v>
+        <v>1115</v>
       </c>
       <c r="F65" t="s">
-        <v>925</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="B66" t="s">
-        <v>926</v>
+        <v>805</v>
       </c>
       <c r="C66" t="s">
-        <v>927</v>
+        <v>806</v>
       </c>
       <c r="D66" t="s">
-        <v>928</v>
+        <v>807</v>
       </c>
       <c r="E66" t="s">
-        <v>929</v>
+        <v>556</v>
       </c>
       <c r="F66" t="s">
-        <v>930</v>
+        <v>557</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>231</v>
+        <v>129</v>
       </c>
       <c r="B67" t="s">
-        <v>931</v>
+        <v>791</v>
       </c>
       <c r="C67" t="s">
-        <v>932</v>
+        <v>791</v>
       </c>
       <c r="D67" t="s">
-        <v>933</v>
+        <v>791</v>
       </c>
       <c r="E67" t="s">
-        <v>934</v>
+        <v>791</v>
       </c>
       <c r="F67" t="s">
-        <v>935</v>
+        <v>791</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>233</v>
+        <v>172</v>
       </c>
       <c r="B68" t="s">
-        <v>936</v>
+        <v>560</v>
       </c>
       <c r="C68" t="s">
-        <v>937</v>
+        <v>561</v>
       </c>
       <c r="D68" t="s">
-        <v>938</v>
+        <v>811</v>
       </c>
       <c r="E68" t="s">
-        <v>939</v>
+        <v>562</v>
       </c>
       <c r="F68" t="s">
-        <v>940</v>
+        <v>563</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="B69" t="s">
-        <v>941</v>
+        <v>843</v>
       </c>
       <c r="C69" t="s">
-        <v>942</v>
+        <v>844</v>
       </c>
       <c r="D69" t="s">
-        <v>943</v>
+        <v>845</v>
       </c>
       <c r="E69" t="s">
-        <v>944</v>
+        <v>846</v>
       </c>
       <c r="F69" t="s">
-        <v>945</v>
+        <v>847</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>946</v>
+        <v>117</v>
       </c>
       <c r="B70" t="s">
-        <v>947</v>
+        <v>117</v>
       </c>
       <c r="C70" t="s">
-        <v>948</v>
+        <v>117</v>
       </c>
       <c r="D70" t="s">
-        <v>949</v>
+        <v>527</v>
       </c>
       <c r="E70" t="s">
-        <v>950</v>
+        <v>528</v>
       </c>
       <c r="F70" t="s">
-        <v>951</v>
+        <v>782</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>241</v>
+        <v>747</v>
       </c>
       <c r="B71" t="s">
-        <v>952</v>
+        <v>1117</v>
       </c>
       <c r="C71" t="s">
-        <v>953</v>
+        <v>1118</v>
       </c>
       <c r="D71" t="s">
-        <v>954</v>
+        <v>1119</v>
       </c>
       <c r="E71" t="s">
-        <v>955</v>
+        <v>1119</v>
       </c>
       <c r="F71" t="s">
-        <v>956</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>243</v>
+        <v>167</v>
       </c>
       <c r="B72" t="s">
-        <v>957</v>
+        <v>794</v>
       </c>
       <c r="C72" t="s">
-        <v>958</v>
+        <v>795</v>
       </c>
       <c r="D72" t="s">
-        <v>959</v>
+        <v>796</v>
       </c>
       <c r="E72" t="s">
-        <v>960</v>
+        <v>797</v>
       </c>
       <c r="F72" t="s">
-        <v>961</v>
+        <v>798</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>279</v>
+        <v>658</v>
       </c>
       <c r="B73" t="s">
-        <v>962</v>
+        <v>658</v>
       </c>
       <c r="C73" t="s">
-        <v>963</v>
+        <v>1120</v>
       </c>
       <c r="D73" t="s">
-        <v>964</v>
+        <v>658</v>
       </c>
       <c r="E73" t="s">
-        <v>965</v>
+        <v>1121</v>
       </c>
       <c r="F73" t="s">
-        <v>966</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>280</v>
+        <v>652</v>
       </c>
       <c r="B74" t="s">
-        <v>967</v>
+        <v>1123</v>
       </c>
       <c r="C74" t="s">
-        <v>968</v>
+        <v>1124</v>
       </c>
       <c r="D74" t="s">
-        <v>280</v>
+        <v>1125</v>
       </c>
       <c r="E74" t="s">
-        <v>969</v>
+        <v>1126</v>
       </c>
       <c r="F74" t="s">
-        <v>970</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>281</v>
+        <v>623</v>
       </c>
       <c r="B75" t="s">
-        <v>281</v>
+        <v>1128</v>
       </c>
       <c r="C75" t="s">
-        <v>971</v>
+        <v>1129</v>
       </c>
       <c r="D75" t="s">
-        <v>972</v>
+        <v>1130</v>
       </c>
       <c r="E75" t="s">
-        <v>973</v>
+        <v>1131</v>
       </c>
       <c r="F75" t="s">
-        <v>974</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>282</v>
+        <v>744</v>
       </c>
       <c r="B76" t="s">
-        <v>282</v>
+        <v>1133</v>
       </c>
       <c r="C76" t="s">
-        <v>975</v>
+        <v>1134</v>
       </c>
       <c r="D76" t="s">
-        <v>976</v>
+        <v>1135</v>
       </c>
       <c r="E76" t="s">
-        <v>977</v>
+        <v>1136</v>
       </c>
       <c r="F76" t="s">
-        <v>978</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>653</v>
       </c>
       <c r="B77" t="s">
-        <v>979</v>
+        <v>1138</v>
       </c>
       <c r="C77" t="s">
-        <v>980</v>
+        <v>1139</v>
       </c>
       <c r="D77" t="s">
-        <v>93</v>
+        <v>1140</v>
       </c>
       <c r="E77" t="s">
-        <v>981</v>
+        <v>1141</v>
       </c>
       <c r="F77" t="s">
-        <v>982</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>283</v>
+        <v>640</v>
       </c>
       <c r="B78" t="s">
-        <v>983</v>
+        <v>1143</v>
       </c>
       <c r="C78" t="s">
-        <v>984</v>
+        <v>1143</v>
       </c>
       <c r="D78" t="s">
-        <v>283</v>
+        <v>640</v>
       </c>
       <c r="E78" t="s">
-        <v>985</v>
+        <v>1144</v>
       </c>
       <c r="F78" t="s">
-        <v>986</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>92</v>
+        <v>755</v>
       </c>
       <c r="B79" t="s">
-        <v>987</v>
+        <v>1146</v>
       </c>
       <c r="C79" t="s">
-        <v>988</v>
+        <v>1147</v>
       </c>
       <c r="D79" t="s">
-        <v>92</v>
+        <v>1148</v>
       </c>
       <c r="E79" t="s">
-        <v>989</v>
+        <v>1149</v>
       </c>
       <c r="F79" t="s">
-        <v>990</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="B80" t="s">
-        <v>991</v>
+        <v>569</v>
       </c>
       <c r="C80" t="s">
-        <v>992</v>
+        <v>570</v>
       </c>
       <c r="D80" t="s">
-        <v>993</v>
+        <v>571</v>
       </c>
       <c r="E80" t="s">
-        <v>994</v>
+        <v>572</v>
       </c>
       <c r="F80" t="s">
-        <v>995</v>
+        <v>573</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>284</v>
+        <v>208</v>
       </c>
       <c r="B81" t="s">
-        <v>996</v>
+        <v>865</v>
       </c>
       <c r="C81" t="s">
-        <v>997</v>
+        <v>866</v>
       </c>
       <c r="D81" t="s">
-        <v>998</v>
+        <v>867</v>
       </c>
       <c r="E81" t="s">
-        <v>999</v>
+        <v>868</v>
       </c>
       <c r="F81" t="s">
-        <v>1000</v>
+        <v>869</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>285</v>
+        <v>171</v>
       </c>
       <c r="B82" t="s">
-        <v>1001</v>
+        <v>808</v>
       </c>
       <c r="C82" t="s">
-        <v>1002</v>
+        <v>558</v>
       </c>
       <c r="D82" t="s">
-        <v>1003</v>
+        <v>809</v>
       </c>
       <c r="E82" t="s">
-        <v>1004</v>
+        <v>559</v>
       </c>
       <c r="F82" t="s">
-        <v>1005</v>
+        <v>810</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>286</v>
+        <v>36</v>
       </c>
       <c r="B83" t="s">
-        <v>1006</v>
+        <v>987</v>
       </c>
       <c r="C83" t="s">
-        <v>1007</v>
+        <v>988</v>
       </c>
       <c r="D83" t="s">
-        <v>1008</v>
+        <v>989</v>
       </c>
       <c r="E83" t="s">
-        <v>1009</v>
+        <v>990</v>
       </c>
       <c r="F83" t="s">
-        <v>1010</v>
+        <v>991</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>287</v>
+        <v>497</v>
       </c>
       <c r="B84" t="s">
-        <v>287</v>
+        <v>1151</v>
       </c>
       <c r="C84" t="s">
-        <v>1011</v>
+        <v>1152</v>
       </c>
       <c r="D84" t="s">
-        <v>287</v>
+        <v>497</v>
       </c>
       <c r="E84" t="s">
-        <v>1012</v>
+        <v>550</v>
       </c>
       <c r="F84" t="s">
-        <v>1013</v>
+        <v>551</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>288</v>
+        <v>691</v>
       </c>
       <c r="B85" t="s">
-        <v>1014</v>
+        <v>1153</v>
       </c>
       <c r="C85" t="s">
-        <v>1015</v>
+        <v>1154</v>
       </c>
       <c r="D85" t="s">
-        <v>288</v>
+        <v>1155</v>
       </c>
       <c r="E85" t="s">
-        <v>1016</v>
+        <v>1156</v>
       </c>
       <c r="F85" t="s">
-        <v>1017</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>289</v>
+        <v>232</v>
       </c>
       <c r="B86" t="s">
-        <v>1018</v>
+        <v>604</v>
       </c>
       <c r="C86" t="s">
-        <v>1019</v>
+        <v>605</v>
       </c>
       <c r="D86" t="s">
-        <v>1020</v>
+        <v>606</v>
       </c>
       <c r="E86" t="s">
-        <v>1021</v>
+        <v>607</v>
       </c>
       <c r="F86" t="s">
-        <v>1022</v>
+        <v>608</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>36</v>
+        <v>496</v>
       </c>
       <c r="B87" t="s">
-        <v>1023</v>
+        <v>1158</v>
       </c>
       <c r="C87" t="s">
-        <v>1024</v>
+        <v>1159</v>
       </c>
       <c r="D87" t="s">
-        <v>1025</v>
+        <v>1160</v>
       </c>
       <c r="E87" t="s">
-        <v>1026</v>
+        <v>1161</v>
       </c>
       <c r="F87" t="s">
-        <v>1027</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>291</v>
+        <v>689</v>
       </c>
       <c r="B88" t="s">
-        <v>291</v>
+        <v>1163</v>
       </c>
       <c r="C88" t="s">
-        <v>291</v>
+        <v>1164</v>
       </c>
       <c r="D88" t="s">
-        <v>1028</v>
+        <v>689</v>
       </c>
       <c r="E88" t="s">
-        <v>1029</v>
+        <v>1165</v>
       </c>
       <c r="F88" t="s">
-        <v>1030</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>293</v>
+        <v>123</v>
       </c>
       <c r="B89" t="s">
-        <v>1031</v>
+        <v>531</v>
       </c>
       <c r="C89" t="s">
-        <v>293</v>
+        <v>532</v>
       </c>
       <c r="D89" t="s">
-        <v>1032</v>
+        <v>533</v>
       </c>
       <c r="E89" t="s">
-        <v>1033</v>
+        <v>534</v>
       </c>
       <c r="F89" t="s">
-        <v>1034</v>
+        <v>789</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>905</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>906</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>907</v>
       </c>
       <c r="E90" t="s">
-        <v>9</v>
+        <v>908</v>
       </c>
       <c r="F90" t="s">
-        <v>9</v>
+        <v>909</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>73</v>
+        <v>629</v>
       </c>
       <c r="B91" t="s">
-        <v>73</v>
+        <v>1166</v>
       </c>
       <c r="C91" t="s">
-        <v>1035</v>
+        <v>1167</v>
       </c>
       <c r="D91" t="s">
-        <v>73</v>
+        <v>1168</v>
       </c>
       <c r="E91" t="s">
-        <v>1036</v>
+        <v>1169</v>
       </c>
       <c r="F91" t="s">
-        <v>1036</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>74</v>
+        <v>631</v>
       </c>
       <c r="B92" t="s">
-        <v>1037</v>
+        <v>631</v>
       </c>
       <c r="C92" t="s">
-        <v>1038</v>
+        <v>1171</v>
       </c>
       <c r="D92" t="s">
-        <v>1038</v>
+        <v>1172</v>
       </c>
       <c r="E92" t="s">
-        <v>1039</v>
+        <v>1173</v>
       </c>
       <c r="F92" t="s">
-        <v>1039</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>37</v>
+        <v>212</v>
       </c>
       <c r="B93" t="s">
-        <v>37</v>
+        <v>872</v>
       </c>
       <c r="C93" t="s">
-        <v>1040</v>
+        <v>873</v>
       </c>
       <c r="D93" t="s">
-        <v>1040</v>
+        <v>874</v>
       </c>
       <c r="E93" t="s">
-        <v>37</v>
+        <v>875</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>876</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>298</v>
+        <v>636</v>
       </c>
       <c r="B94" t="s">
-        <v>298</v>
+        <v>1175</v>
       </c>
       <c r="C94" t="s">
-        <v>298</v>
+        <v>1176</v>
       </c>
       <c r="D94" t="s">
-        <v>298</v>
+        <v>1177</v>
       </c>
       <c r="E94" t="s">
-        <v>1041</v>
+        <v>1178</v>
       </c>
       <c r="F94" t="s">
-        <v>1041</v>
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>166</v>
+      </c>
+      <c r="B95" t="s">
+        <v>547</v>
+      </c>
+      <c r="C95" t="s">
+        <v>548</v>
+      </c>
+      <c r="D95" t="s">
+        <v>549</v>
+      </c>
+      <c r="E95" t="s">
+        <v>550</v>
+      </c>
+      <c r="F95" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>188</v>
+      </c>
+      <c r="B96" t="s">
+        <v>590</v>
+      </c>
+      <c r="C96" t="s">
+        <v>591</v>
+      </c>
+      <c r="D96" t="s">
+        <v>592</v>
+      </c>
+      <c r="E96" t="s">
+        <v>593</v>
+      </c>
+      <c r="F96" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>639</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C97" t="s">
+        <v>639</v>
+      </c>
+      <c r="D97" t="s">
+        <v>639</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F97" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>662</v>
+      </c>
+      <c r="B98" t="s">
+        <v>662</v>
+      </c>
+      <c r="C98" t="s">
+        <v>662</v>
+      </c>
+      <c r="D98" t="s">
+        <v>662</v>
+      </c>
+      <c r="E98" t="s">
+        <v>662</v>
+      </c>
+      <c r="F98" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" t="s">
+        <v>765</v>
+      </c>
+      <c r="C99" t="s">
+        <v>766</v>
+      </c>
+      <c r="D99" t="s">
+        <v>512</v>
+      </c>
+      <c r="E99" t="s">
+        <v>767</v>
+      </c>
+      <c r="F99" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>219</v>
+      </c>
+      <c r="B100" t="s">
+        <v>611</v>
+      </c>
+      <c r="C100" t="s">
+        <v>612</v>
+      </c>
+      <c r="D100" t="s">
+        <v>613</v>
+      </c>
+      <c r="E100" t="s">
+        <v>884</v>
+      </c>
+      <c r="F100" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>91</v>
+      </c>
+      <c r="B101" t="s">
+        <v>955</v>
+      </c>
+      <c r="C101" t="s">
+        <v>956</v>
+      </c>
+      <c r="D101" t="s">
+        <v>957</v>
+      </c>
+      <c r="E101" t="s">
+        <v>958</v>
+      </c>
+      <c r="F101" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" t="s">
+        <v>522</v>
+      </c>
+      <c r="C102" t="s">
+        <v>109</v>
+      </c>
+      <c r="D102" t="s">
+        <v>109</v>
+      </c>
+      <c r="E102" t="s">
+        <v>774</v>
+      </c>
+      <c r="F102" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>127</v>
+      </c>
+      <c r="B103" t="s">
+        <v>790</v>
+      </c>
+      <c r="C103" t="s">
+        <v>540</v>
+      </c>
+      <c r="D103" t="s">
+        <v>541</v>
+      </c>
+      <c r="E103" t="s">
+        <v>542</v>
+      </c>
+      <c r="F103" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>115</v>
+      </c>
+      <c r="B104" t="s">
+        <v>115</v>
+      </c>
+      <c r="C104" t="s">
+        <v>780</v>
+      </c>
+      <c r="D104" t="s">
+        <v>115</v>
+      </c>
+      <c r="E104" t="s">
+        <v>781</v>
+      </c>
+      <c r="F104" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>621</v>
+      </c>
+      <c r="B105" t="s">
+        <v>621</v>
+      </c>
+      <c r="C105" t="s">
+        <v>621</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F105" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>656</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F106" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>275</v>
+      </c>
+      <c r="B107" t="s">
+        <v>275</v>
+      </c>
+      <c r="C107" t="s">
+        <v>935</v>
+      </c>
+      <c r="D107" t="s">
+        <v>936</v>
+      </c>
+      <c r="E107" t="s">
+        <v>937</v>
+      </c>
+      <c r="F107" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>175</v>
+      </c>
+      <c r="B108" t="s">
+        <v>574</v>
+      </c>
+      <c r="C108" t="s">
+        <v>575</v>
+      </c>
+      <c r="D108" t="s">
+        <v>576</v>
+      </c>
+      <c r="E108" t="s">
+        <v>817</v>
+      </c>
+      <c r="F108" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>165</v>
+      </c>
+      <c r="B109" t="s">
+        <v>544</v>
+      </c>
+      <c r="C109" t="s">
+        <v>545</v>
+      </c>
+      <c r="D109" t="s">
+        <v>792</v>
+      </c>
+      <c r="E109" t="s">
+        <v>793</v>
+      </c>
+      <c r="F109" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>274</v>
+      </c>
+      <c r="B110" t="s">
+        <v>931</v>
+      </c>
+      <c r="C110" t="s">
+        <v>932</v>
+      </c>
+      <c r="D110" t="s">
+        <v>274</v>
+      </c>
+      <c r="E110" t="s">
+        <v>933</v>
+      </c>
+      <c r="F110" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>280</v>
+      </c>
+      <c r="B111" t="s">
+        <v>970</v>
+      </c>
+      <c r="C111" t="s">
+        <v>971</v>
+      </c>
+      <c r="D111" t="s">
+        <v>972</v>
+      </c>
+      <c r="E111" t="s">
+        <v>973</v>
+      </c>
+      <c r="F111" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>103</v>
+      </c>
+      <c r="B112" t="s">
+        <v>768</v>
+      </c>
+      <c r="C112" t="s">
+        <v>769</v>
+      </c>
+      <c r="D112" t="s">
+        <v>513</v>
+      </c>
+      <c r="E112" t="s">
+        <v>770</v>
+      </c>
+      <c r="F112" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>194</v>
+      </c>
+      <c r="B113" t="s">
+        <v>838</v>
+      </c>
+      <c r="C113" t="s">
+        <v>839</v>
+      </c>
+      <c r="D113" t="s">
+        <v>840</v>
+      </c>
+      <c r="E113" t="s">
+        <v>841</v>
+      </c>
+      <c r="F113" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>178</v>
+      </c>
+      <c r="B114" t="s">
+        <v>583</v>
+      </c>
+      <c r="C114" t="s">
+        <v>584</v>
+      </c>
+      <c r="D114" t="s">
+        <v>585</v>
+      </c>
+      <c r="E114" t="s">
+        <v>586</v>
+      </c>
+      <c r="F114" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>696</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F115" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>113</v>
+      </c>
+      <c r="B116" t="s">
+        <v>113</v>
+      </c>
+      <c r="C116" t="s">
+        <v>113</v>
+      </c>
+      <c r="D116" t="s">
+        <v>523</v>
+      </c>
+      <c r="E116" t="s">
+        <v>524</v>
+      </c>
+      <c r="F116" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>285</v>
+      </c>
+      <c r="B117" t="s">
+        <v>285</v>
+      </c>
+      <c r="C117" t="s">
+        <v>285</v>
+      </c>
+      <c r="D117" t="s">
+        <v>992</v>
+      </c>
+      <c r="E117" t="s">
+        <v>993</v>
+      </c>
+      <c r="F117" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>281</v>
+      </c>
+      <c r="B118" t="s">
+        <v>281</v>
+      </c>
+      <c r="C118" t="s">
+        <v>975</v>
+      </c>
+      <c r="D118" t="s">
+        <v>281</v>
+      </c>
+      <c r="E118" t="s">
+        <v>976</v>
+      </c>
+      <c r="F118" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>179</v>
+      </c>
+      <c r="B119" t="s">
+        <v>812</v>
+      </c>
+      <c r="C119" t="s">
+        <v>813</v>
+      </c>
+      <c r="D119" t="s">
+        <v>814</v>
+      </c>
+      <c r="E119" t="s">
+        <v>815</v>
+      </c>
+      <c r="F119" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>100</v>
+      </c>
+      <c r="B120" t="s">
+        <v>509</v>
+      </c>
+      <c r="C120" t="s">
+        <v>510</v>
+      </c>
+      <c r="D120" t="s">
+        <v>511</v>
+      </c>
+      <c r="E120" t="s">
+        <v>763</v>
+      </c>
+      <c r="F120" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>910</v>
+      </c>
+      <c r="B121" t="s">
+        <v>911</v>
+      </c>
+      <c r="C121" t="s">
+        <v>912</v>
+      </c>
+      <c r="D121" t="s">
+        <v>913</v>
+      </c>
+      <c r="E121" t="s">
+        <v>914</v>
+      </c>
+      <c r="F121" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>743</v>
+      </c>
+      <c r="B122" t="s">
+        <v>743</v>
+      </c>
+      <c r="C122" t="s">
+        <v>743</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F122" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>648</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F123" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>756</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F124" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>119</v>
+      </c>
+      <c r="B125" t="s">
+        <v>783</v>
+      </c>
+      <c r="C125" t="s">
+        <v>784</v>
+      </c>
+      <c r="D125" t="s">
+        <v>529</v>
+      </c>
+      <c r="E125" t="s">
+        <v>785</v>
+      </c>
+      <c r="F125" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>638</v>
+      </c>
+      <c r="B126" t="s">
+        <v>638</v>
+      </c>
+      <c r="C126" t="s">
+        <v>638</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F126" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>210</v>
+      </c>
+      <c r="B127" t="s">
+        <v>602</v>
+      </c>
+      <c r="C127" t="s">
+        <v>603</v>
+      </c>
+      <c r="D127" t="s">
+        <v>210</v>
+      </c>
+      <c r="E127" t="s">
+        <v>870</v>
+      </c>
+      <c r="F127" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>214</v>
+      </c>
+      <c r="B128" t="s">
+        <v>877</v>
+      </c>
+      <c r="C128" t="s">
+        <v>878</v>
+      </c>
+      <c r="D128" t="s">
+        <v>879</v>
+      </c>
+      <c r="E128" t="s">
+        <v>880</v>
+      </c>
+      <c r="F128" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>646</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F129" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>221</v>
+      </c>
+      <c r="B130" t="s">
+        <v>886</v>
+      </c>
+      <c r="C130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D130" t="s">
+        <v>887</v>
+      </c>
+      <c r="E130" t="s">
+        <v>888</v>
+      </c>
+      <c r="F130" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>173</v>
+      </c>
+      <c r="B131" t="s">
+        <v>564</v>
+      </c>
+      <c r="C131" t="s">
+        <v>565</v>
+      </c>
+      <c r="D131" t="s">
+        <v>566</v>
+      </c>
+      <c r="E131" t="s">
+        <v>567</v>
+      </c>
+      <c r="F131" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>192</v>
+      </c>
+      <c r="B132" t="s">
+        <v>833</v>
+      </c>
+      <c r="C132" t="s">
+        <v>834</v>
+      </c>
+      <c r="D132" t="s">
+        <v>835</v>
+      </c>
+      <c r="E132" t="s">
+        <v>836</v>
+      </c>
+      <c r="F132" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>125</v>
+      </c>
+      <c r="B133" t="s">
+        <v>535</v>
+      </c>
+      <c r="C133" t="s">
+        <v>536</v>
+      </c>
+      <c r="D133" t="s">
+        <v>537</v>
+      </c>
+      <c r="E133" t="s">
+        <v>538</v>
+      </c>
+      <c r="F133" t="s">
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -9437,14 +10736,14 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
@@ -9455,7 +10754,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17.25" thickBot="1">
+    <row r="2" spans="1:13" ht="18" thickBot="1">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -9472,9 +10771,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" thickTop="1" thickBot="1">
+    <row r="3" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -9498,7 +10797,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
@@ -9511,7 +10810,7 @@
         <v>3.1709791983764584</v>
       </c>
       <c r="K4" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="L4">
         <v>36.779029999999999</v>
@@ -9522,10 +10821,10 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B5" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -9535,7 +10834,7 @@
         <v>3.6</v>
       </c>
       <c r="K5" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="L5">
         <v>-8.8383000000000003</v>
@@ -9546,7 +10845,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
@@ -9558,7 +10857,7 @@
         <v>100</v>
       </c>
       <c r="K6" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="L6">
         <v>41.327500000000001</v>
@@ -9569,10 +10868,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
@@ -9581,7 +10880,7 @@
         <v>-1</v>
       </c>
       <c r="K7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="L7">
         <v>25.23</v>
@@ -9592,7 +10891,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="K8" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="L8">
         <v>-34.602499999999999</v>
@@ -9603,7 +10902,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="K9" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="L9">
         <v>40.181199999999997</v>
@@ -9691,7 +10990,7 @@
     </row>
     <row r="17" spans="11:13">
       <c r="K17" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="L17">
         <v>48.2</v>
@@ -9702,7 +11001,7 @@
     </row>
     <row r="18" spans="11:13">
       <c r="K18" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="L18">
         <v>40.395299999999999</v>
@@ -9713,7 +11012,7 @@
     </row>
     <row r="19" spans="11:13">
       <c r="K19" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="L19">
         <v>-3.3761000000000001</v>
@@ -9724,7 +11023,7 @@
     </row>
     <row r="20" spans="11:13">
       <c r="K20" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="L20">
         <v>50.833300000000001</v>
@@ -9735,7 +11034,7 @@
     </row>
     <row r="21" spans="11:13">
       <c r="K21" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L21">
         <v>7.1904000000000003</v>
@@ -9746,7 +11045,7 @@
     </row>
     <row r="22" spans="11:13">
       <c r="K22" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="L22">
         <v>12.3703</v>
@@ -9757,7 +11056,7 @@
     </row>
     <row r="23" spans="11:13">
       <c r="K23" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="L23">
         <v>23.723099999999999</v>
@@ -9768,7 +11067,7 @@
     </row>
     <row r="24" spans="11:13">
       <c r="K24" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L24">
         <v>42.683300000000003</v>
@@ -9779,7 +11078,7 @@
     </row>
     <row r="25" spans="11:13">
       <c r="K25" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="L25">
         <v>26.2361</v>
@@ -9790,7 +11089,7 @@
     </row>
     <row r="26" spans="11:13">
       <c r="K26" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="L26">
         <v>43.85</v>
@@ -9801,7 +11100,7 @@
     </row>
     <row r="27" spans="11:13">
       <c r="K27" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L27">
         <v>53.9</v>
@@ -9812,7 +11111,7 @@
     </row>
     <row r="28" spans="11:13">
       <c r="K28" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="L28">
         <v>17.498699999999999</v>
@@ -9823,7 +11122,7 @@
     </row>
     <row r="29" spans="11:13">
       <c r="K29" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L29">
         <v>-17.753900000000002</v>
@@ -9834,7 +11133,7 @@
     </row>
     <row r="30" spans="11:13">
       <c r="K30" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="L30">
         <v>-1.45</v>
@@ -9845,7 +11144,7 @@
     </row>
     <row r="31" spans="11:13">
       <c r="K31" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L31">
         <v>4.8833000000000002</v>
@@ -9856,7 +11155,7 @@
     </row>
     <row r="32" spans="11:13">
       <c r="K32" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="L32">
         <v>27.472999999999999</v>
@@ -9867,7 +11166,7 @@
     </row>
     <row r="33" spans="11:13">
       <c r="K33" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="L33">
         <v>-24.6463</v>
@@ -9878,7 +11177,7 @@
     </row>
     <row r="34" spans="11:13">
       <c r="K34" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="L34">
         <v>4.3666</v>
@@ -9889,7 +11188,7 @@
     </row>
     <row r="35" spans="11:13">
       <c r="K35" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="L35">
         <v>43.7</v>
@@ -9900,7 +11199,7 @@
     </row>
     <row r="36" spans="11:13">
       <c r="K36" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="L36">
         <v>47.38</v>
@@ -9911,7 +11210,7 @@
     </row>
     <row r="37" spans="11:13">
       <c r="K37" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="L37">
         <v>-33.450000000000003</v>
@@ -9922,7 +11221,7 @@
     </row>
     <row r="38" spans="11:13">
       <c r="K38" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="L38">
         <v>39.928899999999999</v>
@@ -9933,7 +11232,7 @@
     </row>
     <row r="39" spans="11:13">
       <c r="K39" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="L39">
         <v>5.32</v>
@@ -9944,7 +11243,7 @@
     </row>
     <row r="40" spans="11:13">
       <c r="K40" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="L40">
         <v>3.8666999999999998</v>
@@ -9955,7 +11254,7 @@
     </row>
     <row r="41" spans="11:13">
       <c r="K41" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="L41">
         <v>-4.3296999999999999</v>
@@ -9966,7 +11265,7 @@
     </row>
     <row r="42" spans="11:13">
       <c r="K42" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="L42">
         <v>-4.2591999999999999</v>
@@ -9977,7 +11276,7 @@
     </row>
     <row r="43" spans="11:13">
       <c r="K43" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="L43">
         <v>4.5964</v>
@@ -9988,7 +11287,7 @@
     </row>
     <row r="44" spans="11:13">
       <c r="K44" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="L44">
         <v>9.9347390000000004</v>
@@ -9999,7 +11298,7 @@
     </row>
     <row r="45" spans="11:13">
       <c r="K45" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="L45">
         <v>23.132000000000001</v>
@@ -10010,7 +11309,7 @@
     </row>
     <row r="46" spans="11:13">
       <c r="K46" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L46">
         <v>35.166699999999999</v>
@@ -10021,7 +11320,7 @@
     </row>
     <row r="47" spans="11:13">
       <c r="K47" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="L47">
         <v>50.083300000000001</v>
@@ -10032,7 +11331,7 @@
     </row>
     <row r="48" spans="11:13">
       <c r="K48" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="L48">
         <v>52.521799999999999</v>
@@ -10043,7 +11342,7 @@
     </row>
     <row r="49" spans="11:13">
       <c r="K49" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="L49">
         <v>11.595000000000001</v>
@@ -10054,7 +11353,7 @@
     </row>
     <row r="50" spans="11:13">
       <c r="K50" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="L50">
         <v>55.678600000000003</v>
@@ -10065,7 +11364,7 @@
     </row>
     <row r="51" spans="11:13">
       <c r="K51" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="L51">
         <v>18.470099999999999</v>
@@ -10076,7 +11375,7 @@
     </row>
     <row r="52" spans="11:13">
       <c r="K52" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="L52">
         <v>36.763100000000001</v>
@@ -10087,7 +11386,7 @@
     </row>
     <row r="53" spans="11:13">
       <c r="K53" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L53">
         <v>-2.2200000000000002</v>
@@ -10098,7 +11397,7 @@
     </row>
     <row r="54" spans="11:13">
       <c r="K54" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="L54">
         <v>30.05</v>
@@ -10109,7 +11408,7 @@
     </row>
     <row r="55" spans="11:13">
       <c r="K55" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="L55">
         <v>15.333299999999999</v>
@@ -10120,7 +11419,7 @@
     </row>
     <row r="56" spans="11:13">
       <c r="K56" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="L56">
         <v>27.15</v>
@@ -10131,7 +11430,7 @@
     </row>
     <row r="57" spans="11:13">
       <c r="K57" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="L57">
         <v>40.4</v>
@@ -10142,7 +11441,7 @@
     </row>
     <row r="58" spans="11:13">
       <c r="K58" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="L58">
         <v>59.436962000000001</v>
@@ -10153,7 +11452,7 @@
     </row>
     <row r="59" spans="11:13">
       <c r="K59" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="L59">
         <v>13.5</v>
@@ -10164,7 +11463,7 @@
     </row>
     <row r="60" spans="11:13">
       <c r="K60" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L60">
         <v>60.175600000000003</v>
@@ -10175,7 +11474,7 @@
     </row>
     <row r="61" spans="11:13">
       <c r="K61" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="L61">
         <v>48.866700000000002</v>
@@ -10186,7 +11485,7 @@
     </row>
     <row r="62" spans="11:13">
       <c r="K62" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="L62">
         <v>0.38540000000000002</v>
@@ -10197,7 +11496,7 @@
     </row>
     <row r="63" spans="11:13">
       <c r="K63" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="L63">
         <v>51.5</v>
@@ -10208,7 +11507,7 @@
     </row>
     <row r="64" spans="11:13">
       <c r="K64" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L64">
         <v>41.725000000000001</v>
@@ -10219,7 +11518,7 @@
     </row>
     <row r="65" spans="11:13">
       <c r="K65" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="L65">
         <v>6.69</v>
@@ -10230,7 +11529,7 @@
     </row>
     <row r="66" spans="11:13">
       <c r="K66" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="L66">
         <v>9.5314999999999994</v>
@@ -10241,7 +11540,7 @@
     </row>
     <row r="67" spans="11:13">
       <c r="K67" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="L67">
         <v>13.448395</v>
@@ -10252,7 +11551,7 @@
     </row>
     <row r="68" spans="11:13">
       <c r="K68" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="L68">
         <v>11.865</v>
@@ -10263,7 +11562,7 @@
     </row>
     <row r="69" spans="11:13">
       <c r="K69" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="L69">
         <v>1.87</v>
@@ -10274,7 +11573,7 @@
     </row>
     <row r="70" spans="11:13">
       <c r="K70" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="L70">
         <v>37.9833</v>
@@ -10285,7 +11584,7 @@
     </row>
     <row r="71" spans="11:13">
       <c r="K71" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="L71">
         <v>60.270832249999998</v>
@@ -10296,7 +11595,7 @@
     </row>
     <row r="72" spans="11:13">
       <c r="K72" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="L72">
         <v>14.6211</v>
@@ -10307,7 +11606,7 @@
     </row>
     <row r="73" spans="11:13">
       <c r="K73" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="L73">
         <v>4.9223999999999997</v>
@@ -10318,7 +11617,7 @@
     </row>
     <row r="74" spans="11:13">
       <c r="K74" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L74">
         <v>6.8019999999999996</v>
@@ -10329,7 +11628,7 @@
     </row>
     <row r="75" spans="11:13">
       <c r="K75" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="L75">
         <v>14.102</v>
@@ -10340,7 +11639,7 @@
     </row>
     <row r="76" spans="11:13">
       <c r="K76" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="L76">
         <v>45.8</v>
@@ -10351,7 +11650,7 @@
     </row>
     <row r="77" spans="11:13">
       <c r="K77" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="L77">
         <v>18.533332999999999</v>
@@ -10362,7 +11661,7 @@
     </row>
     <row r="78" spans="11:13">
       <c r="K78" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="L78">
         <v>47.5</v>
@@ -10373,7 +11672,7 @@
     </row>
     <row r="79" spans="11:13">
       <c r="K79" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="L79">
         <v>-6.1744000000000003</v>
@@ -10384,7 +11683,7 @@
     </row>
     <row r="80" spans="11:13">
       <c r="K80" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="L80">
         <v>28.67</v>
@@ -10395,7 +11694,7 @@
     </row>
     <row r="81" spans="11:13">
       <c r="K81" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="L81">
         <v>53.333100000000002</v>
@@ -10406,7 +11705,7 @@
     </row>
     <row r="82" spans="11:13">
       <c r="K82" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="L82">
         <v>35.671900000000001</v>
@@ -10417,7 +11716,7 @@
     </row>
     <row r="83" spans="11:13">
       <c r="K83" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="L83">
         <v>33.3386</v>
@@ -10428,7 +11727,7 @@
     </row>
     <row r="84" spans="11:13">
       <c r="K84" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="L84">
         <v>64.150000000000006</v>
@@ -10439,7 +11738,7 @@
     </row>
     <row r="85" spans="11:13">
       <c r="K85" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="L85">
         <v>32.08</v>
@@ -10450,7 +11749,7 @@
     </row>
     <row r="86" spans="11:13">
       <c r="K86" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="L86">
         <v>41.896000000000001</v>
@@ -10461,7 +11760,7 @@
     </row>
     <row r="87" spans="11:13">
       <c r="K87" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="L87">
         <v>17.9771</v>
@@ -10472,7 +11771,7 @@
     </row>
     <row r="88" spans="11:13">
       <c r="K88" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L88">
         <v>31.95</v>
@@ -10483,7 +11782,7 @@
     </row>
     <row r="89" spans="11:13">
       <c r="K89" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="L89">
         <v>35.685000000000002</v>
@@ -10494,7 +11793,7 @@
     </row>
     <row r="90" spans="11:13">
       <c r="K90" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L90">
         <v>43.325000000000003</v>
@@ -10505,7 +11804,7 @@
     </row>
     <row r="91" spans="11:13">
       <c r="K91" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="L91">
         <v>-1.2833000000000001</v>
@@ -10516,7 +11815,7 @@
     </row>
     <row r="92" spans="11:13">
       <c r="K92" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="L92">
         <v>42.873100000000001</v>
@@ -10527,7 +11826,7 @@
     </row>
     <row r="93" spans="11:13">
       <c r="K93" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L93">
         <v>11.55</v>
@@ -10538,7 +11837,7 @@
     </row>
     <row r="94" spans="11:13">
       <c r="K94" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="L94">
         <v>37.566299999999998</v>
@@ -10549,7 +11848,7 @@
     </row>
     <row r="95" spans="11:13">
       <c r="K95" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="L95">
         <v>42.6629</v>
@@ -10560,7 +11859,7 @@
     </row>
     <row r="96" spans="11:13">
       <c r="K96" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="L96">
         <v>29.369700000000002</v>
@@ -10571,7 +11870,7 @@
     </row>
     <row r="97" spans="11:13">
       <c r="K97" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="L97">
         <v>17.966699999999999</v>
@@ -10582,7 +11881,7 @@
     </row>
     <row r="98" spans="11:13">
       <c r="K98" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="L98">
         <v>33.872</v>
@@ -10593,7 +11892,7 @@
     </row>
     <row r="99" spans="11:13">
       <c r="K99" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="L99">
         <v>6.3106</v>
@@ -10604,7 +11903,7 @@
     </row>
     <row r="100" spans="11:13">
       <c r="K100" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="L100">
         <v>32.892499999999998</v>
@@ -10615,7 +11914,7 @@
     </row>
     <row r="101" spans="11:13">
       <c r="K101" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="L101">
         <v>6.9320000000000004</v>
@@ -10626,7 +11925,7 @@
     </row>
     <row r="102" spans="11:13">
       <c r="K102" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="L102">
         <v>-29.316700000000001</v>
@@ -10637,7 +11936,7 @@
     </row>
     <row r="103" spans="11:13">
       <c r="K103" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="L103">
         <v>54.683399999999999</v>
@@ -10648,7 +11947,7 @@
     </row>
     <row r="104" spans="11:13">
       <c r="K104" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="L104">
         <v>49.611621999999997</v>
@@ -10659,7 +11958,7 @@
     </row>
     <row r="105" spans="11:13">
       <c r="K105" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="L105">
         <v>56.95</v>
@@ -10670,7 +11969,7 @@
     </row>
     <row r="106" spans="11:13">
       <c r="K106" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="L106">
         <v>33.6</v>
@@ -10681,7 +11980,7 @@
     </row>
     <row r="107" spans="11:13">
       <c r="K107" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L107">
         <v>47.005000000000003</v>
@@ -10692,7 +11991,7 @@
     </row>
     <row r="108" spans="11:13">
       <c r="K108" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="L108">
         <v>-18.916599999999999</v>
@@ -10703,7 +12002,7 @@
     </row>
     <row r="109" spans="11:13">
       <c r="K109" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="L109">
         <v>19.442399999999999</v>
@@ -10714,7 +12013,7 @@
     </row>
     <row r="110" spans="11:13">
       <c r="K110" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="L110">
         <v>42</v>
@@ -10725,7 +12024,7 @@
     </row>
     <row r="111" spans="11:13">
       <c r="K111" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="L111">
         <v>12.65</v>
@@ -10736,7 +12035,7 @@
     </row>
     <row r="112" spans="11:13">
       <c r="K112" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="L112">
         <v>35.899700000000003</v>
@@ -10747,7 +12046,7 @@
     </row>
     <row r="113" spans="11:13">
       <c r="K113" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="L113">
         <v>16.871310999999999</v>
@@ -10758,7 +12057,7 @@
     </row>
     <row r="114" spans="11:13">
       <c r="K114" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="L114">
         <v>42.442574</v>
@@ -10769,7 +12068,7 @@
     </row>
     <row r="115" spans="11:13">
       <c r="K115" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="L115">
         <v>47.916699999999999</v>
@@ -10780,7 +12079,7 @@
     </row>
     <row r="116" spans="11:13">
       <c r="K116" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="L116">
         <v>-25.9696</v>
@@ -10791,7 +12090,7 @@
     </row>
     <row r="117" spans="11:13">
       <c r="K117" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="L117">
         <v>18.086400000000001</v>
@@ -10802,7 +12101,7 @@
     </row>
     <row r="118" spans="11:13">
       <c r="K118" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="L118">
         <v>-13.9833</v>
@@ -10813,7 +12112,7 @@
     </row>
     <row r="119" spans="11:13">
       <c r="K119" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="L119">
         <v>3.1667000000000001</v>
@@ -10824,7 +12123,7 @@
     </row>
     <row r="120" spans="11:13">
       <c r="K120" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="L120">
         <v>-22.57</v>
@@ -10835,7 +12134,7 @@
     </row>
     <row r="121" spans="11:13">
       <c r="K121" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="L121">
         <v>13.5167</v>
@@ -10846,7 +12145,7 @@
     </row>
     <row r="122" spans="11:13">
       <c r="K122" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="L122">
         <v>6.4432999999999998</v>
@@ -10857,7 +12156,7 @@
     </row>
     <row r="123" spans="11:13">
       <c r="K123" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="L123">
         <v>12.153</v>
@@ -10868,7 +12167,7 @@
     </row>
     <row r="124" spans="11:13">
       <c r="K124" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="L124">
         <v>52.35</v>
@@ -10879,7 +12178,7 @@
     </row>
     <row r="125" spans="11:13">
       <c r="K125" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="L125">
         <v>59.916699999999999</v>
@@ -10890,7 +12189,7 @@
     </row>
     <row r="126" spans="11:13">
       <c r="K126" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="L126">
         <v>27.716699999999999</v>
@@ -10901,7 +12200,7 @@
     </row>
     <row r="127" spans="11:13">
       <c r="K127" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="L127">
         <v>-36.848100000000002</v>
@@ -10912,7 +12211,7 @@
     </row>
     <row r="128" spans="11:13">
       <c r="K128" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="L128">
         <v>23.613299999999999</v>
@@ -10923,7 +12222,7 @@
     </row>
     <row r="129" spans="11:13">
       <c r="K129" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="L129">
         <v>24.87</v>
@@ -10934,7 +12233,7 @@
     </row>
     <row r="130" spans="11:13">
       <c r="K130" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="L130">
         <v>8.968</v>
@@ -10945,7 +12244,7 @@
     </row>
     <row r="131" spans="11:13">
       <c r="K131" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="L131">
         <v>-12.048</v>
@@ -10956,7 +12255,7 @@
     </row>
     <row r="132" spans="11:13">
       <c r="K132" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="L132">
         <v>14.604200000000001</v>
@@ -10967,7 +12266,7 @@
     </row>
     <row r="133" spans="11:13">
       <c r="K133" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="L133">
         <v>-9.4647000000000006</v>
@@ -10978,7 +12277,7 @@
     </row>
     <row r="134" spans="11:13">
       <c r="K134" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="L134">
         <v>52.25</v>
@@ -10989,7 +12288,7 @@
     </row>
     <row r="135" spans="11:13">
       <c r="K135" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="L135">
         <v>39.019399999999997</v>
@@ -11000,7 +12299,7 @@
     </row>
     <row r="136" spans="11:13">
       <c r="K136" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="L136">
         <v>38.722700000000003</v>
@@ -11011,7 +12310,7 @@
     </row>
     <row r="137" spans="11:13">
       <c r="K137" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="L137">
         <v>-25.296399999999998</v>
@@ -11022,7 +12321,7 @@
     </row>
     <row r="138" spans="11:13">
       <c r="K138" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="L138">
         <v>25.291899999999998</v>
@@ -11033,7 +12332,7 @@
     </row>
     <row r="139" spans="11:13">
       <c r="K139" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="L139">
         <v>44.433399999999999</v>
@@ -11044,7 +12343,7 @@
     </row>
     <row r="140" spans="11:13">
       <c r="K140" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="L140">
         <v>55.749899999999997</v>
@@ -11055,7 +12354,7 @@
     </row>
     <row r="141" spans="11:13">
       <c r="K141" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="L141">
         <v>-1.9536</v>
@@ -11066,7 +12365,7 @@
     </row>
     <row r="142" spans="11:13">
       <c r="K142" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="L142">
         <v>24.640799999999999</v>
@@ -11077,7 +12376,7 @@
     </row>
     <row r="143" spans="11:13">
       <c r="K143" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="L143">
         <v>15.588100000000001</v>
@@ -11088,7 +12387,7 @@
     </row>
     <row r="144" spans="11:13">
       <c r="K144" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="L144">
         <v>14.7158</v>
@@ -11099,7 +12398,7 @@
     </row>
     <row r="145" spans="11:13">
       <c r="K145" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="L145">
         <v>1.2929999999999999</v>
@@ -11110,7 +12409,7 @@
     </row>
     <row r="146" spans="11:13">
       <c r="K146" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="L146">
         <v>8.4700000000000006</v>
@@ -11121,7 +12420,7 @@
     </row>
     <row r="147" spans="11:13">
       <c r="K147" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="L147">
         <v>13.71</v>
@@ -11132,7 +12431,7 @@
     </row>
     <row r="148" spans="11:13">
       <c r="K148" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="L148">
         <v>2.0667</v>
@@ -11143,7 +12442,7 @@
     </row>
     <row r="149" spans="11:13">
       <c r="K149" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="L149">
         <v>44.818600000000004</v>
@@ -11154,7 +12453,7 @@
     </row>
     <row r="150" spans="11:13">
       <c r="K150" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="L150">
         <v>5.835</v>
@@ -11165,7 +12464,7 @@
     </row>
     <row r="151" spans="11:13">
       <c r="K151" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="L151">
         <v>48.15</v>
@@ -11176,7 +12475,7 @@
     </row>
     <row r="152" spans="11:13">
       <c r="K152" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L152">
         <v>46.055300000000003</v>
@@ -11187,7 +12486,7 @@
     </row>
     <row r="153" spans="11:13">
       <c r="K153" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="L153">
         <v>59.3508</v>
@@ -11198,7 +12497,7 @@
     </row>
     <row r="154" spans="11:13">
       <c r="K154" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="L154">
         <v>-26.495000000000001</v>
@@ -11209,7 +12508,7 @@
     </row>
     <row r="155" spans="11:13">
       <c r="K155" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="L155">
         <v>33.5</v>
@@ -11220,7 +12519,7 @@
     </row>
     <row r="156" spans="11:13">
       <c r="K156" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="L156">
         <v>12.113099999999999</v>
@@ -11231,7 +12530,7 @@
     </row>
     <row r="157" spans="11:13">
       <c r="K157" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="L157">
         <v>6.1318999999999999</v>
@@ -11242,7 +12541,7 @@
     </row>
     <row r="158" spans="11:13">
       <c r="K158" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="L158">
         <v>13.75</v>
@@ -11253,7 +12552,7 @@
     </row>
     <row r="159" spans="11:13">
       <c r="K159" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="L159">
         <v>38.56</v>
@@ -11264,7 +12563,7 @@
     </row>
     <row r="160" spans="11:13">
       <c r="K160" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="L160">
         <v>37.950000000000003</v>
@@ -11275,7 +12574,7 @@
     </row>
     <row r="161" spans="11:13">
       <c r="K161" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="L161">
         <v>-8.5594000000000001</v>
@@ -11286,7 +12585,7 @@
     </row>
     <row r="162" spans="11:13">
       <c r="K162" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="L162">
         <v>10.651999999999999</v>
@@ -11297,7 +12596,7 @@
     </row>
     <row r="163" spans="11:13">
       <c r="K163" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="L163">
         <v>36.802799999999998</v>
@@ -11308,7 +12607,7 @@
     </row>
     <row r="164" spans="11:13">
       <c r="K164" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="L164">
         <v>41.104999999999997</v>
@@ -11319,7 +12618,7 @@
     </row>
     <row r="165" spans="11:13">
       <c r="K165" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="L165">
         <v>25.035799999999998</v>
@@ -11330,7 +12629,7 @@
     </row>
     <row r="166" spans="11:13">
       <c r="K166" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="L166">
         <v>-6.8</v>
@@ -11341,7 +12640,7 @@
     </row>
     <row r="167" spans="11:13">
       <c r="K167" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="L167">
         <v>0.31669999999999998</v>
@@ -11352,7 +12651,7 @@
     </row>
     <row r="168" spans="11:13">
       <c r="K168" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="L168">
         <v>50.434341000000003</v>
@@ -11363,7 +12662,7 @@
     </row>
     <row r="169" spans="11:13">
       <c r="K169" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="L169">
         <v>-34.857999999999997</v>
@@ -11374,7 +12673,7 @@
     </row>
     <row r="170" spans="11:13">
       <c r="K170" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="L170">
         <v>44.963500000000003</v>
@@ -11385,7 +12684,7 @@
     </row>
     <row r="171" spans="11:13">
       <c r="K171" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="L171">
         <v>41.311700000000002</v>
@@ -11396,7 +12695,7 @@
     </row>
     <row r="172" spans="11:13">
       <c r="K172" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="L172">
         <v>10.5</v>
@@ -11407,7 +12706,7 @@
     </row>
     <row r="173" spans="11:13">
       <c r="K173" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="L173">
         <v>10.810582999999999</v>
@@ -11418,7 +12717,7 @@
     </row>
     <row r="174" spans="11:13">
       <c r="K174" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="L174">
         <v>15.354699999999999</v>
@@ -11429,7 +12728,7 @@
     </row>
     <row r="175" spans="11:13">
       <c r="K175" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="L175">
         <v>-26.17</v>
@@ -11440,7 +12739,7 @@
     </row>
     <row r="176" spans="11:13">
       <c r="K176" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="L176">
         <v>-15.416600000000001</v>
@@ -11451,7 +12750,7 @@
     </row>
     <row r="177" spans="11:13">
       <c r="K177" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="L177">
         <v>-17.817799999999998</v>
@@ -11462,7 +12761,7 @@
     </row>
     <row r="178" spans="11:13">
       <c r="K178" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="L178">
         <v>4.8539000000000003</v>
@@ -11486,30 +12785,30 @@
       <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.1328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="47.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2.1328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="107.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="107.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -11578,19 +12877,19 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="K3" t="s">
         <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="P3" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -11598,16 +12897,16 @@
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="K4" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="N4" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="P4" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -11615,16 +12914,16 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="K5" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="N5" t="s">
         <v>60</v>
       </c>
       <c r="P5" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -11632,16 +12931,16 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="K6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="N6" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="P6" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -11649,20 +12948,20 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="H7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="I7" s="2"/>
       <c r="K7" t="s">
         <v>37</v>
       </c>
       <c r="N7" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="P7" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -11670,19 +12969,19 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H8" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="K8" t="s">
         <v>37</v>
       </c>
       <c r="N8" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="P8" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -11690,19 +12989,19 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H9" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="K9" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N9" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="P9" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -11710,7 +13009,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="H10" t="s">
         <v>104</v>
@@ -11719,10 +13018,10 @@
         <v>37</v>
       </c>
       <c r="N10" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="P10" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -11730,7 +13029,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H11" t="s">
         <v>94</v>
@@ -11739,10 +13038,10 @@
         <v>37</v>
       </c>
       <c r="N11" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="P11" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -11750,16 +13049,16 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="K12" t="s">
         <v>9</v>
       </c>
       <c r="N12" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="P12" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -11767,62 +13066,62 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H13" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="K13" t="s">
         <v>37</v>
       </c>
       <c r="N13" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="P13" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="B14" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="I14" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="K14" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="N14" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="P14" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="Q14" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="B15" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="C15" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="K15" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="N15" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="P15" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="Q15" t="s">
         <v>59</v>
@@ -11830,33 +13129,33 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="K16" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N16" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="P16" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="K17" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N17" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="P17" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="Q17" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -11874,14 +13173,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.73046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11924,10 +13223,10 @@
     </row>
     <row r="3" spans="3:13">
       <c r="C3" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E3" t="s">
         <v>68</v>
@@ -11947,13 +13246,13 @@
         <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E4" t="s">
         <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="I4" t="s">
         <v>70</v>
@@ -11964,10 +13263,10 @@
     </row>
     <row r="5" spans="3:13">
       <c r="C5" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D5" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="E5" t="s">
         <v>72</v>
@@ -11992,28 +13291,28 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.265625" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
     <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.1328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="17.25" thickBot="1">
+    <row r="3" spans="2:13" ht="18" thickBot="1">
       <c r="B3" s="3" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="15" thickTop="1" thickBot="1">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="16.5" thickTop="1" thickBot="1">
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -12021,13 +13320,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>0</v>
@@ -12048,7 +13347,7 @@
         <v>64</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="2:13">
@@ -12065,13 +13364,13 @@
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="G5" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="H5" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="L5" t="s">
         <v>38</v>
@@ -12082,7 +13381,7 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="str">
@@ -12091,10 +13390,10 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="H6" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="L6" t="s">
         <v>38</v>
@@ -12113,13 +13412,13 @@
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="G7" t="s">
         <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="L7" t="s">
         <v>38</v>
@@ -12138,13 +13437,13 @@
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="G8" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="H8" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="L8" t="s">
         <v>38</v>
@@ -12163,13 +13462,13 @@
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="G9" t="s">
         <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="L9" t="s">
         <v>38</v>
@@ -12180,17 +13479,17 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E10" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
         <v>ALLELC,ALLCOA,ALLGAS,ALLGAS-B,ALLOIL,ALLOIL-B,ALLHET,ALLBIO,ALLSOL,ALLWIN,ALLGEO,ALLHYD,ALLOTH,ALLWAS,ALLNUC,ALLH2,ALLAMM,ALLH2F</v>
       </c>
       <c r="G10" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="H10" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="L10" t="s">
         <v>38</v>
@@ -12201,7 +13500,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E11" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'cset map'!$A$3:$A$25)</f>
@@ -12211,7 +13510,7 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="L11" t="s">
         <v>38</v>
@@ -12229,11 +13528,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12265,16 +13564,16 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -12440,20 +13739,20 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -12464,52 +13763,52 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B3" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="G3" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="H3" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B4" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="G4" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="H4" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G5" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="H5" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -12520,10 +13819,10 @@
         <v>165</v>
       </c>
       <c r="G7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -12531,89 +13830,89 @@
         <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="G8" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="H8" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G9" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="H9" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="11" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B10" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G10" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="H10" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B12" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B13" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B14" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B15" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B16" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -12625,13 +13924,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C639ABCB-5F46-46FD-A29B-730BA5D084CB}">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -12647,684 +13948,684 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B3" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="C3" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B4" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="C4" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B5" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="C5" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B6" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="C6" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B7" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="C7" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B8" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C8" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B9" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="C9" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B10" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="C10" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B11" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="C11" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B12" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="C12" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B13" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C13" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B14" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C14" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C15" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B16" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="C16" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B17" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="C17" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B18" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="C18" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B19" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="C19" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B20" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C20" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B21" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C21" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B22" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C22" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B23" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C23" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B24" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C24" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B25" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C25" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B26" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="C26" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B27" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="C27" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B28" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C28" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B29" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C29" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B30" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C30" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B31" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C31" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B32" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C32" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B33" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C33" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B34" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="C34" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B35" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="C35" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B36" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="C36" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B37" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="C37" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B38" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="C38" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B39" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C39" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B40" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="C40" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B41" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="C41" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B42" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="C42" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B43" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="C43" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B44" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C44" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B45" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C45" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B46" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C46" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B47" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="C47" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B48" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="C48" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B49" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="C49" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B50" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="C50" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B51" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C51" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B52" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C52" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B53" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C53" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B54" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C54" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B55" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C55" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B56" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C56" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B57" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="C57" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B58" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="C58" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B59" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C59" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B60" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C60" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B61" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C61" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B62" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C62" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B63" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C63" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B64" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C64" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
     </row>
   </sheetData>
@@ -13340,20 +14641,20 @@
       <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" thickBot="1">
+    <row r="1" spans="1:5" ht="18" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickTop="1" thickBot="1">
+    <row r="2" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>40</v>
       </c>
@@ -13367,7 +14668,7 @@
         <v>50</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -13543,7 +14844,7 @@
         <v>123</v>
       </c>
       <c r="D18" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -13683,7 +14984,7 @@
         <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D31" t="s">
         <v>180</v>
@@ -13691,35 +14992,35 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C32" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D32" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C33" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="D33" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C34" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="D34" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -13727,10 +15028,10 @@
         <v>164</v>
       </c>
       <c r="C35" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D35" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -13738,10 +15039,10 @@
         <v>164</v>
       </c>
       <c r="C36" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D36" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -13749,10 +15050,10 @@
         <v>164</v>
       </c>
       <c r="C37" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D37" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -13760,10 +15061,10 @@
         <v>164</v>
       </c>
       <c r="C38" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D38" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -13771,10 +15072,10 @@
         <v>164</v>
       </c>
       <c r="C39" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D39" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -13782,21 +15083,21 @@
         <v>164</v>
       </c>
       <c r="C40" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D40" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C41" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D41" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -13804,10 +15105,10 @@
         <v>164</v>
       </c>
       <c r="C42" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D42" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -13815,21 +15116,21 @@
         <v>164</v>
       </c>
       <c r="C43" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D43" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C44" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D44" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -13837,10 +15138,10 @@
         <v>164</v>
       </c>
       <c r="C45" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D45" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -13848,21 +15149,21 @@
         <v>164</v>
       </c>
       <c r="C46" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D46" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C47" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D47" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -13870,10 +15171,10 @@
         <v>164</v>
       </c>
       <c r="C48" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D48" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -13881,10 +15182,10 @@
         <v>164</v>
       </c>
       <c r="C49" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D49" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -13892,10 +15193,10 @@
         <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D50" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -13903,10 +15204,10 @@
         <v>43</v>
       </c>
       <c r="C51" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D51" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -13914,167 +15215,167 @@
         <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="C52" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E52" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C53" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E53" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
+        <v>215</v>
+      </c>
+      <c r="C54" t="s">
         <v>221</v>
       </c>
-      <c r="C54" t="s">
-        <v>227</v>
-      </c>
       <c r="E54" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C55" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E55" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C56" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E56" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C57" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E57" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C58" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E58" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C59" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E59" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C60" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D60" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
+        <v>215</v>
+      </c>
+      <c r="C61" t="s">
         <v>221</v>
       </c>
-      <c r="C61" t="s">
-        <v>227</v>
-      </c>
       <c r="D61" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C62" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D62" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C63" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D63" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C64" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D64" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C65" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D65" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C66" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D66" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -14082,10 +15383,10 @@
         <v>164</v>
       </c>
       <c r="C67" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="E67" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -14093,10 +15394,10 @@
         <v>164</v>
       </c>
       <c r="C68" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="E68" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -14104,10 +15405,10 @@
         <v>164</v>
       </c>
       <c r="C69" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="E69" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -14115,10 +15416,10 @@
         <v>164</v>
       </c>
       <c r="C70" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="E70" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -14126,10 +15427,10 @@
         <v>51</v>
       </c>
       <c r="C71" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D71" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -14137,10 +15438,10 @@
         <v>51</v>
       </c>
       <c r="C72" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D72" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -14151,7 +15452,7 @@
         <v>97</v>
       </c>
       <c r="D73" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -14159,10 +15460,10 @@
         <v>51</v>
       </c>
       <c r="C74" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D74" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -14173,7 +15474,7 @@
         <v>3</v>
       </c>
       <c r="D75" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -14181,10 +15482,10 @@
         <v>51</v>
       </c>
       <c r="C76" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D76" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -14195,7 +15496,7 @@
         <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -14206,7 +15507,7 @@
         <v>113</v>
       </c>
       <c r="D78" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -14217,7 +15518,7 @@
         <v>115</v>
       </c>
       <c r="D79" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -14225,10 +15526,10 @@
         <v>51</v>
       </c>
       <c r="C80" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D80" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -14236,10 +15537,10 @@
         <v>51</v>
       </c>
       <c r="C81" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D81" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -14250,7 +15551,7 @@
         <v>109</v>
       </c>
       <c r="D82" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -14261,7 +15562,7 @@
         <v>93</v>
       </c>
       <c r="D83" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -14269,10 +15570,10 @@
         <v>51</v>
       </c>
       <c r="C84" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D84" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -14283,7 +15584,7 @@
         <v>111</v>
       </c>
       <c r="D85" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -14294,7 +15595,7 @@
         <v>92</v>
       </c>
       <c r="D86" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -14305,7 +15606,7 @@
         <v>91</v>
       </c>
       <c r="D87" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -14313,10 +15614,10 @@
         <v>51</v>
       </c>
       <c r="C88" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D88" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -14324,10 +15625,10 @@
         <v>51</v>
       </c>
       <c r="C89" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D89" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -14335,10 +15636,10 @@
         <v>51</v>
       </c>
       <c r="C90" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D90" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -14346,10 +15647,10 @@
         <v>51</v>
       </c>
       <c r="C91" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D91" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -14357,10 +15658,10 @@
         <v>51</v>
       </c>
       <c r="C92" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D92" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -14368,10 +15669,10 @@
         <v>51</v>
       </c>
       <c r="C93" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D93" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -14382,7 +15683,7 @@
         <v>119</v>
       </c>
       <c r="D94" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -14393,7 +15694,7 @@
         <v>121</v>
       </c>
       <c r="D95" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -14404,7 +15705,7 @@
         <v>36</v>
       </c>
       <c r="D96" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -14415,7 +15716,7 @@
         <v>36</v>
       </c>
       <c r="D97" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -14423,10 +15724,10 @@
         <v>51</v>
       </c>
       <c r="C98" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="D98" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -14437,7 +15738,7 @@
         <v>97</v>
       </c>
       <c r="D99" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -14448,7 +15749,7 @@
         <v>3</v>
       </c>
       <c r="D100" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -14459,7 +15760,7 @@
         <v>4</v>
       </c>
       <c r="D101" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -14470,7 +15771,7 @@
         <v>113</v>
       </c>
       <c r="D102" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -14478,10 +15779,10 @@
         <v>51</v>
       </c>
       <c r="C103" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D103" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -14489,10 +15790,10 @@
         <v>51</v>
       </c>
       <c r="C104" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D104" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -14500,10 +15801,10 @@
         <v>51</v>
       </c>
       <c r="C105" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D105" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -14514,7 +15815,7 @@
         <v>119</v>
       </c>
       <c r="D106" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -14525,7 +15826,7 @@
         <v>121</v>
       </c>
       <c r="D107" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -14536,7 +15837,7 @@
         <v>95</v>
       </c>
       <c r="D108" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -14547,51 +15848,51 @@
         <v>109</v>
       </c>
       <c r="D109" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="B110" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C110" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="B111" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C111" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="C112" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="D112" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="C113" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="D113" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>
